--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="116">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -313,6 +313,9 @@
     <t>['86', '90+2']</t>
   </si>
   <si>
+    <t>['52']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -353,6 +356,12 @@
   </si>
   <si>
     <t>['59', '77', '89']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
   </si>
 </sst>
 </file>
@@ -714,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP23"/>
+  <dimension ref="A1:BP25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1054,7 +1063,7 @@
         <v>3</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1385,7 +1394,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1669,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
         <v>1.5</v>
@@ -1797,7 +1806,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -1875,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ6">
         <v>3</v>
@@ -2209,7 +2218,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2621,7 +2630,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2827,7 +2836,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3111,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ12">
         <v>0.5</v>
@@ -3239,7 +3248,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3651,7 +3660,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -3857,7 +3866,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q16">
         <v>2.07</v>
@@ -3938,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="AQ16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4063,7 +4072,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q17">
         <v>2.2</v>
@@ -4269,7 +4278,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4475,7 +4484,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4887,7 +4896,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5093,7 +5102,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5186,7 +5195,7 @@
         <v>1.78</v>
       </c>
       <c r="AU22">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV22">
         <v>5</v>
@@ -5198,7 +5207,7 @@
         <v>4</v>
       </c>
       <c r="AY22">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ22">
         <v>9</v>
@@ -5299,7 +5308,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5392,7 +5401,7 @@
         <v>3.5</v>
       </c>
       <c r="AU23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV23">
         <v>9</v>
@@ -5404,7 +5413,7 @@
         <v>8</v>
       </c>
       <c r="AY23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ23">
         <v>17</v>
@@ -5456,6 +5465,418 @@
       </c>
       <c r="BP23">
         <v>1.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7294809</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45411.625</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>99</v>
+      </c>
+      <c r="P24" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q24">
+        <v>1.89</v>
+      </c>
+      <c r="R24">
+        <v>2.71</v>
+      </c>
+      <c r="S24">
+        <v>6.14</v>
+      </c>
+      <c r="T24">
+        <v>1.26</v>
+      </c>
+      <c r="U24">
+        <v>3.62</v>
+      </c>
+      <c r="V24">
+        <v>2.28</v>
+      </c>
+      <c r="W24">
+        <v>1.63</v>
+      </c>
+      <c r="X24">
+        <v>5</v>
+      </c>
+      <c r="Y24">
+        <v>1.15</v>
+      </c>
+      <c r="Z24">
+        <v>1.47</v>
+      </c>
+      <c r="AA24">
+        <v>4.5</v>
+      </c>
+      <c r="AB24">
+        <v>5.2</v>
+      </c>
+      <c r="AC24">
+        <v>1.02</v>
+      </c>
+      <c r="AD24">
+        <v>10</v>
+      </c>
+      <c r="AE24">
+        <v>1.13</v>
+      </c>
+      <c r="AF24">
+        <v>4.75</v>
+      </c>
+      <c r="AG24">
+        <v>1.5</v>
+      </c>
+      <c r="AH24">
+        <v>2.4</v>
+      </c>
+      <c r="AI24">
+        <v>1.66</v>
+      </c>
+      <c r="AJ24">
+        <v>2.09</v>
+      </c>
+      <c r="AK24">
+        <v>1.1</v>
+      </c>
+      <c r="AL24">
+        <v>1.17</v>
+      </c>
+      <c r="AM24">
+        <v>2.66</v>
+      </c>
+      <c r="AN24">
+        <v>3</v>
+      </c>
+      <c r="AO24">
+        <v>3</v>
+      </c>
+      <c r="AP24">
+        <v>2</v>
+      </c>
+      <c r="AQ24">
+        <v>2</v>
+      </c>
+      <c r="AR24">
+        <v>1.96</v>
+      </c>
+      <c r="AS24">
+        <v>1.58</v>
+      </c>
+      <c r="AT24">
+        <v>3.54</v>
+      </c>
+      <c r="AU24">
+        <v>-1</v>
+      </c>
+      <c r="AV24">
+        <v>-1</v>
+      </c>
+      <c r="AW24">
+        <v>-1</v>
+      </c>
+      <c r="AX24">
+        <v>-1</v>
+      </c>
+      <c r="AY24">
+        <v>-1</v>
+      </c>
+      <c r="AZ24">
+        <v>-1</v>
+      </c>
+      <c r="BA24">
+        <v>-1</v>
+      </c>
+      <c r="BB24">
+        <v>-1</v>
+      </c>
+      <c r="BC24">
+        <v>-1</v>
+      </c>
+      <c r="BD24">
+        <v>1.41</v>
+      </c>
+      <c r="BE24">
+        <v>9.5</v>
+      </c>
+      <c r="BF24">
+        <v>3.35</v>
+      </c>
+      <c r="BG24">
+        <v>0</v>
+      </c>
+      <c r="BH24">
+        <v>0</v>
+      </c>
+      <c r="BI24">
+        <v>1.13</v>
+      </c>
+      <c r="BJ24">
+        <v>4.8</v>
+      </c>
+      <c r="BK24">
+        <v>1.27</v>
+      </c>
+      <c r="BL24">
+        <v>3.28</v>
+      </c>
+      <c r="BM24">
+        <v>1.52</v>
+      </c>
+      <c r="BN24">
+        <v>2.49</v>
+      </c>
+      <c r="BO24">
+        <v>2</v>
+      </c>
+      <c r="BP24">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7294810</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45411.67708333334</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>91</v>
+      </c>
+      <c r="P25" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q25">
+        <v>3.6</v>
+      </c>
+      <c r="R25">
+        <v>2.5</v>
+      </c>
+      <c r="S25">
+        <v>2.38</v>
+      </c>
+      <c r="T25">
+        <v>1.25</v>
+      </c>
+      <c r="U25">
+        <v>3.72</v>
+      </c>
+      <c r="V25">
+        <v>2.16</v>
+      </c>
+      <c r="W25">
+        <v>1.65</v>
+      </c>
+      <c r="X25">
+        <v>4.75</v>
+      </c>
+      <c r="Y25">
+        <v>1.17</v>
+      </c>
+      <c r="Z25">
+        <v>3.45</v>
+      </c>
+      <c r="AA25">
+        <v>3.8</v>
+      </c>
+      <c r="AB25">
+        <v>1.82</v>
+      </c>
+      <c r="AC25">
+        <v>1.02</v>
+      </c>
+      <c r="AD25">
+        <v>13</v>
+      </c>
+      <c r="AE25">
+        <v>1.11</v>
+      </c>
+      <c r="AF25">
+        <v>5.1</v>
+      </c>
+      <c r="AG25">
+        <v>1.44</v>
+      </c>
+      <c r="AH25">
+        <v>2.6</v>
+      </c>
+      <c r="AI25">
+        <v>1.44</v>
+      </c>
+      <c r="AJ25">
+        <v>2.57</v>
+      </c>
+      <c r="AK25">
+        <v>1.86</v>
+      </c>
+      <c r="AL25">
+        <v>1.23</v>
+      </c>
+      <c r="AM25">
+        <v>1.28</v>
+      </c>
+      <c r="AN25">
+        <v>0.5</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0.33</v>
+      </c>
+      <c r="AQ25">
+        <v>1.5</v>
+      </c>
+      <c r="AR25">
+        <v>1.51</v>
+      </c>
+      <c r="AS25">
+        <v>1.58</v>
+      </c>
+      <c r="AT25">
+        <v>3.09</v>
+      </c>
+      <c r="AU25">
+        <v>6</v>
+      </c>
+      <c r="AV25">
+        <v>4</v>
+      </c>
+      <c r="AW25">
+        <v>8</v>
+      </c>
+      <c r="AX25">
+        <v>6</v>
+      </c>
+      <c r="AY25">
+        <v>14</v>
+      </c>
+      <c r="AZ25">
+        <v>10</v>
+      </c>
+      <c r="BA25">
+        <v>7</v>
+      </c>
+      <c r="BB25">
+        <v>6</v>
+      </c>
+      <c r="BC25">
+        <v>13</v>
+      </c>
+      <c r="BD25">
+        <v>2.63</v>
+      </c>
+      <c r="BE25">
+        <v>9</v>
+      </c>
+      <c r="BF25">
+        <v>1.64</v>
+      </c>
+      <c r="BG25">
+        <v>0</v>
+      </c>
+      <c r="BH25">
+        <v>0</v>
+      </c>
+      <c r="BI25">
+        <v>1.14</v>
+      </c>
+      <c r="BJ25">
+        <v>4.55</v>
+      </c>
+      <c r="BK25">
+        <v>1.28</v>
+      </c>
+      <c r="BL25">
+        <v>3.18</v>
+      </c>
+      <c r="BM25">
+        <v>1.51</v>
+      </c>
+      <c r="BN25">
+        <v>2.32</v>
+      </c>
+      <c r="BO25">
+        <v>1.9</v>
+      </c>
+      <c r="BP25">
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -5813,31 +5813,31 @@
         <v>3.09</v>
       </c>
       <c r="AU25">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AV25">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW25">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AX25">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AY25">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AZ25">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BA25">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BB25">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BC25">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="BD25">
         <v>2.63</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -5607,31 +5607,31 @@
         <v>3.54</v>
       </c>
       <c r="AU24">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ24">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB24">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD24">
         <v>1.41</v>
@@ -5813,31 +5813,31 @@
         <v>3.09</v>
       </c>
       <c r="AU25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV25">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY25">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC25">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD25">
         <v>2.63</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="118">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -316,6 +316,9 @@
     <t>['52']</t>
   </si>
   <si>
+    <t>['25', '47', '67']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -362,6 +365,9 @@
   </si>
   <si>
     <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['13', '45+4']</t>
   </si>
 </sst>
 </file>
@@ -723,7 +729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP25"/>
+  <dimension ref="A1:BP26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1269,7 +1275,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1394,7 +1400,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1806,7 +1812,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2218,7 +2224,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2505,7 +2511,7 @@
         <v>3</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR9">
         <v>1.31</v>
@@ -2630,7 +2636,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2836,7 +2842,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3248,7 +3254,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3660,7 +3666,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -3866,7 +3872,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q16">
         <v>2.07</v>
@@ -4072,7 +4078,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q17">
         <v>2.2</v>
@@ -4153,7 +4159,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR17">
         <v>2.26</v>
@@ -4278,7 +4284,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4484,7 +4490,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4896,7 +4902,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5102,7 +5108,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5308,7 +5314,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5514,7 +5520,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -5720,7 +5726,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -5877,6 +5883,212 @@
       </c>
       <c r="BP25">
         <v>1.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7294811</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <v>5</v>
+      </c>
+      <c r="O26" t="s">
+        <v>100</v>
+      </c>
+      <c r="P26" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q26">
+        <v>1.78</v>
+      </c>
+      <c r="R26">
+        <v>2.75</v>
+      </c>
+      <c r="S26">
+        <v>6</v>
+      </c>
+      <c r="T26">
+        <v>1.22</v>
+      </c>
+      <c r="U26">
+        <v>3.8</v>
+      </c>
+      <c r="V26">
+        <v>2.1</v>
+      </c>
+      <c r="W26">
+        <v>1.67</v>
+      </c>
+      <c r="X26">
+        <v>4.33</v>
+      </c>
+      <c r="Y26">
+        <v>1.18</v>
+      </c>
+      <c r="Z26">
+        <v>1.38</v>
+      </c>
+      <c r="AA26">
+        <v>4.8</v>
+      </c>
+      <c r="AB26">
+        <v>6.1</v>
+      </c>
+      <c r="AC26">
+        <v>1.01</v>
+      </c>
+      <c r="AD26">
+        <v>10.75</v>
+      </c>
+      <c r="AE26">
+        <v>1.12</v>
+      </c>
+      <c r="AF26">
+        <v>5.25</v>
+      </c>
+      <c r="AG26">
+        <v>1.41</v>
+      </c>
+      <c r="AH26">
+        <v>2.5</v>
+      </c>
+      <c r="AI26">
+        <v>1.67</v>
+      </c>
+      <c r="AJ26">
+        <v>2.1</v>
+      </c>
+      <c r="AK26">
+        <v>1.09</v>
+      </c>
+      <c r="AL26">
+        <v>1.17</v>
+      </c>
+      <c r="AM26">
+        <v>3</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>1</v>
+      </c>
+      <c r="AP26">
+        <v>3</v>
+      </c>
+      <c r="AQ26">
+        <v>0.75</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>1.03</v>
+      </c>
+      <c r="AT26">
+        <v>1.03</v>
+      </c>
+      <c r="AU26">
+        <v>-1</v>
+      </c>
+      <c r="AV26">
+        <v>-1</v>
+      </c>
+      <c r="AW26">
+        <v>-1</v>
+      </c>
+      <c r="AX26">
+        <v>-1</v>
+      </c>
+      <c r="AY26">
+        <v>-1</v>
+      </c>
+      <c r="AZ26">
+        <v>-1</v>
+      </c>
+      <c r="BA26">
+        <v>-1</v>
+      </c>
+      <c r="BB26">
+        <v>-1</v>
+      </c>
+      <c r="BC26">
+        <v>-1</v>
+      </c>
+      <c r="BD26">
+        <v>1.21</v>
+      </c>
+      <c r="BE26">
+        <v>12.25</v>
+      </c>
+      <c r="BF26">
+        <v>5.05</v>
+      </c>
+      <c r="BG26">
+        <v>1.12</v>
+      </c>
+      <c r="BH26">
+        <v>5.25</v>
+      </c>
+      <c r="BI26">
+        <v>1.25</v>
+      </c>
+      <c r="BJ26">
+        <v>3.6</v>
+      </c>
+      <c r="BK26">
+        <v>1.42</v>
+      </c>
+      <c r="BL26">
+        <v>2.62</v>
+      </c>
+      <c r="BM26">
+        <v>1.67</v>
+      </c>
+      <c r="BN26">
+        <v>2.17</v>
+      </c>
+      <c r="BO26">
+        <v>2.06</v>
+      </c>
+      <c r="BP26">
+        <v>1.74</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -6025,31 +6025,31 @@
         <v>1.03</v>
       </c>
       <c r="AU26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV26">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX26">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY26">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB26">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD26">
         <v>1.21</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="126">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -319,6 +319,18 @@
     <t>['25', '47', '67']</t>
   </si>
   <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['28', '60', '64', '75']</t>
+  </si>
+  <si>
+    <t>['36', '38']</t>
+  </si>
+  <si>
+    <t>['27', '55', '90+7']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -368,6 +380,18 @@
   </si>
   <si>
     <t>['13', '45+4']</t>
+  </si>
+  <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['58']</t>
   </si>
 </sst>
 </file>
@@ -729,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP26"/>
+  <dimension ref="A1:BP30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1272,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>0.75</v>
@@ -1400,7 +1424,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1478,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ4">
         <v>0.5</v>
@@ -1687,7 +1711,7 @@
         <v>2</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1812,7 +1836,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -1893,7 +1917,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ6">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2224,7 +2248,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2302,10 +2326,10 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2636,7 +2660,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2714,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ10">
         <v>2.25</v>
@@ -2842,7 +2866,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -2920,10 +2944,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3254,7 +3278,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3332,10 +3356,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
+        <v>2</v>
+      </c>
+      <c r="AQ13">
         <v>1.5</v>
-      </c>
-      <c r="AQ13">
-        <v>3</v>
       </c>
       <c r="AR13">
         <v>1.23</v>
@@ -3538,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>0.5</v>
@@ -3666,7 +3690,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -3744,7 +3768,7 @@
         <v>1.5</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <v>2.25</v>
@@ -3872,7 +3896,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q16">
         <v>2.07</v>
@@ -4078,7 +4102,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q17">
         <v>2.2</v>
@@ -4156,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ17">
         <v>0.75</v>
@@ -4284,7 +4308,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4490,7 +4514,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4902,7 +4926,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5108,7 +5132,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5314,7 +5338,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5520,7 +5544,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -5726,7 +5750,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -5932,7 +5956,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6089,6 +6113,830 @@
       </c>
       <c r="BP26">
         <v>1.74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7294814</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45417.54166666666</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27" t="s">
+        <v>101</v>
+      </c>
+      <c r="P27" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q27">
+        <v>3.35</v>
+      </c>
+      <c r="R27">
+        <v>2.55</v>
+      </c>
+      <c r="S27">
+        <v>2.74</v>
+      </c>
+      <c r="T27">
+        <v>1.25</v>
+      </c>
+      <c r="U27">
+        <v>3.6</v>
+      </c>
+      <c r="V27">
+        <v>2.15</v>
+      </c>
+      <c r="W27">
+        <v>1.62</v>
+      </c>
+      <c r="X27">
+        <v>4.4</v>
+      </c>
+      <c r="Y27">
+        <v>1.17</v>
+      </c>
+      <c r="Z27">
+        <v>2.62</v>
+      </c>
+      <c r="AA27">
+        <v>3.5</v>
+      </c>
+      <c r="AB27">
+        <v>2.21</v>
+      </c>
+      <c r="AC27">
+        <v>1.02</v>
+      </c>
+      <c r="AD27">
+        <v>10</v>
+      </c>
+      <c r="AE27">
+        <v>1.11</v>
+      </c>
+      <c r="AF27">
+        <v>5.3</v>
+      </c>
+      <c r="AG27">
+        <v>1.45</v>
+      </c>
+      <c r="AH27">
+        <v>2.55</v>
+      </c>
+      <c r="AI27">
+        <v>1.4</v>
+      </c>
+      <c r="AJ27">
+        <v>2.7</v>
+      </c>
+      <c r="AK27">
+        <v>1.6</v>
+      </c>
+      <c r="AL27">
+        <v>1.27</v>
+      </c>
+      <c r="AM27">
+        <v>1.32</v>
+      </c>
+      <c r="AN27">
+        <v>0.33</v>
+      </c>
+      <c r="AO27">
+        <v>3</v>
+      </c>
+      <c r="AP27">
+        <v>0.5</v>
+      </c>
+      <c r="AQ27">
+        <v>2.33</v>
+      </c>
+      <c r="AR27">
+        <v>1.91</v>
+      </c>
+      <c r="AS27">
+        <v>2.43</v>
+      </c>
+      <c r="AT27">
+        <v>4.34</v>
+      </c>
+      <c r="AU27">
+        <v>5</v>
+      </c>
+      <c r="AV27">
+        <v>5</v>
+      </c>
+      <c r="AW27">
+        <v>12</v>
+      </c>
+      <c r="AX27">
+        <v>8</v>
+      </c>
+      <c r="AY27">
+        <v>17</v>
+      </c>
+      <c r="AZ27">
+        <v>13</v>
+      </c>
+      <c r="BA27">
+        <v>8</v>
+      </c>
+      <c r="BB27">
+        <v>4</v>
+      </c>
+      <c r="BC27">
+        <v>12</v>
+      </c>
+      <c r="BD27">
+        <v>1.97</v>
+      </c>
+      <c r="BE27">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF27">
+        <v>2.02</v>
+      </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
+      <c r="BH27">
+        <v>0</v>
+      </c>
+      <c r="BI27">
+        <v>1.14</v>
+      </c>
+      <c r="BJ27">
+        <v>4.55</v>
+      </c>
+      <c r="BK27">
+        <v>1.29</v>
+      </c>
+      <c r="BL27">
+        <v>3.14</v>
+      </c>
+      <c r="BM27">
+        <v>1.57</v>
+      </c>
+      <c r="BN27">
+        <v>2.36</v>
+      </c>
+      <c r="BO27">
+        <v>1.91</v>
+      </c>
+      <c r="BP27">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7294813</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45417.58333333334</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>4</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>5</v>
+      </c>
+      <c r="O28" t="s">
+        <v>102</v>
+      </c>
+      <c r="P28" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q28">
+        <v>2.25</v>
+      </c>
+      <c r="R28">
+        <v>2.4</v>
+      </c>
+      <c r="S28">
+        <v>4</v>
+      </c>
+      <c r="T28">
+        <v>1.25</v>
+      </c>
+      <c r="U28">
+        <v>3.75</v>
+      </c>
+      <c r="V28">
+        <v>2.2</v>
+      </c>
+      <c r="W28">
+        <v>1.62</v>
+      </c>
+      <c r="X28">
+        <v>4.5</v>
+      </c>
+      <c r="Y28">
+        <v>1.17</v>
+      </c>
+      <c r="Z28">
+        <v>1.74</v>
+      </c>
+      <c r="AA28">
+        <v>3.95</v>
+      </c>
+      <c r="AB28">
+        <v>3.65</v>
+      </c>
+      <c r="AC28">
+        <v>1.02</v>
+      </c>
+      <c r="AD28">
+        <v>15</v>
+      </c>
+      <c r="AE28">
+        <v>1.17</v>
+      </c>
+      <c r="AF28">
+        <v>4.75</v>
+      </c>
+      <c r="AG28">
+        <v>1.45</v>
+      </c>
+      <c r="AH28">
+        <v>2.37</v>
+      </c>
+      <c r="AI28">
+        <v>1.53</v>
+      </c>
+      <c r="AJ28">
+        <v>2.38</v>
+      </c>
+      <c r="AK28">
+        <v>1.25</v>
+      </c>
+      <c r="AL28">
+        <v>1.24</v>
+      </c>
+      <c r="AM28">
+        <v>1.8</v>
+      </c>
+      <c r="AN28">
+        <v>1.5</v>
+      </c>
+      <c r="AO28">
+        <v>1.5</v>
+      </c>
+      <c r="AP28">
+        <v>2</v>
+      </c>
+      <c r="AQ28">
+        <v>1</v>
+      </c>
+      <c r="AR28">
+        <v>1.42</v>
+      </c>
+      <c r="AS28">
+        <v>1.97</v>
+      </c>
+      <c r="AT28">
+        <v>3.39</v>
+      </c>
+      <c r="AU28">
+        <v>7</v>
+      </c>
+      <c r="AV28">
+        <v>3</v>
+      </c>
+      <c r="AW28">
+        <v>4</v>
+      </c>
+      <c r="AX28">
+        <v>6</v>
+      </c>
+      <c r="AY28">
+        <v>11</v>
+      </c>
+      <c r="AZ28">
+        <v>9</v>
+      </c>
+      <c r="BA28">
+        <v>9</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>9</v>
+      </c>
+      <c r="BD28">
+        <v>1.62</v>
+      </c>
+      <c r="BE28">
+        <v>10</v>
+      </c>
+      <c r="BF28">
+        <v>2.59</v>
+      </c>
+      <c r="BG28">
+        <v>1.11</v>
+      </c>
+      <c r="BH28">
+        <v>5.5</v>
+      </c>
+      <c r="BI28">
+        <v>1.16</v>
+      </c>
+      <c r="BJ28">
+        <v>4.33</v>
+      </c>
+      <c r="BK28">
+        <v>1.32</v>
+      </c>
+      <c r="BL28">
+        <v>2.98</v>
+      </c>
+      <c r="BM28">
+        <v>1.55</v>
+      </c>
+      <c r="BN28">
+        <v>2.23</v>
+      </c>
+      <c r="BO28">
+        <v>1.92</v>
+      </c>
+      <c r="BP28">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7294812</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45417.67708333334</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29" t="s">
+        <v>103</v>
+      </c>
+      <c r="P29" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q29">
+        <v>2.25</v>
+      </c>
+      <c r="R29">
+        <v>2.4</v>
+      </c>
+      <c r="S29">
+        <v>4</v>
+      </c>
+      <c r="T29">
+        <v>1.25</v>
+      </c>
+      <c r="U29">
+        <v>3.75</v>
+      </c>
+      <c r="V29">
+        <v>2.2</v>
+      </c>
+      <c r="W29">
+        <v>1.62</v>
+      </c>
+      <c r="X29">
+        <v>4.5</v>
+      </c>
+      <c r="Y29">
+        <v>1.17</v>
+      </c>
+      <c r="Z29">
+        <v>1.7</v>
+      </c>
+      <c r="AA29">
+        <v>3.8</v>
+      </c>
+      <c r="AB29">
+        <v>3.8</v>
+      </c>
+      <c r="AC29">
+        <v>1.01</v>
+      </c>
+      <c r="AD29">
+        <v>10.25</v>
+      </c>
+      <c r="AE29">
+        <v>1.14</v>
+      </c>
+      <c r="AF29">
+        <v>4.87</v>
+      </c>
+      <c r="AG29">
+        <v>1.45</v>
+      </c>
+      <c r="AH29">
+        <v>2.37</v>
+      </c>
+      <c r="AI29">
+        <v>1.53</v>
+      </c>
+      <c r="AJ29">
+        <v>2.38</v>
+      </c>
+      <c r="AK29">
+        <v>1.22</v>
+      </c>
+      <c r="AL29">
+        <v>1.23</v>
+      </c>
+      <c r="AM29">
+        <v>1.85</v>
+      </c>
+      <c r="AN29">
+        <v>1.5</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>2</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>1.38</v>
+      </c>
+      <c r="AS29">
+        <v>1.89</v>
+      </c>
+      <c r="AT29">
+        <v>3.27</v>
+      </c>
+      <c r="AU29">
+        <v>9</v>
+      </c>
+      <c r="AV29">
+        <v>4</v>
+      </c>
+      <c r="AW29">
+        <v>5</v>
+      </c>
+      <c r="AX29">
+        <v>5</v>
+      </c>
+      <c r="AY29">
+        <v>14</v>
+      </c>
+      <c r="AZ29">
+        <v>9</v>
+      </c>
+      <c r="BA29">
+        <v>3</v>
+      </c>
+      <c r="BB29">
+        <v>7</v>
+      </c>
+      <c r="BC29">
+        <v>10</v>
+      </c>
+      <c r="BD29">
+        <v>1.63</v>
+      </c>
+      <c r="BE29">
+        <v>9.4</v>
+      </c>
+      <c r="BF29">
+        <v>2.59</v>
+      </c>
+      <c r="BG29">
+        <v>1.17</v>
+      </c>
+      <c r="BH29">
+        <v>4.5</v>
+      </c>
+      <c r="BI29">
+        <v>1.3</v>
+      </c>
+      <c r="BJ29">
+        <v>3.2</v>
+      </c>
+      <c r="BK29">
+        <v>1.5</v>
+      </c>
+      <c r="BL29">
+        <v>2.52</v>
+      </c>
+      <c r="BM29">
+        <v>1.83</v>
+      </c>
+      <c r="BN29">
+        <v>1.97</v>
+      </c>
+      <c r="BO29">
+        <v>2.28</v>
+      </c>
+      <c r="BP29">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7294815</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45417.67708333334</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30" t="s">
+        <v>104</v>
+      </c>
+      <c r="P30" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q30">
+        <v>7.53</v>
+      </c>
+      <c r="R30">
+        <v>3.06</v>
+      </c>
+      <c r="S30">
+        <v>1.67</v>
+      </c>
+      <c r="T30">
+        <v>1.2</v>
+      </c>
+      <c r="U30">
+        <v>4</v>
+      </c>
+      <c r="V30">
+        <v>1.93</v>
+      </c>
+      <c r="W30">
+        <v>1.75</v>
+      </c>
+      <c r="X30">
+        <v>4.1</v>
+      </c>
+      <c r="Y30">
+        <v>1.2</v>
+      </c>
+      <c r="Z30">
+        <v>11</v>
+      </c>
+      <c r="AA30">
+        <v>7.5</v>
+      </c>
+      <c r="AB30">
+        <v>1.13</v>
+      </c>
+      <c r="AC30">
+        <v>1.02</v>
+      </c>
+      <c r="AD30">
+        <v>15</v>
+      </c>
+      <c r="AE30">
+        <v>1.07</v>
+      </c>
+      <c r="AF30">
+        <v>6.5</v>
+      </c>
+      <c r="AG30">
+        <v>1.28</v>
+      </c>
+      <c r="AH30">
+        <v>3.06</v>
+      </c>
+      <c r="AI30">
+        <v>1.67</v>
+      </c>
+      <c r="AJ30">
+        <v>2.1</v>
+      </c>
+      <c r="AK30">
+        <v>3.5</v>
+      </c>
+      <c r="AL30">
+        <v>1.14</v>
+      </c>
+      <c r="AM30">
+        <v>1.07</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>3</v>
+      </c>
+      <c r="AP30">
+        <v>1</v>
+      </c>
+      <c r="AQ30">
+        <v>1.5</v>
+      </c>
+      <c r="AR30">
+        <v>1.2</v>
+      </c>
+      <c r="AS30">
+        <v>1.58</v>
+      </c>
+      <c r="AT30">
+        <v>2.78</v>
+      </c>
+      <c r="AU30">
+        <v>5</v>
+      </c>
+      <c r="AV30">
+        <v>4</v>
+      </c>
+      <c r="AW30">
+        <v>1</v>
+      </c>
+      <c r="AX30">
+        <v>11</v>
+      </c>
+      <c r="AY30">
+        <v>6</v>
+      </c>
+      <c r="AZ30">
+        <v>15</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <v>8</v>
+      </c>
+      <c r="BC30">
+        <v>8</v>
+      </c>
+      <c r="BD30">
+        <v>4.15</v>
+      </c>
+      <c r="BE30">
+        <v>11.25</v>
+      </c>
+      <c r="BF30">
+        <v>1.29</v>
+      </c>
+      <c r="BG30">
+        <v>1.12</v>
+      </c>
+      <c r="BH30">
+        <v>5.25</v>
+      </c>
+      <c r="BI30">
+        <v>1.16</v>
+      </c>
+      <c r="BJ30">
+        <v>4.25</v>
+      </c>
+      <c r="BK30">
+        <v>1.32</v>
+      </c>
+      <c r="BL30">
+        <v>2.98</v>
+      </c>
+      <c r="BM30">
+        <v>1.62</v>
+      </c>
+      <c r="BN30">
+        <v>2.24</v>
+      </c>
+      <c r="BO30">
+        <v>1.98</v>
+      </c>
+      <c r="BP30">
+        <v>1.82</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="128">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -331,6 +331,9 @@
     <t>['27', '55', '90+7']</t>
   </si>
   <si>
+    <t>['36', '67']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -392,6 +395,9 @@
   </si>
   <si>
     <t>['58']</t>
+  </si>
+  <si>
+    <t>['28', '32', '53']</t>
   </si>
 </sst>
 </file>
@@ -753,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP30"/>
+  <dimension ref="A1:BP31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1424,7 +1430,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1836,7 +1842,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2120,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
         <v>2.25</v>
@@ -2248,7 +2254,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2532,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>0.75</v>
@@ -2660,7 +2666,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2866,7 +2872,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3153,7 +3159,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ12">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR12">
         <v>1.36</v>
@@ -3278,7 +3284,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3565,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR14">
         <v>1.31</v>
@@ -3690,7 +3696,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -3896,7 +3902,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16">
         <v>2.07</v>
@@ -4102,7 +4108,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17">
         <v>2.2</v>
@@ -4308,7 +4314,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4514,7 +4520,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4926,7 +4932,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5132,7 +5138,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5338,7 +5344,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5544,7 +5550,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -5750,7 +5756,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -5956,7 +5962,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6162,7 +6168,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q27">
         <v>3.35</v>
@@ -6368,7 +6374,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6461,22 +6467,22 @@
         <v>3.39</v>
       </c>
       <c r="AU28">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX28">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY28">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ28">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA28">
         <v>9</v>
@@ -6574,7 +6580,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -6780,7 +6786,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -6937,6 +6943,212 @@
       </c>
       <c r="BP30">
         <v>1.82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7294816</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45418.67708333334</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <v>5</v>
+      </c>
+      <c r="O31" t="s">
+        <v>105</v>
+      </c>
+      <c r="P31" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q31">
+        <v>2.34</v>
+      </c>
+      <c r="R31">
+        <v>2.21</v>
+      </c>
+      <c r="S31">
+        <v>3.43</v>
+      </c>
+      <c r="T31">
+        <v>1.3</v>
+      </c>
+      <c r="U31">
+        <v>3.25</v>
+      </c>
+      <c r="V31">
+        <v>2.4</v>
+      </c>
+      <c r="W31">
+        <v>1.5</v>
+      </c>
+      <c r="X31">
+        <v>5</v>
+      </c>
+      <c r="Y31">
+        <v>1.14</v>
+      </c>
+      <c r="Z31">
+        <v>1.75</v>
+      </c>
+      <c r="AA31">
+        <v>3.6</v>
+      </c>
+      <c r="AB31">
+        <v>3.75</v>
+      </c>
+      <c r="AC31">
+        <v>1.02</v>
+      </c>
+      <c r="AD31">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE31">
+        <v>1.19</v>
+      </c>
+      <c r="AF31">
+        <v>4.23</v>
+      </c>
+      <c r="AG31">
+        <v>1.6</v>
+      </c>
+      <c r="AH31">
+        <v>2.19</v>
+      </c>
+      <c r="AI31">
+        <v>1.55</v>
+      </c>
+      <c r="AJ31">
+        <v>2.2</v>
+      </c>
+      <c r="AK31">
+        <v>1.17</v>
+      </c>
+      <c r="AL31">
+        <v>1.19</v>
+      </c>
+      <c r="AM31">
+        <v>2.03</v>
+      </c>
+      <c r="AN31">
+        <v>3</v>
+      </c>
+      <c r="AO31">
+        <v>0.5</v>
+      </c>
+      <c r="AP31">
+        <v>2</v>
+      </c>
+      <c r="AQ31">
+        <v>1.33</v>
+      </c>
+      <c r="AR31">
+        <v>1.92</v>
+      </c>
+      <c r="AS31">
+        <v>2.08</v>
+      </c>
+      <c r="AT31">
+        <v>4</v>
+      </c>
+      <c r="AU31">
+        <v>7</v>
+      </c>
+      <c r="AV31">
+        <v>7</v>
+      </c>
+      <c r="AW31">
+        <v>8</v>
+      </c>
+      <c r="AX31">
+        <v>8</v>
+      </c>
+      <c r="AY31">
+        <v>15</v>
+      </c>
+      <c r="AZ31">
+        <v>15</v>
+      </c>
+      <c r="BA31">
+        <v>10</v>
+      </c>
+      <c r="BB31">
+        <v>4</v>
+      </c>
+      <c r="BC31">
+        <v>14</v>
+      </c>
+      <c r="BD31">
+        <v>1.64</v>
+      </c>
+      <c r="BE31">
+        <v>9.6</v>
+      </c>
+      <c r="BF31">
+        <v>2.55</v>
+      </c>
+      <c r="BG31">
+        <v>1.12</v>
+      </c>
+      <c r="BH31">
+        <v>5.7</v>
+      </c>
+      <c r="BI31">
+        <v>1.25</v>
+      </c>
+      <c r="BJ31">
+        <v>3.7</v>
+      </c>
+      <c r="BK31">
+        <v>1.45</v>
+      </c>
+      <c r="BL31">
+        <v>2.6</v>
+      </c>
+      <c r="BM31">
+        <v>1.75</v>
+      </c>
+      <c r="BN31">
+        <v>2</v>
+      </c>
+      <c r="BO31">
+        <v>2.23</v>
+      </c>
+      <c r="BP31">
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="129">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -334,6 +334,9 @@
     <t>['36', '67']</t>
   </si>
   <si>
+    <t>['30']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -391,13 +394,13 @@
     <t>['9']</t>
   </si>
   <si>
-    <t>['30']</t>
-  </si>
-  <si>
     <t>['58']</t>
   </si>
   <si>
     <t>['28', '32', '53']</t>
+  </si>
+  <si>
+    <t>['66']</t>
   </si>
 </sst>
 </file>
@@ -759,7 +762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP31"/>
+  <dimension ref="A1:BP32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1430,7 +1433,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1842,7 +1845,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2254,7 +2257,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2332,7 +2335,7 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8">
         <v>2.33</v>
@@ -2666,7 +2669,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2872,7 +2875,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3284,7 +3287,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3568,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ14">
         <v>1.33</v>
@@ -3696,7 +3699,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -3902,7 +3905,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16">
         <v>2.07</v>
@@ -3983,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4108,7 +4111,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q17">
         <v>2.2</v>
@@ -4314,7 +4317,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4520,7 +4523,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4932,7 +4935,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5138,7 +5141,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5344,7 +5347,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5550,7 +5553,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -5631,7 +5634,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR24">
         <v>1.96</v>
@@ -5756,7 +5759,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -5962,7 +5965,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6168,7 +6171,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q27">
         <v>3.35</v>
@@ -6374,7 +6377,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6452,7 +6455,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -6580,7 +6583,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7149,6 +7152,212 @@
       </c>
       <c r="BP31">
         <v>1.61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7294822</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45422.67708333334</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" t="s">
+        <v>71</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32" t="s">
+        <v>106</v>
+      </c>
+      <c r="P32" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q32">
+        <v>2.13</v>
+      </c>
+      <c r="R32">
+        <v>2.57</v>
+      </c>
+      <c r="S32">
+        <v>5.09</v>
+      </c>
+      <c r="T32">
+        <v>1.28</v>
+      </c>
+      <c r="U32">
+        <v>3.3</v>
+      </c>
+      <c r="V32">
+        <v>2.25</v>
+      </c>
+      <c r="W32">
+        <v>1.57</v>
+      </c>
+      <c r="X32">
+        <v>5</v>
+      </c>
+      <c r="Y32">
+        <v>1.13</v>
+      </c>
+      <c r="Z32">
+        <v>1.63</v>
+      </c>
+      <c r="AA32">
+        <v>3.8</v>
+      </c>
+      <c r="AB32">
+        <v>4.5</v>
+      </c>
+      <c r="AC32">
+        <v>1.04</v>
+      </c>
+      <c r="AD32">
+        <v>9.5</v>
+      </c>
+      <c r="AE32">
+        <v>1.18</v>
+      </c>
+      <c r="AF32">
+        <v>4.5</v>
+      </c>
+      <c r="AG32">
+        <v>1.54</v>
+      </c>
+      <c r="AH32">
+        <v>2.35</v>
+      </c>
+      <c r="AI32">
+        <v>1.55</v>
+      </c>
+      <c r="AJ32">
+        <v>2.2</v>
+      </c>
+      <c r="AK32">
+        <v>1.11</v>
+      </c>
+      <c r="AL32">
+        <v>1.2</v>
+      </c>
+      <c r="AM32">
+        <v>2.25</v>
+      </c>
+      <c r="AN32">
+        <v>2</v>
+      </c>
+      <c r="AO32">
+        <v>2</v>
+      </c>
+      <c r="AP32">
+        <v>1.75</v>
+      </c>
+      <c r="AQ32">
+        <v>1.67</v>
+      </c>
+      <c r="AR32">
+        <v>1.74</v>
+      </c>
+      <c r="AS32">
+        <v>1.64</v>
+      </c>
+      <c r="AT32">
+        <v>3.38</v>
+      </c>
+      <c r="AU32">
+        <v>3</v>
+      </c>
+      <c r="AV32">
+        <v>4</v>
+      </c>
+      <c r="AW32">
+        <v>4</v>
+      </c>
+      <c r="AX32">
+        <v>6</v>
+      </c>
+      <c r="AY32">
+        <v>7</v>
+      </c>
+      <c r="AZ32">
+        <v>10</v>
+      </c>
+      <c r="BA32">
+        <v>8</v>
+      </c>
+      <c r="BB32">
+        <v>2</v>
+      </c>
+      <c r="BC32">
+        <v>10</v>
+      </c>
+      <c r="BD32">
+        <v>1.41</v>
+      </c>
+      <c r="BE32">
+        <v>9.5</v>
+      </c>
+      <c r="BF32">
+        <v>3.35</v>
+      </c>
+      <c r="BG32">
+        <v>1.11</v>
+      </c>
+      <c r="BH32">
+        <v>5.5</v>
+      </c>
+      <c r="BI32">
+        <v>1.18</v>
+      </c>
+      <c r="BJ32">
+        <v>4.2</v>
+      </c>
+      <c r="BK32">
+        <v>1.35</v>
+      </c>
+      <c r="BL32">
+        <v>2.9</v>
+      </c>
+      <c r="BM32">
+        <v>1.64</v>
+      </c>
+      <c r="BN32">
+        <v>2.24</v>
+      </c>
+      <c r="BO32">
+        <v>2.02</v>
+      </c>
+      <c r="BP32">
+        <v>1.79</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="131">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -335,6 +335,12 @@
   </si>
   <si>
     <t>['30']</t>
+  </si>
+  <si>
+    <t>['38', '57', '67']</t>
+  </si>
+  <si>
+    <t>['4', '56', '63']</t>
   </si>
   <si>
     <t>['20']</t>
@@ -762,7 +768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP32"/>
+  <dimension ref="A1:BP34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1308,7 +1314,7 @@
         <v>2</v>
       </c>
       <c r="AQ3">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1433,7 +1439,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1717,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -1845,7 +1851,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2257,7 +2263,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2544,7 +2550,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR9">
         <v>1.31</v>
@@ -2669,7 +2675,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2875,7 +2881,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3287,7 +3293,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3699,7 +3705,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -3905,7 +3911,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q16">
         <v>2.07</v>
@@ -4111,7 +4117,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q17">
         <v>2.2</v>
@@ -4192,7 +4198,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ17">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR17">
         <v>2.26</v>
@@ -4317,7 +4323,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4395,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -4523,7 +4529,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4935,7 +4941,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5013,7 +5019,7 @@
         <v>2</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
         <v>2.25</v>
@@ -5141,7 +5147,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5347,7 +5353,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5553,7 +5559,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -5631,7 +5637,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ24">
         <v>1.67</v>
@@ -5759,7 +5765,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -5965,7 +5971,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6046,7 +6052,7 @@
         <v>3</v>
       </c>
       <c r="AQ26">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6171,7 +6177,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q27">
         <v>3.35</v>
@@ -6377,7 +6383,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6789,7 +6795,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -6995,7 +7001,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7201,7 +7207,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7358,6 +7364,418 @@
       </c>
       <c r="BP32">
         <v>1.79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7294817</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45423.45833333334</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33" t="s">
+        <v>107</v>
+      </c>
+      <c r="P33" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q33">
+        <v>2.37</v>
+      </c>
+      <c r="R33">
+        <v>2.54</v>
+      </c>
+      <c r="S33">
+        <v>4.16</v>
+      </c>
+      <c r="T33">
+        <v>1.28</v>
+      </c>
+      <c r="U33">
+        <v>3.4</v>
+      </c>
+      <c r="V33">
+        <v>2.31</v>
+      </c>
+      <c r="W33">
+        <v>1.62</v>
+      </c>
+      <c r="X33">
+        <v>4.75</v>
+      </c>
+      <c r="Y33">
+        <v>1.15</v>
+      </c>
+      <c r="Z33">
+        <v>1.77</v>
+      </c>
+      <c r="AA33">
+        <v>3.85</v>
+      </c>
+      <c r="AB33">
+        <v>3.8</v>
+      </c>
+      <c r="AC33">
+        <v>1.03</v>
+      </c>
+      <c r="AD33">
+        <v>10</v>
+      </c>
+      <c r="AE33">
+        <v>1.17</v>
+      </c>
+      <c r="AF33">
+        <v>4.75</v>
+      </c>
+      <c r="AG33">
+        <v>1.49</v>
+      </c>
+      <c r="AH33">
+        <v>2.27</v>
+      </c>
+      <c r="AI33">
+        <v>1.5</v>
+      </c>
+      <c r="AJ33">
+        <v>2.5</v>
+      </c>
+      <c r="AK33">
+        <v>1.22</v>
+      </c>
+      <c r="AL33">
+        <v>1.2</v>
+      </c>
+      <c r="AM33">
+        <v>1.9</v>
+      </c>
+      <c r="AN33">
+        <v>1.5</v>
+      </c>
+      <c r="AO33">
+        <v>0.75</v>
+      </c>
+      <c r="AP33">
+        <v>2</v>
+      </c>
+      <c r="AQ33">
+        <v>0.6</v>
+      </c>
+      <c r="AR33">
+        <v>2.09</v>
+      </c>
+      <c r="AS33">
+        <v>1.08</v>
+      </c>
+      <c r="AT33">
+        <v>3.17</v>
+      </c>
+      <c r="AU33">
+        <v>12</v>
+      </c>
+      <c r="AV33">
+        <v>3</v>
+      </c>
+      <c r="AW33">
+        <v>5</v>
+      </c>
+      <c r="AX33">
+        <v>10</v>
+      </c>
+      <c r="AY33">
+        <v>17</v>
+      </c>
+      <c r="AZ33">
+        <v>13</v>
+      </c>
+      <c r="BA33">
+        <v>5</v>
+      </c>
+      <c r="BB33">
+        <v>7</v>
+      </c>
+      <c r="BC33">
+        <v>12</v>
+      </c>
+      <c r="BD33">
+        <v>1.55</v>
+      </c>
+      <c r="BE33">
+        <v>9</v>
+      </c>
+      <c r="BF33">
+        <v>2.9</v>
+      </c>
+      <c r="BG33">
+        <v>1.1</v>
+      </c>
+      <c r="BH33">
+        <v>5.4</v>
+      </c>
+      <c r="BI33">
+        <v>1.23</v>
+      </c>
+      <c r="BJ33">
+        <v>3.56</v>
+      </c>
+      <c r="BK33">
+        <v>1.42</v>
+      </c>
+      <c r="BL33">
+        <v>2.57</v>
+      </c>
+      <c r="BM33">
+        <v>1.74</v>
+      </c>
+      <c r="BN33">
+        <v>1.98</v>
+      </c>
+      <c r="BO33">
+        <v>2.15</v>
+      </c>
+      <c r="BP33">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7294818</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45423.58333333334</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34" t="s">
+        <v>108</v>
+      </c>
+      <c r="P34" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q34">
+        <v>2</v>
+      </c>
+      <c r="R34">
+        <v>2.5</v>
+      </c>
+      <c r="S34">
+        <v>4.5</v>
+      </c>
+      <c r="T34">
+        <v>1.22</v>
+      </c>
+      <c r="U34">
+        <v>3.8</v>
+      </c>
+      <c r="V34">
+        <v>2.05</v>
+      </c>
+      <c r="W34">
+        <v>1.7</v>
+      </c>
+      <c r="X34">
+        <v>4.4</v>
+      </c>
+      <c r="Y34">
+        <v>1.19</v>
+      </c>
+      <c r="Z34">
+        <v>1.54</v>
+      </c>
+      <c r="AA34">
+        <v>4.1</v>
+      </c>
+      <c r="AB34">
+        <v>4.4</v>
+      </c>
+      <c r="AC34">
+        <v>1.01</v>
+      </c>
+      <c r="AD34">
+        <v>11</v>
+      </c>
+      <c r="AE34">
+        <v>1.12</v>
+      </c>
+      <c r="AF34">
+        <v>5.5</v>
+      </c>
+      <c r="AG34">
+        <v>1.45</v>
+      </c>
+      <c r="AH34">
+        <v>2.55</v>
+      </c>
+      <c r="AI34">
+        <v>1.45</v>
+      </c>
+      <c r="AJ34">
+        <v>2.45</v>
+      </c>
+      <c r="AK34">
+        <v>1.12</v>
+      </c>
+      <c r="AL34">
+        <v>1.15</v>
+      </c>
+      <c r="AM34">
+        <v>2.38</v>
+      </c>
+      <c r="AN34">
+        <v>2</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>2.33</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>1.75</v>
+      </c>
+      <c r="AS34">
+        <v>1.54</v>
+      </c>
+      <c r="AT34">
+        <v>3.29</v>
+      </c>
+      <c r="AU34">
+        <v>5</v>
+      </c>
+      <c r="AV34">
+        <v>4</v>
+      </c>
+      <c r="AW34">
+        <v>5</v>
+      </c>
+      <c r="AX34">
+        <v>3</v>
+      </c>
+      <c r="AY34">
+        <v>10</v>
+      </c>
+      <c r="AZ34">
+        <v>7</v>
+      </c>
+      <c r="BA34">
+        <v>15</v>
+      </c>
+      <c r="BB34">
+        <v>6</v>
+      </c>
+      <c r="BC34">
+        <v>21</v>
+      </c>
+      <c r="BD34">
+        <v>1.51</v>
+      </c>
+      <c r="BE34">
+        <v>9</v>
+      </c>
+      <c r="BF34">
+        <v>2.96</v>
+      </c>
+      <c r="BG34">
+        <v>1.12</v>
+      </c>
+      <c r="BH34">
+        <v>5.25</v>
+      </c>
+      <c r="BI34">
+        <v>1.17</v>
+      </c>
+      <c r="BJ34">
+        <v>4.4</v>
+      </c>
+      <c r="BK34">
+        <v>1.4</v>
+      </c>
+      <c r="BL34">
+        <v>2.7</v>
+      </c>
+      <c r="BM34">
+        <v>1.61</v>
+      </c>
+      <c r="BN34">
+        <v>2.27</v>
+      </c>
+      <c r="BO34">
+        <v>1.98</v>
+      </c>
+      <c r="BP34">
+        <v>1.82</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="134">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -343,6 +343,9 @@
     <t>['4', '56', '63']</t>
   </si>
   <si>
+    <t>['45+1', '84']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -407,6 +410,12 @@
   </si>
   <si>
     <t>['66']</t>
+  </si>
+  <si>
+    <t>['38', '65']</t>
+  </si>
+  <si>
+    <t>['45+1', '55', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -768,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP34"/>
+  <dimension ref="A1:BP37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1439,7 +1448,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1520,7 +1529,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ4">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1851,7 +1860,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -1929,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ6">
         <v>2.33</v>
@@ -2138,7 +2147,7 @@
         <v>2</v>
       </c>
       <c r="AQ7">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2263,7 +2272,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2675,7 +2684,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2756,7 +2765,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ10">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR10">
         <v>2.8</v>
@@ -2881,7 +2890,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3165,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ12">
         <v>1.33</v>
@@ -3293,7 +3302,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3705,7 +3714,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -3786,7 +3795,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR15">
         <v>1.21</v>
@@ -3911,7 +3920,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q16">
         <v>2.07</v>
@@ -4117,7 +4126,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q17">
         <v>2.2</v>
@@ -4323,7 +4332,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4529,7 +4538,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4610,7 +4619,7 @@
         <v>3</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR19">
         <v>1.54</v>
@@ -4816,7 +4825,7 @@
         <v>3</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -4941,7 +4950,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5022,7 +5031,7 @@
         <v>2</v>
       </c>
       <c r="AQ21">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR21">
         <v>2.58</v>
@@ -5147,7 +5156,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5353,7 +5362,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5434,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>1.8</v>
@@ -5559,7 +5568,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -5765,7 +5774,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -5843,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ25">
         <v>1.5</v>
@@ -5971,7 +5980,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6177,7 +6186,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q27">
         <v>3.35</v>
@@ -6383,7 +6392,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6795,7 +6804,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -7001,7 +7010,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7207,7 +7216,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7776,6 +7785,624 @@
       </c>
       <c r="BP34">
         <v>1.82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7294819</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45424.58333333334</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c r="O35" t="s">
+        <v>101</v>
+      </c>
+      <c r="P35" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q35">
+        <v>1.76</v>
+      </c>
+      <c r="R35">
+        <v>2.93</v>
+      </c>
+      <c r="S35">
+        <v>6.58</v>
+      </c>
+      <c r="T35">
+        <v>1.21</v>
+      </c>
+      <c r="U35">
+        <v>4.15</v>
+      </c>
+      <c r="V35">
+        <v>2.07</v>
+      </c>
+      <c r="W35">
+        <v>1.77</v>
+      </c>
+      <c r="X35">
+        <v>4.25</v>
+      </c>
+      <c r="Y35">
+        <v>1.2</v>
+      </c>
+      <c r="Z35">
+        <v>1.33</v>
+      </c>
+      <c r="AA35">
+        <v>5</v>
+      </c>
+      <c r="AB35">
+        <v>6.5</v>
+      </c>
+      <c r="AC35">
+        <v>1.01</v>
+      </c>
+      <c r="AD35">
+        <v>11.25</v>
+      </c>
+      <c r="AE35">
+        <v>1.1</v>
+      </c>
+      <c r="AF35">
+        <v>5.75</v>
+      </c>
+      <c r="AG35">
+        <v>1.36</v>
+      </c>
+      <c r="AH35">
+        <v>2.9</v>
+      </c>
+      <c r="AI35">
+        <v>1.58</v>
+      </c>
+      <c r="AJ35">
+        <v>2.31</v>
+      </c>
+      <c r="AK35">
+        <v>1.08</v>
+      </c>
+      <c r="AL35">
+        <v>1.14</v>
+      </c>
+      <c r="AM35">
+        <v>2.96</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0.5</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>1.33</v>
+      </c>
+      <c r="AR35">
+        <v>1.9</v>
+      </c>
+      <c r="AS35">
+        <v>1.13</v>
+      </c>
+      <c r="AT35">
+        <v>3.03</v>
+      </c>
+      <c r="AU35">
+        <v>7</v>
+      </c>
+      <c r="AV35">
+        <v>6</v>
+      </c>
+      <c r="AW35">
+        <v>5</v>
+      </c>
+      <c r="AX35">
+        <v>2</v>
+      </c>
+      <c r="AY35">
+        <v>12</v>
+      </c>
+      <c r="AZ35">
+        <v>8</v>
+      </c>
+      <c r="BA35">
+        <v>11</v>
+      </c>
+      <c r="BB35">
+        <v>2</v>
+      </c>
+      <c r="BC35">
+        <v>13</v>
+      </c>
+      <c r="BD35">
+        <v>1.07</v>
+      </c>
+      <c r="BE35">
+        <v>15</v>
+      </c>
+      <c r="BF35">
+        <v>10</v>
+      </c>
+      <c r="BG35">
+        <v>0</v>
+      </c>
+      <c r="BH35">
+        <v>0</v>
+      </c>
+      <c r="BI35">
+        <v>1.13</v>
+      </c>
+      <c r="BJ35">
+        <v>5</v>
+      </c>
+      <c r="BK35">
+        <v>1.22</v>
+      </c>
+      <c r="BL35">
+        <v>3.65</v>
+      </c>
+      <c r="BM35">
+        <v>1.4</v>
+      </c>
+      <c r="BN35">
+        <v>2.64</v>
+      </c>
+      <c r="BO35">
+        <v>1.8</v>
+      </c>
+      <c r="BP35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7294821</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45424.67708333334</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" t="s">
+        <v>75</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>3</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36" t="s">
+        <v>91</v>
+      </c>
+      <c r="P36" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q36">
+        <v>4.84</v>
+      </c>
+      <c r="R36">
+        <v>2.76</v>
+      </c>
+      <c r="S36">
+        <v>2.04</v>
+      </c>
+      <c r="T36">
+        <v>1.2</v>
+      </c>
+      <c r="U36">
+        <v>4</v>
+      </c>
+      <c r="V36">
+        <v>2.04</v>
+      </c>
+      <c r="W36">
+        <v>1.79</v>
+      </c>
+      <c r="X36">
+        <v>4</v>
+      </c>
+      <c r="Y36">
+        <v>1.2</v>
+      </c>
+      <c r="Z36">
+        <v>4.75</v>
+      </c>
+      <c r="AA36">
+        <v>4.5</v>
+      </c>
+      <c r="AB36">
+        <v>1.48</v>
+      </c>
+      <c r="AC36">
+        <v>1.01</v>
+      </c>
+      <c r="AD36">
+        <v>11.25</v>
+      </c>
+      <c r="AE36">
+        <v>1.1</v>
+      </c>
+      <c r="AF36">
+        <v>5.75</v>
+      </c>
+      <c r="AG36">
+        <v>1.35</v>
+      </c>
+      <c r="AH36">
+        <v>2.71</v>
+      </c>
+      <c r="AI36">
+        <v>1.44</v>
+      </c>
+      <c r="AJ36">
+        <v>2.65</v>
+      </c>
+      <c r="AK36">
+        <v>2.4</v>
+      </c>
+      <c r="AL36">
+        <v>1.15</v>
+      </c>
+      <c r="AM36">
+        <v>1.12</v>
+      </c>
+      <c r="AN36">
+        <v>0.33</v>
+      </c>
+      <c r="AO36">
+        <v>1.5</v>
+      </c>
+      <c r="AP36">
+        <v>0.25</v>
+      </c>
+      <c r="AQ36">
+        <v>2</v>
+      </c>
+      <c r="AR36">
+        <v>1.56</v>
+      </c>
+      <c r="AS36">
+        <v>1.98</v>
+      </c>
+      <c r="AT36">
+        <v>3.54</v>
+      </c>
+      <c r="AU36">
+        <v>-1</v>
+      </c>
+      <c r="AV36">
+        <v>-1</v>
+      </c>
+      <c r="AW36">
+        <v>-1</v>
+      </c>
+      <c r="AX36">
+        <v>-1</v>
+      </c>
+      <c r="AY36">
+        <v>-1</v>
+      </c>
+      <c r="AZ36">
+        <v>-1</v>
+      </c>
+      <c r="BA36">
+        <v>-1</v>
+      </c>
+      <c r="BB36">
+        <v>-1</v>
+      </c>
+      <c r="BC36">
+        <v>-1</v>
+      </c>
+      <c r="BD36">
+        <v>3.72</v>
+      </c>
+      <c r="BE36">
+        <v>10</v>
+      </c>
+      <c r="BF36">
+        <v>1.34</v>
+      </c>
+      <c r="BG36">
+        <v>1.1</v>
+      </c>
+      <c r="BH36">
+        <v>5.75</v>
+      </c>
+      <c r="BI36">
+        <v>1.14</v>
+      </c>
+      <c r="BJ36">
+        <v>4.55</v>
+      </c>
+      <c r="BK36">
+        <v>1.29</v>
+      </c>
+      <c r="BL36">
+        <v>3.14</v>
+      </c>
+      <c r="BM36">
+        <v>1.51</v>
+      </c>
+      <c r="BN36">
+        <v>2.32</v>
+      </c>
+      <c r="BO36">
+        <v>1.9</v>
+      </c>
+      <c r="BP36">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7294820</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45424.67708333334</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37" t="s">
+        <v>109</v>
+      </c>
+      <c r="P37" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q37">
+        <v>1.96</v>
+      </c>
+      <c r="R37">
+        <v>2.76</v>
+      </c>
+      <c r="S37">
+        <v>5.35</v>
+      </c>
+      <c r="T37">
+        <v>1.22</v>
+      </c>
+      <c r="U37">
+        <v>3.8</v>
+      </c>
+      <c r="V37">
+        <v>2.13</v>
+      </c>
+      <c r="W37">
+        <v>1.71</v>
+      </c>
+      <c r="X37">
+        <v>4.33</v>
+      </c>
+      <c r="Y37">
+        <v>1.18</v>
+      </c>
+      <c r="Z37">
+        <v>1.48</v>
+      </c>
+      <c r="AA37">
+        <v>4.3</v>
+      </c>
+      <c r="AB37">
+        <v>5</v>
+      </c>
+      <c r="AC37">
+        <v>1.01</v>
+      </c>
+      <c r="AD37">
+        <v>11</v>
+      </c>
+      <c r="AE37">
+        <v>1.11</v>
+      </c>
+      <c r="AF37">
+        <v>5.5</v>
+      </c>
+      <c r="AG37">
+        <v>1.4</v>
+      </c>
+      <c r="AH37">
+        <v>2.52</v>
+      </c>
+      <c r="AI37">
+        <v>1.53</v>
+      </c>
+      <c r="AJ37">
+        <v>2.4</v>
+      </c>
+      <c r="AK37">
+        <v>1.11</v>
+      </c>
+      <c r="AL37">
+        <v>1.15</v>
+      </c>
+      <c r="AM37">
+        <v>2.45</v>
+      </c>
+      <c r="AN37">
+        <v>3</v>
+      </c>
+      <c r="AO37">
+        <v>2.25</v>
+      </c>
+      <c r="AP37">
+        <v>3</v>
+      </c>
+      <c r="AQ37">
+        <v>1.8</v>
+      </c>
+      <c r="AR37">
+        <v>2.05</v>
+      </c>
+      <c r="AS37">
+        <v>1.8</v>
+      </c>
+      <c r="AT37">
+        <v>3.85</v>
+      </c>
+      <c r="AU37">
+        <v>-1</v>
+      </c>
+      <c r="AV37">
+        <v>-1</v>
+      </c>
+      <c r="AW37">
+        <v>-1</v>
+      </c>
+      <c r="AX37">
+        <v>-1</v>
+      </c>
+      <c r="AY37">
+        <v>-1</v>
+      </c>
+      <c r="AZ37">
+        <v>-1</v>
+      </c>
+      <c r="BA37">
+        <v>-1</v>
+      </c>
+      <c r="BB37">
+        <v>-1</v>
+      </c>
+      <c r="BC37">
+        <v>-1</v>
+      </c>
+      <c r="BD37">
+        <v>1.51</v>
+      </c>
+      <c r="BE37">
+        <v>9</v>
+      </c>
+      <c r="BF37">
+        <v>3.06</v>
+      </c>
+      <c r="BG37">
+        <v>1.1</v>
+      </c>
+      <c r="BH37">
+        <v>5.5</v>
+      </c>
+      <c r="BI37">
+        <v>1.22</v>
+      </c>
+      <c r="BJ37">
+        <v>3.65</v>
+      </c>
+      <c r="BK37">
+        <v>1.41</v>
+      </c>
+      <c r="BL37">
+        <v>2.6</v>
+      </c>
+      <c r="BM37">
+        <v>1.72</v>
+      </c>
+      <c r="BN37">
+        <v>2</v>
+      </c>
+      <c r="BO37">
+        <v>2.14</v>
+      </c>
+      <c r="BP37">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -8133,31 +8133,31 @@
         <v>3.54</v>
       </c>
       <c r="AU36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX36">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY36">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC36">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BD36">
         <v>3.72</v>
@@ -8339,31 +8339,31 @@
         <v>3.85</v>
       </c>
       <c r="AU37">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV37">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW37">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX37">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AZ37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA37">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD37">
         <v>1.51</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="138">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -346,6 +346,12 @@
     <t>['45+1', '84']</t>
   </si>
   <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['3', '25', '45+3', '89']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -416,6 +422,12 @@
   </si>
   <si>
     <t>['45+1', '55', '90+1']</t>
+  </si>
+  <si>
+    <t>['5', '35', '45', '90+5']</t>
+  </si>
+  <si>
+    <t>['52', '75']</t>
   </si>
 </sst>
 </file>
@@ -777,7 +789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP37"/>
+  <dimension ref="A1:BP39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1448,7 +1460,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1526,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
         <v>1.33</v>
@@ -1860,7 +1872,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2272,7 +2284,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2684,7 +2696,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2762,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>1.8</v>
@@ -2890,7 +2902,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3302,7 +3314,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3383,7 +3395,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>1.23</v>
@@ -3714,7 +3726,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -3920,7 +3932,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q16">
         <v>2.07</v>
@@ -4126,7 +4138,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q17">
         <v>2.2</v>
@@ -4204,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ17">
         <v>0.6</v>
@@ -4332,7 +4344,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4538,7 +4550,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4822,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ20">
         <v>1.33</v>
@@ -4950,7 +4962,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5156,7 +5168,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5362,7 +5374,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5568,7 +5580,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -5774,7 +5786,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -5980,7 +5992,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6186,7 +6198,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q27">
         <v>3.35</v>
@@ -6264,7 +6276,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
         <v>2.33</v>
@@ -6392,7 +6404,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6804,7 +6816,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -6885,7 +6897,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR30">
         <v>1.2</v>
@@ -7010,7 +7022,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7216,7 +7228,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7834,7 +7846,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8040,7 +8052,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8403,6 +8415,418 @@
       </c>
       <c r="BP37">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7294823</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45432.45833333334</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38" t="s">
+        <v>70</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>4</v>
+      </c>
+      <c r="N38">
+        <v>5</v>
+      </c>
+      <c r="O38" t="s">
+        <v>110</v>
+      </c>
+      <c r="P38" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q38">
+        <v>7.5</v>
+      </c>
+      <c r="R38">
+        <v>2.88</v>
+      </c>
+      <c r="S38">
+        <v>1.62</v>
+      </c>
+      <c r="T38">
+        <v>1.2</v>
+      </c>
+      <c r="U38">
+        <v>4</v>
+      </c>
+      <c r="V38">
+        <v>1.97</v>
+      </c>
+      <c r="W38">
+        <v>1.74</v>
+      </c>
+      <c r="X38">
+        <v>3.9</v>
+      </c>
+      <c r="Y38">
+        <v>1.2</v>
+      </c>
+      <c r="Z38">
+        <v>8.5</v>
+      </c>
+      <c r="AA38">
+        <v>6</v>
+      </c>
+      <c r="AB38">
+        <v>1.22</v>
+      </c>
+      <c r="AC38">
+        <v>1.01</v>
+      </c>
+      <c r="AD38">
+        <v>26</v>
+      </c>
+      <c r="AE38">
+        <v>1.1</v>
+      </c>
+      <c r="AF38">
+        <v>6</v>
+      </c>
+      <c r="AG38">
+        <v>1.31</v>
+      </c>
+      <c r="AH38">
+        <v>2.9</v>
+      </c>
+      <c r="AI38">
+        <v>2</v>
+      </c>
+      <c r="AJ38">
+        <v>1.77</v>
+      </c>
+      <c r="AK38">
+        <v>3.2</v>
+      </c>
+      <c r="AL38">
+        <v>1.1</v>
+      </c>
+      <c r="AM38">
+        <v>1.06</v>
+      </c>
+      <c r="AN38">
+        <v>3</v>
+      </c>
+      <c r="AO38">
+        <v>1.5</v>
+      </c>
+      <c r="AP38">
+        <v>1.5</v>
+      </c>
+      <c r="AQ38">
+        <v>2</v>
+      </c>
+      <c r="AR38">
+        <v>1.97</v>
+      </c>
+      <c r="AS38">
+        <v>1.83</v>
+      </c>
+      <c r="AT38">
+        <v>3.8</v>
+      </c>
+      <c r="AU38">
+        <v>-1</v>
+      </c>
+      <c r="AV38">
+        <v>-1</v>
+      </c>
+      <c r="AW38">
+        <v>-1</v>
+      </c>
+      <c r="AX38">
+        <v>-1</v>
+      </c>
+      <c r="AY38">
+        <v>-1</v>
+      </c>
+      <c r="AZ38">
+        <v>-1</v>
+      </c>
+      <c r="BA38">
+        <v>-1</v>
+      </c>
+      <c r="BB38">
+        <v>-1</v>
+      </c>
+      <c r="BC38">
+        <v>-1</v>
+      </c>
+      <c r="BD38">
+        <v>5.17</v>
+      </c>
+      <c r="BE38">
+        <v>11</v>
+      </c>
+      <c r="BF38">
+        <v>1.21</v>
+      </c>
+      <c r="BG38">
+        <v>1.1</v>
+      </c>
+      <c r="BH38">
+        <v>5.3</v>
+      </c>
+      <c r="BI38">
+        <v>1.23</v>
+      </c>
+      <c r="BJ38">
+        <v>3.56</v>
+      </c>
+      <c r="BK38">
+        <v>1.43</v>
+      </c>
+      <c r="BL38">
+        <v>2.54</v>
+      </c>
+      <c r="BM38">
+        <v>1.74</v>
+      </c>
+      <c r="BN38">
+        <v>1.98</v>
+      </c>
+      <c r="BO38">
+        <v>2.15</v>
+      </c>
+      <c r="BP38">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7294824</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45432.55208333334</v>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+      <c r="G39" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <v>6</v>
+      </c>
+      <c r="O39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P39" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q39">
+        <v>2.5</v>
+      </c>
+      <c r="R39">
+        <v>2.3</v>
+      </c>
+      <c r="S39">
+        <v>3.5</v>
+      </c>
+      <c r="T39">
+        <v>1.25</v>
+      </c>
+      <c r="U39">
+        <v>3.5</v>
+      </c>
+      <c r="V39">
+        <v>2.25</v>
+      </c>
+      <c r="W39">
+        <v>1.57</v>
+      </c>
+      <c r="X39">
+        <v>5.5</v>
+      </c>
+      <c r="Y39">
+        <v>1.12</v>
+      </c>
+      <c r="Z39">
+        <v>1.95</v>
+      </c>
+      <c r="AA39">
+        <v>3.6</v>
+      </c>
+      <c r="AB39">
+        <v>3.1</v>
+      </c>
+      <c r="AC39">
+        <v>1.03</v>
+      </c>
+      <c r="AD39">
+        <v>10</v>
+      </c>
+      <c r="AE39">
+        <v>1.15</v>
+      </c>
+      <c r="AF39">
+        <v>4.5</v>
+      </c>
+      <c r="AG39">
+        <v>1.52</v>
+      </c>
+      <c r="AH39">
+        <v>2.22</v>
+      </c>
+      <c r="AI39">
+        <v>1.45</v>
+      </c>
+      <c r="AJ39">
+        <v>2.66</v>
+      </c>
+      <c r="AK39">
+        <v>1.36</v>
+      </c>
+      <c r="AL39">
+        <v>1.29</v>
+      </c>
+      <c r="AM39">
+        <v>1.73</v>
+      </c>
+      <c r="AN39">
+        <v>0.5</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>1</v>
+      </c>
+      <c r="AQ39">
+        <v>0</v>
+      </c>
+      <c r="AR39">
+        <v>1.9</v>
+      </c>
+      <c r="AS39">
+        <v>1.63</v>
+      </c>
+      <c r="AT39">
+        <v>3.53</v>
+      </c>
+      <c r="AU39">
+        <v>-1</v>
+      </c>
+      <c r="AV39">
+        <v>-1</v>
+      </c>
+      <c r="AW39">
+        <v>-1</v>
+      </c>
+      <c r="AX39">
+        <v>-1</v>
+      </c>
+      <c r="AY39">
+        <v>-1</v>
+      </c>
+      <c r="AZ39">
+        <v>-1</v>
+      </c>
+      <c r="BA39">
+        <v>-1</v>
+      </c>
+      <c r="BB39">
+        <v>-1</v>
+      </c>
+      <c r="BC39">
+        <v>-1</v>
+      </c>
+      <c r="BD39">
+        <v>1.64</v>
+      </c>
+      <c r="BE39">
+        <v>9</v>
+      </c>
+      <c r="BF39">
+        <v>2.65</v>
+      </c>
+      <c r="BG39">
+        <v>1.13</v>
+      </c>
+      <c r="BH39">
+        <v>5</v>
+      </c>
+      <c r="BI39">
+        <v>1.21</v>
+      </c>
+      <c r="BJ39">
+        <v>3.74</v>
+      </c>
+      <c r="BK39">
+        <v>1.38</v>
+      </c>
+      <c r="BL39">
+        <v>2.71</v>
+      </c>
+      <c r="BM39">
+        <v>1.66</v>
+      </c>
+      <c r="BN39">
+        <v>2.04</v>
+      </c>
+      <c r="BO39">
+        <v>2.09</v>
+      </c>
+      <c r="BP39">
+        <v>1.66</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="140">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -352,6 +352,9 @@
     <t>['3', '25', '45+3', '89']</t>
   </si>
   <si>
+    <t>['64']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -428,6 +431,9 @@
   </si>
   <si>
     <t>['52', '75']</t>
+  </si>
+  <si>
+    <t>['36', '42']</t>
   </si>
 </sst>
 </file>
@@ -789,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP39"/>
+  <dimension ref="A1:BP40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1460,7 +1466,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1872,7 +1878,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -1953,7 +1959,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ6">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2284,7 +2290,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2365,7 +2371,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ8">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2696,7 +2702,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2902,7 +2908,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3314,7 +3320,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3726,7 +3732,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -3932,7 +3938,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q16">
         <v>2.07</v>
@@ -4138,7 +4144,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17">
         <v>2.2</v>
@@ -4344,7 +4350,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4550,7 +4556,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4962,7 +4968,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5168,7 +5174,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5374,7 +5380,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5580,7 +5586,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -5786,7 +5792,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -5992,7 +5998,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6070,7 +6076,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26">
         <v>0.6</v>
@@ -6198,7 +6204,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q27">
         <v>3.35</v>
@@ -6279,7 +6285,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR27">
         <v>1.91</v>
@@ -6404,7 +6410,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6816,7 +6822,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -7022,7 +7028,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7228,7 +7234,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7846,7 +7852,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8052,7 +8058,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8464,7 +8470,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8557,31 +8563,31 @@
         <v>3.8</v>
       </c>
       <c r="AU38">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AX38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY38">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AZ38">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BB38">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC38">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD38">
         <v>5.17</v>
@@ -8670,7 +8676,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8763,31 +8769,31 @@
         <v>3.53</v>
       </c>
       <c r="AU39">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV39">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AW39">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX39">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY39">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ39">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA39">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC39">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BD39">
         <v>1.64</v>
@@ -8827,6 +8833,212 @@
       </c>
       <c r="BP39">
         <v>1.66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7294825</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45432.58333333334</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>81</v>
+      </c>
+      <c r="H40" t="s">
+        <v>78</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40">
+        <v>3</v>
+      </c>
+      <c r="O40" t="s">
+        <v>112</v>
+      </c>
+      <c r="P40" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q40">
+        <v>2.63</v>
+      </c>
+      <c r="R40">
+        <v>2.38</v>
+      </c>
+      <c r="S40">
+        <v>3.25</v>
+      </c>
+      <c r="T40">
+        <v>1.25</v>
+      </c>
+      <c r="U40">
+        <v>3.5</v>
+      </c>
+      <c r="V40">
+        <v>2.25</v>
+      </c>
+      <c r="W40">
+        <v>1.57</v>
+      </c>
+      <c r="X40">
+        <v>5.5</v>
+      </c>
+      <c r="Y40">
+        <v>1.12</v>
+      </c>
+      <c r="Z40">
+        <v>2.05</v>
+      </c>
+      <c r="AA40">
+        <v>3.5</v>
+      </c>
+      <c r="AB40">
+        <v>3</v>
+      </c>
+      <c r="AC40">
+        <v>1.03</v>
+      </c>
+      <c r="AD40">
+        <v>10</v>
+      </c>
+      <c r="AE40">
+        <v>1.14</v>
+      </c>
+      <c r="AF40">
+        <v>4.65</v>
+      </c>
+      <c r="AG40">
+        <v>1.49</v>
+      </c>
+      <c r="AH40">
+        <v>2.28</v>
+      </c>
+      <c r="AI40">
+        <v>1.45</v>
+      </c>
+      <c r="AJ40">
+        <v>2.66</v>
+      </c>
+      <c r="AK40">
+        <v>1.36</v>
+      </c>
+      <c r="AL40">
+        <v>1.29</v>
+      </c>
+      <c r="AM40">
+        <v>1.67</v>
+      </c>
+      <c r="AN40">
+        <v>3</v>
+      </c>
+      <c r="AO40">
+        <v>2.33</v>
+      </c>
+      <c r="AP40">
+        <v>1.5</v>
+      </c>
+      <c r="AQ40">
+        <v>2.5</v>
+      </c>
+      <c r="AR40">
+        <v>2.29</v>
+      </c>
+      <c r="AS40">
+        <v>2.11</v>
+      </c>
+      <c r="AT40">
+        <v>4.4</v>
+      </c>
+      <c r="AU40">
+        <v>9</v>
+      </c>
+      <c r="AV40">
+        <v>3</v>
+      </c>
+      <c r="AW40">
+        <v>3</v>
+      </c>
+      <c r="AX40">
+        <v>6</v>
+      </c>
+      <c r="AY40">
+        <v>12</v>
+      </c>
+      <c r="AZ40">
+        <v>9</v>
+      </c>
+      <c r="BA40">
+        <v>13</v>
+      </c>
+      <c r="BB40">
+        <v>8</v>
+      </c>
+      <c r="BC40">
+        <v>21</v>
+      </c>
+      <c r="BD40">
+        <v>1.82</v>
+      </c>
+      <c r="BE40">
+        <v>8.5</v>
+      </c>
+      <c r="BF40">
+        <v>2.32</v>
+      </c>
+      <c r="BG40">
+        <v>1.11</v>
+      </c>
+      <c r="BH40">
+        <v>5.5</v>
+      </c>
+      <c r="BI40">
+        <v>1.16</v>
+      </c>
+      <c r="BJ40">
+        <v>4.4</v>
+      </c>
+      <c r="BK40">
+        <v>1.31</v>
+      </c>
+      <c r="BL40">
+        <v>3.04</v>
+      </c>
+      <c r="BM40">
+        <v>1.53</v>
+      </c>
+      <c r="BN40">
+        <v>2.27</v>
+      </c>
+      <c r="BO40">
+        <v>1.95</v>
+      </c>
+      <c r="BP40">
+        <v>1.85</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="145">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -355,6 +355,12 @@
     <t>['64']</t>
   </si>
   <si>
+    <t>['5', '43']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -434,6 +440,15 @@
   </si>
   <si>
     <t>['36', '42']</t>
+  </si>
+  <si>
+    <t>['53', '79']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['76']</t>
   </si>
 </sst>
 </file>
@@ -795,7 +810,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP40"/>
+  <dimension ref="A1:BP43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1135,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="AQ2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1338,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
         <v>0.6</v>
@@ -1466,7 +1481,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1878,7 +1893,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2162,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ7">
         <v>1.8</v>
@@ -2290,7 +2305,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2574,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ9">
         <v>0.6</v>
@@ -2702,7 +2717,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2908,7 +2923,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -2986,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3195,7 +3210,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ12">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR12">
         <v>1.36</v>
@@ -3320,7 +3335,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3398,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ13">
         <v>2</v>
@@ -3607,7 +3622,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ14">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR14">
         <v>1.31</v>
@@ -3732,7 +3747,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -3810,7 +3825,7 @@
         <v>1.5</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ15">
         <v>1.8</v>
@@ -3938,7 +3953,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q16">
         <v>2.07</v>
@@ -4144,7 +4159,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17">
         <v>2.2</v>
@@ -4350,7 +4365,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4556,7 +4571,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4968,7 +4983,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5174,7 +5189,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5380,7 +5395,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5586,7 +5601,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -5792,7 +5807,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -5873,7 +5888,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ25">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1.51</v>
@@ -5998,7 +6013,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6204,7 +6219,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q27">
         <v>3.35</v>
@@ -6410,7 +6425,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6694,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ29">
         <v>0</v>
@@ -6822,7 +6837,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -6900,7 +6915,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ30">
         <v>2</v>
@@ -7028,7 +7043,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7106,10 +7121,10 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ31">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR31">
         <v>1.92</v>
@@ -7234,7 +7249,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7852,7 +7867,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8058,7 +8073,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8470,7 +8485,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8676,7 +8691,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8882,7 +8897,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -8975,22 +8990,22 @@
         <v>4.4</v>
       </c>
       <c r="AU40">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW40">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AX40">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AY40">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ40">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA40">
         <v>13</v>
@@ -9039,6 +9054,624 @@
       </c>
       <c r="BP40">
         <v>1.85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7294826</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45433.67708333334</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H41" t="s">
+        <v>73</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="O41" t="s">
+        <v>112</v>
+      </c>
+      <c r="P41" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q41">
+        <v>4.5</v>
+      </c>
+      <c r="R41">
+        <v>2.63</v>
+      </c>
+      <c r="S41">
+        <v>1.95</v>
+      </c>
+      <c r="T41">
+        <v>1.19</v>
+      </c>
+      <c r="U41">
+        <v>4.33</v>
+      </c>
+      <c r="V41">
+        <v>1.95</v>
+      </c>
+      <c r="W41">
+        <v>1.8</v>
+      </c>
+      <c r="X41">
+        <v>3.98</v>
+      </c>
+      <c r="Y41">
+        <v>1.22</v>
+      </c>
+      <c r="Z41">
+        <v>5</v>
+      </c>
+      <c r="AA41">
+        <v>4.3</v>
+      </c>
+      <c r="AB41">
+        <v>1.52</v>
+      </c>
+      <c r="AC41">
+        <v>1.01</v>
+      </c>
+      <c r="AD41">
+        <v>11.5</v>
+      </c>
+      <c r="AE41">
+        <v>1.07</v>
+      </c>
+      <c r="AF41">
+        <v>6.35</v>
+      </c>
+      <c r="AG41">
+        <v>1.3</v>
+      </c>
+      <c r="AH41">
+        <v>2.94</v>
+      </c>
+      <c r="AI41">
+        <v>1.43</v>
+      </c>
+      <c r="AJ41">
+        <v>2.73</v>
+      </c>
+      <c r="AK41">
+        <v>2.38</v>
+      </c>
+      <c r="AL41">
+        <v>1.22</v>
+      </c>
+      <c r="AM41">
+        <v>1.14</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
+        <v>1.33</v>
+      </c>
+      <c r="AP41">
+        <v>0.75</v>
+      </c>
+      <c r="AQ41">
+        <v>1.75</v>
+      </c>
+      <c r="AR41">
+        <v>1.13</v>
+      </c>
+      <c r="AS41">
+        <v>2.1</v>
+      </c>
+      <c r="AT41">
+        <v>3.23</v>
+      </c>
+      <c r="AU41">
+        <v>4</v>
+      </c>
+      <c r="AV41">
+        <v>11</v>
+      </c>
+      <c r="AW41">
+        <v>8</v>
+      </c>
+      <c r="AX41">
+        <v>20</v>
+      </c>
+      <c r="AY41">
+        <v>12</v>
+      </c>
+      <c r="AZ41">
+        <v>31</v>
+      </c>
+      <c r="BA41">
+        <v>1</v>
+      </c>
+      <c r="BB41">
+        <v>14</v>
+      </c>
+      <c r="BC41">
+        <v>15</v>
+      </c>
+      <c r="BD41">
+        <v>3.48</v>
+      </c>
+      <c r="BE41">
+        <v>9.5</v>
+      </c>
+      <c r="BF41">
+        <v>1.41</v>
+      </c>
+      <c r="BG41">
+        <v>1.1</v>
+      </c>
+      <c r="BH41">
+        <v>5.75</v>
+      </c>
+      <c r="BI41">
+        <v>1.18</v>
+      </c>
+      <c r="BJ41">
+        <v>4.05</v>
+      </c>
+      <c r="BK41">
+        <v>1.35</v>
+      </c>
+      <c r="BL41">
+        <v>2.84</v>
+      </c>
+      <c r="BM41">
+        <v>1.6</v>
+      </c>
+      <c r="BN41">
+        <v>2.14</v>
+      </c>
+      <c r="BO41">
+        <v>2</v>
+      </c>
+      <c r="BP41">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7294827</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45433.67708333334</v>
+      </c>
+      <c r="F42">
+        <v>7</v>
+      </c>
+      <c r="G42" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="O42" t="s">
+        <v>113</v>
+      </c>
+      <c r="P42" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q42">
+        <v>2.75</v>
+      </c>
+      <c r="R42">
+        <v>2.3</v>
+      </c>
+      <c r="S42">
+        <v>3.2</v>
+      </c>
+      <c r="T42">
+        <v>1.25</v>
+      </c>
+      <c r="U42">
+        <v>3.5</v>
+      </c>
+      <c r="V42">
+        <v>2.31</v>
+      </c>
+      <c r="W42">
+        <v>1.57</v>
+      </c>
+      <c r="X42">
+        <v>5.5</v>
+      </c>
+      <c r="Y42">
+        <v>1.14</v>
+      </c>
+      <c r="Z42">
+        <v>2</v>
+      </c>
+      <c r="AA42">
+        <v>3.5</v>
+      </c>
+      <c r="AB42">
+        <v>3.3</v>
+      </c>
+      <c r="AC42">
+        <v>1.03</v>
+      </c>
+      <c r="AD42">
+        <v>12</v>
+      </c>
+      <c r="AE42">
+        <v>1.14</v>
+      </c>
+      <c r="AF42">
+        <v>4.55</v>
+      </c>
+      <c r="AG42">
+        <v>1.53</v>
+      </c>
+      <c r="AH42">
+        <v>2.25</v>
+      </c>
+      <c r="AI42">
+        <v>1.5</v>
+      </c>
+      <c r="AJ42">
+        <v>2.51</v>
+      </c>
+      <c r="AK42">
+        <v>1.36</v>
+      </c>
+      <c r="AL42">
+        <v>1.22</v>
+      </c>
+      <c r="AM42">
+        <v>1.68</v>
+      </c>
+      <c r="AN42">
+        <v>2</v>
+      </c>
+      <c r="AO42">
+        <v>1.5</v>
+      </c>
+      <c r="AP42">
+        <v>2.25</v>
+      </c>
+      <c r="AQ42">
+        <v>1</v>
+      </c>
+      <c r="AR42">
+        <v>2.07</v>
+      </c>
+      <c r="AS42">
+        <v>1.47</v>
+      </c>
+      <c r="AT42">
+        <v>3.54</v>
+      </c>
+      <c r="AU42">
+        <v>8</v>
+      </c>
+      <c r="AV42">
+        <v>9</v>
+      </c>
+      <c r="AW42">
+        <v>8</v>
+      </c>
+      <c r="AX42">
+        <v>13</v>
+      </c>
+      <c r="AY42">
+        <v>16</v>
+      </c>
+      <c r="AZ42">
+        <v>22</v>
+      </c>
+      <c r="BA42">
+        <v>7</v>
+      </c>
+      <c r="BB42">
+        <v>7</v>
+      </c>
+      <c r="BC42">
+        <v>14</v>
+      </c>
+      <c r="BD42">
+        <v>1.82</v>
+      </c>
+      <c r="BE42">
+        <v>8.5</v>
+      </c>
+      <c r="BF42">
+        <v>2.28</v>
+      </c>
+      <c r="BG42">
+        <v>1.13</v>
+      </c>
+      <c r="BH42">
+        <v>5</v>
+      </c>
+      <c r="BI42">
+        <v>1.2</v>
+      </c>
+      <c r="BJ42">
+        <v>3.84</v>
+      </c>
+      <c r="BK42">
+        <v>1.38</v>
+      </c>
+      <c r="BL42">
+        <v>2.71</v>
+      </c>
+      <c r="BM42">
+        <v>1.65</v>
+      </c>
+      <c r="BN42">
+        <v>2.05</v>
+      </c>
+      <c r="BO42">
+        <v>2.08</v>
+      </c>
+      <c r="BP42">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7294828</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45433.67708333334</v>
+      </c>
+      <c r="F43">
+        <v>7</v>
+      </c>
+      <c r="G43" t="s">
+        <v>71</v>
+      </c>
+      <c r="H43" t="s">
+        <v>79</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43" t="s">
+        <v>114</v>
+      </c>
+      <c r="P43" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q43">
+        <v>2.63</v>
+      </c>
+      <c r="R43">
+        <v>2.4</v>
+      </c>
+      <c r="S43">
+        <v>3.1</v>
+      </c>
+      <c r="T43">
+        <v>1.22</v>
+      </c>
+      <c r="U43">
+        <v>3.75</v>
+      </c>
+      <c r="V43">
+        <v>2.25</v>
+      </c>
+      <c r="W43">
+        <v>1.57</v>
+      </c>
+      <c r="X43">
+        <v>5</v>
+      </c>
+      <c r="Y43">
+        <v>1.14</v>
+      </c>
+      <c r="Z43">
+        <v>2.14</v>
+      </c>
+      <c r="AA43">
+        <v>3.6</v>
+      </c>
+      <c r="AB43">
+        <v>2.95</v>
+      </c>
+      <c r="AC43">
+        <v>1.02</v>
+      </c>
+      <c r="AD43">
+        <v>12</v>
+      </c>
+      <c r="AE43">
+        <v>1.12</v>
+      </c>
+      <c r="AF43">
+        <v>4.9</v>
+      </c>
+      <c r="AG43">
+        <v>1.52</v>
+      </c>
+      <c r="AH43">
+        <v>2.4</v>
+      </c>
+      <c r="AI43">
+        <v>1.4</v>
+      </c>
+      <c r="AJ43">
+        <v>2.85</v>
+      </c>
+      <c r="AK43">
+        <v>1.36</v>
+      </c>
+      <c r="AL43">
+        <v>1.2</v>
+      </c>
+      <c r="AM43">
+        <v>1.57</v>
+      </c>
+      <c r="AN43">
+        <v>2</v>
+      </c>
+      <c r="AO43">
+        <v>1</v>
+      </c>
+      <c r="AP43">
+        <v>1.75</v>
+      </c>
+      <c r="AQ43">
+        <v>1</v>
+      </c>
+      <c r="AR43">
+        <v>1.57</v>
+      </c>
+      <c r="AS43">
+        <v>1.87</v>
+      </c>
+      <c r="AT43">
+        <v>3.44</v>
+      </c>
+      <c r="AU43">
+        <v>7</v>
+      </c>
+      <c r="AV43">
+        <v>6</v>
+      </c>
+      <c r="AW43">
+        <v>10</v>
+      </c>
+      <c r="AX43">
+        <v>9</v>
+      </c>
+      <c r="AY43">
+        <v>17</v>
+      </c>
+      <c r="AZ43">
+        <v>15</v>
+      </c>
+      <c r="BA43">
+        <v>3</v>
+      </c>
+      <c r="BB43">
+        <v>6</v>
+      </c>
+      <c r="BC43">
+        <v>9</v>
+      </c>
+      <c r="BD43">
+        <v>1.91</v>
+      </c>
+      <c r="BE43">
+        <v>8.5</v>
+      </c>
+      <c r="BF43">
+        <v>2.1</v>
+      </c>
+      <c r="BG43">
+        <v>1.11</v>
+      </c>
+      <c r="BH43">
+        <v>5.5</v>
+      </c>
+      <c r="BI43">
+        <v>1.17</v>
+      </c>
+      <c r="BJ43">
+        <v>4.15</v>
+      </c>
+      <c r="BK43">
+        <v>1.34</v>
+      </c>
+      <c r="BL43">
+        <v>2.88</v>
+      </c>
+      <c r="BM43">
+        <v>1.59</v>
+      </c>
+      <c r="BN43">
+        <v>2.16</v>
+      </c>
+      <c r="BO43">
+        <v>1.98</v>
+      </c>
+      <c r="BP43">
+        <v>1.74</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="150">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -361,6 +361,12 @@
     <t>['65']</t>
   </si>
   <si>
+    <t>['9', '40']</t>
+  </si>
+  <si>
+    <t>['45+2', '63']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -449,6 +455,15 @@
   </si>
   <si>
     <t>['76']</t>
+  </si>
+  <si>
+    <t>['68', '71']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['28', '75']</t>
   </si>
 </sst>
 </file>
@@ -810,7 +825,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP43"/>
+  <dimension ref="A1:BP46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1356,7 +1371,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ3">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1481,7 +1496,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1765,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -1893,7 +1908,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2180,7 +2195,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ7">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2305,7 +2320,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2592,7 +2607,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ9">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR9">
         <v>1.31</v>
@@ -2717,7 +2732,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2798,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR10">
         <v>2.8</v>
@@ -2923,7 +2938,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3335,7 +3350,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3416,7 +3431,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR13">
         <v>1.23</v>
@@ -3747,7 +3762,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -3828,7 +3843,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ15">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR15">
         <v>1.21</v>
@@ -3953,7 +3968,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q16">
         <v>2.07</v>
@@ -4031,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ16">
         <v>1.67</v>
@@ -4159,7 +4174,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q17">
         <v>2.2</v>
@@ -4240,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR17">
         <v>2.26</v>
@@ -4365,7 +4380,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4443,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -4571,7 +4586,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4983,7 +4998,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5061,10 +5076,10 @@
         <v>2</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR21">
         <v>2.58</v>
@@ -5189,7 +5204,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5395,7 +5410,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5473,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ23">
         <v>2</v>
@@ -5601,7 +5616,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -5679,7 +5694,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>1.67</v>
@@ -5807,7 +5822,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6013,7 +6028,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6094,7 +6109,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ26">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6219,7 +6234,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q27">
         <v>3.35</v>
@@ -6425,7 +6440,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6837,7 +6852,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -6918,7 +6933,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ30">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR30">
         <v>1.2</v>
@@ -7043,7 +7058,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7249,7 +7264,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7533,10 +7548,10 @@
         <v>0.75</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR33">
         <v>2.09</v>
@@ -7739,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
         <v>0</v>
@@ -7867,7 +7882,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -7945,7 +7960,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ35">
         <v>1.33</v>
@@ -8073,7 +8088,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8360,7 +8375,7 @@
         <v>3</v>
       </c>
       <c r="AQ37">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR37">
         <v>2.05</v>
@@ -8485,7 +8500,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8566,7 +8581,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR38">
         <v>1.97</v>
@@ -8691,7 +8706,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8897,7 +8912,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9103,7 +9118,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9309,7 +9324,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9515,7 +9530,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9672,6 +9687,624 @@
       </c>
       <c r="BP43">
         <v>1.74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7294829</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45437.54166666666</v>
+      </c>
+      <c r="F44">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>4</v>
+      </c>
+      <c r="O44" t="s">
+        <v>115</v>
+      </c>
+      <c r="P44" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q44">
+        <v>2</v>
+      </c>
+      <c r="R44">
+        <v>2.5</v>
+      </c>
+      <c r="S44">
+        <v>5</v>
+      </c>
+      <c r="T44">
+        <v>1.22</v>
+      </c>
+      <c r="U44">
+        <v>3.75</v>
+      </c>
+      <c r="V44">
+        <v>2.2</v>
+      </c>
+      <c r="W44">
+        <v>1.62</v>
+      </c>
+      <c r="X44">
+        <v>5</v>
+      </c>
+      <c r="Y44">
+        <v>1.14</v>
+      </c>
+      <c r="Z44">
+        <v>1.47</v>
+      </c>
+      <c r="AA44">
+        <v>4.6</v>
+      </c>
+      <c r="AB44">
+        <v>5.25</v>
+      </c>
+      <c r="AC44">
+        <v>1.01</v>
+      </c>
+      <c r="AD44">
+        <v>18</v>
+      </c>
+      <c r="AE44">
+        <v>1.14</v>
+      </c>
+      <c r="AF44">
+        <v>5</v>
+      </c>
+      <c r="AG44">
+        <v>1.44</v>
+      </c>
+      <c r="AH44">
+        <v>2.59</v>
+      </c>
+      <c r="AI44">
+        <v>1.57</v>
+      </c>
+      <c r="AJ44">
+        <v>2.34</v>
+      </c>
+      <c r="AK44">
+        <v>1.11</v>
+      </c>
+      <c r="AL44">
+        <v>1.17</v>
+      </c>
+      <c r="AM44">
+        <v>2.3</v>
+      </c>
+      <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <v>0.6</v>
+      </c>
+      <c r="AP44">
+        <v>0.25</v>
+      </c>
+      <c r="AQ44">
+        <v>0.67</v>
+      </c>
+      <c r="AR44">
+        <v>2.01</v>
+      </c>
+      <c r="AS44">
+        <v>1.15</v>
+      </c>
+      <c r="AT44">
+        <v>3.16</v>
+      </c>
+      <c r="AU44">
+        <v>8</v>
+      </c>
+      <c r="AV44">
+        <v>4</v>
+      </c>
+      <c r="AW44">
+        <v>5</v>
+      </c>
+      <c r="AX44">
+        <v>8</v>
+      </c>
+      <c r="AY44">
+        <v>13</v>
+      </c>
+      <c r="AZ44">
+        <v>12</v>
+      </c>
+      <c r="BA44">
+        <v>5</v>
+      </c>
+      <c r="BB44">
+        <v>5</v>
+      </c>
+      <c r="BC44">
+        <v>10</v>
+      </c>
+      <c r="BD44">
+        <v>1.26</v>
+      </c>
+      <c r="BE44">
+        <v>11</v>
+      </c>
+      <c r="BF44">
+        <v>4.61</v>
+      </c>
+      <c r="BG44">
+        <v>1.11</v>
+      </c>
+      <c r="BH44">
+        <v>5.5</v>
+      </c>
+      <c r="BI44">
+        <v>1.17</v>
+      </c>
+      <c r="BJ44">
+        <v>4.15</v>
+      </c>
+      <c r="BK44">
+        <v>1.33</v>
+      </c>
+      <c r="BL44">
+        <v>2.91</v>
+      </c>
+      <c r="BM44">
+        <v>1.62</v>
+      </c>
+      <c r="BN44">
+        <v>2.24</v>
+      </c>
+      <c r="BO44">
+        <v>2</v>
+      </c>
+      <c r="BP44">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7294830</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45437.58333333334</v>
+      </c>
+      <c r="F45">
+        <v>8</v>
+      </c>
+      <c r="G45" t="s">
+        <v>79</v>
+      </c>
+      <c r="H45" t="s">
+        <v>70</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45" t="s">
+        <v>91</v>
+      </c>
+      <c r="P45" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q45">
+        <v>4.75</v>
+      </c>
+      <c r="R45">
+        <v>2.5</v>
+      </c>
+      <c r="S45">
+        <v>1.95</v>
+      </c>
+      <c r="T45">
+        <v>1.22</v>
+      </c>
+      <c r="U45">
+        <v>3.75</v>
+      </c>
+      <c r="V45">
+        <v>2.2</v>
+      </c>
+      <c r="W45">
+        <v>1.62</v>
+      </c>
+      <c r="X45">
+        <v>5</v>
+      </c>
+      <c r="Y45">
+        <v>1.14</v>
+      </c>
+      <c r="Z45">
+        <v>5</v>
+      </c>
+      <c r="AA45">
+        <v>4.6</v>
+      </c>
+      <c r="AB45">
+        <v>1.5</v>
+      </c>
+      <c r="AC45">
+        <v>1.01</v>
+      </c>
+      <c r="AD45">
+        <v>20</v>
+      </c>
+      <c r="AE45">
+        <v>1.12</v>
+      </c>
+      <c r="AF45">
+        <v>5.5</v>
+      </c>
+      <c r="AG45">
+        <v>1.39</v>
+      </c>
+      <c r="AH45">
+        <v>2.77</v>
+      </c>
+      <c r="AI45">
+        <v>1.54</v>
+      </c>
+      <c r="AJ45">
+        <v>2.41</v>
+      </c>
+      <c r="AK45">
+        <v>2.3</v>
+      </c>
+      <c r="AL45">
+        <v>1.17</v>
+      </c>
+      <c r="AM45">
+        <v>1.11</v>
+      </c>
+      <c r="AN45">
+        <v>2</v>
+      </c>
+      <c r="AO45">
+        <v>2</v>
+      </c>
+      <c r="AP45">
+        <v>1.5</v>
+      </c>
+      <c r="AQ45">
+        <v>2.25</v>
+      </c>
+      <c r="AR45">
+        <v>2.14</v>
+      </c>
+      <c r="AS45">
+        <v>1.88</v>
+      </c>
+      <c r="AT45">
+        <v>4.02</v>
+      </c>
+      <c r="AU45">
+        <v>3</v>
+      </c>
+      <c r="AV45">
+        <v>8</v>
+      </c>
+      <c r="AW45">
+        <v>8</v>
+      </c>
+      <c r="AX45">
+        <v>8</v>
+      </c>
+      <c r="AY45">
+        <v>11</v>
+      </c>
+      <c r="AZ45">
+        <v>16</v>
+      </c>
+      <c r="BA45">
+        <v>5</v>
+      </c>
+      <c r="BB45">
+        <v>10</v>
+      </c>
+      <c r="BC45">
+        <v>15</v>
+      </c>
+      <c r="BD45">
+        <v>3.19</v>
+      </c>
+      <c r="BE45">
+        <v>9</v>
+      </c>
+      <c r="BF45">
+        <v>1.45</v>
+      </c>
+      <c r="BG45">
+        <v>1.15</v>
+      </c>
+      <c r="BH45">
+        <v>4.75</v>
+      </c>
+      <c r="BI45">
+        <v>1.29</v>
+      </c>
+      <c r="BJ45">
+        <v>3.3</v>
+      </c>
+      <c r="BK45">
+        <v>1.48</v>
+      </c>
+      <c r="BL45">
+        <v>2.5</v>
+      </c>
+      <c r="BM45">
+        <v>1.78</v>
+      </c>
+      <c r="BN45">
+        <v>2.03</v>
+      </c>
+      <c r="BO45">
+        <v>2.2</v>
+      </c>
+      <c r="BP45">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7294832</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45437.67708333334</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+      <c r="G46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H46" t="s">
+        <v>81</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="O46" t="s">
+        <v>116</v>
+      </c>
+      <c r="P46" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q46">
+        <v>2.1</v>
+      </c>
+      <c r="R46">
+        <v>2.3</v>
+      </c>
+      <c r="S46">
+        <v>5</v>
+      </c>
+      <c r="T46">
+        <v>1.3</v>
+      </c>
+      <c r="U46">
+        <v>3.2</v>
+      </c>
+      <c r="V46">
+        <v>2.5</v>
+      </c>
+      <c r="W46">
+        <v>1.47</v>
+      </c>
+      <c r="X46">
+        <v>6</v>
+      </c>
+      <c r="Y46">
+        <v>1.1</v>
+      </c>
+      <c r="Z46">
+        <v>1.7</v>
+      </c>
+      <c r="AA46">
+        <v>3.85</v>
+      </c>
+      <c r="AB46">
+        <v>4.2</v>
+      </c>
+      <c r="AC46">
+        <v>1.02</v>
+      </c>
+      <c r="AD46">
+        <v>12</v>
+      </c>
+      <c r="AE46">
+        <v>1.22</v>
+      </c>
+      <c r="AF46">
+        <v>4</v>
+      </c>
+      <c r="AG46">
+        <v>1.65</v>
+      </c>
+      <c r="AH46">
+        <v>2</v>
+      </c>
+      <c r="AI46">
+        <v>1.72</v>
+      </c>
+      <c r="AJ46">
+        <v>2.05</v>
+      </c>
+      <c r="AK46">
+        <v>1.11</v>
+      </c>
+      <c r="AL46">
+        <v>1.18</v>
+      </c>
+      <c r="AM46">
+        <v>2.25</v>
+      </c>
+      <c r="AN46">
+        <v>2.33</v>
+      </c>
+      <c r="AO46">
+        <v>1.8</v>
+      </c>
+      <c r="AP46">
+        <v>2</v>
+      </c>
+      <c r="AQ46">
+        <v>1.67</v>
+      </c>
+      <c r="AR46">
+        <v>1.74</v>
+      </c>
+      <c r="AS46">
+        <v>1.71</v>
+      </c>
+      <c r="AT46">
+        <v>3.45</v>
+      </c>
+      <c r="AU46">
+        <v>6</v>
+      </c>
+      <c r="AV46">
+        <v>7</v>
+      </c>
+      <c r="AW46">
+        <v>4</v>
+      </c>
+      <c r="AX46">
+        <v>5</v>
+      </c>
+      <c r="AY46">
+        <v>10</v>
+      </c>
+      <c r="AZ46">
+        <v>12</v>
+      </c>
+      <c r="BA46">
+        <v>5</v>
+      </c>
+      <c r="BB46">
+        <v>7</v>
+      </c>
+      <c r="BC46">
+        <v>12</v>
+      </c>
+      <c r="BD46">
+        <v>1.59</v>
+      </c>
+      <c r="BE46">
+        <v>9</v>
+      </c>
+      <c r="BF46">
+        <v>2.77</v>
+      </c>
+      <c r="BG46">
+        <v>1.11</v>
+      </c>
+      <c r="BH46">
+        <v>5.5</v>
+      </c>
+      <c r="BI46">
+        <v>1.25</v>
+      </c>
+      <c r="BJ46">
+        <v>3.6</v>
+      </c>
+      <c r="BK46">
+        <v>1.38</v>
+      </c>
+      <c r="BL46">
+        <v>2.8</v>
+      </c>
+      <c r="BM46">
+        <v>1.65</v>
+      </c>
+      <c r="BN46">
+        <v>2.1</v>
+      </c>
+      <c r="BO46">
+        <v>1.95</v>
+      </c>
+      <c r="BP46">
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="153">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -367,6 +367,12 @@
     <t>['45+2', '63']</t>
   </si>
   <si>
+    <t>['3', '11', '48', '74', '77']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -464,6 +470,9 @@
   </si>
   <si>
     <t>['28', '75']</t>
+  </si>
+  <si>
+    <t>['20', '73', '83', '85']</t>
   </si>
 </sst>
 </file>
@@ -825,7 +834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP46"/>
+  <dimension ref="A1:BP48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1368,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ3">
         <v>0.67</v>
@@ -1496,7 +1505,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1908,7 +1917,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2320,7 +2329,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2398,7 +2407,7 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>2.5</v>
@@ -2732,7 +2741,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2938,7 +2947,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3350,7 +3359,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3428,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ13">
         <v>2.25</v>
@@ -3634,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>1.75</v>
@@ -3762,7 +3771,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -3968,7 +3977,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q16">
         <v>2.07</v>
@@ -4174,7 +4183,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q17">
         <v>2.2</v>
@@ -4380,7 +4389,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4586,7 +4595,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4667,7 +4676,7 @@
         <v>3</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR19">
         <v>1.54</v>
@@ -4998,7 +5007,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5204,7 +5213,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5410,7 +5419,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5491,7 +5500,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR23">
         <v>1.8</v>
@@ -5616,7 +5625,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -5822,7 +5831,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6028,7 +6037,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6234,7 +6243,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q27">
         <v>3.35</v>
@@ -6440,7 +6449,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6518,7 +6527,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -6724,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ29">
         <v>0</v>
@@ -6852,7 +6861,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -7058,7 +7067,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7264,7 +7273,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7342,7 +7351,7 @@
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>1.67</v>
@@ -7882,7 +7891,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8088,7 +8097,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8169,7 +8178,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR36">
         <v>1.56</v>
@@ -8500,7 +8509,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8706,7 +8715,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8912,7 +8921,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9118,7 +9127,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9324,7 +9333,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9530,7 +9539,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9608,7 +9617,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -9736,7 +9745,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9942,7 +9951,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10148,7 +10157,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10305,6 +10314,418 @@
       </c>
       <c r="BP46">
         <v>1.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7294831</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45438.58333333334</v>
+      </c>
+      <c r="F47">
+        <v>8</v>
+      </c>
+      <c r="G47" t="s">
+        <v>76</v>
+      </c>
+      <c r="H47" t="s">
+        <v>72</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>5</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>5</v>
+      </c>
+      <c r="O47" t="s">
+        <v>117</v>
+      </c>
+      <c r="P47" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q47">
+        <v>2.38</v>
+      </c>
+      <c r="R47">
+        <v>2.38</v>
+      </c>
+      <c r="S47">
+        <v>3.75</v>
+      </c>
+      <c r="T47">
+        <v>1.3</v>
+      </c>
+      <c r="U47">
+        <v>3.34</v>
+      </c>
+      <c r="V47">
+        <v>2.38</v>
+      </c>
+      <c r="W47">
+        <v>1.54</v>
+      </c>
+      <c r="X47">
+        <v>5.5</v>
+      </c>
+      <c r="Y47">
+        <v>1.13</v>
+      </c>
+      <c r="Z47">
+        <v>1.9</v>
+      </c>
+      <c r="AA47">
+        <v>3.43</v>
+      </c>
+      <c r="AB47">
+        <v>3.22</v>
+      </c>
+      <c r="AC47">
+        <v>1.01</v>
+      </c>
+      <c r="AD47">
+        <v>11</v>
+      </c>
+      <c r="AE47">
+        <v>1.15</v>
+      </c>
+      <c r="AF47">
+        <v>4.75</v>
+      </c>
+      <c r="AG47">
+        <v>1.57</v>
+      </c>
+      <c r="AH47">
+        <v>2.15</v>
+      </c>
+      <c r="AI47">
+        <v>1.57</v>
+      </c>
+      <c r="AJ47">
+        <v>2.34</v>
+      </c>
+      <c r="AK47">
+        <v>1.3</v>
+      </c>
+      <c r="AL47">
+        <v>1.25</v>
+      </c>
+      <c r="AM47">
+        <v>1.88</v>
+      </c>
+      <c r="AN47">
+        <v>1.75</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>2</v>
+      </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
+      <c r="AR47">
+        <v>1.67</v>
+      </c>
+      <c r="AS47">
+        <v>1.42</v>
+      </c>
+      <c r="AT47">
+        <v>3.09</v>
+      </c>
+      <c r="AU47">
+        <v>10</v>
+      </c>
+      <c r="AV47">
+        <v>6</v>
+      </c>
+      <c r="AW47">
+        <v>5</v>
+      </c>
+      <c r="AX47">
+        <v>16</v>
+      </c>
+      <c r="AY47">
+        <v>15</v>
+      </c>
+      <c r="AZ47">
+        <v>22</v>
+      </c>
+      <c r="BA47">
+        <v>7</v>
+      </c>
+      <c r="BB47">
+        <v>7</v>
+      </c>
+      <c r="BC47">
+        <v>14</v>
+      </c>
+      <c r="BD47">
+        <v>1.75</v>
+      </c>
+      <c r="BE47">
+        <v>9</v>
+      </c>
+      <c r="BF47">
+        <v>2.4</v>
+      </c>
+      <c r="BG47">
+        <v>1.11</v>
+      </c>
+      <c r="BH47">
+        <v>5.5</v>
+      </c>
+      <c r="BI47">
+        <v>1.14</v>
+      </c>
+      <c r="BJ47">
+        <v>4.6</v>
+      </c>
+      <c r="BK47">
+        <v>1.28</v>
+      </c>
+      <c r="BL47">
+        <v>3.18</v>
+      </c>
+      <c r="BM47">
+        <v>1.51</v>
+      </c>
+      <c r="BN47">
+        <v>2.32</v>
+      </c>
+      <c r="BO47">
+        <v>1.9</v>
+      </c>
+      <c r="BP47">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7294833</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45438.58333333334</v>
+      </c>
+      <c r="F48">
+        <v>8</v>
+      </c>
+      <c r="G48" t="s">
+        <v>71</v>
+      </c>
+      <c r="H48" t="s">
+        <v>75</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>4</v>
+      </c>
+      <c r="N48">
+        <v>5</v>
+      </c>
+      <c r="O48" t="s">
+        <v>118</v>
+      </c>
+      <c r="P48" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q48">
+        <v>3.75</v>
+      </c>
+      <c r="R48">
+        <v>2.4</v>
+      </c>
+      <c r="S48">
+        <v>2.38</v>
+      </c>
+      <c r="T48">
+        <v>1.31</v>
+      </c>
+      <c r="U48">
+        <v>3.28</v>
+      </c>
+      <c r="V48">
+        <v>2.2</v>
+      </c>
+      <c r="W48">
+        <v>1.63</v>
+      </c>
+      <c r="X48">
+        <v>4.85</v>
+      </c>
+      <c r="Y48">
+        <v>1.16</v>
+      </c>
+      <c r="Z48">
+        <v>3.19</v>
+      </c>
+      <c r="AA48">
+        <v>3.44</v>
+      </c>
+      <c r="AB48">
+        <v>1.91</v>
+      </c>
+      <c r="AC48">
+        <v>1.01</v>
+      </c>
+      <c r="AD48">
+        <v>12</v>
+      </c>
+      <c r="AE48">
+        <v>1.22</v>
+      </c>
+      <c r="AF48">
+        <v>4</v>
+      </c>
+      <c r="AG48">
+        <v>1.61</v>
+      </c>
+      <c r="AH48">
+        <v>2.05</v>
+      </c>
+      <c r="AI48">
+        <v>1.47</v>
+      </c>
+      <c r="AJ48">
+        <v>2.6</v>
+      </c>
+      <c r="AK48">
+        <v>1.75</v>
+      </c>
+      <c r="AL48">
+        <v>1.2</v>
+      </c>
+      <c r="AM48">
+        <v>1.3</v>
+      </c>
+      <c r="AN48">
+        <v>1.75</v>
+      </c>
+      <c r="AO48">
+        <v>2</v>
+      </c>
+      <c r="AP48">
+        <v>1.4</v>
+      </c>
+      <c r="AQ48">
+        <v>2.25</v>
+      </c>
+      <c r="AR48">
+        <v>1.66</v>
+      </c>
+      <c r="AS48">
+        <v>1.88</v>
+      </c>
+      <c r="AT48">
+        <v>3.54</v>
+      </c>
+      <c r="AU48">
+        <v>4</v>
+      </c>
+      <c r="AV48">
+        <v>7</v>
+      </c>
+      <c r="AW48">
+        <v>6</v>
+      </c>
+      <c r="AX48">
+        <v>14</v>
+      </c>
+      <c r="AY48">
+        <v>10</v>
+      </c>
+      <c r="AZ48">
+        <v>21</v>
+      </c>
+      <c r="BA48">
+        <v>5</v>
+      </c>
+      <c r="BB48">
+        <v>11</v>
+      </c>
+      <c r="BC48">
+        <v>16</v>
+      </c>
+      <c r="BD48">
+        <v>2.65</v>
+      </c>
+      <c r="BE48">
+        <v>9</v>
+      </c>
+      <c r="BF48">
+        <v>1.64</v>
+      </c>
+      <c r="BG48">
+        <v>1.09</v>
+      </c>
+      <c r="BH48">
+        <v>5.6</v>
+      </c>
+      <c r="BI48">
+        <v>1.22</v>
+      </c>
+      <c r="BJ48">
+        <v>3.65</v>
+      </c>
+      <c r="BK48">
+        <v>1.4</v>
+      </c>
+      <c r="BL48">
+        <v>2.64</v>
+      </c>
+      <c r="BM48">
+        <v>1.7</v>
+      </c>
+      <c r="BN48">
+        <v>2.03</v>
+      </c>
+      <c r="BO48">
+        <v>2.11</v>
+      </c>
+      <c r="BP48">
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -10456,7 +10456,7 @@
         <v>3.09</v>
       </c>
       <c r="AU47">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV47">
         <v>6</v>
@@ -10465,13 +10465,13 @@
         <v>5</v>
       </c>
       <c r="AX47">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AY47">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ47">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="BA47">
         <v>7</v>
@@ -10668,16 +10668,16 @@
         <v>7</v>
       </c>
       <c r="AW48">
+        <v>2</v>
+      </c>
+      <c r="AX48">
+        <v>5</v>
+      </c>
+      <c r="AY48">
         <v>6</v>
       </c>
-      <c r="AX48">
-        <v>14</v>
-      </c>
-      <c r="AY48">
-        <v>10</v>
-      </c>
       <c r="AZ48">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="BA48">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="155">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -373,6 +373,9 @@
     <t>['15']</t>
   </si>
   <si>
+    <t>['13', '20', '63']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -473,6 +476,9 @@
   </si>
   <si>
     <t>['20', '73', '83', '85']</t>
+  </si>
+  <si>
+    <t>['70']</t>
   </si>
 </sst>
 </file>
@@ -834,7 +840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP48"/>
+  <dimension ref="A1:BP49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1505,7 +1511,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1586,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1917,7 +1923,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -1995,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ6">
         <v>2.5</v>
@@ -2329,7 +2335,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2741,7 +2747,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2947,7 +2953,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3231,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ12">
         <v>1.75</v>
@@ -3359,7 +3365,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3771,7 +3777,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -3977,7 +3983,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q16">
         <v>2.07</v>
@@ -4183,7 +4189,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q17">
         <v>2.2</v>
@@ -4389,7 +4395,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4595,7 +4601,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4882,7 +4888,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ20">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5007,7 +5013,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5213,7 +5219,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5419,7 +5425,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5625,7 +5631,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -5831,7 +5837,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -5909,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6037,7 +6043,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6243,7 +6249,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q27">
         <v>3.35</v>
@@ -6449,7 +6455,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6861,7 +6867,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -7067,7 +7073,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7273,7 +7279,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7891,7 +7897,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -7972,7 +7978,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ35">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.9</v>
@@ -8097,7 +8103,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8175,7 +8181,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ36">
         <v>2.25</v>
@@ -8509,7 +8515,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8715,7 +8721,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8921,7 +8927,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9127,7 +9133,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9333,7 +9339,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9539,7 +9545,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9745,7 +9751,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9951,7 +9957,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10157,7 +10163,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10456,7 +10462,7 @@
         <v>3.09</v>
       </c>
       <c r="AU47">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV47">
         <v>6</v>
@@ -10465,13 +10471,13 @@
         <v>5</v>
       </c>
       <c r="AX47">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AY47">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ47">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="BA47">
         <v>7</v>
@@ -10569,7 +10575,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10668,16 +10674,16 @@
         <v>7</v>
       </c>
       <c r="AW48">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX48">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AY48">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ48">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="BA48">
         <v>5</v>
@@ -10726,6 +10732,212 @@
       </c>
       <c r="BP48">
         <v>1.62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7294834</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45439.67708333334</v>
+      </c>
+      <c r="F49">
+        <v>8</v>
+      </c>
+      <c r="G49" t="s">
+        <v>74</v>
+      </c>
+      <c r="H49" t="s">
+        <v>77</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>3</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>4</v>
+      </c>
+      <c r="O49" t="s">
+        <v>119</v>
+      </c>
+      <c r="P49" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q49">
+        <v>2.6</v>
+      </c>
+      <c r="R49">
+        <v>2.4</v>
+      </c>
+      <c r="S49">
+        <v>3.25</v>
+      </c>
+      <c r="T49">
+        <v>1.28</v>
+      </c>
+      <c r="U49">
+        <v>3.48</v>
+      </c>
+      <c r="V49">
+        <v>2.29</v>
+      </c>
+      <c r="W49">
+        <v>1.58</v>
+      </c>
+      <c r="X49">
+        <v>4.85</v>
+      </c>
+      <c r="Y49">
+        <v>1.16</v>
+      </c>
+      <c r="Z49">
+        <v>2.1</v>
+      </c>
+      <c r="AA49">
+        <v>3.85</v>
+      </c>
+      <c r="AB49">
+        <v>2.85</v>
+      </c>
+      <c r="AC49">
+        <v>1.02</v>
+      </c>
+      <c r="AD49">
+        <v>10</v>
+      </c>
+      <c r="AE49">
+        <v>1.15</v>
+      </c>
+      <c r="AF49">
+        <v>4.75</v>
+      </c>
+      <c r="AG49">
+        <v>1.48</v>
+      </c>
+      <c r="AH49">
+        <v>2.31</v>
+      </c>
+      <c r="AI49">
+        <v>1.48</v>
+      </c>
+      <c r="AJ49">
+        <v>2.57</v>
+      </c>
+      <c r="AK49">
+        <v>1.36</v>
+      </c>
+      <c r="AL49">
+        <v>1.29</v>
+      </c>
+      <c r="AM49">
+        <v>1.65</v>
+      </c>
+      <c r="AN49">
+        <v>0.25</v>
+      </c>
+      <c r="AO49">
+        <v>1.33</v>
+      </c>
+      <c r="AP49">
+        <v>0.8</v>
+      </c>
+      <c r="AQ49">
+        <v>1</v>
+      </c>
+      <c r="AR49">
+        <v>1.73</v>
+      </c>
+      <c r="AS49">
+        <v>1.31</v>
+      </c>
+      <c r="AT49">
+        <v>3.04</v>
+      </c>
+      <c r="AU49">
+        <v>10</v>
+      </c>
+      <c r="AV49">
+        <v>5</v>
+      </c>
+      <c r="AW49">
+        <v>10</v>
+      </c>
+      <c r="AX49">
+        <v>7</v>
+      </c>
+      <c r="AY49">
+        <v>20</v>
+      </c>
+      <c r="AZ49">
+        <v>12</v>
+      </c>
+      <c r="BA49">
+        <v>6</v>
+      </c>
+      <c r="BB49">
+        <v>8</v>
+      </c>
+      <c r="BC49">
+        <v>14</v>
+      </c>
+      <c r="BD49">
+        <v>1.75</v>
+      </c>
+      <c r="BE49">
+        <v>9</v>
+      </c>
+      <c r="BF49">
+        <v>2.4</v>
+      </c>
+      <c r="BG49">
+        <v>1.1</v>
+      </c>
+      <c r="BH49">
+        <v>5.75</v>
+      </c>
+      <c r="BI49">
+        <v>1.2</v>
+      </c>
+      <c r="BJ49">
+        <v>4</v>
+      </c>
+      <c r="BK49">
+        <v>1.33</v>
+      </c>
+      <c r="BL49">
+        <v>3</v>
+      </c>
+      <c r="BM49">
+        <v>1.51</v>
+      </c>
+      <c r="BN49">
+        <v>2.37</v>
+      </c>
+      <c r="BO49">
+        <v>1.88</v>
+      </c>
+      <c r="BP49">
+        <v>1.92</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="157">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -376,6 +376,9 @@
     <t>['13', '20', '63']</t>
   </si>
   <si>
+    <t>['35', '43', '54', '70', '90+5']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -479,6 +482,9 @@
   </si>
   <si>
     <t>['70']</t>
+  </si>
+  <si>
+    <t>['75']</t>
   </si>
 </sst>
 </file>
@@ -840,7 +846,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP49"/>
+  <dimension ref="A1:BP51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1180,7 +1186,7 @@
         <v>3</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1511,7 +1517,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1795,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -1923,7 +1929,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2207,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
         <v>1.67</v>
@@ -2335,7 +2341,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2619,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>0.67</v>
@@ -2747,7 +2753,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2953,7 +2959,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3365,7 +3371,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3446,7 +3452,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ13">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>1.23</v>
@@ -3777,7 +3783,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -3983,7 +3989,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q16">
         <v>2.07</v>
@@ -4189,7 +4195,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q17">
         <v>2.2</v>
@@ -4395,7 +4401,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4601,7 +4607,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5013,7 +5019,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5219,7 +5225,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5425,7 +5431,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5631,7 +5637,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -5709,7 +5715,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ24">
         <v>1.67</v>
@@ -5837,7 +5843,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -5918,7 +5924,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR25">
         <v>1.51</v>
@@ -6043,7 +6049,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6249,7 +6255,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q27">
         <v>3.35</v>
@@ -6455,7 +6461,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6867,7 +6873,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -6948,7 +6954,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ30">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR30">
         <v>1.2</v>
@@ -7073,7 +7079,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7151,7 +7157,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>1.75</v>
@@ -7279,7 +7285,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7769,7 +7775,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ34">
         <v>0</v>
@@ -7897,7 +7903,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8103,7 +8109,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8515,7 +8521,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8596,7 +8602,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR38">
         <v>1.97</v>
@@ -8721,7 +8727,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8927,7 +8933,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9133,7 +9139,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9339,7 +9345,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9417,10 +9423,10 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR42">
         <v>2.07</v>
@@ -9545,7 +9551,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9751,7 +9757,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9957,7 +9963,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10038,7 +10044,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <v>2.14</v>
@@ -10163,7 +10169,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10241,7 +10247,7 @@
         <v>1.8</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ46">
         <v>1.67</v>
@@ -10575,7 +10581,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10781,7 +10787,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -10938,6 +10944,418 @@
       </c>
       <c r="BP49">
         <v>1.92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7294835</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45442.625</v>
+      </c>
+      <c r="F50">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s">
+        <v>73</v>
+      </c>
+      <c r="H50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>5</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>6</v>
+      </c>
+      <c r="O50" t="s">
+        <v>120</v>
+      </c>
+      <c r="P50" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q50">
+        <v>2.45</v>
+      </c>
+      <c r="R50">
+        <v>2.4</v>
+      </c>
+      <c r="S50">
+        <v>3.4</v>
+      </c>
+      <c r="T50">
+        <v>1.25</v>
+      </c>
+      <c r="U50">
+        <v>3.55</v>
+      </c>
+      <c r="V50">
+        <v>2.25</v>
+      </c>
+      <c r="W50">
+        <v>1.57</v>
+      </c>
+      <c r="X50">
+        <v>4.5</v>
+      </c>
+      <c r="Y50">
+        <v>1.17</v>
+      </c>
+      <c r="Z50">
+        <v>1.87</v>
+      </c>
+      <c r="AA50">
+        <v>4.31</v>
+      </c>
+      <c r="AB50">
+        <v>3.5</v>
+      </c>
+      <c r="AC50">
+        <v>1.02</v>
+      </c>
+      <c r="AD50">
+        <v>12</v>
+      </c>
+      <c r="AE50">
+        <v>1.14</v>
+      </c>
+      <c r="AF50">
+        <v>5.25</v>
+      </c>
+      <c r="AG50">
+        <v>1.5</v>
+      </c>
+      <c r="AH50">
+        <v>2.41</v>
+      </c>
+      <c r="AI50">
+        <v>1.45</v>
+      </c>
+      <c r="AJ50">
+        <v>2.45</v>
+      </c>
+      <c r="AK50">
+        <v>1.35</v>
+      </c>
+      <c r="AL50">
+        <v>1.17</v>
+      </c>
+      <c r="AM50">
+        <v>1.8</v>
+      </c>
+      <c r="AN50">
+        <v>2</v>
+      </c>
+      <c r="AO50">
+        <v>1</v>
+      </c>
+      <c r="AP50">
+        <v>2.2</v>
+      </c>
+      <c r="AQ50">
+        <v>0.75</v>
+      </c>
+      <c r="AR50">
+        <v>1.74</v>
+      </c>
+      <c r="AS50">
+        <v>1.93</v>
+      </c>
+      <c r="AT50">
+        <v>3.67</v>
+      </c>
+      <c r="AU50">
+        <v>-1</v>
+      </c>
+      <c r="AV50">
+        <v>-1</v>
+      </c>
+      <c r="AW50">
+        <v>-1</v>
+      </c>
+      <c r="AX50">
+        <v>-1</v>
+      </c>
+      <c r="AY50">
+        <v>-1</v>
+      </c>
+      <c r="AZ50">
+        <v>-1</v>
+      </c>
+      <c r="BA50">
+        <v>-1</v>
+      </c>
+      <c r="BB50">
+        <v>-1</v>
+      </c>
+      <c r="BC50">
+        <v>-1</v>
+      </c>
+      <c r="BD50">
+        <v>1.82</v>
+      </c>
+      <c r="BE50">
+        <v>8.5</v>
+      </c>
+      <c r="BF50">
+        <v>2.32</v>
+      </c>
+      <c r="BG50">
+        <v>1.11</v>
+      </c>
+      <c r="BH50">
+        <v>5.5</v>
+      </c>
+      <c r="BI50">
+        <v>1.17</v>
+      </c>
+      <c r="BJ50">
+        <v>4.4</v>
+      </c>
+      <c r="BK50">
+        <v>1.33</v>
+      </c>
+      <c r="BL50">
+        <v>3</v>
+      </c>
+      <c r="BM50">
+        <v>1.57</v>
+      </c>
+      <c r="BN50">
+        <v>2.26</v>
+      </c>
+      <c r="BO50">
+        <v>1.95</v>
+      </c>
+      <c r="BP50">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7294836</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45442.71875</v>
+      </c>
+      <c r="F51">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s">
+        <v>75</v>
+      </c>
+      <c r="H51" t="s">
+        <v>70</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51" t="s">
+        <v>101</v>
+      </c>
+      <c r="P51" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q51">
+        <v>3.1</v>
+      </c>
+      <c r="R51">
+        <v>2.3</v>
+      </c>
+      <c r="S51">
+        <v>2.75</v>
+      </c>
+      <c r="T51">
+        <v>1.25</v>
+      </c>
+      <c r="U51">
+        <v>3.55</v>
+      </c>
+      <c r="V51">
+        <v>2.1</v>
+      </c>
+      <c r="W51">
+        <v>1.65</v>
+      </c>
+      <c r="X51">
+        <v>4.5</v>
+      </c>
+      <c r="Y51">
+        <v>1.17</v>
+      </c>
+      <c r="Z51">
+        <v>2.75</v>
+      </c>
+      <c r="AA51">
+        <v>3.91</v>
+      </c>
+      <c r="AB51">
+        <v>2.32</v>
+      </c>
+      <c r="AC51">
+        <v>1.01</v>
+      </c>
+      <c r="AD51">
+        <v>10.75</v>
+      </c>
+      <c r="AE51">
+        <v>1.14</v>
+      </c>
+      <c r="AF51">
+        <v>5.25</v>
+      </c>
+      <c r="AG51">
+        <v>1.42</v>
+      </c>
+      <c r="AH51">
+        <v>2.65</v>
+      </c>
+      <c r="AI51">
+        <v>1.36</v>
+      </c>
+      <c r="AJ51">
+        <v>2.75</v>
+      </c>
+      <c r="AK51">
+        <v>1.57</v>
+      </c>
+      <c r="AL51">
+        <v>1.22</v>
+      </c>
+      <c r="AM51">
+        <v>1.44</v>
+      </c>
+      <c r="AN51">
+        <v>2.25</v>
+      </c>
+      <c r="AO51">
+        <v>2.25</v>
+      </c>
+      <c r="AP51">
+        <v>2</v>
+      </c>
+      <c r="AQ51">
+        <v>2</v>
+      </c>
+      <c r="AR51">
+        <v>2.1</v>
+      </c>
+      <c r="AS51">
+        <v>1.96</v>
+      </c>
+      <c r="AT51">
+        <v>4.06</v>
+      </c>
+      <c r="AU51">
+        <v>-1</v>
+      </c>
+      <c r="AV51">
+        <v>-1</v>
+      </c>
+      <c r="AW51">
+        <v>-1</v>
+      </c>
+      <c r="AX51">
+        <v>-1</v>
+      </c>
+      <c r="AY51">
+        <v>-1</v>
+      </c>
+      <c r="AZ51">
+        <v>-1</v>
+      </c>
+      <c r="BA51">
+        <v>-1</v>
+      </c>
+      <c r="BB51">
+        <v>-1</v>
+      </c>
+      <c r="BC51">
+        <v>-1</v>
+      </c>
+      <c r="BD51">
+        <v>1.91</v>
+      </c>
+      <c r="BE51">
+        <v>8.5</v>
+      </c>
+      <c r="BF51">
+        <v>2.1</v>
+      </c>
+      <c r="BG51">
+        <v>1.1</v>
+      </c>
+      <c r="BH51">
+        <v>5.4</v>
+      </c>
+      <c r="BI51">
+        <v>1.23</v>
+      </c>
+      <c r="BJ51">
+        <v>3.56</v>
+      </c>
+      <c r="BK51">
+        <v>1.49</v>
+      </c>
+      <c r="BL51">
+        <v>2.56</v>
+      </c>
+      <c r="BM51">
+        <v>1.8</v>
+      </c>
+      <c r="BN51">
+        <v>2</v>
+      </c>
+      <c r="BO51">
+        <v>2.23</v>
+      </c>
+      <c r="BP51">
+        <v>1.63</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="161">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -379,6 +379,12 @@
     <t>['35', '43', '54', '70', '90+5']</t>
   </si>
   <si>
+    <t>['23', '43', '59']</t>
+  </si>
+  <si>
+    <t>['14', '37']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -485,6 +491,12 @@
   </si>
   <si>
     <t>['75']</t>
+  </si>
+  <si>
+    <t>['63', '80', '86']</t>
+  </si>
+  <si>
+    <t>['16', '21', '42']</t>
   </si>
 </sst>
 </file>
@@ -846,7 +858,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP51"/>
+  <dimension ref="A1:BP53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1517,7 +1529,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1595,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1804,7 +1816,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1929,7 +1941,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2341,7 +2353,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2753,7 +2765,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2831,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ10">
         <v>1.67</v>
@@ -2959,7 +2971,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3040,7 +3052,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3371,7 +3383,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3783,7 +3795,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -3989,7 +4001,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q16">
         <v>2.07</v>
@@ -4070,7 +4082,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ16">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4195,7 +4207,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q17">
         <v>2.2</v>
@@ -4273,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ17">
         <v>0.67</v>
@@ -4401,7 +4413,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4607,7 +4619,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5019,7 +5031,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5225,7 +5237,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5431,7 +5443,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5637,7 +5649,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -5718,7 +5730,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ24">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>1.96</v>
@@ -5843,7 +5855,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6049,7 +6061,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6127,7 +6139,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
         <v>0.67</v>
@@ -6255,7 +6267,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q27">
         <v>3.35</v>
@@ -6333,7 +6345,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ27">
         <v>2.5</v>
@@ -6461,7 +6473,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6542,7 +6554,7 @@
         <v>2</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR28">
         <v>1.42</v>
@@ -6873,7 +6885,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -7079,7 +7091,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7285,7 +7297,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7366,7 +7378,7 @@
         <v>2</v>
       </c>
       <c r="AQ32">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR32">
         <v>1.74</v>
@@ -7903,7 +7915,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8109,7 +8121,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8521,7 +8533,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8727,7 +8739,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8805,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ39">
         <v>0</v>
@@ -8933,7 +8945,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9011,7 +9023,7 @@
         <v>2.33</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ40">
         <v>2.5</v>
@@ -9139,7 +9151,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9345,7 +9357,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9551,7 +9563,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9632,7 +9644,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR43">
         <v>1.57</v>
@@ -9757,7 +9769,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9963,7 +9975,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10169,7 +10181,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10581,7 +10593,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10787,7 +10799,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -10993,7 +11005,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11086,31 +11098,31 @@
         <v>3.67</v>
       </c>
       <c r="AU50">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV50">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW50">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX50">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AY50">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ50">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BA50">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB50">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC50">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD50">
         <v>1.82</v>
@@ -11199,7 +11211,7 @@
         <v>101</v>
       </c>
       <c r="P51" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -11292,31 +11304,31 @@
         <v>4.06</v>
       </c>
       <c r="AU51">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV51">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW51">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX51">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY51">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ51">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA51">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB51">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC51">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BD51">
         <v>1.91</v>
@@ -11356,6 +11368,418 @@
       </c>
       <c r="BP51">
         <v>1.63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7294837</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45443.67708333334</v>
+      </c>
+      <c r="F52">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>81</v>
+      </c>
+      <c r="H52" t="s">
+        <v>71</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>3</v>
+      </c>
+      <c r="M52">
+        <v>3</v>
+      </c>
+      <c r="N52">
+        <v>6</v>
+      </c>
+      <c r="O52" t="s">
+        <v>121</v>
+      </c>
+      <c r="P52" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q52">
+        <v>2.2</v>
+      </c>
+      <c r="R52">
+        <v>2.4</v>
+      </c>
+      <c r="S52">
+        <v>4</v>
+      </c>
+      <c r="T52">
+        <v>1.26</v>
+      </c>
+      <c r="U52">
+        <v>3.62</v>
+      </c>
+      <c r="V52">
+        <v>2.25</v>
+      </c>
+      <c r="W52">
+        <v>1.57</v>
+      </c>
+      <c r="X52">
+        <v>5</v>
+      </c>
+      <c r="Y52">
+        <v>1.15</v>
+      </c>
+      <c r="Z52">
+        <v>1.69</v>
+      </c>
+      <c r="AA52">
+        <v>4.15</v>
+      </c>
+      <c r="AB52">
+        <v>4.25</v>
+      </c>
+      <c r="AC52">
+        <v>1.03</v>
+      </c>
+      <c r="AD52">
+        <v>10</v>
+      </c>
+      <c r="AE52">
+        <v>1.13</v>
+      </c>
+      <c r="AF52">
+        <v>4.8</v>
+      </c>
+      <c r="AG52">
+        <v>1.46</v>
+      </c>
+      <c r="AH52">
+        <v>2.52</v>
+      </c>
+      <c r="AI52">
+        <v>1.53</v>
+      </c>
+      <c r="AJ52">
+        <v>2.4</v>
+      </c>
+      <c r="AK52">
+        <v>1.23</v>
+      </c>
+      <c r="AL52">
+        <v>1.22</v>
+      </c>
+      <c r="AM52">
+        <v>1.9</v>
+      </c>
+      <c r="AN52">
+        <v>1.5</v>
+      </c>
+      <c r="AO52">
+        <v>1.67</v>
+      </c>
+      <c r="AP52">
+        <v>1.33</v>
+      </c>
+      <c r="AQ52">
+        <v>1.5</v>
+      </c>
+      <c r="AR52">
+        <v>2.33</v>
+      </c>
+      <c r="AS52">
+        <v>1.59</v>
+      </c>
+      <c r="AT52">
+        <v>3.92</v>
+      </c>
+      <c r="AU52">
+        <v>7</v>
+      </c>
+      <c r="AV52">
+        <v>4</v>
+      </c>
+      <c r="AW52">
+        <v>8</v>
+      </c>
+      <c r="AX52">
+        <v>3</v>
+      </c>
+      <c r="AY52">
+        <v>15</v>
+      </c>
+      <c r="AZ52">
+        <v>7</v>
+      </c>
+      <c r="BA52">
+        <v>7</v>
+      </c>
+      <c r="BB52">
+        <v>4</v>
+      </c>
+      <c r="BC52">
+        <v>11</v>
+      </c>
+      <c r="BD52">
+        <v>1.45</v>
+      </c>
+      <c r="BE52">
+        <v>9.5</v>
+      </c>
+      <c r="BF52">
+        <v>3.26</v>
+      </c>
+      <c r="BG52">
+        <v>1.12</v>
+      </c>
+      <c r="BH52">
+        <v>5.25</v>
+      </c>
+      <c r="BI52">
+        <v>1.19</v>
+      </c>
+      <c r="BJ52">
+        <v>3.98</v>
+      </c>
+      <c r="BK52">
+        <v>1.36</v>
+      </c>
+      <c r="BL52">
+        <v>2.79</v>
+      </c>
+      <c r="BM52">
+        <v>1.62</v>
+      </c>
+      <c r="BN52">
+        <v>2.11</v>
+      </c>
+      <c r="BO52">
+        <v>2.03</v>
+      </c>
+      <c r="BP52">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7294838</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45444.54166666666</v>
+      </c>
+      <c r="F53">
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>72</v>
+      </c>
+      <c r="H53" t="s">
+        <v>79</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>3</v>
+      </c>
+      <c r="K53">
+        <v>5</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>3</v>
+      </c>
+      <c r="N53">
+        <v>5</v>
+      </c>
+      <c r="O53" t="s">
+        <v>122</v>
+      </c>
+      <c r="P53" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q53">
+        <v>2.6</v>
+      </c>
+      <c r="R53">
+        <v>2.4</v>
+      </c>
+      <c r="S53">
+        <v>3.1</v>
+      </c>
+      <c r="T53">
+        <v>1.24</v>
+      </c>
+      <c r="U53">
+        <v>3.8</v>
+      </c>
+      <c r="V53">
+        <v>2.1</v>
+      </c>
+      <c r="W53">
+        <v>1.66</v>
+      </c>
+      <c r="X53">
+        <v>4.6</v>
+      </c>
+      <c r="Y53">
+        <v>1.17</v>
+      </c>
+      <c r="Z53">
+        <v>2.1</v>
+      </c>
+      <c r="AA53">
+        <v>3.6</v>
+      </c>
+      <c r="AB53">
+        <v>2.75</v>
+      </c>
+      <c r="AC53">
+        <v>1.01</v>
+      </c>
+      <c r="AD53">
+        <v>10.75</v>
+      </c>
+      <c r="AE53">
+        <v>1.11</v>
+      </c>
+      <c r="AF53">
+        <v>5.3</v>
+      </c>
+      <c r="AG53">
+        <v>1.39</v>
+      </c>
+      <c r="AH53">
+        <v>2.56</v>
+      </c>
+      <c r="AI53">
+        <v>1.4</v>
+      </c>
+      <c r="AJ53">
+        <v>2.8</v>
+      </c>
+      <c r="AK53">
+        <v>1.42</v>
+      </c>
+      <c r="AL53">
+        <v>1.2</v>
+      </c>
+      <c r="AM53">
+        <v>1.66</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
+        <v>1</v>
+      </c>
+      <c r="AP53">
+        <v>0.83</v>
+      </c>
+      <c r="AQ53">
+        <v>1.4</v>
+      </c>
+      <c r="AR53">
+        <v>1.86</v>
+      </c>
+      <c r="AS53">
+        <v>1.85</v>
+      </c>
+      <c r="AT53">
+        <v>3.71</v>
+      </c>
+      <c r="AU53">
+        <v>8</v>
+      </c>
+      <c r="AV53">
+        <v>5</v>
+      </c>
+      <c r="AW53">
+        <v>8</v>
+      </c>
+      <c r="AX53">
+        <v>6</v>
+      </c>
+      <c r="AY53">
+        <v>16</v>
+      </c>
+      <c r="AZ53">
+        <v>11</v>
+      </c>
+      <c r="BA53">
+        <v>9</v>
+      </c>
+      <c r="BB53">
+        <v>4</v>
+      </c>
+      <c r="BC53">
+        <v>13</v>
+      </c>
+      <c r="BD53">
+        <v>1.64</v>
+      </c>
+      <c r="BE53">
+        <v>9</v>
+      </c>
+      <c r="BF53">
+        <v>2.65</v>
+      </c>
+      <c r="BG53">
+        <v>1.11</v>
+      </c>
+      <c r="BH53">
+        <v>5.5</v>
+      </c>
+      <c r="BI53">
+        <v>1.15</v>
+      </c>
+      <c r="BJ53">
+        <v>4.5</v>
+      </c>
+      <c r="BK53">
+        <v>1.3</v>
+      </c>
+      <c r="BL53">
+        <v>3.08</v>
+      </c>
+      <c r="BM53">
+        <v>1.52</v>
+      </c>
+      <c r="BN53">
+        <v>2.3</v>
+      </c>
+      <c r="BO53">
+        <v>1.92</v>
+      </c>
+      <c r="BP53">
+        <v>1.88</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="168">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -385,6 +385,15 @@
     <t>['14', '37']</t>
   </si>
   <si>
+    <t>['3', '8', '39', '70']</t>
+  </si>
+  <si>
+    <t>['14', '18', '58', '66', '79']</t>
+  </si>
+  <si>
+    <t>['6', '7', '90+1']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -497,6 +506,18 @@
   </si>
   <si>
     <t>['16', '21', '42']</t>
+  </si>
+  <si>
+    <t>['18', '41']</t>
+  </si>
+  <si>
+    <t>['1', '52']</t>
+  </si>
+  <si>
+    <t>['45+4', '51']</t>
+  </si>
+  <si>
+    <t>['12', '31', '34', '37', '74']</t>
   </si>
 </sst>
 </file>
@@ -858,7 +879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP53"/>
+  <dimension ref="A1:BP57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1198,7 +1219,7 @@
         <v>3</v>
       </c>
       <c r="AQ2">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1529,7 +1550,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1941,7 +1962,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2353,7 +2374,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2765,7 +2786,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2971,7 +2992,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3049,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ11">
         <v>1.4</v>
@@ -3258,7 +3279,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ12">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>1.36</v>
@@ -3383,7 +3404,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3670,7 +3691,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR14">
         <v>1.31</v>
@@ -3795,7 +3816,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -3873,7 +3894,7 @@
         <v>1.5</v>
       </c>
       <c r="AP15">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ15">
         <v>1.67</v>
@@ -4001,7 +4022,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q16">
         <v>2.07</v>
@@ -4079,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ16">
         <v>1.5</v>
@@ -4207,7 +4228,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q17">
         <v>2.2</v>
@@ -4413,7 +4434,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4619,7 +4640,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4700,7 +4721,7 @@
         <v>3</v>
       </c>
       <c r="AQ19">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR19">
         <v>1.54</v>
@@ -4903,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5031,7 +5052,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5237,7 +5258,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5443,7 +5464,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5521,10 +5542,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ23">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR23">
         <v>1.8</v>
@@ -5649,7 +5670,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -5855,7 +5876,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -5936,7 +5957,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ25">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR25">
         <v>1.51</v>
@@ -6061,7 +6082,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6267,7 +6288,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q27">
         <v>3.35</v>
@@ -6473,7 +6494,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6885,7 +6906,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -6963,7 +6984,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ30">
         <v>2</v>
@@ -7091,7 +7112,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7172,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR31">
         <v>1.92</v>
@@ -7297,7 +7318,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7915,7 +7936,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -7993,7 +8014,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8121,7 +8142,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8202,7 +8223,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ36">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR36">
         <v>1.56</v>
@@ -8533,7 +8554,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8611,7 +8632,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
         <v>2</v>
@@ -8739,7 +8760,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8945,7 +8966,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9151,7 +9172,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9229,10 +9250,10 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ41">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR41">
         <v>1.13</v>
@@ -9357,7 +9378,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9438,7 +9459,7 @@
         <v>2</v>
       </c>
       <c r="AQ42">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR42">
         <v>2.07</v>
@@ -9563,7 +9584,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9769,7 +9790,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9847,7 +9868,7 @@
         <v>0.6</v>
       </c>
       <c r="AP44">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ44">
         <v>0.67</v>
@@ -9975,7 +9996,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10181,7 +10202,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10593,7 +10614,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10674,7 +10695,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ48">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR48">
         <v>1.66</v>
@@ -10799,7 +10820,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11005,7 +11026,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11086,7 +11107,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ50">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR50">
         <v>1.74</v>
@@ -11211,7 +11232,7 @@
         <v>101</v>
       </c>
       <c r="P51" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -11417,7 +11438,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11623,7 +11644,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -11780,6 +11801,830 @@
       </c>
       <c r="BP53">
         <v>1.88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7294839</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45445.45833333334</v>
+      </c>
+      <c r="F54">
+        <v>9</v>
+      </c>
+      <c r="G54" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <v>5</v>
+      </c>
+      <c r="L54">
+        <v>4</v>
+      </c>
+      <c r="M54">
+        <v>2</v>
+      </c>
+      <c r="N54">
+        <v>6</v>
+      </c>
+      <c r="O54" t="s">
+        <v>123</v>
+      </c>
+      <c r="P54" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q54">
+        <v>4.5</v>
+      </c>
+      <c r="R54">
+        <v>2.45</v>
+      </c>
+      <c r="S54">
+        <v>2.05</v>
+      </c>
+      <c r="T54">
+        <v>1.25</v>
+      </c>
+      <c r="U54">
+        <v>3.72</v>
+      </c>
+      <c r="V54">
+        <v>2.2</v>
+      </c>
+      <c r="W54">
+        <v>1.63</v>
+      </c>
+      <c r="X54">
+        <v>4.85</v>
+      </c>
+      <c r="Y54">
+        <v>1.16</v>
+      </c>
+      <c r="Z54">
+        <v>4.8</v>
+      </c>
+      <c r="AA54">
+        <v>4.25</v>
+      </c>
+      <c r="AB54">
+        <v>1.58</v>
+      </c>
+      <c r="AC54">
+        <v>1.02</v>
+      </c>
+      <c r="AD54">
+        <v>12</v>
+      </c>
+      <c r="AE54">
+        <v>1.12</v>
+      </c>
+      <c r="AF54">
+        <v>4.95</v>
+      </c>
+      <c r="AG54">
+        <v>1.52</v>
+      </c>
+      <c r="AH54">
+        <v>2.45</v>
+      </c>
+      <c r="AI54">
+        <v>1.57</v>
+      </c>
+      <c r="AJ54">
+        <v>2.3</v>
+      </c>
+      <c r="AK54">
+        <v>2.3</v>
+      </c>
+      <c r="AL54">
+        <v>1.17</v>
+      </c>
+      <c r="AM54">
+        <v>1.12</v>
+      </c>
+      <c r="AN54">
+        <v>1.5</v>
+      </c>
+      <c r="AO54">
+        <v>0.75</v>
+      </c>
+      <c r="AP54">
+        <v>2</v>
+      </c>
+      <c r="AQ54">
+        <v>0.6</v>
+      </c>
+      <c r="AR54">
+        <v>1.32</v>
+      </c>
+      <c r="AS54">
+        <v>1.86</v>
+      </c>
+      <c r="AT54">
+        <v>3.18</v>
+      </c>
+      <c r="AU54">
+        <v>7</v>
+      </c>
+      <c r="AV54">
+        <v>7</v>
+      </c>
+      <c r="AW54">
+        <v>1</v>
+      </c>
+      <c r="AX54">
+        <v>4</v>
+      </c>
+      <c r="AY54">
+        <v>8</v>
+      </c>
+      <c r="AZ54">
+        <v>11</v>
+      </c>
+      <c r="BA54">
+        <v>2</v>
+      </c>
+      <c r="BB54">
+        <v>5</v>
+      </c>
+      <c r="BC54">
+        <v>7</v>
+      </c>
+      <c r="BD54">
+        <v>3.14</v>
+      </c>
+      <c r="BE54">
+        <v>9</v>
+      </c>
+      <c r="BF54">
+        <v>1.51</v>
+      </c>
+      <c r="BG54">
+        <v>1.08</v>
+      </c>
+      <c r="BH54">
+        <v>5.8</v>
+      </c>
+      <c r="BI54">
+        <v>1.2</v>
+      </c>
+      <c r="BJ54">
+        <v>3.88</v>
+      </c>
+      <c r="BK54">
+        <v>1.38</v>
+      </c>
+      <c r="BL54">
+        <v>2.71</v>
+      </c>
+      <c r="BM54">
+        <v>1.66</v>
+      </c>
+      <c r="BN54">
+        <v>2.09</v>
+      </c>
+      <c r="BO54">
+        <v>2.04</v>
+      </c>
+      <c r="BP54">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7294840</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45445.58333333334</v>
+      </c>
+      <c r="F55">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>70</v>
+      </c>
+      <c r="H55" t="s">
+        <v>74</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>3</v>
+      </c>
+      <c r="L55">
+        <v>5</v>
+      </c>
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="N55">
+        <v>7</v>
+      </c>
+      <c r="O55" t="s">
+        <v>124</v>
+      </c>
+      <c r="P55" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q55">
+        <v>1.54</v>
+      </c>
+      <c r="R55">
+        <v>3.04</v>
+      </c>
+      <c r="S55">
+        <v>7.9</v>
+      </c>
+      <c r="T55">
+        <v>1.18</v>
+      </c>
+      <c r="U55">
+        <v>4.55</v>
+      </c>
+      <c r="V55">
+        <v>1.89</v>
+      </c>
+      <c r="W55">
+        <v>1.85</v>
+      </c>
+      <c r="X55">
+        <v>3.72</v>
+      </c>
+      <c r="Y55">
+        <v>1.25</v>
+      </c>
+      <c r="Z55">
+        <v>1.2</v>
+      </c>
+      <c r="AA55">
+        <v>7.1</v>
+      </c>
+      <c r="AB55">
+        <v>11</v>
+      </c>
+      <c r="AC55">
+        <v>1.01</v>
+      </c>
+      <c r="AD55">
+        <v>11.75</v>
+      </c>
+      <c r="AE55">
+        <v>1.06</v>
+      </c>
+      <c r="AF55">
+        <v>6.75</v>
+      </c>
+      <c r="AG55">
+        <v>1.3</v>
+      </c>
+      <c r="AH55">
+        <v>3.21</v>
+      </c>
+      <c r="AI55">
+        <v>1.71</v>
+      </c>
+      <c r="AJ55">
+        <v>2.08</v>
+      </c>
+      <c r="AK55">
+        <v>1.02</v>
+      </c>
+      <c r="AL55">
+        <v>1.09</v>
+      </c>
+      <c r="AM55">
+        <v>4.15</v>
+      </c>
+      <c r="AN55">
+        <v>3</v>
+      </c>
+      <c r="AO55">
+        <v>0</v>
+      </c>
+      <c r="AP55">
+        <v>3</v>
+      </c>
+      <c r="AQ55">
+        <v>0</v>
+      </c>
+      <c r="AR55">
+        <v>1.88</v>
+      </c>
+      <c r="AS55">
+        <v>1.75</v>
+      </c>
+      <c r="AT55">
+        <v>3.63</v>
+      </c>
+      <c r="AU55">
+        <v>10</v>
+      </c>
+      <c r="AV55">
+        <v>5</v>
+      </c>
+      <c r="AW55">
+        <v>2</v>
+      </c>
+      <c r="AX55">
+        <v>3</v>
+      </c>
+      <c r="AY55">
+        <v>12</v>
+      </c>
+      <c r="AZ55">
+        <v>8</v>
+      </c>
+      <c r="BA55">
+        <v>5</v>
+      </c>
+      <c r="BB55">
+        <v>3</v>
+      </c>
+      <c r="BC55">
+        <v>8</v>
+      </c>
+      <c r="BD55">
+        <v>1.18</v>
+      </c>
+      <c r="BE55">
+        <v>12</v>
+      </c>
+      <c r="BF55">
+        <v>6.11</v>
+      </c>
+      <c r="BG55">
+        <v>1.13</v>
+      </c>
+      <c r="BH55">
+        <v>5</v>
+      </c>
+      <c r="BI55">
+        <v>1.18</v>
+      </c>
+      <c r="BJ55">
+        <v>4.05</v>
+      </c>
+      <c r="BK55">
+        <v>1.35</v>
+      </c>
+      <c r="BL55">
+        <v>2.84</v>
+      </c>
+      <c r="BM55">
+        <v>1.6</v>
+      </c>
+      <c r="BN55">
+        <v>2.14</v>
+      </c>
+      <c r="BO55">
+        <v>1.96</v>
+      </c>
+      <c r="BP55">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7294842</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45445.67708333334</v>
+      </c>
+      <c r="F56">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>77</v>
+      </c>
+      <c r="H56" t="s">
+        <v>75</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56" t="s">
+        <v>91</v>
+      </c>
+      <c r="P56" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q56">
+        <v>5</v>
+      </c>
+      <c r="R56">
+        <v>2.85</v>
+      </c>
+      <c r="S56">
+        <v>1.75</v>
+      </c>
+      <c r="T56">
+        <v>1.18</v>
+      </c>
+      <c r="U56">
+        <v>4.45</v>
+      </c>
+      <c r="V56">
+        <v>1.87</v>
+      </c>
+      <c r="W56">
+        <v>1.83</v>
+      </c>
+      <c r="X56">
+        <v>3.8</v>
+      </c>
+      <c r="Y56">
+        <v>1.24</v>
+      </c>
+      <c r="Z56">
+        <v>5.73</v>
+      </c>
+      <c r="AA56">
+        <v>4.85</v>
+      </c>
+      <c r="AB56">
+        <v>1.4</v>
+      </c>
+      <c r="AC56">
+        <v>1.01</v>
+      </c>
+      <c r="AD56">
+        <v>11.5</v>
+      </c>
+      <c r="AE56">
+        <v>1.06</v>
+      </c>
+      <c r="AF56">
+        <v>6.55</v>
+      </c>
+      <c r="AG56">
+        <v>1.31</v>
+      </c>
+      <c r="AH56">
+        <v>3.15</v>
+      </c>
+      <c r="AI56">
+        <v>1.5</v>
+      </c>
+      <c r="AJ56">
+        <v>2.5</v>
+      </c>
+      <c r="AK56">
+        <v>3</v>
+      </c>
+      <c r="AL56">
+        <v>1.1</v>
+      </c>
+      <c r="AM56">
+        <v>1.06</v>
+      </c>
+      <c r="AN56">
+        <v>0.75</v>
+      </c>
+      <c r="AO56">
+        <v>2.25</v>
+      </c>
+      <c r="AP56">
+        <v>0.6</v>
+      </c>
+      <c r="AQ56">
+        <v>2.4</v>
+      </c>
+      <c r="AR56">
+        <v>1.21</v>
+      </c>
+      <c r="AS56">
+        <v>2.04</v>
+      </c>
+      <c r="AT56">
+        <v>3.25</v>
+      </c>
+      <c r="AU56">
+        <v>4</v>
+      </c>
+      <c r="AV56">
+        <v>10</v>
+      </c>
+      <c r="AW56">
+        <v>2</v>
+      </c>
+      <c r="AX56">
+        <v>5</v>
+      </c>
+      <c r="AY56">
+        <v>6</v>
+      </c>
+      <c r="AZ56">
+        <v>15</v>
+      </c>
+      <c r="BA56">
+        <v>4</v>
+      </c>
+      <c r="BB56">
+        <v>4</v>
+      </c>
+      <c r="BC56">
+        <v>8</v>
+      </c>
+      <c r="BD56">
+        <v>4.46</v>
+      </c>
+      <c r="BE56">
+        <v>11</v>
+      </c>
+      <c r="BF56">
+        <v>1.26</v>
+      </c>
+      <c r="BG56">
+        <v>1.11</v>
+      </c>
+      <c r="BH56">
+        <v>5.5</v>
+      </c>
+      <c r="BI56">
+        <v>1.25</v>
+      </c>
+      <c r="BJ56">
+        <v>3.6</v>
+      </c>
+      <c r="BK56">
+        <v>1.32</v>
+      </c>
+      <c r="BL56">
+        <v>3.1</v>
+      </c>
+      <c r="BM56">
+        <v>1.56</v>
+      </c>
+      <c r="BN56">
+        <v>2.27</v>
+      </c>
+      <c r="BO56">
+        <v>1.96</v>
+      </c>
+      <c r="BP56">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7294841</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45446.67708333334</v>
+      </c>
+      <c r="F57">
+        <v>9</v>
+      </c>
+      <c r="G57" t="s">
+        <v>78</v>
+      </c>
+      <c r="H57" t="s">
+        <v>73</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>4</v>
+      </c>
+      <c r="K57">
+        <v>6</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <v>5</v>
+      </c>
+      <c r="N57">
+        <v>8</v>
+      </c>
+      <c r="O57" t="s">
+        <v>125</v>
+      </c>
+      <c r="P57" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q57">
+        <v>3.28</v>
+      </c>
+      <c r="R57">
+        <v>2.49</v>
+      </c>
+      <c r="S57">
+        <v>2.51</v>
+      </c>
+      <c r="T57">
+        <v>1.21</v>
+      </c>
+      <c r="U57">
+        <v>4.15</v>
+      </c>
+      <c r="V57">
+        <v>2.02</v>
+      </c>
+      <c r="W57">
+        <v>1.74</v>
+      </c>
+      <c r="X57">
+        <v>4.25</v>
+      </c>
+      <c r="Y57">
+        <v>1.2</v>
+      </c>
+      <c r="Z57">
+        <v>2.68</v>
+      </c>
+      <c r="AA57">
+        <v>3.7</v>
+      </c>
+      <c r="AB57">
+        <v>2.12</v>
+      </c>
+      <c r="AC57">
+        <v>1.01</v>
+      </c>
+      <c r="AD57">
+        <v>11</v>
+      </c>
+      <c r="AE57">
+        <v>1.08</v>
+      </c>
+      <c r="AF57">
+        <v>5.85</v>
+      </c>
+      <c r="AG57">
+        <v>1.36</v>
+      </c>
+      <c r="AH57">
+        <v>2.9</v>
+      </c>
+      <c r="AI57">
+        <v>1.36</v>
+      </c>
+      <c r="AJ57">
+        <v>2.89</v>
+      </c>
+      <c r="AK57">
+        <v>1.69</v>
+      </c>
+      <c r="AL57">
+        <v>1.23</v>
+      </c>
+      <c r="AM57">
+        <v>1.38</v>
+      </c>
+      <c r="AN57">
+        <v>0.25</v>
+      </c>
+      <c r="AO57">
+        <v>1.75</v>
+      </c>
+      <c r="AP57">
+        <v>0.2</v>
+      </c>
+      <c r="AQ57">
+        <v>2</v>
+      </c>
+      <c r="AR57">
+        <v>2.05</v>
+      </c>
+      <c r="AS57">
+        <v>2.42</v>
+      </c>
+      <c r="AT57">
+        <v>4.47</v>
+      </c>
+      <c r="AU57">
+        <v>8</v>
+      </c>
+      <c r="AV57">
+        <v>6</v>
+      </c>
+      <c r="AW57">
+        <v>4</v>
+      </c>
+      <c r="AX57">
+        <v>8</v>
+      </c>
+      <c r="AY57">
+        <v>12</v>
+      </c>
+      <c r="AZ57">
+        <v>14</v>
+      </c>
+      <c r="BA57">
+        <v>9</v>
+      </c>
+      <c r="BB57">
+        <v>4</v>
+      </c>
+      <c r="BC57">
+        <v>13</v>
+      </c>
+      <c r="BD57">
+        <v>1.95</v>
+      </c>
+      <c r="BE57">
+        <v>9</v>
+      </c>
+      <c r="BF57">
+        <v>2.05</v>
+      </c>
+      <c r="BG57">
+        <v>0</v>
+      </c>
+      <c r="BH57">
+        <v>0</v>
+      </c>
+      <c r="BI57">
+        <v>1.13</v>
+      </c>
+      <c r="BJ57">
+        <v>4.75</v>
+      </c>
+      <c r="BK57">
+        <v>1.27</v>
+      </c>
+      <c r="BL57">
+        <v>3.28</v>
+      </c>
+      <c r="BM57">
+        <v>1.48</v>
+      </c>
+      <c r="BN57">
+        <v>2.4</v>
+      </c>
+      <c r="BO57">
+        <v>1.85</v>
+      </c>
+      <c r="BP57">
+        <v>1.95</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="178">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -394,6 +394,21 @@
     <t>['6', '7', '90+1']</t>
   </si>
   <si>
+    <t>['34', '73', '79']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['39', '81', '90+4', '90+6']</t>
+  </si>
+  <si>
+    <t>['86', '90']</t>
+  </si>
+  <si>
+    <t>['54', '90+4']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -518,6 +533,21 @@
   </si>
   <si>
     <t>['12', '31', '34', '37', '74']</t>
+  </si>
+  <si>
+    <t>['27', '88']</t>
+  </si>
+  <si>
+    <t>['69', '74']</t>
+  </si>
+  <si>
+    <t>['27', '90+6']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['35', '58']</t>
   </si>
 </sst>
 </file>
@@ -879,7 +909,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP57"/>
+  <dimension ref="A1:BP62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1422,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ3">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1550,7 +1580,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1631,7 +1661,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1834,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
         <v>1.4</v>
@@ -1962,7 +1992,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2040,10 +2070,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ6">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2249,7 +2279,7 @@
         <v>2</v>
       </c>
       <c r="AQ7">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2374,7 +2404,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2452,10 +2482,10 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ8">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2661,7 +2691,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR9">
         <v>1.31</v>
@@ -2786,7 +2816,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2867,7 +2897,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ10">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR10">
         <v>2.8</v>
@@ -2992,7 +3022,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3276,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ12">
         <v>2</v>
@@ -3404,7 +3434,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3482,10 +3512,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR13">
         <v>1.23</v>
@@ -3688,7 +3718,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ14">
         <v>2</v>
@@ -3816,7 +3846,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -3897,7 +3927,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ15">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR15">
         <v>1.21</v>
@@ -4022,7 +4052,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q16">
         <v>2.07</v>
@@ -4228,7 +4258,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q17">
         <v>2.2</v>
@@ -4309,7 +4339,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ17">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR17">
         <v>2.26</v>
@@ -4434,7 +4464,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4512,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -4640,7 +4670,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4927,7 +4957,7 @@
         <v>2</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5052,7 +5082,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5130,10 +5160,10 @@
         <v>2</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ21">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR21">
         <v>2.58</v>
@@ -5258,7 +5288,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5464,7 +5494,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5670,7 +5700,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -5748,7 +5778,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>1.5</v>
@@ -5876,7 +5906,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -5954,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ25">
         <v>0.6</v>
@@ -6082,7 +6112,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6163,7 +6193,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ26">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6288,7 +6318,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q27">
         <v>3.35</v>
@@ -6369,7 +6399,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ27">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR27">
         <v>1.91</v>
@@ -6494,7 +6524,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6572,7 +6602,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ28">
         <v>1.4</v>
@@ -6778,7 +6808,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ29">
         <v>0</v>
@@ -6906,7 +6936,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -6987,7 +7017,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ30">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR30">
         <v>1.2</v>
@@ -7112,7 +7142,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7318,7 +7348,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7396,7 +7426,7 @@
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ32">
         <v>1.5</v>
@@ -7602,10 +7632,10 @@
         <v>0.75</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ33">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR33">
         <v>2.09</v>
@@ -7808,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
         <v>0</v>
@@ -7936,7 +7966,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8017,7 +8047,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR35">
         <v>1.9</v>
@@ -8142,7 +8172,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8220,7 +8250,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ36">
         <v>2.4</v>
@@ -8429,7 +8459,7 @@
         <v>3</v>
       </c>
       <c r="AQ37">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR37">
         <v>2.05</v>
@@ -8554,7 +8584,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8635,7 +8665,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR38">
         <v>1.97</v>
@@ -8760,7 +8790,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8966,7 +8996,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9047,7 +9077,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ40">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR40">
         <v>2.29</v>
@@ -9172,7 +9202,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9378,7 +9408,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9584,7 +9614,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9662,7 +9692,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ43">
         <v>1.4</v>
@@ -9790,7 +9820,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9871,7 +9901,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ44">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR44">
         <v>2.01</v>
@@ -9996,7 +10026,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10074,10 +10104,10 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR45">
         <v>2.14</v>
@@ -10202,7 +10232,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10280,10 +10310,10 @@
         <v>1.8</v>
       </c>
       <c r="AP46">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR46">
         <v>1.74</v>
@@ -10486,7 +10516,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ47">
         <v>0</v>
@@ -10614,7 +10644,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10692,7 +10722,7 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ48">
         <v>2.4</v>
@@ -10820,7 +10850,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -10898,10 +10928,10 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR49">
         <v>1.73</v>
@@ -11026,7 +11056,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11104,7 +11134,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
         <v>0.6</v>
@@ -11232,7 +11262,7 @@
         <v>101</v>
       </c>
       <c r="P51" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -11313,7 +11343,7 @@
         <v>2</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR51">
         <v>2.1</v>
@@ -11438,7 +11468,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11644,7 +11674,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -11850,7 +11880,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12056,7 +12086,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12262,7 +12292,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12468,7 +12498,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -12625,6 +12655,1036 @@
       </c>
       <c r="BP57">
         <v>1.95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7294843</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45461.625</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>74</v>
+      </c>
+      <c r="H58" t="s">
+        <v>80</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
+        <v>2</v>
+      </c>
+      <c r="N58">
+        <v>5</v>
+      </c>
+      <c r="O58" t="s">
+        <v>126</v>
+      </c>
+      <c r="P58" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q58">
+        <v>2.31</v>
+      </c>
+      <c r="R58">
+        <v>2.49</v>
+      </c>
+      <c r="S58">
+        <v>3.7</v>
+      </c>
+      <c r="T58">
+        <v>1.22</v>
+      </c>
+      <c r="U58">
+        <v>4</v>
+      </c>
+      <c r="V58">
+        <v>2.07</v>
+      </c>
+      <c r="W58">
+        <v>1.71</v>
+      </c>
+      <c r="X58">
+        <v>4.4</v>
+      </c>
+      <c r="Y58">
+        <v>1.19</v>
+      </c>
+      <c r="Z58">
+        <v>1.78</v>
+      </c>
+      <c r="AA58">
+        <v>3.9</v>
+      </c>
+      <c r="AB58">
+        <v>3.3</v>
+      </c>
+      <c r="AC58">
+        <v>1.01</v>
+      </c>
+      <c r="AD58">
+        <v>11</v>
+      </c>
+      <c r="AE58">
+        <v>1.09</v>
+      </c>
+      <c r="AF58">
+        <v>5.6</v>
+      </c>
+      <c r="AG58">
+        <v>1.38</v>
+      </c>
+      <c r="AH58">
+        <v>2.81</v>
+      </c>
+      <c r="AI58">
+        <v>1.4</v>
+      </c>
+      <c r="AJ58">
+        <v>2.72</v>
+      </c>
+      <c r="AK58">
+        <v>1.28</v>
+      </c>
+      <c r="AL58">
+        <v>1.22</v>
+      </c>
+      <c r="AM58">
+        <v>1.89</v>
+      </c>
+      <c r="AN58">
+        <v>0.8</v>
+      </c>
+      <c r="AO58">
+        <v>0.67</v>
+      </c>
+      <c r="AP58">
+        <v>1.17</v>
+      </c>
+      <c r="AQ58">
+        <v>0.57</v>
+      </c>
+      <c r="AR58">
+        <v>1.94</v>
+      </c>
+      <c r="AS58">
+        <v>1.25</v>
+      </c>
+      <c r="AT58">
+        <v>3.19</v>
+      </c>
+      <c r="AU58">
+        <v>-1</v>
+      </c>
+      <c r="AV58">
+        <v>-1</v>
+      </c>
+      <c r="AW58">
+        <v>-1</v>
+      </c>
+      <c r="AX58">
+        <v>-1</v>
+      </c>
+      <c r="AY58">
+        <v>-1</v>
+      </c>
+      <c r="AZ58">
+        <v>-1</v>
+      </c>
+      <c r="BA58">
+        <v>-1</v>
+      </c>
+      <c r="BB58">
+        <v>-1</v>
+      </c>
+      <c r="BC58">
+        <v>-1</v>
+      </c>
+      <c r="BD58">
+        <v>1.64</v>
+      </c>
+      <c r="BE58">
+        <v>9</v>
+      </c>
+      <c r="BF58">
+        <v>2.63</v>
+      </c>
+      <c r="BG58">
+        <v>1.11</v>
+      </c>
+      <c r="BH58">
+        <v>5.5</v>
+      </c>
+      <c r="BI58">
+        <v>1.18</v>
+      </c>
+      <c r="BJ58">
+        <v>4.3</v>
+      </c>
+      <c r="BK58">
+        <v>1.35</v>
+      </c>
+      <c r="BL58">
+        <v>2.9</v>
+      </c>
+      <c r="BM58">
+        <v>1.59</v>
+      </c>
+      <c r="BN58">
+        <v>2.2</v>
+      </c>
+      <c r="BO58">
+        <v>2</v>
+      </c>
+      <c r="BP58">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7294845</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45461.67708333334</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>71</v>
+      </c>
+      <c r="H59" t="s">
+        <v>77</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59">
+        <v>3</v>
+      </c>
+      <c r="O59" t="s">
+        <v>127</v>
+      </c>
+      <c r="P59" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q59">
+        <v>2.1</v>
+      </c>
+      <c r="R59">
+        <v>2.46</v>
+      </c>
+      <c r="S59">
+        <v>4.5</v>
+      </c>
+      <c r="T59">
+        <v>1.25</v>
+      </c>
+      <c r="U59">
+        <v>3.72</v>
+      </c>
+      <c r="V59">
+        <v>2.18</v>
+      </c>
+      <c r="W59">
+        <v>1.64</v>
+      </c>
+      <c r="X59">
+        <v>4.8</v>
+      </c>
+      <c r="Y59">
+        <v>1.16</v>
+      </c>
+      <c r="Z59">
+        <v>1.61</v>
+      </c>
+      <c r="AA59">
+        <v>4.05</v>
+      </c>
+      <c r="AB59">
+        <v>4.05</v>
+      </c>
+      <c r="AC59">
+        <v>1.02</v>
+      </c>
+      <c r="AD59">
+        <v>12</v>
+      </c>
+      <c r="AE59">
+        <v>1.12</v>
+      </c>
+      <c r="AF59">
+        <v>5.05</v>
+      </c>
+      <c r="AG59">
+        <v>1.45</v>
+      </c>
+      <c r="AH59">
+        <v>2.56</v>
+      </c>
+      <c r="AI59">
+        <v>1.52</v>
+      </c>
+      <c r="AJ59">
+        <v>2.36</v>
+      </c>
+      <c r="AK59">
+        <v>1.18</v>
+      </c>
+      <c r="AL59">
+        <v>1.2</v>
+      </c>
+      <c r="AM59">
+        <v>2.2</v>
+      </c>
+      <c r="AN59">
+        <v>1.4</v>
+      </c>
+      <c r="AO59">
+        <v>1</v>
+      </c>
+      <c r="AP59">
+        <v>1.17</v>
+      </c>
+      <c r="AQ59">
+        <v>1.4</v>
+      </c>
+      <c r="AR59">
+        <v>1.64</v>
+      </c>
+      <c r="AS59">
+        <v>1.44</v>
+      </c>
+      <c r="AT59">
+        <v>3.08</v>
+      </c>
+      <c r="AU59">
+        <v>-1</v>
+      </c>
+      <c r="AV59">
+        <v>-1</v>
+      </c>
+      <c r="AW59">
+        <v>-1</v>
+      </c>
+      <c r="AX59">
+        <v>-1</v>
+      </c>
+      <c r="AY59">
+        <v>-1</v>
+      </c>
+      <c r="AZ59">
+        <v>-1</v>
+      </c>
+      <c r="BA59">
+        <v>-1</v>
+      </c>
+      <c r="BB59">
+        <v>-1</v>
+      </c>
+      <c r="BC59">
+        <v>-1</v>
+      </c>
+      <c r="BD59">
+        <v>1.31</v>
+      </c>
+      <c r="BE59">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF59">
+        <v>4.55</v>
+      </c>
+      <c r="BG59">
+        <v>1.11</v>
+      </c>
+      <c r="BH59">
+        <v>5.5</v>
+      </c>
+      <c r="BI59">
+        <v>1.16</v>
+      </c>
+      <c r="BJ59">
+        <v>4.3</v>
+      </c>
+      <c r="BK59">
+        <v>1.32</v>
+      </c>
+      <c r="BL59">
+        <v>2.98</v>
+      </c>
+      <c r="BM59">
+        <v>1.6</v>
+      </c>
+      <c r="BN59">
+        <v>2.28</v>
+      </c>
+      <c r="BO59">
+        <v>1.97</v>
+      </c>
+      <c r="BP59">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7294846</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45461.67708333334</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>76</v>
+      </c>
+      <c r="H60" t="s">
+        <v>81</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>4</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="N60">
+        <v>6</v>
+      </c>
+      <c r="O60" t="s">
+        <v>128</v>
+      </c>
+      <c r="P60" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q60">
+        <v>2.5</v>
+      </c>
+      <c r="R60">
+        <v>2.4</v>
+      </c>
+      <c r="S60">
+        <v>3.5</v>
+      </c>
+      <c r="T60">
+        <v>1.24</v>
+      </c>
+      <c r="U60">
+        <v>3.8</v>
+      </c>
+      <c r="V60">
+        <v>2.13</v>
+      </c>
+      <c r="W60">
+        <v>1.67</v>
+      </c>
+      <c r="X60">
+        <v>4.6</v>
+      </c>
+      <c r="Y60">
+        <v>1.17</v>
+      </c>
+      <c r="Z60">
+        <v>1.98</v>
+      </c>
+      <c r="AA60">
+        <v>3.65</v>
+      </c>
+      <c r="AB60">
+        <v>2.91</v>
+      </c>
+      <c r="AC60">
+        <v>1.02</v>
+      </c>
+      <c r="AD60">
+        <v>10.5</v>
+      </c>
+      <c r="AE60">
+        <v>1.11</v>
+      </c>
+      <c r="AF60">
+        <v>5.25</v>
+      </c>
+      <c r="AG60">
+        <v>1.43</v>
+      </c>
+      <c r="AH60">
+        <v>2.62</v>
+      </c>
+      <c r="AI60">
+        <v>1.41</v>
+      </c>
+      <c r="AJ60">
+        <v>2.69</v>
+      </c>
+      <c r="AK60">
+        <v>1.35</v>
+      </c>
+      <c r="AL60">
+        <v>1.25</v>
+      </c>
+      <c r="AM60">
+        <v>1.62</v>
+      </c>
+      <c r="AN60">
+        <v>2</v>
+      </c>
+      <c r="AO60">
+        <v>1.67</v>
+      </c>
+      <c r="AP60">
+        <v>2.17</v>
+      </c>
+      <c r="AQ60">
+        <v>1.43</v>
+      </c>
+      <c r="AR60">
+        <v>1.74</v>
+      </c>
+      <c r="AS60">
+        <v>1.76</v>
+      </c>
+      <c r="AT60">
+        <v>3.5</v>
+      </c>
+      <c r="AU60">
+        <v>-1</v>
+      </c>
+      <c r="AV60">
+        <v>-1</v>
+      </c>
+      <c r="AW60">
+        <v>-1</v>
+      </c>
+      <c r="AX60">
+        <v>-1</v>
+      </c>
+      <c r="AY60">
+        <v>-1</v>
+      </c>
+      <c r="AZ60">
+        <v>-1</v>
+      </c>
+      <c r="BA60">
+        <v>-1</v>
+      </c>
+      <c r="BB60">
+        <v>-1</v>
+      </c>
+      <c r="BC60">
+        <v>-1</v>
+      </c>
+      <c r="BD60">
+        <v>1.95</v>
+      </c>
+      <c r="BE60">
+        <v>8.5</v>
+      </c>
+      <c r="BF60">
+        <v>2.1</v>
+      </c>
+      <c r="BG60">
+        <v>1.13</v>
+      </c>
+      <c r="BH60">
+        <v>5</v>
+      </c>
+      <c r="BI60">
+        <v>1.21</v>
+      </c>
+      <c r="BJ60">
+        <v>3.9</v>
+      </c>
+      <c r="BK60">
+        <v>1.4</v>
+      </c>
+      <c r="BL60">
+        <v>2.75</v>
+      </c>
+      <c r="BM60">
+        <v>1.67</v>
+      </c>
+      <c r="BN60">
+        <v>2.07</v>
+      </c>
+      <c r="BO60">
+        <v>2.1</v>
+      </c>
+      <c r="BP60">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7294847</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45461.67708333334</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>79</v>
+      </c>
+      <c r="H61" t="s">
+        <v>78</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>3</v>
+      </c>
+      <c r="O61" t="s">
+        <v>129</v>
+      </c>
+      <c r="P61" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q61">
+        <v>2.9</v>
+      </c>
+      <c r="R61">
+        <v>2.5</v>
+      </c>
+      <c r="S61">
+        <v>2.8</v>
+      </c>
+      <c r="T61">
+        <v>1.2</v>
+      </c>
+      <c r="U61">
+        <v>4</v>
+      </c>
+      <c r="V61">
+        <v>2</v>
+      </c>
+      <c r="W61">
+        <v>1.73</v>
+      </c>
+      <c r="X61">
+        <v>4</v>
+      </c>
+      <c r="Y61">
+        <v>1.2</v>
+      </c>
+      <c r="Z61">
+        <v>2.36</v>
+      </c>
+      <c r="AA61">
+        <v>3.7</v>
+      </c>
+      <c r="AB61">
+        <v>2.34</v>
+      </c>
+      <c r="AC61">
+        <v>1.01</v>
+      </c>
+      <c r="AD61">
+        <v>11</v>
+      </c>
+      <c r="AE61">
+        <v>1.1</v>
+      </c>
+      <c r="AF61">
+        <v>5.75</v>
+      </c>
+      <c r="AG61">
+        <v>1.36</v>
+      </c>
+      <c r="AH61">
+        <v>2.89</v>
+      </c>
+      <c r="AI61">
+        <v>1.36</v>
+      </c>
+      <c r="AJ61">
+        <v>2.99</v>
+      </c>
+      <c r="AK61">
+        <v>1.53</v>
+      </c>
+      <c r="AL61">
+        <v>1.29</v>
+      </c>
+      <c r="AM61">
+        <v>1.5</v>
+      </c>
+      <c r="AN61">
+        <v>1.5</v>
+      </c>
+      <c r="AO61">
+        <v>2.5</v>
+      </c>
+      <c r="AP61">
+        <v>1.8</v>
+      </c>
+      <c r="AQ61">
+        <v>2</v>
+      </c>
+      <c r="AR61">
+        <v>1.93</v>
+      </c>
+      <c r="AS61">
+        <v>2.04</v>
+      </c>
+      <c r="AT61">
+        <v>3.97</v>
+      </c>
+      <c r="AU61">
+        <v>-1</v>
+      </c>
+      <c r="AV61">
+        <v>-1</v>
+      </c>
+      <c r="AW61">
+        <v>-1</v>
+      </c>
+      <c r="AX61">
+        <v>-1</v>
+      </c>
+      <c r="AY61">
+        <v>-1</v>
+      </c>
+      <c r="AZ61">
+        <v>-1</v>
+      </c>
+      <c r="BA61">
+        <v>-1</v>
+      </c>
+      <c r="BB61">
+        <v>-1</v>
+      </c>
+      <c r="BC61">
+        <v>-1</v>
+      </c>
+      <c r="BD61">
+        <v>2.1</v>
+      </c>
+      <c r="BE61">
+        <v>8.5</v>
+      </c>
+      <c r="BF61">
+        <v>1.91</v>
+      </c>
+      <c r="BG61">
+        <v>1.1</v>
+      </c>
+      <c r="BH61">
+        <v>5.75</v>
+      </c>
+      <c r="BI61">
+        <v>1.16</v>
+      </c>
+      <c r="BJ61">
+        <v>4.6</v>
+      </c>
+      <c r="BK61">
+        <v>1.31</v>
+      </c>
+      <c r="BL61">
+        <v>3.1</v>
+      </c>
+      <c r="BM61">
+        <v>1.53</v>
+      </c>
+      <c r="BN61">
+        <v>2.33</v>
+      </c>
+      <c r="BO61">
+        <v>1.92</v>
+      </c>
+      <c r="BP61">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7294844</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45461.71875</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62" t="s">
+        <v>73</v>
+      </c>
+      <c r="H62" t="s">
+        <v>70</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>4</v>
+      </c>
+      <c r="O62" t="s">
+        <v>130</v>
+      </c>
+      <c r="P62" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q62">
+        <v>3.1</v>
+      </c>
+      <c r="R62">
+        <v>2.68</v>
+      </c>
+      <c r="S62">
+        <v>2.79</v>
+      </c>
+      <c r="T62">
+        <v>1.22</v>
+      </c>
+      <c r="U62">
+        <v>3.8</v>
+      </c>
+      <c r="V62">
+        <v>2</v>
+      </c>
+      <c r="W62">
+        <v>1.73</v>
+      </c>
+      <c r="X62">
+        <v>4</v>
+      </c>
+      <c r="Y62">
+        <v>1.2</v>
+      </c>
+      <c r="Z62">
+        <v>2.53</v>
+      </c>
+      <c r="AA62">
+        <v>3.65</v>
+      </c>
+      <c r="AB62">
+        <v>2.22</v>
+      </c>
+      <c r="AC62">
+        <v>1.01</v>
+      </c>
+      <c r="AD62">
+        <v>11.25</v>
+      </c>
+      <c r="AE62">
+        <v>1.1</v>
+      </c>
+      <c r="AF62">
+        <v>5.75</v>
+      </c>
+      <c r="AG62">
+        <v>1.36</v>
+      </c>
+      <c r="AH62">
+        <v>2.89</v>
+      </c>
+      <c r="AI62">
+        <v>1.35</v>
+      </c>
+      <c r="AJ62">
+        <v>3.08</v>
+      </c>
+      <c r="AK62">
+        <v>1.58</v>
+      </c>
+      <c r="AL62">
+        <v>1.23</v>
+      </c>
+      <c r="AM62">
+        <v>1.46</v>
+      </c>
+      <c r="AN62">
+        <v>2.2</v>
+      </c>
+      <c r="AO62">
+        <v>2</v>
+      </c>
+      <c r="AP62">
+        <v>2</v>
+      </c>
+      <c r="AQ62">
+        <v>1.83</v>
+      </c>
+      <c r="AR62">
+        <v>1.76</v>
+      </c>
+      <c r="AS62">
+        <v>1.83</v>
+      </c>
+      <c r="AT62">
+        <v>3.59</v>
+      </c>
+      <c r="AU62">
+        <v>-1</v>
+      </c>
+      <c r="AV62">
+        <v>-1</v>
+      </c>
+      <c r="AW62">
+        <v>-1</v>
+      </c>
+      <c r="AX62">
+        <v>-1</v>
+      </c>
+      <c r="AY62">
+        <v>-1</v>
+      </c>
+      <c r="AZ62">
+        <v>-1</v>
+      </c>
+      <c r="BA62">
+        <v>-1</v>
+      </c>
+      <c r="BB62">
+        <v>-1</v>
+      </c>
+      <c r="BC62">
+        <v>-1</v>
+      </c>
+      <c r="BD62">
+        <v>2.05</v>
+      </c>
+      <c r="BE62">
+        <v>8.5</v>
+      </c>
+      <c r="BF62">
+        <v>1.95</v>
+      </c>
+      <c r="BG62">
+        <v>1.11</v>
+      </c>
+      <c r="BH62">
+        <v>5.5</v>
+      </c>
+      <c r="BI62">
+        <v>1.25</v>
+      </c>
+      <c r="BJ62">
+        <v>3.6</v>
+      </c>
+      <c r="BK62">
+        <v>1.31</v>
+      </c>
+      <c r="BL62">
+        <v>3.15</v>
+      </c>
+      <c r="BM62">
+        <v>1.64</v>
+      </c>
+      <c r="BN62">
+        <v>2.21</v>
+      </c>
+      <c r="BO62">
+        <v>2.01</v>
+      </c>
+      <c r="BP62">
+        <v>1.78</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="180">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,6 +409,9 @@
     <t>['54', '90+4']</t>
   </si>
   <si>
+    <t>['43', '74']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -548,6 +551,9 @@
   </si>
   <si>
     <t>['35', '58']</t>
+  </si>
+  <si>
+    <t>['51']</t>
   </si>
 </sst>
 </file>
@@ -909,7 +915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP62"/>
+  <dimension ref="A1:BP63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1580,7 +1586,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1992,7 +1998,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2276,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ7">
         <v>1.43</v>
@@ -2404,7 +2410,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2688,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ9">
         <v>0.57</v>
@@ -2816,7 +2822,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3022,7 +3028,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3434,7 +3440,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3846,7 +3852,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4052,7 +4058,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q16">
         <v>2.07</v>
@@ -4258,7 +4264,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q17">
         <v>2.2</v>
@@ -4464,7 +4470,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4670,7 +4676,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5082,7 +5088,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5288,7 +5294,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5494,7 +5500,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5700,7 +5706,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -5906,7 +5912,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6112,7 +6118,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6318,7 +6324,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q27">
         <v>3.35</v>
@@ -6524,7 +6530,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6936,7 +6942,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -7142,7 +7148,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7220,7 +7226,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ31">
         <v>2</v>
@@ -7348,7 +7354,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7966,7 +7972,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8172,7 +8178,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8584,7 +8590,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8790,7 +8796,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8996,7 +9002,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9202,7 +9208,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9408,7 +9414,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9486,7 +9492,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ42">
         <v>0.6</v>
@@ -9614,7 +9620,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9820,7 +9826,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10026,7 +10032,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10232,7 +10238,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10644,7 +10650,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10850,7 +10856,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11056,7 +11062,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11262,7 +11268,7 @@
         <v>101</v>
       </c>
       <c r="P51" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -11340,7 +11346,7 @@
         <v>2.25</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ51">
         <v>1.83</v>
@@ -11468,7 +11474,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11674,7 +11680,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -11880,7 +11886,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12086,7 +12092,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12292,7 +12298,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12498,7 +12504,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -12704,7 +12710,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -12797,31 +12803,31 @@
         <v>3.19</v>
       </c>
       <c r="AU58">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AV58">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW58">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX58">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY58">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="AZ58">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA58">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB58">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BC58">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BD58">
         <v>1.64</v>
@@ -12910,7 +12916,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13003,31 +13009,31 @@
         <v>3.08</v>
       </c>
       <c r="AU59">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV59">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW59">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX59">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY59">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ59">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA59">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BB59">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC59">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BD59">
         <v>1.31</v>
@@ -13116,7 +13122,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13209,31 +13215,31 @@
         <v>3.5</v>
       </c>
       <c r="AU60">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AV60">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW60">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX60">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY60">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ60">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BA60">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB60">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC60">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD60">
         <v>1.95</v>
@@ -13322,7 +13328,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q61">
         <v>2.9</v>
@@ -13415,31 +13421,31 @@
         <v>3.97</v>
       </c>
       <c r="AU61">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV61">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AW61">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AX61">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY61">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="AZ61">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BA61">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BB61">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC61">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BD61">
         <v>2.1</v>
@@ -13528,7 +13534,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13621,31 +13627,31 @@
         <v>3.59</v>
       </c>
       <c r="AU62">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AV62">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW62">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX62">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY62">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AZ62">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA62">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB62">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC62">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD62">
         <v>2.05</v>
@@ -13685,6 +13691,212 @@
       </c>
       <c r="BP62">
         <v>1.78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7294848</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45462.67708333334</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>75</v>
+      </c>
+      <c r="H63" t="s">
+        <v>72</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63" t="s">
+        <v>131</v>
+      </c>
+      <c r="P63" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q63">
+        <v>1.84</v>
+      </c>
+      <c r="R63">
+        <v>2.71</v>
+      </c>
+      <c r="S63">
+        <v>5.2</v>
+      </c>
+      <c r="T63">
+        <v>1.19</v>
+      </c>
+      <c r="U63">
+        <v>4.35</v>
+      </c>
+      <c r="V63">
+        <v>1.94</v>
+      </c>
+      <c r="W63">
+        <v>1.81</v>
+      </c>
+      <c r="X63">
+        <v>3.9</v>
+      </c>
+      <c r="Y63">
+        <v>1.23</v>
+      </c>
+      <c r="Z63">
+        <v>1.4</v>
+      </c>
+      <c r="AA63">
+        <v>4.6</v>
+      </c>
+      <c r="AB63">
+        <v>5.4</v>
+      </c>
+      <c r="AC63">
+        <v>1.01</v>
+      </c>
+      <c r="AD63">
+        <v>11.5</v>
+      </c>
+      <c r="AE63">
+        <v>1.07</v>
+      </c>
+      <c r="AF63">
+        <v>6.35</v>
+      </c>
+      <c r="AG63">
+        <v>1.3</v>
+      </c>
+      <c r="AH63">
+        <v>2.95</v>
+      </c>
+      <c r="AI63">
+        <v>1.47</v>
+      </c>
+      <c r="AJ63">
+        <v>2.49</v>
+      </c>
+      <c r="AK63">
+        <v>1.12</v>
+      </c>
+      <c r="AL63">
+        <v>1.15</v>
+      </c>
+      <c r="AM63">
+        <v>2.68</v>
+      </c>
+      <c r="AN63">
+        <v>2</v>
+      </c>
+      <c r="AO63">
+        <v>0</v>
+      </c>
+      <c r="AP63">
+        <v>2.17</v>
+      </c>
+      <c r="AQ63">
+        <v>0</v>
+      </c>
+      <c r="AR63">
+        <v>1.93</v>
+      </c>
+      <c r="AS63">
+        <v>1.72</v>
+      </c>
+      <c r="AT63">
+        <v>3.65</v>
+      </c>
+      <c r="AU63">
+        <v>6</v>
+      </c>
+      <c r="AV63">
+        <v>5</v>
+      </c>
+      <c r="AW63">
+        <v>15</v>
+      </c>
+      <c r="AX63">
+        <v>6</v>
+      </c>
+      <c r="AY63">
+        <v>21</v>
+      </c>
+      <c r="AZ63">
+        <v>11</v>
+      </c>
+      <c r="BA63">
+        <v>14</v>
+      </c>
+      <c r="BB63">
+        <v>6</v>
+      </c>
+      <c r="BC63">
+        <v>20</v>
+      </c>
+      <c r="BD63">
+        <v>1.45</v>
+      </c>
+      <c r="BE63">
+        <v>9.5</v>
+      </c>
+      <c r="BF63">
+        <v>3.26</v>
+      </c>
+      <c r="BG63">
+        <v>1.12</v>
+      </c>
+      <c r="BH63">
+        <v>5.25</v>
+      </c>
+      <c r="BI63">
+        <v>1.19</v>
+      </c>
+      <c r="BJ63">
+        <v>4.2</v>
+      </c>
+      <c r="BK63">
+        <v>1.36</v>
+      </c>
+      <c r="BL63">
+        <v>2.85</v>
+      </c>
+      <c r="BM63">
+        <v>1.61</v>
+      </c>
+      <c r="BN63">
+        <v>2.17</v>
+      </c>
+      <c r="BO63">
+        <v>2</v>
+      </c>
+      <c r="BP63">
+        <v>1.72</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="185">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -412,6 +412,15 @@
     <t>['43', '74']</t>
   </si>
   <si>
+    <t>['31']</t>
+  </si>
+  <si>
+    <t>['27', '45+2', '47', '90+2']</t>
+  </si>
+  <si>
+    <t>['7']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -433,9 +442,6 @@
     <t>['67', '80']</t>
   </si>
   <si>
-    <t>['7']</t>
-  </si>
-  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -554,6 +560,15 @@
   </si>
   <si>
     <t>['51']</t>
+  </si>
+  <si>
+    <t>['16', '57', '64', '75', '90+4']</t>
+  </si>
+  <si>
+    <t>['1', '87', '89']</t>
+  </si>
+  <si>
+    <t>['39']</t>
   </si>
 </sst>
 </file>
@@ -915,7 +930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP63"/>
+  <dimension ref="A1:BP66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1252,10 +1267,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ2">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1586,7 +1601,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1998,7 +2013,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2079,7 +2094,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2410,7 +2425,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2491,7 +2506,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2822,7 +2837,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3028,7 +3043,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3106,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
         <v>1.4</v>
@@ -3315,7 +3330,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR12">
         <v>1.36</v>
@@ -3440,7 +3455,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3727,7 +3742,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ14">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR14">
         <v>1.31</v>
@@ -3852,7 +3867,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -3930,7 +3945,7 @@
         <v>1.5</v>
       </c>
       <c r="AP15">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <v>1.43</v>
@@ -4058,7 +4073,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q16">
         <v>2.07</v>
@@ -4264,7 +4279,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q17">
         <v>2.2</v>
@@ -4470,7 +4485,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4676,7 +4691,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4754,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ19">
         <v>2.4</v>
@@ -4960,7 +4975,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ20">
         <v>1.4</v>
@@ -5088,7 +5103,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5294,7 +5309,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5372,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ22">
         <v>0</v>
@@ -5500,7 +5515,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5706,7 +5721,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -5912,7 +5927,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -5993,7 +6008,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ25">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR25">
         <v>1.51</v>
@@ -6118,7 +6133,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6324,7 +6339,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q27">
         <v>3.35</v>
@@ -6405,7 +6420,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ27">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR27">
         <v>1.91</v>
@@ -6530,7 +6545,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6942,7 +6957,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -7020,7 +7035,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
         <v>1.83</v>
@@ -7148,7 +7163,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7229,7 +7244,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR31">
         <v>1.92</v>
@@ -7354,7 +7369,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7972,7 +7987,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8178,7 +8193,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8462,7 +8477,7 @@
         <v>2.25</v>
       </c>
       <c r="AP37">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ37">
         <v>1.43</v>
@@ -8590,7 +8605,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8668,7 +8683,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38">
         <v>1.83</v>
@@ -8796,7 +8811,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9002,7 +9017,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9083,7 +9098,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR40">
         <v>2.29</v>
@@ -9208,7 +9223,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9286,10 +9301,10 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR41">
         <v>1.13</v>
@@ -9414,7 +9429,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9495,7 +9510,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ42">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR42">
         <v>2.07</v>
@@ -9620,7 +9635,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9826,7 +9841,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10032,7 +10047,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10238,7 +10253,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10650,7 +10665,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10856,7 +10871,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11062,7 +11077,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11143,7 +11158,7 @@
         <v>2</v>
       </c>
       <c r="AQ50">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR50">
         <v>1.74</v>
@@ -11268,7 +11283,7 @@
         <v>101</v>
       </c>
       <c r="P51" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -11474,7 +11489,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11680,7 +11695,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -11886,7 +11901,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -11964,10 +11979,10 @@
         <v>0.75</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ54">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR54">
         <v>1.32</v>
@@ -12092,7 +12107,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12170,7 +12185,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ55">
         <v>0</v>
@@ -12298,7 +12313,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12376,7 +12391,7 @@
         <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
         <v>2.4</v>
@@ -12504,7 +12519,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -12585,7 +12600,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ57">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR57">
         <v>2.05</v>
@@ -12710,7 +12725,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -12916,7 +12931,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13122,7 +13137,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13328,7 +13343,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q61">
         <v>2.9</v>
@@ -13409,7 +13424,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ61">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR61">
         <v>1.93</v>
@@ -13534,7 +13549,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13740,7 +13755,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q63">
         <v>1.84</v>
@@ -13897,6 +13912,624 @@
       </c>
       <c r="BP63">
         <v>1.72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7294849</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45465.45833333334</v>
+      </c>
+      <c r="F64">
+        <v>11</v>
+      </c>
+      <c r="G64" t="s">
+        <v>80</v>
+      </c>
+      <c r="H64" t="s">
+        <v>73</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>5</v>
+      </c>
+      <c r="N64">
+        <v>6</v>
+      </c>
+      <c r="O64" t="s">
+        <v>132</v>
+      </c>
+      <c r="P64" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q64">
+        <v>5.69</v>
+      </c>
+      <c r="R64">
+        <v>2.93</v>
+      </c>
+      <c r="S64">
+        <v>1.85</v>
+      </c>
+      <c r="T64">
+        <v>1.2</v>
+      </c>
+      <c r="U64">
+        <v>4.33</v>
+      </c>
+      <c r="V64">
+        <v>1.85</v>
+      </c>
+      <c r="W64">
+        <v>1.8</v>
+      </c>
+      <c r="X64">
+        <v>3.75</v>
+      </c>
+      <c r="Y64">
+        <v>1.25</v>
+      </c>
+      <c r="Z64">
+        <v>5.5</v>
+      </c>
+      <c r="AA64">
+        <v>5</v>
+      </c>
+      <c r="AB64">
+        <v>1.44</v>
+      </c>
+      <c r="AC64">
+        <v>1.01</v>
+      </c>
+      <c r="AD64">
+        <v>11.5</v>
+      </c>
+      <c r="AE64">
+        <v>1.09</v>
+      </c>
+      <c r="AF64">
+        <v>6</v>
+      </c>
+      <c r="AG64">
+        <v>1.29</v>
+      </c>
+      <c r="AH64">
+        <v>2.97</v>
+      </c>
+      <c r="AI64">
+        <v>1.5</v>
+      </c>
+      <c r="AJ64">
+        <v>2.6</v>
+      </c>
+      <c r="AK64">
+        <v>2.79</v>
+      </c>
+      <c r="AL64">
+        <v>1.18</v>
+      </c>
+      <c r="AM64">
+        <v>1.15</v>
+      </c>
+      <c r="AN64">
+        <v>2</v>
+      </c>
+      <c r="AO64">
+        <v>2</v>
+      </c>
+      <c r="AP64">
+        <v>1.5</v>
+      </c>
+      <c r="AQ64">
+        <v>2.17</v>
+      </c>
+      <c r="AR64">
+        <v>1.37</v>
+      </c>
+      <c r="AS64">
+        <v>2.22</v>
+      </c>
+      <c r="AT64">
+        <v>3.59</v>
+      </c>
+      <c r="AU64">
+        <v>3</v>
+      </c>
+      <c r="AV64">
+        <v>15</v>
+      </c>
+      <c r="AW64">
+        <v>4</v>
+      </c>
+      <c r="AX64">
+        <v>5</v>
+      </c>
+      <c r="AY64">
+        <v>7</v>
+      </c>
+      <c r="AZ64">
+        <v>20</v>
+      </c>
+      <c r="BA64">
+        <v>6</v>
+      </c>
+      <c r="BB64">
+        <v>9</v>
+      </c>
+      <c r="BC64">
+        <v>15</v>
+      </c>
+      <c r="BD64">
+        <v>4</v>
+      </c>
+      <c r="BE64">
+        <v>9.5</v>
+      </c>
+      <c r="BF64">
+        <v>1.32</v>
+      </c>
+      <c r="BG64">
+        <v>1.1</v>
+      </c>
+      <c r="BH64">
+        <v>5.75</v>
+      </c>
+      <c r="BI64">
+        <v>1.2</v>
+      </c>
+      <c r="BJ64">
+        <v>4</v>
+      </c>
+      <c r="BK64">
+        <v>1.33</v>
+      </c>
+      <c r="BL64">
+        <v>3</v>
+      </c>
+      <c r="BM64">
+        <v>1.56</v>
+      </c>
+      <c r="BN64">
+        <v>2.36</v>
+      </c>
+      <c r="BO64">
+        <v>1.9</v>
+      </c>
+      <c r="BP64">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7294850</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45465.58333333334</v>
+      </c>
+      <c r="F65">
+        <v>11</v>
+      </c>
+      <c r="G65" t="s">
+        <v>77</v>
+      </c>
+      <c r="H65" t="s">
+        <v>76</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+      <c r="L65">
+        <v>4</v>
+      </c>
+      <c r="M65">
+        <v>3</v>
+      </c>
+      <c r="N65">
+        <v>7</v>
+      </c>
+      <c r="O65" t="s">
+        <v>133</v>
+      </c>
+      <c r="P65" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q65">
+        <v>4.4</v>
+      </c>
+      <c r="R65">
+        <v>2.55</v>
+      </c>
+      <c r="S65">
+        <v>2</v>
+      </c>
+      <c r="T65">
+        <v>1.22</v>
+      </c>
+      <c r="U65">
+        <v>3.98</v>
+      </c>
+      <c r="V65">
+        <v>2.07</v>
+      </c>
+      <c r="W65">
+        <v>1.71</v>
+      </c>
+      <c r="X65">
+        <v>4.4</v>
+      </c>
+      <c r="Y65">
+        <v>1.19</v>
+      </c>
+      <c r="Z65">
+        <v>4.4</v>
+      </c>
+      <c r="AA65">
+        <v>4.2</v>
+      </c>
+      <c r="AB65">
+        <v>1.6</v>
+      </c>
+      <c r="AC65">
+        <v>1.01</v>
+      </c>
+      <c r="AD65">
+        <v>11</v>
+      </c>
+      <c r="AE65">
+        <v>1.1</v>
+      </c>
+      <c r="AF65">
+        <v>5.55</v>
+      </c>
+      <c r="AG65">
+        <v>1.38</v>
+      </c>
+      <c r="AH65">
+        <v>2.61</v>
+      </c>
+      <c r="AI65">
+        <v>1.47</v>
+      </c>
+      <c r="AJ65">
+        <v>2.5</v>
+      </c>
+      <c r="AK65">
+        <v>2.2</v>
+      </c>
+      <c r="AL65">
+        <v>1.18</v>
+      </c>
+      <c r="AM65">
+        <v>1.17</v>
+      </c>
+      <c r="AN65">
+        <v>0.6</v>
+      </c>
+      <c r="AO65">
+        <v>0.6</v>
+      </c>
+      <c r="AP65">
+        <v>1</v>
+      </c>
+      <c r="AQ65">
+        <v>0.5</v>
+      </c>
+      <c r="AR65">
+        <v>1.16</v>
+      </c>
+      <c r="AS65">
+        <v>1.9</v>
+      </c>
+      <c r="AT65">
+        <v>3.06</v>
+      </c>
+      <c r="AU65">
+        <v>5</v>
+      </c>
+      <c r="AV65">
+        <v>11</v>
+      </c>
+      <c r="AW65">
+        <v>5</v>
+      </c>
+      <c r="AX65">
+        <v>7</v>
+      </c>
+      <c r="AY65">
+        <v>10</v>
+      </c>
+      <c r="AZ65">
+        <v>18</v>
+      </c>
+      <c r="BA65">
+        <v>4</v>
+      </c>
+      <c r="BB65">
+        <v>7</v>
+      </c>
+      <c r="BC65">
+        <v>11</v>
+      </c>
+      <c r="BD65">
+        <v>3.48</v>
+      </c>
+      <c r="BE65">
+        <v>9.5</v>
+      </c>
+      <c r="BF65">
+        <v>1.41</v>
+      </c>
+      <c r="BG65">
+        <v>0</v>
+      </c>
+      <c r="BH65">
+        <v>0</v>
+      </c>
+      <c r="BI65">
+        <v>1.12</v>
+      </c>
+      <c r="BJ65">
+        <v>5.1</v>
+      </c>
+      <c r="BK65">
+        <v>1.24</v>
+      </c>
+      <c r="BL65">
+        <v>3.48</v>
+      </c>
+      <c r="BM65">
+        <v>1.44</v>
+      </c>
+      <c r="BN65">
+        <v>2.51</v>
+      </c>
+      <c r="BO65">
+        <v>1.74</v>
+      </c>
+      <c r="BP65">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7294851</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45465.67708333334</v>
+      </c>
+      <c r="F66">
+        <v>11</v>
+      </c>
+      <c r="G66" t="s">
+        <v>70</v>
+      </c>
+      <c r="H66" t="s">
+        <v>78</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+      <c r="O66" t="s">
+        <v>134</v>
+      </c>
+      <c r="P66" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q66">
+        <v>1.83</v>
+      </c>
+      <c r="R66">
+        <v>2.7</v>
+      </c>
+      <c r="S66">
+        <v>4.9</v>
+      </c>
+      <c r="T66">
+        <v>1.18</v>
+      </c>
+      <c r="U66">
+        <v>4.45</v>
+      </c>
+      <c r="V66">
+        <v>1.92</v>
+      </c>
+      <c r="W66">
+        <v>1.83</v>
+      </c>
+      <c r="X66">
+        <v>3.8</v>
+      </c>
+      <c r="Y66">
+        <v>1.24</v>
+      </c>
+      <c r="Z66">
+        <v>1.62</v>
+      </c>
+      <c r="AA66">
+        <v>4.39</v>
+      </c>
+      <c r="AB66">
+        <v>4.41</v>
+      </c>
+      <c r="AC66">
+        <v>1.01</v>
+      </c>
+      <c r="AD66">
+        <v>11.5</v>
+      </c>
+      <c r="AE66">
+        <v>1.06</v>
+      </c>
+      <c r="AF66">
+        <v>6.5</v>
+      </c>
+      <c r="AG66">
+        <v>1.33</v>
+      </c>
+      <c r="AH66">
+        <v>2.79</v>
+      </c>
+      <c r="AI66">
+        <v>1.45</v>
+      </c>
+      <c r="AJ66">
+        <v>2.5</v>
+      </c>
+      <c r="AK66">
+        <v>1.09</v>
+      </c>
+      <c r="AL66">
+        <v>1.15</v>
+      </c>
+      <c r="AM66">
+        <v>2.65</v>
+      </c>
+      <c r="AN66">
+        <v>3</v>
+      </c>
+      <c r="AO66">
+        <v>2</v>
+      </c>
+      <c r="AP66">
+        <v>2.67</v>
+      </c>
+      <c r="AQ66">
+        <v>1.83</v>
+      </c>
+      <c r="AR66">
+        <v>1.97</v>
+      </c>
+      <c r="AS66">
+        <v>2.02</v>
+      </c>
+      <c r="AT66">
+        <v>3.99</v>
+      </c>
+      <c r="AU66">
+        <v>9</v>
+      </c>
+      <c r="AV66">
+        <v>5</v>
+      </c>
+      <c r="AW66">
+        <v>5</v>
+      </c>
+      <c r="AX66">
+        <v>6</v>
+      </c>
+      <c r="AY66">
+        <v>14</v>
+      </c>
+      <c r="AZ66">
+        <v>11</v>
+      </c>
+      <c r="BA66">
+        <v>10</v>
+      </c>
+      <c r="BB66">
+        <v>3</v>
+      </c>
+      <c r="BC66">
+        <v>13</v>
+      </c>
+      <c r="BD66">
+        <v>1.55</v>
+      </c>
+      <c r="BE66">
+        <v>9</v>
+      </c>
+      <c r="BF66">
+        <v>2.9</v>
+      </c>
+      <c r="BG66">
+        <v>1.11</v>
+      </c>
+      <c r="BH66">
+        <v>5.5</v>
+      </c>
+      <c r="BI66">
+        <v>1.15</v>
+      </c>
+      <c r="BJ66">
+        <v>4.5</v>
+      </c>
+      <c r="BK66">
+        <v>1.3</v>
+      </c>
+      <c r="BL66">
+        <v>3.08</v>
+      </c>
+      <c r="BM66">
+        <v>1.52</v>
+      </c>
+      <c r="BN66">
+        <v>2.3</v>
+      </c>
+      <c r="BO66">
+        <v>1.95</v>
+      </c>
+      <c r="BP66">
+        <v>1.85</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="190">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -421,6 +421,15 @@
     <t>['7']</t>
   </si>
   <si>
+    <t>['9', '78', '90+3']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['11', '76', '85']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -569,6 +578,12 @@
   </si>
   <si>
     <t>['39']</t>
+  </si>
+  <si>
+    <t>['11', '36']</t>
+  </si>
+  <si>
+    <t>['72']</t>
   </si>
 </sst>
 </file>
@@ -930,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP66"/>
+  <dimension ref="A1:BP69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1601,7 +1616,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1679,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ4">
         <v>1.4</v>
@@ -1888,7 +1903,7 @@
         <v>2</v>
       </c>
       <c r="AQ5">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2013,7 +2028,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2297,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
         <v>1.43</v>
@@ -2425,7 +2440,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2709,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>0.57</v>
@@ -2837,7 +2852,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2915,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ10">
         <v>1.43</v>
@@ -3043,7 +3058,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3124,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3455,7 +3470,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3867,7 +3882,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4154,7 +4169,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4279,7 +4294,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q17">
         <v>2.2</v>
@@ -4357,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ17">
         <v>0.57</v>
@@ -4485,7 +4500,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4691,7 +4706,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5103,7 +5118,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5309,7 +5324,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5515,7 +5530,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5721,7 +5736,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -5802,7 +5817,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR24">
         <v>1.96</v>
@@ -5927,7 +5942,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6133,7 +6148,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6211,7 +6226,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ26">
         <v>0.57</v>
@@ -6339,7 +6354,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q27">
         <v>3.35</v>
@@ -6417,7 +6432,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ27">
         <v>1.83</v>
@@ -6545,7 +6560,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6626,7 +6641,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ28">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR28">
         <v>1.42</v>
@@ -6957,7 +6972,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -7163,7 +7178,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7241,7 +7256,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>2.17</v>
@@ -7369,7 +7384,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7450,7 +7465,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR32">
         <v>1.74</v>
@@ -7987,7 +8002,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8193,7 +8208,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8605,7 +8620,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8811,7 +8826,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8889,7 +8904,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ39">
         <v>0</v>
@@ -9017,7 +9032,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9095,7 +9110,7 @@
         <v>2.33</v>
       </c>
       <c r="AP40">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ40">
         <v>1.83</v>
@@ -9223,7 +9238,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9429,7 +9444,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9507,7 +9522,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
         <v>0.5</v>
@@ -9635,7 +9650,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9716,7 +9731,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ43">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR43">
         <v>1.57</v>
@@ -9841,7 +9856,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10047,7 +10062,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10253,7 +10268,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10665,7 +10680,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10871,7 +10886,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11077,7 +11092,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11283,7 +11298,7 @@
         <v>101</v>
       </c>
       <c r="P51" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -11361,7 +11376,7 @@
         <v>2.25</v>
       </c>
       <c r="AP51">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>1.83</v>
@@ -11489,7 +11504,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11567,10 +11582,10 @@
         <v>1.67</v>
       </c>
       <c r="AP52">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ52">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR52">
         <v>2.33</v>
@@ -11695,7 +11710,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -11773,10 +11788,10 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ53">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR53">
         <v>1.86</v>
@@ -11901,7 +11916,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12107,7 +12122,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12313,7 +12328,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12519,7 +12534,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -12725,7 +12740,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -12931,7 +12946,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13137,7 +13152,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13343,7 +13358,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q61">
         <v>2.9</v>
@@ -13549,7 +13564,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13755,7 +13770,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q63">
         <v>1.84</v>
@@ -13833,7 +13848,7 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
         <v>0</v>
@@ -13961,7 +13976,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q64">
         <v>5.69</v>
@@ -14167,7 +14182,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q65">
         <v>4.4</v>
@@ -14373,7 +14388,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14530,6 +14545,624 @@
       </c>
       <c r="BP66">
         <v>1.85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7294852</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45466.58333333334</v>
+      </c>
+      <c r="F67">
+        <v>11</v>
+      </c>
+      <c r="G67" t="s">
+        <v>72</v>
+      </c>
+      <c r="H67" t="s">
+        <v>71</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>2</v>
+      </c>
+      <c r="K67">
+        <v>3</v>
+      </c>
+      <c r="L67">
+        <v>3</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+      <c r="N67">
+        <v>5</v>
+      </c>
+      <c r="O67" t="s">
+        <v>135</v>
+      </c>
+      <c r="P67" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q67">
+        <v>2.35</v>
+      </c>
+      <c r="R67">
+        <v>2.4</v>
+      </c>
+      <c r="S67">
+        <v>3.6</v>
+      </c>
+      <c r="T67">
+        <v>1.23</v>
+      </c>
+      <c r="U67">
+        <v>3.9</v>
+      </c>
+      <c r="V67">
+        <v>2.1</v>
+      </c>
+      <c r="W67">
+        <v>1.69</v>
+      </c>
+      <c r="X67">
+        <v>4.55</v>
+      </c>
+      <c r="Y67">
+        <v>1.18</v>
+      </c>
+      <c r="Z67">
+        <v>1.92</v>
+      </c>
+      <c r="AA67">
+        <v>3.8</v>
+      </c>
+      <c r="AB67">
+        <v>3.45</v>
+      </c>
+      <c r="AC67">
+        <v>1.01</v>
+      </c>
+      <c r="AD67">
+        <v>10.75</v>
+      </c>
+      <c r="AE67">
+        <v>1.13</v>
+      </c>
+      <c r="AF67">
+        <v>5.25</v>
+      </c>
+      <c r="AG67">
+        <v>1.4</v>
+      </c>
+      <c r="AH67">
+        <v>2.75</v>
+      </c>
+      <c r="AI67">
+        <v>1.42</v>
+      </c>
+      <c r="AJ67">
+        <v>2.75</v>
+      </c>
+      <c r="AK67">
+        <v>1.25</v>
+      </c>
+      <c r="AL67">
+        <v>1.18</v>
+      </c>
+      <c r="AM67">
+        <v>1.85</v>
+      </c>
+      <c r="AN67">
+        <v>0.83</v>
+      </c>
+      <c r="AO67">
+        <v>1.5</v>
+      </c>
+      <c r="AP67">
+        <v>1.14</v>
+      </c>
+      <c r="AQ67">
+        <v>1.2</v>
+      </c>
+      <c r="AR67">
+        <v>1.91</v>
+      </c>
+      <c r="AS67">
+        <v>1.45</v>
+      </c>
+      <c r="AT67">
+        <v>3.36</v>
+      </c>
+      <c r="AU67">
+        <v>8</v>
+      </c>
+      <c r="AV67">
+        <v>4</v>
+      </c>
+      <c r="AW67">
+        <v>6</v>
+      </c>
+      <c r="AX67">
+        <v>3</v>
+      </c>
+      <c r="AY67">
+        <v>14</v>
+      </c>
+      <c r="AZ67">
+        <v>7</v>
+      </c>
+      <c r="BA67">
+        <v>9</v>
+      </c>
+      <c r="BB67">
+        <v>11</v>
+      </c>
+      <c r="BC67">
+        <v>20</v>
+      </c>
+      <c r="BD67">
+        <v>1.53</v>
+      </c>
+      <c r="BE67">
+        <v>7.5</v>
+      </c>
+      <c r="BF67">
+        <v>3.14</v>
+      </c>
+      <c r="BG67">
+        <v>1.1</v>
+      </c>
+      <c r="BH67">
+        <v>5.75</v>
+      </c>
+      <c r="BI67">
+        <v>1.14</v>
+      </c>
+      <c r="BJ67">
+        <v>4.65</v>
+      </c>
+      <c r="BK67">
+        <v>1.28</v>
+      </c>
+      <c r="BL67">
+        <v>3.2</v>
+      </c>
+      <c r="BM67">
+        <v>1.55</v>
+      </c>
+      <c r="BN67">
+        <v>2.4</v>
+      </c>
+      <c r="BO67">
+        <v>1.88</v>
+      </c>
+      <c r="BP67">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7294853</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45466.67708333334</v>
+      </c>
+      <c r="F68">
+        <v>11</v>
+      </c>
+      <c r="G68" t="s">
+        <v>75</v>
+      </c>
+      <c r="H68" t="s">
+        <v>79</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="O68" t="s">
+        <v>136</v>
+      </c>
+      <c r="P68" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q68">
+        <v>1.83</v>
+      </c>
+      <c r="R68">
+        <v>2.62</v>
+      </c>
+      <c r="S68">
+        <v>5.25</v>
+      </c>
+      <c r="T68">
+        <v>1.2</v>
+      </c>
+      <c r="U68">
+        <v>3.95</v>
+      </c>
+      <c r="V68">
+        <v>1.95</v>
+      </c>
+      <c r="W68">
+        <v>1.75</v>
+      </c>
+      <c r="X68">
+        <v>3.75</v>
+      </c>
+      <c r="Y68">
+        <v>1.25</v>
+      </c>
+      <c r="Z68">
+        <v>1.41</v>
+      </c>
+      <c r="AA68">
+        <v>5.1</v>
+      </c>
+      <c r="AB68">
+        <v>6.1</v>
+      </c>
+      <c r="AC68">
+        <v>1.01</v>
+      </c>
+      <c r="AD68">
+        <v>11.25</v>
+      </c>
+      <c r="AE68">
+        <v>1.11</v>
+      </c>
+      <c r="AF68">
+        <v>6</v>
+      </c>
+      <c r="AG68">
+        <v>1.37</v>
+      </c>
+      <c r="AH68">
+        <v>2.85</v>
+      </c>
+      <c r="AI68">
+        <v>1.5</v>
+      </c>
+      <c r="AJ68">
+        <v>2.5</v>
+      </c>
+      <c r="AK68">
+        <v>1.07</v>
+      </c>
+      <c r="AL68">
+        <v>1.12</v>
+      </c>
+      <c r="AM68">
+        <v>2.85</v>
+      </c>
+      <c r="AN68">
+        <v>2.17</v>
+      </c>
+      <c r="AO68">
+        <v>1.4</v>
+      </c>
+      <c r="AP68">
+        <v>2</v>
+      </c>
+      <c r="AQ68">
+        <v>1.33</v>
+      </c>
+      <c r="AR68">
+        <v>1.99</v>
+      </c>
+      <c r="AS68">
+        <v>1.75</v>
+      </c>
+      <c r="AT68">
+        <v>3.74</v>
+      </c>
+      <c r="AU68">
+        <v>10</v>
+      </c>
+      <c r="AV68">
+        <v>4</v>
+      </c>
+      <c r="AW68">
+        <v>11</v>
+      </c>
+      <c r="AX68">
+        <v>4</v>
+      </c>
+      <c r="AY68">
+        <v>21</v>
+      </c>
+      <c r="AZ68">
+        <v>8</v>
+      </c>
+      <c r="BA68">
+        <v>8</v>
+      </c>
+      <c r="BB68">
+        <v>3</v>
+      </c>
+      <c r="BC68">
+        <v>11</v>
+      </c>
+      <c r="BD68">
+        <v>1.3</v>
+      </c>
+      <c r="BE68">
+        <v>11</v>
+      </c>
+      <c r="BF68">
+        <v>4.38</v>
+      </c>
+      <c r="BG68">
+        <v>1.11</v>
+      </c>
+      <c r="BH68">
+        <v>5.5</v>
+      </c>
+      <c r="BI68">
+        <v>1.25</v>
+      </c>
+      <c r="BJ68">
+        <v>3.6</v>
+      </c>
+      <c r="BK68">
+        <v>1.31</v>
+      </c>
+      <c r="BL68">
+        <v>3.15</v>
+      </c>
+      <c r="BM68">
+        <v>1.62</v>
+      </c>
+      <c r="BN68">
+        <v>2.08</v>
+      </c>
+      <c r="BO68">
+        <v>1.98</v>
+      </c>
+      <c r="BP68">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7294854</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45466.67708333334</v>
+      </c>
+      <c r="F69">
+        <v>11</v>
+      </c>
+      <c r="G69" t="s">
+        <v>81</v>
+      </c>
+      <c r="H69" t="s">
+        <v>74</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>3</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>4</v>
+      </c>
+      <c r="O69" t="s">
+        <v>137</v>
+      </c>
+      <c r="P69" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q69">
+        <v>1.85</v>
+      </c>
+      <c r="R69">
+        <v>2.8</v>
+      </c>
+      <c r="S69">
+        <v>4.33</v>
+      </c>
+      <c r="T69">
+        <v>1.2</v>
+      </c>
+      <c r="U69">
+        <v>4</v>
+      </c>
+      <c r="V69">
+        <v>1.91</v>
+      </c>
+      <c r="W69">
+        <v>1.8</v>
+      </c>
+      <c r="X69">
+        <v>3.5</v>
+      </c>
+      <c r="Y69">
+        <v>1.29</v>
+      </c>
+      <c r="Z69">
+        <v>1.56</v>
+      </c>
+      <c r="AA69">
+        <v>4.6</v>
+      </c>
+      <c r="AB69">
+        <v>4.75</v>
+      </c>
+      <c r="AC69">
+        <v>1.01</v>
+      </c>
+      <c r="AD69">
+        <v>11.5</v>
+      </c>
+      <c r="AE69">
+        <v>1.09</v>
+      </c>
+      <c r="AF69">
+        <v>6.5</v>
+      </c>
+      <c r="AG69">
+        <v>1.34</v>
+      </c>
+      <c r="AH69">
+        <v>2.99</v>
+      </c>
+      <c r="AI69">
+        <v>1.4</v>
+      </c>
+      <c r="AJ69">
+        <v>2.62</v>
+      </c>
+      <c r="AK69">
+        <v>1.12</v>
+      </c>
+      <c r="AL69">
+        <v>1.15</v>
+      </c>
+      <c r="AM69">
+        <v>2.45</v>
+      </c>
+      <c r="AN69">
+        <v>1.33</v>
+      </c>
+      <c r="AO69">
+        <v>0</v>
+      </c>
+      <c r="AP69">
+        <v>1.75</v>
+      </c>
+      <c r="AQ69">
+        <v>0</v>
+      </c>
+      <c r="AR69">
+        <v>2.15</v>
+      </c>
+      <c r="AS69">
+        <v>1.7</v>
+      </c>
+      <c r="AT69">
+        <v>3.85</v>
+      </c>
+      <c r="AU69">
+        <v>6</v>
+      </c>
+      <c r="AV69">
+        <v>4</v>
+      </c>
+      <c r="AW69">
+        <v>7</v>
+      </c>
+      <c r="AX69">
+        <v>7</v>
+      </c>
+      <c r="AY69">
+        <v>13</v>
+      </c>
+      <c r="AZ69">
+        <v>11</v>
+      </c>
+      <c r="BA69">
+        <v>5</v>
+      </c>
+      <c r="BB69">
+        <v>7</v>
+      </c>
+      <c r="BC69">
+        <v>12</v>
+      </c>
+      <c r="BD69">
+        <v>1.34</v>
+      </c>
+      <c r="BE69">
+        <v>10</v>
+      </c>
+      <c r="BF69">
+        <v>3.84</v>
+      </c>
+      <c r="BG69">
+        <v>1.1</v>
+      </c>
+      <c r="BH69">
+        <v>5.75</v>
+      </c>
+      <c r="BI69">
+        <v>1.22</v>
+      </c>
+      <c r="BJ69">
+        <v>3.8</v>
+      </c>
+      <c r="BK69">
+        <v>1.3</v>
+      </c>
+      <c r="BL69">
+        <v>3.2</v>
+      </c>
+      <c r="BM69">
+        <v>1.62</v>
+      </c>
+      <c r="BN69">
+        <v>2.08</v>
+      </c>
+      <c r="BO69">
+        <v>1.98</v>
+      </c>
+      <c r="BP69">
+        <v>1.82</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="195">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -430,6 +430,12 @@
     <t>['11', '76', '85']</t>
   </si>
   <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['37', '52']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -584,6 +590,15 @@
   </si>
   <si>
     <t>['72']</t>
+  </si>
+  <si>
+    <t>['17', '39', '48']</t>
+  </si>
+  <si>
+    <t>['10', '23', '59', '78']</t>
+  </si>
+  <si>
+    <t>['51', '72']</t>
   </si>
 </sst>
 </file>
@@ -945,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP69"/>
+  <dimension ref="A1:BP72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1616,7 +1631,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -2028,7 +2043,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2440,7 +2455,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2518,7 +2533,7 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ8">
         <v>1.83</v>
@@ -2852,7 +2867,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3058,7 +3073,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3470,7 +3485,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3551,7 +3566,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ13">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>1.23</v>
@@ -3754,7 +3769,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ14">
         <v>2.17</v>
@@ -3882,7 +3897,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4166,10 +4181,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ16">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4294,7 +4309,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q17">
         <v>2.2</v>
@@ -4500,7 +4515,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4581,7 +4596,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4706,7 +4721,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4990,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ20">
         <v>1.4</v>
@@ -5118,7 +5133,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5324,7 +5339,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5530,7 +5545,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5608,7 +5623,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ23">
         <v>2.4</v>
@@ -5736,7 +5751,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -5817,7 +5832,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>1.96</v>
@@ -5942,7 +5957,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6148,7 +6163,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6354,7 +6369,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q27">
         <v>3.35</v>
@@ -6560,7 +6575,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6638,7 +6653,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ28">
         <v>1.33</v>
@@ -6847,7 +6862,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR29">
         <v>1.38</v>
@@ -6972,7 +6987,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -7053,7 +7068,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR30">
         <v>1.2</v>
@@ -7178,7 +7193,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7384,7 +7399,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7462,10 +7477,10 @@
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ32">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR32">
         <v>1.74</v>
@@ -8002,7 +8017,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8080,7 +8095,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ35">
         <v>1.4</v>
@@ -8208,7 +8223,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8620,7 +8635,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8698,10 +8713,10 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ38">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR38">
         <v>1.97</v>
@@ -8826,7 +8841,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8907,7 +8922,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ39">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR39">
         <v>1.9</v>
@@ -9032,7 +9047,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9238,7 +9253,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9444,7 +9459,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9650,7 +9665,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9856,7 +9871,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9934,7 +9949,7 @@
         <v>0.6</v>
       </c>
       <c r="AP44">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ44">
         <v>0.57</v>
@@ -10062,7 +10077,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10143,7 +10158,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ45">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <v>2.14</v>
@@ -10268,7 +10283,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10552,7 +10567,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ47">
         <v>0</v>
@@ -10680,7 +10695,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10886,7 +10901,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11092,7 +11107,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11298,7 +11313,7 @@
         <v>101</v>
       </c>
       <c r="P51" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -11379,7 +11394,7 @@
         <v>2</v>
       </c>
       <c r="AQ51">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR51">
         <v>2.1</v>
@@ -11504,7 +11519,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11585,7 +11600,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ52">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR52">
         <v>2.33</v>
@@ -11710,7 +11725,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -11916,7 +11931,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -11994,7 +12009,7 @@
         <v>0.75</v>
       </c>
       <c r="AP54">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ54">
         <v>0.5</v>
@@ -12122,7 +12137,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12203,7 +12218,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ55">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR55">
         <v>1.88</v>
@@ -12328,7 +12343,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12534,7 +12549,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -12612,7 +12627,7 @@
         <v>1.75</v>
       </c>
       <c r="AP57">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ57">
         <v>2.17</v>
@@ -12740,7 +12755,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -12946,7 +12961,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13152,7 +13167,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13230,7 +13245,7 @@
         <v>1.67</v>
       </c>
       <c r="AP60">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ60">
         <v>1.43</v>
@@ -13358,7 +13373,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q61">
         <v>2.9</v>
@@ -13564,7 +13579,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13645,7 +13660,7 @@
         <v>2</v>
       </c>
       <c r="AQ62">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR62">
         <v>1.76</v>
@@ -13770,7 +13785,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q63">
         <v>1.84</v>
@@ -13976,7 +13991,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q64">
         <v>5.69</v>
@@ -14054,7 +14069,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ64">
         <v>2.17</v>
@@ -14182,7 +14197,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q65">
         <v>4.4</v>
@@ -14388,7 +14403,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14594,7 +14609,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14675,7 +14690,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ67">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR67">
         <v>1.91</v>
@@ -14800,7 +14815,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -15006,7 +15021,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q69">
         <v>1.85</v>
@@ -15087,7 +15102,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ69">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR69">
         <v>2.15</v>
@@ -15163,6 +15178,624 @@
       </c>
       <c r="BP69">
         <v>1.82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7294855</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45470.625</v>
+      </c>
+      <c r="F70">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>80</v>
+      </c>
+      <c r="H70" t="s">
+        <v>71</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>2</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>3</v>
+      </c>
+      <c r="N70">
+        <v>4</v>
+      </c>
+      <c r="O70" t="s">
+        <v>138</v>
+      </c>
+      <c r="P70" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q70">
+        <v>3.7</v>
+      </c>
+      <c r="R70">
+        <v>2.25</v>
+      </c>
+      <c r="S70">
+        <v>2.45</v>
+      </c>
+      <c r="T70">
+        <v>1.28</v>
+      </c>
+      <c r="U70">
+        <v>3.3</v>
+      </c>
+      <c r="V70">
+        <v>2.25</v>
+      </c>
+      <c r="W70">
+        <v>1.57</v>
+      </c>
+      <c r="X70">
+        <v>4.75</v>
+      </c>
+      <c r="Y70">
+        <v>1.15</v>
+      </c>
+      <c r="Z70">
+        <v>3.2</v>
+      </c>
+      <c r="AA70">
+        <v>3.6</v>
+      </c>
+      <c r="AB70">
+        <v>2.05</v>
+      </c>
+      <c r="AC70">
+        <v>1.03</v>
+      </c>
+      <c r="AD70">
+        <v>10</v>
+      </c>
+      <c r="AE70">
+        <v>1.18</v>
+      </c>
+      <c r="AF70">
+        <v>4.5</v>
+      </c>
+      <c r="AG70">
+        <v>1.55</v>
+      </c>
+      <c r="AH70">
+        <v>2.35</v>
+      </c>
+      <c r="AI70">
+        <v>1.5</v>
+      </c>
+      <c r="AJ70">
+        <v>2.5</v>
+      </c>
+      <c r="AK70">
+        <v>1.77</v>
+      </c>
+      <c r="AL70">
+        <v>1.22</v>
+      </c>
+      <c r="AM70">
+        <v>1.3</v>
+      </c>
+      <c r="AN70">
+        <v>1.5</v>
+      </c>
+      <c r="AO70">
+        <v>1.2</v>
+      </c>
+      <c r="AP70">
+        <v>1.2</v>
+      </c>
+      <c r="AQ70">
+        <v>1.5</v>
+      </c>
+      <c r="AR70">
+        <v>1.27</v>
+      </c>
+      <c r="AS70">
+        <v>1.39</v>
+      </c>
+      <c r="AT70">
+        <v>2.66</v>
+      </c>
+      <c r="AU70">
+        <v>2</v>
+      </c>
+      <c r="AV70">
+        <v>7</v>
+      </c>
+      <c r="AW70">
+        <v>6</v>
+      </c>
+      <c r="AX70">
+        <v>15</v>
+      </c>
+      <c r="AY70">
+        <v>8</v>
+      </c>
+      <c r="AZ70">
+        <v>22</v>
+      </c>
+      <c r="BA70">
+        <v>9</v>
+      </c>
+      <c r="BB70">
+        <v>6</v>
+      </c>
+      <c r="BC70">
+        <v>15</v>
+      </c>
+      <c r="BD70">
+        <v>2.2</v>
+      </c>
+      <c r="BE70">
+        <v>8.5</v>
+      </c>
+      <c r="BF70">
+        <v>1.83</v>
+      </c>
+      <c r="BG70">
+        <v>1.12</v>
+      </c>
+      <c r="BH70">
+        <v>5.25</v>
+      </c>
+      <c r="BI70">
+        <v>1.18</v>
+      </c>
+      <c r="BJ70">
+        <v>4.15</v>
+      </c>
+      <c r="BK70">
+        <v>1.34</v>
+      </c>
+      <c r="BL70">
+        <v>2.88</v>
+      </c>
+      <c r="BM70">
+        <v>1.73</v>
+      </c>
+      <c r="BN70">
+        <v>2</v>
+      </c>
+      <c r="BO70">
+        <v>1.99</v>
+      </c>
+      <c r="BP70">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7294856</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45470.67708333334</v>
+      </c>
+      <c r="F71">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>76</v>
+      </c>
+      <c r="H71" t="s">
+        <v>70</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>2</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>4</v>
+      </c>
+      <c r="N71">
+        <v>4</v>
+      </c>
+      <c r="O71" t="s">
+        <v>91</v>
+      </c>
+      <c r="P71" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q71">
+        <v>3.6</v>
+      </c>
+      <c r="R71">
+        <v>2.4</v>
+      </c>
+      <c r="S71">
+        <v>2.3</v>
+      </c>
+      <c r="T71">
+        <v>1.25</v>
+      </c>
+      <c r="U71">
+        <v>3.6</v>
+      </c>
+      <c r="V71">
+        <v>2</v>
+      </c>
+      <c r="W71">
+        <v>1.72</v>
+      </c>
+      <c r="X71">
+        <v>4.3</v>
+      </c>
+      <c r="Y71">
+        <v>1.17</v>
+      </c>
+      <c r="Z71">
+        <v>3.35</v>
+      </c>
+      <c r="AA71">
+        <v>3.8</v>
+      </c>
+      <c r="AB71">
+        <v>1.95</v>
+      </c>
+      <c r="AC71">
+        <v>1.01</v>
+      </c>
+      <c r="AD71">
+        <v>11</v>
+      </c>
+      <c r="AE71">
+        <v>1.11</v>
+      </c>
+      <c r="AF71">
+        <v>5.3</v>
+      </c>
+      <c r="AG71">
+        <v>1.41</v>
+      </c>
+      <c r="AH71">
+        <v>2.69</v>
+      </c>
+      <c r="AI71">
+        <v>1.4</v>
+      </c>
+      <c r="AJ71">
+        <v>2.75</v>
+      </c>
+      <c r="AK71">
+        <v>1.87</v>
+      </c>
+      <c r="AL71">
+        <v>1.2</v>
+      </c>
+      <c r="AM71">
+        <v>1.25</v>
+      </c>
+      <c r="AN71">
+        <v>2.17</v>
+      </c>
+      <c r="AO71">
+        <v>1.83</v>
+      </c>
+      <c r="AP71">
+        <v>1.86</v>
+      </c>
+      <c r="AQ71">
+        <v>2</v>
+      </c>
+      <c r="AR71">
+        <v>1.79</v>
+      </c>
+      <c r="AS71">
+        <v>1.77</v>
+      </c>
+      <c r="AT71">
+        <v>3.56</v>
+      </c>
+      <c r="AU71">
+        <v>4</v>
+      </c>
+      <c r="AV71">
+        <v>8</v>
+      </c>
+      <c r="AW71">
+        <v>3</v>
+      </c>
+      <c r="AX71">
+        <v>9</v>
+      </c>
+      <c r="AY71">
+        <v>7</v>
+      </c>
+      <c r="AZ71">
+        <v>17</v>
+      </c>
+      <c r="BA71">
+        <v>4</v>
+      </c>
+      <c r="BB71">
+        <v>4</v>
+      </c>
+      <c r="BC71">
+        <v>8</v>
+      </c>
+      <c r="BD71">
+        <v>2.43</v>
+      </c>
+      <c r="BE71">
+        <v>8.5</v>
+      </c>
+      <c r="BF71">
+        <v>1.75</v>
+      </c>
+      <c r="BG71">
+        <v>1.12</v>
+      </c>
+      <c r="BH71">
+        <v>5.25</v>
+      </c>
+      <c r="BI71">
+        <v>1.18</v>
+      </c>
+      <c r="BJ71">
+        <v>4.1</v>
+      </c>
+      <c r="BK71">
+        <v>1.35</v>
+      </c>
+      <c r="BL71">
+        <v>2.84</v>
+      </c>
+      <c r="BM71">
+        <v>1.6</v>
+      </c>
+      <c r="BN71">
+        <v>2.14</v>
+      </c>
+      <c r="BO71">
+        <v>2</v>
+      </c>
+      <c r="BP71">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7294857</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45470.67708333334</v>
+      </c>
+      <c r="F72">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>78</v>
+      </c>
+      <c r="H72" t="s">
+        <v>74</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>2</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+      <c r="N72">
+        <v>4</v>
+      </c>
+      <c r="O72" t="s">
+        <v>139</v>
+      </c>
+      <c r="P72" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q72">
+        <v>2</v>
+      </c>
+      <c r="R72">
+        <v>2.55</v>
+      </c>
+      <c r="S72">
+        <v>4.33</v>
+      </c>
+      <c r="T72">
+        <v>1.18</v>
+      </c>
+      <c r="U72">
+        <v>4.2</v>
+      </c>
+      <c r="V72">
+        <v>1.85</v>
+      </c>
+      <c r="W72">
+        <v>1.85</v>
+      </c>
+      <c r="X72">
+        <v>3.5</v>
+      </c>
+      <c r="Y72">
+        <v>1.29</v>
+      </c>
+      <c r="Z72">
+        <v>1.6</v>
+      </c>
+      <c r="AA72">
+        <v>4.5</v>
+      </c>
+      <c r="AB72">
+        <v>4.35</v>
+      </c>
+      <c r="AC72">
+        <v>1.01</v>
+      </c>
+      <c r="AD72">
+        <v>11.75</v>
+      </c>
+      <c r="AE72">
+        <v>1.09</v>
+      </c>
+      <c r="AF72">
+        <v>6.5</v>
+      </c>
+      <c r="AG72">
+        <v>1.29</v>
+      </c>
+      <c r="AH72">
+        <v>3.27</v>
+      </c>
+      <c r="AI72">
+        <v>1.36</v>
+      </c>
+      <c r="AJ72">
+        <v>3</v>
+      </c>
+      <c r="AK72">
+        <v>1.15</v>
+      </c>
+      <c r="AL72">
+        <v>1.15</v>
+      </c>
+      <c r="AM72">
+        <v>2.25</v>
+      </c>
+      <c r="AN72">
+        <v>0.2</v>
+      </c>
+      <c r="AO72">
+        <v>0</v>
+      </c>
+      <c r="AP72">
+        <v>0.33</v>
+      </c>
+      <c r="AQ72">
+        <v>0.17</v>
+      </c>
+      <c r="AR72">
+        <v>1.93</v>
+      </c>
+      <c r="AS72">
+        <v>1.69</v>
+      </c>
+      <c r="AT72">
+        <v>3.62</v>
+      </c>
+      <c r="AU72">
+        <v>7</v>
+      </c>
+      <c r="AV72">
+        <v>3</v>
+      </c>
+      <c r="AW72">
+        <v>6</v>
+      </c>
+      <c r="AX72">
+        <v>4</v>
+      </c>
+      <c r="AY72">
+        <v>13</v>
+      </c>
+      <c r="AZ72">
+        <v>7</v>
+      </c>
+      <c r="BA72">
+        <v>11</v>
+      </c>
+      <c r="BB72">
+        <v>5</v>
+      </c>
+      <c r="BC72">
+        <v>16</v>
+      </c>
+      <c r="BD72">
+        <v>1.41</v>
+      </c>
+      <c r="BE72">
+        <v>10</v>
+      </c>
+      <c r="BF72">
+        <v>3.46</v>
+      </c>
+      <c r="BG72">
+        <v>1.1</v>
+      </c>
+      <c r="BH72">
+        <v>5.75</v>
+      </c>
+      <c r="BI72">
+        <v>1.18</v>
+      </c>
+      <c r="BJ72">
+        <v>4.33</v>
+      </c>
+      <c r="BK72">
+        <v>1.33</v>
+      </c>
+      <c r="BL72">
+        <v>3</v>
+      </c>
+      <c r="BM72">
+        <v>1.48</v>
+      </c>
+      <c r="BN72">
+        <v>2.47</v>
+      </c>
+      <c r="BO72">
+        <v>1.85</v>
+      </c>
+      <c r="BP72">
+        <v>1.95</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="198">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -436,6 +436,12 @@
     <t>['37', '52']</t>
   </si>
   <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['26', '36', '90']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -457,9 +463,6 @@
     <t>['67', '80']</t>
   </si>
   <si>
-    <t>['90+2']</t>
-  </si>
-  <si>
     <t>['85']</t>
   </si>
   <si>
@@ -595,10 +598,16 @@
     <t>['17', '39', '48']</t>
   </si>
   <si>
-    <t>['10', '23', '59', '78']</t>
+    <t>['10', '23', '58', '78']</t>
   </si>
   <si>
     <t>['51', '72']</t>
+  </si>
+  <si>
+    <t>['51', '82']</t>
+  </si>
+  <si>
+    <t>['14', '50']</t>
   </si>
 </sst>
 </file>
@@ -960,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP72"/>
+  <dimension ref="A1:BP75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1631,7 +1640,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -2043,7 +2052,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2455,7 +2464,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2867,7 +2876,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3073,7 +3082,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3151,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ11">
         <v>1.33</v>
@@ -3360,7 +3369,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ12">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR12">
         <v>1.36</v>
@@ -3485,7 +3494,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3772,7 +3781,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ14">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR14">
         <v>1.31</v>
@@ -3897,7 +3906,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -3975,7 +3984,7 @@
         <v>1.5</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ15">
         <v>1.43</v>
@@ -4309,7 +4318,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Q17">
         <v>2.2</v>
@@ -4515,7 +4524,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4593,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>0.17</v>
@@ -4721,7 +4730,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4802,7 +4811,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ19">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR19">
         <v>1.54</v>
@@ -5133,7 +5142,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5211,7 +5220,7 @@
         <v>2</v>
       </c>
       <c r="AP21">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
         <v>1.43</v>
@@ -5339,7 +5348,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5420,7 +5429,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR22">
         <v>1.78</v>
@@ -5545,7 +5554,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5626,7 +5635,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ23">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>1.8</v>
@@ -5751,7 +5760,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -5957,7 +5966,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6163,7 +6172,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6241,7 +6250,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
         <v>0.57</v>
@@ -6369,7 +6378,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q27">
         <v>3.35</v>
@@ -6575,7 +6584,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6987,7 +6996,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -7065,7 +7074,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ30">
         <v>2</v>
@@ -7193,7 +7202,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7274,7 +7283,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR31">
         <v>1.92</v>
@@ -7399,7 +7408,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7683,7 +7692,7 @@
         <v>0.75</v>
       </c>
       <c r="AP33">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
         <v>0.57</v>
@@ -7892,7 +7901,7 @@
         <v>2</v>
       </c>
       <c r="AQ34">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR34">
         <v>1.75</v>
@@ -8017,7 +8026,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8223,7 +8232,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8304,7 +8313,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ36">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR36">
         <v>1.56</v>
@@ -8635,7 +8644,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8841,7 +8850,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9047,7 +9056,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9125,7 +9134,7 @@
         <v>2.33</v>
       </c>
       <c r="AP40">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ40">
         <v>1.83</v>
@@ -9253,7 +9262,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9331,10 +9340,10 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ41">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR41">
         <v>1.13</v>
@@ -9459,7 +9468,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9665,7 +9674,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9871,7 +9880,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10077,7 +10086,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10155,7 +10164,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
         <v>2</v>
@@ -10283,7 +10292,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10570,7 +10579,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ47">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR47">
         <v>1.67</v>
@@ -10695,7 +10704,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10776,7 +10785,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ48">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR48">
         <v>1.66</v>
@@ -10901,7 +10910,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11107,7 +11116,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11313,7 +11322,7 @@
         <v>101</v>
       </c>
       <c r="P51" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -11519,7 +11528,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11597,7 +11606,7 @@
         <v>1.67</v>
       </c>
       <c r="AP52">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
         <v>1.5</v>
@@ -11725,7 +11734,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -11931,7 +11940,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12137,7 +12146,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12343,7 +12352,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12421,10 +12430,10 @@
         <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ56">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR56">
         <v>1.21</v>
@@ -12549,7 +12558,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -12630,7 +12639,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ57">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR57">
         <v>2.05</v>
@@ -12755,7 +12764,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -12961,7 +12970,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13167,7 +13176,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13373,7 +13382,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q61">
         <v>2.9</v>
@@ -13451,7 +13460,7 @@
         <v>2.5</v>
       </c>
       <c r="AP61">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
         <v>1.83</v>
@@ -13579,7 +13588,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13785,7 +13794,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q63">
         <v>1.84</v>
@@ -13866,7 +13875,7 @@
         <v>2</v>
       </c>
       <c r="AQ63">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR63">
         <v>1.93</v>
@@ -13991,7 +14000,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q64">
         <v>5.69</v>
@@ -14072,7 +14081,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ64">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR64">
         <v>1.37</v>
@@ -14197,7 +14206,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q65">
         <v>4.4</v>
@@ -14275,7 +14284,7 @@
         <v>0.6</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ65">
         <v>0.5</v>
@@ -14403,7 +14412,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14609,7 +14618,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14815,7 +14824,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -15021,7 +15030,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q69">
         <v>1.85</v>
@@ -15099,7 +15108,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
         <v>0.17</v>
@@ -15227,7 +15236,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q70">
         <v>3.7</v>
@@ -15433,7 +15442,7 @@
         <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -15639,7 +15648,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15796,6 +15805,624 @@
       </c>
       <c r="BP72">
         <v>1.95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7294858</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45471.625</v>
+      </c>
+      <c r="F73">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>77</v>
+      </c>
+      <c r="H73" t="s">
+        <v>72</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73">
+        <v>3</v>
+      </c>
+      <c r="O73" t="s">
+        <v>140</v>
+      </c>
+      <c r="P73" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q73">
+        <v>3.85</v>
+      </c>
+      <c r="R73">
+        <v>2.4</v>
+      </c>
+      <c r="S73">
+        <v>2.25</v>
+      </c>
+      <c r="T73">
+        <v>1.25</v>
+      </c>
+      <c r="U73">
+        <v>3.65</v>
+      </c>
+      <c r="V73">
+        <v>2.1</v>
+      </c>
+      <c r="W73">
+        <v>1.67</v>
+      </c>
+      <c r="X73">
+        <v>4.33</v>
+      </c>
+      <c r="Y73">
+        <v>1.2</v>
+      </c>
+      <c r="Z73">
+        <v>3.75</v>
+      </c>
+      <c r="AA73">
+        <v>4.1</v>
+      </c>
+      <c r="AB73">
+        <v>1.79</v>
+      </c>
+      <c r="AC73">
+        <v>1.01</v>
+      </c>
+      <c r="AD73">
+        <v>10.75</v>
+      </c>
+      <c r="AE73">
+        <v>1.13</v>
+      </c>
+      <c r="AF73">
+        <v>5.25</v>
+      </c>
+      <c r="AG73">
+        <v>1.42</v>
+      </c>
+      <c r="AH73">
+        <v>2.65</v>
+      </c>
+      <c r="AI73">
+        <v>1.44</v>
+      </c>
+      <c r="AJ73">
+        <v>2.63</v>
+      </c>
+      <c r="AK73">
+        <v>1.93</v>
+      </c>
+      <c r="AL73">
+        <v>1.2</v>
+      </c>
+      <c r="AM73">
+        <v>1.22</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
+        <v>0</v>
+      </c>
+      <c r="AP73">
+        <v>0.86</v>
+      </c>
+      <c r="AQ73">
+        <v>0.6</v>
+      </c>
+      <c r="AR73">
+        <v>1.18</v>
+      </c>
+      <c r="AS73">
+        <v>1.62</v>
+      </c>
+      <c r="AT73">
+        <v>2.8</v>
+      </c>
+      <c r="AU73">
+        <v>3</v>
+      </c>
+      <c r="AV73">
+        <v>11</v>
+      </c>
+      <c r="AW73">
+        <v>7</v>
+      </c>
+      <c r="AX73">
+        <v>13</v>
+      </c>
+      <c r="AY73">
+        <v>10</v>
+      </c>
+      <c r="AZ73">
+        <v>24</v>
+      </c>
+      <c r="BA73">
+        <v>4</v>
+      </c>
+      <c r="BB73">
+        <v>15</v>
+      </c>
+      <c r="BC73">
+        <v>19</v>
+      </c>
+      <c r="BD73">
+        <v>2.96</v>
+      </c>
+      <c r="BE73">
+        <v>9</v>
+      </c>
+      <c r="BF73">
+        <v>1.51</v>
+      </c>
+      <c r="BG73">
+        <v>1.1</v>
+      </c>
+      <c r="BH73">
+        <v>5.75</v>
+      </c>
+      <c r="BI73">
+        <v>1.15</v>
+      </c>
+      <c r="BJ73">
+        <v>4.45</v>
+      </c>
+      <c r="BK73">
+        <v>1.4</v>
+      </c>
+      <c r="BL73">
+        <v>2.6</v>
+      </c>
+      <c r="BM73">
+        <v>1.62</v>
+      </c>
+      <c r="BN73">
+        <v>2.08</v>
+      </c>
+      <c r="BO73">
+        <v>2</v>
+      </c>
+      <c r="BP73">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7294859</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45471.67708333334</v>
+      </c>
+      <c r="F74">
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>81</v>
+      </c>
+      <c r="H74" t="s">
+        <v>75</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74" t="s">
+        <v>96</v>
+      </c>
+      <c r="P74" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q74">
+        <v>3.3</v>
+      </c>
+      <c r="R74">
+        <v>2.4</v>
+      </c>
+      <c r="S74">
+        <v>2.5</v>
+      </c>
+      <c r="T74">
+        <v>1.22</v>
+      </c>
+      <c r="U74">
+        <v>3.8</v>
+      </c>
+      <c r="V74">
+        <v>2</v>
+      </c>
+      <c r="W74">
+        <v>1.73</v>
+      </c>
+      <c r="X74">
+        <v>4</v>
+      </c>
+      <c r="Y74">
+        <v>1.2</v>
+      </c>
+      <c r="Z74">
+        <v>3.15</v>
+      </c>
+      <c r="AA74">
+        <v>3.9</v>
+      </c>
+      <c r="AB74">
+        <v>1.86</v>
+      </c>
+      <c r="AC74">
+        <v>1.01</v>
+      </c>
+      <c r="AD74">
+        <v>11</v>
+      </c>
+      <c r="AE74">
+        <v>1.1</v>
+      </c>
+      <c r="AF74">
+        <v>5.75</v>
+      </c>
+      <c r="AG74">
+        <v>1.34</v>
+      </c>
+      <c r="AH74">
+        <v>2.75</v>
+      </c>
+      <c r="AI74">
+        <v>1.38</v>
+      </c>
+      <c r="AJ74">
+        <v>2.9</v>
+      </c>
+      <c r="AK74">
+        <v>1.75</v>
+      </c>
+      <c r="AL74">
+        <v>1.2</v>
+      </c>
+      <c r="AM74">
+        <v>1.36</v>
+      </c>
+      <c r="AN74">
+        <v>1.75</v>
+      </c>
+      <c r="AO74">
+        <v>2.4</v>
+      </c>
+      <c r="AP74">
+        <v>2</v>
+      </c>
+      <c r="AQ74">
+        <v>2</v>
+      </c>
+      <c r="AR74">
+        <v>2.07</v>
+      </c>
+      <c r="AS74">
+        <v>2.06</v>
+      </c>
+      <c r="AT74">
+        <v>4.13</v>
+      </c>
+      <c r="AU74">
+        <v>2</v>
+      </c>
+      <c r="AV74">
+        <v>0</v>
+      </c>
+      <c r="AW74">
+        <v>5</v>
+      </c>
+      <c r="AX74">
+        <v>8</v>
+      </c>
+      <c r="AY74">
+        <v>7</v>
+      </c>
+      <c r="AZ74">
+        <v>8</v>
+      </c>
+      <c r="BA74">
+        <v>5</v>
+      </c>
+      <c r="BB74">
+        <v>2</v>
+      </c>
+      <c r="BC74">
+        <v>7</v>
+      </c>
+      <c r="BD74">
+        <v>2.1</v>
+      </c>
+      <c r="BE74">
+        <v>8.5</v>
+      </c>
+      <c r="BF74">
+        <v>1.91</v>
+      </c>
+      <c r="BG74">
+        <v>1.1</v>
+      </c>
+      <c r="BH74">
+        <v>5.75</v>
+      </c>
+      <c r="BI74">
+        <v>1.2</v>
+      </c>
+      <c r="BJ74">
+        <v>4</v>
+      </c>
+      <c r="BK74">
+        <v>1.33</v>
+      </c>
+      <c r="BL74">
+        <v>3</v>
+      </c>
+      <c r="BM74">
+        <v>1.57</v>
+      </c>
+      <c r="BN74">
+        <v>2.16</v>
+      </c>
+      <c r="BO74">
+        <v>1.9</v>
+      </c>
+      <c r="BP74">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7294860</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45471.67708333334</v>
+      </c>
+      <c r="F75">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>79</v>
+      </c>
+      <c r="H75" t="s">
+        <v>73</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>3</v>
+      </c>
+      <c r="L75">
+        <v>3</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+      <c r="N75">
+        <v>5</v>
+      </c>
+      <c r="O75" t="s">
+        <v>141</v>
+      </c>
+      <c r="P75" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q75">
+        <v>4</v>
+      </c>
+      <c r="R75">
+        <v>2.45</v>
+      </c>
+      <c r="S75">
+        <v>2.15</v>
+      </c>
+      <c r="T75">
+        <v>1.22</v>
+      </c>
+      <c r="U75">
+        <v>3.85</v>
+      </c>
+      <c r="V75">
+        <v>1.95</v>
+      </c>
+      <c r="W75">
+        <v>1.75</v>
+      </c>
+      <c r="X75">
+        <v>3.75</v>
+      </c>
+      <c r="Y75">
+        <v>1.25</v>
+      </c>
+      <c r="Z75">
+        <v>4</v>
+      </c>
+      <c r="AA75">
+        <v>4.15</v>
+      </c>
+      <c r="AB75">
+        <v>1.62</v>
+      </c>
+      <c r="AC75">
+        <v>1.01</v>
+      </c>
+      <c r="AD75">
+        <v>11.25</v>
+      </c>
+      <c r="AE75">
+        <v>1.11</v>
+      </c>
+      <c r="AF75">
+        <v>6</v>
+      </c>
+      <c r="AG75">
+        <v>1.32</v>
+      </c>
+      <c r="AH75">
+        <v>2.83</v>
+      </c>
+      <c r="AI75">
+        <v>1.44</v>
+      </c>
+      <c r="AJ75">
+        <v>2.63</v>
+      </c>
+      <c r="AK75">
+        <v>2.1</v>
+      </c>
+      <c r="AL75">
+        <v>1.18</v>
+      </c>
+      <c r="AM75">
+        <v>1.18</v>
+      </c>
+      <c r="AN75">
+        <v>1.8</v>
+      </c>
+      <c r="AO75">
+        <v>2.17</v>
+      </c>
+      <c r="AP75">
+        <v>2</v>
+      </c>
+      <c r="AQ75">
+        <v>1.86</v>
+      </c>
+      <c r="AR75">
+        <v>1.99</v>
+      </c>
+      <c r="AS75">
+        <v>2.32</v>
+      </c>
+      <c r="AT75">
+        <v>4.31</v>
+      </c>
+      <c r="AU75">
+        <v>7</v>
+      </c>
+      <c r="AV75">
+        <v>6</v>
+      </c>
+      <c r="AW75">
+        <v>5</v>
+      </c>
+      <c r="AX75">
+        <v>8</v>
+      </c>
+      <c r="AY75">
+        <v>12</v>
+      </c>
+      <c r="AZ75">
+        <v>14</v>
+      </c>
+      <c r="BA75">
+        <v>3</v>
+      </c>
+      <c r="BB75">
+        <v>7</v>
+      </c>
+      <c r="BC75">
+        <v>10</v>
+      </c>
+      <c r="BD75">
+        <v>2.63</v>
+      </c>
+      <c r="BE75">
+        <v>9</v>
+      </c>
+      <c r="BF75">
+        <v>1.64</v>
+      </c>
+      <c r="BG75">
+        <v>1.11</v>
+      </c>
+      <c r="BH75">
+        <v>5.5</v>
+      </c>
+      <c r="BI75">
+        <v>1.18</v>
+      </c>
+      <c r="BJ75">
+        <v>4.3</v>
+      </c>
+      <c r="BK75">
+        <v>1.34</v>
+      </c>
+      <c r="BL75">
+        <v>3</v>
+      </c>
+      <c r="BM75">
+        <v>1.58</v>
+      </c>
+      <c r="BN75">
+        <v>2.23</v>
+      </c>
+      <c r="BO75">
+        <v>2</v>
+      </c>
+      <c r="BP75">
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="200">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -442,6 +442,9 @@
     <t>['26', '36', '90']</t>
   </si>
   <si>
+    <t>['20', '39']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -608,6 +611,9 @@
   </si>
   <si>
     <t>['14', '50']</t>
+  </si>
+  <si>
+    <t>['57']</t>
   </si>
 </sst>
 </file>
@@ -969,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP75"/>
+  <dimension ref="A1:BP76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1306,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ2">
         <v>0.5</v>
@@ -1640,7 +1646,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -2052,7 +2058,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2464,7 +2470,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2876,7 +2882,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3082,7 +3088,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3494,7 +3500,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3906,7 +3912,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4193,7 +4199,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4524,7 +4530,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4730,7 +4736,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4808,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ19">
         <v>2</v>
@@ -5142,7 +5148,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5348,7 +5354,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5426,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ22">
         <v>0.6</v>
@@ -5554,7 +5560,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5760,7 +5766,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -5841,7 +5847,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR24">
         <v>1.96</v>
@@ -5966,7 +5972,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6172,7 +6178,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6378,7 +6384,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q27">
         <v>3.35</v>
@@ -6584,7 +6590,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6996,7 +7002,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -7202,7 +7208,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7408,7 +7414,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7489,7 +7495,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR32">
         <v>1.74</v>
@@ -8026,7 +8032,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8232,7 +8238,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8516,7 +8522,7 @@
         <v>2.25</v>
       </c>
       <c r="AP37">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ37">
         <v>1.43</v>
@@ -8644,7 +8650,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8850,7 +8856,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9056,7 +9062,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9262,7 +9268,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9468,7 +9474,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9674,7 +9680,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9880,7 +9886,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10086,7 +10092,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10292,7 +10298,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10704,7 +10710,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10910,7 +10916,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11116,7 +11122,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11528,7 +11534,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11609,7 +11615,7 @@
         <v>2</v>
       </c>
       <c r="AQ52">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR52">
         <v>2.33</v>
@@ -11734,7 +11740,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -11940,7 +11946,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12146,7 +12152,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12224,7 +12230,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ55">
         <v>0.17</v>
@@ -12352,7 +12358,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12558,7 +12564,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -12764,7 +12770,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -12970,7 +12976,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13176,7 +13182,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13382,7 +13388,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q61">
         <v>2.9</v>
@@ -13588,7 +13594,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13794,7 +13800,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q63">
         <v>1.84</v>
@@ -14000,7 +14006,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q64">
         <v>5.69</v>
@@ -14206,7 +14212,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q65">
         <v>4.4</v>
@@ -14412,7 +14418,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14490,7 +14496,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ66">
         <v>1.83</v>
@@ -14618,7 +14624,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14699,7 +14705,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ67">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR67">
         <v>1.91</v>
@@ -14824,7 +14830,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -15030,7 +15036,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q69">
         <v>1.85</v>
@@ -15236,7 +15242,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q70">
         <v>3.7</v>
@@ -15317,7 +15323,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ70">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR70">
         <v>1.27</v>
@@ -15442,7 +15448,7 @@
         <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -15648,7 +15654,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15854,7 +15860,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q73">
         <v>3.85</v>
@@ -16266,7 +16272,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16422,6 +16428,212 @@
         <v>2</v>
       </c>
       <c r="BP75">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7294861</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45473.67708333334</v>
+      </c>
+      <c r="F76">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s">
+        <v>70</v>
+      </c>
+      <c r="H76" t="s">
+        <v>71</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76" t="s">
+        <v>142</v>
+      </c>
+      <c r="P76" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q76">
+        <v>1.78</v>
+      </c>
+      <c r="R76">
+        <v>2.7</v>
+      </c>
+      <c r="S76">
+        <v>6</v>
+      </c>
+      <c r="T76">
+        <v>1.22</v>
+      </c>
+      <c r="U76">
+        <v>3.8</v>
+      </c>
+      <c r="V76">
+        <v>2</v>
+      </c>
+      <c r="W76">
+        <v>1.73</v>
+      </c>
+      <c r="X76">
+        <v>4</v>
+      </c>
+      <c r="Y76">
+        <v>1.2</v>
+      </c>
+      <c r="Z76">
+        <v>1.4</v>
+      </c>
+      <c r="AA76">
+        <v>5</v>
+      </c>
+      <c r="AB76">
+        <v>6.62</v>
+      </c>
+      <c r="AC76">
+        <v>1.01</v>
+      </c>
+      <c r="AD76">
+        <v>23</v>
+      </c>
+      <c r="AE76">
+        <v>1.1</v>
+      </c>
+      <c r="AF76">
+        <v>5.75</v>
+      </c>
+      <c r="AG76">
+        <v>1.4</v>
+      </c>
+      <c r="AH76">
+        <v>2.75</v>
+      </c>
+      <c r="AI76">
+        <v>1.57</v>
+      </c>
+      <c r="AJ76">
+        <v>2.25</v>
+      </c>
+      <c r="AK76">
+        <v>1.11</v>
+      </c>
+      <c r="AL76">
+        <v>1.15</v>
+      </c>
+      <c r="AM76">
+        <v>3</v>
+      </c>
+      <c r="AN76">
+        <v>2.67</v>
+      </c>
+      <c r="AO76">
+        <v>1.5</v>
+      </c>
+      <c r="AP76">
+        <v>2.71</v>
+      </c>
+      <c r="AQ76">
+        <v>1.29</v>
+      </c>
+      <c r="AR76">
+        <v>2.08</v>
+      </c>
+      <c r="AS76">
+        <v>1.55</v>
+      </c>
+      <c r="AT76">
+        <v>3.63</v>
+      </c>
+      <c r="AU76">
+        <v>8</v>
+      </c>
+      <c r="AV76">
+        <v>8</v>
+      </c>
+      <c r="AW76">
+        <v>3</v>
+      </c>
+      <c r="AX76">
+        <v>10</v>
+      </c>
+      <c r="AY76">
+        <v>11</v>
+      </c>
+      <c r="AZ76">
+        <v>18</v>
+      </c>
+      <c r="BA76">
+        <v>4</v>
+      </c>
+      <c r="BB76">
+        <v>6</v>
+      </c>
+      <c r="BC76">
+        <v>10</v>
+      </c>
+      <c r="BD76">
+        <v>1.15</v>
+      </c>
+      <c r="BE76">
+        <v>10.5</v>
+      </c>
+      <c r="BF76">
+        <v>7</v>
+      </c>
+      <c r="BG76">
+        <v>1.12</v>
+      </c>
+      <c r="BH76">
+        <v>5.25</v>
+      </c>
+      <c r="BI76">
+        <v>1.17</v>
+      </c>
+      <c r="BJ76">
+        <v>4.25</v>
+      </c>
+      <c r="BK76">
+        <v>1.33</v>
+      </c>
+      <c r="BL76">
+        <v>2.93</v>
+      </c>
+      <c r="BM76">
+        <v>1.61</v>
+      </c>
+      <c r="BN76">
+        <v>2.25</v>
+      </c>
+      <c r="BO76">
+        <v>2</v>
+      </c>
+      <c r="BP76">
         <v>1.8</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="205">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -445,6 +445,15 @@
     <t>['20', '39']</t>
   </si>
   <si>
+    <t>['6', '24', '34', '45+4', '73', '75', '83', '89']</t>
+  </si>
+  <si>
+    <t>['27', '65']</t>
+  </si>
+  <si>
+    <t>['34', '53', '66', '75']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -614,6 +623,12 @@
   </si>
   <si>
     <t>['57']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['18', '57']</t>
   </si>
 </sst>
 </file>
@@ -975,7 +990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP76"/>
+  <dimension ref="A1:BP80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1315,7 +1330,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ2">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1646,7 +1661,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1727,7 +1742,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ4">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1930,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ5">
         <v>1.33</v>
@@ -2058,7 +2073,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2470,7 +2485,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2882,7 +2897,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3088,7 +3103,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3500,7 +3515,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3912,7 +3927,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4196,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AQ16">
         <v>1.29</v>
@@ -4530,7 +4545,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4608,10 +4623,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ18">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4736,7 +4751,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4817,7 +4832,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR19">
         <v>1.54</v>
@@ -5020,10 +5035,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ20">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5148,7 +5163,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5226,7 +5241,7 @@
         <v>2</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ21">
         <v>1.43</v>
@@ -5354,7 +5369,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5560,7 +5575,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5638,10 +5653,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR23">
         <v>1.8</v>
@@ -5766,7 +5781,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -5844,7 +5859,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ24">
         <v>1.29</v>
@@ -5972,7 +5987,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6053,7 +6068,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ25">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR25">
         <v>1.51</v>
@@ -6178,7 +6193,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6384,7 +6399,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q27">
         <v>3.35</v>
@@ -6590,7 +6605,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6877,7 +6892,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ29">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR29">
         <v>1.38</v>
@@ -7002,7 +7017,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -7208,7 +7223,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7414,7 +7429,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7698,7 +7713,7 @@
         <v>0.75</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ33">
         <v>0.57</v>
@@ -7904,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ34">
         <v>0.6</v>
@@ -8032,7 +8047,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8110,10 +8125,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AQ35">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR35">
         <v>1.9</v>
@@ -8238,7 +8253,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8319,7 +8334,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR36">
         <v>1.56</v>
@@ -8650,7 +8665,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8728,7 +8743,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ38">
         <v>2</v>
@@ -8856,7 +8871,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8937,7 +8952,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ39">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR39">
         <v>1.9</v>
@@ -9062,7 +9077,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9268,7 +9283,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9474,7 +9489,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9555,7 +9570,7 @@
         <v>2</v>
       </c>
       <c r="AQ42">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR42">
         <v>2.07</v>
@@ -9680,7 +9695,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9886,7 +9901,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9964,7 +9979,7 @@
         <v>0.6</v>
       </c>
       <c r="AP44">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AQ44">
         <v>0.57</v>
@@ -10092,7 +10107,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10170,7 +10185,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ45">
         <v>2</v>
@@ -10298,7 +10313,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10376,7 +10391,7 @@
         <v>1.8</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ46">
         <v>1.43</v>
@@ -10710,7 +10725,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10791,7 +10806,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ48">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR48">
         <v>1.66</v>
@@ -10916,7 +10931,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -10997,7 +11012,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ49">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR49">
         <v>1.73</v>
@@ -11122,7 +11137,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11200,10 +11215,10 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ50">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR50">
         <v>1.74</v>
@@ -11534,7 +11549,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11740,7 +11755,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -11946,7 +11961,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12024,10 +12039,10 @@
         <v>0.75</v>
       </c>
       <c r="AP54">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ54">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR54">
         <v>1.32</v>
@@ -12152,7 +12167,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12233,7 +12248,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ55">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR55">
         <v>1.88</v>
@@ -12358,7 +12373,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12439,7 +12454,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ56">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR56">
         <v>1.21</v>
@@ -12564,7 +12579,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -12642,7 +12657,7 @@
         <v>1.75</v>
       </c>
       <c r="AP57">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AQ57">
         <v>1.86</v>
@@ -12770,7 +12785,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -12976,7 +12991,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13057,7 +13072,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ59">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR59">
         <v>1.64</v>
@@ -13182,7 +13197,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13388,7 +13403,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q61">
         <v>2.9</v>
@@ -13466,7 +13481,7 @@
         <v>2.5</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ61">
         <v>1.83</v>
@@ -13594,7 +13609,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13672,7 +13687,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ62">
         <v>2</v>
@@ -13800,7 +13815,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q63">
         <v>1.84</v>
@@ -14006,7 +14021,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q64">
         <v>5.69</v>
@@ -14084,7 +14099,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ64">
         <v>1.86</v>
@@ -14212,7 +14227,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q65">
         <v>4.4</v>
@@ -14293,7 +14308,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ65">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR65">
         <v>1.16</v>
@@ -14418,7 +14433,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14624,7 +14639,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14830,7 +14845,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -15036,7 +15051,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q69">
         <v>1.85</v>
@@ -15117,7 +15132,7 @@
         <v>2</v>
       </c>
       <c r="AQ69">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR69">
         <v>2.15</v>
@@ -15242,7 +15257,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q70">
         <v>3.7</v>
@@ -15320,7 +15335,7 @@
         <v>1.2</v>
       </c>
       <c r="AP70">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ70">
         <v>1.29</v>
@@ -15448,7 +15463,7 @@
         <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -15654,7 +15669,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15732,10 +15747,10 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AQ72">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR72">
         <v>1.93</v>
@@ -15860,7 +15875,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q73">
         <v>3.85</v>
@@ -16147,7 +16162,7 @@
         <v>2</v>
       </c>
       <c r="AQ74">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR74">
         <v>2.07</v>
@@ -16272,7 +16287,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16350,7 +16365,7 @@
         <v>2.17</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ75">
         <v>1.86</v>
@@ -16478,7 +16493,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q76">
         <v>1.78</v>
@@ -16634,6 +16649,830 @@
         <v>2</v>
       </c>
       <c r="BP76">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7294862</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45479.45833333334</v>
+      </c>
+      <c r="F77">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s">
+        <v>78</v>
+      </c>
+      <c r="H77" t="s">
+        <v>76</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
+      <c r="O77" t="s">
+        <v>138</v>
+      </c>
+      <c r="P77" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q77">
+        <v>2.54</v>
+      </c>
+      <c r="R77">
+        <v>2.55</v>
+      </c>
+      <c r="S77">
+        <v>3.14</v>
+      </c>
+      <c r="T77">
+        <v>1.19</v>
+      </c>
+      <c r="U77">
+        <v>4.4</v>
+      </c>
+      <c r="V77">
+        <v>1.92</v>
+      </c>
+      <c r="W77">
+        <v>1.83</v>
+      </c>
+      <c r="X77">
+        <v>3.8</v>
+      </c>
+      <c r="Y77">
+        <v>1.24</v>
+      </c>
+      <c r="Z77">
+        <v>2.14</v>
+      </c>
+      <c r="AA77">
+        <v>3.95</v>
+      </c>
+      <c r="AB77">
+        <v>2.8</v>
+      </c>
+      <c r="AC77">
+        <v>1.01</v>
+      </c>
+      <c r="AD77">
+        <v>11.25</v>
+      </c>
+      <c r="AE77">
+        <v>1.06</v>
+      </c>
+      <c r="AF77">
+        <v>6.5</v>
+      </c>
+      <c r="AG77">
+        <v>1.33</v>
+      </c>
+      <c r="AH77">
+        <v>3</v>
+      </c>
+      <c r="AI77">
+        <v>1.32</v>
+      </c>
+      <c r="AJ77">
+        <v>3.1</v>
+      </c>
+      <c r="AK77">
+        <v>1.42</v>
+      </c>
+      <c r="AL77">
+        <v>1.22</v>
+      </c>
+      <c r="AM77">
+        <v>1.66</v>
+      </c>
+      <c r="AN77">
+        <v>0.33</v>
+      </c>
+      <c r="AO77">
+        <v>0.5</v>
+      </c>
+      <c r="AP77">
+        <v>0.43</v>
+      </c>
+      <c r="AQ77">
+        <v>0.57</v>
+      </c>
+      <c r="AR77">
+        <v>1.89</v>
+      </c>
+      <c r="AS77">
+        <v>1.98</v>
+      </c>
+      <c r="AT77">
+        <v>3.87</v>
+      </c>
+      <c r="AU77">
+        <v>7</v>
+      </c>
+      <c r="AV77">
+        <v>5</v>
+      </c>
+      <c r="AW77">
+        <v>13</v>
+      </c>
+      <c r="AX77">
+        <v>3</v>
+      </c>
+      <c r="AY77">
+        <v>20</v>
+      </c>
+      <c r="AZ77">
+        <v>8</v>
+      </c>
+      <c r="BA77">
+        <v>11</v>
+      </c>
+      <c r="BB77">
+        <v>4</v>
+      </c>
+      <c r="BC77">
+        <v>15</v>
+      </c>
+      <c r="BD77">
+        <v>1.69</v>
+      </c>
+      <c r="BE77">
+        <v>9</v>
+      </c>
+      <c r="BF77">
+        <v>2.44</v>
+      </c>
+      <c r="BG77">
+        <v>1.1</v>
+      </c>
+      <c r="BH77">
+        <v>5.75</v>
+      </c>
+      <c r="BI77">
+        <v>1.13</v>
+      </c>
+      <c r="BJ77">
+        <v>4.75</v>
+      </c>
+      <c r="BK77">
+        <v>1.27</v>
+      </c>
+      <c r="BL77">
+        <v>3.28</v>
+      </c>
+      <c r="BM77">
+        <v>1.48</v>
+      </c>
+      <c r="BN77">
+        <v>2.4</v>
+      </c>
+      <c r="BO77">
+        <v>1.85</v>
+      </c>
+      <c r="BP77">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7294863</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45479.45833333334</v>
+      </c>
+      <c r="F78">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s">
+        <v>79</v>
+      </c>
+      <c r="H78" t="s">
+        <v>77</v>
+      </c>
+      <c r="I78">
+        <v>4</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>4</v>
+      </c>
+      <c r="L78">
+        <v>8</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>8</v>
+      </c>
+      <c r="O78" t="s">
+        <v>143</v>
+      </c>
+      <c r="P78" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q78">
+        <v>1.98</v>
+      </c>
+      <c r="R78">
+        <v>2.6</v>
+      </c>
+      <c r="S78">
+        <v>4.65</v>
+      </c>
+      <c r="T78">
+        <v>1.21</v>
+      </c>
+      <c r="U78">
+        <v>4.15</v>
+      </c>
+      <c r="V78">
+        <v>2.01</v>
+      </c>
+      <c r="W78">
+        <v>1.75</v>
+      </c>
+      <c r="X78">
+        <v>4.15</v>
+      </c>
+      <c r="Y78">
+        <v>1.21</v>
+      </c>
+      <c r="Z78">
+        <v>1.51</v>
+      </c>
+      <c r="AA78">
+        <v>4.6</v>
+      </c>
+      <c r="AB78">
+        <v>5</v>
+      </c>
+      <c r="AC78">
+        <v>1.01</v>
+      </c>
+      <c r="AD78">
+        <v>11.25</v>
+      </c>
+      <c r="AE78">
+        <v>1.08</v>
+      </c>
+      <c r="AF78">
+        <v>5.85</v>
+      </c>
+      <c r="AG78">
+        <v>1.36</v>
+      </c>
+      <c r="AH78">
+        <v>2.9</v>
+      </c>
+      <c r="AI78">
+        <v>1.46</v>
+      </c>
+      <c r="AJ78">
+        <v>2.52</v>
+      </c>
+      <c r="AK78">
+        <v>1.15</v>
+      </c>
+      <c r="AL78">
+        <v>1.18</v>
+      </c>
+      <c r="AM78">
+        <v>2.39</v>
+      </c>
+      <c r="AN78">
+        <v>2</v>
+      </c>
+      <c r="AO78">
+        <v>1.4</v>
+      </c>
+      <c r="AP78">
+        <v>2.14</v>
+      </c>
+      <c r="AQ78">
+        <v>1.17</v>
+      </c>
+      <c r="AR78">
+        <v>1.96</v>
+      </c>
+      <c r="AS78">
+        <v>1.36</v>
+      </c>
+      <c r="AT78">
+        <v>3.32</v>
+      </c>
+      <c r="AU78">
+        <v>10</v>
+      </c>
+      <c r="AV78">
+        <v>6</v>
+      </c>
+      <c r="AW78">
+        <v>3</v>
+      </c>
+      <c r="AX78">
+        <v>6</v>
+      </c>
+      <c r="AY78">
+        <v>13</v>
+      </c>
+      <c r="AZ78">
+        <v>12</v>
+      </c>
+      <c r="BA78">
+        <v>6</v>
+      </c>
+      <c r="BB78">
+        <v>1</v>
+      </c>
+      <c r="BC78">
+        <v>7</v>
+      </c>
+      <c r="BD78">
+        <v>1.34</v>
+      </c>
+      <c r="BE78">
+        <v>10</v>
+      </c>
+      <c r="BF78">
+        <v>3.72</v>
+      </c>
+      <c r="BG78">
+        <v>1.11</v>
+      </c>
+      <c r="BH78">
+        <v>5.5</v>
+      </c>
+      <c r="BI78">
+        <v>1.14</v>
+      </c>
+      <c r="BJ78">
+        <v>4.6</v>
+      </c>
+      <c r="BK78">
+        <v>1.28</v>
+      </c>
+      <c r="BL78">
+        <v>3.18</v>
+      </c>
+      <c r="BM78">
+        <v>1.51</v>
+      </c>
+      <c r="BN78">
+        <v>2.32</v>
+      </c>
+      <c r="BO78">
+        <v>1.9</v>
+      </c>
+      <c r="BP78">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7294864</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45479.45833333334</v>
+      </c>
+      <c r="F79">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>80</v>
+      </c>
+      <c r="H79" t="s">
+        <v>75</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
+      <c r="L79">
+        <v>2</v>
+      </c>
+      <c r="M79">
+        <v>2</v>
+      </c>
+      <c r="N79">
+        <v>4</v>
+      </c>
+      <c r="O79" t="s">
+        <v>144</v>
+      </c>
+      <c r="P79" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q79">
+        <v>5.9</v>
+      </c>
+      <c r="R79">
+        <v>2.72</v>
+      </c>
+      <c r="S79">
+        <v>1.76</v>
+      </c>
+      <c r="T79">
+        <v>1.21</v>
+      </c>
+      <c r="U79">
+        <v>4.15</v>
+      </c>
+      <c r="V79">
+        <v>2.02</v>
+      </c>
+      <c r="W79">
+        <v>1.74</v>
+      </c>
+      <c r="X79">
+        <v>4.25</v>
+      </c>
+      <c r="Y79">
+        <v>1.2</v>
+      </c>
+      <c r="Z79">
+        <v>6.6</v>
+      </c>
+      <c r="AA79">
+        <v>5.2</v>
+      </c>
+      <c r="AB79">
+        <v>1.36</v>
+      </c>
+      <c r="AC79">
+        <v>1.01</v>
+      </c>
+      <c r="AD79">
+        <v>11.25</v>
+      </c>
+      <c r="AE79">
+        <v>1.08</v>
+      </c>
+      <c r="AF79">
+        <v>5.8</v>
+      </c>
+      <c r="AG79">
+        <v>1.36</v>
+      </c>
+      <c r="AH79">
+        <v>2.9</v>
+      </c>
+      <c r="AI79">
+        <v>1.58</v>
+      </c>
+      <c r="AJ79">
+        <v>2.23</v>
+      </c>
+      <c r="AK79">
+        <v>3</v>
+      </c>
+      <c r="AL79">
+        <v>1.14</v>
+      </c>
+      <c r="AM79">
+        <v>1.08</v>
+      </c>
+      <c r="AN79">
+        <v>1.2</v>
+      </c>
+      <c r="AO79">
+        <v>2</v>
+      </c>
+      <c r="AP79">
+        <v>1.17</v>
+      </c>
+      <c r="AQ79">
+        <v>1.86</v>
+      </c>
+      <c r="AR79">
+        <v>1.24</v>
+      </c>
+      <c r="AS79">
+        <v>1.87</v>
+      </c>
+      <c r="AT79">
+        <v>3.11</v>
+      </c>
+      <c r="AU79">
+        <v>7</v>
+      </c>
+      <c r="AV79">
+        <v>7</v>
+      </c>
+      <c r="AW79">
+        <v>4</v>
+      </c>
+      <c r="AX79">
+        <v>7</v>
+      </c>
+      <c r="AY79">
+        <v>11</v>
+      </c>
+      <c r="AZ79">
+        <v>14</v>
+      </c>
+      <c r="BA79">
+        <v>4</v>
+      </c>
+      <c r="BB79">
+        <v>3</v>
+      </c>
+      <c r="BC79">
+        <v>7</v>
+      </c>
+      <c r="BD79">
+        <v>4.61</v>
+      </c>
+      <c r="BE79">
+        <v>11</v>
+      </c>
+      <c r="BF79">
+        <v>1.26</v>
+      </c>
+      <c r="BG79">
+        <v>1.11</v>
+      </c>
+      <c r="BH79">
+        <v>5.5</v>
+      </c>
+      <c r="BI79">
+        <v>1.18</v>
+      </c>
+      <c r="BJ79">
+        <v>4.1</v>
+      </c>
+      <c r="BK79">
+        <v>1.35</v>
+      </c>
+      <c r="BL79">
+        <v>2.84</v>
+      </c>
+      <c r="BM79">
+        <v>1.6</v>
+      </c>
+      <c r="BN79">
+        <v>2.14</v>
+      </c>
+      <c r="BO79">
+        <v>1.99</v>
+      </c>
+      <c r="BP79">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7294865</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45479.58333333334</v>
+      </c>
+      <c r="F80">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s">
+        <v>73</v>
+      </c>
+      <c r="H80" t="s">
+        <v>74</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>4</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>4</v>
+      </c>
+      <c r="O80" t="s">
+        <v>145</v>
+      </c>
+      <c r="P80" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q80">
+        <v>1.63</v>
+      </c>
+      <c r="R80">
+        <v>3.05</v>
+      </c>
+      <c r="S80">
+        <v>6.1</v>
+      </c>
+      <c r="T80">
+        <v>1.14</v>
+      </c>
+      <c r="U80">
+        <v>5.25</v>
+      </c>
+      <c r="V80">
+        <v>1.74</v>
+      </c>
+      <c r="W80">
+        <v>2.02</v>
+      </c>
+      <c r="X80">
+        <v>3.2</v>
+      </c>
+      <c r="Y80">
+        <v>1.32</v>
+      </c>
+      <c r="Z80">
+        <v>1.27</v>
+      </c>
+      <c r="AA80">
+        <v>6.2</v>
+      </c>
+      <c r="AB80">
+        <v>7.6</v>
+      </c>
+      <c r="AC80">
+        <v>1.01</v>
+      </c>
+      <c r="AD80">
+        <v>12</v>
+      </c>
+      <c r="AE80">
+        <v>1.04</v>
+      </c>
+      <c r="AF80">
+        <v>8.5</v>
+      </c>
+      <c r="AG80">
+        <v>1.21</v>
+      </c>
+      <c r="AH80">
+        <v>3.93</v>
+      </c>
+      <c r="AI80">
+        <v>1.44</v>
+      </c>
+      <c r="AJ80">
+        <v>2.58</v>
+      </c>
+      <c r="AK80">
+        <v>1.06</v>
+      </c>
+      <c r="AL80">
+        <v>1.1</v>
+      </c>
+      <c r="AM80">
+        <v>3.48</v>
+      </c>
+      <c r="AN80">
+        <v>2</v>
+      </c>
+      <c r="AO80">
+        <v>0.17</v>
+      </c>
+      <c r="AP80">
+        <v>2.14</v>
+      </c>
+      <c r="AQ80">
+        <v>0.14</v>
+      </c>
+      <c r="AR80">
+        <v>1.86</v>
+      </c>
+      <c r="AS80">
+        <v>1.58</v>
+      </c>
+      <c r="AT80">
+        <v>3.44</v>
+      </c>
+      <c r="AU80">
+        <v>9</v>
+      </c>
+      <c r="AV80">
+        <v>7</v>
+      </c>
+      <c r="AW80">
+        <v>9</v>
+      </c>
+      <c r="AX80">
+        <v>4</v>
+      </c>
+      <c r="AY80">
+        <v>18</v>
+      </c>
+      <c r="AZ80">
+        <v>11</v>
+      </c>
+      <c r="BA80">
+        <v>10</v>
+      </c>
+      <c r="BB80">
+        <v>2</v>
+      </c>
+      <c r="BC80">
+        <v>12</v>
+      </c>
+      <c r="BD80">
+        <v>1.34</v>
+      </c>
+      <c r="BE80">
+        <v>10</v>
+      </c>
+      <c r="BF80">
+        <v>3.84</v>
+      </c>
+      <c r="BG80">
+        <v>0</v>
+      </c>
+      <c r="BH80">
+        <v>0</v>
+      </c>
+      <c r="BI80">
+        <v>1.11</v>
+      </c>
+      <c r="BJ80">
+        <v>5.25</v>
+      </c>
+      <c r="BK80">
+        <v>1.33</v>
+      </c>
+      <c r="BL80">
+        <v>2.85</v>
+      </c>
+      <c r="BM80">
+        <v>1.5</v>
+      </c>
+      <c r="BN80">
+        <v>2.31</v>
+      </c>
+      <c r="BO80">
+        <v>2</v>
+      </c>
+      <c r="BP80">
         <v>1.8</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="207">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -454,6 +454,9 @@
     <t>['34', '53', '66', '75']</t>
   </si>
   <si>
+    <t>['27']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -629,6 +632,9 @@
   </si>
   <si>
     <t>['18', '57']</t>
+  </si>
+  <si>
+    <t>['80']</t>
   </si>
 </sst>
 </file>
@@ -990,7 +996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP80"/>
+  <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1661,7 +1667,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -2073,7 +2079,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2485,7 +2491,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2897,7 +2903,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3103,7 +3109,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3515,7 +3521,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3927,7 +3933,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4545,7 +4551,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4751,7 +4757,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5163,7 +5169,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5369,7 +5375,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5450,7 +5456,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ22">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR22">
         <v>1.78</v>
@@ -5575,7 +5581,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5781,7 +5787,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -5987,7 +5993,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6193,7 +6199,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6271,7 +6277,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ26">
         <v>0.57</v>
@@ -6399,7 +6405,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q27">
         <v>3.35</v>
@@ -6605,7 +6611,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -7017,7 +7023,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -7223,7 +7229,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7429,7 +7435,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7922,7 +7928,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ34">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR34">
         <v>1.75</v>
@@ -8047,7 +8053,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8253,7 +8259,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8665,7 +8671,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8871,7 +8877,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9077,7 +9083,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9155,7 +9161,7 @@
         <v>2.33</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ40">
         <v>1.83</v>
@@ -9283,7 +9289,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9489,7 +9495,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9695,7 +9701,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9901,7 +9907,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10107,7 +10113,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10313,7 +10319,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10600,7 +10606,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ47">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR47">
         <v>1.67</v>
@@ -10725,7 +10731,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10931,7 +10937,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11137,7 +11143,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11549,7 +11555,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11627,7 +11633,7 @@
         <v>1.67</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ52">
         <v>1.29</v>
@@ -11755,7 +11761,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -11961,7 +11967,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12167,7 +12173,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12373,7 +12379,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12579,7 +12585,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -12785,7 +12791,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -12991,7 +12997,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13197,7 +13203,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13403,7 +13409,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q61">
         <v>2.9</v>
@@ -13609,7 +13615,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13815,7 +13821,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q63">
         <v>1.84</v>
@@ -13896,7 +13902,7 @@
         <v>2</v>
       </c>
       <c r="AQ63">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR63">
         <v>1.93</v>
@@ -14021,7 +14027,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q64">
         <v>5.69</v>
@@ -14227,7 +14233,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q65">
         <v>4.4</v>
@@ -14433,7 +14439,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14639,7 +14645,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14845,7 +14851,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -15051,7 +15057,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q69">
         <v>1.85</v>
@@ -15129,7 +15135,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ69">
         <v>0.14</v>
@@ -15257,7 +15263,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q70">
         <v>3.7</v>
@@ -15463,7 +15469,7 @@
         <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -15669,7 +15675,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15875,7 +15881,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q73">
         <v>3.85</v>
@@ -15956,7 +15962,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ73">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR73">
         <v>1.18</v>
@@ -16159,7 +16165,7 @@
         <v>2.4</v>
       </c>
       <c r="AP74">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ74">
         <v>1.86</v>
@@ -16287,7 +16293,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16493,7 +16499,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q76">
         <v>1.78</v>
@@ -16699,7 +16705,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q77">
         <v>2.54</v>
@@ -17111,7 +17117,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q79">
         <v>5.9</v>
@@ -17474,6 +17480,212 @@
       </c>
       <c r="BP80">
         <v>1.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7294866</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45481.67708333334</v>
+      </c>
+      <c r="F81">
+        <v>13</v>
+      </c>
+      <c r="G81" t="s">
+        <v>81</v>
+      </c>
+      <c r="H81" t="s">
+        <v>72</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>2</v>
+      </c>
+      <c r="O81" t="s">
+        <v>146</v>
+      </c>
+      <c r="P81" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q81">
+        <v>2.25</v>
+      </c>
+      <c r="R81">
+        <v>2.5</v>
+      </c>
+      <c r="S81">
+        <v>3.6</v>
+      </c>
+      <c r="T81">
+        <v>1.22</v>
+      </c>
+      <c r="U81">
+        <v>4</v>
+      </c>
+      <c r="V81">
+        <v>2</v>
+      </c>
+      <c r="W81">
+        <v>1.72</v>
+      </c>
+      <c r="X81">
+        <v>4.25</v>
+      </c>
+      <c r="Y81">
+        <v>1.2</v>
+      </c>
+      <c r="Z81">
+        <v>1.75</v>
+      </c>
+      <c r="AA81">
+        <v>3.75</v>
+      </c>
+      <c r="AB81">
+        <v>3.5</v>
+      </c>
+      <c r="AC81">
+        <v>1.01</v>
+      </c>
+      <c r="AD81">
+        <v>11</v>
+      </c>
+      <c r="AE81">
+        <v>1.09</v>
+      </c>
+      <c r="AF81">
+        <v>5.8</v>
+      </c>
+      <c r="AG81">
+        <v>1.4</v>
+      </c>
+      <c r="AH81">
+        <v>2.75</v>
+      </c>
+      <c r="AI81">
+        <v>1.38</v>
+      </c>
+      <c r="AJ81">
+        <v>2.9</v>
+      </c>
+      <c r="AK81">
+        <v>1.22</v>
+      </c>
+      <c r="AL81">
+        <v>1.18</v>
+      </c>
+      <c r="AM81">
+        <v>1.9</v>
+      </c>
+      <c r="AN81">
+        <v>2</v>
+      </c>
+      <c r="AO81">
+        <v>0.6</v>
+      </c>
+      <c r="AP81">
+        <v>1.83</v>
+      </c>
+      <c r="AQ81">
+        <v>0.67</v>
+      </c>
+      <c r="AR81">
+        <v>1.86</v>
+      </c>
+      <c r="AS81">
+        <v>1.85</v>
+      </c>
+      <c r="AT81">
+        <v>3.71</v>
+      </c>
+      <c r="AU81">
+        <v>4</v>
+      </c>
+      <c r="AV81">
+        <v>5</v>
+      </c>
+      <c r="AW81">
+        <v>14</v>
+      </c>
+      <c r="AX81">
+        <v>9</v>
+      </c>
+      <c r="AY81">
+        <v>18</v>
+      </c>
+      <c r="AZ81">
+        <v>14</v>
+      </c>
+      <c r="BA81">
+        <v>9</v>
+      </c>
+      <c r="BB81">
+        <v>1</v>
+      </c>
+      <c r="BC81">
+        <v>10</v>
+      </c>
+      <c r="BD81">
+        <v>1.51</v>
+      </c>
+      <c r="BE81">
+        <v>9.5</v>
+      </c>
+      <c r="BF81">
+        <v>3.05</v>
+      </c>
+      <c r="BG81">
+        <v>0</v>
+      </c>
+      <c r="BH81">
+        <v>0</v>
+      </c>
+      <c r="BI81">
+        <v>1.11</v>
+      </c>
+      <c r="BJ81">
+        <v>5.25</v>
+      </c>
+      <c r="BK81">
+        <v>1.36</v>
+      </c>
+      <c r="BL81">
+        <v>2.75</v>
+      </c>
+      <c r="BM81">
+        <v>1.57</v>
+      </c>
+      <c r="BN81">
+        <v>2.16</v>
+      </c>
+      <c r="BO81">
+        <v>1.9</v>
+      </c>
+      <c r="BP81">
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.71</v>
+        <v>2.36</v>
       </c>
       <c r="AQ2">
-        <v>0.57</v>
+        <v>1.21</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AQ3">
-        <v>0.57</v>
+        <v>0.85</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1745,10 +1745,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
       <c r="AQ4">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1951,10 +1951,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
-        <v>1.33</v>
+        <v>1.77</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2157,10 +2157,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.17</v>
+        <v>0.62</v>
       </c>
       <c r="AQ6">
-        <v>1.83</v>
+        <v>1.08</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ7">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2569,19 +2569,19 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>1.86</v>
+        <v>1.21</v>
       </c>
       <c r="AQ8">
-        <v>1.83</v>
+        <v>1.08</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AS8">
         <v>2.36</v>
       </c>
       <c r="AT8">
-        <v>2.36</v>
+        <v>3.94</v>
       </c>
       <c r="AU8">
         <v>3</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ9">
-        <v>0.57</v>
+        <v>0.85</v>
       </c>
       <c r="AR9">
         <v>1.31</v>
@@ -2981,10 +2981,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
       <c r="AQ10">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="AR10">
         <v>2.8</v>
@@ -3181,25 +3181,25 @@
         <v>1.53</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1.33</v>
+        <v>1.77</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="AS11">
         <v>1.04</v>
       </c>
       <c r="AT11">
-        <v>1.04</v>
+        <v>1.67</v>
       </c>
       <c r="AU11">
         <v>5</v>
@@ -3390,22 +3390,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.17</v>
+        <v>0.62</v>
       </c>
       <c r="AQ12">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>1.36</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AT12">
-        <v>1.36</v>
+        <v>3.32</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -3596,22 +3596,22 @@
         <v>3</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="AR13">
         <v>1.23</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AT13">
-        <v>1.23</v>
+        <v>2.77</v>
       </c>
       <c r="AU13">
         <v>6</v>
@@ -3802,22 +3802,22 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP14">
-        <v>1.86</v>
+        <v>1.21</v>
       </c>
       <c r="AQ14">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR14">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="AS14">
-        <v>2.58</v>
+        <v>2.27</v>
       </c>
       <c r="AT14">
-        <v>3.89</v>
+        <v>3.72</v>
       </c>
       <c r="AU14">
         <v>5</v>
@@ -4005,25 +4005,25 @@
         <v>1.32</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO15">
         <v>1.5</v>
       </c>
       <c r="AP15">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="AR15">
-        <v>1.21</v>
+        <v>0.92</v>
       </c>
       <c r="AS15">
         <v>1.58</v>
       </c>
       <c r="AT15">
-        <v>2.79</v>
+        <v>2.5</v>
       </c>
       <c r="AU15">
         <v>4</v>
@@ -4211,25 +4211,25 @@
         <v>2.3</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>0.43</v>
+        <v>1.08</v>
       </c>
       <c r="AQ16">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>3.81</v>
       </c>
       <c r="AU16">
         <v>3</v>
@@ -4423,10 +4423,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
       <c r="AQ17">
-        <v>0.57</v>
+        <v>0.85</v>
       </c>
       <c r="AR17">
         <v>2.26</v>
@@ -4623,25 +4623,25 @@
         <v>1.65</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP18">
-        <v>2.14</v>
+        <v>1.77</v>
       </c>
       <c r="AQ18">
-        <v>0.14</v>
+        <v>0.62</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AU18">
         <v>11</v>
@@ -4832,22 +4832,22 @@
         <v>3</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP19">
-        <v>2.71</v>
+        <v>2.36</v>
       </c>
       <c r="AQ19">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR19">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AT19">
-        <v>1.54</v>
+        <v>3.48</v>
       </c>
       <c r="AU19">
         <v>7</v>
@@ -5035,25 +5035,25 @@
         <v>1.53</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO20">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP20">
-        <v>1.17</v>
+        <v>0.85</v>
       </c>
       <c r="AQ20">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS20">
-        <v>0.63</v>
+        <v>1.01</v>
       </c>
       <c r="AT20">
-        <v>0.63</v>
+        <v>2.04</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5241,25 +5241,25 @@
         <v>1.48</v>
       </c>
       <c r="AN21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO21">
         <v>2</v>
       </c>
       <c r="AP21">
-        <v>2.14</v>
+        <v>1.77</v>
       </c>
       <c r="AQ21">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="AR21">
-        <v>2.58</v>
+        <v>2.17</v>
       </c>
       <c r="AS21">
         <v>1.79</v>
       </c>
       <c r="AT21">
-        <v>4.37</v>
+        <v>3.96</v>
       </c>
       <c r="AU21">
         <v>6</v>
@@ -5450,22 +5450,22 @@
         <v>3</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP22">
-        <v>2.71</v>
+        <v>2.36</v>
       </c>
       <c r="AQ22">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="AR22">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="AS22">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AT22">
-        <v>1.78</v>
+        <v>3.62</v>
       </c>
       <c r="AU22">
         <v>11</v>
@@ -5653,25 +5653,25 @@
         <v>1.39</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP23">
-        <v>0.43</v>
+        <v>1.08</v>
       </c>
       <c r="AQ23">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR23">
-        <v>1.8</v>
+        <v>2.22</v>
       </c>
       <c r="AS23">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="AT23">
-        <v>3.5</v>
+        <v>4.06</v>
       </c>
       <c r="AU23">
         <v>6</v>
@@ -5859,25 +5859,25 @@
         <v>2.66</v>
       </c>
       <c r="AN24">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP24">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AR24">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="AS24">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="AT24">
-        <v>3.54</v>
+        <v>3.49</v>
       </c>
       <c r="AU24">
         <v>3</v>
@@ -6065,25 +6065,25 @@
         <v>1.28</v>
       </c>
       <c r="AN25">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.17</v>
+        <v>0.62</v>
       </c>
       <c r="AQ25">
-        <v>0.57</v>
+        <v>1.21</v>
       </c>
       <c r="AR25">
-        <v>1.51</v>
+        <v>1.64</v>
       </c>
       <c r="AS25">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="AT25">
-        <v>3.09</v>
+        <v>3.11</v>
       </c>
       <c r="AU25">
         <v>6</v>
@@ -6271,25 +6271,25 @@
         <v>3</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AO26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AQ26">
-        <v>0.57</v>
+        <v>0.85</v>
       </c>
       <c r="AR26">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AS26">
-        <v>1.03</v>
+        <v>1.27</v>
       </c>
       <c r="AT26">
-        <v>1.03</v>
+        <v>3.07</v>
       </c>
       <c r="AU26">
         <v>7</v>
@@ -6477,25 +6477,25 @@
         <v>1.32</v>
       </c>
       <c r="AN27">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AO27">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
       <c r="AQ27">
-        <v>1.83</v>
+        <v>1.08</v>
       </c>
       <c r="AR27">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="AS27">
-        <v>2.43</v>
+        <v>2.16</v>
       </c>
       <c r="AT27">
-        <v>4.34</v>
+        <v>3.98</v>
       </c>
       <c r="AU27">
         <v>5</v>
@@ -6689,19 +6689,19 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.86</v>
+        <v>1.21</v>
       </c>
       <c r="AQ28">
-        <v>1.33</v>
+        <v>1.77</v>
       </c>
       <c r="AR28">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="AS28">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="AT28">
-        <v>3.39</v>
+        <v>3.48</v>
       </c>
       <c r="AU28">
         <v>10</v>
@@ -6889,25 +6889,25 @@
         <v>1.85</v>
       </c>
       <c r="AN29">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP29">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AQ29">
-        <v>0.14</v>
+        <v>0.62</v>
       </c>
       <c r="AR29">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="AS29">
-        <v>1.89</v>
+        <v>1.64</v>
       </c>
       <c r="AT29">
-        <v>3.27</v>
+        <v>3.15</v>
       </c>
       <c r="AU29">
         <v>9</v>
@@ -7095,25 +7095,25 @@
         <v>1.07</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AO30">
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="AR30">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="AS30">
-        <v>1.58</v>
+        <v>1.93</v>
       </c>
       <c r="AT30">
-        <v>2.78</v>
+        <v>3.09</v>
       </c>
       <c r="AU30">
         <v>5</v>
@@ -7301,25 +7301,25 @@
         <v>2.03</v>
       </c>
       <c r="AN31">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AO31">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ31">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR31">
+        <v>1.95</v>
+      </c>
+      <c r="AS31">
         <v>1.92</v>
       </c>
-      <c r="AS31">
-        <v>2.08</v>
-      </c>
       <c r="AT31">
-        <v>4</v>
+        <v>3.87</v>
       </c>
       <c r="AU31">
         <v>7</v>
@@ -7507,25 +7507,25 @@
         <v>2.25</v>
       </c>
       <c r="AN32">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO32">
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.86</v>
+        <v>1.21</v>
       </c>
       <c r="AQ32">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AR32">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="AS32">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT32">
-        <v>3.38</v>
+        <v>3.23</v>
       </c>
       <c r="AU32">
         <v>3</v>
@@ -7713,25 +7713,25 @@
         <v>1.9</v>
       </c>
       <c r="AN33">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AO33">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AP33">
-        <v>2.14</v>
+        <v>1.77</v>
       </c>
       <c r="AQ33">
-        <v>0.57</v>
+        <v>0.85</v>
       </c>
       <c r="AR33">
-        <v>2.09</v>
+        <v>1.96</v>
       </c>
       <c r="AS33">
-        <v>1.08</v>
+        <v>1.26</v>
       </c>
       <c r="AT33">
-        <v>3.17</v>
+        <v>3.22</v>
       </c>
       <c r="AU33">
         <v>12</v>
@@ -7919,25 +7919,25 @@
         <v>2.38</v>
       </c>
       <c r="AN34">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AO34">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AP34">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="AR34">
-        <v>1.75</v>
+        <v>1.96</v>
       </c>
       <c r="AS34">
-        <v>1.54</v>
+        <v>1.82</v>
       </c>
       <c r="AT34">
-        <v>3.29</v>
+        <v>3.78</v>
       </c>
       <c r="AU34">
         <v>5</v>
@@ -8125,25 +8125,25 @@
         <v>2.96</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AO35">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AP35">
-        <v>0.43</v>
+        <v>1.08</v>
       </c>
       <c r="AQ35">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR35">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="AS35">
         <v>1.13</v>
       </c>
       <c r="AT35">
-        <v>3.03</v>
+        <v>3.15</v>
       </c>
       <c r="AU35">
         <v>7</v>
@@ -8331,25 +8331,25 @@
         <v>1.12</v>
       </c>
       <c r="AN36">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="AO36">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AP36">
-        <v>1.17</v>
+        <v>0.62</v>
       </c>
       <c r="AQ36">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR36">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="AS36">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="AT36">
-        <v>3.54</v>
+        <v>3.63</v>
       </c>
       <c r="AU36">
         <v>9</v>
@@ -8537,25 +8537,25 @@
         <v>2.45</v>
       </c>
       <c r="AN37">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AO37">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AP37">
-        <v>2.71</v>
+        <v>2.36</v>
       </c>
       <c r="AQ37">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="AR37">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="AS37">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AT37">
-        <v>3.85</v>
+        <v>3.86</v>
       </c>
       <c r="AU37">
         <v>4</v>
@@ -8743,25 +8743,25 @@
         <v>1.06</v>
       </c>
       <c r="AN38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO38">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="AP38">
-        <v>1.17</v>
+        <v>0.85</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="AR38">
-        <v>1.97</v>
+        <v>1.29</v>
       </c>
       <c r="AS38">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="AT38">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="AU38">
         <v>2</v>
@@ -8949,25 +8949,25 @@
         <v>1.73</v>
       </c>
       <c r="AN39">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AO39">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AP39">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
       <c r="AQ39">
-        <v>0.14</v>
+        <v>0.62</v>
       </c>
       <c r="AR39">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="AS39">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="AT39">
-        <v>3.53</v>
+        <v>3.43</v>
       </c>
       <c r="AU39">
         <v>8</v>
@@ -9155,25 +9155,25 @@
         <v>1.67</v>
       </c>
       <c r="AN40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO40">
-        <v>2.33</v>
+        <v>1.17</v>
       </c>
       <c r="AP40">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AQ40">
-        <v>1.83</v>
+        <v>1.08</v>
       </c>
       <c r="AR40">
-        <v>2.29</v>
+        <v>1.81</v>
       </c>
       <c r="AS40">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AT40">
-        <v>4.4</v>
+        <v>3.87</v>
       </c>
       <c r="AU40">
         <v>6</v>
@@ -9361,25 +9361,25 @@
         <v>1.14</v>
       </c>
       <c r="AN41">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO41">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AP41">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR41">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="AS41">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="AT41">
-        <v>3.23</v>
+        <v>3.14</v>
       </c>
       <c r="AU41">
         <v>4</v>
@@ -9570,22 +9570,22 @@
         <v>2</v>
       </c>
       <c r="AO42">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ42">
-        <v>0.57</v>
+        <v>1.21</v>
       </c>
       <c r="AR42">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="AS42">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="AT42">
-        <v>3.54</v>
+        <v>3.58</v>
       </c>
       <c r="AU42">
         <v>8</v>
@@ -9773,25 +9773,25 @@
         <v>1.57</v>
       </c>
       <c r="AN43">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AO43">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AQ43">
-        <v>1.33</v>
+        <v>1.77</v>
       </c>
       <c r="AR43">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="AS43">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AT43">
-        <v>3.44</v>
+        <v>3.58</v>
       </c>
       <c r="AU43">
         <v>7</v>
@@ -9979,25 +9979,25 @@
         <v>2.3</v>
       </c>
       <c r="AN44">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AO44">
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="AP44">
-        <v>0.43</v>
+        <v>1.08</v>
       </c>
       <c r="AQ44">
-        <v>0.57</v>
+        <v>0.85</v>
       </c>
       <c r="AR44">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="AS44">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AT44">
-        <v>3.16</v>
+        <v>3.23</v>
       </c>
       <c r="AU44">
         <v>8</v>
@@ -10185,25 +10185,25 @@
         <v>1.11</v>
       </c>
       <c r="AN45">
-        <v>2</v>
+        <v>1.43</v>
       </c>
       <c r="AO45">
-        <v>2</v>
+        <v>2.57</v>
       </c>
       <c r="AP45">
-        <v>2.14</v>
+        <v>1.77</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="AR45">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="AS45">
         <v>1.88</v>
       </c>
       <c r="AT45">
-        <v>4.02</v>
+        <v>3.85</v>
       </c>
       <c r="AU45">
         <v>3</v>
@@ -10391,25 +10391,25 @@
         <v>2.25</v>
       </c>
       <c r="AN46">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO46">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AP46">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="AR46">
-        <v>1.74</v>
+        <v>2.13</v>
       </c>
       <c r="AS46">
-        <v>1.71</v>
+        <v>1.89</v>
       </c>
       <c r="AT46">
-        <v>3.45</v>
+        <v>4.02</v>
       </c>
       <c r="AU46">
         <v>6</v>
@@ -10597,25 +10597,25 @@
         <v>1.88</v>
       </c>
       <c r="AN47">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="AO47">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AP47">
-        <v>1.86</v>
+        <v>1.21</v>
       </c>
       <c r="AQ47">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="AR47">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="AS47">
-        <v>1.42</v>
+        <v>1.73</v>
       </c>
       <c r="AT47">
-        <v>3.09</v>
+        <v>3.51</v>
       </c>
       <c r="AU47">
         <v>10</v>
@@ -10803,25 +10803,25 @@
         <v>1.3</v>
       </c>
       <c r="AN48">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AO48">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AP48">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AQ48">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR48">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="AS48">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT48">
-        <v>3.54</v>
+        <v>3.63</v>
       </c>
       <c r="AU48">
         <v>4</v>
@@ -11009,25 +11009,25 @@
         <v>1.65</v>
       </c>
       <c r="AN49">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="AO49">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.17</v>
+        <v>0.62</v>
       </c>
       <c r="AQ49">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR49">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="AS49">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AT49">
-        <v>3.04</v>
+        <v>2.99</v>
       </c>
       <c r="AU49">
         <v>10</v>
@@ -11215,25 +11215,25 @@
         <v>1.8</v>
       </c>
       <c r="AN50">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AO50">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AP50">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
-        <v>0.57</v>
+        <v>1.21</v>
       </c>
       <c r="AR50">
-        <v>1.74</v>
+        <v>2.08</v>
       </c>
       <c r="AS50">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AT50">
-        <v>3.67</v>
+        <v>3.89</v>
       </c>
       <c r="AU50">
         <v>8</v>
@@ -11424,22 +11424,22 @@
         <v>2.25</v>
       </c>
       <c r="AO51">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="AR51">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="AS51">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="AT51">
-        <v>4.06</v>
+        <v>3.99</v>
       </c>
       <c r="AU51">
         <v>5</v>
@@ -11627,25 +11627,25 @@
         <v>1.9</v>
       </c>
       <c r="AN52">
+        <v>1.63</v>
+      </c>
+      <c r="AO52">
         <v>1.5</v>
       </c>
-      <c r="AO52">
-        <v>1.67</v>
-      </c>
       <c r="AP52">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AQ52">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AR52">
-        <v>2.33</v>
+        <v>1.91</v>
       </c>
       <c r="AS52">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AT52">
-        <v>3.92</v>
+        <v>3.53</v>
       </c>
       <c r="AU52">
         <v>7</v>
@@ -11833,25 +11833,25 @@
         <v>1.66</v>
       </c>
       <c r="AN53">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="AO53">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP53">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
       <c r="AQ53">
-        <v>1.33</v>
+        <v>1.77</v>
       </c>
       <c r="AR53">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="AS53">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="AT53">
-        <v>3.71</v>
+        <v>3.7</v>
       </c>
       <c r="AU53">
         <v>8</v>
@@ -12039,25 +12039,25 @@
         <v>1.12</v>
       </c>
       <c r="AN54">
-        <v>1.5</v>
+        <v>0.88</v>
       </c>
       <c r="AO54">
-        <v>0.75</v>
+        <v>1.44</v>
       </c>
       <c r="AP54">
-        <v>1.17</v>
+        <v>0.85</v>
       </c>
       <c r="AQ54">
-        <v>0.57</v>
+        <v>1.21</v>
       </c>
       <c r="AR54">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="AS54">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="AT54">
-        <v>3.18</v>
+        <v>3.05</v>
       </c>
       <c r="AU54">
         <v>7</v>
@@ -12245,25 +12245,25 @@
         <v>4.15</v>
       </c>
       <c r="AN55">
-        <v>3</v>
+        <v>2.44</v>
       </c>
       <c r="AO55">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2.71</v>
+        <v>2.36</v>
       </c>
       <c r="AQ55">
-        <v>0.14</v>
+        <v>0.62</v>
       </c>
       <c r="AR55">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AS55">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="AT55">
-        <v>3.63</v>
+        <v>3.72</v>
       </c>
       <c r="AU55">
         <v>10</v>
@@ -12451,25 +12451,25 @@
         <v>1.06</v>
       </c>
       <c r="AN56">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AO56">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AP56">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR56">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AS56">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="AT56">
-        <v>3.25</v>
+        <v>3.31</v>
       </c>
       <c r="AU56">
         <v>4</v>
@@ -12657,25 +12657,25 @@
         <v>1.38</v>
       </c>
       <c r="AN57">
-        <v>0.25</v>
+        <v>1.38</v>
       </c>
       <c r="AO57">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AP57">
-        <v>0.43</v>
+        <v>1.08</v>
       </c>
       <c r="AQ57">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR57">
         <v>2.05</v>
       </c>
       <c r="AS57">
-        <v>2.42</v>
+        <v>2.05</v>
       </c>
       <c r="AT57">
-        <v>4.47</v>
+        <v>4.1</v>
       </c>
       <c r="AU57">
         <v>8</v>
@@ -12863,25 +12863,25 @@
         <v>1.89</v>
       </c>
       <c r="AN58">
-        <v>0.8</v>
+        <v>0.44</v>
       </c>
       <c r="AO58">
-        <v>0.67</v>
+        <v>1.11</v>
       </c>
       <c r="AP58">
-        <v>1.17</v>
+        <v>0.62</v>
       </c>
       <c r="AQ58">
-        <v>0.57</v>
+        <v>0.85</v>
       </c>
       <c r="AR58">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AS58">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AT58">
-        <v>3.19</v>
+        <v>3.12</v>
       </c>
       <c r="AU58">
         <v>11</v>
@@ -13069,25 +13069,25 @@
         <v>2.2</v>
       </c>
       <c r="AN59">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AO59">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AP59">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AQ59">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR59">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="AS59">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="AT59">
-        <v>3.08</v>
+        <v>2.84</v>
       </c>
       <c r="AU59">
         <v>6</v>
@@ -13275,25 +13275,25 @@
         <v>1.62</v>
       </c>
       <c r="AN60">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AO60">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AP60">
-        <v>1.86</v>
+        <v>1.21</v>
       </c>
       <c r="AQ60">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="AR60">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="AS60">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="AT60">
-        <v>3.5</v>
+        <v>3.71</v>
       </c>
       <c r="AU60">
         <v>10</v>
@@ -13481,25 +13481,25 @@
         <v>1.5</v>
       </c>
       <c r="AN61">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AO61">
-        <v>2.5</v>
+        <v>1.22</v>
       </c>
       <c r="AP61">
-        <v>2.14</v>
+        <v>1.77</v>
       </c>
       <c r="AQ61">
+        <v>1.08</v>
+      </c>
+      <c r="AR61">
         <v>1.83</v>
       </c>
-      <c r="AR61">
-        <v>1.93</v>
-      </c>
       <c r="AS61">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="AT61">
-        <v>3.97</v>
+        <v>3.81</v>
       </c>
       <c r="AU61">
         <v>7</v>
@@ -13687,25 +13687,25 @@
         <v>1.46</v>
       </c>
       <c r="AN62">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AO62">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AP62">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="AR62">
-        <v>1.76</v>
+        <v>1.99</v>
       </c>
       <c r="AS62">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AT62">
-        <v>3.59</v>
+        <v>3.89</v>
       </c>
       <c r="AU62">
         <v>10</v>
@@ -13893,25 +13893,25 @@
         <v>2.68</v>
       </c>
       <c r="AN63">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AO63">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ63">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="AR63">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AS63">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="AT63">
-        <v>3.65</v>
+        <v>3.84</v>
       </c>
       <c r="AU63">
         <v>6</v>
@@ -14099,25 +14099,25 @@
         <v>1.15</v>
       </c>
       <c r="AN64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO64">
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>1.17</v>
+        <v>0.85</v>
       </c>
       <c r="AQ64">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR64">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AS64">
-        <v>2.22</v>
+        <v>2.03</v>
       </c>
       <c r="AT64">
-        <v>3.59</v>
+        <v>3.33</v>
       </c>
       <c r="AU64">
         <v>3</v>
@@ -14305,25 +14305,25 @@
         <v>1.17</v>
       </c>
       <c r="AN65">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AO65">
-        <v>0.6</v>
+        <v>1.45</v>
       </c>
       <c r="AP65">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
-        <v>0.57</v>
+        <v>1.21</v>
       </c>
       <c r="AR65">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="AS65">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="AT65">
-        <v>3.06</v>
+        <v>3.1</v>
       </c>
       <c r="AU65">
         <v>5</v>
@@ -14511,25 +14511,25 @@
         <v>2.65</v>
       </c>
       <c r="AN66">
-        <v>3</v>
+        <v>2.36</v>
       </c>
       <c r="AO66">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="AP66">
-        <v>2.71</v>
+        <v>2.36</v>
       </c>
       <c r="AQ66">
-        <v>1.83</v>
+        <v>1.08</v>
       </c>
       <c r="AR66">
+        <v>1.86</v>
+      </c>
+      <c r="AS66">
         <v>1.97</v>
       </c>
-      <c r="AS66">
-        <v>2.02</v>
-      </c>
       <c r="AT66">
-        <v>3.99</v>
+        <v>3.83</v>
       </c>
       <c r="AU66">
         <v>9</v>
@@ -14717,22 +14717,22 @@
         <v>1.85</v>
       </c>
       <c r="AN67">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="AO67">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AP67">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
       <c r="AQ67">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AR67">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="AS67">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="AT67">
         <v>3.36</v>
@@ -14923,25 +14923,25 @@
         <v>2.85</v>
       </c>
       <c r="AN68">
-        <v>2.17</v>
+        <v>2.27</v>
       </c>
       <c r="AO68">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ68">
-        <v>1.33</v>
+        <v>1.77</v>
       </c>
       <c r="AR68">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="AS68">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="AT68">
-        <v>3.74</v>
+        <v>3.89</v>
       </c>
       <c r="AU68">
         <v>10</v>
@@ -15129,25 +15129,25 @@
         <v>2.45</v>
       </c>
       <c r="AN69">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AO69">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AP69">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AQ69">
-        <v>0.14</v>
+        <v>0.62</v>
       </c>
       <c r="AR69">
-        <v>2.15</v>
+        <v>1.89</v>
       </c>
       <c r="AS69">
-        <v>1.7</v>
+        <v>1.89</v>
       </c>
       <c r="AT69">
-        <v>3.85</v>
+        <v>3.78</v>
       </c>
       <c r="AU69">
         <v>6</v>
@@ -15335,25 +15335,25 @@
         <v>1.3</v>
       </c>
       <c r="AN70">
-        <v>1.5</v>
+        <v>0.91</v>
       </c>
       <c r="AO70">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AP70">
-        <v>1.17</v>
+        <v>0.85</v>
       </c>
       <c r="AQ70">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AR70">
         <v>1.27</v>
       </c>
       <c r="AS70">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="AT70">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="AU70">
         <v>2</v>
@@ -15541,25 +15541,25 @@
         <v>1.25</v>
       </c>
       <c r="AN71">
-        <v>2.17</v>
+        <v>1.33</v>
       </c>
       <c r="AO71">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AP71">
-        <v>1.86</v>
+        <v>1.21</v>
       </c>
       <c r="AQ71">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="AR71">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AS71">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="AT71">
-        <v>3.56</v>
+        <v>3.82</v>
       </c>
       <c r="AU71">
         <v>4</v>
@@ -15747,25 +15747,25 @@
         <v>2.25</v>
       </c>
       <c r="AN72">
-        <v>0.2</v>
+        <v>1.09</v>
       </c>
       <c r="AO72">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="AP72">
-        <v>0.43</v>
+        <v>1.08</v>
       </c>
       <c r="AQ72">
-        <v>0.14</v>
+        <v>0.62</v>
       </c>
       <c r="AR72">
         <v>1.93</v>
       </c>
       <c r="AS72">
-        <v>1.69</v>
+        <v>1.87</v>
       </c>
       <c r="AT72">
-        <v>3.62</v>
+        <v>3.8</v>
       </c>
       <c r="AU72">
         <v>7</v>
@@ -15953,25 +15953,25 @@
         <v>1.22</v>
       </c>
       <c r="AN73">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AO73">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="AP73">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ73">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="AR73">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AS73">
-        <v>1.62</v>
+        <v>1.81</v>
       </c>
       <c r="AT73">
-        <v>2.8</v>
+        <v>3.07</v>
       </c>
       <c r="AU73">
         <v>3</v>
@@ -16159,25 +16159,25 @@
         <v>1.36</v>
       </c>
       <c r="AN74">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="AO74">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AP74">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AQ74">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR74">
+        <v>1.89</v>
+      </c>
+      <c r="AS74">
         <v>2.07</v>
       </c>
-      <c r="AS74">
-        <v>2.06</v>
-      </c>
       <c r="AT74">
-        <v>4.13</v>
+        <v>3.96</v>
       </c>
       <c r="AU74">
         <v>2</v>
@@ -16365,25 +16365,25 @@
         <v>1.18</v>
       </c>
       <c r="AN75">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AO75">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AP75">
-        <v>2.14</v>
+        <v>1.77</v>
       </c>
       <c r="AQ75">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR75">
-        <v>1.99</v>
+        <v>1.79</v>
       </c>
       <c r="AS75">
-        <v>2.32</v>
+        <v>2.09</v>
       </c>
       <c r="AT75">
-        <v>4.31</v>
+        <v>3.88</v>
       </c>
       <c r="AU75">
         <v>7</v>
@@ -16571,25 +16571,25 @@
         <v>3</v>
       </c>
       <c r="AN76">
-        <v>2.67</v>
+        <v>2.31</v>
       </c>
       <c r="AO76">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>2.71</v>
+        <v>2.36</v>
       </c>
       <c r="AQ76">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AR76">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AS76">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AT76">
-        <v>3.63</v>
+        <v>3.52</v>
       </c>
       <c r="AU76">
         <v>8</v>
@@ -16777,25 +16777,25 @@
         <v>1.66</v>
       </c>
       <c r="AN77">
-        <v>0.33</v>
+        <v>1.08</v>
       </c>
       <c r="AO77">
-        <v>0.5</v>
+        <v>1.23</v>
       </c>
       <c r="AP77">
-        <v>0.43</v>
+        <v>1.08</v>
       </c>
       <c r="AQ77">
-        <v>0.57</v>
+        <v>1.21</v>
       </c>
       <c r="AR77">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="AS77">
-        <v>1.98</v>
+        <v>1.81</v>
       </c>
       <c r="AT77">
-        <v>3.87</v>
+        <v>3.72</v>
       </c>
       <c r="AU77">
         <v>7</v>
@@ -16983,25 +16983,25 @@
         <v>2.39</v>
       </c>
       <c r="AN78">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO78">
-        <v>1.4</v>
+        <v>1.08</v>
       </c>
       <c r="AP78">
-        <v>2.14</v>
+        <v>1.77</v>
       </c>
       <c r="AQ78">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR78">
-        <v>1.96</v>
+        <v>1.79</v>
       </c>
       <c r="AS78">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT78">
-        <v>3.32</v>
+        <v>3.04</v>
       </c>
       <c r="AU78">
         <v>10</v>
@@ -17189,25 +17189,25 @@
         <v>1.08</v>
       </c>
       <c r="AN79">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
       <c r="AO79">
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>1.17</v>
+        <v>0.85</v>
       </c>
       <c r="AQ79">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR79">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AS79">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="AT79">
-        <v>3.11</v>
+        <v>3.24</v>
       </c>
       <c r="AU79">
         <v>7</v>
@@ -17395,25 +17395,25 @@
         <v>3.48</v>
       </c>
       <c r="AN80">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AO80">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="AP80">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ80">
-        <v>0.14</v>
+        <v>0.62</v>
       </c>
       <c r="AR80">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="AS80">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="AT80">
-        <v>3.44</v>
+        <v>3.88</v>
       </c>
       <c r="AU80">
         <v>9</v>
@@ -17601,25 +17601,25 @@
         <v>1.9</v>
       </c>
       <c r="AN81">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO81">
-        <v>0.6</v>
+        <v>0.92</v>
       </c>
       <c r="AP81">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AQ81">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="AR81">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="AS81">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="AT81">
-        <v>3.71</v>
+        <v>3.7</v>
       </c>
       <c r="AU81">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="208">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -455,6 +455,9 @@
   </si>
   <si>
     <t>['27']</t>
+  </si>
+  <si>
+    <t>['78']</t>
   </si>
   <si>
     <t>['20']</t>
@@ -996,7 +999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1539,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ3">
         <v>0.85</v>
@@ -1667,7 +1670,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -2079,7 +2082,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2160,7 +2163,7 @@
         <v>0.62</v>
       </c>
       <c r="AQ6">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2491,7 +2494,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2572,7 +2575,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ8">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>1.58</v>
@@ -2903,7 +2906,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3109,7 +3112,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3521,7 +3524,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3599,7 +3602,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ13">
         <v>2.36</v>
@@ -3933,7 +3936,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4217,10 +4220,10 @@
         <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR16">
         <v>2.43</v>
@@ -4551,7 +4554,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4757,7 +4760,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5169,7 +5172,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5375,7 +5378,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5581,7 +5584,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5659,7 +5662,7 @@
         <v>2</v>
       </c>
       <c r="AP23">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
         <v>1.93</v>
@@ -5787,7 +5790,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -5868,7 +5871,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR24">
         <v>2.04</v>
@@ -5993,7 +5996,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6199,7 +6202,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6405,7 +6408,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q27">
         <v>3.35</v>
@@ -6486,7 +6489,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ27">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.82</v>
@@ -6611,7 +6614,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6895,7 +6898,7 @@
         <v>0.25</v>
       </c>
       <c r="AP29">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ29">
         <v>0.62</v>
@@ -7023,7 +7026,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -7229,7 +7232,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7435,7 +7438,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7516,7 +7519,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ32">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR32">
         <v>1.63</v>
@@ -8053,7 +8056,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8131,7 +8134,7 @@
         <v>0.8</v>
       </c>
       <c r="AP35">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8259,7 +8262,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8671,7 +8674,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8877,7 +8880,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9083,7 +9086,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9164,7 +9167,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ40">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.81</v>
@@ -9289,7 +9292,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9495,7 +9498,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9701,7 +9704,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9779,7 +9782,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ43">
         <v>1.77</v>
@@ -9907,7 +9910,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9985,7 +9988,7 @@
         <v>0.86</v>
       </c>
       <c r="AP44">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>0.85</v>
@@ -10113,7 +10116,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10319,7 +10322,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10731,7 +10734,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10809,7 +10812,7 @@
         <v>2.14</v>
       </c>
       <c r="AP48">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ48">
         <v>1.93</v>
@@ -10937,7 +10940,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11143,7 +11146,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11555,7 +11558,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11636,7 +11639,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ52">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR52">
         <v>1.91</v>
@@ -11761,7 +11764,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -11967,7 +11970,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12173,7 +12176,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12379,7 +12382,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12585,7 +12588,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -12663,7 +12666,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ57">
         <v>2</v>
@@ -12791,7 +12794,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -12997,7 +13000,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13075,7 +13078,7 @@
         <v>0.78</v>
       </c>
       <c r="AP59">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13203,7 +13206,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13409,7 +13412,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q61">
         <v>2.9</v>
@@ -13490,7 +13493,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ61">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR61">
         <v>1.83</v>
@@ -13615,7 +13618,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13821,7 +13824,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q63">
         <v>1.84</v>
@@ -14027,7 +14030,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q64">
         <v>5.69</v>
@@ -14233,7 +14236,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q65">
         <v>4.4</v>
@@ -14439,7 +14442,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14520,7 +14523,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ66">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.86</v>
@@ -14645,7 +14648,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14726,7 +14729,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ67">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR67">
         <v>1.79</v>
@@ -14851,7 +14854,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -15057,7 +15060,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q69">
         <v>1.85</v>
@@ -15263,7 +15266,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q70">
         <v>3.7</v>
@@ -15344,7 +15347,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ70">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR70">
         <v>1.27</v>
@@ -15469,7 +15472,7 @@
         <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -15675,7 +15678,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15753,7 +15756,7 @@
         <v>0.64</v>
       </c>
       <c r="AP72">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ72">
         <v>0.62</v>
@@ -15881,7 +15884,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q73">
         <v>3.85</v>
@@ -16293,7 +16296,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16499,7 +16502,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q76">
         <v>1.78</v>
@@ -16580,7 +16583,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ76">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR76">
         <v>1.92</v>
@@ -16705,7 +16708,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q77">
         <v>2.54</v>
@@ -16783,7 +16786,7 @@
         <v>1.23</v>
       </c>
       <c r="AP77">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ77">
         <v>1.21</v>
@@ -17117,7 +17120,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q79">
         <v>5.9</v>
@@ -17529,7 +17532,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q81">
         <v>2.25</v>
@@ -17686,6 +17689,212 @@
       </c>
       <c r="BP81">
         <v>1.9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7294867</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45484.67708333334</v>
+      </c>
+      <c r="F82">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s">
+        <v>71</v>
+      </c>
+      <c r="H82" t="s">
+        <v>78</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82" t="s">
+        <v>147</v>
+      </c>
+      <c r="P82" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q82">
+        <v>3.21</v>
+      </c>
+      <c r="R82">
+        <v>2.45</v>
+      </c>
+      <c r="S82">
+        <v>2.66</v>
+      </c>
+      <c r="T82">
+        <v>1.23</v>
+      </c>
+      <c r="U82">
+        <v>3.9</v>
+      </c>
+      <c r="V82">
+        <v>2.07</v>
+      </c>
+      <c r="W82">
+        <v>1.71</v>
+      </c>
+      <c r="X82">
+        <v>4.45</v>
+      </c>
+      <c r="Y82">
+        <v>1.19</v>
+      </c>
+      <c r="Z82">
+        <v>2.96</v>
+      </c>
+      <c r="AA82">
+        <v>3.8</v>
+      </c>
+      <c r="AB82">
+        <v>2</v>
+      </c>
+      <c r="AC82">
+        <v>1.01</v>
+      </c>
+      <c r="AD82">
+        <v>16.5</v>
+      </c>
+      <c r="AE82">
+        <v>1.13</v>
+      </c>
+      <c r="AF82">
+        <v>5.25</v>
+      </c>
+      <c r="AG82">
+        <v>1.37</v>
+      </c>
+      <c r="AH82">
+        <v>2.64</v>
+      </c>
+      <c r="AI82">
+        <v>1.38</v>
+      </c>
+      <c r="AJ82">
+        <v>2.94</v>
+      </c>
+      <c r="AK82">
+        <v>1.61</v>
+      </c>
+      <c r="AL82">
+        <v>1.24</v>
+      </c>
+      <c r="AM82">
+        <v>1.43</v>
+      </c>
+      <c r="AN82">
+        <v>1.23</v>
+      </c>
+      <c r="AO82">
+        <v>1.08</v>
+      </c>
+      <c r="AP82">
+        <v>1.36</v>
+      </c>
+      <c r="AQ82">
+        <v>1</v>
+      </c>
+      <c r="AR82">
+        <v>1.64</v>
+      </c>
+      <c r="AS82">
+        <v>1.93</v>
+      </c>
+      <c r="AT82">
+        <v>3.57</v>
+      </c>
+      <c r="AU82">
+        <v>5</v>
+      </c>
+      <c r="AV82">
+        <v>5</v>
+      </c>
+      <c r="AW82">
+        <v>7</v>
+      </c>
+      <c r="AX82">
+        <v>7</v>
+      </c>
+      <c r="AY82">
+        <v>12</v>
+      </c>
+      <c r="AZ82">
+        <v>12</v>
+      </c>
+      <c r="BA82">
+        <v>6</v>
+      </c>
+      <c r="BB82">
+        <v>5</v>
+      </c>
+      <c r="BC82">
+        <v>11</v>
+      </c>
+      <c r="BD82">
+        <v>2.41</v>
+      </c>
+      <c r="BE82">
+        <v>8.5</v>
+      </c>
+      <c r="BF82">
+        <v>1.75</v>
+      </c>
+      <c r="BG82">
+        <v>1.1</v>
+      </c>
+      <c r="BH82">
+        <v>5.75</v>
+      </c>
+      <c r="BI82">
+        <v>1.12</v>
+      </c>
+      <c r="BJ82">
+        <v>5.3</v>
+      </c>
+      <c r="BK82">
+        <v>1.25</v>
+      </c>
+      <c r="BL82">
+        <v>3.5</v>
+      </c>
+      <c r="BM82">
+        <v>1.45</v>
+      </c>
+      <c r="BN82">
+        <v>2.55</v>
+      </c>
+      <c r="BO82">
+        <v>2</v>
+      </c>
+      <c r="BP82">
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.36</v>
+        <v>2.71</v>
       </c>
       <c r="AQ2">
-        <v>1.21</v>
+        <v>0.57</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ3">
-        <v>0.85</v>
+        <v>0.57</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1748,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.92</v>
+        <v>1.14</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1954,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ5">
-        <v>1.77</v>
+        <v>1.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.62</v>
+        <v>1.17</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
-        <v>1.62</v>
+        <v>1.43</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2572,19 +2572,19 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>1.21</v>
+        <v>1.86</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AR8">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AS8">
         <v>2.36</v>
       </c>
       <c r="AT8">
-        <v>3.94</v>
+        <v>2.36</v>
       </c>
       <c r="AU8">
         <v>3</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
-        <v>0.85</v>
+        <v>0.57</v>
       </c>
       <c r="AR9">
         <v>1.31</v>
@@ -2984,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.92</v>
+        <v>1.14</v>
       </c>
       <c r="AQ10">
-        <v>1.62</v>
+        <v>1.43</v>
       </c>
       <c r="AR10">
         <v>2.8</v>
@@ -3184,25 +3184,25 @@
         <v>1.53</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ11">
-        <v>1.77</v>
+        <v>1.33</v>
       </c>
       <c r="AR11">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="AS11">
         <v>1.04</v>
       </c>
       <c r="AT11">
-        <v>1.67</v>
+        <v>1.04</v>
       </c>
       <c r="AU11">
         <v>5</v>
@@ -3393,22 +3393,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.62</v>
+        <v>1.17</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR12">
         <v>1.36</v>
       </c>
       <c r="AS12">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>3.32</v>
+        <v>1.36</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -3599,22 +3599,22 @@
         <v>3</v>
       </c>
       <c r="AO13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ13">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>1.23</v>
       </c>
       <c r="AS13">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>2.77</v>
+        <v>1.23</v>
       </c>
       <c r="AU13">
         <v>6</v>
@@ -3805,22 +3805,22 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.21</v>
+        <v>1.86</v>
       </c>
       <c r="AQ14">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR14">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="AS14">
-        <v>2.27</v>
+        <v>2.58</v>
       </c>
       <c r="AT14">
-        <v>3.72</v>
+        <v>3.89</v>
       </c>
       <c r="AU14">
         <v>5</v>
@@ -4008,25 +4008,25 @@
         <v>1.32</v>
       </c>
       <c r="AN15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO15">
         <v>1.5</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ15">
-        <v>1.62</v>
+        <v>1.43</v>
       </c>
       <c r="AR15">
-        <v>0.92</v>
+        <v>1.21</v>
       </c>
       <c r="AS15">
         <v>1.58</v>
       </c>
       <c r="AT15">
-        <v>2.5</v>
+        <v>2.79</v>
       </c>
       <c r="AU15">
         <v>4</v>
@@ -4214,25 +4214,25 @@
         <v>2.3</v>
       </c>
       <c r="AN16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO16">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="AQ16">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AR16">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>3.81</v>
+        <v>0</v>
       </c>
       <c r="AU16">
         <v>3</v>
@@ -4426,10 +4426,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.92</v>
+        <v>1.14</v>
       </c>
       <c r="AQ17">
-        <v>0.85</v>
+        <v>0.57</v>
       </c>
       <c r="AR17">
         <v>2.26</v>
@@ -4626,25 +4626,25 @@
         <v>1.65</v>
       </c>
       <c r="AN18">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO18">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.77</v>
+        <v>2.14</v>
       </c>
       <c r="AQ18">
-        <v>0.62</v>
+        <v>0.14</v>
       </c>
       <c r="AR18">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="AU18">
         <v>11</v>
@@ -4835,22 +4835,22 @@
         <v>3</v>
       </c>
       <c r="AO19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.36</v>
+        <v>2.71</v>
       </c>
       <c r="AQ19">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AR19">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AS19">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="AT19">
-        <v>3.48</v>
+        <v>1.54</v>
       </c>
       <c r="AU19">
         <v>7</v>
@@ -5038,25 +5038,25 @@
         <v>1.53</v>
       </c>
       <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
         <v>1</v>
       </c>
-      <c r="AO20">
-        <v>0.33</v>
-      </c>
       <c r="AP20">
-        <v>0.85</v>
+        <v>1.17</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR20">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.01</v>
+        <v>0.63</v>
       </c>
       <c r="AT20">
-        <v>2.04</v>
+        <v>0.63</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5244,25 +5244,25 @@
         <v>1.48</v>
       </c>
       <c r="AN21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO21">
         <v>2</v>
       </c>
       <c r="AP21">
-        <v>1.77</v>
+        <v>2.14</v>
       </c>
       <c r="AQ21">
-        <v>1.62</v>
+        <v>1.43</v>
       </c>
       <c r="AR21">
-        <v>2.17</v>
+        <v>2.58</v>
       </c>
       <c r="AS21">
         <v>1.79</v>
       </c>
       <c r="AT21">
-        <v>3.96</v>
+        <v>4.37</v>
       </c>
       <c r="AU21">
         <v>6</v>
@@ -5453,22 +5453,22 @@
         <v>3</v>
       </c>
       <c r="AO22">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.36</v>
+        <v>2.71</v>
       </c>
       <c r="AQ22">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="AR22">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AS22">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AT22">
-        <v>3.62</v>
+        <v>1.78</v>
       </c>
       <c r="AU22">
         <v>11</v>
@@ -5656,25 +5656,25 @@
         <v>1.39</v>
       </c>
       <c r="AN23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="AQ23">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AR23">
-        <v>2.22</v>
+        <v>1.8</v>
       </c>
       <c r="AS23">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="AT23">
-        <v>4.06</v>
+        <v>3.5</v>
       </c>
       <c r="AU23">
         <v>6</v>
@@ -5862,25 +5862,25 @@
         <v>2.66</v>
       </c>
       <c r="AN24">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ24">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AR24">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AS24">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT24">
-        <v>3.49</v>
+        <v>3.54</v>
       </c>
       <c r="AU24">
         <v>3</v>
@@ -6068,25 +6068,25 @@
         <v>1.28</v>
       </c>
       <c r="AN25">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.62</v>
+        <v>1.17</v>
       </c>
       <c r="AQ25">
-        <v>1.21</v>
+        <v>0.57</v>
       </c>
       <c r="AR25">
-        <v>1.64</v>
+        <v>1.51</v>
       </c>
       <c r="AS25">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="AT25">
-        <v>3.11</v>
+        <v>3.09</v>
       </c>
       <c r="AU25">
         <v>6</v>
@@ -6274,25 +6274,25 @@
         <v>3</v>
       </c>
       <c r="AN26">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AO26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AQ26">
-        <v>0.85</v>
+        <v>0.57</v>
       </c>
       <c r="AR26">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.27</v>
+        <v>1.03</v>
       </c>
       <c r="AT26">
-        <v>3.07</v>
+        <v>1.03</v>
       </c>
       <c r="AU26">
         <v>7</v>
@@ -6480,25 +6480,25 @@
         <v>1.32</v>
       </c>
       <c r="AN27">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AO27">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AP27">
-        <v>0.92</v>
+        <v>1.14</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AR27">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="AS27">
-        <v>2.16</v>
+        <v>2.43</v>
       </c>
       <c r="AT27">
-        <v>3.98</v>
+        <v>4.34</v>
       </c>
       <c r="AU27">
         <v>5</v>
@@ -6692,19 +6692,19 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.21</v>
+        <v>1.86</v>
       </c>
       <c r="AQ28">
-        <v>1.77</v>
+        <v>1.33</v>
       </c>
       <c r="AR28">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AS28">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AT28">
-        <v>3.48</v>
+        <v>3.39</v>
       </c>
       <c r="AU28">
         <v>10</v>
@@ -6892,25 +6892,25 @@
         <v>1.85</v>
       </c>
       <c r="AN29">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO29">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ29">
-        <v>0.62</v>
+        <v>0.14</v>
       </c>
       <c r="AR29">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
       <c r="AS29">
-        <v>1.64</v>
+        <v>1.89</v>
       </c>
       <c r="AT29">
-        <v>3.15</v>
+        <v>3.27</v>
       </c>
       <c r="AU29">
         <v>9</v>
@@ -7098,25 +7098,25 @@
         <v>1.07</v>
       </c>
       <c r="AN30">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AO30">
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ30">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="AR30">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="AS30">
-        <v>1.93</v>
+        <v>1.58</v>
       </c>
       <c r="AT30">
-        <v>3.09</v>
+        <v>2.78</v>
       </c>
       <c r="AU30">
         <v>5</v>
@@ -7304,25 +7304,25 @@
         <v>2.03</v>
       </c>
       <c r="AN31">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AO31">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR31">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AS31">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="AT31">
-        <v>3.87</v>
+        <v>4</v>
       </c>
       <c r="AU31">
         <v>7</v>
@@ -7510,25 +7510,25 @@
         <v>2.25</v>
       </c>
       <c r="AN32">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AO32">
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.21</v>
+        <v>1.86</v>
       </c>
       <c r="AQ32">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AR32">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="AS32">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="AT32">
-        <v>3.23</v>
+        <v>3.38</v>
       </c>
       <c r="AU32">
         <v>3</v>
@@ -7716,25 +7716,25 @@
         <v>1.9</v>
       </c>
       <c r="AN33">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AO33">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="AP33">
-        <v>1.77</v>
+        <v>2.14</v>
       </c>
       <c r="AQ33">
-        <v>0.85</v>
+        <v>0.57</v>
       </c>
       <c r="AR33">
-        <v>1.96</v>
+        <v>2.09</v>
       </c>
       <c r="AS33">
-        <v>1.26</v>
+        <v>1.08</v>
       </c>
       <c r="AT33">
-        <v>3.22</v>
+        <v>3.17</v>
       </c>
       <c r="AU33">
         <v>12</v>
@@ -7922,25 +7922,25 @@
         <v>2.38</v>
       </c>
       <c r="AN34">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO34">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ34">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="AR34">
-        <v>1.96</v>
+        <v>1.75</v>
       </c>
       <c r="AS34">
-        <v>1.82</v>
+        <v>1.54</v>
       </c>
       <c r="AT34">
-        <v>3.78</v>
+        <v>3.29</v>
       </c>
       <c r="AU34">
         <v>5</v>
@@ -8128,25 +8128,25 @@
         <v>2.96</v>
       </c>
       <c r="AN35">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AO35">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR35">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="AS35">
         <v>1.13</v>
       </c>
       <c r="AT35">
-        <v>3.15</v>
+        <v>3.03</v>
       </c>
       <c r="AU35">
         <v>7</v>
@@ -8334,25 +8334,25 @@
         <v>1.12</v>
       </c>
       <c r="AN36">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AO36">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>0.62</v>
+        <v>1.17</v>
       </c>
       <c r="AQ36">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AR36">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AS36">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="AT36">
-        <v>3.63</v>
+        <v>3.54</v>
       </c>
       <c r="AU36">
         <v>9</v>
@@ -8540,25 +8540,25 @@
         <v>2.45</v>
       </c>
       <c r="AN37">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AO37">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AP37">
-        <v>2.36</v>
+        <v>2.71</v>
       </c>
       <c r="AQ37">
-        <v>1.62</v>
+        <v>1.43</v>
       </c>
       <c r="AR37">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="AS37">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AT37">
-        <v>3.86</v>
+        <v>3.85</v>
       </c>
       <c r="AU37">
         <v>4</v>
@@ -8746,25 +8746,25 @@
         <v>1.06</v>
       </c>
       <c r="AN38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO38">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>0.85</v>
+        <v>1.17</v>
       </c>
       <c r="AQ38">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="AR38">
-        <v>1.29</v>
+        <v>1.97</v>
       </c>
       <c r="AS38">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="AT38">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="AU38">
         <v>2</v>
@@ -8952,25 +8952,25 @@
         <v>1.73</v>
       </c>
       <c r="AN39">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO39">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AP39">
-        <v>0.92</v>
+        <v>1.14</v>
       </c>
       <c r="AQ39">
-        <v>0.62</v>
+        <v>0.14</v>
       </c>
       <c r="AR39">
-        <v>1.74</v>
+        <v>1.9</v>
       </c>
       <c r="AS39">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="AT39">
-        <v>3.43</v>
+        <v>3.53</v>
       </c>
       <c r="AU39">
         <v>8</v>
@@ -9158,25 +9158,25 @@
         <v>1.67</v>
       </c>
       <c r="AN40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO40">
-        <v>1.17</v>
+        <v>2.33</v>
       </c>
       <c r="AP40">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AR40">
-        <v>1.81</v>
+        <v>2.29</v>
       </c>
       <c r="AS40">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT40">
-        <v>3.87</v>
+        <v>4.4</v>
       </c>
       <c r="AU40">
         <v>6</v>
@@ -9364,25 +9364,25 @@
         <v>1.14</v>
       </c>
       <c r="AN41">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AO41">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR41">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="AS41">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="AT41">
-        <v>3.14</v>
+        <v>3.23</v>
       </c>
       <c r="AU41">
         <v>4</v>
@@ -9573,22 +9573,22 @@
         <v>2</v>
       </c>
       <c r="AO42">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
-        <v>1.21</v>
+        <v>0.57</v>
       </c>
       <c r="AR42">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="AS42">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="AT42">
-        <v>3.58</v>
+        <v>3.54</v>
       </c>
       <c r="AU42">
         <v>8</v>
@@ -9776,25 +9776,25 @@
         <v>1.57</v>
       </c>
       <c r="AN43">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AO43">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ43">
-        <v>1.77</v>
+        <v>1.33</v>
       </c>
       <c r="AR43">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="AS43">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT43">
-        <v>3.58</v>
+        <v>3.44</v>
       </c>
       <c r="AU43">
         <v>7</v>
@@ -9982,25 +9982,25 @@
         <v>2.3</v>
       </c>
       <c r="AN44">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AO44">
-        <v>0.86</v>
+        <v>0.6</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="AQ44">
-        <v>0.85</v>
+        <v>0.57</v>
       </c>
       <c r="AR44">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="AS44">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AT44">
-        <v>3.23</v>
+        <v>3.16</v>
       </c>
       <c r="AU44">
         <v>8</v>
@@ -10188,25 +10188,25 @@
         <v>1.11</v>
       </c>
       <c r="AN45">
-        <v>1.43</v>
+        <v>2</v>
       </c>
       <c r="AO45">
-        <v>2.57</v>
+        <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.77</v>
+        <v>2.14</v>
       </c>
       <c r="AQ45">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="AR45">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="AS45">
         <v>1.88</v>
       </c>
       <c r="AT45">
-        <v>3.85</v>
+        <v>4.02</v>
       </c>
       <c r="AU45">
         <v>3</v>
@@ -10394,25 +10394,25 @@
         <v>2.25</v>
       </c>
       <c r="AN46">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO46">
+        <v>1.8</v>
+      </c>
+      <c r="AP46">
+        <v>2.14</v>
+      </c>
+      <c r="AQ46">
+        <v>1.43</v>
+      </c>
+      <c r="AR46">
+        <v>1.74</v>
+      </c>
+      <c r="AS46">
         <v>1.71</v>
       </c>
-      <c r="AP46">
-        <v>2</v>
-      </c>
-      <c r="AQ46">
-        <v>1.62</v>
-      </c>
-      <c r="AR46">
-        <v>2.13</v>
-      </c>
-      <c r="AS46">
-        <v>1.89</v>
-      </c>
       <c r="AT46">
-        <v>4.02</v>
+        <v>3.45</v>
       </c>
       <c r="AU46">
         <v>6</v>
@@ -10600,25 +10600,25 @@
         <v>1.88</v>
       </c>
       <c r="AN47">
-        <v>1.43</v>
+        <v>1.75</v>
       </c>
       <c r="AO47">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.21</v>
+        <v>1.86</v>
       </c>
       <c r="AQ47">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="AR47">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AS47">
-        <v>1.73</v>
+        <v>1.42</v>
       </c>
       <c r="AT47">
-        <v>3.51</v>
+        <v>3.09</v>
       </c>
       <c r="AU47">
         <v>10</v>
@@ -10806,25 +10806,25 @@
         <v>1.3</v>
       </c>
       <c r="AN48">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="AO48">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AP48">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ48">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AR48">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="AS48">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT48">
-        <v>3.63</v>
+        <v>3.54</v>
       </c>
       <c r="AU48">
         <v>4</v>
@@ -11012,25 +11012,25 @@
         <v>1.65</v>
       </c>
       <c r="AN49">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AO49">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>0.62</v>
+        <v>1.17</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR49">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="AS49">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="AT49">
-        <v>2.99</v>
+        <v>3.04</v>
       </c>
       <c r="AU49">
         <v>10</v>
@@ -11218,25 +11218,25 @@
         <v>1.8</v>
       </c>
       <c r="AN50">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AO50">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ50">
-        <v>1.21</v>
+        <v>0.57</v>
       </c>
       <c r="AR50">
-        <v>2.08</v>
+        <v>1.74</v>
       </c>
       <c r="AS50">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="AT50">
-        <v>3.89</v>
+        <v>3.67</v>
       </c>
       <c r="AU50">
         <v>8</v>
@@ -11427,22 +11427,22 @@
         <v>2.25</v>
       </c>
       <c r="AO51">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="AP51">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="AR51">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="AS51">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="AT51">
-        <v>3.99</v>
+        <v>4.06</v>
       </c>
       <c r="AU51">
         <v>5</v>
@@ -11630,25 +11630,25 @@
         <v>1.9</v>
       </c>
       <c r="AN52">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AO52">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AP52">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AQ52">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AR52">
-        <v>1.91</v>
+        <v>2.33</v>
       </c>
       <c r="AS52">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AT52">
-        <v>3.53</v>
+        <v>3.92</v>
       </c>
       <c r="AU52">
         <v>7</v>
@@ -11836,25 +11836,25 @@
         <v>1.66</v>
       </c>
       <c r="AN53">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="AO53">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP53">
-        <v>0.92</v>
+        <v>1.14</v>
       </c>
       <c r="AQ53">
-        <v>1.77</v>
+        <v>1.33</v>
       </c>
       <c r="AR53">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="AS53">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AT53">
-        <v>3.7</v>
+        <v>3.71</v>
       </c>
       <c r="AU53">
         <v>8</v>
@@ -12042,25 +12042,25 @@
         <v>1.12</v>
       </c>
       <c r="AN54">
-        <v>0.88</v>
+        <v>1.5</v>
       </c>
       <c r="AO54">
-        <v>1.44</v>
+        <v>0.75</v>
       </c>
       <c r="AP54">
-        <v>0.85</v>
+        <v>1.17</v>
       </c>
       <c r="AQ54">
-        <v>1.21</v>
+        <v>0.57</v>
       </c>
       <c r="AR54">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="AS54">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="AT54">
-        <v>3.05</v>
+        <v>3.18</v>
       </c>
       <c r="AU54">
         <v>7</v>
@@ -12248,25 +12248,25 @@
         <v>4.15</v>
       </c>
       <c r="AN55">
-        <v>2.44</v>
+        <v>3</v>
       </c>
       <c r="AO55">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP55">
-        <v>2.36</v>
+        <v>2.71</v>
       </c>
       <c r="AQ55">
-        <v>0.62</v>
+        <v>0.14</v>
       </c>
       <c r="AR55">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AS55">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT55">
-        <v>3.72</v>
+        <v>3.63</v>
       </c>
       <c r="AU55">
         <v>10</v>
@@ -12454,25 +12454,25 @@
         <v>1.06</v>
       </c>
       <c r="AN56">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="AO56">
-        <v>2.11</v>
+        <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ56">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AR56">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="AS56">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="AT56">
-        <v>3.31</v>
+        <v>3.25</v>
       </c>
       <c r="AU56">
         <v>4</v>
@@ -12660,25 +12660,25 @@
         <v>1.38</v>
       </c>
       <c r="AN57">
-        <v>1.38</v>
+        <v>0.25</v>
       </c>
       <c r="AO57">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="AQ57">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR57">
         <v>2.05</v>
       </c>
       <c r="AS57">
-        <v>2.05</v>
+        <v>2.42</v>
       </c>
       <c r="AT57">
-        <v>4.1</v>
+        <v>4.47</v>
       </c>
       <c r="AU57">
         <v>8</v>
@@ -12866,25 +12866,25 @@
         <v>1.89</v>
       </c>
       <c r="AN58">
-        <v>0.44</v>
+        <v>0.8</v>
       </c>
       <c r="AO58">
-        <v>1.11</v>
+        <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>0.62</v>
+        <v>1.17</v>
       </c>
       <c r="AQ58">
-        <v>0.85</v>
+        <v>0.57</v>
       </c>
       <c r="AR58">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="AS58">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT58">
-        <v>3.12</v>
+        <v>3.19</v>
       </c>
       <c r="AU58">
         <v>11</v>
@@ -13072,25 +13072,25 @@
         <v>2.2</v>
       </c>
       <c r="AN59">
+        <v>1.4</v>
+      </c>
+      <c r="AO59">
+        <v>1</v>
+      </c>
+      <c r="AP59">
+        <v>1.43</v>
+      </c>
+      <c r="AQ59">
+        <v>1.17</v>
+      </c>
+      <c r="AR59">
+        <v>1.64</v>
+      </c>
+      <c r="AS59">
         <v>1.44</v>
       </c>
-      <c r="AO59">
-        <v>0.78</v>
-      </c>
-      <c r="AP59">
-        <v>1.36</v>
-      </c>
-      <c r="AQ59">
-        <v>1</v>
-      </c>
-      <c r="AR59">
-        <v>1.55</v>
-      </c>
-      <c r="AS59">
-        <v>1.29</v>
-      </c>
       <c r="AT59">
-        <v>2.84</v>
+        <v>3.08</v>
       </c>
       <c r="AU59">
         <v>6</v>
@@ -13278,25 +13278,25 @@
         <v>1.62</v>
       </c>
       <c r="AN60">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AO60">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="AP60">
-        <v>1.21</v>
+        <v>1.86</v>
       </c>
       <c r="AQ60">
-        <v>1.62</v>
+        <v>1.43</v>
       </c>
       <c r="AR60">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AS60">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="AT60">
-        <v>3.71</v>
+        <v>3.5</v>
       </c>
       <c r="AU60">
         <v>10</v>
@@ -13484,25 +13484,25 @@
         <v>1.5</v>
       </c>
       <c r="AN61">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AO61">
-        <v>1.22</v>
+        <v>2.5</v>
       </c>
       <c r="AP61">
-        <v>1.77</v>
+        <v>2.14</v>
       </c>
       <c r="AQ61">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AR61">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="AS61">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="AT61">
-        <v>3.81</v>
+        <v>3.97</v>
       </c>
       <c r="AU61">
         <v>7</v>
@@ -13690,25 +13690,25 @@
         <v>1.46</v>
       </c>
       <c r="AN62">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AO62">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ62">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="AR62">
-        <v>1.99</v>
+        <v>1.76</v>
       </c>
       <c r="AS62">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="AT62">
-        <v>3.89</v>
+        <v>3.59</v>
       </c>
       <c r="AU62">
         <v>10</v>
@@ -13896,25 +13896,25 @@
         <v>2.68</v>
       </c>
       <c r="AN63">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AO63">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AP63">
+        <v>2</v>
+      </c>
+      <c r="AQ63">
+        <v>0.67</v>
+      </c>
+      <c r="AR63">
         <v>1.93</v>
       </c>
-      <c r="AQ63">
-        <v>0.92</v>
-      </c>
-      <c r="AR63">
-        <v>2</v>
-      </c>
       <c r="AS63">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="AT63">
-        <v>3.84</v>
+        <v>3.65</v>
       </c>
       <c r="AU63">
         <v>6</v>
@@ -14102,25 +14102,25 @@
         <v>1.15</v>
       </c>
       <c r="AN64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO64">
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>0.85</v>
+        <v>1.17</v>
       </c>
       <c r="AQ64">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR64">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="AS64">
-        <v>2.03</v>
+        <v>2.22</v>
       </c>
       <c r="AT64">
-        <v>3.33</v>
+        <v>3.59</v>
       </c>
       <c r="AU64">
         <v>3</v>
@@ -14308,25 +14308,25 @@
         <v>1.17</v>
       </c>
       <c r="AN65">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AO65">
-        <v>1.45</v>
+        <v>0.6</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ65">
-        <v>1.21</v>
+        <v>0.57</v>
       </c>
       <c r="AR65">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="AS65">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AT65">
-        <v>3.1</v>
+        <v>3.06</v>
       </c>
       <c r="AU65">
         <v>5</v>
@@ -14514,25 +14514,25 @@
         <v>2.65</v>
       </c>
       <c r="AN66">
-        <v>2.36</v>
+        <v>3</v>
       </c>
       <c r="AO66">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="AP66">
-        <v>2.36</v>
+        <v>2.71</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AR66">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="AS66">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="AT66">
-        <v>3.83</v>
+        <v>3.99</v>
       </c>
       <c r="AU66">
         <v>9</v>
@@ -14720,22 +14720,22 @@
         <v>1.85</v>
       </c>
       <c r="AN67">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AO67">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>0.92</v>
+        <v>1.14</v>
       </c>
       <c r="AQ67">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AR67">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="AS67">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="AT67">
         <v>3.36</v>
@@ -14926,25 +14926,25 @@
         <v>2.85</v>
       </c>
       <c r="AN68">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AO68">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AP68">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
-        <v>1.77</v>
+        <v>1.33</v>
       </c>
       <c r="AR68">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="AS68">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT68">
-        <v>3.89</v>
+        <v>3.74</v>
       </c>
       <c r="AU68">
         <v>10</v>
@@ -15132,25 +15132,25 @@
         <v>2.45</v>
       </c>
       <c r="AN69">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AO69">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AQ69">
-        <v>0.62</v>
+        <v>0.14</v>
       </c>
       <c r="AR69">
-        <v>1.89</v>
+        <v>2.15</v>
       </c>
       <c r="AS69">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT69">
-        <v>3.78</v>
+        <v>3.85</v>
       </c>
       <c r="AU69">
         <v>6</v>
@@ -15338,25 +15338,25 @@
         <v>1.3</v>
       </c>
       <c r="AN70">
-        <v>0.91</v>
+        <v>1.5</v>
       </c>
       <c r="AO70">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AP70">
-        <v>0.85</v>
+        <v>1.17</v>
       </c>
       <c r="AQ70">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AR70">
         <v>1.27</v>
       </c>
       <c r="AS70">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="AT70">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="AU70">
         <v>2</v>
@@ -15544,25 +15544,25 @@
         <v>1.25</v>
       </c>
       <c r="AN71">
-        <v>1.33</v>
+        <v>2.17</v>
       </c>
       <c r="AO71">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="AP71">
-        <v>1.21</v>
+        <v>1.86</v>
       </c>
       <c r="AQ71">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="AR71">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AS71">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="AT71">
-        <v>3.82</v>
+        <v>3.56</v>
       </c>
       <c r="AU71">
         <v>4</v>
@@ -15750,25 +15750,25 @@
         <v>2.25</v>
       </c>
       <c r="AN72">
-        <v>1.09</v>
+        <v>0.2</v>
       </c>
       <c r="AO72">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="AP72">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="AQ72">
-        <v>0.62</v>
+        <v>0.14</v>
       </c>
       <c r="AR72">
         <v>1.93</v>
       </c>
       <c r="AS72">
-        <v>1.87</v>
+        <v>1.69</v>
       </c>
       <c r="AT72">
-        <v>3.8</v>
+        <v>3.62</v>
       </c>
       <c r="AU72">
         <v>7</v>
@@ -15956,25 +15956,25 @@
         <v>1.22</v>
       </c>
       <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
+        <v>0</v>
+      </c>
+      <c r="AP73">
+        <v>0.86</v>
+      </c>
+      <c r="AQ73">
+        <v>0.67</v>
+      </c>
+      <c r="AR73">
         <v>1.18</v>
       </c>
-      <c r="AO73">
-        <v>0.73</v>
-      </c>
-      <c r="AP73">
-        <v>1</v>
-      </c>
-      <c r="AQ73">
-        <v>0.92</v>
-      </c>
-      <c r="AR73">
-        <v>1.26</v>
-      </c>
       <c r="AS73">
-        <v>1.81</v>
+        <v>1.62</v>
       </c>
       <c r="AT73">
-        <v>3.07</v>
+        <v>2.8</v>
       </c>
       <c r="AU73">
         <v>3</v>
@@ -16162,25 +16162,25 @@
         <v>1.36</v>
       </c>
       <c r="AN74">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="AO74">
-        <v>2.17</v>
+        <v>2.4</v>
       </c>
       <c r="AP74">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AQ74">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AR74">
-        <v>1.89</v>
+        <v>2.07</v>
       </c>
       <c r="AS74">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="AT74">
-        <v>3.96</v>
+        <v>4.13</v>
       </c>
       <c r="AU74">
         <v>2</v>
@@ -16368,25 +16368,25 @@
         <v>1.18</v>
       </c>
       <c r="AN75">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="AO75">
-        <v>2.08</v>
+        <v>2.17</v>
       </c>
       <c r="AP75">
-        <v>1.77</v>
+        <v>2.14</v>
       </c>
       <c r="AQ75">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR75">
-        <v>1.79</v>
+        <v>1.99</v>
       </c>
       <c r="AS75">
-        <v>2.09</v>
+        <v>2.32</v>
       </c>
       <c r="AT75">
-        <v>3.88</v>
+        <v>4.31</v>
       </c>
       <c r="AU75">
         <v>7</v>
@@ -16574,25 +16574,25 @@
         <v>3</v>
       </c>
       <c r="AN76">
-        <v>2.31</v>
+        <v>2.67</v>
       </c>
       <c r="AO76">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP76">
-        <v>2.36</v>
+        <v>2.71</v>
       </c>
       <c r="AQ76">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AR76">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="AS76">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT76">
-        <v>3.52</v>
+        <v>3.63</v>
       </c>
       <c r="AU76">
         <v>8</v>
@@ -16780,25 +16780,25 @@
         <v>1.66</v>
       </c>
       <c r="AN77">
-        <v>1.08</v>
+        <v>0.33</v>
       </c>
       <c r="AO77">
-        <v>1.23</v>
+        <v>0.5</v>
       </c>
       <c r="AP77">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="AQ77">
-        <v>1.21</v>
+        <v>0.57</v>
       </c>
       <c r="AR77">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="AS77">
-        <v>1.81</v>
+        <v>1.98</v>
       </c>
       <c r="AT77">
-        <v>3.72</v>
+        <v>3.87</v>
       </c>
       <c r="AU77">
         <v>7</v>
@@ -16986,25 +16986,25 @@
         <v>2.39</v>
       </c>
       <c r="AN78">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO78">
-        <v>1.08</v>
+        <v>1.4</v>
       </c>
       <c r="AP78">
-        <v>1.77</v>
+        <v>2.14</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR78">
-        <v>1.79</v>
+        <v>1.96</v>
       </c>
       <c r="AS78">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AT78">
-        <v>3.04</v>
+        <v>3.32</v>
       </c>
       <c r="AU78">
         <v>10</v>
@@ -17192,25 +17192,25 @@
         <v>1.08</v>
       </c>
       <c r="AN79">
-        <v>0.83</v>
+        <v>1.2</v>
       </c>
       <c r="AO79">
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>0.85</v>
+        <v>1.17</v>
       </c>
       <c r="AQ79">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AR79">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AS79">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="AT79">
-        <v>3.24</v>
+        <v>3.11</v>
       </c>
       <c r="AU79">
         <v>7</v>
@@ -17398,25 +17398,25 @@
         <v>3.48</v>
       </c>
       <c r="AN80">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AO80">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="AP80">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ80">
-        <v>0.62</v>
+        <v>0.14</v>
       </c>
       <c r="AR80">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="AS80">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="AT80">
-        <v>3.88</v>
+        <v>3.44</v>
       </c>
       <c r="AU80">
         <v>9</v>
@@ -17604,25 +17604,25 @@
         <v>1.9</v>
       </c>
       <c r="AN81">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO81">
-        <v>0.92</v>
+        <v>0.6</v>
       </c>
       <c r="AP81">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AQ81">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="AR81">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="AS81">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AT81">
-        <v>3.7</v>
+        <v>3.71</v>
       </c>
       <c r="AU81">
         <v>4</v>
@@ -17810,52 +17810,52 @@
         <v>1.43</v>
       </c>
       <c r="AN82">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="AO82">
-        <v>1.08</v>
+        <v>1.83</v>
       </c>
       <c r="AP82">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AR82">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="AS82">
         <v>1.93</v>
       </c>
       <c r="AT82">
-        <v>3.57</v>
+        <v>3.58</v>
       </c>
       <c r="AU82">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV82">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AW82">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AX82">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AY82">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="AZ82">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BA82">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BB82">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BC82">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BD82">
         <v>2.41</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.71</v>
+        <v>2.36</v>
       </c>
       <c r="AQ2">
-        <v>0.57</v>
+        <v>1.21</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AQ3">
-        <v>0.57</v>
+        <v>0.85</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1748,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
       <c r="AQ4">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1954,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
-        <v>1.33</v>
+        <v>1.77</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.17</v>
+        <v>0.62</v>
       </c>
       <c r="AQ6">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ7">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2572,19 +2572,19 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>1.86</v>
+        <v>1.21</v>
       </c>
       <c r="AQ8">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AS8">
         <v>2.36</v>
       </c>
       <c r="AT8">
-        <v>2.36</v>
+        <v>3.94</v>
       </c>
       <c r="AU8">
         <v>3</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ9">
-        <v>0.57</v>
+        <v>0.85</v>
       </c>
       <c r="AR9">
         <v>1.31</v>
@@ -2984,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
       <c r="AQ10">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="AR10">
         <v>2.8</v>
@@ -3184,25 +3184,25 @@
         <v>1.53</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1.33</v>
+        <v>1.77</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="AS11">
         <v>1.04</v>
       </c>
       <c r="AT11">
-        <v>1.04</v>
+        <v>1.67</v>
       </c>
       <c r="AU11">
         <v>5</v>
@@ -3393,22 +3393,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.17</v>
+        <v>0.62</v>
       </c>
       <c r="AQ12">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>1.36</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AT12">
-        <v>1.36</v>
+        <v>3.32</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -3599,22 +3599,22 @@
         <v>3</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="AR13">
         <v>1.23</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AT13">
-        <v>1.23</v>
+        <v>2.77</v>
       </c>
       <c r="AU13">
         <v>6</v>
@@ -3805,22 +3805,22 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP14">
-        <v>1.86</v>
+        <v>1.21</v>
       </c>
       <c r="AQ14">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR14">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="AS14">
-        <v>2.58</v>
+        <v>2.27</v>
       </c>
       <c r="AT14">
-        <v>3.89</v>
+        <v>3.72</v>
       </c>
       <c r="AU14">
         <v>5</v>
@@ -4008,25 +4008,25 @@
         <v>1.32</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO15">
         <v>1.5</v>
       </c>
       <c r="AP15">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="AR15">
-        <v>1.21</v>
+        <v>0.92</v>
       </c>
       <c r="AS15">
         <v>1.58</v>
       </c>
       <c r="AT15">
-        <v>2.79</v>
+        <v>2.5</v>
       </c>
       <c r="AU15">
         <v>4</v>
@@ -4214,25 +4214,25 @@
         <v>2.3</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>3.81</v>
       </c>
       <c r="AU16">
         <v>3</v>
@@ -4426,10 +4426,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
       <c r="AQ17">
-        <v>0.57</v>
+        <v>0.85</v>
       </c>
       <c r="AR17">
         <v>2.26</v>
@@ -4626,25 +4626,25 @@
         <v>1.65</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP18">
-        <v>2.14</v>
+        <v>1.77</v>
       </c>
       <c r="AQ18">
-        <v>0.14</v>
+        <v>0.62</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AU18">
         <v>11</v>
@@ -4835,22 +4835,22 @@
         <v>3</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP19">
-        <v>2.71</v>
+        <v>2.36</v>
       </c>
       <c r="AQ19">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR19">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AT19">
-        <v>1.54</v>
+        <v>3.48</v>
       </c>
       <c r="AU19">
         <v>7</v>
@@ -5038,25 +5038,25 @@
         <v>1.53</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO20">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP20">
-        <v>1.17</v>
+        <v>0.85</v>
       </c>
       <c r="AQ20">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS20">
-        <v>0.63</v>
+        <v>1.01</v>
       </c>
       <c r="AT20">
-        <v>0.63</v>
+        <v>2.04</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5244,25 +5244,25 @@
         <v>1.48</v>
       </c>
       <c r="AN21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO21">
         <v>2</v>
       </c>
       <c r="AP21">
-        <v>2.14</v>
+        <v>1.77</v>
       </c>
       <c r="AQ21">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="AR21">
-        <v>2.58</v>
+        <v>2.17</v>
       </c>
       <c r="AS21">
         <v>1.79</v>
       </c>
       <c r="AT21">
-        <v>4.37</v>
+        <v>3.96</v>
       </c>
       <c r="AU21">
         <v>6</v>
@@ -5453,22 +5453,22 @@
         <v>3</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP22">
-        <v>2.71</v>
+        <v>2.36</v>
       </c>
       <c r="AQ22">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="AR22">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="AS22">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AT22">
-        <v>1.78</v>
+        <v>3.62</v>
       </c>
       <c r="AU22">
         <v>11</v>
@@ -5656,25 +5656,25 @@
         <v>1.39</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP23">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR23">
-        <v>1.8</v>
+        <v>2.22</v>
       </c>
       <c r="AS23">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="AT23">
-        <v>3.5</v>
+        <v>4.06</v>
       </c>
       <c r="AU23">
         <v>6</v>
@@ -5862,25 +5862,25 @@
         <v>2.66</v>
       </c>
       <c r="AN24">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP24">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR24">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="AS24">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="AT24">
-        <v>3.54</v>
+        <v>3.49</v>
       </c>
       <c r="AU24">
         <v>3</v>
@@ -6068,25 +6068,25 @@
         <v>1.28</v>
       </c>
       <c r="AN25">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.17</v>
+        <v>0.62</v>
       </c>
       <c r="AQ25">
-        <v>0.57</v>
+        <v>1.21</v>
       </c>
       <c r="AR25">
-        <v>1.51</v>
+        <v>1.64</v>
       </c>
       <c r="AS25">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="AT25">
-        <v>3.09</v>
+        <v>3.11</v>
       </c>
       <c r="AU25">
         <v>6</v>
@@ -6274,25 +6274,25 @@
         <v>3</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AO26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AQ26">
-        <v>0.57</v>
+        <v>0.85</v>
       </c>
       <c r="AR26">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AS26">
-        <v>1.03</v>
+        <v>1.27</v>
       </c>
       <c r="AT26">
-        <v>1.03</v>
+        <v>3.07</v>
       </c>
       <c r="AU26">
         <v>7</v>
@@ -6480,25 +6480,25 @@
         <v>1.32</v>
       </c>
       <c r="AN27">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AO27">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
       <c r="AQ27">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AR27">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="AS27">
-        <v>2.43</v>
+        <v>2.16</v>
       </c>
       <c r="AT27">
-        <v>4.34</v>
+        <v>3.98</v>
       </c>
       <c r="AU27">
         <v>5</v>
@@ -6692,19 +6692,19 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.86</v>
+        <v>1.21</v>
       </c>
       <c r="AQ28">
-        <v>1.33</v>
+        <v>1.77</v>
       </c>
       <c r="AR28">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="AS28">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="AT28">
-        <v>3.39</v>
+        <v>3.48</v>
       </c>
       <c r="AU28">
         <v>10</v>
@@ -6892,25 +6892,25 @@
         <v>1.85</v>
       </c>
       <c r="AN29">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP29">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AQ29">
-        <v>0.14</v>
+        <v>0.62</v>
       </c>
       <c r="AR29">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="AS29">
-        <v>1.89</v>
+        <v>1.64</v>
       </c>
       <c r="AT29">
-        <v>3.27</v>
+        <v>3.15</v>
       </c>
       <c r="AU29">
         <v>9</v>
@@ -7098,25 +7098,25 @@
         <v>1.07</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AO30">
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="AR30">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="AS30">
-        <v>1.58</v>
+        <v>1.93</v>
       </c>
       <c r="AT30">
-        <v>2.78</v>
+        <v>3.09</v>
       </c>
       <c r="AU30">
         <v>5</v>
@@ -7304,25 +7304,25 @@
         <v>2.03</v>
       </c>
       <c r="AN31">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AO31">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ31">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR31">
+        <v>1.95</v>
+      </c>
+      <c r="AS31">
         <v>1.92</v>
       </c>
-      <c r="AS31">
-        <v>2.08</v>
-      </c>
       <c r="AT31">
-        <v>4</v>
+        <v>3.87</v>
       </c>
       <c r="AU31">
         <v>7</v>
@@ -7510,25 +7510,25 @@
         <v>2.25</v>
       </c>
       <c r="AN32">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO32">
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.86</v>
+        <v>1.21</v>
       </c>
       <c r="AQ32">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR32">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="AS32">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT32">
-        <v>3.38</v>
+        <v>3.23</v>
       </c>
       <c r="AU32">
         <v>3</v>
@@ -7716,25 +7716,25 @@
         <v>1.9</v>
       </c>
       <c r="AN33">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AO33">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AP33">
-        <v>2.14</v>
+        <v>1.77</v>
       </c>
       <c r="AQ33">
-        <v>0.57</v>
+        <v>0.85</v>
       </c>
       <c r="AR33">
-        <v>2.09</v>
+        <v>1.96</v>
       </c>
       <c r="AS33">
-        <v>1.08</v>
+        <v>1.26</v>
       </c>
       <c r="AT33">
-        <v>3.17</v>
+        <v>3.22</v>
       </c>
       <c r="AU33">
         <v>12</v>
@@ -7922,25 +7922,25 @@
         <v>2.38</v>
       </c>
       <c r="AN34">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AO34">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AP34">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="AR34">
-        <v>1.75</v>
+        <v>1.96</v>
       </c>
       <c r="AS34">
-        <v>1.54</v>
+        <v>1.82</v>
       </c>
       <c r="AT34">
-        <v>3.29</v>
+        <v>3.78</v>
       </c>
       <c r="AU34">
         <v>5</v>
@@ -8128,25 +8128,25 @@
         <v>2.96</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AO35">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AP35">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR35">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="AS35">
         <v>1.13</v>
       </c>
       <c r="AT35">
-        <v>3.03</v>
+        <v>3.15</v>
       </c>
       <c r="AU35">
         <v>7</v>
@@ -8334,25 +8334,25 @@
         <v>1.12</v>
       </c>
       <c r="AN36">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="AO36">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AP36">
-        <v>1.17</v>
+        <v>0.62</v>
       </c>
       <c r="AQ36">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR36">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="AS36">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="AT36">
-        <v>3.54</v>
+        <v>3.63</v>
       </c>
       <c r="AU36">
         <v>9</v>
@@ -8540,25 +8540,25 @@
         <v>2.45</v>
       </c>
       <c r="AN37">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AO37">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AP37">
-        <v>2.71</v>
+        <v>2.36</v>
       </c>
       <c r="AQ37">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="AR37">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="AS37">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AT37">
-        <v>3.85</v>
+        <v>3.86</v>
       </c>
       <c r="AU37">
         <v>4</v>
@@ -8746,25 +8746,25 @@
         <v>1.06</v>
       </c>
       <c r="AN38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO38">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="AP38">
-        <v>1.17</v>
+        <v>0.85</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="AR38">
-        <v>1.97</v>
+        <v>1.29</v>
       </c>
       <c r="AS38">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="AT38">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="AU38">
         <v>2</v>
@@ -8952,25 +8952,25 @@
         <v>1.73</v>
       </c>
       <c r="AN39">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AO39">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AP39">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
       <c r="AQ39">
-        <v>0.14</v>
+        <v>0.62</v>
       </c>
       <c r="AR39">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="AS39">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="AT39">
-        <v>3.53</v>
+        <v>3.43</v>
       </c>
       <c r="AU39">
         <v>8</v>
@@ -9158,25 +9158,25 @@
         <v>1.67</v>
       </c>
       <c r="AN40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO40">
-        <v>2.33</v>
+        <v>1.17</v>
       </c>
       <c r="AP40">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AQ40">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AR40">
-        <v>2.29</v>
+        <v>1.81</v>
       </c>
       <c r="AS40">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AT40">
-        <v>4.4</v>
+        <v>3.87</v>
       </c>
       <c r="AU40">
         <v>6</v>
@@ -9364,25 +9364,25 @@
         <v>1.14</v>
       </c>
       <c r="AN41">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO41">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AP41">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR41">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="AS41">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="AT41">
-        <v>3.23</v>
+        <v>3.14</v>
       </c>
       <c r="AU41">
         <v>4</v>
@@ -9573,22 +9573,22 @@
         <v>2</v>
       </c>
       <c r="AO42">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ42">
-        <v>0.57</v>
+        <v>1.21</v>
       </c>
       <c r="AR42">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="AS42">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="AT42">
-        <v>3.54</v>
+        <v>3.58</v>
       </c>
       <c r="AU42">
         <v>8</v>
@@ -9776,25 +9776,25 @@
         <v>1.57</v>
       </c>
       <c r="AN43">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AO43">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AQ43">
-        <v>1.33</v>
+        <v>1.77</v>
       </c>
       <c r="AR43">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="AS43">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AT43">
-        <v>3.44</v>
+        <v>3.58</v>
       </c>
       <c r="AU43">
         <v>7</v>
@@ -9982,25 +9982,25 @@
         <v>2.3</v>
       </c>
       <c r="AN44">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AO44">
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="AP44">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
-        <v>0.57</v>
+        <v>0.85</v>
       </c>
       <c r="AR44">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="AS44">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AT44">
-        <v>3.16</v>
+        <v>3.23</v>
       </c>
       <c r="AU44">
         <v>8</v>
@@ -10188,25 +10188,25 @@
         <v>1.11</v>
       </c>
       <c r="AN45">
-        <v>2</v>
+        <v>1.43</v>
       </c>
       <c r="AO45">
-        <v>2</v>
+        <v>2.57</v>
       </c>
       <c r="AP45">
-        <v>2.14</v>
+        <v>1.77</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="AR45">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="AS45">
         <v>1.88</v>
       </c>
       <c r="AT45">
-        <v>4.02</v>
+        <v>3.85</v>
       </c>
       <c r="AU45">
         <v>3</v>
@@ -10394,25 +10394,25 @@
         <v>2.25</v>
       </c>
       <c r="AN46">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO46">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AP46">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="AR46">
-        <v>1.74</v>
+        <v>2.13</v>
       </c>
       <c r="AS46">
-        <v>1.71</v>
+        <v>1.89</v>
       </c>
       <c r="AT46">
-        <v>3.45</v>
+        <v>4.02</v>
       </c>
       <c r="AU46">
         <v>6</v>
@@ -10600,25 +10600,25 @@
         <v>1.88</v>
       </c>
       <c r="AN47">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="AO47">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AP47">
-        <v>1.86</v>
+        <v>1.21</v>
       </c>
       <c r="AQ47">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="AR47">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="AS47">
-        <v>1.42</v>
+        <v>1.73</v>
       </c>
       <c r="AT47">
-        <v>3.09</v>
+        <v>3.51</v>
       </c>
       <c r="AU47">
         <v>10</v>
@@ -10806,25 +10806,25 @@
         <v>1.3</v>
       </c>
       <c r="AN48">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AO48">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AP48">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AQ48">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR48">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="AS48">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT48">
-        <v>3.54</v>
+        <v>3.63</v>
       </c>
       <c r="AU48">
         <v>4</v>
@@ -11012,25 +11012,25 @@
         <v>1.65</v>
       </c>
       <c r="AN49">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="AO49">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.17</v>
+        <v>0.62</v>
       </c>
       <c r="AQ49">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR49">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="AS49">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AT49">
-        <v>3.04</v>
+        <v>2.99</v>
       </c>
       <c r="AU49">
         <v>10</v>
@@ -11218,25 +11218,25 @@
         <v>1.8</v>
       </c>
       <c r="AN50">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AO50">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AP50">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
-        <v>0.57</v>
+        <v>1.21</v>
       </c>
       <c r="AR50">
-        <v>1.74</v>
+        <v>2.08</v>
       </c>
       <c r="AS50">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AT50">
-        <v>3.67</v>
+        <v>3.89</v>
       </c>
       <c r="AU50">
         <v>8</v>
@@ -11427,22 +11427,22 @@
         <v>2.25</v>
       </c>
       <c r="AO51">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="AR51">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="AS51">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="AT51">
-        <v>4.06</v>
+        <v>3.99</v>
       </c>
       <c r="AU51">
         <v>5</v>
@@ -11630,25 +11630,25 @@
         <v>1.9</v>
       </c>
       <c r="AN52">
+        <v>1.63</v>
+      </c>
+      <c r="AO52">
         <v>1.5</v>
       </c>
-      <c r="AO52">
-        <v>1.67</v>
-      </c>
       <c r="AP52">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AQ52">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR52">
-        <v>2.33</v>
+        <v>1.91</v>
       </c>
       <c r="AS52">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AT52">
-        <v>3.92</v>
+        <v>3.53</v>
       </c>
       <c r="AU52">
         <v>7</v>
@@ -11836,25 +11836,25 @@
         <v>1.66</v>
       </c>
       <c r="AN53">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="AO53">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP53">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
       <c r="AQ53">
-        <v>1.33</v>
+        <v>1.77</v>
       </c>
       <c r="AR53">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="AS53">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="AT53">
-        <v>3.71</v>
+        <v>3.7</v>
       </c>
       <c r="AU53">
         <v>8</v>
@@ -12042,25 +12042,25 @@
         <v>1.12</v>
       </c>
       <c r="AN54">
-        <v>1.5</v>
+        <v>0.88</v>
       </c>
       <c r="AO54">
-        <v>0.75</v>
+        <v>1.44</v>
       </c>
       <c r="AP54">
-        <v>1.17</v>
+        <v>0.85</v>
       </c>
       <c r="AQ54">
-        <v>0.57</v>
+        <v>1.21</v>
       </c>
       <c r="AR54">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="AS54">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="AT54">
-        <v>3.18</v>
+        <v>3.05</v>
       </c>
       <c r="AU54">
         <v>7</v>
@@ -12248,25 +12248,25 @@
         <v>4.15</v>
       </c>
       <c r="AN55">
-        <v>3</v>
+        <v>2.44</v>
       </c>
       <c r="AO55">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2.71</v>
+        <v>2.36</v>
       </c>
       <c r="AQ55">
-        <v>0.14</v>
+        <v>0.62</v>
       </c>
       <c r="AR55">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AS55">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="AT55">
-        <v>3.63</v>
+        <v>3.72</v>
       </c>
       <c r="AU55">
         <v>10</v>
@@ -12454,25 +12454,25 @@
         <v>1.06</v>
       </c>
       <c r="AN56">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AO56">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AP56">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR56">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AS56">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="AT56">
-        <v>3.25</v>
+        <v>3.31</v>
       </c>
       <c r="AU56">
         <v>4</v>
@@ -12660,25 +12660,25 @@
         <v>1.38</v>
       </c>
       <c r="AN57">
-        <v>0.25</v>
+        <v>1.38</v>
       </c>
       <c r="AO57">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AP57">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="AQ57">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR57">
         <v>2.05</v>
       </c>
       <c r="AS57">
-        <v>2.42</v>
+        <v>2.05</v>
       </c>
       <c r="AT57">
-        <v>4.47</v>
+        <v>4.1</v>
       </c>
       <c r="AU57">
         <v>8</v>
@@ -12866,25 +12866,25 @@
         <v>1.89</v>
       </c>
       <c r="AN58">
-        <v>0.8</v>
+        <v>0.44</v>
       </c>
       <c r="AO58">
-        <v>0.67</v>
+        <v>1.11</v>
       </c>
       <c r="AP58">
-        <v>1.17</v>
+        <v>0.62</v>
       </c>
       <c r="AQ58">
-        <v>0.57</v>
+        <v>0.85</v>
       </c>
       <c r="AR58">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AS58">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AT58">
-        <v>3.19</v>
+        <v>3.12</v>
       </c>
       <c r="AU58">
         <v>11</v>
@@ -13072,25 +13072,25 @@
         <v>2.2</v>
       </c>
       <c r="AN59">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AO59">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AP59">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AQ59">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR59">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="AS59">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="AT59">
-        <v>3.08</v>
+        <v>2.84</v>
       </c>
       <c r="AU59">
         <v>6</v>
@@ -13278,25 +13278,25 @@
         <v>1.62</v>
       </c>
       <c r="AN60">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AO60">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AP60">
-        <v>1.86</v>
+        <v>1.21</v>
       </c>
       <c r="AQ60">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="AR60">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="AS60">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="AT60">
-        <v>3.5</v>
+        <v>3.71</v>
       </c>
       <c r="AU60">
         <v>10</v>
@@ -13484,25 +13484,25 @@
         <v>1.5</v>
       </c>
       <c r="AN61">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AO61">
-        <v>2.5</v>
+        <v>1.22</v>
       </c>
       <c r="AP61">
-        <v>2.14</v>
+        <v>1.77</v>
       </c>
       <c r="AQ61">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AR61">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="AS61">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="AT61">
-        <v>3.97</v>
+        <v>3.81</v>
       </c>
       <c r="AU61">
         <v>7</v>
@@ -13690,25 +13690,25 @@
         <v>1.46</v>
       </c>
       <c r="AN62">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AO62">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AP62">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="AR62">
-        <v>1.76</v>
+        <v>1.99</v>
       </c>
       <c r="AS62">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AT62">
-        <v>3.59</v>
+        <v>3.89</v>
       </c>
       <c r="AU62">
         <v>10</v>
@@ -13896,25 +13896,25 @@
         <v>2.68</v>
       </c>
       <c r="AN63">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AO63">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ63">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="AR63">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AS63">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="AT63">
-        <v>3.65</v>
+        <v>3.84</v>
       </c>
       <c r="AU63">
         <v>6</v>
@@ -14102,25 +14102,25 @@
         <v>1.15</v>
       </c>
       <c r="AN64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO64">
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>1.17</v>
+        <v>0.85</v>
       </c>
       <c r="AQ64">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR64">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AS64">
-        <v>2.22</v>
+        <v>2.03</v>
       </c>
       <c r="AT64">
-        <v>3.59</v>
+        <v>3.33</v>
       </c>
       <c r="AU64">
         <v>3</v>
@@ -14308,25 +14308,25 @@
         <v>1.17</v>
       </c>
       <c r="AN65">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AO65">
-        <v>0.6</v>
+        <v>1.45</v>
       </c>
       <c r="AP65">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
-        <v>0.57</v>
+        <v>1.21</v>
       </c>
       <c r="AR65">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="AS65">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="AT65">
-        <v>3.06</v>
+        <v>3.1</v>
       </c>
       <c r="AU65">
         <v>5</v>
@@ -14514,25 +14514,25 @@
         <v>2.65</v>
       </c>
       <c r="AN66">
-        <v>3</v>
+        <v>2.36</v>
       </c>
       <c r="AO66">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="AP66">
-        <v>2.71</v>
+        <v>2.36</v>
       </c>
       <c r="AQ66">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AR66">
+        <v>1.86</v>
+      </c>
+      <c r="AS66">
         <v>1.97</v>
       </c>
-      <c r="AS66">
-        <v>2.02</v>
-      </c>
       <c r="AT66">
-        <v>3.99</v>
+        <v>3.83</v>
       </c>
       <c r="AU66">
         <v>9</v>
@@ -14720,22 +14720,22 @@
         <v>1.85</v>
       </c>
       <c r="AN67">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="AO67">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AP67">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
       <c r="AQ67">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR67">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="AS67">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="AT67">
         <v>3.36</v>
@@ -14926,25 +14926,25 @@
         <v>2.85</v>
       </c>
       <c r="AN68">
-        <v>2.17</v>
+        <v>2.27</v>
       </c>
       <c r="AO68">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ68">
-        <v>1.33</v>
+        <v>1.77</v>
       </c>
       <c r="AR68">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="AS68">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="AT68">
-        <v>3.74</v>
+        <v>3.89</v>
       </c>
       <c r="AU68">
         <v>10</v>
@@ -15132,25 +15132,25 @@
         <v>2.45</v>
       </c>
       <c r="AN69">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AO69">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AP69">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AQ69">
-        <v>0.14</v>
+        <v>0.62</v>
       </c>
       <c r="AR69">
-        <v>2.15</v>
+        <v>1.89</v>
       </c>
       <c r="AS69">
-        <v>1.7</v>
+        <v>1.89</v>
       </c>
       <c r="AT69">
-        <v>3.85</v>
+        <v>3.78</v>
       </c>
       <c r="AU69">
         <v>6</v>
@@ -15338,25 +15338,25 @@
         <v>1.3</v>
       </c>
       <c r="AN70">
-        <v>1.5</v>
+        <v>0.91</v>
       </c>
       <c r="AO70">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AP70">
-        <v>1.17</v>
+        <v>0.85</v>
       </c>
       <c r="AQ70">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR70">
         <v>1.27</v>
       </c>
       <c r="AS70">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="AT70">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="AU70">
         <v>2</v>
@@ -15544,25 +15544,25 @@
         <v>1.25</v>
       </c>
       <c r="AN71">
-        <v>2.17</v>
+        <v>1.33</v>
       </c>
       <c r="AO71">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AP71">
-        <v>1.86</v>
+        <v>1.21</v>
       </c>
       <c r="AQ71">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="AR71">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AS71">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="AT71">
-        <v>3.56</v>
+        <v>3.82</v>
       </c>
       <c r="AU71">
         <v>4</v>
@@ -15750,25 +15750,25 @@
         <v>2.25</v>
       </c>
       <c r="AN72">
-        <v>0.2</v>
+        <v>1.09</v>
       </c>
       <c r="AO72">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="AP72">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="AQ72">
-        <v>0.14</v>
+        <v>0.62</v>
       </c>
       <c r="AR72">
         <v>1.93</v>
       </c>
       <c r="AS72">
-        <v>1.69</v>
+        <v>1.87</v>
       </c>
       <c r="AT72">
-        <v>3.62</v>
+        <v>3.8</v>
       </c>
       <c r="AU72">
         <v>7</v>
@@ -15956,25 +15956,25 @@
         <v>1.22</v>
       </c>
       <c r="AN73">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AO73">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="AP73">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ73">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="AR73">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AS73">
-        <v>1.62</v>
+        <v>1.81</v>
       </c>
       <c r="AT73">
-        <v>2.8</v>
+        <v>3.07</v>
       </c>
       <c r="AU73">
         <v>3</v>
@@ -16162,25 +16162,25 @@
         <v>1.36</v>
       </c>
       <c r="AN74">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="AO74">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AP74">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AQ74">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR74">
+        <v>1.89</v>
+      </c>
+      <c r="AS74">
         <v>2.07</v>
       </c>
-      <c r="AS74">
-        <v>2.06</v>
-      </c>
       <c r="AT74">
-        <v>4.13</v>
+        <v>3.96</v>
       </c>
       <c r="AU74">
         <v>2</v>
@@ -16368,25 +16368,25 @@
         <v>1.18</v>
       </c>
       <c r="AN75">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AO75">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AP75">
-        <v>2.14</v>
+        <v>1.77</v>
       </c>
       <c r="AQ75">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR75">
-        <v>1.99</v>
+        <v>1.79</v>
       </c>
       <c r="AS75">
-        <v>2.32</v>
+        <v>2.09</v>
       </c>
       <c r="AT75">
-        <v>4.31</v>
+        <v>3.88</v>
       </c>
       <c r="AU75">
         <v>7</v>
@@ -16574,25 +16574,25 @@
         <v>3</v>
       </c>
       <c r="AN76">
-        <v>2.67</v>
+        <v>2.31</v>
       </c>
       <c r="AO76">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>2.71</v>
+        <v>2.36</v>
       </c>
       <c r="AQ76">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR76">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AS76">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AT76">
-        <v>3.63</v>
+        <v>3.52</v>
       </c>
       <c r="AU76">
         <v>8</v>
@@ -16780,25 +16780,25 @@
         <v>1.66</v>
       </c>
       <c r="AN77">
-        <v>0.33</v>
+        <v>1.08</v>
       </c>
       <c r="AO77">
-        <v>0.5</v>
+        <v>1.23</v>
       </c>
       <c r="AP77">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="AQ77">
-        <v>0.57</v>
+        <v>1.21</v>
       </c>
       <c r="AR77">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="AS77">
-        <v>1.98</v>
+        <v>1.81</v>
       </c>
       <c r="AT77">
-        <v>3.87</v>
+        <v>3.72</v>
       </c>
       <c r="AU77">
         <v>7</v>
@@ -16986,25 +16986,25 @@
         <v>2.39</v>
       </c>
       <c r="AN78">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO78">
-        <v>1.4</v>
+        <v>1.08</v>
       </c>
       <c r="AP78">
-        <v>2.14</v>
+        <v>1.77</v>
       </c>
       <c r="AQ78">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR78">
-        <v>1.96</v>
+        <v>1.79</v>
       </c>
       <c r="AS78">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT78">
-        <v>3.32</v>
+        <v>3.04</v>
       </c>
       <c r="AU78">
         <v>10</v>
@@ -17192,25 +17192,25 @@
         <v>1.08</v>
       </c>
       <c r="AN79">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
       <c r="AO79">
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>1.17</v>
+        <v>0.85</v>
       </c>
       <c r="AQ79">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR79">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AS79">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="AT79">
-        <v>3.11</v>
+        <v>3.24</v>
       </c>
       <c r="AU79">
         <v>7</v>
@@ -17398,25 +17398,25 @@
         <v>3.48</v>
       </c>
       <c r="AN80">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AO80">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="AP80">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ80">
-        <v>0.14</v>
+        <v>0.62</v>
       </c>
       <c r="AR80">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="AS80">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="AT80">
-        <v>3.44</v>
+        <v>3.88</v>
       </c>
       <c r="AU80">
         <v>9</v>
@@ -17604,25 +17604,25 @@
         <v>1.9</v>
       </c>
       <c r="AN81">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO81">
-        <v>0.6</v>
+        <v>0.92</v>
       </c>
       <c r="AP81">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AQ81">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="AR81">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="AS81">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="AT81">
-        <v>3.71</v>
+        <v>3.7</v>
       </c>
       <c r="AU81">
         <v>4</v>
@@ -17810,52 +17810,52 @@
         <v>1.43</v>
       </c>
       <c r="AN82">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AO82">
-        <v>1.83</v>
+        <v>1.08</v>
       </c>
       <c r="AP82">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AQ82">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AR82">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="AS82">
         <v>1.93</v>
       </c>
       <c r="AT82">
-        <v>3.58</v>
+        <v>3.57</v>
       </c>
       <c r="AU82">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV82">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW82">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX82">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY82">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ82">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA82">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB82">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC82">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD82">
         <v>2.41</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.36</v>
+        <v>2.71</v>
       </c>
       <c r="AQ2">
-        <v>1.21</v>
+        <v>0.57</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ3">
-        <v>0.85</v>
+        <v>0.57</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1748,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.92</v>
+        <v>1.14</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1954,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ5">
-        <v>1.77</v>
+        <v>1.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.62</v>
+        <v>1.17</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
-        <v>1.62</v>
+        <v>1.43</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2572,19 +2572,19 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>1.21</v>
+        <v>1.86</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AR8">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AS8">
         <v>2.36</v>
       </c>
       <c r="AT8">
-        <v>3.94</v>
+        <v>2.36</v>
       </c>
       <c r="AU8">
         <v>3</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
-        <v>0.85</v>
+        <v>0.57</v>
       </c>
       <c r="AR9">
         <v>1.31</v>
@@ -2984,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.92</v>
+        <v>1.14</v>
       </c>
       <c r="AQ10">
-        <v>1.62</v>
+        <v>1.43</v>
       </c>
       <c r="AR10">
         <v>2.8</v>
@@ -3184,25 +3184,25 @@
         <v>1.53</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ11">
-        <v>1.77</v>
+        <v>1.33</v>
       </c>
       <c r="AR11">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="AS11">
         <v>1.04</v>
       </c>
       <c r="AT11">
-        <v>1.67</v>
+        <v>1.04</v>
       </c>
       <c r="AU11">
         <v>5</v>
@@ -3393,22 +3393,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.62</v>
+        <v>1.17</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR12">
         <v>1.36</v>
       </c>
       <c r="AS12">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>3.32</v>
+        <v>1.36</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -3599,22 +3599,22 @@
         <v>3</v>
       </c>
       <c r="AO13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ13">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>1.23</v>
       </c>
       <c r="AS13">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>2.77</v>
+        <v>1.23</v>
       </c>
       <c r="AU13">
         <v>6</v>
@@ -3805,22 +3805,22 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.21</v>
+        <v>1.86</v>
       </c>
       <c r="AQ14">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR14">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="AS14">
-        <v>2.27</v>
+        <v>2.58</v>
       </c>
       <c r="AT14">
-        <v>3.72</v>
+        <v>3.89</v>
       </c>
       <c r="AU14">
         <v>5</v>
@@ -4008,25 +4008,25 @@
         <v>1.32</v>
       </c>
       <c r="AN15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO15">
         <v>1.5</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ15">
-        <v>1.62</v>
+        <v>1.43</v>
       </c>
       <c r="AR15">
-        <v>0.92</v>
+        <v>1.21</v>
       </c>
       <c r="AS15">
         <v>1.58</v>
       </c>
       <c r="AT15">
-        <v>2.5</v>
+        <v>2.79</v>
       </c>
       <c r="AU15">
         <v>4</v>
@@ -4214,25 +4214,25 @@
         <v>2.3</v>
       </c>
       <c r="AN16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO16">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="AQ16">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AR16">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>3.81</v>
+        <v>0</v>
       </c>
       <c r="AU16">
         <v>3</v>
@@ -4426,10 +4426,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.92</v>
+        <v>1.14</v>
       </c>
       <c r="AQ17">
-        <v>0.85</v>
+        <v>0.57</v>
       </c>
       <c r="AR17">
         <v>2.26</v>
@@ -4626,25 +4626,25 @@
         <v>1.65</v>
       </c>
       <c r="AN18">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO18">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.77</v>
+        <v>2.14</v>
       </c>
       <c r="AQ18">
-        <v>0.62</v>
+        <v>0.14</v>
       </c>
       <c r="AR18">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="AU18">
         <v>11</v>
@@ -4835,22 +4835,22 @@
         <v>3</v>
       </c>
       <c r="AO19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.36</v>
+        <v>2.71</v>
       </c>
       <c r="AQ19">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AR19">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AS19">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="AT19">
-        <v>3.48</v>
+        <v>1.54</v>
       </c>
       <c r="AU19">
         <v>7</v>
@@ -5038,25 +5038,25 @@
         <v>1.53</v>
       </c>
       <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
         <v>1</v>
       </c>
-      <c r="AO20">
-        <v>0.33</v>
-      </c>
       <c r="AP20">
-        <v>0.85</v>
+        <v>1.17</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR20">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.01</v>
+        <v>0.63</v>
       </c>
       <c r="AT20">
-        <v>2.04</v>
+        <v>0.63</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5244,25 +5244,25 @@
         <v>1.48</v>
       </c>
       <c r="AN21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO21">
         <v>2</v>
       </c>
       <c r="AP21">
-        <v>1.77</v>
+        <v>2.14</v>
       </c>
       <c r="AQ21">
-        <v>1.62</v>
+        <v>1.43</v>
       </c>
       <c r="AR21">
-        <v>2.17</v>
+        <v>2.58</v>
       </c>
       <c r="AS21">
         <v>1.79</v>
       </c>
       <c r="AT21">
-        <v>3.96</v>
+        <v>4.37</v>
       </c>
       <c r="AU21">
         <v>6</v>
@@ -5453,22 +5453,22 @@
         <v>3</v>
       </c>
       <c r="AO22">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.36</v>
+        <v>2.71</v>
       </c>
       <c r="AQ22">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="AR22">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AS22">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AT22">
-        <v>3.62</v>
+        <v>1.78</v>
       </c>
       <c r="AU22">
         <v>11</v>
@@ -5656,25 +5656,25 @@
         <v>1.39</v>
       </c>
       <c r="AN23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="AQ23">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AR23">
-        <v>2.22</v>
+        <v>1.8</v>
       </c>
       <c r="AS23">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="AT23">
-        <v>4.06</v>
+        <v>3.5</v>
       </c>
       <c r="AU23">
         <v>6</v>
@@ -5862,25 +5862,25 @@
         <v>2.66</v>
       </c>
       <c r="AN24">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ24">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AR24">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AS24">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT24">
-        <v>3.49</v>
+        <v>3.54</v>
       </c>
       <c r="AU24">
         <v>3</v>
@@ -6068,25 +6068,25 @@
         <v>1.28</v>
       </c>
       <c r="AN25">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.62</v>
+        <v>1.17</v>
       </c>
       <c r="AQ25">
-        <v>1.21</v>
+        <v>0.57</v>
       </c>
       <c r="AR25">
-        <v>1.64</v>
+        <v>1.51</v>
       </c>
       <c r="AS25">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="AT25">
-        <v>3.11</v>
+        <v>3.09</v>
       </c>
       <c r="AU25">
         <v>6</v>
@@ -6274,25 +6274,25 @@
         <v>3</v>
       </c>
       <c r="AN26">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AO26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AQ26">
-        <v>0.85</v>
+        <v>0.57</v>
       </c>
       <c r="AR26">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.27</v>
+        <v>1.03</v>
       </c>
       <c r="AT26">
-        <v>3.07</v>
+        <v>1.03</v>
       </c>
       <c r="AU26">
         <v>7</v>
@@ -6480,25 +6480,25 @@
         <v>1.32</v>
       </c>
       <c r="AN27">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AO27">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AP27">
-        <v>0.92</v>
+        <v>1.14</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AR27">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="AS27">
-        <v>2.16</v>
+        <v>2.43</v>
       </c>
       <c r="AT27">
-        <v>3.98</v>
+        <v>4.34</v>
       </c>
       <c r="AU27">
         <v>5</v>
@@ -6692,19 +6692,19 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.21</v>
+        <v>1.86</v>
       </c>
       <c r="AQ28">
-        <v>1.77</v>
+        <v>1.33</v>
       </c>
       <c r="AR28">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AS28">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AT28">
-        <v>3.48</v>
+        <v>3.39</v>
       </c>
       <c r="AU28">
         <v>10</v>
@@ -6892,25 +6892,25 @@
         <v>1.85</v>
       </c>
       <c r="AN29">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO29">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ29">
-        <v>0.62</v>
+        <v>0.14</v>
       </c>
       <c r="AR29">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
       <c r="AS29">
-        <v>1.64</v>
+        <v>1.89</v>
       </c>
       <c r="AT29">
-        <v>3.15</v>
+        <v>3.27</v>
       </c>
       <c r="AU29">
         <v>9</v>
@@ -7098,25 +7098,25 @@
         <v>1.07</v>
       </c>
       <c r="AN30">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AO30">
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ30">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="AR30">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="AS30">
-        <v>1.93</v>
+        <v>1.58</v>
       </c>
       <c r="AT30">
-        <v>3.09</v>
+        <v>2.78</v>
       </c>
       <c r="AU30">
         <v>5</v>
@@ -7304,25 +7304,25 @@
         <v>2.03</v>
       </c>
       <c r="AN31">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AO31">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR31">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AS31">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="AT31">
-        <v>3.87</v>
+        <v>4</v>
       </c>
       <c r="AU31">
         <v>7</v>
@@ -7510,25 +7510,25 @@
         <v>2.25</v>
       </c>
       <c r="AN32">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AO32">
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.21</v>
+        <v>1.86</v>
       </c>
       <c r="AQ32">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AR32">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="AS32">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="AT32">
-        <v>3.23</v>
+        <v>3.38</v>
       </c>
       <c r="AU32">
         <v>3</v>
@@ -7716,25 +7716,25 @@
         <v>1.9</v>
       </c>
       <c r="AN33">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AO33">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="AP33">
-        <v>1.77</v>
+        <v>2.14</v>
       </c>
       <c r="AQ33">
-        <v>0.85</v>
+        <v>0.57</v>
       </c>
       <c r="AR33">
-        <v>1.96</v>
+        <v>2.09</v>
       </c>
       <c r="AS33">
-        <v>1.26</v>
+        <v>1.08</v>
       </c>
       <c r="AT33">
-        <v>3.22</v>
+        <v>3.17</v>
       </c>
       <c r="AU33">
         <v>12</v>
@@ -7922,25 +7922,25 @@
         <v>2.38</v>
       </c>
       <c r="AN34">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO34">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ34">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="AR34">
-        <v>1.96</v>
+        <v>1.75</v>
       </c>
       <c r="AS34">
-        <v>1.82</v>
+        <v>1.54</v>
       </c>
       <c r="AT34">
-        <v>3.78</v>
+        <v>3.29</v>
       </c>
       <c r="AU34">
         <v>5</v>
@@ -8128,25 +8128,25 @@
         <v>2.96</v>
       </c>
       <c r="AN35">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AO35">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR35">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="AS35">
         <v>1.13</v>
       </c>
       <c r="AT35">
-        <v>3.15</v>
+        <v>3.03</v>
       </c>
       <c r="AU35">
         <v>7</v>
@@ -8334,25 +8334,25 @@
         <v>1.12</v>
       </c>
       <c r="AN36">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AO36">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>0.62</v>
+        <v>1.17</v>
       </c>
       <c r="AQ36">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AR36">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AS36">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="AT36">
-        <v>3.63</v>
+        <v>3.54</v>
       </c>
       <c r="AU36">
         <v>9</v>
@@ -8540,25 +8540,25 @@
         <v>2.45</v>
       </c>
       <c r="AN37">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AO37">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AP37">
-        <v>2.36</v>
+        <v>2.71</v>
       </c>
       <c r="AQ37">
-        <v>1.62</v>
+        <v>1.43</v>
       </c>
       <c r="AR37">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="AS37">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AT37">
-        <v>3.86</v>
+        <v>3.85</v>
       </c>
       <c r="AU37">
         <v>4</v>
@@ -8746,25 +8746,25 @@
         <v>1.06</v>
       </c>
       <c r="AN38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO38">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>0.85</v>
+        <v>1.17</v>
       </c>
       <c r="AQ38">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="AR38">
-        <v>1.29</v>
+        <v>1.97</v>
       </c>
       <c r="AS38">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="AT38">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="AU38">
         <v>2</v>
@@ -8952,25 +8952,25 @@
         <v>1.73</v>
       </c>
       <c r="AN39">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO39">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AP39">
-        <v>0.92</v>
+        <v>1.14</v>
       </c>
       <c r="AQ39">
-        <v>0.62</v>
+        <v>0.14</v>
       </c>
       <c r="AR39">
-        <v>1.74</v>
+        <v>1.9</v>
       </c>
       <c r="AS39">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="AT39">
-        <v>3.43</v>
+        <v>3.53</v>
       </c>
       <c r="AU39">
         <v>8</v>
@@ -9158,25 +9158,25 @@
         <v>1.67</v>
       </c>
       <c r="AN40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO40">
-        <v>1.17</v>
+        <v>2.33</v>
       </c>
       <c r="AP40">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AR40">
-        <v>1.81</v>
+        <v>2.29</v>
       </c>
       <c r="AS40">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT40">
-        <v>3.87</v>
+        <v>4.4</v>
       </c>
       <c r="AU40">
         <v>6</v>
@@ -9364,25 +9364,25 @@
         <v>1.14</v>
       </c>
       <c r="AN41">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AO41">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR41">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="AS41">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="AT41">
-        <v>3.14</v>
+        <v>3.23</v>
       </c>
       <c r="AU41">
         <v>4</v>
@@ -9573,22 +9573,22 @@
         <v>2</v>
       </c>
       <c r="AO42">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
-        <v>1.21</v>
+        <v>0.57</v>
       </c>
       <c r="AR42">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="AS42">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="AT42">
-        <v>3.58</v>
+        <v>3.54</v>
       </c>
       <c r="AU42">
         <v>8</v>
@@ -9776,25 +9776,25 @@
         <v>1.57</v>
       </c>
       <c r="AN43">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AO43">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ43">
-        <v>1.77</v>
+        <v>1.33</v>
       </c>
       <c r="AR43">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="AS43">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT43">
-        <v>3.58</v>
+        <v>3.44</v>
       </c>
       <c r="AU43">
         <v>7</v>
@@ -9982,25 +9982,25 @@
         <v>2.3</v>
       </c>
       <c r="AN44">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AO44">
-        <v>0.86</v>
+        <v>0.6</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="AQ44">
-        <v>0.85</v>
+        <v>0.57</v>
       </c>
       <c r="AR44">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="AS44">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AT44">
-        <v>3.23</v>
+        <v>3.16</v>
       </c>
       <c r="AU44">
         <v>8</v>
@@ -10188,25 +10188,25 @@
         <v>1.11</v>
       </c>
       <c r="AN45">
-        <v>1.43</v>
+        <v>2</v>
       </c>
       <c r="AO45">
-        <v>2.57</v>
+        <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.77</v>
+        <v>2.14</v>
       </c>
       <c r="AQ45">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="AR45">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="AS45">
         <v>1.88</v>
       </c>
       <c r="AT45">
-        <v>3.85</v>
+        <v>4.02</v>
       </c>
       <c r="AU45">
         <v>3</v>
@@ -10394,25 +10394,25 @@
         <v>2.25</v>
       </c>
       <c r="AN46">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO46">
+        <v>1.8</v>
+      </c>
+      <c r="AP46">
+        <v>2.14</v>
+      </c>
+      <c r="AQ46">
+        <v>1.43</v>
+      </c>
+      <c r="AR46">
+        <v>1.74</v>
+      </c>
+      <c r="AS46">
         <v>1.71</v>
       </c>
-      <c r="AP46">
-        <v>2</v>
-      </c>
-      <c r="AQ46">
-        <v>1.62</v>
-      </c>
-      <c r="AR46">
-        <v>2.13</v>
-      </c>
-      <c r="AS46">
-        <v>1.89</v>
-      </c>
       <c r="AT46">
-        <v>4.02</v>
+        <v>3.45</v>
       </c>
       <c r="AU46">
         <v>6</v>
@@ -10600,25 +10600,25 @@
         <v>1.88</v>
       </c>
       <c r="AN47">
-        <v>1.43</v>
+        <v>1.75</v>
       </c>
       <c r="AO47">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.21</v>
+        <v>1.86</v>
       </c>
       <c r="AQ47">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="AR47">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AS47">
-        <v>1.73</v>
+        <v>1.42</v>
       </c>
       <c r="AT47">
-        <v>3.51</v>
+        <v>3.09</v>
       </c>
       <c r="AU47">
         <v>10</v>
@@ -10806,25 +10806,25 @@
         <v>1.3</v>
       </c>
       <c r="AN48">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="AO48">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AP48">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ48">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AR48">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="AS48">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT48">
-        <v>3.63</v>
+        <v>3.54</v>
       </c>
       <c r="AU48">
         <v>4</v>
@@ -11012,25 +11012,25 @@
         <v>1.65</v>
       </c>
       <c r="AN49">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AO49">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>0.62</v>
+        <v>1.17</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR49">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="AS49">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="AT49">
-        <v>2.99</v>
+        <v>3.04</v>
       </c>
       <c r="AU49">
         <v>10</v>
@@ -11218,25 +11218,25 @@
         <v>1.8</v>
       </c>
       <c r="AN50">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AO50">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ50">
-        <v>1.21</v>
+        <v>0.57</v>
       </c>
       <c r="AR50">
-        <v>2.08</v>
+        <v>1.74</v>
       </c>
       <c r="AS50">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="AT50">
-        <v>3.89</v>
+        <v>3.67</v>
       </c>
       <c r="AU50">
         <v>8</v>
@@ -11427,22 +11427,22 @@
         <v>2.25</v>
       </c>
       <c r="AO51">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="AP51">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="AR51">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="AS51">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="AT51">
-        <v>3.99</v>
+        <v>4.06</v>
       </c>
       <c r="AU51">
         <v>5</v>
@@ -11630,25 +11630,25 @@
         <v>1.9</v>
       </c>
       <c r="AN52">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AO52">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AP52">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AQ52">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AR52">
-        <v>1.91</v>
+        <v>2.33</v>
       </c>
       <c r="AS52">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AT52">
-        <v>3.53</v>
+        <v>3.92</v>
       </c>
       <c r="AU52">
         <v>7</v>
@@ -11836,25 +11836,25 @@
         <v>1.66</v>
       </c>
       <c r="AN53">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="AO53">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP53">
-        <v>0.92</v>
+        <v>1.14</v>
       </c>
       <c r="AQ53">
-        <v>1.77</v>
+        <v>1.33</v>
       </c>
       <c r="AR53">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="AS53">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AT53">
-        <v>3.7</v>
+        <v>3.71</v>
       </c>
       <c r="AU53">
         <v>8</v>
@@ -12042,25 +12042,25 @@
         <v>1.12</v>
       </c>
       <c r="AN54">
-        <v>0.88</v>
+        <v>1.5</v>
       </c>
       <c r="AO54">
-        <v>1.44</v>
+        <v>0.75</v>
       </c>
       <c r="AP54">
-        <v>0.85</v>
+        <v>1.17</v>
       </c>
       <c r="AQ54">
-        <v>1.21</v>
+        <v>0.57</v>
       </c>
       <c r="AR54">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="AS54">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="AT54">
-        <v>3.05</v>
+        <v>3.18</v>
       </c>
       <c r="AU54">
         <v>7</v>
@@ -12248,25 +12248,25 @@
         <v>4.15</v>
       </c>
       <c r="AN55">
-        <v>2.44</v>
+        <v>3</v>
       </c>
       <c r="AO55">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP55">
-        <v>2.36</v>
+        <v>2.71</v>
       </c>
       <c r="AQ55">
-        <v>0.62</v>
+        <v>0.14</v>
       </c>
       <c r="AR55">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AS55">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT55">
-        <v>3.72</v>
+        <v>3.63</v>
       </c>
       <c r="AU55">
         <v>10</v>
@@ -12454,25 +12454,25 @@
         <v>1.06</v>
       </c>
       <c r="AN56">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="AO56">
-        <v>2.11</v>
+        <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ56">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AR56">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="AS56">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="AT56">
-        <v>3.31</v>
+        <v>3.25</v>
       </c>
       <c r="AU56">
         <v>4</v>
@@ -12660,25 +12660,25 @@
         <v>1.38</v>
       </c>
       <c r="AN57">
-        <v>1.38</v>
+        <v>0.25</v>
       </c>
       <c r="AO57">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="AQ57">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR57">
         <v>2.05</v>
       </c>
       <c r="AS57">
-        <v>2.05</v>
+        <v>2.42</v>
       </c>
       <c r="AT57">
-        <v>4.1</v>
+        <v>4.47</v>
       </c>
       <c r="AU57">
         <v>8</v>
@@ -12866,25 +12866,25 @@
         <v>1.89</v>
       </c>
       <c r="AN58">
-        <v>0.44</v>
+        <v>0.8</v>
       </c>
       <c r="AO58">
-        <v>1.11</v>
+        <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>0.62</v>
+        <v>1.17</v>
       </c>
       <c r="AQ58">
-        <v>0.85</v>
+        <v>0.57</v>
       </c>
       <c r="AR58">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="AS58">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT58">
-        <v>3.12</v>
+        <v>3.19</v>
       </c>
       <c r="AU58">
         <v>11</v>
@@ -13072,25 +13072,25 @@
         <v>2.2</v>
       </c>
       <c r="AN59">
+        <v>1.4</v>
+      </c>
+      <c r="AO59">
+        <v>1</v>
+      </c>
+      <c r="AP59">
+        <v>1.43</v>
+      </c>
+      <c r="AQ59">
+        <v>1.17</v>
+      </c>
+      <c r="AR59">
+        <v>1.64</v>
+      </c>
+      <c r="AS59">
         <v>1.44</v>
       </c>
-      <c r="AO59">
-        <v>0.78</v>
-      </c>
-      <c r="AP59">
-        <v>1.36</v>
-      </c>
-      <c r="AQ59">
-        <v>1</v>
-      </c>
-      <c r="AR59">
-        <v>1.55</v>
-      </c>
-      <c r="AS59">
-        <v>1.29</v>
-      </c>
       <c r="AT59">
-        <v>2.84</v>
+        <v>3.08</v>
       </c>
       <c r="AU59">
         <v>6</v>
@@ -13278,25 +13278,25 @@
         <v>1.62</v>
       </c>
       <c r="AN60">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AO60">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="AP60">
-        <v>1.21</v>
+        <v>1.86</v>
       </c>
       <c r="AQ60">
-        <v>1.62</v>
+        <v>1.43</v>
       </c>
       <c r="AR60">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AS60">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="AT60">
-        <v>3.71</v>
+        <v>3.5</v>
       </c>
       <c r="AU60">
         <v>10</v>
@@ -13484,25 +13484,25 @@
         <v>1.5</v>
       </c>
       <c r="AN61">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AO61">
-        <v>1.22</v>
+        <v>2.5</v>
       </c>
       <c r="AP61">
-        <v>1.77</v>
+        <v>2.14</v>
       </c>
       <c r="AQ61">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AR61">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="AS61">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="AT61">
-        <v>3.81</v>
+        <v>3.97</v>
       </c>
       <c r="AU61">
         <v>7</v>
@@ -13690,25 +13690,25 @@
         <v>1.46</v>
       </c>
       <c r="AN62">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AO62">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ62">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="AR62">
-        <v>1.99</v>
+        <v>1.76</v>
       </c>
       <c r="AS62">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="AT62">
-        <v>3.89</v>
+        <v>3.59</v>
       </c>
       <c r="AU62">
         <v>10</v>
@@ -13896,25 +13896,25 @@
         <v>2.68</v>
       </c>
       <c r="AN63">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AO63">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AP63">
+        <v>2</v>
+      </c>
+      <c r="AQ63">
+        <v>0.67</v>
+      </c>
+      <c r="AR63">
         <v>1.93</v>
       </c>
-      <c r="AQ63">
-        <v>0.92</v>
-      </c>
-      <c r="AR63">
-        <v>2</v>
-      </c>
       <c r="AS63">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="AT63">
-        <v>3.84</v>
+        <v>3.65</v>
       </c>
       <c r="AU63">
         <v>6</v>
@@ -14102,25 +14102,25 @@
         <v>1.15</v>
       </c>
       <c r="AN64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO64">
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>0.85</v>
+        <v>1.17</v>
       </c>
       <c r="AQ64">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR64">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="AS64">
-        <v>2.03</v>
+        <v>2.22</v>
       </c>
       <c r="AT64">
-        <v>3.33</v>
+        <v>3.59</v>
       </c>
       <c r="AU64">
         <v>3</v>
@@ -14308,25 +14308,25 @@
         <v>1.17</v>
       </c>
       <c r="AN65">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AO65">
-        <v>1.45</v>
+        <v>0.6</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ65">
-        <v>1.21</v>
+        <v>0.57</v>
       </c>
       <c r="AR65">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="AS65">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AT65">
-        <v>3.1</v>
+        <v>3.06</v>
       </c>
       <c r="AU65">
         <v>5</v>
@@ -14514,25 +14514,25 @@
         <v>2.65</v>
       </c>
       <c r="AN66">
-        <v>2.36</v>
+        <v>3</v>
       </c>
       <c r="AO66">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="AP66">
-        <v>2.36</v>
+        <v>2.71</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AR66">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="AS66">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="AT66">
-        <v>3.83</v>
+        <v>3.99</v>
       </c>
       <c r="AU66">
         <v>9</v>
@@ -14720,22 +14720,22 @@
         <v>1.85</v>
       </c>
       <c r="AN67">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AO67">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>0.92</v>
+        <v>1.14</v>
       </c>
       <c r="AQ67">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AR67">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="AS67">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="AT67">
         <v>3.36</v>
@@ -14926,25 +14926,25 @@
         <v>2.85</v>
       </c>
       <c r="AN68">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AO68">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AP68">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
-        <v>1.77</v>
+        <v>1.33</v>
       </c>
       <c r="AR68">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="AS68">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT68">
-        <v>3.89</v>
+        <v>3.74</v>
       </c>
       <c r="AU68">
         <v>10</v>
@@ -15132,25 +15132,25 @@
         <v>2.45</v>
       </c>
       <c r="AN69">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AO69">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AQ69">
-        <v>0.62</v>
+        <v>0.14</v>
       </c>
       <c r="AR69">
-        <v>1.89</v>
+        <v>2.15</v>
       </c>
       <c r="AS69">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT69">
-        <v>3.78</v>
+        <v>3.85</v>
       </c>
       <c r="AU69">
         <v>6</v>
@@ -15338,25 +15338,25 @@
         <v>1.3</v>
       </c>
       <c r="AN70">
-        <v>0.91</v>
+        <v>1.5</v>
       </c>
       <c r="AO70">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AP70">
-        <v>0.85</v>
+        <v>1.17</v>
       </c>
       <c r="AQ70">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AR70">
         <v>1.27</v>
       </c>
       <c r="AS70">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="AT70">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="AU70">
         <v>2</v>
@@ -15544,25 +15544,25 @@
         <v>1.25</v>
       </c>
       <c r="AN71">
-        <v>1.33</v>
+        <v>2.17</v>
       </c>
       <c r="AO71">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="AP71">
-        <v>1.21</v>
+        <v>1.86</v>
       </c>
       <c r="AQ71">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="AR71">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AS71">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="AT71">
-        <v>3.82</v>
+        <v>3.56</v>
       </c>
       <c r="AU71">
         <v>4</v>
@@ -15750,25 +15750,25 @@
         <v>2.25</v>
       </c>
       <c r="AN72">
-        <v>1.09</v>
+        <v>0.2</v>
       </c>
       <c r="AO72">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="AP72">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="AQ72">
-        <v>0.62</v>
+        <v>0.14</v>
       </c>
       <c r="AR72">
         <v>1.93</v>
       </c>
       <c r="AS72">
-        <v>1.87</v>
+        <v>1.69</v>
       </c>
       <c r="AT72">
-        <v>3.8</v>
+        <v>3.62</v>
       </c>
       <c r="AU72">
         <v>7</v>
@@ -15956,25 +15956,25 @@
         <v>1.22</v>
       </c>
       <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
+        <v>0</v>
+      </c>
+      <c r="AP73">
+        <v>0.86</v>
+      </c>
+      <c r="AQ73">
+        <v>0.67</v>
+      </c>
+      <c r="AR73">
         <v>1.18</v>
       </c>
-      <c r="AO73">
-        <v>0.73</v>
-      </c>
-      <c r="AP73">
-        <v>1</v>
-      </c>
-      <c r="AQ73">
-        <v>0.92</v>
-      </c>
-      <c r="AR73">
-        <v>1.26</v>
-      </c>
       <c r="AS73">
-        <v>1.81</v>
+        <v>1.62</v>
       </c>
       <c r="AT73">
-        <v>3.07</v>
+        <v>2.8</v>
       </c>
       <c r="AU73">
         <v>3</v>
@@ -16162,25 +16162,25 @@
         <v>1.36</v>
       </c>
       <c r="AN74">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="AO74">
-        <v>2.17</v>
+        <v>2.4</v>
       </c>
       <c r="AP74">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AQ74">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AR74">
-        <v>1.89</v>
+        <v>2.07</v>
       </c>
       <c r="AS74">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="AT74">
-        <v>3.96</v>
+        <v>4.13</v>
       </c>
       <c r="AU74">
         <v>2</v>
@@ -16368,25 +16368,25 @@
         <v>1.18</v>
       </c>
       <c r="AN75">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="AO75">
-        <v>2.08</v>
+        <v>2.17</v>
       </c>
       <c r="AP75">
-        <v>1.77</v>
+        <v>2.14</v>
       </c>
       <c r="AQ75">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR75">
-        <v>1.79</v>
+        <v>1.99</v>
       </c>
       <c r="AS75">
-        <v>2.09</v>
+        <v>2.32</v>
       </c>
       <c r="AT75">
-        <v>3.88</v>
+        <v>4.31</v>
       </c>
       <c r="AU75">
         <v>7</v>
@@ -16574,25 +16574,25 @@
         <v>3</v>
       </c>
       <c r="AN76">
-        <v>2.31</v>
+        <v>2.67</v>
       </c>
       <c r="AO76">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP76">
-        <v>2.36</v>
+        <v>2.71</v>
       </c>
       <c r="AQ76">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AR76">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="AS76">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT76">
-        <v>3.52</v>
+        <v>3.63</v>
       </c>
       <c r="AU76">
         <v>8</v>
@@ -16780,25 +16780,25 @@
         <v>1.66</v>
       </c>
       <c r="AN77">
-        <v>1.08</v>
+        <v>0.33</v>
       </c>
       <c r="AO77">
-        <v>1.23</v>
+        <v>0.5</v>
       </c>
       <c r="AP77">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="AQ77">
-        <v>1.21</v>
+        <v>0.57</v>
       </c>
       <c r="AR77">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="AS77">
-        <v>1.81</v>
+        <v>1.98</v>
       </c>
       <c r="AT77">
-        <v>3.72</v>
+        <v>3.87</v>
       </c>
       <c r="AU77">
         <v>7</v>
@@ -16986,25 +16986,25 @@
         <v>2.39</v>
       </c>
       <c r="AN78">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO78">
-        <v>1.08</v>
+        <v>1.4</v>
       </c>
       <c r="AP78">
-        <v>1.77</v>
+        <v>2.14</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR78">
-        <v>1.79</v>
+        <v>1.96</v>
       </c>
       <c r="AS78">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AT78">
-        <v>3.04</v>
+        <v>3.32</v>
       </c>
       <c r="AU78">
         <v>10</v>
@@ -17192,25 +17192,25 @@
         <v>1.08</v>
       </c>
       <c r="AN79">
-        <v>0.83</v>
+        <v>1.2</v>
       </c>
       <c r="AO79">
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>0.85</v>
+        <v>1.17</v>
       </c>
       <c r="AQ79">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AR79">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AS79">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="AT79">
-        <v>3.24</v>
+        <v>3.11</v>
       </c>
       <c r="AU79">
         <v>7</v>
@@ -17398,25 +17398,25 @@
         <v>3.48</v>
       </c>
       <c r="AN80">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AO80">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="AP80">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ80">
-        <v>0.62</v>
+        <v>0.14</v>
       </c>
       <c r="AR80">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="AS80">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="AT80">
-        <v>3.88</v>
+        <v>3.44</v>
       </c>
       <c r="AU80">
         <v>9</v>
@@ -17604,25 +17604,25 @@
         <v>1.9</v>
       </c>
       <c r="AN81">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO81">
-        <v>0.92</v>
+        <v>0.6</v>
       </c>
       <c r="AP81">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AQ81">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="AR81">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="AS81">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AT81">
-        <v>3.7</v>
+        <v>3.71</v>
       </c>
       <c r="AU81">
         <v>4</v>
@@ -17810,25 +17810,25 @@
         <v>1.43</v>
       </c>
       <c r="AN82">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="AO82">
-        <v>1.08</v>
+        <v>1.83</v>
       </c>
       <c r="AP82">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AR82">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="AS82">
         <v>1.93</v>
       </c>
       <c r="AT82">
-        <v>3.57</v>
+        <v>3.58</v>
       </c>
       <c r="AU82">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="209">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -638,6 +638,9 @@
   </si>
   <si>
     <t>['80']</t>
+  </si>
+  <si>
+    <t>['45', '75']</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP82"/>
+  <dimension ref="A1:BP83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5044,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
         <v>1.17</v>
@@ -5459,7 +5462,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ22">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>1.78</v>
@@ -7931,7 +7934,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ34">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>1.75</v>
@@ -8752,7 +8755,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
         <v>2</v>
@@ -10609,7 +10612,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ47">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.67</v>
@@ -12048,7 +12051,7 @@
         <v>0.75</v>
       </c>
       <c r="AP54">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
         <v>0.57</v>
@@ -13905,7 +13908,7 @@
         <v>2</v>
       </c>
       <c r="AQ63">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <v>1.93</v>
@@ -14108,7 +14111,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
         <v>1.86</v>
@@ -15344,7 +15347,7 @@
         <v>1.2</v>
       </c>
       <c r="AP70">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ70">
         <v>1.29</v>
@@ -15965,7 +15968,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ73">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR73">
         <v>1.18</v>
@@ -17198,7 +17201,7 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ79">
         <v>1.86</v>
@@ -17613,7 +17616,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ81">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR81">
         <v>1.86</v>
@@ -17895,6 +17898,212 @@
       </c>
       <c r="BP82">
         <v>1.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7294800</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45487.45833333334</v>
+      </c>
+      <c r="F83">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s">
+        <v>80</v>
+      </c>
+      <c r="H83" t="s">
+        <v>72</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+      <c r="O83" t="s">
+        <v>91</v>
+      </c>
+      <c r="P83" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q83">
+        <v>3.75</v>
+      </c>
+      <c r="R83">
+        <v>2.5</v>
+      </c>
+      <c r="S83">
+        <v>2.3</v>
+      </c>
+      <c r="T83">
+        <v>1.25</v>
+      </c>
+      <c r="U83">
+        <v>3.75</v>
+      </c>
+      <c r="V83">
+        <v>2.1</v>
+      </c>
+      <c r="W83">
+        <v>1.67</v>
+      </c>
+      <c r="X83">
+        <v>4.5</v>
+      </c>
+      <c r="Y83">
+        <v>1.17</v>
+      </c>
+      <c r="Z83">
+        <v>3.33</v>
+      </c>
+      <c r="AA83">
+        <v>3.65</v>
+      </c>
+      <c r="AB83">
+        <v>1.9</v>
+      </c>
+      <c r="AC83">
+        <v>1.01</v>
+      </c>
+      <c r="AD83">
+        <v>10.5</v>
+      </c>
+      <c r="AE83">
+        <v>1.1</v>
+      </c>
+      <c r="AF83">
+        <v>5.45</v>
+      </c>
+      <c r="AG83">
+        <v>1.4</v>
+      </c>
+      <c r="AH83">
+        <v>2.75</v>
+      </c>
+      <c r="AI83">
+        <v>1.5</v>
+      </c>
+      <c r="AJ83">
+        <v>2.5</v>
+      </c>
+      <c r="AK83">
+        <v>1.78</v>
+      </c>
+      <c r="AL83">
+        <v>1.24</v>
+      </c>
+      <c r="AM83">
+        <v>1.27</v>
+      </c>
+      <c r="AN83">
+        <v>1.17</v>
+      </c>
+      <c r="AO83">
+        <v>0.67</v>
+      </c>
+      <c r="AP83">
+        <v>1</v>
+      </c>
+      <c r="AQ83">
+        <v>1</v>
+      </c>
+      <c r="AR83">
+        <v>1.3</v>
+      </c>
+      <c r="AS83">
+        <v>1.81</v>
+      </c>
+      <c r="AT83">
+        <v>3.11</v>
+      </c>
+      <c r="AU83">
+        <v>2</v>
+      </c>
+      <c r="AV83">
+        <v>8</v>
+      </c>
+      <c r="AW83">
+        <v>8</v>
+      </c>
+      <c r="AX83">
+        <v>6</v>
+      </c>
+      <c r="AY83">
+        <v>10</v>
+      </c>
+      <c r="AZ83">
+        <v>14</v>
+      </c>
+      <c r="BA83">
+        <v>4</v>
+      </c>
+      <c r="BB83">
+        <v>1</v>
+      </c>
+      <c r="BC83">
+        <v>5</v>
+      </c>
+      <c r="BD83">
+        <v>2.84</v>
+      </c>
+      <c r="BE83">
+        <v>7.4</v>
+      </c>
+      <c r="BF83">
+        <v>1.62</v>
+      </c>
+      <c r="BG83">
+        <v>0</v>
+      </c>
+      <c r="BH83">
+        <v>0</v>
+      </c>
+      <c r="BI83">
+        <v>1.12</v>
+      </c>
+      <c r="BJ83">
+        <v>5.1</v>
+      </c>
+      <c r="BK83">
+        <v>1.24</v>
+      </c>
+      <c r="BL83">
+        <v>3.48</v>
+      </c>
+      <c r="BM83">
+        <v>1.44</v>
+      </c>
+      <c r="BN83">
+        <v>2.51</v>
+      </c>
+      <c r="BO83">
+        <v>1.8</v>
+      </c>
+      <c r="BP83">
+        <v>1.91</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="212">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -460,6 +460,12 @@
     <t>['78']</t>
   </si>
   <si>
+    <t>['16', '29', '85']</t>
+  </si>
+  <si>
+    <t>['12', '79', '85']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -641,6 +647,9 @@
   </si>
   <si>
     <t>['45', '75']</t>
+  </si>
+  <si>
+    <t>['33']</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP83"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1673,7 +1682,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1754,7 +1763,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ4">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1960,7 +1969,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ5">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2085,7 +2094,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2163,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ6">
         <v>1.57</v>
@@ -2497,7 +2506,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2909,7 +2918,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3115,7 +3124,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3196,7 +3205,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ11">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3399,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ12">
         <v>1.86</v>
@@ -3527,7 +3536,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3939,7 +3948,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4557,7 +4566,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4763,7 +4772,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5050,7 +5059,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5175,7 +5184,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5381,7 +5390,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5587,7 +5596,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5793,7 +5802,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -5999,7 +6008,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6077,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ25">
         <v>0.57</v>
@@ -6205,7 +6214,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6283,7 +6292,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
         <v>0.57</v>
@@ -6411,7 +6420,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q27">
         <v>3.35</v>
@@ -6617,7 +6626,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6698,7 +6707,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ28">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR28">
         <v>1.42</v>
@@ -7029,7 +7038,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -7235,7 +7244,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7441,7 +7450,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -8059,7 +8068,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8140,7 +8149,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ35">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.9</v>
@@ -8265,7 +8274,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8343,7 +8352,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ36">
         <v>1.86</v>
@@ -8677,7 +8686,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8883,7 +8892,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9089,7 +9098,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9167,7 +9176,7 @@
         <v>2.33</v>
       </c>
       <c r="AP40">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ40">
         <v>1.57</v>
@@ -9295,7 +9304,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9501,7 +9510,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9707,7 +9716,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9788,7 +9797,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ43">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR43">
         <v>1.57</v>
@@ -9913,7 +9922,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10119,7 +10128,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10325,7 +10334,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10737,7 +10746,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10943,7 +10952,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11021,10 +11030,10 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ49">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>1.73</v>
@@ -11149,7 +11158,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11561,7 +11570,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11639,7 +11648,7 @@
         <v>1.67</v>
       </c>
       <c r="AP52">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
         <v>1.29</v>
@@ -11767,7 +11776,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -11848,7 +11857,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ53">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR53">
         <v>1.86</v>
@@ -11973,7 +11982,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12179,7 +12188,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12385,7 +12394,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12591,7 +12600,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -12797,7 +12806,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -12875,7 +12884,7 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ58">
         <v>0.57</v>
@@ -13003,7 +13012,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13084,7 +13093,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ59">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR59">
         <v>1.64</v>
@@ -13209,7 +13218,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13415,7 +13424,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q61">
         <v>2.9</v>
@@ -13621,7 +13630,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13827,7 +13836,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q63">
         <v>1.84</v>
@@ -14033,7 +14042,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q64">
         <v>5.69</v>
@@ -14239,7 +14248,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q65">
         <v>4.4</v>
@@ -14445,7 +14454,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14651,7 +14660,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14857,7 +14866,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -14938,7 +14947,7 @@
         <v>2</v>
       </c>
       <c r="AQ68">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR68">
         <v>1.99</v>
@@ -15063,7 +15072,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q69">
         <v>1.85</v>
@@ -15141,7 +15150,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
         <v>0.14</v>
@@ -15269,7 +15278,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q70">
         <v>3.7</v>
@@ -15475,7 +15484,7 @@
         <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -15681,7 +15690,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15887,7 +15896,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q73">
         <v>3.85</v>
@@ -16171,7 +16180,7 @@
         <v>2.4</v>
       </c>
       <c r="AP74">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
         <v>1.86</v>
@@ -16299,7 +16308,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16505,7 +16514,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q76">
         <v>1.78</v>
@@ -16711,7 +16720,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q77">
         <v>2.54</v>
@@ -16998,7 +17007,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ78">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR78">
         <v>1.96</v>
@@ -17123,7 +17132,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q79">
         <v>5.9</v>
@@ -17535,7 +17544,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q81">
         <v>2.25</v>
@@ -17613,7 +17622,7 @@
         <v>0.6</v>
       </c>
       <c r="AP81">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -17947,7 +17956,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q83">
         <v>3.75</v>
@@ -18103,6 +18112,418 @@
         <v>1.8</v>
       </c>
       <c r="BP83">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7294870</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45488.67708333334</v>
+      </c>
+      <c r="F84">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s">
+        <v>74</v>
+      </c>
+      <c r="H84" t="s">
+        <v>79</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>3</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84" t="s">
+        <v>148</v>
+      </c>
+      <c r="P84" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q84">
+        <v>3.1</v>
+      </c>
+      <c r="R84">
+        <v>2.6</v>
+      </c>
+      <c r="S84">
+        <v>2.5</v>
+      </c>
+      <c r="T84">
+        <v>1.2</v>
+      </c>
+      <c r="U84">
+        <v>4.33</v>
+      </c>
+      <c r="V84">
+        <v>2</v>
+      </c>
+      <c r="W84">
+        <v>1.73</v>
+      </c>
+      <c r="X84">
+        <v>4</v>
+      </c>
+      <c r="Y84">
+        <v>1.22</v>
+      </c>
+      <c r="Z84">
+        <v>2.84</v>
+      </c>
+      <c r="AA84">
+        <v>3.9</v>
+      </c>
+      <c r="AB84">
+        <v>2.03</v>
+      </c>
+      <c r="AC84">
+        <v>1.01</v>
+      </c>
+      <c r="AD84">
+        <v>11.25</v>
+      </c>
+      <c r="AE84">
+        <v>1.07</v>
+      </c>
+      <c r="AF84">
+        <v>6.35</v>
+      </c>
+      <c r="AG84">
+        <v>1.33</v>
+      </c>
+      <c r="AH84">
+        <v>3</v>
+      </c>
+      <c r="AI84">
+        <v>1.36</v>
+      </c>
+      <c r="AJ84">
+        <v>3</v>
+      </c>
+      <c r="AK84">
+        <v>1.6</v>
+      </c>
+      <c r="AL84">
+        <v>1.2</v>
+      </c>
+      <c r="AM84">
+        <v>1.33</v>
+      </c>
+      <c r="AN84">
+        <v>1.17</v>
+      </c>
+      <c r="AO84">
+        <v>1.33</v>
+      </c>
+      <c r="AP84">
+        <v>1.43</v>
+      </c>
+      <c r="AQ84">
+        <v>1.14</v>
+      </c>
+      <c r="AR84">
+        <v>2.02</v>
+      </c>
+      <c r="AS84">
+        <v>1.63</v>
+      </c>
+      <c r="AT84">
+        <v>3.65</v>
+      </c>
+      <c r="AU84">
+        <v>8</v>
+      </c>
+      <c r="AV84">
+        <v>5</v>
+      </c>
+      <c r="AW84">
+        <v>3</v>
+      </c>
+      <c r="AX84">
+        <v>9</v>
+      </c>
+      <c r="AY84">
+        <v>11</v>
+      </c>
+      <c r="AZ84">
+        <v>14</v>
+      </c>
+      <c r="BA84">
+        <v>9</v>
+      </c>
+      <c r="BB84">
+        <v>7</v>
+      </c>
+      <c r="BC84">
+        <v>16</v>
+      </c>
+      <c r="BD84">
+        <v>2.34</v>
+      </c>
+      <c r="BE84">
+        <v>9</v>
+      </c>
+      <c r="BF84">
+        <v>1.75</v>
+      </c>
+      <c r="BG84">
+        <v>0</v>
+      </c>
+      <c r="BH84">
+        <v>0</v>
+      </c>
+      <c r="BI84">
+        <v>1.15</v>
+      </c>
+      <c r="BJ84">
+        <v>4.75</v>
+      </c>
+      <c r="BK84">
+        <v>1.21</v>
+      </c>
+      <c r="BL84">
+        <v>3.74</v>
+      </c>
+      <c r="BM84">
+        <v>1.38</v>
+      </c>
+      <c r="BN84">
+        <v>2.71</v>
+      </c>
+      <c r="BO84">
+        <v>1.73</v>
+      </c>
+      <c r="BP84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7294802</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45488.67708333334</v>
+      </c>
+      <c r="F85">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
+        <v>81</v>
+      </c>
+      <c r="H85" t="s">
+        <v>77</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>3</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>4</v>
+      </c>
+      <c r="O85" t="s">
+        <v>149</v>
+      </c>
+      <c r="P85" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q85">
+        <v>1.67</v>
+      </c>
+      <c r="R85">
+        <v>2.88</v>
+      </c>
+      <c r="S85">
+        <v>6.5</v>
+      </c>
+      <c r="T85">
+        <v>1.18</v>
+      </c>
+      <c r="U85">
+        <v>4.45</v>
+      </c>
+      <c r="V85">
+        <v>1.93</v>
+      </c>
+      <c r="W85">
+        <v>1.82</v>
+      </c>
+      <c r="X85">
+        <v>3.9</v>
+      </c>
+      <c r="Y85">
+        <v>1.23</v>
+      </c>
+      <c r="Z85">
+        <v>1.26</v>
+      </c>
+      <c r="AA85">
+        <v>5.55</v>
+      </c>
+      <c r="AB85">
+        <v>7.9</v>
+      </c>
+      <c r="AC85">
+        <v>1.01</v>
+      </c>
+      <c r="AD85">
+        <v>11.75</v>
+      </c>
+      <c r="AE85">
+        <v>1.06</v>
+      </c>
+      <c r="AF85">
+        <v>6.45</v>
+      </c>
+      <c r="AG85">
+        <v>1.3</v>
+      </c>
+      <c r="AH85">
+        <v>3.2</v>
+      </c>
+      <c r="AI85">
+        <v>1.61</v>
+      </c>
+      <c r="AJ85">
+        <v>2.25</v>
+      </c>
+      <c r="AK85">
+        <v>1.07</v>
+      </c>
+      <c r="AL85">
+        <v>1.1</v>
+      </c>
+      <c r="AM85">
+        <v>2.8</v>
+      </c>
+      <c r="AN85">
+        <v>1.83</v>
+      </c>
+      <c r="AO85">
+        <v>1.17</v>
+      </c>
+      <c r="AP85">
+        <v>2</v>
+      </c>
+      <c r="AQ85">
+        <v>1</v>
+      </c>
+      <c r="AR85">
+        <v>1.85</v>
+      </c>
+      <c r="AS85">
+        <v>1.38</v>
+      </c>
+      <c r="AT85">
+        <v>3.23</v>
+      </c>
+      <c r="AU85">
+        <v>7</v>
+      </c>
+      <c r="AV85">
+        <v>7</v>
+      </c>
+      <c r="AW85">
+        <v>16</v>
+      </c>
+      <c r="AX85">
+        <v>5</v>
+      </c>
+      <c r="AY85">
+        <v>23</v>
+      </c>
+      <c r="AZ85">
+        <v>12</v>
+      </c>
+      <c r="BA85">
+        <v>14</v>
+      </c>
+      <c r="BB85">
+        <v>2</v>
+      </c>
+      <c r="BC85">
+        <v>16</v>
+      </c>
+      <c r="BD85">
+        <v>1.08</v>
+      </c>
+      <c r="BE85">
+        <v>15</v>
+      </c>
+      <c r="BF85">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BG85">
+        <v>0</v>
+      </c>
+      <c r="BH85">
+        <v>0</v>
+      </c>
+      <c r="BI85">
+        <v>1.1</v>
+      </c>
+      <c r="BJ85">
+        <v>5.35</v>
+      </c>
+      <c r="BK85">
+        <v>1.22</v>
+      </c>
+      <c r="BL85">
+        <v>3.64</v>
+      </c>
+      <c r="BM85">
+        <v>1.4</v>
+      </c>
+      <c r="BN85">
+        <v>2.64</v>
+      </c>
+      <c r="BO85">
+        <v>1.8</v>
+      </c>
+      <c r="BP85">
         <v>1.91</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="217">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -466,6 +466,18 @@
     <t>['12', '79', '85']</t>
   </si>
   <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['79', '84']</t>
+  </si>
+  <si>
+    <t>['22', '38', '42', '47']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -650,6 +662,9 @@
   </si>
   <si>
     <t>['33']</t>
+  </si>
+  <si>
+    <t>['43', '70']</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1557,7 +1572,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ3">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1682,7 +1697,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1760,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -2094,7 +2109,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2175,7 +2190,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ6">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2378,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ7">
         <v>1.43</v>
@@ -2506,7 +2521,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2584,10 +2599,10 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2790,10 +2805,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ9">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR9">
         <v>1.31</v>
@@ -2918,7 +2933,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -2996,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ10">
         <v>1.43</v>
@@ -3124,7 +3139,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3202,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ11">
         <v>1.14</v>
@@ -3536,7 +3551,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3617,7 +3632,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR13">
         <v>1.23</v>
@@ -3820,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>1.86</v>
@@ -3948,7 +3963,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4026,7 +4041,7 @@
         <v>1.5</v>
       </c>
       <c r="AP15">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ15">
         <v>1.43</v>
@@ -4438,10 +4453,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ17">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR17">
         <v>2.26</v>
@@ -4566,7 +4581,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4647,7 +4662,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ18">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4772,7 +4787,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5184,7 +5199,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5390,7 +5405,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5596,7 +5611,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5802,7 +5817,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -6008,7 +6023,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6214,7 +6229,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6295,7 +6310,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6420,7 +6435,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q27">
         <v>3.35</v>
@@ -6498,10 +6513,10 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ27">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR27">
         <v>1.91</v>
@@ -6626,7 +6641,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6704,7 +6719,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>1.14</v>
@@ -6913,7 +6928,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ29">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR29">
         <v>1.38</v>
@@ -7038,7 +7053,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -7116,10 +7131,10 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ30">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR30">
         <v>1.2</v>
@@ -7244,7 +7259,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7322,7 +7337,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ31">
         <v>1.86</v>
@@ -7450,7 +7465,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7528,7 +7543,7 @@
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>1.29</v>
@@ -7737,7 +7752,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ33">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR33">
         <v>2.09</v>
@@ -8068,7 +8083,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8274,7 +8289,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8686,7 +8701,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8767,7 +8782,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR38">
         <v>1.97</v>
@@ -8892,7 +8907,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8970,10 +8985,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ39">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR39">
         <v>1.9</v>
@@ -9098,7 +9113,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9179,7 +9194,7 @@
         <v>2</v>
       </c>
       <c r="AQ40">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR40">
         <v>2.29</v>
@@ -9304,7 +9319,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9382,7 +9397,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ41">
         <v>1.86</v>
@@ -9510,7 +9525,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9588,7 +9603,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ42">
         <v>0.57</v>
@@ -9716,7 +9731,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9922,7 +9937,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10003,7 +10018,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ44">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR44">
         <v>2.01</v>
@@ -10128,7 +10143,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10209,7 +10224,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR45">
         <v>2.14</v>
@@ -10334,7 +10349,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10618,7 +10633,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -10746,7 +10761,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10952,7 +10967,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11158,7 +11173,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11442,10 +11457,10 @@
         <v>2.25</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR51">
         <v>2.1</v>
@@ -11570,7 +11585,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11776,7 +11791,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -11854,7 +11869,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ53">
         <v>1.14</v>
@@ -11982,7 +11997,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12188,7 +12203,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12269,7 +12284,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ55">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR55">
         <v>1.88</v>
@@ -12394,7 +12409,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12472,7 +12487,7 @@
         <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ56">
         <v>1.86</v>
@@ -12600,7 +12615,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -12806,7 +12821,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -12887,7 +12902,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ58">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR58">
         <v>1.94</v>
@@ -13012,7 +13027,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13218,7 +13233,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13296,7 +13311,7 @@
         <v>1.67</v>
       </c>
       <c r="AP60">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
         <v>1.43</v>
@@ -13424,7 +13439,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q61">
         <v>2.9</v>
@@ -13505,7 +13520,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ61">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR61">
         <v>1.93</v>
@@ -13630,7 +13645,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13711,7 +13726,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ62">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR62">
         <v>1.76</v>
@@ -13836,7 +13851,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q63">
         <v>1.84</v>
@@ -13914,7 +13929,7 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14042,7 +14057,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q64">
         <v>5.69</v>
@@ -14248,7 +14263,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q65">
         <v>4.4</v>
@@ -14326,7 +14341,7 @@
         <v>0.6</v>
       </c>
       <c r="AP65">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ65">
         <v>0.57</v>
@@ -14454,7 +14469,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14535,7 +14550,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ66">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR66">
         <v>1.97</v>
@@ -14660,7 +14675,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14738,7 +14753,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ67">
         <v>1.29</v>
@@ -14866,7 +14881,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -14944,7 +14959,7 @@
         <v>1.4</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ68">
         <v>1.14</v>
@@ -15072,7 +15087,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q69">
         <v>1.85</v>
@@ -15153,7 +15168,7 @@
         <v>2</v>
       </c>
       <c r="AQ69">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR69">
         <v>2.15</v>
@@ -15278,7 +15293,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q70">
         <v>3.7</v>
@@ -15484,7 +15499,7 @@
         <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -15562,10 +15577,10 @@
         <v>1.83</v>
       </c>
       <c r="AP71">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ71">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR71">
         <v>1.79</v>
@@ -15690,7 +15705,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15771,7 +15786,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ72">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR72">
         <v>1.93</v>
@@ -15896,7 +15911,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q73">
         <v>3.85</v>
@@ -15974,7 +15989,7 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ73">
         <v>1</v>
@@ -16308,7 +16323,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16514,7 +16529,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q76">
         <v>1.78</v>
@@ -16720,7 +16735,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q77">
         <v>2.54</v>
@@ -17132,7 +17147,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q79">
         <v>5.9</v>
@@ -17419,7 +17434,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ80">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR80">
         <v>1.86</v>
@@ -17544,7 +17559,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q81">
         <v>2.25</v>
@@ -17831,7 +17846,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ82">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR82">
         <v>1.65</v>
@@ -17956,7 +17971,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q83">
         <v>3.75</v>
@@ -18368,7 +18383,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q85">
         <v>1.67</v>
@@ -18525,6 +18540,830 @@
       </c>
       <c r="BP85">
         <v>1.91</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7294871</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45493.45833333334</v>
+      </c>
+      <c r="F86">
+        <v>15</v>
+      </c>
+      <c r="G86" t="s">
+        <v>77</v>
+      </c>
+      <c r="H86" t="s">
+        <v>80</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>2</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86" t="s">
+        <v>150</v>
+      </c>
+      <c r="P86" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q86">
+        <v>2.85</v>
+      </c>
+      <c r="R86">
+        <v>2.35</v>
+      </c>
+      <c r="S86">
+        <v>2.95</v>
+      </c>
+      <c r="T86">
+        <v>1.28</v>
+      </c>
+      <c r="U86">
+        <v>3.4</v>
+      </c>
+      <c r="V86">
+        <v>2.2</v>
+      </c>
+      <c r="W86">
+        <v>1.6</v>
+      </c>
+      <c r="X86">
+        <v>4.8</v>
+      </c>
+      <c r="Y86">
+        <v>1.16</v>
+      </c>
+      <c r="Z86">
+        <v>2.4</v>
+      </c>
+      <c r="AA86">
+        <v>3.65</v>
+      </c>
+      <c r="AB86">
+        <v>2.5</v>
+      </c>
+      <c r="AC86">
+        <v>1.02</v>
+      </c>
+      <c r="AD86">
+        <v>12</v>
+      </c>
+      <c r="AE86">
+        <v>1.17</v>
+      </c>
+      <c r="AF86">
+        <v>4.75</v>
+      </c>
+      <c r="AG86">
+        <v>1.43</v>
+      </c>
+      <c r="AH86">
+        <v>2.45</v>
+      </c>
+      <c r="AI86">
+        <v>1.44</v>
+      </c>
+      <c r="AJ86">
+        <v>2.65</v>
+      </c>
+      <c r="AK86">
+        <v>1.47</v>
+      </c>
+      <c r="AL86">
+        <v>1.2</v>
+      </c>
+      <c r="AM86">
+        <v>1.53</v>
+      </c>
+      <c r="AN86">
+        <v>0.86</v>
+      </c>
+      <c r="AO86">
+        <v>0.57</v>
+      </c>
+      <c r="AP86">
+        <v>0.88</v>
+      </c>
+      <c r="AQ86">
+        <v>0.63</v>
+      </c>
+      <c r="AR86">
+        <v>1.18</v>
+      </c>
+      <c r="AS86">
+        <v>1.27</v>
+      </c>
+      <c r="AT86">
+        <v>2.45</v>
+      </c>
+      <c r="AU86">
+        <v>5</v>
+      </c>
+      <c r="AV86">
+        <v>6</v>
+      </c>
+      <c r="AW86">
+        <v>8</v>
+      </c>
+      <c r="AX86">
+        <v>4</v>
+      </c>
+      <c r="AY86">
+        <v>13</v>
+      </c>
+      <c r="AZ86">
+        <v>10</v>
+      </c>
+      <c r="BA86">
+        <v>2</v>
+      </c>
+      <c r="BB86">
+        <v>9</v>
+      </c>
+      <c r="BC86">
+        <v>11</v>
+      </c>
+      <c r="BD86">
+        <v>2.35</v>
+      </c>
+      <c r="BE86">
+        <v>6.9</v>
+      </c>
+      <c r="BF86">
+        <v>1.87</v>
+      </c>
+      <c r="BG86">
+        <v>1.11</v>
+      </c>
+      <c r="BH86">
+        <v>5.5</v>
+      </c>
+      <c r="BI86">
+        <v>1.18</v>
+      </c>
+      <c r="BJ86">
+        <v>4.1</v>
+      </c>
+      <c r="BK86">
+        <v>1.35</v>
+      </c>
+      <c r="BL86">
+        <v>2.84</v>
+      </c>
+      <c r="BM86">
+        <v>1.6</v>
+      </c>
+      <c r="BN86">
+        <v>2.14</v>
+      </c>
+      <c r="BO86">
+        <v>2</v>
+      </c>
+      <c r="BP86">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7294872</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45493.55208333334</v>
+      </c>
+      <c r="F87">
+        <v>15</v>
+      </c>
+      <c r="G87" t="s">
+        <v>72</v>
+      </c>
+      <c r="H87" t="s">
+        <v>70</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87" t="s">
+        <v>151</v>
+      </c>
+      <c r="P87" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q87">
+        <v>3.75</v>
+      </c>
+      <c r="R87">
+        <v>2.45</v>
+      </c>
+      <c r="S87">
+        <v>2.25</v>
+      </c>
+      <c r="T87">
+        <v>1.25</v>
+      </c>
+      <c r="U87">
+        <v>3.75</v>
+      </c>
+      <c r="V87">
+        <v>2</v>
+      </c>
+      <c r="W87">
+        <v>1.72</v>
+      </c>
+      <c r="X87">
+        <v>4.33</v>
+      </c>
+      <c r="Y87">
+        <v>1.2</v>
+      </c>
+      <c r="Z87">
+        <v>3.65</v>
+      </c>
+      <c r="AA87">
+        <v>3.9</v>
+      </c>
+      <c r="AB87">
+        <v>1.8</v>
+      </c>
+      <c r="AC87">
+        <v>1.01</v>
+      </c>
+      <c r="AD87">
+        <v>11</v>
+      </c>
+      <c r="AE87">
+        <v>1.09</v>
+      </c>
+      <c r="AF87">
+        <v>5.65</v>
+      </c>
+      <c r="AG87">
+        <v>1.34</v>
+      </c>
+      <c r="AH87">
+        <v>2.75</v>
+      </c>
+      <c r="AI87">
+        <v>1.38</v>
+      </c>
+      <c r="AJ87">
+        <v>2.9</v>
+      </c>
+      <c r="AK87">
+        <v>1.95</v>
+      </c>
+      <c r="AL87">
+        <v>1.18</v>
+      </c>
+      <c r="AM87">
+        <v>1.2</v>
+      </c>
+      <c r="AN87">
+        <v>1.14</v>
+      </c>
+      <c r="AO87">
+        <v>2</v>
+      </c>
+      <c r="AP87">
+        <v>1.38</v>
+      </c>
+      <c r="AQ87">
+        <v>1.75</v>
+      </c>
+      <c r="AR87">
+        <v>1.92</v>
+      </c>
+      <c r="AS87">
+        <v>1.79</v>
+      </c>
+      <c r="AT87">
+        <v>3.71</v>
+      </c>
+      <c r="AU87">
+        <v>3</v>
+      </c>
+      <c r="AV87">
+        <v>8</v>
+      </c>
+      <c r="AW87">
+        <v>7</v>
+      </c>
+      <c r="AX87">
+        <v>8</v>
+      </c>
+      <c r="AY87">
+        <v>10</v>
+      </c>
+      <c r="AZ87">
+        <v>16</v>
+      </c>
+      <c r="BA87">
+        <v>4</v>
+      </c>
+      <c r="BB87">
+        <v>7</v>
+      </c>
+      <c r="BC87">
+        <v>11</v>
+      </c>
+      <c r="BD87">
+        <v>2.76</v>
+      </c>
+      <c r="BE87">
+        <v>7.1</v>
+      </c>
+      <c r="BF87">
+        <v>1.66</v>
+      </c>
+      <c r="BG87">
+        <v>1.1</v>
+      </c>
+      <c r="BH87">
+        <v>5.75</v>
+      </c>
+      <c r="BI87">
+        <v>1.17</v>
+      </c>
+      <c r="BJ87">
+        <v>4.25</v>
+      </c>
+      <c r="BK87">
+        <v>1.33</v>
+      </c>
+      <c r="BL87">
+        <v>2.93</v>
+      </c>
+      <c r="BM87">
+        <v>1.57</v>
+      </c>
+      <c r="BN87">
+        <v>2.19</v>
+      </c>
+      <c r="BO87">
+        <v>1.95</v>
+      </c>
+      <c r="BP87">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7294874</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45494.67708333334</v>
+      </c>
+      <c r="F88">
+        <v>15</v>
+      </c>
+      <c r="G88" t="s">
+        <v>76</v>
+      </c>
+      <c r="H88" t="s">
+        <v>74</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>2</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88" t="s">
+        <v>152</v>
+      </c>
+      <c r="P88" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q88">
+        <v>1.95</v>
+      </c>
+      <c r="R88">
+        <v>2.65</v>
+      </c>
+      <c r="S88">
+        <v>4.33</v>
+      </c>
+      <c r="T88">
+        <v>1.18</v>
+      </c>
+      <c r="U88">
+        <v>4.5</v>
+      </c>
+      <c r="V88">
+        <v>1.9</v>
+      </c>
+      <c r="W88">
+        <v>1.8</v>
+      </c>
+      <c r="X88">
+        <v>3.8</v>
+      </c>
+      <c r="Y88">
+        <v>1.24</v>
+      </c>
+      <c r="Z88">
+        <v>1.52</v>
+      </c>
+      <c r="AA88">
+        <v>4.5</v>
+      </c>
+      <c r="AB88">
+        <v>4.6</v>
+      </c>
+      <c r="AC88">
+        <v>1.01</v>
+      </c>
+      <c r="AD88">
+        <v>11.5</v>
+      </c>
+      <c r="AE88">
+        <v>1.06</v>
+      </c>
+      <c r="AF88">
+        <v>6.65</v>
+      </c>
+      <c r="AG88">
+        <v>1.3</v>
+      </c>
+      <c r="AH88">
+        <v>3.2</v>
+      </c>
+      <c r="AI88">
+        <v>1.4</v>
+      </c>
+      <c r="AJ88">
+        <v>2.8</v>
+      </c>
+      <c r="AK88">
+        <v>1.12</v>
+      </c>
+      <c r="AL88">
+        <v>1.15</v>
+      </c>
+      <c r="AM88">
+        <v>2.4</v>
+      </c>
+      <c r="AN88">
+        <v>1.86</v>
+      </c>
+      <c r="AO88">
+        <v>0.14</v>
+      </c>
+      <c r="AP88">
+        <v>2</v>
+      </c>
+      <c r="AQ88">
+        <v>0.13</v>
+      </c>
+      <c r="AR88">
+        <v>1.67</v>
+      </c>
+      <c r="AS88">
+        <v>1.57</v>
+      </c>
+      <c r="AT88">
+        <v>3.24</v>
+      </c>
+      <c r="AU88">
+        <v>7</v>
+      </c>
+      <c r="AV88">
+        <v>5</v>
+      </c>
+      <c r="AW88">
+        <v>9</v>
+      </c>
+      <c r="AX88">
+        <v>6</v>
+      </c>
+      <c r="AY88">
+        <v>16</v>
+      </c>
+      <c r="AZ88">
+        <v>11</v>
+      </c>
+      <c r="BA88">
+        <v>9</v>
+      </c>
+      <c r="BB88">
+        <v>1</v>
+      </c>
+      <c r="BC88">
+        <v>10</v>
+      </c>
+      <c r="BD88">
+        <v>1.45</v>
+      </c>
+      <c r="BE88">
+        <v>9.5</v>
+      </c>
+      <c r="BF88">
+        <v>3.18</v>
+      </c>
+      <c r="BG88">
+        <v>0</v>
+      </c>
+      <c r="BH88">
+        <v>0</v>
+      </c>
+      <c r="BI88">
+        <v>1.11</v>
+      </c>
+      <c r="BJ88">
+        <v>5.2</v>
+      </c>
+      <c r="BK88">
+        <v>1.24</v>
+      </c>
+      <c r="BL88">
+        <v>3.48</v>
+      </c>
+      <c r="BM88">
+        <v>1.42</v>
+      </c>
+      <c r="BN88">
+        <v>2.57</v>
+      </c>
+      <c r="BO88">
+        <v>1.92</v>
+      </c>
+      <c r="BP88">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7294875</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45494.67708333334</v>
+      </c>
+      <c r="F89">
+        <v>15</v>
+      </c>
+      <c r="G89" t="s">
+        <v>75</v>
+      </c>
+      <c r="H89" t="s">
+        <v>78</v>
+      </c>
+      <c r="I89">
+        <v>3</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>4</v>
+      </c>
+      <c r="L89">
+        <v>4</v>
+      </c>
+      <c r="M89">
+        <v>2</v>
+      </c>
+      <c r="N89">
+        <v>6</v>
+      </c>
+      <c r="O89" t="s">
+        <v>153</v>
+      </c>
+      <c r="P89" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q89">
+        <v>2</v>
+      </c>
+      <c r="R89">
+        <v>2.65</v>
+      </c>
+      <c r="S89">
+        <v>4.2</v>
+      </c>
+      <c r="T89">
+        <v>1.2</v>
+      </c>
+      <c r="U89">
+        <v>4.33</v>
+      </c>
+      <c r="V89">
+        <v>1.9</v>
+      </c>
+      <c r="W89">
+        <v>1.8</v>
+      </c>
+      <c r="X89">
+        <v>3.5</v>
+      </c>
+      <c r="Y89">
+        <v>1.29</v>
+      </c>
+      <c r="Z89">
+        <v>1.57</v>
+      </c>
+      <c r="AA89">
+        <v>4.5</v>
+      </c>
+      <c r="AB89">
+        <v>4.35</v>
+      </c>
+      <c r="AC89">
+        <v>1.01</v>
+      </c>
+      <c r="AD89">
+        <v>11.5</v>
+      </c>
+      <c r="AE89">
+        <v>1.06</v>
+      </c>
+      <c r="AF89">
+        <v>7</v>
+      </c>
+      <c r="AG89">
+        <v>1.33</v>
+      </c>
+      <c r="AH89">
+        <v>3</v>
+      </c>
+      <c r="AI89">
+        <v>1.4</v>
+      </c>
+      <c r="AJ89">
+        <v>2.85</v>
+      </c>
+      <c r="AK89">
+        <v>1.15</v>
+      </c>
+      <c r="AL89">
+        <v>1.15</v>
+      </c>
+      <c r="AM89">
+        <v>2.3</v>
+      </c>
+      <c r="AN89">
+        <v>2</v>
+      </c>
+      <c r="AO89">
+        <v>1.57</v>
+      </c>
+      <c r="AP89">
+        <v>2.13</v>
+      </c>
+      <c r="AQ89">
+        <v>1.38</v>
+      </c>
+      <c r="AR89">
+        <v>2.07</v>
+      </c>
+      <c r="AS89">
+        <v>1.88</v>
+      </c>
+      <c r="AT89">
+        <v>3.95</v>
+      </c>
+      <c r="AU89">
+        <v>10</v>
+      </c>
+      <c r="AV89">
+        <v>8</v>
+      </c>
+      <c r="AW89">
+        <v>7</v>
+      </c>
+      <c r="AX89">
+        <v>8</v>
+      </c>
+      <c r="AY89">
+        <v>17</v>
+      </c>
+      <c r="AZ89">
+        <v>16</v>
+      </c>
+      <c r="BA89">
+        <v>6</v>
+      </c>
+      <c r="BB89">
+        <v>4</v>
+      </c>
+      <c r="BC89">
+        <v>10</v>
+      </c>
+      <c r="BD89">
+        <v>1.41</v>
+      </c>
+      <c r="BE89">
+        <v>9.5</v>
+      </c>
+      <c r="BF89">
+        <v>3.35</v>
+      </c>
+      <c r="BG89">
+        <v>0</v>
+      </c>
+      <c r="BH89">
+        <v>0</v>
+      </c>
+      <c r="BI89">
+        <v>1.1</v>
+      </c>
+      <c r="BJ89">
+        <v>5.3</v>
+      </c>
+      <c r="BK89">
+        <v>1.23</v>
+      </c>
+      <c r="BL89">
+        <v>3.56</v>
+      </c>
+      <c r="BM89">
+        <v>1.41</v>
+      </c>
+      <c r="BN89">
+        <v>2.6</v>
+      </c>
+      <c r="BO89">
+        <v>1.9</v>
+      </c>
+      <c r="BP89">
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="219">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -478,6 +478,9 @@
     <t>['22', '38', '42', '47']</t>
   </si>
   <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -665,6 +668,9 @@
   </si>
   <si>
     <t>['43', '70']</t>
+  </si>
+  <si>
+    <t>['68']</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP89"/>
+  <dimension ref="A1:BP90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1697,7 +1703,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1984,7 +1990,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ5">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2109,7 +2115,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2521,7 +2527,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2933,7 +2939,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3139,7 +3145,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3220,7 +3226,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ11">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3551,7 +3557,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3963,7 +3969,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4581,7 +4587,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4787,7 +4793,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5199,7 +5205,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5405,7 +5411,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5611,7 +5617,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5817,7 +5823,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -6023,7 +6029,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6229,7 +6235,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6307,7 +6313,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ26">
         <v>0.63</v>
@@ -6435,7 +6441,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q27">
         <v>3.35</v>
@@ -6641,7 +6647,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6722,7 +6728,7 @@
         <v>2</v>
       </c>
       <c r="AQ28">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR28">
         <v>1.42</v>
@@ -7053,7 +7059,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -7259,7 +7265,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7465,7 +7471,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -8083,7 +8089,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8289,7 +8295,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8701,7 +8707,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8907,7 +8913,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9113,7 +9119,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9191,7 +9197,7 @@
         <v>2.33</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ40">
         <v>1.38</v>
@@ -9319,7 +9325,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9525,7 +9531,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9731,7 +9737,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9812,7 +9818,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ43">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR43">
         <v>1.57</v>
@@ -9937,7 +9943,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10143,7 +10149,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10349,7 +10355,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10761,7 +10767,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10967,7 +10973,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11173,7 +11179,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11585,7 +11591,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11663,7 +11669,7 @@
         <v>1.67</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ52">
         <v>1.29</v>
@@ -11791,7 +11797,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -11872,7 +11878,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ53">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR53">
         <v>1.86</v>
@@ -11997,7 +12003,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12203,7 +12209,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12409,7 +12415,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12615,7 +12621,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -12821,7 +12827,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -13027,7 +13033,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13233,7 +13239,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13439,7 +13445,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q61">
         <v>2.9</v>
@@ -13645,7 +13651,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13851,7 +13857,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q63">
         <v>1.84</v>
@@ -14057,7 +14063,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q64">
         <v>5.69</v>
@@ -14263,7 +14269,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q65">
         <v>4.4</v>
@@ -14469,7 +14475,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14675,7 +14681,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14881,7 +14887,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -14962,7 +14968,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ68">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR68">
         <v>1.99</v>
@@ -15087,7 +15093,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q69">
         <v>1.85</v>
@@ -15165,7 +15171,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ69">
         <v>0.13</v>
@@ -15293,7 +15299,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q70">
         <v>3.7</v>
@@ -15499,7 +15505,7 @@
         <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -15705,7 +15711,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15911,7 +15917,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q73">
         <v>3.85</v>
@@ -16195,7 +16201,7 @@
         <v>2.4</v>
       </c>
       <c r="AP74">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ74">
         <v>1.86</v>
@@ -16323,7 +16329,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16529,7 +16535,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q76">
         <v>1.78</v>
@@ -16735,7 +16741,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q77">
         <v>2.54</v>
@@ -17147,7 +17153,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q79">
         <v>5.9</v>
@@ -17559,7 +17565,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q81">
         <v>2.25</v>
@@ -17637,7 +17643,7 @@
         <v>0.6</v>
       </c>
       <c r="AP81">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -17971,7 +17977,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q83">
         <v>3.75</v>
@@ -18258,7 +18264,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ84">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR84">
         <v>2.02</v>
@@ -18383,7 +18389,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q85">
         <v>1.67</v>
@@ -18461,7 +18467,7 @@
         <v>1.17</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ85">
         <v>1</v>
@@ -18589,7 +18595,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -19207,7 +19213,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -19364,6 +19370,212 @@
       </c>
       <c r="BP89">
         <v>1.9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7294876</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45495.67708333334</v>
+      </c>
+      <c r="F90">
+        <v>15</v>
+      </c>
+      <c r="G90" t="s">
+        <v>81</v>
+      </c>
+      <c r="H90" t="s">
+        <v>79</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90" t="s">
+        <v>154</v>
+      </c>
+      <c r="P90" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q90">
+        <v>2.1</v>
+      </c>
+      <c r="R90">
+        <v>2.78</v>
+      </c>
+      <c r="S90">
+        <v>4.44</v>
+      </c>
+      <c r="T90">
+        <v>1.2</v>
+      </c>
+      <c r="U90">
+        <v>4.25</v>
+      </c>
+      <c r="V90">
+        <v>1.99</v>
+      </c>
+      <c r="W90">
+        <v>1.82</v>
+      </c>
+      <c r="X90">
+        <v>4</v>
+      </c>
+      <c r="Y90">
+        <v>1.22</v>
+      </c>
+      <c r="Z90">
+        <v>1.65</v>
+      </c>
+      <c r="AA90">
+        <v>4</v>
+      </c>
+      <c r="AB90">
+        <v>3.9</v>
+      </c>
+      <c r="AC90">
+        <v>1.01</v>
+      </c>
+      <c r="AD90">
+        <v>11.25</v>
+      </c>
+      <c r="AE90">
+        <v>1.07</v>
+      </c>
+      <c r="AF90">
+        <v>6.2</v>
+      </c>
+      <c r="AG90">
+        <v>1.36</v>
+      </c>
+      <c r="AH90">
+        <v>2.9</v>
+      </c>
+      <c r="AI90">
+        <v>1.39</v>
+      </c>
+      <c r="AJ90">
+        <v>2.76</v>
+      </c>
+      <c r="AK90">
+        <v>1.17</v>
+      </c>
+      <c r="AL90">
+        <v>1.16</v>
+      </c>
+      <c r="AM90">
+        <v>2.15</v>
+      </c>
+      <c r="AN90">
+        <v>2</v>
+      </c>
+      <c r="AO90">
+        <v>1.14</v>
+      </c>
+      <c r="AP90">
+        <v>1.88</v>
+      </c>
+      <c r="AQ90">
+        <v>1.13</v>
+      </c>
+      <c r="AR90">
+        <v>1.94</v>
+      </c>
+      <c r="AS90">
+        <v>1.65</v>
+      </c>
+      <c r="AT90">
+        <v>3.59</v>
+      </c>
+      <c r="AU90">
+        <v>5</v>
+      </c>
+      <c r="AV90">
+        <v>3</v>
+      </c>
+      <c r="AW90">
+        <v>15</v>
+      </c>
+      <c r="AX90">
+        <v>9</v>
+      </c>
+      <c r="AY90">
+        <v>20</v>
+      </c>
+      <c r="AZ90">
+        <v>12</v>
+      </c>
+      <c r="BA90">
+        <v>9</v>
+      </c>
+      <c r="BB90">
+        <v>5</v>
+      </c>
+      <c r="BC90">
+        <v>14</v>
+      </c>
+      <c r="BD90">
+        <v>1.37</v>
+      </c>
+      <c r="BE90">
+        <v>10</v>
+      </c>
+      <c r="BF90">
+        <v>3.68</v>
+      </c>
+      <c r="BG90">
+        <v>0</v>
+      </c>
+      <c r="BH90">
+        <v>0</v>
+      </c>
+      <c r="BI90">
+        <v>1.12</v>
+      </c>
+      <c r="BJ90">
+        <v>5.1</v>
+      </c>
+      <c r="BK90">
+        <v>1.24</v>
+      </c>
+      <c r="BL90">
+        <v>3.48</v>
+      </c>
+      <c r="BM90">
+        <v>1.43</v>
+      </c>
+      <c r="BN90">
+        <v>2.54</v>
+      </c>
+      <c r="BO90">
+        <v>1.85</v>
+      </c>
+      <c r="BP90">
+        <v>1.95</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="225">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -481,6 +481,15 @@
     <t>['90+4']</t>
   </si>
   <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['9', '26', '32', '72']</t>
+  </si>
+  <si>
+    <t>['15', '40', '44', '77', '87']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -671,6 +680,15 @@
   </si>
   <si>
     <t>['68']</t>
+  </si>
+  <si>
+    <t>['82', '90+5']</t>
+  </si>
+  <si>
+    <t>['56', '80', '89']</t>
+  </si>
+  <si>
+    <t>['19']</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP90"/>
+  <dimension ref="A1:BP94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1369,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ2">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1575,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ3">
         <v>0.63</v>
@@ -1703,7 +1721,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1784,7 +1802,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2115,7 +2133,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2402,7 +2420,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ7">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2527,7 +2545,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2939,7 +2957,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3020,7 +3038,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ10">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR10">
         <v>2.8</v>
@@ -3145,7 +3163,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3432,7 +3450,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ12">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR12">
         <v>1.36</v>
@@ -3557,7 +3575,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3635,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ13">
         <v>1.75</v>
@@ -3844,7 +3862,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR14">
         <v>1.31</v>
@@ -3969,7 +3987,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4050,7 +4068,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ15">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR15">
         <v>1.21</v>
@@ -4587,7 +4605,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4665,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ18">
         <v>0.13</v>
@@ -4793,7 +4811,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4871,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ19">
         <v>1.86</v>
@@ -5077,10 +5095,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5205,7 +5223,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5283,10 +5301,10 @@
         <v>2</v>
       </c>
       <c r="AP21">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ21">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR21">
         <v>2.58</v>
@@ -5411,7 +5429,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5489,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5617,7 +5635,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5823,7 +5841,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -6029,7 +6047,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6110,7 +6128,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ25">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR25">
         <v>1.51</v>
@@ -6235,7 +6253,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6441,7 +6459,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q27">
         <v>3.35</v>
@@ -6647,7 +6665,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6931,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ29">
         <v>0.13</v>
@@ -7059,7 +7077,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -7265,7 +7283,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7346,7 +7364,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ31">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR31">
         <v>1.92</v>
@@ -7471,7 +7489,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7755,7 +7773,7 @@
         <v>0.75</v>
       </c>
       <c r="AP33">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ33">
         <v>0.63</v>
@@ -8089,7 +8107,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8170,7 +8188,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR35">
         <v>1.9</v>
@@ -8295,7 +8313,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8579,10 +8597,10 @@
         <v>2.25</v>
       </c>
       <c r="AP37">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ37">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR37">
         <v>2.05</v>
@@ -8707,7 +8725,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8785,7 +8803,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ38">
         <v>1.75</v>
@@ -8913,7 +8931,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9119,7 +9137,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9325,7 +9343,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9406,7 +9424,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ41">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR41">
         <v>1.13</v>
@@ -9531,7 +9549,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9612,7 +9630,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ42">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR42">
         <v>2.07</v>
@@ -9737,7 +9755,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9815,7 +9833,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ43">
         <v>1.13</v>
@@ -9943,7 +9961,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10149,7 +10167,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10227,7 +10245,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ45">
         <v>1.75</v>
@@ -10355,7 +10373,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10436,7 +10454,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ46">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR46">
         <v>1.74</v>
@@ -10767,7 +10785,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10845,7 +10863,7 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ48">
         <v>1.86</v>
@@ -10973,7 +10991,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11054,7 +11072,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR49">
         <v>1.73</v>
@@ -11179,7 +11197,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11260,7 +11278,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ50">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR50">
         <v>1.74</v>
@@ -11591,7 +11609,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11797,7 +11815,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -12003,7 +12021,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12081,10 +12099,10 @@
         <v>0.75</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ54">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR54">
         <v>1.32</v>
@@ -12209,7 +12227,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12287,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ55">
         <v>0.13</v>
@@ -12415,7 +12433,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12621,7 +12639,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -12702,7 +12720,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ57">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR57">
         <v>2.05</v>
@@ -12827,7 +12845,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -13033,7 +13051,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13111,10 +13129,10 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR59">
         <v>1.64</v>
@@ -13239,7 +13257,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13320,7 +13338,7 @@
         <v>2</v>
       </c>
       <c r="AQ60">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR60">
         <v>1.74</v>
@@ -13445,7 +13463,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q61">
         <v>2.9</v>
@@ -13523,7 +13541,7 @@
         <v>2.5</v>
       </c>
       <c r="AP61">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ61">
         <v>1.38</v>
@@ -13651,7 +13669,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13857,7 +13875,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q63">
         <v>1.84</v>
@@ -14063,7 +14081,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q64">
         <v>5.69</v>
@@ -14141,10 +14159,10 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ64">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR64">
         <v>1.37</v>
@@ -14269,7 +14287,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q65">
         <v>4.4</v>
@@ -14350,7 +14368,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ65">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR65">
         <v>1.16</v>
@@ -14475,7 +14493,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14553,7 +14571,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ66">
         <v>1.38</v>
@@ -14681,7 +14699,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14887,7 +14905,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -15093,7 +15111,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q69">
         <v>1.85</v>
@@ -15299,7 +15317,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q70">
         <v>3.7</v>
@@ -15377,7 +15395,7 @@
         <v>1.2</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ70">
         <v>1.29</v>
@@ -15505,7 +15523,7 @@
         <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -15711,7 +15729,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15917,7 +15935,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q73">
         <v>3.85</v>
@@ -16329,7 +16347,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16407,10 +16425,10 @@
         <v>2.17</v>
       </c>
       <c r="AP75">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ75">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR75">
         <v>1.99</v>
@@ -16535,7 +16553,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q76">
         <v>1.78</v>
@@ -16613,7 +16631,7 @@
         <v>1.5</v>
       </c>
       <c r="AP76">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ76">
         <v>1.29</v>
@@ -16741,7 +16759,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q77">
         <v>2.54</v>
@@ -16822,7 +16840,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ77">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR77">
         <v>1.89</v>
@@ -17025,10 +17043,10 @@
         <v>1.4</v>
       </c>
       <c r="AP78">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR78">
         <v>1.96</v>
@@ -17153,7 +17171,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q79">
         <v>5.9</v>
@@ -17231,7 +17249,7 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ79">
         <v>1.86</v>
@@ -17565,7 +17583,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q81">
         <v>2.25</v>
@@ -17849,7 +17867,7 @@
         <v>1.83</v>
       </c>
       <c r="AP82">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ82">
         <v>1.38</v>
@@ -17977,7 +17995,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q83">
         <v>3.75</v>
@@ -18055,7 +18073,7 @@
         <v>0.67</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ83">
         <v>1</v>
@@ -18389,7 +18407,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q85">
         <v>1.67</v>
@@ -18470,7 +18488,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR85">
         <v>1.85</v>
@@ -18595,7 +18613,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -19213,7 +19231,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -19419,7 +19437,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19575,6 +19593,830 @@
         <v>1.85</v>
       </c>
       <c r="BP90">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7294877</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45501.54166666666</v>
+      </c>
+      <c r="F91">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>80</v>
+      </c>
+      <c r="H91" t="s">
+        <v>81</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="O91" t="s">
+        <v>91</v>
+      </c>
+      <c r="P91" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q91">
+        <v>4.5</v>
+      </c>
+      <c r="R91">
+        <v>2.5</v>
+      </c>
+      <c r="S91">
+        <v>2</v>
+      </c>
+      <c r="T91">
+        <v>1.22</v>
+      </c>
+      <c r="U91">
+        <v>3.8</v>
+      </c>
+      <c r="V91">
+        <v>2.05</v>
+      </c>
+      <c r="W91">
+        <v>1.68</v>
+      </c>
+      <c r="X91">
+        <v>4.4</v>
+      </c>
+      <c r="Y91">
+        <v>1.19</v>
+      </c>
+      <c r="Z91">
+        <v>4.39</v>
+      </c>
+      <c r="AA91">
+        <v>4.39</v>
+      </c>
+      <c r="AB91">
+        <v>1.62</v>
+      </c>
+      <c r="AC91">
+        <v>1.01</v>
+      </c>
+      <c r="AD91">
+        <v>11</v>
+      </c>
+      <c r="AE91">
+        <v>1.11</v>
+      </c>
+      <c r="AF91">
+        <v>5.75</v>
+      </c>
+      <c r="AG91">
+        <v>1.36</v>
+      </c>
+      <c r="AH91">
+        <v>2.68</v>
+      </c>
+      <c r="AI91">
+        <v>1.47</v>
+      </c>
+      <c r="AJ91">
+        <v>2.55</v>
+      </c>
+      <c r="AK91">
+        <v>2.3</v>
+      </c>
+      <c r="AL91">
+        <v>1.16</v>
+      </c>
+      <c r="AM91">
+        <v>1.12</v>
+      </c>
+      <c r="AN91">
+        <v>1</v>
+      </c>
+      <c r="AO91">
+        <v>1.43</v>
+      </c>
+      <c r="AP91">
+        <v>0.88</v>
+      </c>
+      <c r="AQ91">
+        <v>1.63</v>
+      </c>
+      <c r="AR91">
+        <v>1.28</v>
+      </c>
+      <c r="AS91">
+        <v>1.78</v>
+      </c>
+      <c r="AT91">
+        <v>3.06</v>
+      </c>
+      <c r="AU91">
+        <v>4</v>
+      </c>
+      <c r="AV91">
+        <v>4</v>
+      </c>
+      <c r="AW91">
+        <v>3</v>
+      </c>
+      <c r="AX91">
+        <v>6</v>
+      </c>
+      <c r="AY91">
+        <v>7</v>
+      </c>
+      <c r="AZ91">
+        <v>10</v>
+      </c>
+      <c r="BA91">
+        <v>1</v>
+      </c>
+      <c r="BB91">
+        <v>8</v>
+      </c>
+      <c r="BC91">
+        <v>9</v>
+      </c>
+      <c r="BD91">
+        <v>3.3</v>
+      </c>
+      <c r="BE91">
+        <v>9.5</v>
+      </c>
+      <c r="BF91">
+        <v>1.45</v>
+      </c>
+      <c r="BG91">
+        <v>1.11</v>
+      </c>
+      <c r="BH91">
+        <v>5.5</v>
+      </c>
+      <c r="BI91">
+        <v>1.18</v>
+      </c>
+      <c r="BJ91">
+        <v>4.1</v>
+      </c>
+      <c r="BK91">
+        <v>1.35</v>
+      </c>
+      <c r="BL91">
+        <v>2.84</v>
+      </c>
+      <c r="BM91">
+        <v>1.61</v>
+      </c>
+      <c r="BN91">
+        <v>2.25</v>
+      </c>
+      <c r="BO91">
+        <v>1.98</v>
+      </c>
+      <c r="BP91">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7294878</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45501.58333333334</v>
+      </c>
+      <c r="F92">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>79</v>
+      </c>
+      <c r="H92" t="s">
+        <v>76</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>3</v>
+      </c>
+      <c r="N92">
+        <v>4</v>
+      </c>
+      <c r="O92" t="s">
+        <v>155</v>
+      </c>
+      <c r="P92" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q92">
+        <v>2.8</v>
+      </c>
+      <c r="R92">
+        <v>2.4</v>
+      </c>
+      <c r="S92">
+        <v>2.9</v>
+      </c>
+      <c r="T92">
+        <v>1.21</v>
+      </c>
+      <c r="U92">
+        <v>4.15</v>
+      </c>
+      <c r="V92">
+        <v>2</v>
+      </c>
+      <c r="W92">
+        <v>1.72</v>
+      </c>
+      <c r="X92">
+        <v>4.15</v>
+      </c>
+      <c r="Y92">
+        <v>1.21</v>
+      </c>
+      <c r="Z92">
+        <v>2.3</v>
+      </c>
+      <c r="AA92">
+        <v>3.6</v>
+      </c>
+      <c r="AB92">
+        <v>2.5</v>
+      </c>
+      <c r="AC92">
+        <v>1.01</v>
+      </c>
+      <c r="AD92">
+        <v>11.25</v>
+      </c>
+      <c r="AE92">
+        <v>1.08</v>
+      </c>
+      <c r="AF92">
+        <v>6.05</v>
+      </c>
+      <c r="AG92">
+        <v>1.36</v>
+      </c>
+      <c r="AH92">
+        <v>2.9</v>
+      </c>
+      <c r="AI92">
+        <v>1.33</v>
+      </c>
+      <c r="AJ92">
+        <v>3.1</v>
+      </c>
+      <c r="AK92">
+        <v>1.47</v>
+      </c>
+      <c r="AL92">
+        <v>1.2</v>
+      </c>
+      <c r="AM92">
+        <v>1.53</v>
+      </c>
+      <c r="AN92">
+        <v>2.14</v>
+      </c>
+      <c r="AO92">
+        <v>0.57</v>
+      </c>
+      <c r="AP92">
+        <v>1.88</v>
+      </c>
+      <c r="AQ92">
+        <v>0.88</v>
+      </c>
+      <c r="AR92">
+        <v>1.95</v>
+      </c>
+      <c r="AS92">
+        <v>1.86</v>
+      </c>
+      <c r="AT92">
+        <v>3.81</v>
+      </c>
+      <c r="AU92">
+        <v>7</v>
+      </c>
+      <c r="AV92">
+        <v>9</v>
+      </c>
+      <c r="AW92">
+        <v>7</v>
+      </c>
+      <c r="AX92">
+        <v>12</v>
+      </c>
+      <c r="AY92">
+        <v>14</v>
+      </c>
+      <c r="AZ92">
+        <v>21</v>
+      </c>
+      <c r="BA92">
+        <v>4</v>
+      </c>
+      <c r="BB92">
+        <v>5</v>
+      </c>
+      <c r="BC92">
+        <v>9</v>
+      </c>
+      <c r="BD92">
+        <v>2.1</v>
+      </c>
+      <c r="BE92">
+        <v>6.95</v>
+      </c>
+      <c r="BF92">
+        <v>2.06</v>
+      </c>
+      <c r="BG92">
+        <v>1.1</v>
+      </c>
+      <c r="BH92">
+        <v>5.75</v>
+      </c>
+      <c r="BI92">
+        <v>1.14</v>
+      </c>
+      <c r="BJ92">
+        <v>4.65</v>
+      </c>
+      <c r="BK92">
+        <v>1.28</v>
+      </c>
+      <c r="BL92">
+        <v>3.2</v>
+      </c>
+      <c r="BM92">
+        <v>1.53</v>
+      </c>
+      <c r="BN92">
+        <v>2.41</v>
+      </c>
+      <c r="BO92">
+        <v>2</v>
+      </c>
+      <c r="BP92">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7294873</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45501.67708333334</v>
+      </c>
+      <c r="F93">
+        <v>15</v>
+      </c>
+      <c r="G93" t="s">
+        <v>71</v>
+      </c>
+      <c r="H93" t="s">
+        <v>73</v>
+      </c>
+      <c r="I93">
+        <v>3</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>4</v>
+      </c>
+      <c r="L93">
+        <v>4</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>5</v>
+      </c>
+      <c r="O93" t="s">
+        <v>156</v>
+      </c>
+      <c r="P93" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q93">
+        <v>3.75</v>
+      </c>
+      <c r="R93">
+        <v>2.55</v>
+      </c>
+      <c r="S93">
+        <v>2.15</v>
+      </c>
+      <c r="T93">
+        <v>1.2</v>
+      </c>
+      <c r="U93">
+        <v>4.33</v>
+      </c>
+      <c r="V93">
+        <v>1.95</v>
+      </c>
+      <c r="W93">
+        <v>1.78</v>
+      </c>
+      <c r="X93">
+        <v>3.75</v>
+      </c>
+      <c r="Y93">
+        <v>1.25</v>
+      </c>
+      <c r="Z93">
+        <v>3.65</v>
+      </c>
+      <c r="AA93">
+        <v>4.1</v>
+      </c>
+      <c r="AB93">
+        <v>1.73</v>
+      </c>
+      <c r="AC93">
+        <v>1.01</v>
+      </c>
+      <c r="AD93">
+        <v>11.25</v>
+      </c>
+      <c r="AE93">
+        <v>1.07</v>
+      </c>
+      <c r="AF93">
+        <v>6.35</v>
+      </c>
+      <c r="AG93">
+        <v>1.33</v>
+      </c>
+      <c r="AH93">
+        <v>3</v>
+      </c>
+      <c r="AI93">
+        <v>1.36</v>
+      </c>
+      <c r="AJ93">
+        <v>3</v>
+      </c>
+      <c r="AK93">
+        <v>2</v>
+      </c>
+      <c r="AL93">
+        <v>1.16</v>
+      </c>
+      <c r="AM93">
+        <v>1.2</v>
+      </c>
+      <c r="AN93">
+        <v>1.43</v>
+      </c>
+      <c r="AO93">
+        <v>1.86</v>
+      </c>
+      <c r="AP93">
+        <v>1.63</v>
+      </c>
+      <c r="AQ93">
+        <v>1.63</v>
+      </c>
+      <c r="AR93">
+        <v>1.62</v>
+      </c>
+      <c r="AS93">
+        <v>2.27</v>
+      </c>
+      <c r="AT93">
+        <v>3.89</v>
+      </c>
+      <c r="AU93">
+        <v>6</v>
+      </c>
+      <c r="AV93">
+        <v>8</v>
+      </c>
+      <c r="AW93">
+        <v>7</v>
+      </c>
+      <c r="AX93">
+        <v>20</v>
+      </c>
+      <c r="AY93">
+        <v>13</v>
+      </c>
+      <c r="AZ93">
+        <v>28</v>
+      </c>
+      <c r="BA93">
+        <v>0</v>
+      </c>
+      <c r="BB93">
+        <v>8</v>
+      </c>
+      <c r="BC93">
+        <v>8</v>
+      </c>
+      <c r="BD93">
+        <v>3</v>
+      </c>
+      <c r="BE93">
+        <v>8.5</v>
+      </c>
+      <c r="BF93">
+        <v>1.51</v>
+      </c>
+      <c r="BG93">
+        <v>0</v>
+      </c>
+      <c r="BH93">
+        <v>0</v>
+      </c>
+      <c r="BI93">
+        <v>1.12</v>
+      </c>
+      <c r="BJ93">
+        <v>5</v>
+      </c>
+      <c r="BK93">
+        <v>1.25</v>
+      </c>
+      <c r="BL93">
+        <v>3.42</v>
+      </c>
+      <c r="BM93">
+        <v>1.44</v>
+      </c>
+      <c r="BN93">
+        <v>2.51</v>
+      </c>
+      <c r="BO93">
+        <v>1.77</v>
+      </c>
+      <c r="BP93">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7294879</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45501.67708333334</v>
+      </c>
+      <c r="F94">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>70</v>
+      </c>
+      <c r="H94" t="s">
+        <v>77</v>
+      </c>
+      <c r="I94">
+        <v>3</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>4</v>
+      </c>
+      <c r="L94">
+        <v>5</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>6</v>
+      </c>
+      <c r="O94" t="s">
+        <v>157</v>
+      </c>
+      <c r="P94" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q94">
+        <v>1.45</v>
+      </c>
+      <c r="R94">
+        <v>3.28</v>
+      </c>
+      <c r="S94">
+        <v>9</v>
+      </c>
+      <c r="T94">
+        <v>1.15</v>
+      </c>
+      <c r="U94">
+        <v>4.95</v>
+      </c>
+      <c r="V94">
+        <v>1.81</v>
+      </c>
+      <c r="W94">
+        <v>1.94</v>
+      </c>
+      <c r="X94">
+        <v>3.48</v>
+      </c>
+      <c r="Y94">
+        <v>1.28</v>
+      </c>
+      <c r="Z94">
+        <v>1.1</v>
+      </c>
+      <c r="AA94">
+        <v>7.5</v>
+      </c>
+      <c r="AB94">
+        <v>11</v>
+      </c>
+      <c r="AC94">
+        <v>1.01</v>
+      </c>
+      <c r="AD94">
+        <v>12</v>
+      </c>
+      <c r="AE94">
+        <v>1.04</v>
+      </c>
+      <c r="AF94">
+        <v>7.6</v>
+      </c>
+      <c r="AG94">
+        <v>1.25</v>
+      </c>
+      <c r="AH94">
+        <v>3.5</v>
+      </c>
+      <c r="AI94">
+        <v>1.76</v>
+      </c>
+      <c r="AJ94">
+        <v>1.95</v>
+      </c>
+      <c r="AK94">
+        <v>1.04</v>
+      </c>
+      <c r="AL94">
+        <v>1.07</v>
+      </c>
+      <c r="AM94">
+        <v>3.9</v>
+      </c>
+      <c r="AN94">
+        <v>2.71</v>
+      </c>
+      <c r="AO94">
+        <v>1</v>
+      </c>
+      <c r="AP94">
+        <v>2.75</v>
+      </c>
+      <c r="AQ94">
+        <v>0.88</v>
+      </c>
+      <c r="AR94">
+        <v>2</v>
+      </c>
+      <c r="AS94">
+        <v>1.48</v>
+      </c>
+      <c r="AT94">
+        <v>3.48</v>
+      </c>
+      <c r="AU94">
+        <v>18</v>
+      </c>
+      <c r="AV94">
+        <v>4</v>
+      </c>
+      <c r="AW94">
+        <v>9</v>
+      </c>
+      <c r="AX94">
+        <v>5</v>
+      </c>
+      <c r="AY94">
+        <v>27</v>
+      </c>
+      <c r="AZ94">
+        <v>9</v>
+      </c>
+      <c r="BA94">
+        <v>10</v>
+      </c>
+      <c r="BB94">
+        <v>3</v>
+      </c>
+      <c r="BC94">
+        <v>13</v>
+      </c>
+      <c r="BD94">
+        <v>1.01</v>
+      </c>
+      <c r="BE94">
+        <v>18</v>
+      </c>
+      <c r="BF94">
+        <v>17.25</v>
+      </c>
+      <c r="BG94">
+        <v>1.1</v>
+      </c>
+      <c r="BH94">
+        <v>5.75</v>
+      </c>
+      <c r="BI94">
+        <v>1.12</v>
+      </c>
+      <c r="BJ94">
+        <v>4.9</v>
+      </c>
+      <c r="BK94">
+        <v>1.26</v>
+      </c>
+      <c r="BL94">
+        <v>3.34</v>
+      </c>
+      <c r="BM94">
+        <v>1.46</v>
+      </c>
+      <c r="BN94">
+        <v>2.45</v>
+      </c>
+      <c r="BO94">
+        <v>1.85</v>
+      </c>
+      <c r="BP94">
         <v>1.95</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="227">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -490,6 +490,9 @@
     <t>['15', '40', '44', '77', '87']</t>
   </si>
   <si>
+    <t>['19', '90+5']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -689,6 +692,9 @@
   </si>
   <si>
     <t>['19']</t>
+  </si>
+  <si>
+    <t>['58', '71']</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP94"/>
+  <dimension ref="A1:BP95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1721,7 +1727,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -2133,7 +2139,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2545,7 +2551,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2957,7 +2963,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3163,7 +3169,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3575,7 +3581,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3987,7 +3993,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4271,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ16">
         <v>1.29</v>
@@ -4605,7 +4611,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4811,7 +4817,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5223,7 +5229,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5429,7 +5435,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5635,7 +5641,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5713,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ23">
         <v>1.86</v>
@@ -5841,7 +5847,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -6047,7 +6053,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6253,7 +6259,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6459,7 +6465,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q27">
         <v>3.35</v>
@@ -6665,7 +6671,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -7077,7 +7083,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -7283,7 +7289,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7489,7 +7495,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -8107,7 +8113,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8185,7 +8191,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ35">
         <v>0.88</v>
@@ -8313,7 +8319,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8725,7 +8731,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8931,7 +8937,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9137,7 +9143,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9343,7 +9349,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9549,7 +9555,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9755,7 +9761,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9961,7 +9967,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10039,7 +10045,7 @@
         <v>0.6</v>
       </c>
       <c r="AP44">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ44">
         <v>0.63</v>
@@ -10167,7 +10173,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10373,7 +10379,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10785,7 +10791,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10991,7 +10997,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11197,7 +11203,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11609,7 +11615,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11815,7 +11821,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -12021,7 +12027,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12227,7 +12233,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12433,7 +12439,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12639,7 +12645,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -12717,7 +12723,7 @@
         <v>1.75</v>
       </c>
       <c r="AP57">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ57">
         <v>1.63</v>
@@ -12845,7 +12851,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -13051,7 +13057,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13257,7 +13263,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13463,7 +13469,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q61">
         <v>2.9</v>
@@ -13669,7 +13675,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13875,7 +13881,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q63">
         <v>1.84</v>
@@ -14081,7 +14087,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q64">
         <v>5.69</v>
@@ -14287,7 +14293,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q65">
         <v>4.4</v>
@@ -14493,7 +14499,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14699,7 +14705,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14905,7 +14911,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -15111,7 +15117,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q69">
         <v>1.85</v>
@@ -15317,7 +15323,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q70">
         <v>3.7</v>
@@ -15523,7 +15529,7 @@
         <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -15729,7 +15735,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15807,7 +15813,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ72">
         <v>0.13</v>
@@ -15935,7 +15941,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q73">
         <v>3.85</v>
@@ -16347,7 +16353,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16553,7 +16559,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q76">
         <v>1.78</v>
@@ -16759,7 +16765,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q77">
         <v>2.54</v>
@@ -16837,7 +16843,7 @@
         <v>0.5</v>
       </c>
       <c r="AP77">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ77">
         <v>0.88</v>
@@ -17171,7 +17177,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q79">
         <v>5.9</v>
@@ -17583,7 +17589,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q81">
         <v>2.25</v>
@@ -17995,7 +18001,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q83">
         <v>3.75</v>
@@ -18407,7 +18413,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q85">
         <v>1.67</v>
@@ -18613,7 +18619,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -19231,7 +19237,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -19437,7 +19443,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19643,7 +19649,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -19849,7 +19855,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q92">
         <v>2.8</v>
@@ -20055,7 +20061,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q93">
         <v>3.75</v>
@@ -20261,7 +20267,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q94">
         <v>1.45</v>
@@ -20418,6 +20424,212 @@
       </c>
       <c r="BP94">
         <v>1.95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7294881</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45502.625</v>
+      </c>
+      <c r="F95">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>78</v>
+      </c>
+      <c r="H95" t="s">
+        <v>72</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <v>4</v>
+      </c>
+      <c r="O95" t="s">
+        <v>158</v>
+      </c>
+      <c r="P95" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q95">
+        <v>2.51</v>
+      </c>
+      <c r="R95">
+        <v>2.52</v>
+      </c>
+      <c r="S95">
+        <v>3.22</v>
+      </c>
+      <c r="T95">
+        <v>1.2</v>
+      </c>
+      <c r="U95">
+        <v>4</v>
+      </c>
+      <c r="V95">
+        <v>1.95</v>
+      </c>
+      <c r="W95">
+        <v>1.75</v>
+      </c>
+      <c r="X95">
+        <v>3.8</v>
+      </c>
+      <c r="Y95">
+        <v>1.22</v>
+      </c>
+      <c r="Z95">
+        <v>2.1</v>
+      </c>
+      <c r="AA95">
+        <v>3.8</v>
+      </c>
+      <c r="AB95">
+        <v>2.9</v>
+      </c>
+      <c r="AC95">
+        <v>1.01</v>
+      </c>
+      <c r="AD95">
+        <v>11.25</v>
+      </c>
+      <c r="AE95">
+        <v>1.09</v>
+      </c>
+      <c r="AF95">
+        <v>6</v>
+      </c>
+      <c r="AG95">
+        <v>1.3</v>
+      </c>
+      <c r="AH95">
+        <v>2.92</v>
+      </c>
+      <c r="AI95">
+        <v>1.34</v>
+      </c>
+      <c r="AJ95">
+        <v>2.98</v>
+      </c>
+      <c r="AK95">
+        <v>1.4</v>
+      </c>
+      <c r="AL95">
+        <v>1.25</v>
+      </c>
+      <c r="AM95">
+        <v>1.7</v>
+      </c>
+      <c r="AN95">
+        <v>0.43</v>
+      </c>
+      <c r="AO95">
+        <v>1</v>
+      </c>
+      <c r="AP95">
+        <v>0.5</v>
+      </c>
+      <c r="AQ95">
+        <v>1</v>
+      </c>
+      <c r="AR95">
+        <v>1.93</v>
+      </c>
+      <c r="AS95">
+        <v>1.81</v>
+      </c>
+      <c r="AT95">
+        <v>3.74</v>
+      </c>
+      <c r="AU95">
+        <v>8</v>
+      </c>
+      <c r="AV95">
+        <v>4</v>
+      </c>
+      <c r="AW95">
+        <v>9</v>
+      </c>
+      <c r="AX95">
+        <v>6</v>
+      </c>
+      <c r="AY95">
+        <v>17</v>
+      </c>
+      <c r="AZ95">
+        <v>10</v>
+      </c>
+      <c r="BA95">
+        <v>8</v>
+      </c>
+      <c r="BB95">
+        <v>6</v>
+      </c>
+      <c r="BC95">
+        <v>14</v>
+      </c>
+      <c r="BD95">
+        <v>1.63</v>
+      </c>
+      <c r="BE95">
+        <v>7.3</v>
+      </c>
+      <c r="BF95">
+        <v>2.82</v>
+      </c>
+      <c r="BG95">
+        <v>0</v>
+      </c>
+      <c r="BH95">
+        <v>0</v>
+      </c>
+      <c r="BI95">
+        <v>1.15</v>
+      </c>
+      <c r="BJ95">
+        <v>4.75</v>
+      </c>
+      <c r="BK95">
+        <v>1.22</v>
+      </c>
+      <c r="BL95">
+        <v>3.64</v>
+      </c>
+      <c r="BM95">
+        <v>1.41</v>
+      </c>
+      <c r="BN95">
+        <v>2.6</v>
+      </c>
+      <c r="BO95">
+        <v>1.68</v>
+      </c>
+      <c r="BP95">
+        <v>2.01</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="227">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1056,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP95"/>
+  <dimension ref="A1:BP96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ6">
         <v>1.38</v>
@@ -3453,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ12">
         <v>1.63</v>
@@ -4280,7 +4280,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ16">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5928,7 +5928,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ24">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR24">
         <v>1.96</v>
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ25">
         <v>0.88</v>
@@ -7576,7 +7576,7 @@
         <v>2</v>
       </c>
       <c r="AQ32">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR32">
         <v>1.74</v>
@@ -8397,7 +8397,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ36">
         <v>1.86</v>
@@ -11075,7 +11075,7 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ49">
         <v>0.88</v>
@@ -11696,7 +11696,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ52">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR52">
         <v>2.33</v>
@@ -12929,7 +12929,7 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ58">
         <v>0.63</v>
@@ -14786,7 +14786,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ67">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR67">
         <v>1.91</v>
@@ -15404,7 +15404,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ70">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR70">
         <v>1.27</v>
@@ -16640,7 +16640,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ76">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR76">
         <v>2.08</v>
@@ -18285,7 +18285,7 @@
         <v>1.33</v>
       </c>
       <c r="AP84">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ84">
         <v>1.13</v>
@@ -20630,6 +20630,212 @@
       </c>
       <c r="BP95">
         <v>2.01</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7294882</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45504.67708333334</v>
+      </c>
+      <c r="F96">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>74</v>
+      </c>
+      <c r="H96" t="s">
+        <v>71</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96" t="s">
+        <v>91</v>
+      </c>
+      <c r="P96" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q96">
+        <v>2.93</v>
+      </c>
+      <c r="R96">
+        <v>2.64</v>
+      </c>
+      <c r="S96">
+        <v>2.95</v>
+      </c>
+      <c r="T96">
+        <v>1.25</v>
+      </c>
+      <c r="U96">
+        <v>3.6</v>
+      </c>
+      <c r="V96">
+        <v>2.05</v>
+      </c>
+      <c r="W96">
+        <v>1.78</v>
+      </c>
+      <c r="X96">
+        <v>4.3</v>
+      </c>
+      <c r="Y96">
+        <v>1.18</v>
+      </c>
+      <c r="Z96">
+        <v>2.3</v>
+      </c>
+      <c r="AA96">
+        <v>3.65</v>
+      </c>
+      <c r="AB96">
+        <v>2.5</v>
+      </c>
+      <c r="AC96">
+        <v>1.01</v>
+      </c>
+      <c r="AD96">
+        <v>11</v>
+      </c>
+      <c r="AE96">
+        <v>1.11</v>
+      </c>
+      <c r="AF96">
+        <v>5.3</v>
+      </c>
+      <c r="AG96">
+        <v>1.4</v>
+      </c>
+      <c r="AH96">
+        <v>2.75</v>
+      </c>
+      <c r="AI96">
+        <v>1.36</v>
+      </c>
+      <c r="AJ96">
+        <v>3</v>
+      </c>
+      <c r="AK96">
+        <v>1.42</v>
+      </c>
+      <c r="AL96">
+        <v>1.23</v>
+      </c>
+      <c r="AM96">
+        <v>1.45</v>
+      </c>
+      <c r="AN96">
+        <v>1.43</v>
+      </c>
+      <c r="AO96">
+        <v>1.29</v>
+      </c>
+      <c r="AP96">
+        <v>1.38</v>
+      </c>
+      <c r="AQ96">
+        <v>1.25</v>
+      </c>
+      <c r="AR96">
+        <v>1.96</v>
+      </c>
+      <c r="AS96">
+        <v>1.63</v>
+      </c>
+      <c r="AT96">
+        <v>3.59</v>
+      </c>
+      <c r="AU96">
+        <v>4</v>
+      </c>
+      <c r="AV96">
+        <v>4</v>
+      </c>
+      <c r="AW96">
+        <v>6</v>
+      </c>
+      <c r="AX96">
+        <v>9</v>
+      </c>
+      <c r="AY96">
+        <v>10</v>
+      </c>
+      <c r="AZ96">
+        <v>13</v>
+      </c>
+      <c r="BA96">
+        <v>3</v>
+      </c>
+      <c r="BB96">
+        <v>9</v>
+      </c>
+      <c r="BC96">
+        <v>12</v>
+      </c>
+      <c r="BD96">
+        <v>1.95</v>
+      </c>
+      <c r="BE96">
+        <v>7</v>
+      </c>
+      <c r="BF96">
+        <v>2.22</v>
+      </c>
+      <c r="BG96">
+        <v>0</v>
+      </c>
+      <c r="BH96">
+        <v>0</v>
+      </c>
+      <c r="BI96">
+        <v>1.11</v>
+      </c>
+      <c r="BJ96">
+        <v>5.3</v>
+      </c>
+      <c r="BK96">
+        <v>1.23</v>
+      </c>
+      <c r="BL96">
+        <v>3.56</v>
+      </c>
+      <c r="BM96">
+        <v>1.41</v>
+      </c>
+      <c r="BN96">
+        <v>2.6</v>
+      </c>
+      <c r="BO96">
+        <v>1.7</v>
+      </c>
+      <c r="BP96">
+        <v>2.03</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -460,10 +460,10 @@
     <t>['78']</t>
   </si>
   <si>
+    <t>['12', '79', '85']</t>
+  </si>
+  <si>
     <t>['16', '29', '85']</t>
-  </si>
-  <si>
-    <t>['12', '79', '85']</t>
   </si>
   <si>
     <t>['13']</t>
@@ -18165,7 +18165,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>7294870</v>
+        <v>7294802</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
@@ -18180,16 +18180,16 @@
         <v>14</v>
       </c>
       <c r="G84" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H84" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84">
         <v>2</v>
@@ -18198,142 +18198,142 @@
         <v>3</v>
       </c>
       <c r="M84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O84" t="s">
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>91</v>
+        <v>220</v>
       </c>
       <c r="Q84">
-        <v>3.1</v>
+        <v>1.67</v>
       </c>
       <c r="R84">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="S84">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="T84">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="U84">
-        <v>4.33</v>
+        <v>4.45</v>
       </c>
       <c r="V84">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="W84">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="X84">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y84">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="Z84">
-        <v>2.84</v>
+        <v>1.26</v>
       </c>
       <c r="AA84">
-        <v>3.9</v>
+        <v>5.55</v>
       </c>
       <c r="AB84">
-        <v>2.03</v>
+        <v>7.9</v>
       </c>
       <c r="AC84">
         <v>1.01</v>
       </c>
       <c r="AD84">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AE84">
+        <v>1.06</v>
+      </c>
+      <c r="AF84">
+        <v>6.45</v>
+      </c>
+      <c r="AG84">
+        <v>1.3</v>
+      </c>
+      <c r="AH84">
+        <v>3.2</v>
+      </c>
+      <c r="AI84">
+        <v>1.61</v>
+      </c>
+      <c r="AJ84">
+        <v>2.25</v>
+      </c>
+      <c r="AK84">
         <v>1.07</v>
       </c>
-      <c r="AF84">
-        <v>6.35</v>
-      </c>
-      <c r="AG84">
-        <v>1.33</v>
-      </c>
-      <c r="AH84">
-        <v>3</v>
-      </c>
-      <c r="AI84">
-        <v>1.36</v>
-      </c>
-      <c r="AJ84">
-        <v>3</v>
-      </c>
-      <c r="AK84">
-        <v>1.6</v>
-      </c>
       <c r="AL84">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AM84">
-        <v>1.33</v>
+        <v>2.8</v>
       </c>
       <c r="AN84">
+        <v>1.83</v>
+      </c>
+      <c r="AO84">
         <v>1.17</v>
       </c>
-      <c r="AO84">
-        <v>1.33</v>
-      </c>
       <c r="AP84">
+        <v>1.88</v>
+      </c>
+      <c r="AQ84">
+        <v>0.88</v>
+      </c>
+      <c r="AR84">
+        <v>1.85</v>
+      </c>
+      <c r="AS84">
         <v>1.38</v>
       </c>
-      <c r="AQ84">
-        <v>1.13</v>
-      </c>
-      <c r="AR84">
-        <v>2.02</v>
-      </c>
-      <c r="AS84">
-        <v>1.63</v>
-      </c>
       <c r="AT84">
-        <v>3.65</v>
+        <v>3.23</v>
       </c>
       <c r="AU84">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV84">
+        <v>7</v>
+      </c>
+      <c r="AW84">
+        <v>16</v>
+      </c>
+      <c r="AX84">
         <v>5</v>
       </c>
-      <c r="AW84">
-        <v>3</v>
-      </c>
-      <c r="AX84">
-        <v>9</v>
-      </c>
       <c r="AY84">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AZ84">
+        <v>12</v>
+      </c>
+      <c r="BA84">
         <v>14</v>
       </c>
-      <c r="BA84">
-        <v>9</v>
-      </c>
       <c r="BB84">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BC84">
         <v>16</v>
       </c>
       <c r="BD84">
-        <v>2.34</v>
+        <v>1.08</v>
       </c>
       <c r="BE84">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BF84">
-        <v>1.75</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BG84">
         <v>0</v>
@@ -18342,28 +18342,28 @@
         <v>0</v>
       </c>
       <c r="BI84">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="BJ84">
-        <v>4.75</v>
+        <v>5.35</v>
       </c>
       <c r="BK84">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="BL84">
-        <v>3.74</v>
+        <v>3.64</v>
       </c>
       <c r="BM84">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="BN84">
-        <v>2.71</v>
+        <v>2.64</v>
       </c>
       <c r="BO84">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="BP84">
-        <v>2</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="85" spans="1:68">
@@ -18371,7 +18371,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>7294802</v>
+        <v>7294870</v>
       </c>
       <c r="C85" t="s">
         <v>68</v>
@@ -18386,16 +18386,16 @@
         <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H85" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85">
         <v>2</v>
@@ -18404,142 +18404,142 @@
         <v>3</v>
       </c>
       <c r="M85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O85" t="s">
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>220</v>
+        <v>91</v>
       </c>
       <c r="Q85">
-        <v>1.67</v>
+        <v>3.1</v>
       </c>
       <c r="R85">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="S85">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="T85">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="U85">
-        <v>4.45</v>
+        <v>4.33</v>
       </c>
       <c r="V85">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="W85">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="X85">
+        <v>4</v>
+      </c>
+      <c r="Y85">
+        <v>1.22</v>
+      </c>
+      <c r="Z85">
+        <v>2.84</v>
+      </c>
+      <c r="AA85">
         <v>3.9</v>
       </c>
-      <c r="Y85">
-        <v>1.23</v>
-      </c>
-      <c r="Z85">
-        <v>1.26</v>
-      </c>
-      <c r="AA85">
-        <v>5.55</v>
-      </c>
       <c r="AB85">
-        <v>7.9</v>
+        <v>2.03</v>
       </c>
       <c r="AC85">
         <v>1.01</v>
       </c>
       <c r="AD85">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AE85">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AF85">
-        <v>6.45</v>
+        <v>6.35</v>
       </c>
       <c r="AG85">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AH85">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AI85">
-        <v>1.61</v>
+        <v>1.36</v>
       </c>
       <c r="AJ85">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AK85">
-        <v>1.07</v>
+        <v>1.6</v>
       </c>
       <c r="AL85">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AM85">
-        <v>2.8</v>
+        <v>1.33</v>
       </c>
       <c r="AN85">
-        <v>1.83</v>
+        <v>1.17</v>
       </c>
       <c r="AO85">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AP85">
-        <v>1.88</v>
+        <v>1.38</v>
       </c>
       <c r="AQ85">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AR85">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="AS85">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="AT85">
-        <v>3.23</v>
+        <v>3.65</v>
       </c>
       <c r="AU85">
+        <v>8</v>
+      </c>
+      <c r="AV85">
+        <v>5</v>
+      </c>
+      <c r="AW85">
+        <v>3</v>
+      </c>
+      <c r="AX85">
+        <v>9</v>
+      </c>
+      <c r="AY85">
+        <v>11</v>
+      </c>
+      <c r="AZ85">
+        <v>14</v>
+      </c>
+      <c r="BA85">
+        <v>9</v>
+      </c>
+      <c r="BB85">
         <v>7</v>
-      </c>
-      <c r="AV85">
-        <v>7</v>
-      </c>
-      <c r="AW85">
-        <v>16</v>
-      </c>
-      <c r="AX85">
-        <v>5</v>
-      </c>
-      <c r="AY85">
-        <v>23</v>
-      </c>
-      <c r="AZ85">
-        <v>12</v>
-      </c>
-      <c r="BA85">
-        <v>14</v>
-      </c>
-      <c r="BB85">
-        <v>2</v>
       </c>
       <c r="BC85">
         <v>16</v>
       </c>
       <c r="BD85">
-        <v>1.08</v>
+        <v>2.34</v>
       </c>
       <c r="BE85">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BF85">
-        <v>8.800000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="BG85">
         <v>0</v>
@@ -18548,28 +18548,28 @@
         <v>0</v>
       </c>
       <c r="BI85">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="BJ85">
-        <v>5.35</v>
+        <v>4.75</v>
       </c>
       <c r="BK85">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="BL85">
-        <v>3.64</v>
+        <v>3.74</v>
       </c>
       <c r="BM85">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="BN85">
-        <v>2.64</v>
+        <v>2.71</v>
       </c>
       <c r="BO85">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="BP85">
-        <v>1.91</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="229">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -493,6 +493,9 @@
     <t>['19', '90+5']</t>
   </si>
   <si>
+    <t>['8', '11']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -695,6 +698,9 @@
   </si>
   <si>
     <t>['58', '71']</t>
+  </si>
+  <si>
+    <t>['2', '65', '80']</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1062,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP96"/>
+  <dimension ref="A1:BP97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1727,7 +1733,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -2139,7 +2145,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2551,7 +2557,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2963,7 +2969,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3169,7 +3175,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3581,7 +3587,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3662,7 +3668,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ13">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR13">
         <v>1.23</v>
@@ -3993,7 +3999,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4611,7 +4617,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4817,7 +4823,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5229,7 +5235,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5435,7 +5441,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5641,7 +5647,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5847,7 +5853,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -6053,7 +6059,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6259,7 +6265,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6337,7 +6343,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ26">
         <v>0.63</v>
@@ -6465,7 +6471,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q27">
         <v>3.35</v>
@@ -6671,7 +6677,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -7083,7 +7089,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -7164,7 +7170,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ30">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR30">
         <v>1.2</v>
@@ -7289,7 +7295,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7495,7 +7501,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -8113,7 +8119,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8319,7 +8325,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8731,7 +8737,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8812,7 +8818,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ38">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR38">
         <v>1.97</v>
@@ -8937,7 +8943,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9143,7 +9149,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9221,7 +9227,7 @@
         <v>2.33</v>
       </c>
       <c r="AP40">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ40">
         <v>1.38</v>
@@ -9349,7 +9355,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9555,7 +9561,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9761,7 +9767,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9967,7 +9973,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10173,7 +10179,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10254,7 +10260,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ45">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR45">
         <v>2.14</v>
@@ -10379,7 +10385,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10791,7 +10797,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10997,7 +11003,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11203,7 +11209,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11490,7 +11496,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ51">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR51">
         <v>2.1</v>
@@ -11615,7 +11621,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11693,7 +11699,7 @@
         <v>1.67</v>
       </c>
       <c r="AP52">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ52">
         <v>1.25</v>
@@ -11821,7 +11827,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -12027,7 +12033,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12233,7 +12239,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12439,7 +12445,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12645,7 +12651,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -12851,7 +12857,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -13057,7 +13063,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13263,7 +13269,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13469,7 +13475,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q61">
         <v>2.9</v>
@@ -13675,7 +13681,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13756,7 +13762,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ62">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR62">
         <v>1.76</v>
@@ -13881,7 +13887,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q63">
         <v>1.84</v>
@@ -14087,7 +14093,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q64">
         <v>5.69</v>
@@ -14293,7 +14299,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q65">
         <v>4.4</v>
@@ -14499,7 +14505,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14705,7 +14711,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14911,7 +14917,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -15117,7 +15123,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q69">
         <v>1.85</v>
@@ -15195,7 +15201,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ69">
         <v>0.13</v>
@@ -15323,7 +15329,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q70">
         <v>3.7</v>
@@ -15529,7 +15535,7 @@
         <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -15610,7 +15616,7 @@
         <v>2</v>
       </c>
       <c r="AQ71">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR71">
         <v>1.79</v>
@@ -15735,7 +15741,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15941,7 +15947,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q73">
         <v>3.85</v>
@@ -16225,7 +16231,7 @@
         <v>2.4</v>
       </c>
       <c r="AP74">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ74">
         <v>1.86</v>
@@ -16353,7 +16359,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16559,7 +16565,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q76">
         <v>1.78</v>
@@ -16765,7 +16771,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q77">
         <v>2.54</v>
@@ -17177,7 +17183,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q79">
         <v>5.9</v>
@@ -17589,7 +17595,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q81">
         <v>2.25</v>
@@ -17667,7 +17673,7 @@
         <v>0.6</v>
       </c>
       <c r="AP81">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -18001,7 +18007,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q83">
         <v>3.75</v>
@@ -18207,7 +18213,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q84">
         <v>1.67</v>
@@ -18285,7 +18291,7 @@
         <v>1.17</v>
       </c>
       <c r="AP84">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ84">
         <v>0.88</v>
@@ -18619,7 +18625,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -18906,7 +18912,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ87">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR87">
         <v>1.92</v>
@@ -19237,7 +19243,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -19443,7 +19449,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19521,7 +19527,7 @@
         <v>1.14</v>
       </c>
       <c r="AP90">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ90">
         <v>1.13</v>
@@ -19649,7 +19655,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -19855,7 +19861,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q92">
         <v>2.8</v>
@@ -20061,7 +20067,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q93">
         <v>3.75</v>
@@ -20267,7 +20273,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q94">
         <v>1.45</v>
@@ -20473,7 +20479,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q95">
         <v>2.51</v>
@@ -20836,6 +20842,212 @@
       </c>
       <c r="BP96">
         <v>2.03</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7294885</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45509.67708333334</v>
+      </c>
+      <c r="F97">
+        <v>17</v>
+      </c>
+      <c r="G97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H97" t="s">
+        <v>70</v>
+      </c>
+      <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>3</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>3</v>
+      </c>
+      <c r="N97">
+        <v>5</v>
+      </c>
+      <c r="O97" t="s">
+        <v>159</v>
+      </c>
+      <c r="P97" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q97">
+        <v>3.44</v>
+      </c>
+      <c r="R97">
+        <v>2.44</v>
+      </c>
+      <c r="S97">
+        <v>2.48</v>
+      </c>
+      <c r="T97">
+        <v>1.23</v>
+      </c>
+      <c r="U97">
+        <v>3.9</v>
+      </c>
+      <c r="V97">
+        <v>2.1</v>
+      </c>
+      <c r="W97">
+        <v>1.69</v>
+      </c>
+      <c r="X97">
+        <v>4.55</v>
+      </c>
+      <c r="Y97">
+        <v>1.18</v>
+      </c>
+      <c r="Z97">
+        <v>3</v>
+      </c>
+      <c r="AA97">
+        <v>3.78</v>
+      </c>
+      <c r="AB97">
+        <v>2.12</v>
+      </c>
+      <c r="AC97">
+        <v>1.01</v>
+      </c>
+      <c r="AD97">
+        <v>15.5</v>
+      </c>
+      <c r="AE97">
+        <v>1.09</v>
+      </c>
+      <c r="AF97">
+        <v>5.8</v>
+      </c>
+      <c r="AG97">
+        <v>1.37</v>
+      </c>
+      <c r="AH97">
+        <v>2.63</v>
+      </c>
+      <c r="AI97">
+        <v>1.4</v>
+      </c>
+      <c r="AJ97">
+        <v>2.72</v>
+      </c>
+      <c r="AK97">
+        <v>1.7</v>
+      </c>
+      <c r="AL97">
+        <v>1.25</v>
+      </c>
+      <c r="AM97">
+        <v>1.28</v>
+      </c>
+      <c r="AN97">
+        <v>1.88</v>
+      </c>
+      <c r="AO97">
+        <v>1.75</v>
+      </c>
+      <c r="AP97">
+        <v>1.67</v>
+      </c>
+      <c r="AQ97">
+        <v>1.89</v>
+      </c>
+      <c r="AR97">
+        <v>2.01</v>
+      </c>
+      <c r="AS97">
+        <v>1.82</v>
+      </c>
+      <c r="AT97">
+        <v>3.83</v>
+      </c>
+      <c r="AU97">
+        <v>4</v>
+      </c>
+      <c r="AV97">
+        <v>9</v>
+      </c>
+      <c r="AW97">
+        <v>3</v>
+      </c>
+      <c r="AX97">
+        <v>8</v>
+      </c>
+      <c r="AY97">
+        <v>7</v>
+      </c>
+      <c r="AZ97">
+        <v>17</v>
+      </c>
+      <c r="BA97">
+        <v>6</v>
+      </c>
+      <c r="BB97">
+        <v>9</v>
+      </c>
+      <c r="BC97">
+        <v>15</v>
+      </c>
+      <c r="BD97">
+        <v>2.26</v>
+      </c>
+      <c r="BE97">
+        <v>6.75</v>
+      </c>
+      <c r="BF97">
+        <v>1.94</v>
+      </c>
+      <c r="BG97">
+        <v>1.15</v>
+      </c>
+      <c r="BH97">
+        <v>4.75</v>
+      </c>
+      <c r="BI97">
+        <v>1.21</v>
+      </c>
+      <c r="BJ97">
+        <v>3.74</v>
+      </c>
+      <c r="BK97">
+        <v>1.39</v>
+      </c>
+      <c r="BL97">
+        <v>2.67</v>
+      </c>
+      <c r="BM97">
+        <v>1.67</v>
+      </c>
+      <c r="BN97">
+        <v>2.02</v>
+      </c>
+      <c r="BO97">
+        <v>1.95</v>
+      </c>
+      <c r="BP97">
+        <v>1.77</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="232">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -494,6 +494,15 @@
   </si>
   <si>
     <t>['8', '11']</t>
+  </si>
+  <si>
+    <t>['60', '90']</t>
+  </si>
+  <si>
+    <t>['32', '47', '68']</t>
+  </si>
+  <si>
+    <t>['45']</t>
   </si>
   <si>
     <t>['20']</t>
@@ -1062,7 +1071,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP97"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1402,7 +1411,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ2">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1605,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ3">
         <v>0.63</v>
@@ -1733,7 +1742,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1811,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ4">
         <v>0.88</v>
@@ -2145,7 +2154,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2429,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ7">
         <v>1.63</v>
@@ -2557,7 +2566,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2841,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ9">
         <v>0.63</v>
@@ -2969,7 +2978,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3047,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ10">
         <v>1.63</v>
@@ -3175,7 +3184,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3462,7 +3471,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ12">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR12">
         <v>1.36</v>
@@ -3587,7 +3596,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3665,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ13">
         <v>1.89</v>
@@ -3874,7 +3883,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR14">
         <v>1.31</v>
@@ -3999,7 +4008,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4489,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ17">
         <v>0.63</v>
@@ -4617,7 +4626,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4698,7 +4707,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ18">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4823,7 +4832,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5235,7 +5244,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5441,7 +5450,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5647,7 +5656,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5853,7 +5862,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -6059,7 +6068,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6140,7 +6149,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ25">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR25">
         <v>1.51</v>
@@ -6265,7 +6274,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6471,7 +6480,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q27">
         <v>3.35</v>
@@ -6549,7 +6558,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ27">
         <v>1.38</v>
@@ -6677,7 +6686,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6961,10 +6970,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ29">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR29">
         <v>1.38</v>
@@ -7089,7 +7098,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -7295,7 +7304,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7373,10 +7382,10 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ31">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR31">
         <v>1.92</v>
@@ -7501,7 +7510,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -8119,7 +8128,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8325,7 +8334,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8737,7 +8746,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8943,7 +8952,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9021,10 +9030,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ39">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR39">
         <v>1.9</v>
@@ -9149,7 +9158,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9355,7 +9364,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9436,7 +9445,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ41">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR41">
         <v>1.13</v>
@@ -9561,7 +9570,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9639,10 +9648,10 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ42">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR42">
         <v>2.07</v>
@@ -9767,7 +9776,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9845,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ43">
         <v>1.13</v>
@@ -9973,7 +9982,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10179,7 +10188,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10385,7 +10394,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10797,7 +10806,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10875,7 +10884,7 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ48">
         <v>1.86</v>
@@ -11003,7 +11012,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11209,7 +11218,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11290,7 +11299,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ50">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR50">
         <v>1.74</v>
@@ -11493,7 +11502,7 @@
         <v>2.25</v>
       </c>
       <c r="AP51">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ51">
         <v>1.89</v>
@@ -11621,7 +11630,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11827,7 +11836,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -11905,7 +11914,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ53">
         <v>1.13</v>
@@ -12033,7 +12042,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12114,7 +12123,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ54">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR54">
         <v>1.32</v>
@@ -12239,7 +12248,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12320,7 +12329,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ55">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR55">
         <v>1.88</v>
@@ -12445,7 +12454,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12651,7 +12660,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -12732,7 +12741,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ57">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR57">
         <v>2.05</v>
@@ -12857,7 +12866,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -13063,7 +13072,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13141,7 +13150,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ59">
         <v>0.88</v>
@@ -13269,7 +13278,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13475,7 +13484,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q61">
         <v>2.9</v>
@@ -13681,7 +13690,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13887,7 +13896,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q63">
         <v>1.84</v>
@@ -13965,7 +13974,7 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14093,7 +14102,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q64">
         <v>5.69</v>
@@ -14174,7 +14183,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ64">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR64">
         <v>1.37</v>
@@ -14299,7 +14308,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q65">
         <v>4.4</v>
@@ -14380,7 +14389,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ65">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR65">
         <v>1.16</v>
@@ -14505,7 +14514,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14711,7 +14720,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14789,7 +14798,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ67">
         <v>1.25</v>
@@ -14917,7 +14926,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -14995,7 +15004,7 @@
         <v>1.4</v>
       </c>
       <c r="AP68">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ68">
         <v>1.13</v>
@@ -15123,7 +15132,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q69">
         <v>1.85</v>
@@ -15204,7 +15213,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ69">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR69">
         <v>2.15</v>
@@ -15329,7 +15338,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q70">
         <v>3.7</v>
@@ -15535,7 +15544,7 @@
         <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -15741,7 +15750,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15822,7 +15831,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ72">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR72">
         <v>1.93</v>
@@ -15947,7 +15956,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q73">
         <v>3.85</v>
@@ -16359,7 +16368,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16440,7 +16449,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ75">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR75">
         <v>1.99</v>
@@ -16565,7 +16574,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q76">
         <v>1.78</v>
@@ -16771,7 +16780,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q77">
         <v>2.54</v>
@@ -16852,7 +16861,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ77">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR77">
         <v>1.89</v>
@@ -17183,7 +17192,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q79">
         <v>5.9</v>
@@ -17470,7 +17479,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ80">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR80">
         <v>1.86</v>
@@ -17595,7 +17604,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q81">
         <v>2.25</v>
@@ -17879,7 +17888,7 @@
         <v>1.83</v>
       </c>
       <c r="AP82">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ82">
         <v>1.38</v>
@@ -18007,7 +18016,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q83">
         <v>3.75</v>
@@ -18213,7 +18222,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q84">
         <v>1.67</v>
@@ -18625,7 +18634,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -18909,7 +18918,7 @@
         <v>2</v>
       </c>
       <c r="AP87">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ87">
         <v>1.89</v>
@@ -19118,7 +19127,7 @@
         <v>2</v>
       </c>
       <c r="AQ88">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR88">
         <v>1.67</v>
@@ -19243,7 +19252,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -19321,7 +19330,7 @@
         <v>1.57</v>
       </c>
       <c r="AP89">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ89">
         <v>1.38</v>
@@ -19449,7 +19458,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19655,7 +19664,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -19861,7 +19870,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q92">
         <v>2.8</v>
@@ -19942,7 +19951,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ92">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR92">
         <v>1.95</v>
@@ -20067,7 +20076,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q93">
         <v>3.75</v>
@@ -20145,10 +20154,10 @@
         <v>1.86</v>
       </c>
       <c r="AP93">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ93">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR93">
         <v>1.62</v>
@@ -20273,7 +20282,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q94">
         <v>1.45</v>
@@ -20479,7 +20488,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q95">
         <v>2.51</v>
@@ -20891,7 +20900,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q97">
         <v>3.44</v>
@@ -21048,6 +21057,624 @@
       </c>
       <c r="BP97">
         <v>1.77</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7294884</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45510.67708333334</v>
+      </c>
+      <c r="F98">
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>71</v>
+      </c>
+      <c r="H98" t="s">
+        <v>76</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>2</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>3</v>
+      </c>
+      <c r="O98" t="s">
+        <v>160</v>
+      </c>
+      <c r="P98" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q98">
+        <v>2.58</v>
+      </c>
+      <c r="R98">
+        <v>2.44</v>
+      </c>
+      <c r="S98">
+        <v>3.25</v>
+      </c>
+      <c r="T98">
+        <v>1.23</v>
+      </c>
+      <c r="U98">
+        <v>3.9</v>
+      </c>
+      <c r="V98">
+        <v>2.08</v>
+      </c>
+      <c r="W98">
+        <v>1.7</v>
+      </c>
+      <c r="X98">
+        <v>4.5</v>
+      </c>
+      <c r="Y98">
+        <v>1.18</v>
+      </c>
+      <c r="Z98">
+        <v>2.41</v>
+      </c>
+      <c r="AA98">
+        <v>3.88</v>
+      </c>
+      <c r="AB98">
+        <v>2.52</v>
+      </c>
+      <c r="AC98">
+        <v>1.01</v>
+      </c>
+      <c r="AD98">
+        <v>10.75</v>
+      </c>
+      <c r="AE98">
+        <v>1.1</v>
+      </c>
+      <c r="AF98">
+        <v>5.45</v>
+      </c>
+      <c r="AG98">
+        <v>1.36</v>
+      </c>
+      <c r="AH98">
+        <v>2.67</v>
+      </c>
+      <c r="AI98">
+        <v>1.39</v>
+      </c>
+      <c r="AJ98">
+        <v>2.76</v>
+      </c>
+      <c r="AK98">
+        <v>1.4</v>
+      </c>
+      <c r="AL98">
+        <v>1.24</v>
+      </c>
+      <c r="AM98">
+        <v>1.65</v>
+      </c>
+      <c r="AN98">
+        <v>1.63</v>
+      </c>
+      <c r="AO98">
+        <v>0.88</v>
+      </c>
+      <c r="AP98">
+        <v>1.78</v>
+      </c>
+      <c r="AQ98">
+        <v>0.78</v>
+      </c>
+      <c r="AR98">
+        <v>1.61</v>
+      </c>
+      <c r="AS98">
+        <v>1.95</v>
+      </c>
+      <c r="AT98">
+        <v>3.56</v>
+      </c>
+      <c r="AU98">
+        <v>7</v>
+      </c>
+      <c r="AV98">
+        <v>2</v>
+      </c>
+      <c r="AW98">
+        <v>8</v>
+      </c>
+      <c r="AX98">
+        <v>8</v>
+      </c>
+      <c r="AY98">
+        <v>15</v>
+      </c>
+      <c r="AZ98">
+        <v>10</v>
+      </c>
+      <c r="BA98">
+        <v>9</v>
+      </c>
+      <c r="BB98">
+        <v>4</v>
+      </c>
+      <c r="BC98">
+        <v>13</v>
+      </c>
+      <c r="BD98">
+        <v>2.07</v>
+      </c>
+      <c r="BE98">
+        <v>6.95</v>
+      </c>
+      <c r="BF98">
+        <v>2.09</v>
+      </c>
+      <c r="BG98">
+        <v>1.11</v>
+      </c>
+      <c r="BH98">
+        <v>5.5</v>
+      </c>
+      <c r="BI98">
+        <v>1.14</v>
+      </c>
+      <c r="BJ98">
+        <v>4.7</v>
+      </c>
+      <c r="BK98">
+        <v>1.28</v>
+      </c>
+      <c r="BL98">
+        <v>3.2</v>
+      </c>
+      <c r="BM98">
+        <v>1.51</v>
+      </c>
+      <c r="BN98">
+        <v>2.49</v>
+      </c>
+      <c r="BO98">
+        <v>1.82</v>
+      </c>
+      <c r="BP98">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7294886</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45510.67708333334</v>
+      </c>
+      <c r="F99">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>75</v>
+      </c>
+      <c r="H99" t="s">
+        <v>74</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>3</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>3</v>
+      </c>
+      <c r="O99" t="s">
+        <v>161</v>
+      </c>
+      <c r="P99" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q99">
+        <v>1.68</v>
+      </c>
+      <c r="R99">
+        <v>2.9</v>
+      </c>
+      <c r="S99">
+        <v>6.05</v>
+      </c>
+      <c r="T99">
+        <v>1.17</v>
+      </c>
+      <c r="U99">
+        <v>4.65</v>
+      </c>
+      <c r="V99">
+        <v>1.87</v>
+      </c>
+      <c r="W99">
+        <v>1.87</v>
+      </c>
+      <c r="X99">
+        <v>3.62</v>
+      </c>
+      <c r="Y99">
+        <v>1.26</v>
+      </c>
+      <c r="Z99">
+        <v>1.34</v>
+      </c>
+      <c r="AA99">
+        <v>5.6</v>
+      </c>
+      <c r="AB99">
+        <v>7.14</v>
+      </c>
+      <c r="AC99">
+        <v>1.01</v>
+      </c>
+      <c r="AD99">
+        <v>11.75</v>
+      </c>
+      <c r="AE99">
+        <v>1.05</v>
+      </c>
+      <c r="AF99">
+        <v>7</v>
+      </c>
+      <c r="AG99">
+        <v>1.25</v>
+      </c>
+      <c r="AH99">
+        <v>3.22</v>
+      </c>
+      <c r="AI99">
+        <v>1.51</v>
+      </c>
+      <c r="AJ99">
+        <v>2.39</v>
+      </c>
+      <c r="AK99">
+        <v>1.07</v>
+      </c>
+      <c r="AL99">
+        <v>1.12</v>
+      </c>
+      <c r="AM99">
+        <v>3.28</v>
+      </c>
+      <c r="AN99">
+        <v>2.13</v>
+      </c>
+      <c r="AO99">
+        <v>0.13</v>
+      </c>
+      <c r="AP99">
+        <v>2.22</v>
+      </c>
+      <c r="AQ99">
+        <v>0.11</v>
+      </c>
+      <c r="AR99">
+        <v>2.12</v>
+      </c>
+      <c r="AS99">
+        <v>1.58</v>
+      </c>
+      <c r="AT99">
+        <v>3.7</v>
+      </c>
+      <c r="AU99">
+        <v>8</v>
+      </c>
+      <c r="AV99">
+        <v>5</v>
+      </c>
+      <c r="AW99">
+        <v>13</v>
+      </c>
+      <c r="AX99">
+        <v>5</v>
+      </c>
+      <c r="AY99">
+        <v>21</v>
+      </c>
+      <c r="AZ99">
+        <v>10</v>
+      </c>
+      <c r="BA99">
+        <v>4</v>
+      </c>
+      <c r="BB99">
+        <v>5</v>
+      </c>
+      <c r="BC99">
+        <v>9</v>
+      </c>
+      <c r="BD99">
+        <v>1.1</v>
+      </c>
+      <c r="BE99">
+        <v>12.25</v>
+      </c>
+      <c r="BF99">
+        <v>9</v>
+      </c>
+      <c r="BG99">
+        <v>1.11</v>
+      </c>
+      <c r="BH99">
+        <v>5.5</v>
+      </c>
+      <c r="BI99">
+        <v>1.12</v>
+      </c>
+      <c r="BJ99">
+        <v>4.95</v>
+      </c>
+      <c r="BK99">
+        <v>1.26</v>
+      </c>
+      <c r="BL99">
+        <v>3.34</v>
+      </c>
+      <c r="BM99">
+        <v>1.48</v>
+      </c>
+      <c r="BN99">
+        <v>2.55</v>
+      </c>
+      <c r="BO99">
+        <v>1.81</v>
+      </c>
+      <c r="BP99">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7294883</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45510.67708333334</v>
+      </c>
+      <c r="F100">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>72</v>
+      </c>
+      <c r="H100" t="s">
+        <v>73</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100" t="s">
+        <v>162</v>
+      </c>
+      <c r="P100" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q100">
+        <v>3.4</v>
+      </c>
+      <c r="R100">
+        <v>2.6</v>
+      </c>
+      <c r="S100">
+        <v>2.38</v>
+      </c>
+      <c r="T100">
+        <v>1.19</v>
+      </c>
+      <c r="U100">
+        <v>4.4</v>
+      </c>
+      <c r="V100">
+        <v>1.94</v>
+      </c>
+      <c r="W100">
+        <v>1.85</v>
+      </c>
+      <c r="X100">
+        <v>3.9</v>
+      </c>
+      <c r="Y100">
+        <v>1.23</v>
+      </c>
+      <c r="Z100">
+        <v>3.14</v>
+      </c>
+      <c r="AA100">
+        <v>4.1</v>
+      </c>
+      <c r="AB100">
+        <v>1.99</v>
+      </c>
+      <c r="AC100">
+        <v>1.01</v>
+      </c>
+      <c r="AD100">
+        <v>11.5</v>
+      </c>
+      <c r="AE100">
+        <v>1.06</v>
+      </c>
+      <c r="AF100">
+        <v>7</v>
+      </c>
+      <c r="AG100">
+        <v>1.29</v>
+      </c>
+      <c r="AH100">
+        <v>3</v>
+      </c>
+      <c r="AI100">
+        <v>1.32</v>
+      </c>
+      <c r="AJ100">
+        <v>3.1</v>
+      </c>
+      <c r="AK100">
+        <v>1.75</v>
+      </c>
+      <c r="AL100">
+        <v>1.22</v>
+      </c>
+      <c r="AM100">
+        <v>1.3</v>
+      </c>
+      <c r="AN100">
+        <v>1.38</v>
+      </c>
+      <c r="AO100">
+        <v>1.63</v>
+      </c>
+      <c r="AP100">
+        <v>1.56</v>
+      </c>
+      <c r="AQ100">
+        <v>1.44</v>
+      </c>
+      <c r="AR100">
+        <v>1.82</v>
+      </c>
+      <c r="AS100">
+        <v>2.36</v>
+      </c>
+      <c r="AT100">
+        <v>4.18</v>
+      </c>
+      <c r="AU100">
+        <v>7</v>
+      </c>
+      <c r="AV100">
+        <v>3</v>
+      </c>
+      <c r="AW100">
+        <v>9</v>
+      </c>
+      <c r="AX100">
+        <v>7</v>
+      </c>
+      <c r="AY100">
+        <v>16</v>
+      </c>
+      <c r="AZ100">
+        <v>10</v>
+      </c>
+      <c r="BA100">
+        <v>8</v>
+      </c>
+      <c r="BB100">
+        <v>5</v>
+      </c>
+      <c r="BC100">
+        <v>13</v>
+      </c>
+      <c r="BD100">
+        <v>2.88</v>
+      </c>
+      <c r="BE100">
+        <v>7.3</v>
+      </c>
+      <c r="BF100">
+        <v>1.61</v>
+      </c>
+      <c r="BG100">
+        <v>1.1</v>
+      </c>
+      <c r="BH100">
+        <v>5.75</v>
+      </c>
+      <c r="BI100">
+        <v>1.11</v>
+      </c>
+      <c r="BJ100">
+        <v>5.2</v>
+      </c>
+      <c r="BK100">
+        <v>1.24</v>
+      </c>
+      <c r="BL100">
+        <v>3.48</v>
+      </c>
+      <c r="BM100">
+        <v>1.42</v>
+      </c>
+      <c r="BN100">
+        <v>2.57</v>
+      </c>
+      <c r="BO100">
+        <v>1.76</v>
+      </c>
+      <c r="BP100">
+        <v>2.04</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="232">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -496,13 +496,13 @@
     <t>['8', '11']</t>
   </si>
   <si>
+    <t>['45']</t>
+  </si>
+  <si>
     <t>['60', '90']</t>
   </si>
   <si>
     <t>['32', '47', '68']</t>
-  </si>
-  <si>
-    <t>['45']</t>
   </si>
   <si>
     <t>['20']</t>
@@ -1071,7 +1071,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP100"/>
+  <dimension ref="A1:BP101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2029,7 +2029,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ5">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ11">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -5116,7 +5116,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ20">
         <v>0.88</v>
@@ -6767,7 +6767,7 @@
         <v>2</v>
       </c>
       <c r="AQ28">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR28">
         <v>1.42</v>
@@ -8824,7 +8824,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ38">
         <v>1.89</v>
@@ -9857,7 +9857,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ43">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR43">
         <v>1.57</v>
@@ -11917,7 +11917,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ53">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR53">
         <v>1.86</v>
@@ -12120,7 +12120,7 @@
         <v>0.75</v>
       </c>
       <c r="AP54">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ54">
         <v>0.78</v>
@@ -14180,7 +14180,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ64">
         <v>1.44</v>
@@ -15007,7 +15007,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ68">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR68">
         <v>1.99</v>
@@ -15416,7 +15416,7 @@
         <v>1.2</v>
       </c>
       <c r="AP70">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ70">
         <v>1.25</v>
@@ -17270,7 +17270,7 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ79">
         <v>1.86</v>
@@ -18094,7 +18094,7 @@
         <v>0.67</v>
       </c>
       <c r="AP83">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ83">
         <v>1</v>
@@ -18509,7 +18509,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ85">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR85">
         <v>2.02</v>
@@ -19539,7 +19539,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ90">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR90">
         <v>1.94</v>
@@ -19742,7 +19742,7 @@
         <v>1.43</v>
       </c>
       <c r="AP91">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ91">
         <v>1.63</v>
@@ -21064,7 +21064,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7294884</v>
+        <v>7294883</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
@@ -21079,190 +21079,190 @@
         <v>17</v>
       </c>
       <c r="G98" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H98" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O98" t="s">
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q98">
-        <v>2.58</v>
+        <v>3.4</v>
       </c>
       <c r="R98">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="S98">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="T98">
+        <v>1.19</v>
+      </c>
+      <c r="U98">
+        <v>4.4</v>
+      </c>
+      <c r="V98">
+        <v>1.94</v>
+      </c>
+      <c r="W98">
+        <v>1.85</v>
+      </c>
+      <c r="X98">
+        <v>3.9</v>
+      </c>
+      <c r="Y98">
         <v>1.23</v>
       </c>
-      <c r="U98">
-        <v>3.9</v>
-      </c>
-      <c r="V98">
-        <v>2.08</v>
-      </c>
-      <c r="W98">
-        <v>1.7</v>
-      </c>
-      <c r="X98">
-        <v>4.5</v>
-      </c>
-      <c r="Y98">
-        <v>1.18</v>
-      </c>
       <c r="Z98">
-        <v>2.41</v>
+        <v>3.14</v>
       </c>
       <c r="AA98">
-        <v>3.88</v>
+        <v>4.1</v>
       </c>
       <c r="AB98">
-        <v>2.52</v>
+        <v>1.99</v>
       </c>
       <c r="AC98">
         <v>1.01</v>
       </c>
       <c r="AD98">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AE98">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="AF98">
-        <v>5.45</v>
+        <v>7</v>
       </c>
       <c r="AG98">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AH98">
-        <v>2.67</v>
+        <v>3</v>
       </c>
       <c r="AI98">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AJ98">
-        <v>2.76</v>
+        <v>3.1</v>
       </c>
       <c r="AK98">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="AL98">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AM98">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="AN98">
+        <v>1.38</v>
+      </c>
+      <c r="AO98">
         <v>1.63</v>
       </c>
-      <c r="AO98">
-        <v>0.88</v>
-      </c>
       <c r="AP98">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
       <c r="AQ98">
-        <v>0.78</v>
+        <v>1.44</v>
       </c>
       <c r="AR98">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
       <c r="AS98">
-        <v>1.95</v>
+        <v>2.36</v>
       </c>
       <c r="AT98">
-        <v>3.56</v>
+        <v>4.18</v>
       </c>
       <c r="AU98">
         <v>7</v>
       </c>
       <c r="AV98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW98">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX98">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY98">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ98">
         <v>10</v>
       </c>
       <c r="BA98">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB98">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC98">
         <v>13</v>
       </c>
       <c r="BD98">
-        <v>2.07</v>
+        <v>2.88</v>
       </c>
       <c r="BE98">
-        <v>6.95</v>
+        <v>7.3</v>
       </c>
       <c r="BF98">
-        <v>2.09</v>
+        <v>1.61</v>
       </c>
       <c r="BG98">
+        <v>1.1</v>
+      </c>
+      <c r="BH98">
+        <v>5.75</v>
+      </c>
+      <c r="BI98">
         <v>1.11</v>
       </c>
-      <c r="BH98">
-        <v>5.5</v>
-      </c>
-      <c r="BI98">
-        <v>1.14</v>
-      </c>
       <c r="BJ98">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="BK98">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="BL98">
-        <v>3.2</v>
+        <v>3.48</v>
       </c>
       <c r="BM98">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="BN98">
-        <v>2.49</v>
+        <v>2.57</v>
       </c>
       <c r="BO98">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="BP98">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="99" spans="1:68">
@@ -21270,7 +21270,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7294886</v>
+        <v>7294884</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21285,25 +21285,25 @@
         <v>17</v>
       </c>
       <c r="G99" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H99" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N99">
         <v>3</v>
@@ -21312,133 +21312,133 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Q99">
-        <v>1.68</v>
+        <v>2.58</v>
       </c>
       <c r="R99">
-        <v>2.9</v>
+        <v>2.44</v>
       </c>
       <c r="S99">
-        <v>6.05</v>
+        <v>3.25</v>
       </c>
       <c r="T99">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="U99">
-        <v>4.65</v>
+        <v>3.9</v>
       </c>
       <c r="V99">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="W99">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="X99">
-        <v>3.62</v>
+        <v>4.5</v>
       </c>
       <c r="Y99">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="Z99">
-        <v>1.34</v>
+        <v>2.41</v>
       </c>
       <c r="AA99">
-        <v>5.6</v>
+        <v>3.88</v>
       </c>
       <c r="AB99">
-        <v>7.14</v>
+        <v>2.52</v>
       </c>
       <c r="AC99">
         <v>1.01</v>
       </c>
       <c r="AD99">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="AE99">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AF99">
+        <v>5.45</v>
+      </c>
+      <c r="AG99">
+        <v>1.36</v>
+      </c>
+      <c r="AH99">
+        <v>2.67</v>
+      </c>
+      <c r="AI99">
+        <v>1.39</v>
+      </c>
+      <c r="AJ99">
+        <v>2.76</v>
+      </c>
+      <c r="AK99">
+        <v>1.4</v>
+      </c>
+      <c r="AL99">
+        <v>1.24</v>
+      </c>
+      <c r="AM99">
+        <v>1.65</v>
+      </c>
+      <c r="AN99">
+        <v>1.63</v>
+      </c>
+      <c r="AO99">
+        <v>0.88</v>
+      </c>
+      <c r="AP99">
+        <v>1.78</v>
+      </c>
+      <c r="AQ99">
+        <v>0.78</v>
+      </c>
+      <c r="AR99">
+        <v>1.61</v>
+      </c>
+      <c r="AS99">
+        <v>1.95</v>
+      </c>
+      <c r="AT99">
+        <v>3.56</v>
+      </c>
+      <c r="AU99">
         <v>7</v>
       </c>
-      <c r="AG99">
-        <v>1.25</v>
-      </c>
-      <c r="AH99">
-        <v>3.22</v>
-      </c>
-      <c r="AI99">
-        <v>1.51</v>
-      </c>
-      <c r="AJ99">
-        <v>2.39</v>
-      </c>
-      <c r="AK99">
-        <v>1.07</v>
-      </c>
-      <c r="AL99">
-        <v>1.12</v>
-      </c>
-      <c r="AM99">
-        <v>3.28</v>
-      </c>
-      <c r="AN99">
-        <v>2.13</v>
-      </c>
-      <c r="AO99">
-        <v>0.13</v>
-      </c>
-      <c r="AP99">
-        <v>2.22</v>
-      </c>
-      <c r="AQ99">
-        <v>0.11</v>
-      </c>
-      <c r="AR99">
-        <v>2.12</v>
-      </c>
-      <c r="AS99">
-        <v>1.58</v>
-      </c>
-      <c r="AT99">
-        <v>3.7</v>
-      </c>
-      <c r="AU99">
+      <c r="AV99">
+        <v>2</v>
+      </c>
+      <c r="AW99">
         <v>8</v>
       </c>
-      <c r="AV99">
-        <v>5</v>
-      </c>
-      <c r="AW99">
-        <v>13</v>
-      </c>
       <c r="AX99">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AY99">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AZ99">
         <v>10</v>
       </c>
       <c r="BA99">
+        <v>9</v>
+      </c>
+      <c r="BB99">
         <v>4</v>
       </c>
-      <c r="BB99">
-        <v>5</v>
-      </c>
       <c r="BC99">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD99">
-        <v>1.1</v>
+        <v>2.07</v>
       </c>
       <c r="BE99">
-        <v>12.25</v>
+        <v>6.95</v>
       </c>
       <c r="BF99">
-        <v>9</v>
+        <v>2.09</v>
       </c>
       <c r="BG99">
         <v>1.11</v>
@@ -21447,28 +21447,28 @@
         <v>5.5</v>
       </c>
       <c r="BI99">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="BJ99">
-        <v>4.95</v>
+        <v>4.7</v>
       </c>
       <c r="BK99">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="BL99">
-        <v>3.34</v>
+        <v>3.2</v>
       </c>
       <c r="BM99">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="BN99">
-        <v>2.55</v>
+        <v>2.49</v>
       </c>
       <c r="BO99">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="BP99">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="100" spans="1:68">
@@ -21476,7 +21476,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>7294883</v>
+        <v>7294886</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
@@ -21491,10 +21491,10 @@
         <v>17</v>
       </c>
       <c r="G100" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H100" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -21506,13 +21506,13 @@
         <v>1</v>
       </c>
       <c r="L100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M100">
         <v>0</v>
       </c>
       <c r="N100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O100" t="s">
         <v>162</v>
@@ -21521,160 +21521,366 @@
         <v>91</v>
       </c>
       <c r="Q100">
-        <v>3.4</v>
+        <v>1.68</v>
       </c>
       <c r="R100">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="S100">
-        <v>2.38</v>
+        <v>6.05</v>
       </c>
       <c r="T100">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="U100">
-        <v>4.4</v>
+        <v>4.65</v>
       </c>
       <c r="V100">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="W100">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="X100">
-        <v>3.9</v>
+        <v>3.62</v>
       </c>
       <c r="Y100">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="Z100">
-        <v>3.14</v>
+        <v>1.34</v>
       </c>
       <c r="AA100">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="AB100">
-        <v>1.99</v>
+        <v>7.14</v>
       </c>
       <c r="AC100">
         <v>1.01</v>
       </c>
       <c r="AD100">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AE100">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AF100">
         <v>7</v>
       </c>
       <c r="AG100">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AH100">
-        <v>3</v>
+        <v>3.22</v>
       </c>
       <c r="AI100">
-        <v>1.32</v>
+        <v>1.51</v>
       </c>
       <c r="AJ100">
-        <v>3.1</v>
+        <v>2.39</v>
       </c>
       <c r="AK100">
-        <v>1.75</v>
+        <v>1.07</v>
       </c>
       <c r="AL100">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="AM100">
-        <v>1.3</v>
+        <v>3.28</v>
       </c>
       <c r="AN100">
-        <v>1.38</v>
+        <v>2.13</v>
       </c>
       <c r="AO100">
-        <v>1.63</v>
+        <v>0.13</v>
       </c>
       <c r="AP100">
-        <v>1.56</v>
+        <v>2.22</v>
       </c>
       <c r="AQ100">
-        <v>1.44</v>
+        <v>0.11</v>
       </c>
       <c r="AR100">
-        <v>1.82</v>
+        <v>2.12</v>
       </c>
       <c r="AS100">
-        <v>2.36</v>
+        <v>1.58</v>
       </c>
       <c r="AT100">
-        <v>4.18</v>
+        <v>3.7</v>
       </c>
       <c r="AU100">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV100">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW100">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AX100">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY100">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ100">
         <v>10</v>
       </c>
       <c r="BA100">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BB100">
         <v>5</v>
       </c>
       <c r="BC100">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD100">
-        <v>2.88</v>
+        <v>1.1</v>
       </c>
       <c r="BE100">
-        <v>7.3</v>
+        <v>12.25</v>
       </c>
       <c r="BF100">
-        <v>1.61</v>
+        <v>9</v>
       </c>
       <c r="BG100">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="BH100">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="BI100">
+        <v>1.12</v>
+      </c>
+      <c r="BJ100">
+        <v>4.95</v>
+      </c>
+      <c r="BK100">
+        <v>1.26</v>
+      </c>
+      <c r="BL100">
+        <v>3.34</v>
+      </c>
+      <c r="BM100">
+        <v>1.48</v>
+      </c>
+      <c r="BN100">
+        <v>2.55</v>
+      </c>
+      <c r="BO100">
+        <v>1.81</v>
+      </c>
+      <c r="BP100">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7294887</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45511.625</v>
+      </c>
+      <c r="F101">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>80</v>
+      </c>
+      <c r="H101" t="s">
+        <v>79</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101" t="s">
+        <v>91</v>
+      </c>
+      <c r="P101" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q101">
+        <v>3.96</v>
+      </c>
+      <c r="R101">
+        <v>2.63</v>
+      </c>
+      <c r="S101">
+        <v>2.33</v>
+      </c>
+      <c r="T101">
+        <v>1.22</v>
+      </c>
+      <c r="U101">
+        <v>3.8</v>
+      </c>
+      <c r="V101">
+        <v>2.12</v>
+      </c>
+      <c r="W101">
+        <v>1.71</v>
+      </c>
+      <c r="X101">
+        <v>4.33</v>
+      </c>
+      <c r="Y101">
+        <v>1.18</v>
+      </c>
+      <c r="Z101">
+        <v>3.57</v>
+      </c>
+      <c r="AA101">
+        <v>4.1</v>
+      </c>
+      <c r="AB101">
+        <v>1.83</v>
+      </c>
+      <c r="AC101">
+        <v>1.01</v>
+      </c>
+      <c r="AD101">
+        <v>11</v>
+      </c>
+      <c r="AE101">
         <v>1.11</v>
       </c>
-      <c r="BJ100">
-        <v>5.2</v>
-      </c>
-      <c r="BK100">
-        <v>1.24</v>
-      </c>
-      <c r="BL100">
-        <v>3.48</v>
-      </c>
-      <c r="BM100">
+      <c r="AF101">
+        <v>5.5</v>
+      </c>
+      <c r="AG101">
+        <v>1.44</v>
+      </c>
+      <c r="AH101">
+        <v>2.75</v>
+      </c>
+      <c r="AI101">
         <v>1.42</v>
       </c>
-      <c r="BN100">
-        <v>2.57</v>
-      </c>
-      <c r="BO100">
-        <v>1.76</v>
-      </c>
-      <c r="BP100">
-        <v>2.04</v>
+      <c r="AJ101">
+        <v>2.62</v>
+      </c>
+      <c r="AK101">
+        <v>1.9</v>
+      </c>
+      <c r="AL101">
+        <v>1.22</v>
+      </c>
+      <c r="AM101">
+        <v>1.28</v>
+      </c>
+      <c r="AN101">
+        <v>0.88</v>
+      </c>
+      <c r="AO101">
+        <v>1.13</v>
+      </c>
+      <c r="AP101">
+        <v>0.89</v>
+      </c>
+      <c r="AQ101">
+        <v>1.11</v>
+      </c>
+      <c r="AR101">
+        <v>1.23</v>
+      </c>
+      <c r="AS101">
+        <v>1.63</v>
+      </c>
+      <c r="AT101">
+        <v>2.86</v>
+      </c>
+      <c r="AU101">
+        <v>6</v>
+      </c>
+      <c r="AV101">
+        <v>4</v>
+      </c>
+      <c r="AW101">
+        <v>4</v>
+      </c>
+      <c r="AX101">
+        <v>3</v>
+      </c>
+      <c r="AY101">
+        <v>10</v>
+      </c>
+      <c r="AZ101">
+        <v>7</v>
+      </c>
+      <c r="BA101">
+        <v>3</v>
+      </c>
+      <c r="BB101">
+        <v>1</v>
+      </c>
+      <c r="BC101">
+        <v>4</v>
+      </c>
+      <c r="BD101">
+        <v>2.41</v>
+      </c>
+      <c r="BE101">
+        <v>8.5</v>
+      </c>
+      <c r="BF101">
+        <v>1.75</v>
+      </c>
+      <c r="BG101">
+        <v>1.11</v>
+      </c>
+      <c r="BH101">
+        <v>5.15</v>
+      </c>
+      <c r="BI101">
+        <v>1.25</v>
+      </c>
+      <c r="BJ101">
+        <v>3.42</v>
+      </c>
+      <c r="BK101">
+        <v>1.45</v>
+      </c>
+      <c r="BL101">
+        <v>2.48</v>
+      </c>
+      <c r="BM101">
+        <v>1.82</v>
+      </c>
+      <c r="BN101">
+        <v>1.98</v>
+      </c>
+      <c r="BO101">
+        <v>2.23</v>
+      </c>
+      <c r="BP101">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="237">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -505,6 +505,15 @@
     <t>['32', '47', '68']</t>
   </si>
   <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['12', '45+5', '52', '55', '75']</t>
+  </si>
+  <si>
+    <t>['39', '84']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -550,9 +559,6 @@
     <t>['13', '45+4']</t>
   </si>
   <si>
-    <t>['3']</t>
-  </si>
-  <si>
     <t>['9']</t>
   </si>
   <si>
@@ -710,6 +716,15 @@
   </si>
   <si>
     <t>['2', '65', '80']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['55', '78']</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1086,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP101"/>
+  <dimension ref="A1:BP105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1408,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ2">
         <v>0.78</v>
@@ -1617,7 +1632,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ3">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1742,7 +1757,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1823,7 +1838,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ4">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2026,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ5">
         <v>1.11</v>
@@ -2154,7 +2169,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2232,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ6">
         <v>1.38</v>
@@ -2566,7 +2581,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2644,7 +2659,7 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ8">
         <v>1.38</v>
@@ -2853,7 +2868,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ9">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR9">
         <v>1.31</v>
@@ -2978,7 +2993,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3184,7 +3199,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3468,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
         <v>1.44</v>
@@ -3596,7 +3611,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3880,7 +3895,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ14">
         <v>1.44</v>
@@ -4008,7 +4023,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4501,7 +4516,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ17">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR17">
         <v>2.26</v>
@@ -4626,7 +4641,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4832,7 +4847,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4910,10 +4925,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ19">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR19">
         <v>1.54</v>
@@ -5119,7 +5134,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ20">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5244,7 +5259,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5450,7 +5465,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5528,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5656,7 +5671,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5737,7 +5752,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ23">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR23">
         <v>1.8</v>
@@ -5862,7 +5877,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -5940,7 +5955,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ24">
         <v>1.25</v>
@@ -6068,7 +6083,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6146,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25">
         <v>0.78</v>
@@ -6274,7 +6289,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6355,7 +6370,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ26">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6480,7 +6495,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="Q27">
         <v>3.35</v>
@@ -6686,7 +6701,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6764,7 +6779,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ28">
         <v>1.11</v>
@@ -7098,7 +7113,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -7304,7 +7319,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7510,7 +7525,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7588,7 +7603,7 @@
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ32">
         <v>1.25</v>
@@ -7797,7 +7812,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ33">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR33">
         <v>2.09</v>
@@ -8000,7 +8015,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8128,7 +8143,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8209,7 +8224,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ35">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR35">
         <v>1.9</v>
@@ -8334,7 +8349,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8412,10 +8427,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR36">
         <v>1.56</v>
@@ -8618,7 +8633,7 @@
         <v>2.25</v>
       </c>
       <c r="AP37">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ37">
         <v>1.63</v>
@@ -8746,7 +8761,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8952,7 +8967,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9158,7 +9173,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9364,7 +9379,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9570,7 +9585,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9776,7 +9791,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9982,7 +9997,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10063,7 +10078,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ44">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR44">
         <v>2.01</v>
@@ -10188,7 +10203,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10394,7 +10409,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10472,7 +10487,7 @@
         <v>1.8</v>
       </c>
       <c r="AP46">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ46">
         <v>1.63</v>
@@ -10678,7 +10693,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -10806,7 +10821,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10887,7 +10902,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ48">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR48">
         <v>1.66</v>
@@ -11012,7 +11027,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11090,10 +11105,10 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ49">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR49">
         <v>1.73</v>
@@ -11218,7 +11233,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11296,7 +11311,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ50">
         <v>0.78</v>
@@ -11630,7 +11645,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11836,7 +11851,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -12042,7 +12057,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12248,7 +12263,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12326,7 +12341,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ55">
         <v>0.11</v>
@@ -12454,7 +12469,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12535,7 +12550,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ56">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR56">
         <v>1.21</v>
@@ -12660,7 +12675,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -12866,7 +12881,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -12944,10 +12959,10 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ58">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR58">
         <v>1.94</v>
@@ -13072,7 +13087,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13153,7 +13168,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ59">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR59">
         <v>1.64</v>
@@ -13278,7 +13293,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13356,7 +13371,7 @@
         <v>1.67</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ60">
         <v>1.63</v>
@@ -13484,7 +13499,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q61">
         <v>2.9</v>
@@ -13690,7 +13705,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13768,7 +13783,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ62">
         <v>1.89</v>
@@ -13896,7 +13911,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q63">
         <v>1.84</v>
@@ -14102,7 +14117,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q64">
         <v>5.69</v>
@@ -14308,7 +14323,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q65">
         <v>4.4</v>
@@ -14514,7 +14529,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14592,7 +14607,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ66">
         <v>1.38</v>
@@ -14720,7 +14735,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14926,7 +14941,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -15132,7 +15147,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q69">
         <v>1.85</v>
@@ -15338,7 +15353,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q70">
         <v>3.7</v>
@@ -15544,7 +15559,7 @@
         <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -15622,7 +15637,7 @@
         <v>1.83</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ71">
         <v>1.89</v>
@@ -15750,7 +15765,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15956,7 +15971,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q73">
         <v>3.85</v>
@@ -16243,7 +16258,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ74">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR74">
         <v>2.07</v>
@@ -16368,7 +16383,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16574,7 +16589,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q76">
         <v>1.78</v>
@@ -16652,7 +16667,7 @@
         <v>1.5</v>
       </c>
       <c r="AP76">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ76">
         <v>1.25</v>
@@ -16780,7 +16795,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q77">
         <v>2.54</v>
@@ -17067,7 +17082,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ78">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR78">
         <v>1.96</v>
@@ -17192,7 +17207,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q79">
         <v>5.9</v>
@@ -17273,7 +17288,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ79">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR79">
         <v>1.24</v>
@@ -17476,7 +17491,7 @@
         <v>0.17</v>
       </c>
       <c r="AP80">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ80">
         <v>0.11</v>
@@ -17604,7 +17619,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q81">
         <v>2.25</v>
@@ -18016,7 +18031,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q83">
         <v>3.75</v>
@@ -18222,7 +18237,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q84">
         <v>1.67</v>
@@ -18303,7 +18318,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ84">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR84">
         <v>1.85</v>
@@ -18506,7 +18521,7 @@
         <v>1.33</v>
       </c>
       <c r="AP85">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ85">
         <v>1.11</v>
@@ -18634,7 +18649,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -18715,7 +18730,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ86">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR86">
         <v>1.18</v>
@@ -19124,7 +19139,7 @@
         <v>0.14</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ88">
         <v>0.11</v>
@@ -19252,7 +19267,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -19458,7 +19473,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19664,7 +19679,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -19870,7 +19885,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q92">
         <v>2.8</v>
@@ -20076,7 +20091,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q93">
         <v>3.75</v>
@@ -20282,7 +20297,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q94">
         <v>1.45</v>
@@ -20360,10 +20375,10 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ94">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR94">
         <v>2</v>
@@ -20488,7 +20503,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q95">
         <v>2.51</v>
@@ -20772,7 +20787,7 @@
         <v>1.29</v>
       </c>
       <c r="AP96">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ96">
         <v>1.25</v>
@@ -20900,7 +20915,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q97">
         <v>3.44</v>
@@ -21881,6 +21896,830 @@
       </c>
       <c r="BP101">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7294889</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45515.45833333334</v>
+      </c>
+      <c r="F102">
+        <v>18</v>
+      </c>
+      <c r="G102" t="s">
+        <v>70</v>
+      </c>
+      <c r="H102" t="s">
+        <v>80</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>2</v>
+      </c>
+      <c r="O102" t="s">
+        <v>163</v>
+      </c>
+      <c r="P102" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q102">
+        <v>1.44</v>
+      </c>
+      <c r="R102">
+        <v>3.1</v>
+      </c>
+      <c r="S102">
+        <v>11</v>
+      </c>
+      <c r="T102">
+        <v>1.2</v>
+      </c>
+      <c r="U102">
+        <v>4.33</v>
+      </c>
+      <c r="V102">
+        <v>1.91</v>
+      </c>
+      <c r="W102">
+        <v>1.8</v>
+      </c>
+      <c r="X102">
+        <v>4</v>
+      </c>
+      <c r="Y102">
+        <v>1.22</v>
+      </c>
+      <c r="Z102">
+        <v>1.09</v>
+      </c>
+      <c r="AA102">
+        <v>9</v>
+      </c>
+      <c r="AB102">
+        <v>19</v>
+      </c>
+      <c r="AC102">
+        <v>1.01</v>
+      </c>
+      <c r="AD102">
+        <v>11.75</v>
+      </c>
+      <c r="AE102">
+        <v>1.09</v>
+      </c>
+      <c r="AF102">
+        <v>6</v>
+      </c>
+      <c r="AG102">
+        <v>1.3</v>
+      </c>
+      <c r="AH102">
+        <v>2.95</v>
+      </c>
+      <c r="AI102">
+        <v>2.25</v>
+      </c>
+      <c r="AJ102">
+        <v>1.57</v>
+      </c>
+      <c r="AK102">
+        <v>1.01</v>
+      </c>
+      <c r="AL102">
+        <v>1.04</v>
+      </c>
+      <c r="AM102">
+        <v>6.75</v>
+      </c>
+      <c r="AN102">
+        <v>2.75</v>
+      </c>
+      <c r="AO102">
+        <v>0.63</v>
+      </c>
+      <c r="AP102">
+        <v>2.56</v>
+      </c>
+      <c r="AQ102">
+        <v>0.67</v>
+      </c>
+      <c r="AR102">
+        <v>2.23</v>
+      </c>
+      <c r="AS102">
+        <v>1.3</v>
+      </c>
+      <c r="AT102">
+        <v>3.53</v>
+      </c>
+      <c r="AU102">
+        <v>8</v>
+      </c>
+      <c r="AV102">
+        <v>2</v>
+      </c>
+      <c r="AW102">
+        <v>7</v>
+      </c>
+      <c r="AX102">
+        <v>8</v>
+      </c>
+      <c r="AY102">
+        <v>15</v>
+      </c>
+      <c r="AZ102">
+        <v>10</v>
+      </c>
+      <c r="BA102">
+        <v>10</v>
+      </c>
+      <c r="BB102">
+        <v>3</v>
+      </c>
+      <c r="BC102">
+        <v>13</v>
+      </c>
+      <c r="BD102">
+        <v>1.06</v>
+      </c>
+      <c r="BE102">
+        <v>13.5</v>
+      </c>
+      <c r="BF102">
+        <v>11</v>
+      </c>
+      <c r="BG102">
+        <v>1.12</v>
+      </c>
+      <c r="BH102">
+        <v>5.25</v>
+      </c>
+      <c r="BI102">
+        <v>1.18</v>
+      </c>
+      <c r="BJ102">
+        <v>4.15</v>
+      </c>
+      <c r="BK102">
+        <v>1.34</v>
+      </c>
+      <c r="BL102">
+        <v>2.88</v>
+      </c>
+      <c r="BM102">
+        <v>1.61</v>
+      </c>
+      <c r="BN102">
+        <v>2.26</v>
+      </c>
+      <c r="BO102">
+        <v>2.02</v>
+      </c>
+      <c r="BP102">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7294890</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45515.58333333334</v>
+      </c>
+      <c r="F103">
+        <v>18</v>
+      </c>
+      <c r="G103" t="s">
+        <v>74</v>
+      </c>
+      <c r="H103" t="s">
+        <v>72</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>2</v>
+      </c>
+      <c r="O103" t="s">
+        <v>95</v>
+      </c>
+      <c r="P103" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q103">
+        <v>3.1</v>
+      </c>
+      <c r="R103">
+        <v>2.5</v>
+      </c>
+      <c r="S103">
+        <v>2.6</v>
+      </c>
+      <c r="T103">
+        <v>1.22</v>
+      </c>
+      <c r="U103">
+        <v>4</v>
+      </c>
+      <c r="V103">
+        <v>2</v>
+      </c>
+      <c r="W103">
+        <v>1.73</v>
+      </c>
+      <c r="X103">
+        <v>4.33</v>
+      </c>
+      <c r="Y103">
+        <v>1.2</v>
+      </c>
+      <c r="Z103">
+        <v>2.69</v>
+      </c>
+      <c r="AA103">
+        <v>3.9</v>
+      </c>
+      <c r="AB103">
+        <v>2.12</v>
+      </c>
+      <c r="AC103">
+        <v>1.01</v>
+      </c>
+      <c r="AD103">
+        <v>11.25</v>
+      </c>
+      <c r="AE103">
+        <v>1.09</v>
+      </c>
+      <c r="AF103">
+        <v>6</v>
+      </c>
+      <c r="AG103">
+        <v>1.35</v>
+      </c>
+      <c r="AH103">
+        <v>2.94</v>
+      </c>
+      <c r="AI103">
+        <v>1.36</v>
+      </c>
+      <c r="AJ103">
+        <v>3</v>
+      </c>
+      <c r="AK103">
+        <v>1.7</v>
+      </c>
+      <c r="AL103">
+        <v>1.25</v>
+      </c>
+      <c r="AM103">
+        <v>1.4</v>
+      </c>
+      <c r="AN103">
+        <v>1.38</v>
+      </c>
+      <c r="AO103">
+        <v>1</v>
+      </c>
+      <c r="AP103">
+        <v>1.33</v>
+      </c>
+      <c r="AQ103">
+        <v>1</v>
+      </c>
+      <c r="AR103">
+        <v>1.86</v>
+      </c>
+      <c r="AS103">
+        <v>1.77</v>
+      </c>
+      <c r="AT103">
+        <v>3.63</v>
+      </c>
+      <c r="AU103">
+        <v>6</v>
+      </c>
+      <c r="AV103">
+        <v>4</v>
+      </c>
+      <c r="AW103">
+        <v>8</v>
+      </c>
+      <c r="AX103">
+        <v>13</v>
+      </c>
+      <c r="AY103">
+        <v>14</v>
+      </c>
+      <c r="AZ103">
+        <v>17</v>
+      </c>
+      <c r="BA103">
+        <v>6</v>
+      </c>
+      <c r="BB103">
+        <v>11</v>
+      </c>
+      <c r="BC103">
+        <v>17</v>
+      </c>
+      <c r="BD103">
+        <v>2.31</v>
+      </c>
+      <c r="BE103">
+        <v>6.95</v>
+      </c>
+      <c r="BF103">
+        <v>1.89</v>
+      </c>
+      <c r="BG103">
+        <v>1.1</v>
+      </c>
+      <c r="BH103">
+        <v>5.75</v>
+      </c>
+      <c r="BI103">
+        <v>1.11</v>
+      </c>
+      <c r="BJ103">
+        <v>5.1</v>
+      </c>
+      <c r="BK103">
+        <v>1.24</v>
+      </c>
+      <c r="BL103">
+        <v>3.48</v>
+      </c>
+      <c r="BM103">
+        <v>1.43</v>
+      </c>
+      <c r="BN103">
+        <v>2.54</v>
+      </c>
+      <c r="BO103">
+        <v>1.76</v>
+      </c>
+      <c r="BP103">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7294891</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45515.67708333334</v>
+      </c>
+      <c r="F104">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s">
+        <v>73</v>
+      </c>
+      <c r="H104" t="s">
+        <v>77</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>3</v>
+      </c>
+      <c r="L104">
+        <v>5</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>6</v>
+      </c>
+      <c r="O104" t="s">
+        <v>164</v>
+      </c>
+      <c r="P104" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q104">
+        <v>1.57</v>
+      </c>
+      <c r="R104">
+        <v>3.1</v>
+      </c>
+      <c r="S104">
+        <v>7</v>
+      </c>
+      <c r="T104">
+        <v>1.17</v>
+      </c>
+      <c r="U104">
+        <v>4.5</v>
+      </c>
+      <c r="V104">
+        <v>1.8</v>
+      </c>
+      <c r="W104">
+        <v>1.91</v>
+      </c>
+      <c r="X104">
+        <v>3.5</v>
+      </c>
+      <c r="Y104">
+        <v>1.29</v>
+      </c>
+      <c r="Z104">
+        <v>1.25</v>
+      </c>
+      <c r="AA104">
+        <v>5.75</v>
+      </c>
+      <c r="AB104">
+        <v>9</v>
+      </c>
+      <c r="AC104">
+        <v>1.01</v>
+      </c>
+      <c r="AD104">
+        <v>12</v>
+      </c>
+      <c r="AE104">
+        <v>1.04</v>
+      </c>
+      <c r="AF104">
+        <v>7.5</v>
+      </c>
+      <c r="AG104">
+        <v>1.28</v>
+      </c>
+      <c r="AH104">
+        <v>3.34</v>
+      </c>
+      <c r="AI104">
+        <v>1.62</v>
+      </c>
+      <c r="AJ104">
+        <v>2.2</v>
+      </c>
+      <c r="AK104">
+        <v>1.01</v>
+      </c>
+      <c r="AL104">
+        <v>1.07</v>
+      </c>
+      <c r="AM104">
+        <v>4.6</v>
+      </c>
+      <c r="AN104">
+        <v>2.14</v>
+      </c>
+      <c r="AO104">
+        <v>0.88</v>
+      </c>
+      <c r="AP104">
+        <v>2.25</v>
+      </c>
+      <c r="AQ104">
+        <v>0.78</v>
+      </c>
+      <c r="AR104">
+        <v>1.92</v>
+      </c>
+      <c r="AS104">
+        <v>1.45</v>
+      </c>
+      <c r="AT104">
+        <v>3.37</v>
+      </c>
+      <c r="AU104">
+        <v>14</v>
+      </c>
+      <c r="AV104">
+        <v>8</v>
+      </c>
+      <c r="AW104">
+        <v>15</v>
+      </c>
+      <c r="AX104">
+        <v>6</v>
+      </c>
+      <c r="AY104">
+        <v>29</v>
+      </c>
+      <c r="AZ104">
+        <v>14</v>
+      </c>
+      <c r="BA104">
+        <v>13</v>
+      </c>
+      <c r="BB104">
+        <v>3</v>
+      </c>
+      <c r="BC104">
+        <v>16</v>
+      </c>
+      <c r="BD104">
+        <v>1.07</v>
+      </c>
+      <c r="BE104">
+        <v>15</v>
+      </c>
+      <c r="BF104">
+        <v>9.5</v>
+      </c>
+      <c r="BG104">
+        <v>0</v>
+      </c>
+      <c r="BH104">
+        <v>0</v>
+      </c>
+      <c r="BI104">
+        <v>1.12</v>
+      </c>
+      <c r="BJ104">
+        <v>5.1</v>
+      </c>
+      <c r="BK104">
+        <v>1.24</v>
+      </c>
+      <c r="BL104">
+        <v>3.48</v>
+      </c>
+      <c r="BM104">
+        <v>1.44</v>
+      </c>
+      <c r="BN104">
+        <v>2.51</v>
+      </c>
+      <c r="BO104">
+        <v>1.77</v>
+      </c>
+      <c r="BP104">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7294892</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45515.67708333334</v>
+      </c>
+      <c r="F105">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s">
+        <v>76</v>
+      </c>
+      <c r="H105" t="s">
+        <v>75</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>2</v>
+      </c>
+      <c r="M105">
+        <v>2</v>
+      </c>
+      <c r="N105">
+        <v>4</v>
+      </c>
+      <c r="O105" t="s">
+        <v>165</v>
+      </c>
+      <c r="P105" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q105">
+        <v>3.2</v>
+      </c>
+      <c r="R105">
+        <v>2.5</v>
+      </c>
+      <c r="S105">
+        <v>2.5</v>
+      </c>
+      <c r="T105">
+        <v>1.22</v>
+      </c>
+      <c r="U105">
+        <v>4</v>
+      </c>
+      <c r="V105">
+        <v>2</v>
+      </c>
+      <c r="W105">
+        <v>1.73</v>
+      </c>
+      <c r="X105">
+        <v>4.33</v>
+      </c>
+      <c r="Y105">
+        <v>1.2</v>
+      </c>
+      <c r="Z105">
+        <v>2.92</v>
+      </c>
+      <c r="AA105">
+        <v>3.9</v>
+      </c>
+      <c r="AB105">
+        <v>1.99</v>
+      </c>
+      <c r="AC105">
+        <v>1.01</v>
+      </c>
+      <c r="AD105">
+        <v>11.25</v>
+      </c>
+      <c r="AE105">
+        <v>1.09</v>
+      </c>
+      <c r="AF105">
+        <v>6</v>
+      </c>
+      <c r="AG105">
+        <v>1.36</v>
+      </c>
+      <c r="AH105">
+        <v>2.89</v>
+      </c>
+      <c r="AI105">
+        <v>1.36</v>
+      </c>
+      <c r="AJ105">
+        <v>3</v>
+      </c>
+      <c r="AK105">
+        <v>1.75</v>
+      </c>
+      <c r="AL105">
+        <v>1.25</v>
+      </c>
+      <c r="AM105">
+        <v>1.38</v>
+      </c>
+      <c r="AN105">
+        <v>2</v>
+      </c>
+      <c r="AO105">
+        <v>1.86</v>
+      </c>
+      <c r="AP105">
+        <v>1.89</v>
+      </c>
+      <c r="AQ105">
+        <v>1.75</v>
+      </c>
+      <c r="AR105">
+        <v>1.75</v>
+      </c>
+      <c r="AS105">
+        <v>1.87</v>
+      </c>
+      <c r="AT105">
+        <v>3.62</v>
+      </c>
+      <c r="AU105">
+        <v>9</v>
+      </c>
+      <c r="AV105">
+        <v>8</v>
+      </c>
+      <c r="AW105">
+        <v>8</v>
+      </c>
+      <c r="AX105">
+        <v>7</v>
+      </c>
+      <c r="AY105">
+        <v>17</v>
+      </c>
+      <c r="AZ105">
+        <v>15</v>
+      </c>
+      <c r="BA105">
+        <v>10</v>
+      </c>
+      <c r="BB105">
+        <v>9</v>
+      </c>
+      <c r="BC105">
+        <v>19</v>
+      </c>
+      <c r="BD105">
+        <v>2.13</v>
+      </c>
+      <c r="BE105">
+        <v>6.85</v>
+      </c>
+      <c r="BF105">
+        <v>2.04</v>
+      </c>
+      <c r="BG105">
+        <v>1.11</v>
+      </c>
+      <c r="BH105">
+        <v>5.5</v>
+      </c>
+      <c r="BI105">
+        <v>1.22</v>
+      </c>
+      <c r="BJ105">
+        <v>3.8</v>
+      </c>
+      <c r="BK105">
+        <v>1.36</v>
+      </c>
+      <c r="BL105">
+        <v>2.88</v>
+      </c>
+      <c r="BM105">
+        <v>1.59</v>
+      </c>
+      <c r="BN105">
+        <v>2.3</v>
+      </c>
+      <c r="BO105">
+        <v>1.94</v>
+      </c>
+      <c r="BP105">
+        <v>1.85</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="238">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -512,6 +512,9 @@
   </si>
   <si>
     <t>['39', '84']</t>
+  </si>
+  <si>
+    <t>['46']</t>
   </si>
   <si>
     <t>['20']</t>
@@ -1086,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP105"/>
+  <dimension ref="A1:BP107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1757,7 +1760,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -2169,7 +2172,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2456,7 +2459,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ7">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2581,7 +2584,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2993,7 +2996,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3074,7 +3077,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ10">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR10">
         <v>2.8</v>
@@ -3199,7 +3202,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3611,7 +3614,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -4023,7 +4026,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4104,7 +4107,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ15">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR15">
         <v>1.21</v>
@@ -4307,10 +4310,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ16">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4641,7 +4644,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4719,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>0.11</v>
@@ -4847,7 +4850,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5259,7 +5262,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5337,10 +5340,10 @@
         <v>2</v>
       </c>
       <c r="AP21">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR21">
         <v>2.58</v>
@@ -5465,7 +5468,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5671,7 +5674,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5749,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ23">
         <v>1.75</v>
@@ -5877,7 +5880,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -5958,7 +5961,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ24">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR24">
         <v>1.96</v>
@@ -6083,7 +6086,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6289,7 +6292,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6701,7 +6704,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -7113,7 +7116,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -7319,7 +7322,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7525,7 +7528,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7606,7 +7609,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ32">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR32">
         <v>1.74</v>
@@ -7809,7 +7812,7 @@
         <v>0.75</v>
       </c>
       <c r="AP33">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
         <v>0.67</v>
@@ -8143,7 +8146,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8221,7 +8224,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ35">
         <v>0.78</v>
@@ -8349,7 +8352,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8636,7 +8639,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ37">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR37">
         <v>2.05</v>
@@ -8761,7 +8764,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8967,7 +8970,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9173,7 +9176,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9379,7 +9382,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9585,7 +9588,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9791,7 +9794,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9997,7 +10000,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10075,7 +10078,7 @@
         <v>0.6</v>
       </c>
       <c r="AP44">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ44">
         <v>0.67</v>
@@ -10203,7 +10206,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10281,7 +10284,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
         <v>1.89</v>
@@ -10409,7 +10412,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10490,7 +10493,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ46">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR46">
         <v>1.74</v>
@@ -10821,7 +10824,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11027,7 +11030,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11233,7 +11236,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11645,7 +11648,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11726,7 +11729,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ52">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR52">
         <v>2.33</v>
@@ -11851,7 +11854,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -12057,7 +12060,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12263,7 +12266,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12469,7 +12472,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12675,7 +12678,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -12753,7 +12756,7 @@
         <v>1.75</v>
       </c>
       <c r="AP57">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ57">
         <v>1.44</v>
@@ -12881,7 +12884,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -13087,7 +13090,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13293,7 +13296,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13374,7 +13377,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ60">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR60">
         <v>1.74</v>
@@ -13499,7 +13502,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q61">
         <v>2.9</v>
@@ -13577,7 +13580,7 @@
         <v>2.5</v>
       </c>
       <c r="AP61">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
         <v>1.38</v>
@@ -13705,7 +13708,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13911,7 +13914,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q63">
         <v>1.84</v>
@@ -14117,7 +14120,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q64">
         <v>5.69</v>
@@ -14323,7 +14326,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q65">
         <v>4.4</v>
@@ -14529,7 +14532,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14735,7 +14738,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14816,7 +14819,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ67">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR67">
         <v>1.91</v>
@@ -14941,7 +14944,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -15147,7 +15150,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q69">
         <v>1.85</v>
@@ -15353,7 +15356,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q70">
         <v>3.7</v>
@@ -15434,7 +15437,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ70">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR70">
         <v>1.27</v>
@@ -15559,7 +15562,7 @@
         <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -15765,7 +15768,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15843,7 +15846,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ72">
         <v>0.11</v>
@@ -15971,7 +15974,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q73">
         <v>3.85</v>
@@ -16383,7 +16386,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16461,7 +16464,7 @@
         <v>2.17</v>
       </c>
       <c r="AP75">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ75">
         <v>1.44</v>
@@ -16589,7 +16592,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q76">
         <v>1.78</v>
@@ -16670,7 +16673,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ76">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR76">
         <v>2.08</v>
@@ -16795,7 +16798,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q77">
         <v>2.54</v>
@@ -16873,7 +16876,7 @@
         <v>0.5</v>
       </c>
       <c r="AP77">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ77">
         <v>0.78</v>
@@ -17079,7 +17082,7 @@
         <v>1.4</v>
       </c>
       <c r="AP78">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ78">
         <v>0.78</v>
@@ -17207,7 +17210,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q79">
         <v>5.9</v>
@@ -17619,7 +17622,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q81">
         <v>2.25</v>
@@ -18031,7 +18034,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q83">
         <v>3.75</v>
@@ -18237,7 +18240,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q84">
         <v>1.67</v>
@@ -18649,7 +18652,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -19267,7 +19270,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -19473,7 +19476,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19679,7 +19682,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -19760,7 +19763,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ91">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR91">
         <v>1.28</v>
@@ -19885,7 +19888,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q92">
         <v>2.8</v>
@@ -19963,7 +19966,7 @@
         <v>0.57</v>
       </c>
       <c r="AP92">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ92">
         <v>0.78</v>
@@ -20091,7 +20094,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q93">
         <v>3.75</v>
@@ -20297,7 +20300,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q94">
         <v>1.45</v>
@@ -20503,7 +20506,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q95">
         <v>2.51</v>
@@ -20581,7 +20584,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ95">
         <v>1</v>
@@ -20790,7 +20793,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ96">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR96">
         <v>1.96</v>
@@ -20915,7 +20918,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q97">
         <v>3.44</v>
@@ -21945,7 +21948,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q102">
         <v>1.44</v>
@@ -22151,7 +22154,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22357,7 +22360,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q104">
         <v>1.57</v>
@@ -22563,7 +22566,7 @@
         <v>165</v>
       </c>
       <c r="P105" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q105">
         <v>3.2</v>
@@ -22720,6 +22723,418 @@
       </c>
       <c r="BP105">
         <v>1.85</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7294893</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45516.63541666666</v>
+      </c>
+      <c r="F106">
+        <v>18</v>
+      </c>
+      <c r="G106" t="s">
+        <v>79</v>
+      </c>
+      <c r="H106" t="s">
+        <v>71</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106" t="s">
+        <v>166</v>
+      </c>
+      <c r="P106" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q106">
+        <v>2.63</v>
+      </c>
+      <c r="R106">
+        <v>2.4</v>
+      </c>
+      <c r="S106">
+        <v>3.1</v>
+      </c>
+      <c r="T106">
+        <v>1.25</v>
+      </c>
+      <c r="U106">
+        <v>3.75</v>
+      </c>
+      <c r="V106">
+        <v>2.2</v>
+      </c>
+      <c r="W106">
+        <v>1.62</v>
+      </c>
+      <c r="X106">
+        <v>4.5</v>
+      </c>
+      <c r="Y106">
+        <v>1.17</v>
+      </c>
+      <c r="Z106">
+        <v>1.9</v>
+      </c>
+      <c r="AA106">
+        <v>3.75</v>
+      </c>
+      <c r="AB106">
+        <v>3.15</v>
+      </c>
+      <c r="AC106">
+        <v>1.01</v>
+      </c>
+      <c r="AD106">
+        <v>10.5</v>
+      </c>
+      <c r="AE106">
+        <v>1.12</v>
+      </c>
+      <c r="AF106">
+        <v>5.25</v>
+      </c>
+      <c r="AG106">
+        <v>1.44</v>
+      </c>
+      <c r="AH106">
+        <v>2.42</v>
+      </c>
+      <c r="AI106">
+        <v>1.44</v>
+      </c>
+      <c r="AJ106">
+        <v>2.63</v>
+      </c>
+      <c r="AK106">
+        <v>1.38</v>
+      </c>
+      <c r="AL106">
+        <v>1.23</v>
+      </c>
+      <c r="AM106">
+        <v>1.58</v>
+      </c>
+      <c r="AN106">
+        <v>1.88</v>
+      </c>
+      <c r="AO106">
+        <v>1.25</v>
+      </c>
+      <c r="AP106">
+        <v>2</v>
+      </c>
+      <c r="AQ106">
+        <v>1.11</v>
+      </c>
+      <c r="AR106">
+        <v>1.94</v>
+      </c>
+      <c r="AS106">
+        <v>1.62</v>
+      </c>
+      <c r="AT106">
+        <v>3.56</v>
+      </c>
+      <c r="AU106">
+        <v>3</v>
+      </c>
+      <c r="AV106">
+        <v>2</v>
+      </c>
+      <c r="AW106">
+        <v>4</v>
+      </c>
+      <c r="AX106">
+        <v>9</v>
+      </c>
+      <c r="AY106">
+        <v>7</v>
+      </c>
+      <c r="AZ106">
+        <v>11</v>
+      </c>
+      <c r="BA106">
+        <v>3</v>
+      </c>
+      <c r="BB106">
+        <v>1</v>
+      </c>
+      <c r="BC106">
+        <v>4</v>
+      </c>
+      <c r="BD106">
+        <v>1.75</v>
+      </c>
+      <c r="BE106">
+        <v>9</v>
+      </c>
+      <c r="BF106">
+        <v>2.34</v>
+      </c>
+      <c r="BG106">
+        <v>1.1</v>
+      </c>
+      <c r="BH106">
+        <v>5.75</v>
+      </c>
+      <c r="BI106">
+        <v>1.16</v>
+      </c>
+      <c r="BJ106">
+        <v>4.4</v>
+      </c>
+      <c r="BK106">
+        <v>1.31</v>
+      </c>
+      <c r="BL106">
+        <v>3.04</v>
+      </c>
+      <c r="BM106">
+        <v>1.53</v>
+      </c>
+      <c r="BN106">
+        <v>2.42</v>
+      </c>
+      <c r="BO106">
+        <v>1.95</v>
+      </c>
+      <c r="BP106">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7294894</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45516.63541666666</v>
+      </c>
+      <c r="F107">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s">
+        <v>78</v>
+      </c>
+      <c r="H107" t="s">
+        <v>81</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107" t="s">
+        <v>160</v>
+      </c>
+      <c r="P107" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q107">
+        <v>2.88</v>
+      </c>
+      <c r="R107">
+        <v>2.5</v>
+      </c>
+      <c r="S107">
+        <v>2.75</v>
+      </c>
+      <c r="T107">
+        <v>1.22</v>
+      </c>
+      <c r="U107">
+        <v>4</v>
+      </c>
+      <c r="V107">
+        <v>2</v>
+      </c>
+      <c r="W107">
+        <v>1.73</v>
+      </c>
+      <c r="X107">
+        <v>4.33</v>
+      </c>
+      <c r="Y107">
+        <v>1.2</v>
+      </c>
+      <c r="Z107">
+        <v>2.43</v>
+      </c>
+      <c r="AA107">
+        <v>3.7</v>
+      </c>
+      <c r="AB107">
+        <v>2.33</v>
+      </c>
+      <c r="AC107">
+        <v>1.01</v>
+      </c>
+      <c r="AD107">
+        <v>11</v>
+      </c>
+      <c r="AE107">
+        <v>1.1</v>
+      </c>
+      <c r="AF107">
+        <v>5.75</v>
+      </c>
+      <c r="AG107">
+        <v>1.38</v>
+      </c>
+      <c r="AH107">
+        <v>2.59</v>
+      </c>
+      <c r="AI107">
+        <v>1.4</v>
+      </c>
+      <c r="AJ107">
+        <v>2.75</v>
+      </c>
+      <c r="AK107">
+        <v>1.53</v>
+      </c>
+      <c r="AL107">
+        <v>1.29</v>
+      </c>
+      <c r="AM107">
+        <v>1.5</v>
+      </c>
+      <c r="AN107">
+        <v>0.5</v>
+      </c>
+      <c r="AO107">
+        <v>1.63</v>
+      </c>
+      <c r="AP107">
+        <v>0.78</v>
+      </c>
+      <c r="AQ107">
+        <v>1.44</v>
+      </c>
+      <c r="AR107">
+        <v>1.98</v>
+      </c>
+      <c r="AS107">
+        <v>1.71</v>
+      </c>
+      <c r="AT107">
+        <v>3.69</v>
+      </c>
+      <c r="AU107">
+        <v>5</v>
+      </c>
+      <c r="AV107">
+        <v>4</v>
+      </c>
+      <c r="AW107">
+        <v>6</v>
+      </c>
+      <c r="AX107">
+        <v>9</v>
+      </c>
+      <c r="AY107">
+        <v>11</v>
+      </c>
+      <c r="AZ107">
+        <v>13</v>
+      </c>
+      <c r="BA107">
+        <v>9</v>
+      </c>
+      <c r="BB107">
+        <v>4</v>
+      </c>
+      <c r="BC107">
+        <v>13</v>
+      </c>
+      <c r="BD107">
+        <v>2.05</v>
+      </c>
+      <c r="BE107">
+        <v>8.5</v>
+      </c>
+      <c r="BF107">
+        <v>1.95</v>
+      </c>
+      <c r="BG107">
+        <v>0</v>
+      </c>
+      <c r="BH107">
+        <v>0</v>
+      </c>
+      <c r="BI107">
+        <v>1.14</v>
+      </c>
+      <c r="BJ107">
+        <v>4.6</v>
+      </c>
+      <c r="BK107">
+        <v>1.28</v>
+      </c>
+      <c r="BL107">
+        <v>3.18</v>
+      </c>
+      <c r="BM107">
+        <v>1.51</v>
+      </c>
+      <c r="BN107">
+        <v>2.32</v>
+      </c>
+      <c r="BO107">
+        <v>1.9</v>
+      </c>
+      <c r="BP107">
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -728,6 +728,9 @@
   </si>
   <si>
     <t>['55', '78']</t>
+  </si>
+  <si>
+    <t>['37', '67']</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP107"/>
+  <dimension ref="A1:BP108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2044,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
         <v>1.11</v>
@@ -4931,7 +4934,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ19">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR19">
         <v>1.54</v>
@@ -5755,7 +5758,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ23">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR23">
         <v>1.8</v>
@@ -5958,7 +5961,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>1.11</v>
@@ -8018,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8433,7 +8436,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ36">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR36">
         <v>1.56</v>
@@ -10490,7 +10493,7 @@
         <v>1.8</v>
       </c>
       <c r="AP46">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>1.44</v>
@@ -10905,7 +10908,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ48">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR48">
         <v>1.66</v>
@@ -11314,7 +11317,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
         <v>0.78</v>
@@ -12553,7 +12556,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ56">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR56">
         <v>1.21</v>
@@ -13786,7 +13789,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
         <v>1.89</v>
@@ -16261,7 +16264,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ74">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR74">
         <v>2.07</v>
@@ -17291,7 +17294,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ79">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR79">
         <v>1.24</v>
@@ -17494,7 +17497,7 @@
         <v>0.17</v>
       </c>
       <c r="AP80">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ80">
         <v>0.11</v>
@@ -22438,7 +22441,7 @@
         <v>0.88</v>
       </c>
       <c r="AP104">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ104">
         <v>0.78</v>
@@ -22647,7 +22650,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ105">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR105">
         <v>1.75</v>
@@ -23135,6 +23138,212 @@
       </c>
       <c r="BP107">
         <v>1.9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7294880</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45519.67708333334</v>
+      </c>
+      <c r="F108">
+        <v>16</v>
+      </c>
+      <c r="G108" t="s">
+        <v>73</v>
+      </c>
+      <c r="H108" t="s">
+        <v>75</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+      <c r="N108">
+        <v>2</v>
+      </c>
+      <c r="O108" t="s">
+        <v>91</v>
+      </c>
+      <c r="P108" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q108">
+        <v>2.4</v>
+      </c>
+      <c r="R108">
+        <v>2.55</v>
+      </c>
+      <c r="S108">
+        <v>3.25</v>
+      </c>
+      <c r="T108">
+        <v>1.18</v>
+      </c>
+      <c r="U108">
+        <v>4.5</v>
+      </c>
+      <c r="V108">
+        <v>1.9</v>
+      </c>
+      <c r="W108">
+        <v>1.8</v>
+      </c>
+      <c r="X108">
+        <v>3.8</v>
+      </c>
+      <c r="Y108">
+        <v>1.24</v>
+      </c>
+      <c r="Z108">
+        <v>2</v>
+      </c>
+      <c r="AA108">
+        <v>3.79</v>
+      </c>
+      <c r="AB108">
+        <v>2.89</v>
+      </c>
+      <c r="AC108">
+        <v>1.01</v>
+      </c>
+      <c r="AD108">
+        <v>29</v>
+      </c>
+      <c r="AE108">
+        <v>1.06</v>
+      </c>
+      <c r="AF108">
+        <v>6.7</v>
+      </c>
+      <c r="AG108">
+        <v>1.33</v>
+      </c>
+      <c r="AH108">
+        <v>3.04</v>
+      </c>
+      <c r="AI108">
+        <v>1.3</v>
+      </c>
+      <c r="AJ108">
+        <v>3.3</v>
+      </c>
+      <c r="AK108">
+        <v>1.36</v>
+      </c>
+      <c r="AL108">
+        <v>1.18</v>
+      </c>
+      <c r="AM108">
+        <v>1.78</v>
+      </c>
+      <c r="AN108">
+        <v>2.25</v>
+      </c>
+      <c r="AO108">
+        <v>1.75</v>
+      </c>
+      <c r="AP108">
+        <v>2</v>
+      </c>
+      <c r="AQ108">
+        <v>1.89</v>
+      </c>
+      <c r="AR108">
+        <v>2.16</v>
+      </c>
+      <c r="AS108">
+        <v>1.91</v>
+      </c>
+      <c r="AT108">
+        <v>4.07</v>
+      </c>
+      <c r="AU108">
+        <v>7</v>
+      </c>
+      <c r="AV108">
+        <v>3</v>
+      </c>
+      <c r="AW108">
+        <v>4</v>
+      </c>
+      <c r="AX108">
+        <v>11</v>
+      </c>
+      <c r="AY108">
+        <v>11</v>
+      </c>
+      <c r="AZ108">
+        <v>14</v>
+      </c>
+      <c r="BA108">
+        <v>8</v>
+      </c>
+      <c r="BB108">
+        <v>10</v>
+      </c>
+      <c r="BC108">
+        <v>18</v>
+      </c>
+      <c r="BD108">
+        <v>1.5</v>
+      </c>
+      <c r="BE108">
+        <v>7.5</v>
+      </c>
+      <c r="BF108">
+        <v>3.28</v>
+      </c>
+      <c r="BG108">
+        <v>0</v>
+      </c>
+      <c r="BH108">
+        <v>0</v>
+      </c>
+      <c r="BI108">
+        <v>1.13</v>
+      </c>
+      <c r="BJ108">
+        <v>4.8</v>
+      </c>
+      <c r="BK108">
+        <v>1.27</v>
+      </c>
+      <c r="BL108">
+        <v>3.28</v>
+      </c>
+      <c r="BM108">
+        <v>1.52</v>
+      </c>
+      <c r="BN108">
+        <v>2.48</v>
+      </c>
+      <c r="BO108">
+        <v>1.95</v>
+      </c>
+      <c r="BP108">
+        <v>1.85</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="240">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -515,6 +515,9 @@
   </si>
   <si>
     <t>['46']</t>
+  </si>
+  <si>
+    <t>['20', '45+2']</t>
   </si>
   <si>
     <t>['20']</t>
@@ -1092,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP108"/>
+  <dimension ref="A1:BP109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1763,7 +1766,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -2175,7 +2178,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2256,7 +2259,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ6">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2587,7 +2590,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2668,7 +2671,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ8">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2999,7 +3002,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3205,7 +3208,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3617,7 +3620,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -4029,7 +4032,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4647,7 +4650,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4853,7 +4856,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5137,7 +5140,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ20">
         <v>0.78</v>
@@ -5265,7 +5268,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5471,7 +5474,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5677,7 +5680,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5883,7 +5886,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -6089,7 +6092,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6295,7 +6298,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6582,7 +6585,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ27">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR27">
         <v>1.91</v>
@@ -6707,7 +6710,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -7119,7 +7122,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -7325,7 +7328,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7531,7 +7534,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -8149,7 +8152,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8355,7 +8358,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8767,7 +8770,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8845,7 +8848,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ38">
         <v>1.89</v>
@@ -8973,7 +8976,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9179,7 +9182,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9260,7 +9263,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ40">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR40">
         <v>2.29</v>
@@ -9385,7 +9388,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9591,7 +9594,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9797,7 +9800,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -10003,7 +10006,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10209,7 +10212,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10415,7 +10418,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10827,7 +10830,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11033,7 +11036,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11239,7 +11242,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11651,7 +11654,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11857,7 +11860,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -12063,7 +12066,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12141,7 +12144,7 @@
         <v>0.75</v>
       </c>
       <c r="AP54">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ54">
         <v>0.78</v>
@@ -12269,7 +12272,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12475,7 +12478,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12681,7 +12684,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -12887,7 +12890,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -13093,7 +13096,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13299,7 +13302,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13505,7 +13508,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q61">
         <v>2.9</v>
@@ -13586,7 +13589,7 @@
         <v>2</v>
       </c>
       <c r="AQ61">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR61">
         <v>1.93</v>
@@ -13711,7 +13714,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13917,7 +13920,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q63">
         <v>1.84</v>
@@ -14123,7 +14126,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q64">
         <v>5.69</v>
@@ -14201,7 +14204,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ64">
         <v>1.44</v>
@@ -14329,7 +14332,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q65">
         <v>4.4</v>
@@ -14535,7 +14538,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14616,7 +14619,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ66">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR66">
         <v>1.97</v>
@@ -14741,7 +14744,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14947,7 +14950,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -15153,7 +15156,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q69">
         <v>1.85</v>
@@ -15359,7 +15362,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q70">
         <v>3.7</v>
@@ -15437,7 +15440,7 @@
         <v>1.2</v>
       </c>
       <c r="AP70">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ70">
         <v>1.11</v>
@@ -15565,7 +15568,7 @@
         <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -15771,7 +15774,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15977,7 +15980,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q73">
         <v>3.85</v>
@@ -16389,7 +16392,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16595,7 +16598,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q76">
         <v>1.78</v>
@@ -16801,7 +16804,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q77">
         <v>2.54</v>
@@ -17213,7 +17216,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q79">
         <v>5.9</v>
@@ -17291,7 +17294,7 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ79">
         <v>1.89</v>
@@ -17625,7 +17628,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q81">
         <v>2.25</v>
@@ -17912,7 +17915,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ82">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR82">
         <v>1.65</v>
@@ -18037,7 +18040,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q83">
         <v>3.75</v>
@@ -18115,7 +18118,7 @@
         <v>0.67</v>
       </c>
       <c r="AP83">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ83">
         <v>1</v>
@@ -18243,7 +18246,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q84">
         <v>1.67</v>
@@ -18655,7 +18658,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -19273,7 +19276,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -19354,7 +19357,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ89">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR89">
         <v>2.07</v>
@@ -19479,7 +19482,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19685,7 +19688,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -19763,7 +19766,7 @@
         <v>1.43</v>
       </c>
       <c r="AP91">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ91">
         <v>1.44</v>
@@ -19891,7 +19894,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q92">
         <v>2.8</v>
@@ -20097,7 +20100,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q93">
         <v>3.75</v>
@@ -20303,7 +20306,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q94">
         <v>1.45</v>
@@ -20509,7 +20512,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q95">
         <v>2.51</v>
@@ -20921,7 +20924,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q97">
         <v>3.44</v>
@@ -21823,7 +21826,7 @@
         <v>1.13</v>
       </c>
       <c r="AP101">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ101">
         <v>1.11</v>
@@ -21951,7 +21954,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q102">
         <v>1.44</v>
@@ -22157,7 +22160,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22363,7 +22366,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q104">
         <v>1.57</v>
@@ -22569,7 +22572,7 @@
         <v>165</v>
       </c>
       <c r="P105" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q105">
         <v>3.2</v>
@@ -23187,7 +23190,7 @@
         <v>91</v>
       </c>
       <c r="P108" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q108">
         <v>2.4</v>
@@ -23344,6 +23347,212 @@
       </c>
       <c r="BP108">
         <v>1.85</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7294895</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45521.45833333334</v>
+      </c>
+      <c r="F109">
+        <v>19</v>
+      </c>
+      <c r="G109" t="s">
+        <v>80</v>
+      </c>
+      <c r="H109" t="s">
+        <v>78</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+      <c r="L109">
+        <v>2</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>2</v>
+      </c>
+      <c r="O109" t="s">
+        <v>167</v>
+      </c>
+      <c r="P109" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q109">
+        <v>4.4</v>
+      </c>
+      <c r="R109">
+        <v>2.66</v>
+      </c>
+      <c r="S109">
+        <v>2.18</v>
+      </c>
+      <c r="T109">
+        <v>1.23</v>
+      </c>
+      <c r="U109">
+        <v>3.9</v>
+      </c>
+      <c r="V109">
+        <v>2.13</v>
+      </c>
+      <c r="W109">
+        <v>1.7</v>
+      </c>
+      <c r="X109">
+        <v>4.45</v>
+      </c>
+      <c r="Y109">
+        <v>1.18</v>
+      </c>
+      <c r="Z109">
+        <v>3.7</v>
+      </c>
+      <c r="AA109">
+        <v>3.9</v>
+      </c>
+      <c r="AB109">
+        <v>1.74</v>
+      </c>
+      <c r="AC109">
+        <v>1.01</v>
+      </c>
+      <c r="AD109">
+        <v>11</v>
+      </c>
+      <c r="AE109">
+        <v>1.1</v>
+      </c>
+      <c r="AF109">
+        <v>5.5</v>
+      </c>
+      <c r="AG109">
+        <v>1.42</v>
+      </c>
+      <c r="AH109">
+        <v>2.65</v>
+      </c>
+      <c r="AI109">
+        <v>1.44</v>
+      </c>
+      <c r="AJ109">
+        <v>2.58</v>
+      </c>
+      <c r="AK109">
+        <v>2.06</v>
+      </c>
+      <c r="AL109">
+        <v>1.21</v>
+      </c>
+      <c r="AM109">
+        <v>1.29</v>
+      </c>
+      <c r="AN109">
+        <v>0.89</v>
+      </c>
+      <c r="AO109">
+        <v>1.38</v>
+      </c>
+      <c r="AP109">
+        <v>1.1</v>
+      </c>
+      <c r="AQ109">
+        <v>1.22</v>
+      </c>
+      <c r="AR109">
+        <v>1.24</v>
+      </c>
+      <c r="AS109">
+        <v>1.94</v>
+      </c>
+      <c r="AT109">
+        <v>3.18</v>
+      </c>
+      <c r="AU109">
+        <v>5</v>
+      </c>
+      <c r="AV109">
+        <v>8</v>
+      </c>
+      <c r="AW109">
+        <v>6</v>
+      </c>
+      <c r="AX109">
+        <v>10</v>
+      </c>
+      <c r="AY109">
+        <v>11</v>
+      </c>
+      <c r="AZ109">
+        <v>18</v>
+      </c>
+      <c r="BA109">
+        <v>5</v>
+      </c>
+      <c r="BB109">
+        <v>6</v>
+      </c>
+      <c r="BC109">
+        <v>11</v>
+      </c>
+      <c r="BD109">
+        <v>2.81</v>
+      </c>
+      <c r="BE109">
+        <v>9.4</v>
+      </c>
+      <c r="BF109">
+        <v>1.58</v>
+      </c>
+      <c r="BG109">
+        <v>1.11</v>
+      </c>
+      <c r="BH109">
+        <v>5.5</v>
+      </c>
+      <c r="BI109">
+        <v>1.17</v>
+      </c>
+      <c r="BJ109">
+        <v>4.25</v>
+      </c>
+      <c r="BK109">
+        <v>1.33</v>
+      </c>
+      <c r="BL109">
+        <v>2.93</v>
+      </c>
+      <c r="BM109">
+        <v>1.57</v>
+      </c>
+      <c r="BN109">
+        <v>2.19</v>
+      </c>
+      <c r="BO109">
+        <v>1.91</v>
+      </c>
+      <c r="BP109">
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="241">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -734,6 +734,9 @@
   </si>
   <si>
     <t>['37', '67']</t>
+  </si>
+  <si>
+    <t>['76', '86']</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1098,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP109"/>
+  <dimension ref="A1:BP111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1435,7 +1438,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ2">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1844,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>0.78</v>
@@ -3080,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
         <v>1.44</v>
@@ -3286,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ11">
         <v>1.11</v>
@@ -4110,7 +4113,7 @@
         <v>1.5</v>
       </c>
       <c r="AP15">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ15">
         <v>1.44</v>
@@ -4522,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
         <v>0.67</v>
@@ -4731,7 +4734,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -6173,7 +6176,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ25">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR25">
         <v>1.51</v>
@@ -6582,7 +6585,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
         <v>1.22</v>
@@ -6997,7 +7000,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ29">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AR29">
         <v>1.38</v>
@@ -7200,7 +7203,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ30">
         <v>1.89</v>
@@ -9054,10 +9057,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AR39">
         <v>1.9</v>
@@ -9466,7 +9469,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ41">
         <v>1.44</v>
@@ -9675,7 +9678,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ42">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR42">
         <v>2.07</v>
@@ -11323,7 +11326,7 @@
         <v>2</v>
       </c>
       <c r="AQ50">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR50">
         <v>1.74</v>
@@ -11938,7 +11941,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
         <v>1.11</v>
@@ -12147,7 +12150,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ54">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR54">
         <v>1.32</v>
@@ -12353,7 +12356,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ55">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AR55">
         <v>1.88</v>
@@ -12556,7 +12559,7 @@
         <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ56">
         <v>1.89</v>
@@ -14410,10 +14413,10 @@
         <v>0.6</v>
       </c>
       <c r="AP65">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ65">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR65">
         <v>1.16</v>
@@ -14822,7 +14825,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ67">
         <v>1.11</v>
@@ -15237,7 +15240,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ69">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AR69">
         <v>2.15</v>
@@ -15855,7 +15858,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ72">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AR72">
         <v>1.93</v>
@@ -16058,7 +16061,7 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ73">
         <v>1</v>
@@ -16885,7 +16888,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ77">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR77">
         <v>1.89</v>
@@ -17503,7 +17506,7 @@
         <v>2</v>
       </c>
       <c r="AQ80">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AR80">
         <v>1.86</v>
@@ -18736,7 +18739,7 @@
         <v>0.57</v>
       </c>
       <c r="AP86">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ86">
         <v>0.67</v>
@@ -18942,7 +18945,7 @@
         <v>2</v>
       </c>
       <c r="AP87">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87">
         <v>1.89</v>
@@ -19151,7 +19154,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ88">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AR88">
         <v>1.67</v>
@@ -19975,7 +19978,7 @@
         <v>2</v>
       </c>
       <c r="AQ92">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR92">
         <v>1.95</v>
@@ -21208,7 +21211,7 @@
         <v>1.63</v>
       </c>
       <c r="AP98">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98">
         <v>1.44</v>
@@ -21417,7 +21420,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ99">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR99">
         <v>1.61</v>
@@ -21623,7 +21626,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ100">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AR100">
         <v>2.12</v>
@@ -23510,10 +23513,10 @@
         <v>5</v>
       </c>
       <c r="BB109">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC109">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD109">
         <v>2.81</v>
@@ -23553,6 +23556,418 @@
       </c>
       <c r="BP109">
         <v>1.8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7294896</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45522.58333333334</v>
+      </c>
+      <c r="F110">
+        <v>19</v>
+      </c>
+      <c r="G110" t="s">
+        <v>72</v>
+      </c>
+      <c r="H110" t="s">
+        <v>76</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>2</v>
+      </c>
+      <c r="O110" t="s">
+        <v>84</v>
+      </c>
+      <c r="P110" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q110">
+        <v>2.35</v>
+      </c>
+      <c r="R110">
+        <v>2.5</v>
+      </c>
+      <c r="S110">
+        <v>3.4</v>
+      </c>
+      <c r="T110">
+        <v>1.25</v>
+      </c>
+      <c r="U110">
+        <v>3.6</v>
+      </c>
+      <c r="V110">
+        <v>2.05</v>
+      </c>
+      <c r="W110">
+        <v>1.7</v>
+      </c>
+      <c r="X110">
+        <v>4.3</v>
+      </c>
+      <c r="Y110">
+        <v>1.18</v>
+      </c>
+      <c r="Z110">
+        <v>1.92</v>
+      </c>
+      <c r="AA110">
+        <v>3.7</v>
+      </c>
+      <c r="AB110">
+        <v>2.94</v>
+      </c>
+      <c r="AC110">
+        <v>1.01</v>
+      </c>
+      <c r="AD110">
+        <v>10.75</v>
+      </c>
+      <c r="AE110">
+        <v>1.09</v>
+      </c>
+      <c r="AF110">
+        <v>5.8</v>
+      </c>
+      <c r="AG110">
+        <v>1.4</v>
+      </c>
+      <c r="AH110">
+        <v>2.73</v>
+      </c>
+      <c r="AI110">
+        <v>1.37</v>
+      </c>
+      <c r="AJ110">
+        <v>2.8</v>
+      </c>
+      <c r="AK110">
+        <v>1.25</v>
+      </c>
+      <c r="AL110">
+        <v>1.25</v>
+      </c>
+      <c r="AM110">
+        <v>1.77</v>
+      </c>
+      <c r="AN110">
+        <v>1.56</v>
+      </c>
+      <c r="AO110">
+        <v>0.78</v>
+      </c>
+      <c r="AP110">
+        <v>1.5</v>
+      </c>
+      <c r="AQ110">
+        <v>0.8</v>
+      </c>
+      <c r="AR110">
+        <v>1.82</v>
+      </c>
+      <c r="AS110">
+        <v>1.88</v>
+      </c>
+      <c r="AT110">
+        <v>3.7</v>
+      </c>
+      <c r="AU110">
+        <v>5</v>
+      </c>
+      <c r="AV110">
+        <v>7</v>
+      </c>
+      <c r="AW110">
+        <v>10</v>
+      </c>
+      <c r="AX110">
+        <v>6</v>
+      </c>
+      <c r="AY110">
+        <v>15</v>
+      </c>
+      <c r="AZ110">
+        <v>13</v>
+      </c>
+      <c r="BA110">
+        <v>10</v>
+      </c>
+      <c r="BB110">
+        <v>7</v>
+      </c>
+      <c r="BC110">
+        <v>17</v>
+      </c>
+      <c r="BD110">
+        <v>1.59</v>
+      </c>
+      <c r="BE110">
+        <v>9</v>
+      </c>
+      <c r="BF110">
+        <v>2.77</v>
+      </c>
+      <c r="BG110">
+        <v>1.1</v>
+      </c>
+      <c r="BH110">
+        <v>5.75</v>
+      </c>
+      <c r="BI110">
+        <v>1.12</v>
+      </c>
+      <c r="BJ110">
+        <v>5.05</v>
+      </c>
+      <c r="BK110">
+        <v>1.25</v>
+      </c>
+      <c r="BL110">
+        <v>3.42</v>
+      </c>
+      <c r="BM110">
+        <v>1.44</v>
+      </c>
+      <c r="BN110">
+        <v>2.51</v>
+      </c>
+      <c r="BO110">
+        <v>1.85</v>
+      </c>
+      <c r="BP110">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7294900</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45522.67708333334</v>
+      </c>
+      <c r="F111">
+        <v>19</v>
+      </c>
+      <c r="G111" t="s">
+        <v>77</v>
+      </c>
+      <c r="H111" t="s">
+        <v>74</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>2</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+      <c r="O111" t="s">
+        <v>91</v>
+      </c>
+      <c r="P111" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q111">
+        <v>3.4</v>
+      </c>
+      <c r="R111">
+        <v>2.7</v>
+      </c>
+      <c r="S111">
+        <v>2.53</v>
+      </c>
+      <c r="T111">
+        <v>1.2</v>
+      </c>
+      <c r="U111">
+        <v>4</v>
+      </c>
+      <c r="V111">
+        <v>1.91</v>
+      </c>
+      <c r="W111">
+        <v>1.8</v>
+      </c>
+      <c r="X111">
+        <v>3.8</v>
+      </c>
+      <c r="Y111">
+        <v>1.22</v>
+      </c>
+      <c r="Z111">
+        <v>2.87</v>
+      </c>
+      <c r="AA111">
+        <v>3.69</v>
+      </c>
+      <c r="AB111">
+        <v>1.96</v>
+      </c>
+      <c r="AC111">
+        <v>1.02</v>
+      </c>
+      <c r="AD111">
+        <v>1.02</v>
+      </c>
+      <c r="AE111">
+        <v>1.09</v>
+      </c>
+      <c r="AF111">
+        <v>6</v>
+      </c>
+      <c r="AG111">
+        <v>1.35</v>
+      </c>
+      <c r="AH111">
+        <v>2.94</v>
+      </c>
+      <c r="AI111">
+        <v>1.33</v>
+      </c>
+      <c r="AJ111">
+        <v>3.18</v>
+      </c>
+      <c r="AK111">
+        <v>1.72</v>
+      </c>
+      <c r="AL111">
+        <v>1.23</v>
+      </c>
+      <c r="AM111">
+        <v>1.36</v>
+      </c>
+      <c r="AN111">
+        <v>0.88</v>
+      </c>
+      <c r="AO111">
+        <v>0.11</v>
+      </c>
+      <c r="AP111">
+        <v>0.78</v>
+      </c>
+      <c r="AQ111">
+        <v>0.4</v>
+      </c>
+      <c r="AR111">
+        <v>1.22</v>
+      </c>
+      <c r="AS111">
+        <v>1.57</v>
+      </c>
+      <c r="AT111">
+        <v>2.79</v>
+      </c>
+      <c r="AU111">
+        <v>4</v>
+      </c>
+      <c r="AV111">
+        <v>5</v>
+      </c>
+      <c r="AW111">
+        <v>10</v>
+      </c>
+      <c r="AX111">
+        <v>11</v>
+      </c>
+      <c r="AY111">
+        <v>14</v>
+      </c>
+      <c r="AZ111">
+        <v>16</v>
+      </c>
+      <c r="BA111">
+        <v>3</v>
+      </c>
+      <c r="BB111">
+        <v>7</v>
+      </c>
+      <c r="BC111">
+        <v>10</v>
+      </c>
+      <c r="BD111">
+        <v>2.63</v>
+      </c>
+      <c r="BE111">
+        <v>9</v>
+      </c>
+      <c r="BF111">
+        <v>1.64</v>
+      </c>
+      <c r="BG111">
+        <v>1.12</v>
+      </c>
+      <c r="BH111">
+        <v>5.25</v>
+      </c>
+      <c r="BI111">
+        <v>1.14</v>
+      </c>
+      <c r="BJ111">
+        <v>4.65</v>
+      </c>
+      <c r="BK111">
+        <v>1.28</v>
+      </c>
+      <c r="BL111">
+        <v>3.2</v>
+      </c>
+      <c r="BM111">
+        <v>1.52</v>
+      </c>
+      <c r="BN111">
+        <v>2.46</v>
+      </c>
+      <c r="BO111">
+        <v>1.92</v>
+      </c>
+      <c r="BP111">
+        <v>1.88</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="246">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -520,6 +520,15 @@
     <t>['20', '45+2']</t>
   </si>
   <si>
+    <t>['88', '90+8']</t>
+  </si>
+  <si>
+    <t>['19', '56', '67']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -737,6 +746,12 @@
   </si>
   <si>
     <t>['76', '86']</t>
+  </si>
+  <si>
+    <t>['18', '90+5']</t>
+  </si>
+  <si>
+    <t>['9', '38']</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP111"/>
+  <dimension ref="A1:BP114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1435,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AQ2">
         <v>0.8</v>
@@ -1769,7 +1784,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -2056,7 +2071,7 @@
         <v>2</v>
       </c>
       <c r="AQ5">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2181,7 +2196,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2465,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ7">
         <v>1.44</v>
@@ -2593,7 +2608,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2877,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ9">
         <v>0.67</v>
@@ -3005,7 +3020,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3211,7 +3226,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3292,7 +3307,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ11">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3498,7 +3513,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR12">
         <v>1.36</v>
@@ -3623,7 +3638,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3910,7 +3925,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ14">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR14">
         <v>1.31</v>
@@ -4035,7 +4050,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4322,7 +4337,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ16">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4653,7 +4668,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4859,7 +4874,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4937,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AQ19">
         <v>1.89</v>
@@ -5271,7 +5286,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5477,7 +5492,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5555,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5683,7 +5698,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5889,7 +5904,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -5970,7 +5985,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>1.96</v>
@@ -6095,7 +6110,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6301,7 +6316,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6379,7 +6394,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ26">
         <v>0.67</v>
@@ -6713,7 +6728,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6794,7 +6809,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ28">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR28">
         <v>1.42</v>
@@ -7125,7 +7140,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -7331,7 +7346,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7409,10 +7424,10 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ31">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR31">
         <v>1.92</v>
@@ -7537,7 +7552,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7618,7 +7633,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ32">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>1.74</v>
@@ -8155,7 +8170,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8361,7 +8376,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8645,7 +8660,7 @@
         <v>2.25</v>
       </c>
       <c r="AP37">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AQ37">
         <v>1.44</v>
@@ -8773,7 +8788,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8979,7 +8994,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9185,7 +9200,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9263,7 +9278,7 @@
         <v>2.33</v>
       </c>
       <c r="AP40">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ40">
         <v>1.22</v>
@@ -9391,7 +9406,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9472,7 +9487,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ41">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR41">
         <v>1.13</v>
@@ -9597,7 +9612,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9675,7 +9690,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ42">
         <v>0.8</v>
@@ -9803,7 +9818,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9884,7 +9899,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ43">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR43">
         <v>1.57</v>
@@ -10009,7 +10024,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10215,7 +10230,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10421,7 +10436,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10833,7 +10848,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11039,7 +11054,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11245,7 +11260,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11529,7 +11544,7 @@
         <v>2.25</v>
       </c>
       <c r="AP51">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ51">
         <v>1.89</v>
@@ -11657,7 +11672,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11735,10 +11750,10 @@
         <v>1.67</v>
       </c>
       <c r="AP52">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ52">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR52">
         <v>2.33</v>
@@ -11863,7 +11878,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -11944,7 +11959,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ53">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR53">
         <v>1.86</v>
@@ -12069,7 +12084,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12275,7 +12290,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12353,7 +12368,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AQ55">
         <v>0.4</v>
@@ -12481,7 +12496,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12687,7 +12702,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -12768,7 +12783,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ57">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR57">
         <v>2.05</v>
@@ -12893,7 +12908,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -13099,7 +13114,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13305,7 +13320,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13511,7 +13526,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q61">
         <v>2.9</v>
@@ -13717,7 +13732,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13923,7 +13938,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q63">
         <v>1.84</v>
@@ -14001,7 +14016,7 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14129,7 +14144,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q64">
         <v>5.69</v>
@@ -14210,7 +14225,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ64">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR64">
         <v>1.37</v>
@@ -14335,7 +14350,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q65">
         <v>4.4</v>
@@ -14541,7 +14556,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14619,7 +14634,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AQ66">
         <v>1.22</v>
@@ -14747,7 +14762,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14828,7 +14843,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ67">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>1.91</v>
@@ -14953,7 +14968,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -15031,10 +15046,10 @@
         <v>1.4</v>
       </c>
       <c r="AP68">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ68">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR68">
         <v>1.99</v>
@@ -15159,7 +15174,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q69">
         <v>1.85</v>
@@ -15237,7 +15252,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ69">
         <v>0.4</v>
@@ -15365,7 +15380,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q70">
         <v>3.7</v>
@@ -15446,7 +15461,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ70">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.27</v>
@@ -15571,7 +15586,7 @@
         <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -15777,7 +15792,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15983,7 +15998,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q73">
         <v>3.85</v>
@@ -16267,7 +16282,7 @@
         <v>2.4</v>
       </c>
       <c r="AP74">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ74">
         <v>1.89</v>
@@ -16395,7 +16410,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16476,7 +16491,7 @@
         <v>2</v>
       </c>
       <c r="AQ75">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR75">
         <v>1.99</v>
@@ -16601,7 +16616,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q76">
         <v>1.78</v>
@@ -16679,10 +16694,10 @@
         <v>1.5</v>
       </c>
       <c r="AP76">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AQ76">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR76">
         <v>2.08</v>
@@ -16807,7 +16822,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q77">
         <v>2.54</v>
@@ -17219,7 +17234,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q79">
         <v>5.9</v>
@@ -17631,7 +17646,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q81">
         <v>2.25</v>
@@ -17709,7 +17724,7 @@
         <v>0.6</v>
       </c>
       <c r="AP81">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -18043,7 +18058,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q83">
         <v>3.75</v>
@@ -18249,7 +18264,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q84">
         <v>1.67</v>
@@ -18327,7 +18342,7 @@
         <v>1.17</v>
       </c>
       <c r="AP84">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ84">
         <v>0.78</v>
@@ -18536,7 +18551,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ85">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR85">
         <v>2.02</v>
@@ -18661,7 +18676,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -19279,7 +19294,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -19357,7 +19372,7 @@
         <v>1.57</v>
       </c>
       <c r="AP89">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ89">
         <v>1.22</v>
@@ -19485,7 +19500,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19563,10 +19578,10 @@
         <v>1.14</v>
       </c>
       <c r="AP90">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ90">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR90">
         <v>1.94</v>
@@ -19691,7 +19706,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -19897,7 +19912,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q92">
         <v>2.8</v>
@@ -20103,7 +20118,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q93">
         <v>3.75</v>
@@ -20184,7 +20199,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ93">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR93">
         <v>1.62</v>
@@ -20309,7 +20324,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q94">
         <v>1.45</v>
@@ -20387,7 +20402,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AQ94">
         <v>0.78</v>
@@ -20515,7 +20530,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q95">
         <v>2.51</v>
@@ -20802,7 +20817,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ96">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR96">
         <v>1.96</v>
@@ -20927,7 +20942,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q97">
         <v>3.44</v>
@@ -21005,7 +21020,7 @@
         <v>1.75</v>
       </c>
       <c r="AP97">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ97">
         <v>1.89</v>
@@ -21214,7 +21229,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ98">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR98">
         <v>1.82</v>
@@ -21623,7 +21638,7 @@
         <v>0.13</v>
       </c>
       <c r="AP100">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ100">
         <v>0.4</v>
@@ -21832,7 +21847,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ101">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR101">
         <v>1.23</v>
@@ -21957,7 +21972,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q102">
         <v>1.44</v>
@@ -22035,7 +22050,7 @@
         <v>0.63</v>
       </c>
       <c r="AP102">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AQ102">
         <v>0.67</v>
@@ -22163,7 +22178,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22369,7 +22384,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q104">
         <v>1.57</v>
@@ -22575,7 +22590,7 @@
         <v>165</v>
       </c>
       <c r="P105" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q105">
         <v>3.2</v>
@@ -22862,7 +22877,7 @@
         <v>2</v>
       </c>
       <c r="AQ106">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR106">
         <v>1.94</v>
@@ -23193,7 +23208,7 @@
         <v>91</v>
       </c>
       <c r="P108" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q108">
         <v>2.4</v>
@@ -23811,7 +23826,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q111">
         <v>3.4</v>
@@ -23968,6 +23983,624 @@
       </c>
       <c r="BP111">
         <v>1.88</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7294898</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45523.625</v>
+      </c>
+      <c r="F112">
+        <v>19</v>
+      </c>
+      <c r="G112" t="s">
+        <v>81</v>
+      </c>
+      <c r="H112" t="s">
+        <v>73</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>2</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>4</v>
+      </c>
+      <c r="O112" t="s">
+        <v>168</v>
+      </c>
+      <c r="P112" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q112">
+        <v>3.25</v>
+      </c>
+      <c r="R112">
+        <v>2.6</v>
+      </c>
+      <c r="S112">
+        <v>2.4</v>
+      </c>
+      <c r="T112">
+        <v>1.22</v>
+      </c>
+      <c r="U112">
+        <v>4</v>
+      </c>
+      <c r="V112">
+        <v>2</v>
+      </c>
+      <c r="W112">
+        <v>1.73</v>
+      </c>
+      <c r="X112">
+        <v>4.33</v>
+      </c>
+      <c r="Y112">
+        <v>1.2</v>
+      </c>
+      <c r="Z112">
+        <v>2.6</v>
+      </c>
+      <c r="AA112">
+        <v>3.75</v>
+      </c>
+      <c r="AB112">
+        <v>2.33</v>
+      </c>
+      <c r="AC112">
+        <v>1.01</v>
+      </c>
+      <c r="AD112">
+        <v>11.25</v>
+      </c>
+      <c r="AE112">
+        <v>1.11</v>
+      </c>
+      <c r="AF112">
+        <v>5.75</v>
+      </c>
+      <c r="AG112">
+        <v>1.35</v>
+      </c>
+      <c r="AH112">
+        <v>2.94</v>
+      </c>
+      <c r="AI112">
+        <v>1.36</v>
+      </c>
+      <c r="AJ112">
+        <v>3</v>
+      </c>
+      <c r="AK112">
+        <v>1.73</v>
+      </c>
+      <c r="AL112">
+        <v>1.2</v>
+      </c>
+      <c r="AM112">
+        <v>1.36</v>
+      </c>
+      <c r="AN112">
+        <v>1.67</v>
+      </c>
+      <c r="AO112">
+        <v>1.44</v>
+      </c>
+      <c r="AP112">
+        <v>1.6</v>
+      </c>
+      <c r="AQ112">
+        <v>1.4</v>
+      </c>
+      <c r="AR112">
+        <v>1.93</v>
+      </c>
+      <c r="AS112">
+        <v>2.23</v>
+      </c>
+      <c r="AT112">
+        <v>4.16</v>
+      </c>
+      <c r="AU112">
+        <v>5</v>
+      </c>
+      <c r="AV112">
+        <v>5</v>
+      </c>
+      <c r="AW112">
+        <v>11</v>
+      </c>
+      <c r="AX112">
+        <v>2</v>
+      </c>
+      <c r="AY112">
+        <v>16</v>
+      </c>
+      <c r="AZ112">
+        <v>7</v>
+      </c>
+      <c r="BA112">
+        <v>10</v>
+      </c>
+      <c r="BB112">
+        <v>2</v>
+      </c>
+      <c r="BC112">
+        <v>12</v>
+      </c>
+      <c r="BD112">
+        <v>2.08</v>
+      </c>
+      <c r="BE112">
+        <v>8</v>
+      </c>
+      <c r="BF112">
+        <v>1.98</v>
+      </c>
+      <c r="BG112">
+        <v>0</v>
+      </c>
+      <c r="BH112">
+        <v>0</v>
+      </c>
+      <c r="BI112">
+        <v>1.11</v>
+      </c>
+      <c r="BJ112">
+        <v>5.25</v>
+      </c>
+      <c r="BK112">
+        <v>1.33</v>
+      </c>
+      <c r="BL112">
+        <v>2.85</v>
+      </c>
+      <c r="BM112">
+        <v>1.53</v>
+      </c>
+      <c r="BN112">
+        <v>2.25</v>
+      </c>
+      <c r="BO112">
+        <v>1.85</v>
+      </c>
+      <c r="BP112">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7294897</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45523.67708333334</v>
+      </c>
+      <c r="F113">
+        <v>19</v>
+      </c>
+      <c r="G113" t="s">
+        <v>75</v>
+      </c>
+      <c r="H113" t="s">
+        <v>71</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>2</v>
+      </c>
+      <c r="L113">
+        <v>3</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>4</v>
+      </c>
+      <c r="O113" t="s">
+        <v>169</v>
+      </c>
+      <c r="P113" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q113">
+        <v>2</v>
+      </c>
+      <c r="R113">
+        <v>2.5</v>
+      </c>
+      <c r="S113">
+        <v>4.75</v>
+      </c>
+      <c r="T113">
+        <v>1.29</v>
+      </c>
+      <c r="U113">
+        <v>3.5</v>
+      </c>
+      <c r="V113">
+        <v>2.25</v>
+      </c>
+      <c r="W113">
+        <v>1.57</v>
+      </c>
+      <c r="X113">
+        <v>4.5</v>
+      </c>
+      <c r="Y113">
+        <v>1.17</v>
+      </c>
+      <c r="Z113">
+        <v>1.45</v>
+      </c>
+      <c r="AA113">
+        <v>4.5</v>
+      </c>
+      <c r="AB113">
+        <v>6</v>
+      </c>
+      <c r="AC113">
+        <v>1.03</v>
+      </c>
+      <c r="AD113">
+        <v>10</v>
+      </c>
+      <c r="AE113">
+        <v>1.17</v>
+      </c>
+      <c r="AF113">
+        <v>4.75</v>
+      </c>
+      <c r="AG113">
+        <v>1.48</v>
+      </c>
+      <c r="AH113">
+        <v>2.47</v>
+      </c>
+      <c r="AI113">
+        <v>1.62</v>
+      </c>
+      <c r="AJ113">
+        <v>2.2</v>
+      </c>
+      <c r="AK113">
+        <v>1.12</v>
+      </c>
+      <c r="AL113">
+        <v>1.18</v>
+      </c>
+      <c r="AM113">
+        <v>2.38</v>
+      </c>
+      <c r="AN113">
+        <v>2.22</v>
+      </c>
+      <c r="AO113">
+        <v>1.11</v>
+      </c>
+      <c r="AP113">
+        <v>2.3</v>
+      </c>
+      <c r="AQ113">
+        <v>1</v>
+      </c>
+      <c r="AR113">
+        <v>2.18</v>
+      </c>
+      <c r="AS113">
+        <v>1.59</v>
+      </c>
+      <c r="AT113">
+        <v>3.77</v>
+      </c>
+      <c r="AU113">
+        <v>5</v>
+      </c>
+      <c r="AV113">
+        <v>5</v>
+      </c>
+      <c r="AW113">
+        <v>9</v>
+      </c>
+      <c r="AX113">
+        <v>3</v>
+      </c>
+      <c r="AY113">
+        <v>14</v>
+      </c>
+      <c r="AZ113">
+        <v>8</v>
+      </c>
+      <c r="BA113">
+        <v>8</v>
+      </c>
+      <c r="BB113">
+        <v>5</v>
+      </c>
+      <c r="BC113">
+        <v>13</v>
+      </c>
+      <c r="BD113">
+        <v>1.35</v>
+      </c>
+      <c r="BE113">
+        <v>10.25</v>
+      </c>
+      <c r="BF113">
+        <v>3.74</v>
+      </c>
+      <c r="BG113">
+        <v>0</v>
+      </c>
+      <c r="BH113">
+        <v>0</v>
+      </c>
+      <c r="BI113">
+        <v>1.14</v>
+      </c>
+      <c r="BJ113">
+        <v>4.7</v>
+      </c>
+      <c r="BK113">
+        <v>1.27</v>
+      </c>
+      <c r="BL113">
+        <v>3.28</v>
+      </c>
+      <c r="BM113">
+        <v>1.49</v>
+      </c>
+      <c r="BN113">
+        <v>2.53</v>
+      </c>
+      <c r="BO113">
+        <v>1.91</v>
+      </c>
+      <c r="BP113">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7294899</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45523.67708333334</v>
+      </c>
+      <c r="F114">
+        <v>19</v>
+      </c>
+      <c r="G114" t="s">
+        <v>70</v>
+      </c>
+      <c r="H114" t="s">
+        <v>79</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>2</v>
+      </c>
+      <c r="K114">
+        <v>3</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>2</v>
+      </c>
+      <c r="N114">
+        <v>3</v>
+      </c>
+      <c r="O114" t="s">
+        <v>170</v>
+      </c>
+      <c r="P114" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q114">
+        <v>1.91</v>
+      </c>
+      <c r="R114">
+        <v>2.75</v>
+      </c>
+      <c r="S114">
+        <v>4.75</v>
+      </c>
+      <c r="T114">
+        <v>1.2</v>
+      </c>
+      <c r="U114">
+        <v>4</v>
+      </c>
+      <c r="V114">
+        <v>1.91</v>
+      </c>
+      <c r="W114">
+        <v>1.8</v>
+      </c>
+      <c r="X114">
+        <v>3.8</v>
+      </c>
+      <c r="Y114">
+        <v>1.22</v>
+      </c>
+      <c r="Z114">
+        <v>1.51</v>
+      </c>
+      <c r="AA114">
+        <v>4.5</v>
+      </c>
+      <c r="AB114">
+        <v>5</v>
+      </c>
+      <c r="AC114">
+        <v>1.01</v>
+      </c>
+      <c r="AD114">
+        <v>11.25</v>
+      </c>
+      <c r="AE114">
+        <v>1.09</v>
+      </c>
+      <c r="AF114">
+        <v>6</v>
+      </c>
+      <c r="AG114">
+        <v>1.34</v>
+      </c>
+      <c r="AH114">
+        <v>2.99</v>
+      </c>
+      <c r="AI114">
+        <v>1.48</v>
+      </c>
+      <c r="AJ114">
+        <v>2.5</v>
+      </c>
+      <c r="AK114">
+        <v>1.15</v>
+      </c>
+      <c r="AL114">
+        <v>1.18</v>
+      </c>
+      <c r="AM114">
+        <v>2.6</v>
+      </c>
+      <c r="AN114">
+        <v>2.56</v>
+      </c>
+      <c r="AO114">
+        <v>1.11</v>
+      </c>
+      <c r="AP114">
+        <v>2.3</v>
+      </c>
+      <c r="AQ114">
+        <v>1.3</v>
+      </c>
+      <c r="AR114">
+        <v>2.25</v>
+      </c>
+      <c r="AS114">
+        <v>1.55</v>
+      </c>
+      <c r="AT114">
+        <v>3.8</v>
+      </c>
+      <c r="AU114">
+        <v>5</v>
+      </c>
+      <c r="AV114">
+        <v>6</v>
+      </c>
+      <c r="AW114">
+        <v>7</v>
+      </c>
+      <c r="AX114">
+        <v>4</v>
+      </c>
+      <c r="AY114">
+        <v>12</v>
+      </c>
+      <c r="AZ114">
+        <v>10</v>
+      </c>
+      <c r="BA114">
+        <v>4</v>
+      </c>
+      <c r="BB114">
+        <v>3</v>
+      </c>
+      <c r="BC114">
+        <v>7</v>
+      </c>
+      <c r="BD114">
+        <v>1.36</v>
+      </c>
+      <c r="BE114">
+        <v>13.5</v>
+      </c>
+      <c r="BF114">
+        <v>3.5</v>
+      </c>
+      <c r="BG114">
+        <v>1.11</v>
+      </c>
+      <c r="BH114">
+        <v>5.5</v>
+      </c>
+      <c r="BI114">
+        <v>1.16</v>
+      </c>
+      <c r="BJ114">
+        <v>4.4</v>
+      </c>
+      <c r="BK114">
+        <v>1.31</v>
+      </c>
+      <c r="BL114">
+        <v>3.04</v>
+      </c>
+      <c r="BM114">
+        <v>1.53</v>
+      </c>
+      <c r="BN114">
+        <v>2.28</v>
+      </c>
+      <c r="BO114">
+        <v>1.88</v>
+      </c>
+      <c r="BP114">
+        <v>1.82</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="248">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -529,6 +529,9 @@
     <t>['6']</t>
   </si>
   <si>
+    <t>['48', '70', '85']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -752,6 +755,9 @@
   </si>
   <si>
     <t>['9', '38']</t>
+  </si>
+  <si>
+    <t>['6', '45']</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP114"/>
+  <dimension ref="A1:BP115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1784,7 +1790,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -2196,7 +2202,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2277,7 +2283,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ6">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2608,7 +2614,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2689,7 +2695,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ8">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3020,7 +3026,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3226,7 +3232,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3304,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
         <v>1.3</v>
@@ -3638,7 +3644,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -4050,7 +4056,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4128,7 +4134,7 @@
         <v>1.5</v>
       </c>
       <c r="AP15">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <v>1.44</v>
@@ -4668,7 +4674,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4874,7 +4880,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5286,7 +5292,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5492,7 +5498,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5698,7 +5704,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5904,7 +5910,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -6110,7 +6116,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6316,7 +6322,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6603,7 +6609,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR27">
         <v>1.91</v>
@@ -6728,7 +6734,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -7140,7 +7146,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -7218,7 +7224,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
         <v>1.89</v>
@@ -7346,7 +7352,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7552,7 +7558,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -8170,7 +8176,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8376,7 +8382,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8788,7 +8794,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8994,7 +9000,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9200,7 +9206,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9281,7 +9287,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ40">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR40">
         <v>2.29</v>
@@ -9406,7 +9412,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9484,7 +9490,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
         <v>1.4</v>
@@ -9612,7 +9618,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9818,7 +9824,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -10024,7 +10030,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10230,7 +10236,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10436,7 +10442,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10848,7 +10854,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11054,7 +11060,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11260,7 +11266,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11672,7 +11678,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11878,7 +11884,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -12084,7 +12090,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12290,7 +12296,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12496,7 +12502,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12574,7 +12580,7 @@
         <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
         <v>1.89</v>
@@ -12702,7 +12708,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -12908,7 +12914,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -13114,7 +13120,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13320,7 +13326,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13526,7 +13532,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q61">
         <v>2.9</v>
@@ -13607,7 +13613,7 @@
         <v>2</v>
       </c>
       <c r="AQ61">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR61">
         <v>1.93</v>
@@ -13732,7 +13738,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13938,7 +13944,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q63">
         <v>1.84</v>
@@ -14144,7 +14150,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q64">
         <v>5.69</v>
@@ -14350,7 +14356,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q65">
         <v>4.4</v>
@@ -14428,7 +14434,7 @@
         <v>0.6</v>
       </c>
       <c r="AP65">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
         <v>0.8</v>
@@ -14556,7 +14562,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14637,7 +14643,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ66">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR66">
         <v>1.97</v>
@@ -14762,7 +14768,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14968,7 +14974,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -15174,7 +15180,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q69">
         <v>1.85</v>
@@ -15380,7 +15386,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q70">
         <v>3.7</v>
@@ -15586,7 +15592,7 @@
         <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -15792,7 +15798,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15998,7 +16004,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q73">
         <v>3.85</v>
@@ -16076,7 +16082,7 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ73">
         <v>1</v>
@@ -16410,7 +16416,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16616,7 +16622,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q76">
         <v>1.78</v>
@@ -16822,7 +16828,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q77">
         <v>2.54</v>
@@ -17234,7 +17240,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q79">
         <v>5.9</v>
@@ -17646,7 +17652,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q81">
         <v>2.25</v>
@@ -17933,7 +17939,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ82">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR82">
         <v>1.65</v>
@@ -18058,7 +18064,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q83">
         <v>3.75</v>
@@ -18264,7 +18270,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q84">
         <v>1.67</v>
@@ -18676,7 +18682,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -18754,7 +18760,7 @@
         <v>0.57</v>
       </c>
       <c r="AP86">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ86">
         <v>0.67</v>
@@ -19294,7 +19300,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -19375,7 +19381,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ89">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR89">
         <v>2.07</v>
@@ -19500,7 +19506,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19706,7 +19712,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -19912,7 +19918,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q92">
         <v>2.8</v>
@@ -20118,7 +20124,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q93">
         <v>3.75</v>
@@ -20324,7 +20330,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q94">
         <v>1.45</v>
@@ -20530,7 +20536,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q95">
         <v>2.51</v>
@@ -20942,7 +20948,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q97">
         <v>3.44</v>
@@ -21972,7 +21978,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q102">
         <v>1.44</v>
@@ -22178,7 +22184,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22384,7 +22390,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q104">
         <v>1.57</v>
@@ -22590,7 +22596,7 @@
         <v>165</v>
       </c>
       <c r="P105" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q105">
         <v>3.2</v>
@@ -23208,7 +23214,7 @@
         <v>91</v>
       </c>
       <c r="P108" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q108">
         <v>2.4</v>
@@ -23495,7 +23501,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ109">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR109">
         <v>1.24</v>
@@ -23826,7 +23832,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q111">
         <v>3.4</v>
@@ -23904,7 +23910,7 @@
         <v>0.11</v>
       </c>
       <c r="AP111">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ111">
         <v>0.4</v>
@@ -24032,7 +24038,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24444,7 +24450,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -24601,6 +24607,212 @@
       </c>
       <c r="BP114">
         <v>1.82</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7294888</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45526.70833333334</v>
+      </c>
+      <c r="F115">
+        <v>17</v>
+      </c>
+      <c r="G115" t="s">
+        <v>77</v>
+      </c>
+      <c r="H115" t="s">
+        <v>78</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>2</v>
+      </c>
+      <c r="K115">
+        <v>2</v>
+      </c>
+      <c r="L115">
+        <v>3</v>
+      </c>
+      <c r="M115">
+        <v>2</v>
+      </c>
+      <c r="N115">
+        <v>5</v>
+      </c>
+      <c r="O115" t="s">
+        <v>171</v>
+      </c>
+      <c r="P115" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q115">
+        <v>4.5</v>
+      </c>
+      <c r="R115">
+        <v>2.65</v>
+      </c>
+      <c r="S115">
+        <v>1.93</v>
+      </c>
+      <c r="T115">
+        <v>1.2</v>
+      </c>
+      <c r="U115">
+        <v>4</v>
+      </c>
+      <c r="V115">
+        <v>1.9</v>
+      </c>
+      <c r="W115">
+        <v>1.8</v>
+      </c>
+      <c r="X115">
+        <v>4.1</v>
+      </c>
+      <c r="Y115">
+        <v>1.2</v>
+      </c>
+      <c r="Z115">
+        <v>4</v>
+      </c>
+      <c r="AA115">
+        <v>4.2</v>
+      </c>
+      <c r="AB115">
+        <v>1.6</v>
+      </c>
+      <c r="AC115">
+        <v>1.01</v>
+      </c>
+      <c r="AD115">
+        <v>11.25</v>
+      </c>
+      <c r="AE115">
+        <v>1.07</v>
+      </c>
+      <c r="AF115">
+        <v>6.5</v>
+      </c>
+      <c r="AG115">
+        <v>1.36</v>
+      </c>
+      <c r="AH115">
+        <v>2.89</v>
+      </c>
+      <c r="AI115">
+        <v>1.4</v>
+      </c>
+      <c r="AJ115">
+        <v>2.7</v>
+      </c>
+      <c r="AK115">
+        <v>2.35</v>
+      </c>
+      <c r="AL115">
+        <v>1.2</v>
+      </c>
+      <c r="AM115">
+        <v>1.1</v>
+      </c>
+      <c r="AN115">
+        <v>0.78</v>
+      </c>
+      <c r="AO115">
+        <v>1.22</v>
+      </c>
+      <c r="AP115">
+        <v>1</v>
+      </c>
+      <c r="AQ115">
+        <v>1.1</v>
+      </c>
+      <c r="AR115">
+        <v>1.29</v>
+      </c>
+      <c r="AS115">
+        <v>1.96</v>
+      </c>
+      <c r="AT115">
+        <v>3.25</v>
+      </c>
+      <c r="AU115">
+        <v>7</v>
+      </c>
+      <c r="AV115">
+        <v>8</v>
+      </c>
+      <c r="AW115">
+        <v>3</v>
+      </c>
+      <c r="AX115">
+        <v>13</v>
+      </c>
+      <c r="AY115">
+        <v>10</v>
+      </c>
+      <c r="AZ115">
+        <v>21</v>
+      </c>
+      <c r="BA115">
+        <v>8</v>
+      </c>
+      <c r="BB115">
+        <v>8</v>
+      </c>
+      <c r="BC115">
+        <v>16</v>
+      </c>
+      <c r="BD115">
+        <v>3.84</v>
+      </c>
+      <c r="BE115">
+        <v>10</v>
+      </c>
+      <c r="BF115">
+        <v>1.34</v>
+      </c>
+      <c r="BG115">
+        <v>0</v>
+      </c>
+      <c r="BH115">
+        <v>0</v>
+      </c>
+      <c r="BI115">
+        <v>1.12</v>
+      </c>
+      <c r="BJ115">
+        <v>4.95</v>
+      </c>
+      <c r="BK115">
+        <v>1.25</v>
+      </c>
+      <c r="BL115">
+        <v>3.42</v>
+      </c>
+      <c r="BM115">
+        <v>1.45</v>
+      </c>
+      <c r="BN115">
+        <v>2.48</v>
+      </c>
+      <c r="BO115">
+        <v>1.8</v>
+      </c>
+      <c r="BP115">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -24770,10 +24770,10 @@
         <v>8</v>
       </c>
       <c r="BB115">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC115">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD115">
         <v>3.84</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="253">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -532,6 +532,18 @@
     <t>['48', '70', '85']</t>
   </si>
   <si>
+    <t>['32', '68', '90+4']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['2', '12']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -545,9 +557,6 @@
   </si>
   <si>
     <t>['52', '60', '66', '70']</t>
-  </si>
-  <si>
-    <t>['63']</t>
   </si>
   <si>
     <t>['67', '80']</t>
@@ -727,9 +736,6 @@
     <t>['56', '80', '89']</t>
   </si>
   <si>
-    <t>['19']</t>
-  </si>
-  <si>
     <t>['58', '71']</t>
   </si>
   <si>
@@ -758,6 +764,15 @@
   </si>
   <si>
     <t>['6', '45']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['9', '90+3']</t>
+  </si>
+  <si>
+    <t>['8', '60', '82']</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP115"/>
+  <dimension ref="A1:BP119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1662,10 +1677,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ3">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1790,7 +1805,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -2074,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ5">
         <v>1.3</v>
@@ -2202,7 +2217,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2280,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ6">
         <v>1.1</v>
@@ -2489,7 +2504,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ7">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2614,7 +2629,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2901,7 +2916,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ9">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR9">
         <v>1.31</v>
@@ -3026,7 +3041,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3107,7 +3122,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR10">
         <v>2.8</v>
@@ -3232,7 +3247,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3516,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ12">
         <v>1.4</v>
@@ -3644,7 +3659,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q13">
         <v>4.8</v>
@@ -3722,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ13">
         <v>1.89</v>
@@ -4056,7 +4071,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4137,7 +4152,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR15">
         <v>1.21</v>
@@ -4549,7 +4564,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ17">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR17">
         <v>2.26</v>
@@ -4674,7 +4689,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4752,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ18">
         <v>0.4</v>
@@ -4880,7 +4895,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4961,7 +4976,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ19">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR19">
         <v>1.54</v>
@@ -5292,7 +5307,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5370,10 +5385,10 @@
         <v>2</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ21">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR21">
         <v>2.58</v>
@@ -5498,7 +5513,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5579,7 +5594,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR22">
         <v>1.78</v>
@@ -5704,7 +5719,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5785,7 +5800,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ23">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>1.8</v>
@@ -5910,7 +5925,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -5988,7 +6003,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -6116,7 +6131,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6194,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ25">
         <v>0.8</v>
@@ -6322,7 +6337,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6403,7 +6418,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ26">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6734,7 +6749,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -7018,7 +7033,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ29">
         <v>0.4</v>
@@ -7146,7 +7161,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -7352,7 +7367,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7558,7 +7573,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7842,10 +7857,10 @@
         <v>0.75</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ33">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR33">
         <v>2.09</v>
@@ -8048,10 +8063,10 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR34">
         <v>1.75</v>
@@ -8176,7 +8191,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8382,7 +8397,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8460,10 +8475,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ36">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR36">
         <v>1.56</v>
@@ -8669,7 +8684,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ37">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR37">
         <v>2.05</v>
@@ -8794,7 +8809,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -9000,7 +9015,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9206,7 +9221,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9412,7 +9427,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9618,7 +9633,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9824,7 +9839,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9902,7 +9917,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ43">
         <v>1.3</v>
@@ -10030,7 +10045,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10111,7 +10126,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ44">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR44">
         <v>2.01</v>
@@ -10236,7 +10251,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10314,7 +10329,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ45">
         <v>1.89</v>
@@ -10442,7 +10457,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10520,10 +10535,10 @@
         <v>1.8</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ46">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR46">
         <v>1.74</v>
@@ -10729,7 +10744,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR47">
         <v>1.67</v>
@@ -10854,7 +10869,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10932,10 +10947,10 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ48">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR48">
         <v>1.66</v>
@@ -11060,7 +11075,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11138,7 +11153,7 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ49">
         <v>0.78</v>
@@ -11266,7 +11281,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11344,7 +11359,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ50">
         <v>0.8</v>
@@ -11678,7 +11693,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11884,7 +11899,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -12090,7 +12105,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12296,7 +12311,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12502,7 +12517,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12583,7 +12598,7 @@
         <v>1</v>
       </c>
       <c r="AQ56">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR56">
         <v>1.21</v>
@@ -12708,7 +12723,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -12914,7 +12929,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -12992,10 +13007,10 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ58">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR58">
         <v>1.94</v>
@@ -13120,7 +13135,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13198,7 +13213,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ59">
         <v>0.78</v>
@@ -13326,7 +13341,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13407,7 +13422,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ60">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR60">
         <v>1.74</v>
@@ -13532,7 +13547,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q61">
         <v>2.9</v>
@@ -13610,7 +13625,7 @@
         <v>2.5</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ61">
         <v>1.1</v>
@@ -13738,7 +13753,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13816,7 +13831,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ62">
         <v>1.89</v>
@@ -13944,7 +13959,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q63">
         <v>1.84</v>
@@ -14025,7 +14040,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR63">
         <v>1.93</v>
@@ -14150,7 +14165,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q64">
         <v>5.69</v>
@@ -14356,7 +14371,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q65">
         <v>4.4</v>
@@ -14562,7 +14577,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14768,7 +14783,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14974,7 +14989,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -15180,7 +15195,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q69">
         <v>1.85</v>
@@ -15386,7 +15401,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q70">
         <v>3.7</v>
@@ -15592,7 +15607,7 @@
         <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -15798,7 +15813,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -16004,7 +16019,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q73">
         <v>3.85</v>
@@ -16085,7 +16100,7 @@
         <v>1</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR73">
         <v>1.18</v>
@@ -16291,7 +16306,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ74">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR74">
         <v>2.07</v>
@@ -16416,7 +16431,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16494,7 +16509,7 @@
         <v>2.17</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ75">
         <v>1.4</v>
@@ -16622,7 +16637,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q76">
         <v>1.78</v>
@@ -16828,7 +16843,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q77">
         <v>2.54</v>
@@ -17112,7 +17127,7 @@
         <v>1.4</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ78">
         <v>0.78</v>
@@ -17240,7 +17255,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q79">
         <v>5.9</v>
@@ -17321,7 +17336,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ79">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR79">
         <v>1.24</v>
@@ -17524,7 +17539,7 @@
         <v>0.17</v>
       </c>
       <c r="AP80">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ80">
         <v>0.4</v>
@@ -17652,7 +17667,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q81">
         <v>2.25</v>
@@ -17733,7 +17748,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ81">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR81">
         <v>1.86</v>
@@ -17936,7 +17951,7 @@
         <v>1.83</v>
       </c>
       <c r="AP82">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ82">
         <v>1.1</v>
@@ -18064,7 +18079,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q83">
         <v>3.75</v>
@@ -18145,7 +18160,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ83">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR83">
         <v>1.3</v>
@@ -18270,7 +18285,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q84">
         <v>1.67</v>
@@ -18554,7 +18569,7 @@
         <v>1.33</v>
       </c>
       <c r="AP85">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ85">
         <v>1.3</v>
@@ -18682,7 +18697,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -18763,7 +18778,7 @@
         <v>1</v>
       </c>
       <c r="AQ86">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR86">
         <v>1.18</v>
@@ -19300,7 +19315,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -19506,7 +19521,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19712,7 +19727,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -19793,7 +19808,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ91">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR91">
         <v>1.28</v>
@@ -19918,7 +19933,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q92">
         <v>2.8</v>
@@ -19996,7 +20011,7 @@
         <v>0.57</v>
       </c>
       <c r="AP92">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ92">
         <v>0.8</v>
@@ -20124,7 +20139,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q93">
         <v>3.75</v>
@@ -20202,7 +20217,7 @@
         <v>1.86</v>
       </c>
       <c r="AP93">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ93">
         <v>1.4</v>
@@ -20330,7 +20345,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c r="Q94">
         <v>1.45</v>
@@ -20536,7 +20551,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q95">
         <v>2.51</v>
@@ -20617,7 +20632,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ95">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR95">
         <v>1.93</v>
@@ -20820,7 +20835,7 @@
         <v>1.29</v>
       </c>
       <c r="AP96">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ96">
         <v>1</v>
@@ -20948,7 +20963,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q97">
         <v>3.44</v>
@@ -21438,7 +21453,7 @@
         <v>0.88</v>
       </c>
       <c r="AP99">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ99">
         <v>0.8</v>
@@ -21978,7 +21993,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q102">
         <v>1.44</v>
@@ -22059,7 +22074,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ102">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR102">
         <v>2.23</v>
@@ -22184,7 +22199,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22262,10 +22277,10 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ103">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR103">
         <v>1.86</v>
@@ -22390,7 +22405,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q104">
         <v>1.57</v>
@@ -22468,7 +22483,7 @@
         <v>0.88</v>
       </c>
       <c r="AP104">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ104">
         <v>0.78</v>
@@ -22596,7 +22611,7 @@
         <v>165</v>
       </c>
       <c r="P105" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q105">
         <v>3.2</v>
@@ -22677,7 +22692,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ105">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR105">
         <v>1.75</v>
@@ -22880,7 +22895,7 @@
         <v>1.25</v>
       </c>
       <c r="AP106">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ106">
         <v>1</v>
@@ -23089,7 +23104,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ107">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR107">
         <v>1.98</v>
@@ -23214,7 +23229,7 @@
         <v>91</v>
       </c>
       <c r="P108" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q108">
         <v>2.4</v>
@@ -23292,10 +23307,10 @@
         <v>1.75</v>
       </c>
       <c r="AP108">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ108">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR108">
         <v>2.16</v>
@@ -23832,7 +23847,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q111">
         <v>3.4</v>
@@ -24038,7 +24053,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24450,7 +24465,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -24656,7 +24671,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q115">
         <v>4.5</v>
@@ -24813,6 +24828,830 @@
       </c>
       <c r="BP115">
         <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7294903</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45529.55208333334</v>
+      </c>
+      <c r="F116">
+        <v>20</v>
+      </c>
+      <c r="G116" t="s">
+        <v>73</v>
+      </c>
+      <c r="H116" t="s">
+        <v>80</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>3</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>4</v>
+      </c>
+      <c r="O116" t="s">
+        <v>172</v>
+      </c>
+      <c r="P116" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q116">
+        <v>1.53</v>
+      </c>
+      <c r="R116">
+        <v>3.34</v>
+      </c>
+      <c r="S116">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="T116">
+        <v>1.16</v>
+      </c>
+      <c r="U116">
+        <v>4.75</v>
+      </c>
+      <c r="V116">
+        <v>1.83</v>
+      </c>
+      <c r="W116">
+        <v>1.95</v>
+      </c>
+      <c r="X116">
+        <v>3.25</v>
+      </c>
+      <c r="Y116">
+        <v>1.33</v>
+      </c>
+      <c r="Z116">
+        <v>1.22</v>
+      </c>
+      <c r="AA116">
+        <v>6.25</v>
+      </c>
+      <c r="AB116">
+        <v>9.75</v>
+      </c>
+      <c r="AC116">
+        <v>1.01</v>
+      </c>
+      <c r="AD116">
+        <v>11.75</v>
+      </c>
+      <c r="AE116">
+        <v>1.05</v>
+      </c>
+      <c r="AF116">
+        <v>7.2</v>
+      </c>
+      <c r="AG116">
+        <v>1.27</v>
+      </c>
+      <c r="AH116">
+        <v>3.41</v>
+      </c>
+      <c r="AI116">
+        <v>1.61</v>
+      </c>
+      <c r="AJ116">
+        <v>2.25</v>
+      </c>
+      <c r="AK116">
+        <v>1.06</v>
+      </c>
+      <c r="AL116">
+        <v>1.09</v>
+      </c>
+      <c r="AM116">
+        <v>3</v>
+      </c>
+      <c r="AN116">
+        <v>2</v>
+      </c>
+      <c r="AO116">
+        <v>0.67</v>
+      </c>
+      <c r="AP116">
+        <v>2.1</v>
+      </c>
+      <c r="AQ116">
+        <v>0.6</v>
+      </c>
+      <c r="AR116">
+        <v>2.1</v>
+      </c>
+      <c r="AS116">
+        <v>1.3</v>
+      </c>
+      <c r="AT116">
+        <v>3.4</v>
+      </c>
+      <c r="AU116">
+        <v>-1</v>
+      </c>
+      <c r="AV116">
+        <v>-1</v>
+      </c>
+      <c r="AW116">
+        <v>-1</v>
+      </c>
+      <c r="AX116">
+        <v>-1</v>
+      </c>
+      <c r="AY116">
+        <v>-1</v>
+      </c>
+      <c r="AZ116">
+        <v>-1</v>
+      </c>
+      <c r="BA116">
+        <v>-1</v>
+      </c>
+      <c r="BB116">
+        <v>-1</v>
+      </c>
+      <c r="BC116">
+        <v>-1</v>
+      </c>
+      <c r="BD116">
+        <v>1.21</v>
+      </c>
+      <c r="BE116">
+        <v>11</v>
+      </c>
+      <c r="BF116">
+        <v>5.17</v>
+      </c>
+      <c r="BG116">
+        <v>0</v>
+      </c>
+      <c r="BH116">
+        <v>0</v>
+      </c>
+      <c r="BI116">
+        <v>1.15</v>
+      </c>
+      <c r="BJ116">
+        <v>4.55</v>
+      </c>
+      <c r="BK116">
+        <v>1.28</v>
+      </c>
+      <c r="BL116">
+        <v>3.18</v>
+      </c>
+      <c r="BM116">
+        <v>1.5</v>
+      </c>
+      <c r="BN116">
+        <v>2.35</v>
+      </c>
+      <c r="BO116">
+        <v>1.91</v>
+      </c>
+      <c r="BP116">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7294901</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45529.58333333334</v>
+      </c>
+      <c r="F117">
+        <v>20</v>
+      </c>
+      <c r="G117" t="s">
+        <v>71</v>
+      </c>
+      <c r="H117" t="s">
+        <v>72</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>2</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>2</v>
+      </c>
+      <c r="N117">
+        <v>3</v>
+      </c>
+      <c r="O117" t="s">
+        <v>173</v>
+      </c>
+      <c r="P117" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q117">
+        <v>2.8</v>
+      </c>
+      <c r="R117">
+        <v>2.51</v>
+      </c>
+      <c r="S117">
+        <v>3.34</v>
+      </c>
+      <c r="T117">
+        <v>1.25</v>
+      </c>
+      <c r="U117">
+        <v>3.75</v>
+      </c>
+      <c r="V117">
+        <v>2.26</v>
+      </c>
+      <c r="W117">
+        <v>1.58</v>
+      </c>
+      <c r="X117">
+        <v>4.5</v>
+      </c>
+      <c r="Y117">
+        <v>1.17</v>
+      </c>
+      <c r="Z117">
+        <v>2.2</v>
+      </c>
+      <c r="AA117">
+        <v>3.7</v>
+      </c>
+      <c r="AB117">
+        <v>2.65</v>
+      </c>
+      <c r="AC117">
+        <v>1.03</v>
+      </c>
+      <c r="AD117">
+        <v>9</v>
+      </c>
+      <c r="AE117">
+        <v>1.14</v>
+      </c>
+      <c r="AF117">
+        <v>4.6</v>
+      </c>
+      <c r="AG117">
+        <v>1.55</v>
+      </c>
+      <c r="AH117">
+        <v>2.3</v>
+      </c>
+      <c r="AI117">
+        <v>1.5</v>
+      </c>
+      <c r="AJ117">
+        <v>2.5</v>
+      </c>
+      <c r="AK117">
+        <v>1.38</v>
+      </c>
+      <c r="AL117">
+        <v>1.24</v>
+      </c>
+      <c r="AM117">
+        <v>1.5</v>
+      </c>
+      <c r="AN117">
+        <v>1.78</v>
+      </c>
+      <c r="AO117">
+        <v>1</v>
+      </c>
+      <c r="AP117">
+        <v>1.6</v>
+      </c>
+      <c r="AQ117">
+        <v>1.2</v>
+      </c>
+      <c r="AR117">
+        <v>1.66</v>
+      </c>
+      <c r="AS117">
+        <v>1.81</v>
+      </c>
+      <c r="AT117">
+        <v>3.47</v>
+      </c>
+      <c r="AU117">
+        <v>-1</v>
+      </c>
+      <c r="AV117">
+        <v>-1</v>
+      </c>
+      <c r="AW117">
+        <v>-1</v>
+      </c>
+      <c r="AX117">
+        <v>-1</v>
+      </c>
+      <c r="AY117">
+        <v>-1</v>
+      </c>
+      <c r="AZ117">
+        <v>-1</v>
+      </c>
+      <c r="BA117">
+        <v>-1</v>
+      </c>
+      <c r="BB117">
+        <v>-1</v>
+      </c>
+      <c r="BC117">
+        <v>-1</v>
+      </c>
+      <c r="BD117">
+        <v>1.95</v>
+      </c>
+      <c r="BE117">
+        <v>8.5</v>
+      </c>
+      <c r="BF117">
+        <v>2.05</v>
+      </c>
+      <c r="BG117">
+        <v>1.1</v>
+      </c>
+      <c r="BH117">
+        <v>5.75</v>
+      </c>
+      <c r="BI117">
+        <v>1.2</v>
+      </c>
+      <c r="BJ117">
+        <v>4</v>
+      </c>
+      <c r="BK117">
+        <v>1.29</v>
+      </c>
+      <c r="BL117">
+        <v>3.14</v>
+      </c>
+      <c r="BM117">
+        <v>1.54</v>
+      </c>
+      <c r="BN117">
+        <v>2.4</v>
+      </c>
+      <c r="BO117">
+        <v>1.85</v>
+      </c>
+      <c r="BP117">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7294902</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45529.58333333334</v>
+      </c>
+      <c r="F118">
+        <v>20</v>
+      </c>
+      <c r="G118" t="s">
+        <v>79</v>
+      </c>
+      <c r="H118" t="s">
+        <v>75</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>2</v>
+      </c>
+      <c r="N118">
+        <v>3</v>
+      </c>
+      <c r="O118" t="s">
+        <v>174</v>
+      </c>
+      <c r="P118" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q118">
+        <v>3.99</v>
+      </c>
+      <c r="R118">
+        <v>2.6</v>
+      </c>
+      <c r="S118">
+        <v>2.35</v>
+      </c>
+      <c r="T118">
+        <v>1.22</v>
+      </c>
+      <c r="U118">
+        <v>3.98</v>
+      </c>
+      <c r="V118">
+        <v>2.16</v>
+      </c>
+      <c r="W118">
+        <v>1.68</v>
+      </c>
+      <c r="X118">
+        <v>4.6</v>
+      </c>
+      <c r="Y118">
+        <v>1.17</v>
+      </c>
+      <c r="Z118">
+        <v>3.5</v>
+      </c>
+      <c r="AA118">
+        <v>3.9</v>
+      </c>
+      <c r="AB118">
+        <v>1.8</v>
+      </c>
+      <c r="AC118">
+        <v>1.01</v>
+      </c>
+      <c r="AD118">
+        <v>10.5</v>
+      </c>
+      <c r="AE118">
+        <v>1.11</v>
+      </c>
+      <c r="AF118">
+        <v>5.25</v>
+      </c>
+      <c r="AG118">
+        <v>1.45</v>
+      </c>
+      <c r="AH118">
+        <v>2.55</v>
+      </c>
+      <c r="AI118">
+        <v>1.44</v>
+      </c>
+      <c r="AJ118">
+        <v>2.57</v>
+      </c>
+      <c r="AK118">
+        <v>1.93</v>
+      </c>
+      <c r="AL118">
+        <v>1.25</v>
+      </c>
+      <c r="AM118">
+        <v>1.18</v>
+      </c>
+      <c r="AN118">
+        <v>2</v>
+      </c>
+      <c r="AO118">
+        <v>1.89</v>
+      </c>
+      <c r="AP118">
+        <v>1.8</v>
+      </c>
+      <c r="AQ118">
+        <v>2</v>
+      </c>
+      <c r="AR118">
+        <v>1.85</v>
+      </c>
+      <c r="AS118">
+        <v>1.86</v>
+      </c>
+      <c r="AT118">
+        <v>3.71</v>
+      </c>
+      <c r="AU118">
+        <v>-1</v>
+      </c>
+      <c r="AV118">
+        <v>-1</v>
+      </c>
+      <c r="AW118">
+        <v>-1</v>
+      </c>
+      <c r="AX118">
+        <v>-1</v>
+      </c>
+      <c r="AY118">
+        <v>-1</v>
+      </c>
+      <c r="AZ118">
+        <v>-1</v>
+      </c>
+      <c r="BA118">
+        <v>-1</v>
+      </c>
+      <c r="BB118">
+        <v>-1</v>
+      </c>
+      <c r="BC118">
+        <v>-1</v>
+      </c>
+      <c r="BD118">
+        <v>2.52</v>
+      </c>
+      <c r="BE118">
+        <v>9</v>
+      </c>
+      <c r="BF118">
+        <v>1.69</v>
+      </c>
+      <c r="BG118">
+        <v>1.11</v>
+      </c>
+      <c r="BH118">
+        <v>5.5</v>
+      </c>
+      <c r="BI118">
+        <v>1.22</v>
+      </c>
+      <c r="BJ118">
+        <v>3.8</v>
+      </c>
+      <c r="BK118">
+        <v>1.36</v>
+      </c>
+      <c r="BL118">
+        <v>2.9</v>
+      </c>
+      <c r="BM118">
+        <v>1.57</v>
+      </c>
+      <c r="BN118">
+        <v>2.32</v>
+      </c>
+      <c r="BO118">
+        <v>1.98</v>
+      </c>
+      <c r="BP118">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7294906</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45529.67708333334</v>
+      </c>
+      <c r="F119">
+        <v>20</v>
+      </c>
+      <c r="G119" t="s">
+        <v>74</v>
+      </c>
+      <c r="H119" t="s">
+        <v>81</v>
+      </c>
+      <c r="I119">
+        <v>2</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>3</v>
+      </c>
+      <c r="L119">
+        <v>2</v>
+      </c>
+      <c r="M119">
+        <v>3</v>
+      </c>
+      <c r="N119">
+        <v>5</v>
+      </c>
+      <c r="O119" t="s">
+        <v>175</v>
+      </c>
+      <c r="P119" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q119">
+        <v>3.83</v>
+      </c>
+      <c r="R119">
+        <v>2.66</v>
+      </c>
+      <c r="S119">
+        <v>2.36</v>
+      </c>
+      <c r="T119">
+        <v>1.22</v>
+      </c>
+      <c r="U119">
+        <v>4</v>
+      </c>
+      <c r="V119">
+        <v>2.07</v>
+      </c>
+      <c r="W119">
+        <v>1.76</v>
+      </c>
+      <c r="X119">
+        <v>4.3</v>
+      </c>
+      <c r="Y119">
+        <v>1.19</v>
+      </c>
+      <c r="Z119">
+        <v>3.1</v>
+      </c>
+      <c r="AA119">
+        <v>3.8</v>
+      </c>
+      <c r="AB119">
+        <v>1.95</v>
+      </c>
+      <c r="AC119">
+        <v>1.01</v>
+      </c>
+      <c r="AD119">
+        <v>11</v>
+      </c>
+      <c r="AE119">
+        <v>1.09</v>
+      </c>
+      <c r="AF119">
+        <v>5.75</v>
+      </c>
+      <c r="AG119">
+        <v>1.4</v>
+      </c>
+      <c r="AH119">
+        <v>2.75</v>
+      </c>
+      <c r="AI119">
+        <v>1.39</v>
+      </c>
+      <c r="AJ119">
+        <v>2.76</v>
+      </c>
+      <c r="AK119">
+        <v>1.87</v>
+      </c>
+      <c r="AL119">
+        <v>1.22</v>
+      </c>
+      <c r="AM119">
+        <v>1.29</v>
+      </c>
+      <c r="AN119">
+        <v>1.33</v>
+      </c>
+      <c r="AO119">
+        <v>1.44</v>
+      </c>
+      <c r="AP119">
+        <v>1.2</v>
+      </c>
+      <c r="AQ119">
+        <v>1.6</v>
+      </c>
+      <c r="AR119">
+        <v>1.88</v>
+      </c>
+      <c r="AS119">
+        <v>1.72</v>
+      </c>
+      <c r="AT119">
+        <v>3.6</v>
+      </c>
+      <c r="AU119">
+        <v>-1</v>
+      </c>
+      <c r="AV119">
+        <v>-1</v>
+      </c>
+      <c r="AW119">
+        <v>-1</v>
+      </c>
+      <c r="AX119">
+        <v>-1</v>
+      </c>
+      <c r="AY119">
+        <v>-1</v>
+      </c>
+      <c r="AZ119">
+        <v>-1</v>
+      </c>
+      <c r="BA119">
+        <v>-1</v>
+      </c>
+      <c r="BB119">
+        <v>-1</v>
+      </c>
+      <c r="BC119">
+        <v>-1</v>
+      </c>
+      <c r="BD119">
+        <v>2.95</v>
+      </c>
+      <c r="BE119">
+        <v>9.5</v>
+      </c>
+      <c r="BF119">
+        <v>1.51</v>
+      </c>
+      <c r="BG119">
+        <v>1.1</v>
+      </c>
+      <c r="BH119">
+        <v>5.75</v>
+      </c>
+      <c r="BI119">
+        <v>1.12</v>
+      </c>
+      <c r="BJ119">
+        <v>4.9</v>
+      </c>
+      <c r="BK119">
+        <v>1.26</v>
+      </c>
+      <c r="BL119">
+        <v>3.34</v>
+      </c>
+      <c r="BM119">
+        <v>1.5</v>
+      </c>
+      <c r="BN119">
+        <v>2.51</v>
+      </c>
+      <c r="BO119">
+        <v>1.85</v>
+      </c>
+      <c r="BP119">
+        <v>1.95</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="254">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -542,6 +542,9 @@
   </si>
   <si>
     <t>['2', '12']</t>
+  </si>
+  <si>
+    <t>['21', '60']</t>
   </si>
   <si>
     <t>['20']</t>
@@ -1134,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP119"/>
+  <dimension ref="A1:BP120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1805,7 +1808,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1886,7 +1889,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2217,7 +2220,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2629,7 +2632,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2707,7 +2710,7 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>1.1</v>
@@ -3041,7 +3044,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3247,7 +3250,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3943,7 +3946,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>1.4</v>
@@ -4071,7 +4074,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4689,7 +4692,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4895,7 +4898,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5182,7 +5185,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ20">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5307,7 +5310,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5513,7 +5516,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5719,7 +5722,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5925,7 +5928,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -6131,7 +6134,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6337,7 +6340,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6749,7 +6752,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6827,7 +6830,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>1.3</v>
@@ -7161,7 +7164,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -7367,7 +7370,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7573,7 +7576,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7651,7 +7654,7 @@
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -8191,7 +8194,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8272,7 +8275,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ35">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR35">
         <v>1.9</v>
@@ -8397,7 +8400,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8809,7 +8812,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -9015,7 +9018,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9221,7 +9224,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9427,7 +9430,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9633,7 +9636,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9839,7 +9842,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -10045,7 +10048,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10251,7 +10254,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10457,7 +10460,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10741,7 +10744,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
         <v>1.2</v>
@@ -10869,7 +10872,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11075,7 +11078,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11156,7 +11159,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ49">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR49">
         <v>1.73</v>
@@ -11281,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11693,7 +11696,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11899,7 +11902,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -12105,7 +12108,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12311,7 +12314,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12517,7 +12520,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12723,7 +12726,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -12929,7 +12932,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -13135,7 +13138,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13216,7 +13219,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ59">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR59">
         <v>1.64</v>
@@ -13341,7 +13344,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13419,7 +13422,7 @@
         <v>1.67</v>
       </c>
       <c r="AP60">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
         <v>1.6</v>
@@ -13547,7 +13550,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q61">
         <v>2.9</v>
@@ -13753,7 +13756,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13959,7 +13962,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q63">
         <v>1.84</v>
@@ -14165,7 +14168,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q64">
         <v>5.69</v>
@@ -14371,7 +14374,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q65">
         <v>4.4</v>
@@ -14577,7 +14580,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14783,7 +14786,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14989,7 +14992,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -15195,7 +15198,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q69">
         <v>1.85</v>
@@ -15401,7 +15404,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q70">
         <v>3.7</v>
@@ -15607,7 +15610,7 @@
         <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -15685,7 +15688,7 @@
         <v>1.83</v>
       </c>
       <c r="AP71">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ71">
         <v>1.89</v>
@@ -15813,7 +15816,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -16019,7 +16022,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q73">
         <v>3.85</v>
@@ -16431,7 +16434,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16637,7 +16640,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q76">
         <v>1.78</v>
@@ -16843,7 +16846,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q77">
         <v>2.54</v>
@@ -17130,7 +17133,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ78">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR78">
         <v>1.96</v>
@@ -17255,7 +17258,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q79">
         <v>5.9</v>
@@ -17667,7 +17670,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q81">
         <v>2.25</v>
@@ -18079,7 +18082,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q83">
         <v>3.75</v>
@@ -18285,7 +18288,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q84">
         <v>1.67</v>
@@ -18366,7 +18369,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ84">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR84">
         <v>1.85</v>
@@ -18697,7 +18700,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -19187,7 +19190,7 @@
         <v>0.14</v>
       </c>
       <c r="AP88">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ88">
         <v>0.4</v>
@@ -19315,7 +19318,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -19521,7 +19524,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19727,7 +19730,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -19933,7 +19936,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q92">
         <v>2.8</v>
@@ -20139,7 +20142,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q93">
         <v>3.75</v>
@@ -20426,7 +20429,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ94">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR94">
         <v>2</v>
@@ -20551,7 +20554,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q95">
         <v>2.51</v>
@@ -20963,7 +20966,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q97">
         <v>3.44</v>
@@ -21993,7 +21996,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q102">
         <v>1.44</v>
@@ -22199,7 +22202,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22405,7 +22408,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q104">
         <v>1.57</v>
@@ -22486,7 +22489,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ104">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR104">
         <v>1.92</v>
@@ -22611,7 +22614,7 @@
         <v>165</v>
       </c>
       <c r="P105" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q105">
         <v>3.2</v>
@@ -22689,7 +22692,7 @@
         <v>1.86</v>
       </c>
       <c r="AP105">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ105">
         <v>2</v>
@@ -23229,7 +23232,7 @@
         <v>91</v>
       </c>
       <c r="P108" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q108">
         <v>2.4</v>
@@ -23847,7 +23850,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q111">
         <v>3.4</v>
@@ -24053,7 +24056,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24465,7 +24468,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -24671,7 +24674,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q115">
         <v>4.5</v>
@@ -24877,7 +24880,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q116">
         <v>1.53</v>
@@ -24970,31 +24973,31 @@
         <v>3.4</v>
       </c>
       <c r="AU116">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AV116">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW116">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AX116">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY116">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="AZ116">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BA116">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BB116">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BC116">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD116">
         <v>1.21</v>
@@ -25083,7 +25086,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q117">
         <v>2.8</v>
@@ -25176,31 +25179,31 @@
         <v>3.47</v>
       </c>
       <c r="AU117">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV117">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW117">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX117">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY117">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ117">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BA117">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB117">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC117">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BD117">
         <v>1.95</v>
@@ -25289,7 +25292,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q118">
         <v>3.99</v>
@@ -25382,31 +25385,31 @@
         <v>3.71</v>
       </c>
       <c r="AU118">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV118">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW118">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX118">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AY118">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ118">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BA118">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB118">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC118">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD118">
         <v>2.52</v>
@@ -25495,7 +25498,7 @@
         <v>175</v>
       </c>
       <c r="P119" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q119">
         <v>3.83</v>
@@ -25588,31 +25591,31 @@
         <v>3.6</v>
       </c>
       <c r="AU119">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV119">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW119">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX119">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AY119">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AZ119">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="BA119">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB119">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BC119">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD119">
         <v>2.95</v>
@@ -25652,6 +25655,212 @@
       </c>
       <c r="BP119">
         <v>1.95</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7294905</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45530.67708333334</v>
+      </c>
+      <c r="F120">
+        <v>20</v>
+      </c>
+      <c r="G120" t="s">
+        <v>76</v>
+      </c>
+      <c r="H120" t="s">
+        <v>77</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>2</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>2</v>
+      </c>
+      <c r="O120" t="s">
+        <v>176</v>
+      </c>
+      <c r="P120" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q120">
+        <v>1.83</v>
+      </c>
+      <c r="R120">
+        <v>2.75</v>
+      </c>
+      <c r="S120">
+        <v>5</v>
+      </c>
+      <c r="T120">
+        <v>1.2</v>
+      </c>
+      <c r="U120">
+        <v>4.33</v>
+      </c>
+      <c r="V120">
+        <v>1.91</v>
+      </c>
+      <c r="W120">
+        <v>1.8</v>
+      </c>
+      <c r="X120">
+        <v>4</v>
+      </c>
+      <c r="Y120">
+        <v>1.22</v>
+      </c>
+      <c r="Z120">
+        <v>1.53</v>
+      </c>
+      <c r="AA120">
+        <v>4.2</v>
+      </c>
+      <c r="AB120">
+        <v>4.33</v>
+      </c>
+      <c r="AC120">
+        <v>1.01</v>
+      </c>
+      <c r="AD120">
+        <v>11.5</v>
+      </c>
+      <c r="AE120">
+        <v>1.08</v>
+      </c>
+      <c r="AF120">
+        <v>6.5</v>
+      </c>
+      <c r="AG120">
+        <v>1.34</v>
+      </c>
+      <c r="AH120">
+        <v>2.99</v>
+      </c>
+      <c r="AI120">
+        <v>1.53</v>
+      </c>
+      <c r="AJ120">
+        <v>2.38</v>
+      </c>
+      <c r="AK120">
+        <v>1.11</v>
+      </c>
+      <c r="AL120">
+        <v>1.14</v>
+      </c>
+      <c r="AM120">
+        <v>2.65</v>
+      </c>
+      <c r="AN120">
+        <v>1.89</v>
+      </c>
+      <c r="AO120">
+        <v>0.78</v>
+      </c>
+      <c r="AP120">
+        <v>2</v>
+      </c>
+      <c r="AQ120">
+        <v>0.7</v>
+      </c>
+      <c r="AR120">
+        <v>1.8</v>
+      </c>
+      <c r="AS120">
+        <v>1.5</v>
+      </c>
+      <c r="AT120">
+        <v>3.3</v>
+      </c>
+      <c r="AU120">
+        <v>7</v>
+      </c>
+      <c r="AV120">
+        <v>7</v>
+      </c>
+      <c r="AW120">
+        <v>12</v>
+      </c>
+      <c r="AX120">
+        <v>16</v>
+      </c>
+      <c r="AY120">
+        <v>19</v>
+      </c>
+      <c r="AZ120">
+        <v>23</v>
+      </c>
+      <c r="BA120">
+        <v>5</v>
+      </c>
+      <c r="BB120">
+        <v>9</v>
+      </c>
+      <c r="BC120">
+        <v>14</v>
+      </c>
+      <c r="BD120">
+        <v>1.24</v>
+      </c>
+      <c r="BE120">
+        <v>14.7</v>
+      </c>
+      <c r="BF120">
+        <v>4.52</v>
+      </c>
+      <c r="BG120">
+        <v>1.06</v>
+      </c>
+      <c r="BH120">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BI120">
+        <v>1.13</v>
+      </c>
+      <c r="BJ120">
+        <v>4.8</v>
+      </c>
+      <c r="BK120">
+        <v>1.26</v>
+      </c>
+      <c r="BL120">
+        <v>3.34</v>
+      </c>
+      <c r="BM120">
+        <v>1.46</v>
+      </c>
+      <c r="BN120">
+        <v>2.45</v>
+      </c>
+      <c r="BO120">
+        <v>1.78</v>
+      </c>
+      <c r="BP120">
+        <v>1.93</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="261">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -547,6 +547,18 @@
     <t>['21', '60']</t>
   </si>
   <si>
+    <t>['36', '62']</t>
+  </si>
+  <si>
+    <t>['12', '27', '35', '90+4']</t>
+  </si>
+  <si>
+    <t>['66', '74', '82']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -563,9 +575,6 @@
   </si>
   <si>
     <t>['67', '80']</t>
-  </si>
-  <si>
-    <t>['85']</t>
   </si>
   <si>
     <t>['37']</t>
@@ -776,6 +785,18 @@
   </si>
   <si>
     <t>['8', '60', '82']</t>
+  </si>
+  <si>
+    <t>['20', '51', '82']</t>
+  </si>
+  <si>
+    <t>['10', '62']</t>
+  </si>
+  <si>
+    <t>['61', '79', '90+5']</t>
+  </si>
+  <si>
+    <t>['25', '33']</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP120"/>
+  <dimension ref="A1:BP126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1474,10 +1495,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1808,7 +1829,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1886,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ4">
         <v>0.7</v>
@@ -2095,7 +2116,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ5">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2220,7 +2241,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2632,7 +2653,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -3044,7 +3065,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3122,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ10">
         <v>1.6</v>
@@ -3250,7 +3271,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3328,10 +3349,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ11">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3537,7 +3558,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ12">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR12">
         <v>1.36</v>
@@ -3949,7 +3970,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR14">
         <v>1.31</v>
@@ -4074,7 +4095,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4152,7 +4173,7 @@
         <v>1.5</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ15">
         <v>1.6</v>
@@ -4358,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4564,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ17">
         <v>0.6</v>
@@ -4692,7 +4713,7 @@
         <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q18">
         <v>2.63</v>
@@ -4773,7 +4794,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ18">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4898,7 +4919,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4976,10 +4997,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR19">
         <v>1.54</v>
@@ -5182,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ20">
         <v>0.7</v>
@@ -5310,7 +5331,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5516,7 +5537,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5594,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ22">
         <v>1.2</v>
@@ -5722,7 +5743,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5800,10 +5821,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR23">
         <v>1.8</v>
@@ -5928,7 +5949,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -6009,7 +6030,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR24">
         <v>1.96</v>
@@ -6134,7 +6155,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6215,7 +6236,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ25">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1.51</v>
@@ -6340,7 +6361,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6418,7 +6439,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ26">
         <v>0.6</v>
@@ -6624,7 +6645,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ27">
         <v>1.1</v>
@@ -6752,7 +6773,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6833,7 +6854,7 @@
         <v>2</v>
       </c>
       <c r="AQ28">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR28">
         <v>1.42</v>
@@ -7039,7 +7060,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ29">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AR29">
         <v>1.38</v>
@@ -7164,7 +7185,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -7242,7 +7263,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ30">
         <v>1.89</v>
@@ -7370,7 +7391,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7451,7 +7472,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ31">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR31">
         <v>1.92</v>
@@ -7576,7 +7597,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7657,7 +7678,7 @@
         <v>2</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR32">
         <v>1.74</v>
@@ -8194,7 +8215,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8272,7 +8293,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
         <v>0.7</v>
@@ -8400,7 +8421,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8481,7 +8502,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR36">
         <v>1.56</v>
@@ -8684,7 +8705,7 @@
         <v>2.25</v>
       </c>
       <c r="AP37">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ37">
         <v>1.6</v>
@@ -8812,7 +8833,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8890,7 +8911,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ38">
         <v>1.89</v>
@@ -9018,7 +9039,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9096,10 +9117,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ39">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AR39">
         <v>1.9</v>
@@ -9224,7 +9245,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9302,7 +9323,7 @@
         <v>2.33</v>
       </c>
       <c r="AP40">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ40">
         <v>1.1</v>
@@ -9430,7 +9451,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9508,10 +9529,10 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ41">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR41">
         <v>1.13</v>
@@ -9636,7 +9657,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9717,7 +9738,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ42">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>2.07</v>
@@ -9842,7 +9863,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9923,7 +9944,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ43">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR43">
         <v>1.57</v>
@@ -10048,7 +10069,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10126,7 +10147,7 @@
         <v>0.6</v>
       </c>
       <c r="AP44">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>0.6</v>
@@ -10254,7 +10275,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10460,7 +10481,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10872,7 +10893,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10953,7 +10974,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ48">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR48">
         <v>1.66</v>
@@ -11078,7 +11099,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11284,7 +11305,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11365,7 +11386,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ50">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.74</v>
@@ -11696,7 +11717,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11774,10 +11795,10 @@
         <v>1.67</v>
       </c>
       <c r="AP52">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR52">
         <v>2.33</v>
@@ -11902,7 +11923,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -11980,10 +12001,10 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ53">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR53">
         <v>1.86</v>
@@ -12108,7 +12129,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12186,10 +12207,10 @@
         <v>0.75</v>
       </c>
       <c r="AP54">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ54">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR54">
         <v>1.32</v>
@@ -12314,7 +12335,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12392,10 +12413,10 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ55">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AR55">
         <v>1.88</v>
@@ -12520,7 +12541,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12598,10 +12619,10 @@
         <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ56">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR56">
         <v>1.21</v>
@@ -12726,7 +12747,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -12804,10 +12825,10 @@
         <v>1.75</v>
       </c>
       <c r="AP57">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ57">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR57">
         <v>2.05</v>
@@ -12932,7 +12953,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -13138,7 +13159,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13344,7 +13365,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13550,7 +13571,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q61">
         <v>2.9</v>
@@ -13756,7 +13777,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13962,7 +13983,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q63">
         <v>1.84</v>
@@ -14168,7 +14189,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q64">
         <v>5.69</v>
@@ -14246,10 +14267,10 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ64">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR64">
         <v>1.37</v>
@@ -14374,7 +14395,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q65">
         <v>4.4</v>
@@ -14452,10 +14473,10 @@
         <v>0.6</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ65">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR65">
         <v>1.16</v>
@@ -14580,7 +14601,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14658,7 +14679,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ66">
         <v>1.1</v>
@@ -14786,7 +14807,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14864,10 +14885,10 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR67">
         <v>1.91</v>
@@ -14992,7 +15013,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -15073,7 +15094,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ68">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR68">
         <v>1.99</v>
@@ -15198,7 +15219,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q69">
         <v>1.85</v>
@@ -15276,10 +15297,10 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ69">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AR69">
         <v>2.15</v>
@@ -15404,7 +15425,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q70">
         <v>3.7</v>
@@ -15482,10 +15503,10 @@
         <v>1.2</v>
       </c>
       <c r="AP70">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR70">
         <v>1.27</v>
@@ -15610,7 +15631,7 @@
         <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -15816,7 +15837,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15894,10 +15915,10 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ72">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AR72">
         <v>1.93</v>
@@ -16022,7 +16043,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q73">
         <v>3.85</v>
@@ -16100,7 +16121,7 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ73">
         <v>1.2</v>
@@ -16306,10 +16327,10 @@
         <v>2.4</v>
       </c>
       <c r="AP74">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ74">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR74">
         <v>2.07</v>
@@ -16434,7 +16455,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16515,7 +16536,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ75">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR75">
         <v>1.99</v>
@@ -16640,7 +16661,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q76">
         <v>1.78</v>
@@ -16718,10 +16739,10 @@
         <v>1.5</v>
       </c>
       <c r="AP76">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR76">
         <v>2.08</v>
@@ -16846,7 +16867,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q77">
         <v>2.54</v>
@@ -16924,10 +16945,10 @@
         <v>0.5</v>
       </c>
       <c r="AP77">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ77">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>1.89</v>
@@ -17258,7 +17279,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q79">
         <v>5.9</v>
@@ -17336,10 +17357,10 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ79">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR79">
         <v>1.24</v>
@@ -17545,7 +17566,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ80">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AR80">
         <v>1.86</v>
@@ -17670,7 +17691,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q81">
         <v>2.25</v>
@@ -17748,7 +17769,7 @@
         <v>0.6</v>
       </c>
       <c r="AP81">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ81">
         <v>1.2</v>
@@ -18082,7 +18103,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q83">
         <v>3.75</v>
@@ -18160,7 +18181,7 @@
         <v>0.67</v>
       </c>
       <c r="AP83">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ83">
         <v>1.2</v>
@@ -18288,7 +18309,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q84">
         <v>1.67</v>
@@ -18366,7 +18387,7 @@
         <v>1.17</v>
       </c>
       <c r="AP84">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ84">
         <v>0.7</v>
@@ -18575,7 +18596,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ85">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR85">
         <v>2.02</v>
@@ -18700,7 +18721,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -18778,7 +18799,7 @@
         <v>0.57</v>
       </c>
       <c r="AP86">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ86">
         <v>0.6</v>
@@ -18984,7 +19005,7 @@
         <v>2</v>
       </c>
       <c r="AP87">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ87">
         <v>1.89</v>
@@ -19193,7 +19214,7 @@
         <v>2</v>
       </c>
       <c r="AQ88">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AR88">
         <v>1.67</v>
@@ -19318,7 +19339,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -19524,7 +19545,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19602,10 +19623,10 @@
         <v>1.14</v>
       </c>
       <c r="AP90">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ90">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR90">
         <v>1.94</v>
@@ -19730,7 +19751,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -19808,7 +19829,7 @@
         <v>1.43</v>
       </c>
       <c r="AP91">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ91">
         <v>1.6</v>
@@ -19936,7 +19957,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q92">
         <v>2.8</v>
@@ -20017,7 +20038,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ92">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR92">
         <v>1.95</v>
@@ -20142,7 +20163,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q93">
         <v>3.75</v>
@@ -20223,7 +20244,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ93">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR93">
         <v>1.62</v>
@@ -20426,7 +20447,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ94">
         <v>0.7</v>
@@ -20554,7 +20575,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q95">
         <v>2.51</v>
@@ -20632,7 +20653,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ95">
         <v>1.2</v>
@@ -20841,7 +20862,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ96">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR96">
         <v>1.96</v>
@@ -20966,7 +20987,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q97">
         <v>3.44</v>
@@ -21044,7 +21065,7 @@
         <v>1.75</v>
       </c>
       <c r="AP97">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ97">
         <v>1.89</v>
@@ -21250,10 +21271,10 @@
         <v>1.63</v>
       </c>
       <c r="AP98">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ98">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR98">
         <v>1.82</v>
@@ -21459,7 +21480,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ99">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR99">
         <v>1.61</v>
@@ -21665,7 +21686,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ100">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AR100">
         <v>2.12</v>
@@ -21868,10 +21889,10 @@
         <v>1.13</v>
       </c>
       <c r="AP101">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ101">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR101">
         <v>1.23</v>
@@ -21996,7 +22017,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q102">
         <v>1.44</v>
@@ -22074,7 +22095,7 @@
         <v>0.63</v>
       </c>
       <c r="AP102">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ102">
         <v>0.6</v>
@@ -22202,7 +22223,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22408,7 +22429,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q104">
         <v>1.57</v>
@@ -22614,7 +22635,7 @@
         <v>165</v>
       </c>
       <c r="P105" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q105">
         <v>3.2</v>
@@ -22695,7 +22716,7 @@
         <v>2</v>
       </c>
       <c r="AQ105">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR105">
         <v>1.75</v>
@@ -22901,7 +22922,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ106">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR106">
         <v>1.94</v>
@@ -23104,7 +23125,7 @@
         <v>1.63</v>
       </c>
       <c r="AP107">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ107">
         <v>1.6</v>
@@ -23232,7 +23253,7 @@
         <v>91</v>
       </c>
       <c r="P108" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q108">
         <v>2.4</v>
@@ -23313,7 +23334,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ108">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR108">
         <v>2.16</v>
@@ -23516,7 +23537,7 @@
         <v>1.38</v>
       </c>
       <c r="AP109">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ109">
         <v>1.1</v>
@@ -23722,10 +23743,10 @@
         <v>0.78</v>
       </c>
       <c r="AP110">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ110">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR110">
         <v>1.82</v>
@@ -23850,7 +23871,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q111">
         <v>3.4</v>
@@ -23928,10 +23949,10 @@
         <v>0.11</v>
       </c>
       <c r="AP111">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ111">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AR111">
         <v>1.22</v>
@@ -24056,7 +24077,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24134,10 +24155,10 @@
         <v>1.44</v>
       </c>
       <c r="AP112">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ112">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR112">
         <v>1.93</v>
@@ -24343,7 +24364,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ113">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR113">
         <v>2.18</v>
@@ -24468,7 +24489,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -24546,10 +24567,10 @@
         <v>1.11</v>
       </c>
       <c r="AP114">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ114">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR114">
         <v>2.25</v>
@@ -24674,7 +24695,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q115">
         <v>4.5</v>
@@ -24752,7 +24773,7 @@
         <v>1.22</v>
       </c>
       <c r="AP115">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ115">
         <v>1.1</v>
@@ -24880,7 +24901,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q116">
         <v>1.53</v>
@@ -25086,7 +25107,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q117">
         <v>2.8</v>
@@ -25292,7 +25313,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q118">
         <v>3.99</v>
@@ -25373,7 +25394,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ118">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR118">
         <v>1.85</v>
@@ -25498,7 +25519,7 @@
         <v>175</v>
       </c>
       <c r="P119" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q119">
         <v>3.83</v>
@@ -25861,6 +25882,1242 @@
       </c>
       <c r="BP120">
         <v>1.93</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7294907</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45536.45833333334</v>
+      </c>
+      <c r="F121">
+        <v>21</v>
+      </c>
+      <c r="G121" t="s">
+        <v>80</v>
+      </c>
+      <c r="H121" t="s">
+        <v>74</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121" t="s">
+        <v>91</v>
+      </c>
+      <c r="P121" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q121">
+        <v>2.88</v>
+      </c>
+      <c r="R121">
+        <v>2.4</v>
+      </c>
+      <c r="S121">
+        <v>2.88</v>
+      </c>
+      <c r="T121">
+        <v>1.25</v>
+      </c>
+      <c r="U121">
+        <v>3.72</v>
+      </c>
+      <c r="V121">
+        <v>2.11</v>
+      </c>
+      <c r="W121">
+        <v>1.68</v>
+      </c>
+      <c r="X121">
+        <v>4.6</v>
+      </c>
+      <c r="Y121">
+        <v>1.18</v>
+      </c>
+      <c r="Z121">
+        <v>2.51</v>
+      </c>
+      <c r="AA121">
+        <v>3.47</v>
+      </c>
+      <c r="AB121">
+        <v>2.26</v>
+      </c>
+      <c r="AC121">
+        <v>1.01</v>
+      </c>
+      <c r="AD121">
+        <v>17</v>
+      </c>
+      <c r="AE121">
+        <v>1.11</v>
+      </c>
+      <c r="AF121">
+        <v>5.5</v>
+      </c>
+      <c r="AG121">
+        <v>1.43</v>
+      </c>
+      <c r="AH121">
+        <v>2.62</v>
+      </c>
+      <c r="AI121">
+        <v>1.36</v>
+      </c>
+      <c r="AJ121">
+        <v>2.88</v>
+      </c>
+      <c r="AK121">
+        <v>1.53</v>
+      </c>
+      <c r="AL121">
+        <v>1.26</v>
+      </c>
+      <c r="AM121">
+        <v>1.47</v>
+      </c>
+      <c r="AN121">
+        <v>1.1</v>
+      </c>
+      <c r="AO121">
+        <v>0.4</v>
+      </c>
+      <c r="AP121">
+        <v>1.09</v>
+      </c>
+      <c r="AQ121">
+        <v>0.45</v>
+      </c>
+      <c r="AR121">
+        <v>1.25</v>
+      </c>
+      <c r="AS121">
+        <v>1.63</v>
+      </c>
+      <c r="AT121">
+        <v>2.88</v>
+      </c>
+      <c r="AU121">
+        <v>3</v>
+      </c>
+      <c r="AV121">
+        <v>3</v>
+      </c>
+      <c r="AW121">
+        <v>9</v>
+      </c>
+      <c r="AX121">
+        <v>6</v>
+      </c>
+      <c r="AY121">
+        <v>12</v>
+      </c>
+      <c r="AZ121">
+        <v>9</v>
+      </c>
+      <c r="BA121">
+        <v>13</v>
+      </c>
+      <c r="BB121">
+        <v>2</v>
+      </c>
+      <c r="BC121">
+        <v>15</v>
+      </c>
+      <c r="BD121">
+        <v>2</v>
+      </c>
+      <c r="BE121">
+        <v>8.5</v>
+      </c>
+      <c r="BF121">
+        <v>2.05</v>
+      </c>
+      <c r="BG121">
+        <v>1.12</v>
+      </c>
+      <c r="BH121">
+        <v>5.25</v>
+      </c>
+      <c r="BI121">
+        <v>1.18</v>
+      </c>
+      <c r="BJ121">
+        <v>4.1</v>
+      </c>
+      <c r="BK121">
+        <v>1.35</v>
+      </c>
+      <c r="BL121">
+        <v>2.84</v>
+      </c>
+      <c r="BM121">
+        <v>1.56</v>
+      </c>
+      <c r="BN121">
+        <v>2.34</v>
+      </c>
+      <c r="BO121">
+        <v>1.92</v>
+      </c>
+      <c r="BP121">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7294908</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45536.55208333334</v>
+      </c>
+      <c r="F122">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>72</v>
+      </c>
+      <c r="H122" t="s">
+        <v>75</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>3</v>
+      </c>
+      <c r="N122">
+        <v>5</v>
+      </c>
+      <c r="O122" t="s">
+        <v>177</v>
+      </c>
+      <c r="P122" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q122">
+        <v>3.48</v>
+      </c>
+      <c r="R122">
+        <v>2.45</v>
+      </c>
+      <c r="S122">
+        <v>2.44</v>
+      </c>
+      <c r="T122">
+        <v>1.23</v>
+      </c>
+      <c r="U122">
+        <v>3.9</v>
+      </c>
+      <c r="V122">
+        <v>2.1</v>
+      </c>
+      <c r="W122">
+        <v>1.69</v>
+      </c>
+      <c r="X122">
+        <v>4.55</v>
+      </c>
+      <c r="Y122">
+        <v>1.18</v>
+      </c>
+      <c r="Z122">
+        <v>3.13</v>
+      </c>
+      <c r="AA122">
+        <v>3.77</v>
+      </c>
+      <c r="AB122">
+        <v>1.84</v>
+      </c>
+      <c r="AC122">
+        <v>1.01</v>
+      </c>
+      <c r="AD122">
+        <v>17</v>
+      </c>
+      <c r="AE122">
+        <v>1.1</v>
+      </c>
+      <c r="AF122">
+        <v>5.4</v>
+      </c>
+      <c r="AG122">
+        <v>1.44</v>
+      </c>
+      <c r="AH122">
+        <v>2.6</v>
+      </c>
+      <c r="AI122">
+        <v>1.41</v>
+      </c>
+      <c r="AJ122">
+        <v>2.69</v>
+      </c>
+      <c r="AK122">
+        <v>1.62</v>
+      </c>
+      <c r="AL122">
+        <v>1.23</v>
+      </c>
+      <c r="AM122">
+        <v>1.3</v>
+      </c>
+      <c r="AN122">
+        <v>1.5</v>
+      </c>
+      <c r="AO122">
+        <v>2</v>
+      </c>
+      <c r="AP122">
+        <v>1.36</v>
+      </c>
+      <c r="AQ122">
+        <v>2.09</v>
+      </c>
+      <c r="AR122">
+        <v>1.81</v>
+      </c>
+      <c r="AS122">
+        <v>1.88</v>
+      </c>
+      <c r="AT122">
+        <v>3.69</v>
+      </c>
+      <c r="AU122">
+        <v>5</v>
+      </c>
+      <c r="AV122">
+        <v>6</v>
+      </c>
+      <c r="AW122">
+        <v>8</v>
+      </c>
+      <c r="AX122">
+        <v>9</v>
+      </c>
+      <c r="AY122">
+        <v>13</v>
+      </c>
+      <c r="AZ122">
+        <v>15</v>
+      </c>
+      <c r="BA122">
+        <v>5</v>
+      </c>
+      <c r="BB122">
+        <v>6</v>
+      </c>
+      <c r="BC122">
+        <v>11</v>
+      </c>
+      <c r="BD122">
+        <v>2.33</v>
+      </c>
+      <c r="BE122">
+        <v>7.1</v>
+      </c>
+      <c r="BF122">
+        <v>1.87</v>
+      </c>
+      <c r="BG122">
+        <v>0</v>
+      </c>
+      <c r="BH122">
+        <v>0</v>
+      </c>
+      <c r="BI122">
+        <v>1.11</v>
+      </c>
+      <c r="BJ122">
+        <v>5.15</v>
+      </c>
+      <c r="BK122">
+        <v>1.24</v>
+      </c>
+      <c r="BL122">
+        <v>3.48</v>
+      </c>
+      <c r="BM122">
+        <v>1.42</v>
+      </c>
+      <c r="BN122">
+        <v>2.57</v>
+      </c>
+      <c r="BO122">
+        <v>1.76</v>
+      </c>
+      <c r="BP122">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7294909</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45536.58333333334</v>
+      </c>
+      <c r="F123">
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>78</v>
+      </c>
+      <c r="H123" t="s">
+        <v>79</v>
+      </c>
+      <c r="I123">
+        <v>3</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>4</v>
+      </c>
+      <c r="L123">
+        <v>4</v>
+      </c>
+      <c r="M123">
+        <v>2</v>
+      </c>
+      <c r="N123">
+        <v>6</v>
+      </c>
+      <c r="O123" t="s">
+        <v>178</v>
+      </c>
+      <c r="P123" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q123">
+        <v>2.58</v>
+      </c>
+      <c r="R123">
+        <v>2.64</v>
+      </c>
+      <c r="S123">
+        <v>3.4</v>
+      </c>
+      <c r="T123">
+        <v>1.22</v>
+      </c>
+      <c r="U123">
+        <v>4</v>
+      </c>
+      <c r="V123">
+        <v>2.06</v>
+      </c>
+      <c r="W123">
+        <v>1.76</v>
+      </c>
+      <c r="X123">
+        <v>4.25</v>
+      </c>
+      <c r="Y123">
+        <v>1.2</v>
+      </c>
+      <c r="Z123">
+        <v>1.89</v>
+      </c>
+      <c r="AA123">
+        <v>3.78</v>
+      </c>
+      <c r="AB123">
+        <v>2.97</v>
+      </c>
+      <c r="AC123">
+        <v>1.01</v>
+      </c>
+      <c r="AD123">
+        <v>17</v>
+      </c>
+      <c r="AE123">
+        <v>1.09</v>
+      </c>
+      <c r="AF123">
+        <v>5.8</v>
+      </c>
+      <c r="AG123">
+        <v>1.4</v>
+      </c>
+      <c r="AH123">
+        <v>2.75</v>
+      </c>
+      <c r="AI123">
+        <v>1.36</v>
+      </c>
+      <c r="AJ123">
+        <v>2.88</v>
+      </c>
+      <c r="AK123">
+        <v>1.38</v>
+      </c>
+      <c r="AL123">
+        <v>1.23</v>
+      </c>
+      <c r="AM123">
+        <v>1.7</v>
+      </c>
+      <c r="AN123">
+        <v>0.78</v>
+      </c>
+      <c r="AO123">
+        <v>1.3</v>
+      </c>
+      <c r="AP123">
+        <v>1</v>
+      </c>
+      <c r="AQ123">
+        <v>1.18</v>
+      </c>
+      <c r="AR123">
+        <v>1.96</v>
+      </c>
+      <c r="AS123">
+        <v>1.56</v>
+      </c>
+      <c r="AT123">
+        <v>3.52</v>
+      </c>
+      <c r="AU123">
+        <v>7</v>
+      </c>
+      <c r="AV123">
+        <v>9</v>
+      </c>
+      <c r="AW123">
+        <v>6</v>
+      </c>
+      <c r="AX123">
+        <v>10</v>
+      </c>
+      <c r="AY123">
+        <v>13</v>
+      </c>
+      <c r="AZ123">
+        <v>19</v>
+      </c>
+      <c r="BA123">
+        <v>2</v>
+      </c>
+      <c r="BB123">
+        <v>16</v>
+      </c>
+      <c r="BC123">
+        <v>18</v>
+      </c>
+      <c r="BD123">
+        <v>1.43</v>
+      </c>
+      <c r="BE123">
+        <v>7.8</v>
+      </c>
+      <c r="BF123">
+        <v>3.6</v>
+      </c>
+      <c r="BG123">
+        <v>1.11</v>
+      </c>
+      <c r="BH123">
+        <v>5.5</v>
+      </c>
+      <c r="BI123">
+        <v>1.12</v>
+      </c>
+      <c r="BJ123">
+        <v>4.9</v>
+      </c>
+      <c r="BK123">
+        <v>1.26</v>
+      </c>
+      <c r="BL123">
+        <v>3.34</v>
+      </c>
+      <c r="BM123">
+        <v>1.53</v>
+      </c>
+      <c r="BN123">
+        <v>2.43</v>
+      </c>
+      <c r="BO123">
+        <v>1.86</v>
+      </c>
+      <c r="BP123">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7294910</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45536.58333333334</v>
+      </c>
+      <c r="F124">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>81</v>
+      </c>
+      <c r="H124" t="s">
+        <v>76</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>3</v>
+      </c>
+      <c r="N124">
+        <v>3</v>
+      </c>
+      <c r="O124" t="s">
+        <v>91</v>
+      </c>
+      <c r="P124" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q124">
+        <v>2.2</v>
+      </c>
+      <c r="R124">
+        <v>2.4</v>
+      </c>
+      <c r="S124">
+        <v>4</v>
+      </c>
+      <c r="T124">
+        <v>1.25</v>
+      </c>
+      <c r="U124">
+        <v>3.6</v>
+      </c>
+      <c r="V124">
+        <v>2.05</v>
+      </c>
+      <c r="W124">
+        <v>1.67</v>
+      </c>
+      <c r="X124">
+        <v>4.3</v>
+      </c>
+      <c r="Y124">
+        <v>1.18</v>
+      </c>
+      <c r="Z124">
+        <v>1.74</v>
+      </c>
+      <c r="AA124">
+        <v>3.86</v>
+      </c>
+      <c r="AB124">
+        <v>3.4</v>
+      </c>
+      <c r="AC124">
+        <v>1.01</v>
+      </c>
+      <c r="AD124">
+        <v>17</v>
+      </c>
+      <c r="AE124">
+        <v>1.08</v>
+      </c>
+      <c r="AF124">
+        <v>6.5</v>
+      </c>
+      <c r="AG124">
+        <v>1.4</v>
+      </c>
+      <c r="AH124">
+        <v>2.75</v>
+      </c>
+      <c r="AI124">
+        <v>1.4</v>
+      </c>
+      <c r="AJ124">
+        <v>2.75</v>
+      </c>
+      <c r="AK124">
+        <v>1.2</v>
+      </c>
+      <c r="AL124">
+        <v>1.22</v>
+      </c>
+      <c r="AM124">
+        <v>1.95</v>
+      </c>
+      <c r="AN124">
+        <v>1.6</v>
+      </c>
+      <c r="AO124">
+        <v>0.8</v>
+      </c>
+      <c r="AP124">
+        <v>1.45</v>
+      </c>
+      <c r="AQ124">
+        <v>1</v>
+      </c>
+      <c r="AR124">
+        <v>1.92</v>
+      </c>
+      <c r="AS124">
+        <v>1.87</v>
+      </c>
+      <c r="AT124">
+        <v>3.79</v>
+      </c>
+      <c r="AU124">
+        <v>8</v>
+      </c>
+      <c r="AV124">
+        <v>5</v>
+      </c>
+      <c r="AW124">
+        <v>10</v>
+      </c>
+      <c r="AX124">
+        <v>5</v>
+      </c>
+      <c r="AY124">
+        <v>18</v>
+      </c>
+      <c r="AZ124">
+        <v>10</v>
+      </c>
+      <c r="BA124">
+        <v>15</v>
+      </c>
+      <c r="BB124">
+        <v>5</v>
+      </c>
+      <c r="BC124">
+        <v>20</v>
+      </c>
+      <c r="BD124">
+        <v>1.32</v>
+      </c>
+      <c r="BE124">
+        <v>8.5</v>
+      </c>
+      <c r="BF124">
+        <v>4.33</v>
+      </c>
+      <c r="BG124">
+        <v>0</v>
+      </c>
+      <c r="BH124">
+        <v>0</v>
+      </c>
+      <c r="BI124">
+        <v>1.1</v>
+      </c>
+      <c r="BJ124">
+        <v>5.35</v>
+      </c>
+      <c r="BK124">
+        <v>1.22</v>
+      </c>
+      <c r="BL124">
+        <v>3.65</v>
+      </c>
+      <c r="BM124">
+        <v>1.4</v>
+      </c>
+      <c r="BN124">
+        <v>2.64</v>
+      </c>
+      <c r="BO124">
+        <v>1.82</v>
+      </c>
+      <c r="BP124">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7294911</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45536.67708333334</v>
+      </c>
+      <c r="F125">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>70</v>
+      </c>
+      <c r="H125" t="s">
+        <v>73</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>2</v>
+      </c>
+      <c r="K125">
+        <v>2</v>
+      </c>
+      <c r="L125">
+        <v>3</v>
+      </c>
+      <c r="M125">
+        <v>2</v>
+      </c>
+      <c r="N125">
+        <v>5</v>
+      </c>
+      <c r="O125" t="s">
+        <v>179</v>
+      </c>
+      <c r="P125" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q125">
+        <v>2.3</v>
+      </c>
+      <c r="R125">
+        <v>2.5</v>
+      </c>
+      <c r="S125">
+        <v>3.6</v>
+      </c>
+      <c r="T125">
+        <v>1.2</v>
+      </c>
+      <c r="U125">
+        <v>4.25</v>
+      </c>
+      <c r="V125">
+        <v>1.93</v>
+      </c>
+      <c r="W125">
+        <v>1.82</v>
+      </c>
+      <c r="X125">
+        <v>3.9</v>
+      </c>
+      <c r="Y125">
+        <v>1.23</v>
+      </c>
+      <c r="Z125">
+        <v>2.04</v>
+      </c>
+      <c r="AA125">
+        <v>3.88</v>
+      </c>
+      <c r="AB125">
+        <v>2.92</v>
+      </c>
+      <c r="AC125">
+        <v>1.01</v>
+      </c>
+      <c r="AD125">
+        <v>11.25</v>
+      </c>
+      <c r="AE125">
+        <v>1.07</v>
+      </c>
+      <c r="AF125">
+        <v>7</v>
+      </c>
+      <c r="AG125">
+        <v>1.33</v>
+      </c>
+      <c r="AH125">
+        <v>3</v>
+      </c>
+      <c r="AI125">
+        <v>1.3</v>
+      </c>
+      <c r="AJ125">
+        <v>3.2</v>
+      </c>
+      <c r="AK125">
+        <v>1.33</v>
+      </c>
+      <c r="AL125">
+        <v>1.25</v>
+      </c>
+      <c r="AM125">
+        <v>1.83</v>
+      </c>
+      <c r="AN125">
+        <v>2.3</v>
+      </c>
+      <c r="AO125">
+        <v>1.4</v>
+      </c>
+      <c r="AP125">
+        <v>2.36</v>
+      </c>
+      <c r="AQ125">
+        <v>1.27</v>
+      </c>
+      <c r="AR125">
+        <v>2.23</v>
+      </c>
+      <c r="AS125">
+        <v>2.11</v>
+      </c>
+      <c r="AT125">
+        <v>4.34</v>
+      </c>
+      <c r="AU125">
+        <v>4</v>
+      </c>
+      <c r="AV125">
+        <v>5</v>
+      </c>
+      <c r="AW125">
+        <v>10</v>
+      </c>
+      <c r="AX125">
+        <v>9</v>
+      </c>
+      <c r="AY125">
+        <v>14</v>
+      </c>
+      <c r="AZ125">
+        <v>14</v>
+      </c>
+      <c r="BA125">
+        <v>6</v>
+      </c>
+      <c r="BB125">
+        <v>7</v>
+      </c>
+      <c r="BC125">
+        <v>13</v>
+      </c>
+      <c r="BD125">
+        <v>1.5</v>
+      </c>
+      <c r="BE125">
+        <v>7.6</v>
+      </c>
+      <c r="BF125">
+        <v>3.26</v>
+      </c>
+      <c r="BG125">
+        <v>0</v>
+      </c>
+      <c r="BH125">
+        <v>0</v>
+      </c>
+      <c r="BI125">
+        <v>1.13</v>
+      </c>
+      <c r="BJ125">
+        <v>4.8</v>
+      </c>
+      <c r="BK125">
+        <v>1.27</v>
+      </c>
+      <c r="BL125">
+        <v>3.28</v>
+      </c>
+      <c r="BM125">
+        <v>1.52</v>
+      </c>
+      <c r="BN125">
+        <v>2.46</v>
+      </c>
+      <c r="BO125">
+        <v>1.9</v>
+      </c>
+      <c r="BP125">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7294912</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45536.67708333334</v>
+      </c>
+      <c r="F126">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>77</v>
+      </c>
+      <c r="H126" t="s">
+        <v>71</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="O126" t="s">
+        <v>180</v>
+      </c>
+      <c r="P126" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q126">
+        <v>4.5</v>
+      </c>
+      <c r="R126">
+        <v>2.45</v>
+      </c>
+      <c r="S126">
+        <v>2.05</v>
+      </c>
+      <c r="T126">
+        <v>1.27</v>
+      </c>
+      <c r="U126">
+        <v>3.4</v>
+      </c>
+      <c r="V126">
+        <v>2.2</v>
+      </c>
+      <c r="W126">
+        <v>1.6</v>
+      </c>
+      <c r="X126">
+        <v>4.8</v>
+      </c>
+      <c r="Y126">
+        <v>1.15</v>
+      </c>
+      <c r="Z126">
+        <v>4.06</v>
+      </c>
+      <c r="AA126">
+        <v>3.94</v>
+      </c>
+      <c r="AB126">
+        <v>1.68</v>
+      </c>
+      <c r="AC126">
+        <v>1.02</v>
+      </c>
+      <c r="AD126">
+        <v>10</v>
+      </c>
+      <c r="AE126">
+        <v>1.13</v>
+      </c>
+      <c r="AF126">
+        <v>4.9</v>
+      </c>
+      <c r="AG126">
+        <v>1.5</v>
+      </c>
+      <c r="AH126">
+        <v>2.4</v>
+      </c>
+      <c r="AI126">
+        <v>1.5</v>
+      </c>
+      <c r="AJ126">
+        <v>2.4</v>
+      </c>
+      <c r="AK126">
+        <v>2.2</v>
+      </c>
+      <c r="AL126">
+        <v>1.16</v>
+      </c>
+      <c r="AM126">
+        <v>1.18</v>
+      </c>
+      <c r="AN126">
+        <v>1</v>
+      </c>
+      <c r="AO126">
+        <v>1</v>
+      </c>
+      <c r="AP126">
+        <v>1.18</v>
+      </c>
+      <c r="AQ126">
+        <v>0.91</v>
+      </c>
+      <c r="AR126">
+        <v>1.31</v>
+      </c>
+      <c r="AS126">
+        <v>1.57</v>
+      </c>
+      <c r="AT126">
+        <v>2.88</v>
+      </c>
+      <c r="AU126">
+        <v>3</v>
+      </c>
+      <c r="AV126">
+        <v>6</v>
+      </c>
+      <c r="AW126">
+        <v>6</v>
+      </c>
+      <c r="AX126">
+        <v>15</v>
+      </c>
+      <c r="AY126">
+        <v>9</v>
+      </c>
+      <c r="AZ126">
+        <v>21</v>
+      </c>
+      <c r="BA126">
+        <v>6</v>
+      </c>
+      <c r="BB126">
+        <v>8</v>
+      </c>
+      <c r="BC126">
+        <v>14</v>
+      </c>
+      <c r="BD126">
+        <v>3.92</v>
+      </c>
+      <c r="BE126">
+        <v>8</v>
+      </c>
+      <c r="BF126">
+        <v>1.38</v>
+      </c>
+      <c r="BG126">
+        <v>1.11</v>
+      </c>
+      <c r="BH126">
+        <v>5.5</v>
+      </c>
+      <c r="BI126">
+        <v>1.16</v>
+      </c>
+      <c r="BJ126">
+        <v>4.33</v>
+      </c>
+      <c r="BK126">
+        <v>1.32</v>
+      </c>
+      <c r="BL126">
+        <v>2.98</v>
+      </c>
+      <c r="BM126">
+        <v>1.55</v>
+      </c>
+      <c r="BN126">
+        <v>2.4</v>
+      </c>
+      <c r="BO126">
+        <v>1.92</v>
+      </c>
+      <c r="BP126">
+        <v>1.88</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -26457,10 +26457,10 @@
         <v>2</v>
       </c>
       <c r="BB123">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC123">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD123">
         <v>1.43</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="262">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -798,6 +798,9 @@
   <si>
     <t>['25', '33']</t>
   </si>
+  <si>
+    <t>['11', '22', '38']</t>
+  </si>
 </sst>
 </file>
 
@@ -1158,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP126"/>
+  <dimension ref="A1:BP127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3764,7 +3767,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ13">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>1.23</v>
@@ -4379,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ16">
         <v>0.91</v>
@@ -5821,7 +5824,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ23">
         <v>2.09</v>
@@ -7266,7 +7269,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ30">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR30">
         <v>1.2</v>
@@ -8293,7 +8296,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ35">
         <v>0.7</v>
@@ -8914,7 +8917,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ38">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR38">
         <v>1.97</v>
@@ -10147,7 +10150,7 @@
         <v>0.6</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ44">
         <v>0.6</v>
@@ -10356,7 +10359,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ45">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <v>2.14</v>
@@ -11592,7 +11595,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ51">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR51">
         <v>2.1</v>
@@ -12825,7 +12828,7 @@
         <v>1.75</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ57">
         <v>1.27</v>
@@ -13858,7 +13861,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ62">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR62">
         <v>1.76</v>
@@ -15712,7 +15715,7 @@
         <v>2</v>
       </c>
       <c r="AQ71">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR71">
         <v>1.79</v>
@@ -15915,7 +15918,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ72">
         <v>0.45</v>
@@ -16945,7 +16948,7 @@
         <v>0.5</v>
       </c>
       <c r="AP77">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -19008,7 +19011,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ87">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR87">
         <v>1.92</v>
@@ -20653,7 +20656,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ95">
         <v>1.2</v>
@@ -21068,7 +21071,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ97">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR97">
         <v>2.01</v>
@@ -23125,7 +23128,7 @@
         <v>1.63</v>
       </c>
       <c r="AP107">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ107">
         <v>1.6</v>
@@ -26421,7 +26424,7 @@
         <v>1.3</v>
       </c>
       <c r="AP123">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ123">
         <v>1.18</v>
@@ -27118,6 +27121,212 @@
       </c>
       <c r="BP126">
         <v>1.88</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7294904</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45548.58333333334</v>
+      </c>
+      <c r="F127">
+        <v>20</v>
+      </c>
+      <c r="G127" t="s">
+        <v>78</v>
+      </c>
+      <c r="H127" t="s">
+        <v>70</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>3</v>
+      </c>
+      <c r="K127">
+        <v>3</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>3</v>
+      </c>
+      <c r="N127">
+        <v>3</v>
+      </c>
+      <c r="O127" t="s">
+        <v>91</v>
+      </c>
+      <c r="P127" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q127">
+        <v>3.62</v>
+      </c>
+      <c r="R127">
+        <v>2.55</v>
+      </c>
+      <c r="S127">
+        <v>2.29</v>
+      </c>
+      <c r="T127">
+        <v>1.2</v>
+      </c>
+      <c r="U127">
+        <v>4.3</v>
+      </c>
+      <c r="V127">
+        <v>1.96</v>
+      </c>
+      <c r="W127">
+        <v>1.79</v>
+      </c>
+      <c r="X127">
+        <v>4</v>
+      </c>
+      <c r="Y127">
+        <v>1.22</v>
+      </c>
+      <c r="Z127">
+        <v>3.55</v>
+      </c>
+      <c r="AA127">
+        <v>3.95</v>
+      </c>
+      <c r="AB127">
+        <v>1.83</v>
+      </c>
+      <c r="AC127">
+        <v>1.01</v>
+      </c>
+      <c r="AD127">
+        <v>11.25</v>
+      </c>
+      <c r="AE127">
+        <v>1.07</v>
+      </c>
+      <c r="AF127">
+        <v>6.2</v>
+      </c>
+      <c r="AG127">
+        <v>1.38</v>
+      </c>
+      <c r="AH127">
+        <v>2.81</v>
+      </c>
+      <c r="AI127">
+        <v>1.36</v>
+      </c>
+      <c r="AJ127">
+        <v>2.89</v>
+      </c>
+      <c r="AK127">
+        <v>1.89</v>
+      </c>
+      <c r="AL127">
+        <v>1.21</v>
+      </c>
+      <c r="AM127">
+        <v>1.29</v>
+      </c>
+      <c r="AN127">
+        <v>1</v>
+      </c>
+      <c r="AO127">
+        <v>1.89</v>
+      </c>
+      <c r="AP127">
+        <v>0.91</v>
+      </c>
+      <c r="AQ127">
+        <v>2</v>
+      </c>
+      <c r="AR127">
+        <v>1.93</v>
+      </c>
+      <c r="AS127">
+        <v>1.87</v>
+      </c>
+      <c r="AT127">
+        <v>3.8</v>
+      </c>
+      <c r="AU127">
+        <v>3</v>
+      </c>
+      <c r="AV127">
+        <v>5</v>
+      </c>
+      <c r="AW127">
+        <v>3</v>
+      </c>
+      <c r="AX127">
+        <v>3</v>
+      </c>
+      <c r="AY127">
+        <v>6</v>
+      </c>
+      <c r="AZ127">
+        <v>8</v>
+      </c>
+      <c r="BA127">
+        <v>5</v>
+      </c>
+      <c r="BB127">
+        <v>4</v>
+      </c>
+      <c r="BC127">
+        <v>9</v>
+      </c>
+      <c r="BD127">
+        <v>2.28</v>
+      </c>
+      <c r="BE127">
+        <v>9</v>
+      </c>
+      <c r="BF127">
+        <v>1.82</v>
+      </c>
+      <c r="BG127">
+        <v>0</v>
+      </c>
+      <c r="BH127">
+        <v>0</v>
+      </c>
+      <c r="BI127">
+        <v>1.1</v>
+      </c>
+      <c r="BJ127">
+        <v>5.3</v>
+      </c>
+      <c r="BK127">
+        <v>1.22</v>
+      </c>
+      <c r="BL127">
+        <v>3.64</v>
+      </c>
+      <c r="BM127">
+        <v>1.41</v>
+      </c>
+      <c r="BN127">
+        <v>2.6</v>
+      </c>
+      <c r="BO127">
+        <v>1.85</v>
+      </c>
+      <c r="BP127">
+        <v>1.95</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="270">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -559,6 +559,21 @@
     <t>['85']</t>
   </si>
   <si>
+    <t>['2', '69', '90+2']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['9', '54', '58', '61', '78']</t>
+  </si>
+  <si>
+    <t>['14', '22', '75', '90+1']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -800,6 +815,15 @@
   </si>
   <si>
     <t>['11', '22', '38']</t>
+  </si>
+  <si>
+    <t>['45+1', '45+6', '78']</t>
+  </si>
+  <si>
+    <t>['25', '28', '90+3']</t>
+  </si>
+  <si>
+    <t>['4', '13', '33', '63', '66', '82']</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP127"/>
+  <dimension ref="A1:BP133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1704,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ3">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1832,7 +1856,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1913,7 +1937,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ4">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2116,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ5">
         <v>1.18</v>
@@ -2244,7 +2268,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2322,10 +2346,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ6">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2528,10 +2552,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ7">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2656,7 +2680,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2734,10 +2758,10 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ8">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2940,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ9">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR9">
         <v>1.31</v>
@@ -3068,7 +3092,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3149,7 +3173,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ10">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR10">
         <v>2.8</v>
@@ -3274,7 +3298,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3558,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ12">
         <v>1.27</v>
@@ -3764,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR13">
         <v>1.23</v>
@@ -3970,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ14">
         <v>1.27</v>
@@ -4098,7 +4122,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4179,7 +4203,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ15">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR15">
         <v>1.21</v>
@@ -4591,7 +4615,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ17">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR17">
         <v>2.26</v>
@@ -4794,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ18">
         <v>0.45</v>
@@ -4922,7 +4946,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5209,7 +5233,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ20">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5334,7 +5358,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5412,10 +5436,10 @@
         <v>2</v>
       </c>
       <c r="AP21">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ21">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR21">
         <v>2.58</v>
@@ -5540,7 +5564,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5621,7 +5645,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ22">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR22">
         <v>1.78</v>
@@ -5746,7 +5770,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5952,7 +5976,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -6030,7 +6054,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ24">
         <v>0.91</v>
@@ -6158,7 +6182,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6236,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6364,7 +6388,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6445,7 +6469,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ26">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6651,7 +6675,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ27">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.91</v>
@@ -6776,7 +6800,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6854,7 +6878,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ28">
         <v>1.18</v>
@@ -7060,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ29">
         <v>0.45</v>
@@ -7188,7 +7212,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q30">
         <v>7.53</v>
@@ -7269,7 +7293,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ30">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR30">
         <v>1.2</v>
@@ -7394,7 +7418,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7472,7 +7496,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ31">
         <v>1.27</v>
@@ -7600,7 +7624,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7678,7 +7702,7 @@
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ32">
         <v>0.91</v>
@@ -7884,10 +7908,10 @@
         <v>0.75</v>
       </c>
       <c r="AP33">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ33">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR33">
         <v>2.09</v>
@@ -8090,10 +8114,10 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ34">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR34">
         <v>1.75</v>
@@ -8218,7 +8242,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8299,7 +8323,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ35">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR35">
         <v>1.9</v>
@@ -8424,7 +8448,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q36">
         <v>4.84</v>
@@ -8502,7 +8526,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ36">
         <v>2.09</v>
@@ -8711,7 +8735,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ37">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR37">
         <v>2.05</v>
@@ -8836,7 +8860,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8917,7 +8941,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR38">
         <v>1.97</v>
@@ -9042,7 +9066,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9248,7 +9272,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9329,7 +9353,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ40">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>2.29</v>
@@ -9454,7 +9478,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q41">
         <v>4.5</v>
@@ -9660,7 +9684,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
@@ -9738,7 +9762,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9866,7 +9890,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9944,7 +9968,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ43">
         <v>1.18</v>
@@ -10072,7 +10096,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10153,7 +10177,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ44">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR44">
         <v>2.01</v>
@@ -10278,7 +10302,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10356,10 +10380,10 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR45">
         <v>2.14</v>
@@ -10484,7 +10508,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10562,10 +10586,10 @@
         <v>1.8</v>
       </c>
       <c r="AP46">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ46">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR46">
         <v>1.74</v>
@@ -10768,10 +10792,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ47">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR47">
         <v>1.67</v>
@@ -10896,7 +10920,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10974,7 +10998,7 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ48">
         <v>2.09</v>
@@ -11102,7 +11126,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11180,10 +11204,10 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ49">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR49">
         <v>1.73</v>
@@ -11308,7 +11332,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11386,7 +11410,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11592,10 +11616,10 @@
         <v>2.25</v>
       </c>
       <c r="AP51">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR51">
         <v>2.1</v>
@@ -11720,7 +11744,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11926,7 +11950,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -12132,7 +12156,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12338,7 +12362,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12544,7 +12568,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12750,7 +12774,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -12956,7 +12980,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -13034,10 +13058,10 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ58">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR58">
         <v>1.94</v>
@@ -13162,7 +13186,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13240,10 +13264,10 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ59">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR59">
         <v>1.64</v>
@@ -13368,7 +13392,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13446,10 +13470,10 @@
         <v>1.67</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ60">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR60">
         <v>1.74</v>
@@ -13574,7 +13598,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q61">
         <v>2.9</v>
@@ -13652,10 +13676,10 @@
         <v>2.5</v>
       </c>
       <c r="AP61">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ61">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR61">
         <v>1.93</v>
@@ -13780,7 +13804,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13858,10 +13882,10 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ62">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR62">
         <v>1.76</v>
@@ -13986,7 +14010,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q63">
         <v>1.84</v>
@@ -14064,10 +14088,10 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ63">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR63">
         <v>1.93</v>
@@ -14192,7 +14216,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q64">
         <v>5.69</v>
@@ -14398,7 +14422,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q65">
         <v>4.4</v>
@@ -14604,7 +14628,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14685,7 +14709,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ66">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.97</v>
@@ -14810,7 +14834,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -15016,7 +15040,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -15094,7 +15118,7 @@
         <v>1.4</v>
       </c>
       <c r="AP68">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ68">
         <v>1.18</v>
@@ -15222,7 +15246,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q69">
         <v>1.85</v>
@@ -15428,7 +15452,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q70">
         <v>3.7</v>
@@ -15634,7 +15658,7 @@
         <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -15712,10 +15736,10 @@
         <v>1.83</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ71">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR71">
         <v>1.79</v>
@@ -15840,7 +15864,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -16046,7 +16070,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q73">
         <v>3.85</v>
@@ -16127,7 +16151,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ73">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR73">
         <v>1.18</v>
@@ -16458,7 +16482,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16536,7 +16560,7 @@
         <v>2.17</v>
       </c>
       <c r="AP75">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ75">
         <v>1.27</v>
@@ -16664,7 +16688,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q76">
         <v>1.78</v>
@@ -16870,7 +16894,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q77">
         <v>2.54</v>
@@ -17154,10 +17178,10 @@
         <v>1.4</v>
       </c>
       <c r="AP78">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ78">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR78">
         <v>1.96</v>
@@ -17282,7 +17306,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q79">
         <v>5.9</v>
@@ -17566,7 +17590,7 @@
         <v>0.17</v>
       </c>
       <c r="AP80">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ80">
         <v>0.45</v>
@@ -17694,7 +17718,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q81">
         <v>2.25</v>
@@ -17775,7 +17799,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ81">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR81">
         <v>1.86</v>
@@ -17978,10 +18002,10 @@
         <v>1.83</v>
       </c>
       <c r="AP82">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ82">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>1.65</v>
@@ -18106,7 +18130,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q83">
         <v>3.75</v>
@@ -18187,7 +18211,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ83">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR83">
         <v>1.3</v>
@@ -18312,7 +18336,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q84">
         <v>1.67</v>
@@ -18393,7 +18417,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ84">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR84">
         <v>1.85</v>
@@ -18596,7 +18620,7 @@
         <v>1.33</v>
       </c>
       <c r="AP85">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ85">
         <v>1.18</v>
@@ -18724,7 +18748,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -18805,7 +18829,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ86">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR86">
         <v>1.18</v>
@@ -19011,7 +19035,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ87">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR87">
         <v>1.92</v>
@@ -19214,7 +19238,7 @@
         <v>0.14</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ88">
         <v>0.45</v>
@@ -19342,7 +19366,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -19420,10 +19444,10 @@
         <v>1.57</v>
       </c>
       <c r="AP89">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ89">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR89">
         <v>2.07</v>
@@ -19548,7 +19572,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19754,7 +19778,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -19835,7 +19859,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ91">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR91">
         <v>1.28</v>
@@ -19960,7 +19984,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q92">
         <v>2.8</v>
@@ -20038,7 +20062,7 @@
         <v>0.57</v>
       </c>
       <c r="AP92">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ92">
         <v>1</v>
@@ -20166,7 +20190,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q93">
         <v>3.75</v>
@@ -20244,7 +20268,7 @@
         <v>1.86</v>
       </c>
       <c r="AP93">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ93">
         <v>1.27</v>
@@ -20453,7 +20477,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ94">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR94">
         <v>2</v>
@@ -20578,7 +20602,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q95">
         <v>2.51</v>
@@ -20659,7 +20683,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ95">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR95">
         <v>1.93</v>
@@ -20862,7 +20886,7 @@
         <v>1.29</v>
       </c>
       <c r="AP96">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ96">
         <v>0.91</v>
@@ -20990,7 +21014,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q97">
         <v>3.44</v>
@@ -21071,7 +21095,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ97">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR97">
         <v>2.01</v>
@@ -21480,7 +21504,7 @@
         <v>0.88</v>
       </c>
       <c r="AP99">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ99">
         <v>1</v>
@@ -21686,7 +21710,7 @@
         <v>0.13</v>
       </c>
       <c r="AP100">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ100">
         <v>0.45</v>
@@ -22020,7 +22044,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q102">
         <v>1.44</v>
@@ -22101,7 +22125,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ102">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR102">
         <v>2.23</v>
@@ -22226,7 +22250,7 @@
         <v>95</v>
       </c>
       <c r="P103" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22304,10 +22328,10 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ103">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR103">
         <v>1.86</v>
@@ -22432,7 +22456,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q104">
         <v>1.57</v>
@@ -22510,10 +22534,10 @@
         <v>0.88</v>
       </c>
       <c r="AP104">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ104">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR104">
         <v>1.92</v>
@@ -22638,7 +22662,7 @@
         <v>165</v>
       </c>
       <c r="P105" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q105">
         <v>3.2</v>
@@ -22716,7 +22740,7 @@
         <v>1.86</v>
       </c>
       <c r="AP105">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ105">
         <v>2.09</v>
@@ -22922,7 +22946,7 @@
         <v>1.25</v>
       </c>
       <c r="AP106">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ106">
         <v>0.91</v>
@@ -23131,7 +23155,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ107">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR107">
         <v>1.98</v>
@@ -23256,7 +23280,7 @@
         <v>91</v>
       </c>
       <c r="P108" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q108">
         <v>2.4</v>
@@ -23334,7 +23358,7 @@
         <v>1.75</v>
       </c>
       <c r="AP108">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ108">
         <v>2.09</v>
@@ -23543,7 +23567,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ109">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR109">
         <v>1.24</v>
@@ -23874,7 +23898,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q111">
         <v>3.4</v>
@@ -24080,7 +24104,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24364,7 +24388,7 @@
         <v>1.11</v>
       </c>
       <c r="AP113">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ113">
         <v>0.91</v>
@@ -24492,7 +24516,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -24698,7 +24722,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q115">
         <v>4.5</v>
@@ -24779,7 +24803,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ115">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR115">
         <v>1.29</v>
@@ -24904,7 +24928,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q116">
         <v>1.53</v>
@@ -24982,10 +25006,10 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ116">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR116">
         <v>2.1</v>
@@ -25110,7 +25134,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q117">
         <v>2.8</v>
@@ -25188,10 +25212,10 @@
         <v>1</v>
       </c>
       <c r="AP117">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ117">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR117">
         <v>1.66</v>
@@ -25316,7 +25340,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q118">
         <v>3.99</v>
@@ -25394,7 +25418,7 @@
         <v>1.89</v>
       </c>
       <c r="AP118">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ118">
         <v>2.09</v>
@@ -25522,7 +25546,7 @@
         <v>175</v>
       </c>
       <c r="P119" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q119">
         <v>3.83</v>
@@ -25600,10 +25624,10 @@
         <v>1.44</v>
       </c>
       <c r="AP119">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ119">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR119">
         <v>1.88</v>
@@ -25806,10 +25830,10 @@
         <v>0.78</v>
       </c>
       <c r="AP120">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ120">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR120">
         <v>1.8</v>
@@ -26140,7 +26164,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q122">
         <v>3.48</v>
@@ -26346,7 +26370,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q123">
         <v>2.58</v>
@@ -26552,7 +26576,7 @@
         <v>91</v>
       </c>
       <c r="P124" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q124">
         <v>2.2</v>
@@ -26758,7 +26782,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q125">
         <v>2.3</v>
@@ -27170,7 +27194,7 @@
         <v>91</v>
       </c>
       <c r="P127" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q127">
         <v>3.62</v>
@@ -27251,7 +27275,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ127">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR127">
         <v>1.93</v>
@@ -27327,6 +27351,1242 @@
       </c>
       <c r="BP127">
         <v>1.95</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7294914</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45550.45833333334</v>
+      </c>
+      <c r="F128">
+        <v>22</v>
+      </c>
+      <c r="G128" t="s">
+        <v>71</v>
+      </c>
+      <c r="H128" t="s">
+        <v>81</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>2</v>
+      </c>
+      <c r="K128">
+        <v>3</v>
+      </c>
+      <c r="L128">
+        <v>3</v>
+      </c>
+      <c r="M128">
+        <v>3</v>
+      </c>
+      <c r="N128">
+        <v>6</v>
+      </c>
+      <c r="O128" t="s">
+        <v>181</v>
+      </c>
+      <c r="P128" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q128">
+        <v>3.1</v>
+      </c>
+      <c r="R128">
+        <v>2.3</v>
+      </c>
+      <c r="S128">
+        <v>2.88</v>
+      </c>
+      <c r="T128">
+        <v>1.3</v>
+      </c>
+      <c r="U128">
+        <v>3.4</v>
+      </c>
+      <c r="V128">
+        <v>2.5</v>
+      </c>
+      <c r="W128">
+        <v>1.5</v>
+      </c>
+      <c r="X128">
+        <v>5.5</v>
+      </c>
+      <c r="Y128">
+        <v>1.13</v>
+      </c>
+      <c r="Z128">
+        <v>2.39</v>
+      </c>
+      <c r="AA128">
+        <v>3.4</v>
+      </c>
+      <c r="AB128">
+        <v>2.44</v>
+      </c>
+      <c r="AC128">
+        <v>1.01</v>
+      </c>
+      <c r="AD128">
+        <v>11</v>
+      </c>
+      <c r="AE128">
+        <v>1.18</v>
+      </c>
+      <c r="AF128">
+        <v>4.33</v>
+      </c>
+      <c r="AG128">
+        <v>1.6</v>
+      </c>
+      <c r="AH128">
+        <v>2.1</v>
+      </c>
+      <c r="AI128">
+        <v>1.53</v>
+      </c>
+      <c r="AJ128">
+        <v>2.38</v>
+      </c>
+      <c r="AK128">
+        <v>1.55</v>
+      </c>
+      <c r="AL128">
+        <v>1.3</v>
+      </c>
+      <c r="AM128">
+        <v>1.45</v>
+      </c>
+      <c r="AN128">
+        <v>1.6</v>
+      </c>
+      <c r="AO128">
+        <v>1.6</v>
+      </c>
+      <c r="AP128">
+        <v>1.55</v>
+      </c>
+      <c r="AQ128">
+        <v>1.55</v>
+      </c>
+      <c r="AR128">
+        <v>1.63</v>
+      </c>
+      <c r="AS128">
+        <v>1.82</v>
+      </c>
+      <c r="AT128">
+        <v>3.45</v>
+      </c>
+      <c r="AU128">
+        <v>7</v>
+      </c>
+      <c r="AV128">
+        <v>9</v>
+      </c>
+      <c r="AW128">
+        <v>1</v>
+      </c>
+      <c r="AX128">
+        <v>10</v>
+      </c>
+      <c r="AY128">
+        <v>8</v>
+      </c>
+      <c r="AZ128">
+        <v>19</v>
+      </c>
+      <c r="BA128">
+        <v>5</v>
+      </c>
+      <c r="BB128">
+        <v>4</v>
+      </c>
+      <c r="BC128">
+        <v>9</v>
+      </c>
+      <c r="BD128">
+        <v>2.43</v>
+      </c>
+      <c r="BE128">
+        <v>8.5</v>
+      </c>
+      <c r="BF128">
+        <v>1.75</v>
+      </c>
+      <c r="BG128">
+        <v>1.1</v>
+      </c>
+      <c r="BH128">
+        <v>5.75</v>
+      </c>
+      <c r="BI128">
+        <v>1.15</v>
+      </c>
+      <c r="BJ128">
+        <v>4.5</v>
+      </c>
+      <c r="BK128">
+        <v>1.3</v>
+      </c>
+      <c r="BL128">
+        <v>3.08</v>
+      </c>
+      <c r="BM128">
+        <v>1.52</v>
+      </c>
+      <c r="BN128">
+        <v>2.3</v>
+      </c>
+      <c r="BO128">
+        <v>2.05</v>
+      </c>
+      <c r="BP128">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7294916</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45550.45833333334</v>
+      </c>
+      <c r="F129">
+        <v>22</v>
+      </c>
+      <c r="G129" t="s">
+        <v>79</v>
+      </c>
+      <c r="H129" t="s">
+        <v>72</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129" t="s">
+        <v>182</v>
+      </c>
+      <c r="P129" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q129">
+        <v>2.75</v>
+      </c>
+      <c r="R129">
+        <v>2.4</v>
+      </c>
+      <c r="S129">
+        <v>3</v>
+      </c>
+      <c r="T129">
+        <v>1.25</v>
+      </c>
+      <c r="U129">
+        <v>3.75</v>
+      </c>
+      <c r="V129">
+        <v>2.2</v>
+      </c>
+      <c r="W129">
+        <v>1.62</v>
+      </c>
+      <c r="X129">
+        <v>4.5</v>
+      </c>
+      <c r="Y129">
+        <v>1.17</v>
+      </c>
+      <c r="Z129">
+        <v>2.18</v>
+      </c>
+      <c r="AA129">
+        <v>3.45</v>
+      </c>
+      <c r="AB129">
+        <v>2.63</v>
+      </c>
+      <c r="AC129">
+        <v>1.02</v>
+      </c>
+      <c r="AD129">
+        <v>12</v>
+      </c>
+      <c r="AE129">
+        <v>1.13</v>
+      </c>
+      <c r="AF129">
+        <v>5</v>
+      </c>
+      <c r="AG129">
+        <v>1.45</v>
+      </c>
+      <c r="AH129">
+        <v>2.55</v>
+      </c>
+      <c r="AI129">
+        <v>1.44</v>
+      </c>
+      <c r="AJ129">
+        <v>2.63</v>
+      </c>
+      <c r="AK129">
+        <v>1.48</v>
+      </c>
+      <c r="AL129">
+        <v>1.25</v>
+      </c>
+      <c r="AM129">
+        <v>1.6</v>
+      </c>
+      <c r="AN129">
+        <v>1.8</v>
+      </c>
+      <c r="AO129">
+        <v>1.2</v>
+      </c>
+      <c r="AP129">
+        <v>1.91</v>
+      </c>
+      <c r="AQ129">
+        <v>1.09</v>
+      </c>
+      <c r="AR129">
+        <v>1.82</v>
+      </c>
+      <c r="AS129">
+        <v>1.79</v>
+      </c>
+      <c r="AT129">
+        <v>3.61</v>
+      </c>
+      <c r="AU129">
+        <v>4</v>
+      </c>
+      <c r="AV129">
+        <v>5</v>
+      </c>
+      <c r="AW129">
+        <v>8</v>
+      </c>
+      <c r="AX129">
+        <v>10</v>
+      </c>
+      <c r="AY129">
+        <v>12</v>
+      </c>
+      <c r="AZ129">
+        <v>15</v>
+      </c>
+      <c r="BA129">
+        <v>4</v>
+      </c>
+      <c r="BB129">
+        <v>10</v>
+      </c>
+      <c r="BC129">
+        <v>14</v>
+      </c>
+      <c r="BD129">
+        <v>1.95</v>
+      </c>
+      <c r="BE129">
+        <v>8.5</v>
+      </c>
+      <c r="BF129">
+        <v>2.05</v>
+      </c>
+      <c r="BG129">
+        <v>1.1</v>
+      </c>
+      <c r="BH129">
+        <v>5.75</v>
+      </c>
+      <c r="BI129">
+        <v>1.14</v>
+      </c>
+      <c r="BJ129">
+        <v>4.6</v>
+      </c>
+      <c r="BK129">
+        <v>1.28</v>
+      </c>
+      <c r="BL129">
+        <v>3.18</v>
+      </c>
+      <c r="BM129">
+        <v>1.53</v>
+      </c>
+      <c r="BN129">
+        <v>2.42</v>
+      </c>
+      <c r="BO129">
+        <v>1.92</v>
+      </c>
+      <c r="BP129">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7294918</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45550.45833333334</v>
+      </c>
+      <c r="F130">
+        <v>22</v>
+      </c>
+      <c r="G130" t="s">
+        <v>76</v>
+      </c>
+      <c r="H130" t="s">
+        <v>80</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130" t="s">
+        <v>183</v>
+      </c>
+      <c r="P130" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q130">
+        <v>1.95</v>
+      </c>
+      <c r="R130">
+        <v>2.6</v>
+      </c>
+      <c r="S130">
+        <v>4.75</v>
+      </c>
+      <c r="T130">
+        <v>1.22</v>
+      </c>
+      <c r="U130">
+        <v>4</v>
+      </c>
+      <c r="V130">
+        <v>2.1</v>
+      </c>
+      <c r="W130">
+        <v>1.67</v>
+      </c>
+      <c r="X130">
+        <v>4.33</v>
+      </c>
+      <c r="Y130">
+        <v>1.2</v>
+      </c>
+      <c r="Z130">
+        <v>1.46</v>
+      </c>
+      <c r="AA130">
+        <v>4.2</v>
+      </c>
+      <c r="AB130">
+        <v>5.1</v>
+      </c>
+      <c r="AC130">
+        <v>1.01</v>
+      </c>
+      <c r="AD130">
+        <v>17</v>
+      </c>
+      <c r="AE130">
+        <v>1.1</v>
+      </c>
+      <c r="AF130">
+        <v>5.55</v>
+      </c>
+      <c r="AG130">
+        <v>1.4</v>
+      </c>
+      <c r="AH130">
+        <v>2.75</v>
+      </c>
+      <c r="AI130">
+        <v>1.53</v>
+      </c>
+      <c r="AJ130">
+        <v>2.38</v>
+      </c>
+      <c r="AK130">
+        <v>1.15</v>
+      </c>
+      <c r="AL130">
+        <v>1.18</v>
+      </c>
+      <c r="AM130">
+        <v>2.6</v>
+      </c>
+      <c r="AN130">
+        <v>2</v>
+      </c>
+      <c r="AO130">
+        <v>0.6</v>
+      </c>
+      <c r="AP130">
+        <v>2.09</v>
+      </c>
+      <c r="AQ130">
+        <v>0.55</v>
+      </c>
+      <c r="AR130">
+        <v>1.84</v>
+      </c>
+      <c r="AS130">
+        <v>1.25</v>
+      </c>
+      <c r="AT130">
+        <v>3.09</v>
+      </c>
+      <c r="AU130">
+        <v>4</v>
+      </c>
+      <c r="AV130">
+        <v>4</v>
+      </c>
+      <c r="AW130">
+        <v>10</v>
+      </c>
+      <c r="AX130">
+        <v>10</v>
+      </c>
+      <c r="AY130">
+        <v>14</v>
+      </c>
+      <c r="AZ130">
+        <v>14</v>
+      </c>
+      <c r="BA130">
+        <v>3</v>
+      </c>
+      <c r="BB130">
+        <v>8</v>
+      </c>
+      <c r="BC130">
+        <v>11</v>
+      </c>
+      <c r="BD130">
+        <v>1.45</v>
+      </c>
+      <c r="BE130">
+        <v>9.5</v>
+      </c>
+      <c r="BF130">
+        <v>3.26</v>
+      </c>
+      <c r="BG130">
+        <v>1.11</v>
+      </c>
+      <c r="BH130">
+        <v>5.5</v>
+      </c>
+      <c r="BI130">
+        <v>1.13</v>
+      </c>
+      <c r="BJ130">
+        <v>4.85</v>
+      </c>
+      <c r="BK130">
+        <v>1.27</v>
+      </c>
+      <c r="BL130">
+        <v>3.28</v>
+      </c>
+      <c r="BM130">
+        <v>1.48</v>
+      </c>
+      <c r="BN130">
+        <v>2.54</v>
+      </c>
+      <c r="BO130">
+        <v>1.92</v>
+      </c>
+      <c r="BP130">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7294915</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45550.58333333334</v>
+      </c>
+      <c r="F131">
+        <v>22</v>
+      </c>
+      <c r="G131" t="s">
+        <v>75</v>
+      </c>
+      <c r="H131" t="s">
+        <v>77</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>2</v>
+      </c>
+      <c r="K131">
+        <v>3</v>
+      </c>
+      <c r="L131">
+        <v>5</v>
+      </c>
+      <c r="M131">
+        <v>3</v>
+      </c>
+      <c r="N131">
+        <v>8</v>
+      </c>
+      <c r="O131" t="s">
+        <v>184</v>
+      </c>
+      <c r="P131" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q131">
+        <v>1.5</v>
+      </c>
+      <c r="R131">
+        <v>3.2</v>
+      </c>
+      <c r="S131">
+        <v>8.5</v>
+      </c>
+      <c r="T131">
+        <v>1.17</v>
+      </c>
+      <c r="U131">
+        <v>4.5</v>
+      </c>
+      <c r="V131">
+        <v>1.8</v>
+      </c>
+      <c r="W131">
+        <v>1.91</v>
+      </c>
+      <c r="X131">
+        <v>3.4</v>
+      </c>
+      <c r="Y131">
+        <v>1.3</v>
+      </c>
+      <c r="Z131">
+        <v>1.15</v>
+      </c>
+      <c r="AA131">
+        <v>8</v>
+      </c>
+      <c r="AB131">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="AC131">
+        <v>1.01</v>
+      </c>
+      <c r="AD131">
+        <v>12</v>
+      </c>
+      <c r="AE131">
+        <v>1.04</v>
+      </c>
+      <c r="AF131">
+        <v>8.5</v>
+      </c>
+      <c r="AG131">
+        <v>1.25</v>
+      </c>
+      <c r="AH131">
+        <v>3.56</v>
+      </c>
+      <c r="AI131">
+        <v>1.73</v>
+      </c>
+      <c r="AJ131">
+        <v>2</v>
+      </c>
+      <c r="AK131">
+        <v>1.04</v>
+      </c>
+      <c r="AL131">
+        <v>1.07</v>
+      </c>
+      <c r="AM131">
+        <v>3.7</v>
+      </c>
+      <c r="AN131">
+        <v>2.3</v>
+      </c>
+      <c r="AO131">
+        <v>0.7</v>
+      </c>
+      <c r="AP131">
+        <v>2.36</v>
+      </c>
+      <c r="AQ131">
+        <v>0.64</v>
+      </c>
+      <c r="AR131">
+        <v>2.16</v>
+      </c>
+      <c r="AS131">
+        <v>1.59</v>
+      </c>
+      <c r="AT131">
+        <v>3.75</v>
+      </c>
+      <c r="AU131">
+        <v>10</v>
+      </c>
+      <c r="AV131">
+        <v>5</v>
+      </c>
+      <c r="AW131">
+        <v>10</v>
+      </c>
+      <c r="AX131">
+        <v>7</v>
+      </c>
+      <c r="AY131">
+        <v>20</v>
+      </c>
+      <c r="AZ131">
+        <v>12</v>
+      </c>
+      <c r="BA131">
+        <v>8</v>
+      </c>
+      <c r="BB131">
+        <v>4</v>
+      </c>
+      <c r="BC131">
+        <v>12</v>
+      </c>
+      <c r="BD131">
+        <v>1.06</v>
+      </c>
+      <c r="BE131">
+        <v>15</v>
+      </c>
+      <c r="BF131">
+        <v>11.1</v>
+      </c>
+      <c r="BG131">
+        <v>0</v>
+      </c>
+      <c r="BH131">
+        <v>0</v>
+      </c>
+      <c r="BI131">
+        <v>1.11</v>
+      </c>
+      <c r="BJ131">
+        <v>5.25</v>
+      </c>
+      <c r="BK131">
+        <v>1.23</v>
+      </c>
+      <c r="BL131">
+        <v>3.56</v>
+      </c>
+      <c r="BM131">
+        <v>1.42</v>
+      </c>
+      <c r="BN131">
+        <v>2.57</v>
+      </c>
+      <c r="BO131">
+        <v>1.77</v>
+      </c>
+      <c r="BP131">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7294917</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45551.67708333334</v>
+      </c>
+      <c r="F132">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s">
+        <v>73</v>
+      </c>
+      <c r="H132" t="s">
+        <v>78</v>
+      </c>
+      <c r="I132">
+        <v>2</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>2</v>
+      </c>
+      <c r="L132">
+        <v>4</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>5</v>
+      </c>
+      <c r="O132" t="s">
+        <v>185</v>
+      </c>
+      <c r="P132" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q132">
+        <v>1.99</v>
+      </c>
+      <c r="R132">
+        <v>2.92</v>
+      </c>
+      <c r="S132">
+        <v>4.56</v>
+      </c>
+      <c r="T132">
+        <v>1.18</v>
+      </c>
+      <c r="U132">
+        <v>4.33</v>
+      </c>
+      <c r="V132">
+        <v>1.85</v>
+      </c>
+      <c r="W132">
+        <v>1.96</v>
+      </c>
+      <c r="X132">
+        <v>3.4</v>
+      </c>
+      <c r="Y132">
+        <v>1.3</v>
+      </c>
+      <c r="Z132">
+        <v>1.57</v>
+      </c>
+      <c r="AA132">
+        <v>4.45</v>
+      </c>
+      <c r="AB132">
+        <v>4.24</v>
+      </c>
+      <c r="AC132">
+        <v>1.01</v>
+      </c>
+      <c r="AD132">
+        <v>11.75</v>
+      </c>
+      <c r="AE132">
+        <v>1.08</v>
+      </c>
+      <c r="AF132">
+        <v>7</v>
+      </c>
+      <c r="AG132">
+        <v>1.3</v>
+      </c>
+      <c r="AH132">
+        <v>3.21</v>
+      </c>
+      <c r="AI132">
+        <v>1.35</v>
+      </c>
+      <c r="AJ132">
+        <v>3.14</v>
+      </c>
+      <c r="AK132">
+        <v>1.21</v>
+      </c>
+      <c r="AL132">
+        <v>1.18</v>
+      </c>
+      <c r="AM132">
+        <v>2.33</v>
+      </c>
+      <c r="AN132">
+        <v>2.1</v>
+      </c>
+      <c r="AO132">
+        <v>1.1</v>
+      </c>
+      <c r="AP132">
+        <v>2.18</v>
+      </c>
+      <c r="AQ132">
+        <v>1</v>
+      </c>
+      <c r="AR132">
+        <v>2.26</v>
+      </c>
+      <c r="AS132">
+        <v>2</v>
+      </c>
+      <c r="AT132">
+        <v>4.26</v>
+      </c>
+      <c r="AU132">
+        <v>10</v>
+      </c>
+      <c r="AV132">
+        <v>4</v>
+      </c>
+      <c r="AW132">
+        <v>4</v>
+      </c>
+      <c r="AX132">
+        <v>9</v>
+      </c>
+      <c r="AY132">
+        <v>14</v>
+      </c>
+      <c r="AZ132">
+        <v>13</v>
+      </c>
+      <c r="BA132">
+        <v>6</v>
+      </c>
+      <c r="BB132">
+        <v>6</v>
+      </c>
+      <c r="BC132">
+        <v>12</v>
+      </c>
+      <c r="BD132">
+        <v>1.37</v>
+      </c>
+      <c r="BE132">
+        <v>8.9</v>
+      </c>
+      <c r="BF132">
+        <v>3.98</v>
+      </c>
+      <c r="BG132">
+        <v>0</v>
+      </c>
+      <c r="BH132">
+        <v>0</v>
+      </c>
+      <c r="BI132">
+        <v>1.12</v>
+      </c>
+      <c r="BJ132">
+        <v>5.05</v>
+      </c>
+      <c r="BK132">
+        <v>1.25</v>
+      </c>
+      <c r="BL132">
+        <v>3.42</v>
+      </c>
+      <c r="BM132">
+        <v>1.44</v>
+      </c>
+      <c r="BN132">
+        <v>2.51</v>
+      </c>
+      <c r="BO132">
+        <v>1.79</v>
+      </c>
+      <c r="BP132">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7294913</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45551.67708333334</v>
+      </c>
+      <c r="F133">
+        <v>22</v>
+      </c>
+      <c r="G133" t="s">
+        <v>74</v>
+      </c>
+      <c r="H133" t="s">
+        <v>70</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>3</v>
+      </c>
+      <c r="K133">
+        <v>3</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>6</v>
+      </c>
+      <c r="N133">
+        <v>6</v>
+      </c>
+      <c r="O133" t="s">
+        <v>91</v>
+      </c>
+      <c r="P133" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q133">
+        <v>5.24</v>
+      </c>
+      <c r="R133">
+        <v>2.9</v>
+      </c>
+      <c r="S133">
+        <v>1.89</v>
+      </c>
+      <c r="T133">
+        <v>1.18</v>
+      </c>
+      <c r="U133">
+        <v>4.33</v>
+      </c>
+      <c r="V133">
+        <v>1.94</v>
+      </c>
+      <c r="W133">
+        <v>1.85</v>
+      </c>
+      <c r="X133">
+        <v>3.5</v>
+      </c>
+      <c r="Y133">
+        <v>1.29</v>
+      </c>
+      <c r="Z133">
+        <v>4.92</v>
+      </c>
+      <c r="AA133">
+        <v>4.72</v>
+      </c>
+      <c r="AB133">
+        <v>1.47</v>
+      </c>
+      <c r="AC133">
+        <v>1.01</v>
+      </c>
+      <c r="AD133">
+        <v>11.5</v>
+      </c>
+      <c r="AE133">
+        <v>1.09</v>
+      </c>
+      <c r="AF133">
+        <v>6.5</v>
+      </c>
+      <c r="AG133">
+        <v>1.33</v>
+      </c>
+      <c r="AH133">
+        <v>3.04</v>
+      </c>
+      <c r="AI133">
+        <v>1.45</v>
+      </c>
+      <c r="AJ133">
+        <v>2.72</v>
+      </c>
+      <c r="AK133">
+        <v>2.63</v>
+      </c>
+      <c r="AL133">
+        <v>1.18</v>
+      </c>
+      <c r="AM133">
+        <v>1.16</v>
+      </c>
+      <c r="AN133">
+        <v>1.2</v>
+      </c>
+      <c r="AO133">
+        <v>2</v>
+      </c>
+      <c r="AP133">
+        <v>1.09</v>
+      </c>
+      <c r="AQ133">
+        <v>2.09</v>
+      </c>
+      <c r="AR133">
+        <v>1.79</v>
+      </c>
+      <c r="AS133">
+        <v>1.86</v>
+      </c>
+      <c r="AT133">
+        <v>3.65</v>
+      </c>
+      <c r="AU133">
+        <v>2</v>
+      </c>
+      <c r="AV133">
+        <v>8</v>
+      </c>
+      <c r="AW133">
+        <v>3</v>
+      </c>
+      <c r="AX133">
+        <v>5</v>
+      </c>
+      <c r="AY133">
+        <v>5</v>
+      </c>
+      <c r="AZ133">
+        <v>13</v>
+      </c>
+      <c r="BA133">
+        <v>2</v>
+      </c>
+      <c r="BB133">
+        <v>9</v>
+      </c>
+      <c r="BC133">
+        <v>11</v>
+      </c>
+      <c r="BD133">
+        <v>6.6</v>
+      </c>
+      <c r="BE133">
+        <v>10.5</v>
+      </c>
+      <c r="BF133">
+        <v>1.16</v>
+      </c>
+      <c r="BG133">
+        <v>0</v>
+      </c>
+      <c r="BH133">
+        <v>0</v>
+      </c>
+      <c r="BI133">
+        <v>1.12</v>
+      </c>
+      <c r="BJ133">
+        <v>5</v>
+      </c>
+      <c r="BK133">
+        <v>1.25</v>
+      </c>
+      <c r="BL133">
+        <v>3.42</v>
+      </c>
+      <c r="BM133">
+        <v>1.45</v>
+      </c>
+      <c r="BN133">
+        <v>2.48</v>
+      </c>
+      <c r="BO133">
+        <v>1.75</v>
+      </c>
+      <c r="BP133">
+        <v>2.04</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="269">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -301,10 +301,10 @@
     <t>['18', '20', '76', '78']</t>
   </si>
   <si>
-    <t>['73']</t>
+    <t>['42']</t>
   </si>
   <si>
-    <t>['42']</t>
+    <t>['73']</t>
   </si>
   <si>
     <t>['20', '36', '45+1', '62']</t>
@@ -325,10 +325,10 @@
     <t>['28', '60', '64', '75']</t>
   </si>
   <si>
-    <t>['36', '38']</t>
+    <t>['27', '55', '90+7']</t>
   </si>
   <si>
-    <t>['27', '55', '90+7']</t>
+    <t>['36', '38']</t>
   </si>
   <si>
     <t>['36', '67']</t>
@@ -355,10 +355,10 @@
     <t>['64']</t>
   </si>
   <si>
-    <t>['5', '43']</t>
+    <t>['65']</t>
   </si>
   <si>
-    <t>['65']</t>
+    <t>['5', '43']</t>
   </si>
   <si>
     <t>['9', '40']</t>
@@ -397,13 +397,13 @@
     <t>['34', '73', '79']</t>
   </si>
   <si>
-    <t>['41']</t>
+    <t>['86', '90']</t>
   </si>
   <si>
     <t>['39', '81', '90+4', '90+6']</t>
   </si>
   <si>
-    <t>['86', '90']</t>
+    <t>['41']</t>
   </si>
   <si>
     <t>['54', '90+4']</t>
@@ -472,10 +472,10 @@
     <t>['88']</t>
   </si>
   <si>
-    <t>['79', '84']</t>
+    <t>['22', '38', '42', '47']</t>
   </si>
   <si>
-    <t>['22', '38', '42', '47']</t>
+    <t>['79', '84']</t>
   </si>
   <si>
     <t>['90+4']</t>
@@ -484,10 +484,10 @@
     <t>['45+2']</t>
   </si>
   <si>
-    <t>['9', '26', '32', '72']</t>
+    <t>['15', '40', '44', '77', '87']</t>
   </si>
   <si>
-    <t>['15', '40', '44', '77', '87']</t>
+    <t>['9', '26', '32', '72']</t>
   </si>
   <si>
     <t>['19', '90+5']</t>
@@ -496,13 +496,13 @@
     <t>['8', '11']</t>
   </si>
   <si>
-    <t>['45']</t>
-  </si>
-  <si>
     <t>['60', '90']</t>
   </si>
   <si>
     <t>['32', '47', '68']</t>
+  </si>
+  <si>
+    <t>['45']</t>
   </si>
   <si>
     <t>['3']</t>
@@ -563,9 +563,6 @@
   </si>
   <si>
     <t>['34']</t>
-  </si>
-  <si>
-    <t>['89']</t>
   </si>
   <si>
     <t>['9', '54', '58', '61', '78']</t>
@@ -640,13 +637,13 @@
     <t>['36', '42']</t>
   </si>
   <si>
+    <t>['76']</t>
+  </si>
+  <si>
     <t>['53', '79']</t>
   </si>
   <si>
     <t>['45+1']</t>
-  </si>
-  <si>
-    <t>['76']</t>
   </si>
   <si>
     <t>['68', '71']</t>
@@ -688,13 +685,13 @@
     <t>['27', '88']</t>
   </si>
   <si>
-    <t>['69', '74']</t>
+    <t>['90+5']</t>
   </si>
   <si>
     <t>['27', '90+6']</t>
   </si>
   <si>
-    <t>['90+5']</t>
+    <t>['69', '74']</t>
   </si>
   <si>
     <t>['35', '58']</t>
@@ -1185,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP133"/>
+  <dimension ref="A1:BP132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1731,7 +1728,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ3">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1856,7 +1853,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -2268,7 +2265,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2680,7 +2677,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2758,7 +2755,7 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -2967,7 +2964,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ9">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="AR9">
         <v>1.31</v>
@@ -3092,7 +3089,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3298,7 +3295,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3994,7 +3991,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>1.27</v>
@@ -4122,7 +4119,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4615,7 +4612,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ17">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="AR17">
         <v>2.26</v>
@@ -4946,7 +4943,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5110,7 +5107,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>7294805</v>
+        <v>7294806</v>
       </c>
       <c r="C20" t="s">
         <v>68</v>
@@ -5125,190 +5122,190 @@
         <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O20" t="s">
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="Q20">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="R20">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S20">
+        <v>2.63</v>
+      </c>
+      <c r="T20">
+        <v>1.22</v>
+      </c>
+      <c r="U20">
+        <v>3.8</v>
+      </c>
+      <c r="V20">
+        <v>2.05</v>
+      </c>
+      <c r="W20">
+        <v>1.7</v>
+      </c>
+      <c r="X20">
+        <v>4.33</v>
+      </c>
+      <c r="Y20">
+        <v>1.18</v>
+      </c>
+      <c r="Z20">
+        <v>2.49</v>
+      </c>
+      <c r="AA20">
+        <v>3.53</v>
+      </c>
+      <c r="AB20">
+        <v>2.25</v>
+      </c>
+      <c r="AC20">
+        <v>1.01</v>
+      </c>
+      <c r="AD20">
+        <v>11</v>
+      </c>
+      <c r="AE20">
+        <v>1.11</v>
+      </c>
+      <c r="AF20">
+        <v>5.5</v>
+      </c>
+      <c r="AG20">
+        <v>1.41</v>
+      </c>
+      <c r="AH20">
+        <v>2.69</v>
+      </c>
+      <c r="AI20">
+        <v>1.38</v>
+      </c>
+      <c r="AJ20">
+        <v>2.8</v>
+      </c>
+      <c r="AK20">
+        <v>1.6</v>
+      </c>
+      <c r="AL20">
+        <v>1.25</v>
+      </c>
+      <c r="AM20">
+        <v>1.48</v>
+      </c>
+      <c r="AN20">
         <v>3</v>
       </c>
-      <c r="T20">
-        <v>1.27</v>
-      </c>
-      <c r="U20">
-        <v>3.54</v>
-      </c>
-      <c r="V20">
-        <v>2.27</v>
-      </c>
-      <c r="W20">
-        <v>1.59</v>
-      </c>
-      <c r="X20">
-        <v>5.15</v>
-      </c>
-      <c r="Y20">
-        <v>1.14</v>
-      </c>
-      <c r="Z20">
-        <v>2.33</v>
-      </c>
-      <c r="AA20">
-        <v>3.41</v>
-      </c>
-      <c r="AB20">
-        <v>2.45</v>
-      </c>
-      <c r="AC20">
-        <v>1.03</v>
-      </c>
-      <c r="AD20">
-        <v>10</v>
-      </c>
-      <c r="AE20">
-        <v>1.14</v>
-      </c>
-      <c r="AF20">
-        <v>4.65</v>
-      </c>
-      <c r="AG20">
-        <v>1.72</v>
-      </c>
-      <c r="AH20">
-        <v>2.05</v>
-      </c>
-      <c r="AI20">
-        <v>1.47</v>
-      </c>
-      <c r="AJ20">
-        <v>2.49</v>
-      </c>
-      <c r="AK20">
-        <v>1.47</v>
-      </c>
-      <c r="AL20">
-        <v>1.26</v>
-      </c>
-      <c r="AM20">
-        <v>1.53</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
       <c r="AO20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP20">
-        <v>1.09</v>
+        <v>1.91</v>
       </c>
       <c r="AQ20">
-        <v>0.64</v>
+        <v>1.55</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AS20">
-        <v>0.63</v>
+        <v>1.79</v>
       </c>
       <c r="AT20">
-        <v>0.63</v>
+        <v>4.37</v>
       </c>
       <c r="AU20">
         <v>6</v>
       </c>
       <c r="AV20">
+        <v>7</v>
+      </c>
+      <c r="AW20">
+        <v>6</v>
+      </c>
+      <c r="AX20">
+        <v>8</v>
+      </c>
+      <c r="AY20">
+        <v>12</v>
+      </c>
+      <c r="AZ20">
+        <v>15</v>
+      </c>
+      <c r="BA20">
+        <v>5</v>
+      </c>
+      <c r="BB20">
         <v>3</v>
       </c>
-      <c r="AW20">
-        <v>9</v>
-      </c>
-      <c r="AX20">
-        <v>9</v>
-      </c>
-      <c r="AY20">
-        <v>15</v>
-      </c>
-      <c r="AZ20">
-        <v>12</v>
-      </c>
-      <c r="BA20">
-        <v>4</v>
-      </c>
-      <c r="BB20">
+      <c r="BC20">
         <v>8</v>
       </c>
-      <c r="BC20">
-        <v>12</v>
-      </c>
       <c r="BD20">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="BE20">
         <v>8.5</v>
       </c>
       <c r="BF20">
-        <v>2.41</v>
+        <v>1.91</v>
       </c>
       <c r="BG20">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="BH20">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BI20">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="BJ20">
-        <v>4.15</v>
+        <v>3.84</v>
       </c>
       <c r="BK20">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="BL20">
-        <v>2.88</v>
+        <v>2.71</v>
       </c>
       <c r="BM20">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="BN20">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="BO20">
-        <v>1.98</v>
+        <v>2.09</v>
       </c>
       <c r="BP20">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="21" spans="1:68">
@@ -5316,7 +5313,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7294806</v>
+        <v>7294805</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
@@ -5331,190 +5328,190 @@
         <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O21" t="s">
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>193</v>
+        <v>91</v>
       </c>
       <c r="Q21">
+        <v>2.88</v>
+      </c>
+      <c r="R21">
+        <v>2.38</v>
+      </c>
+      <c r="S21">
         <v>3</v>
       </c>
-      <c r="R21">
-        <v>2.5</v>
-      </c>
-      <c r="S21">
-        <v>2.63</v>
-      </c>
       <c r="T21">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="U21">
-        <v>3.8</v>
+        <v>3.54</v>
       </c>
       <c r="V21">
+        <v>2.27</v>
+      </c>
+      <c r="W21">
+        <v>1.59</v>
+      </c>
+      <c r="X21">
+        <v>5.15</v>
+      </c>
+      <c r="Y21">
+        <v>1.14</v>
+      </c>
+      <c r="Z21">
+        <v>2.33</v>
+      </c>
+      <c r="AA21">
+        <v>3.41</v>
+      </c>
+      <c r="AB21">
+        <v>2.45</v>
+      </c>
+      <c r="AC21">
+        <v>1.03</v>
+      </c>
+      <c r="AD21">
+        <v>10</v>
+      </c>
+      <c r="AE21">
+        <v>1.14</v>
+      </c>
+      <c r="AF21">
+        <v>4.65</v>
+      </c>
+      <c r="AG21">
+        <v>1.72</v>
+      </c>
+      <c r="AH21">
         <v>2.05</v>
       </c>
-      <c r="W21">
-        <v>1.7</v>
-      </c>
-      <c r="X21">
-        <v>4.33</v>
-      </c>
-      <c r="Y21">
-        <v>1.18</v>
-      </c>
-      <c r="Z21">
+      <c r="AI21">
+        <v>1.47</v>
+      </c>
+      <c r="AJ21">
         <v>2.49</v>
       </c>
-      <c r="AA21">
-        <v>3.53</v>
-      </c>
-      <c r="AB21">
-        <v>2.25</v>
-      </c>
-      <c r="AC21">
-        <v>1.01</v>
-      </c>
-      <c r="AD21">
-        <v>11</v>
-      </c>
-      <c r="AE21">
-        <v>1.11</v>
-      </c>
-      <c r="AF21">
-        <v>5.5</v>
-      </c>
-      <c r="AG21">
-        <v>1.41</v>
-      </c>
-      <c r="AH21">
-        <v>2.69</v>
-      </c>
-      <c r="AI21">
-        <v>1.38</v>
-      </c>
-      <c r="AJ21">
-        <v>2.8</v>
-      </c>
       <c r="AK21">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="AL21">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AM21">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AN21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.91</v>
+        <v>1.09</v>
       </c>
       <c r="AQ21">
-        <v>1.55</v>
+        <v>0.64</v>
       </c>
       <c r="AR21">
-        <v>2.58</v>
+        <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.79</v>
+        <v>0.63</v>
       </c>
       <c r="AT21">
-        <v>4.37</v>
+        <v>0.63</v>
       </c>
       <c r="AU21">
         <v>6</v>
       </c>
       <c r="AV21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW21">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AX21">
+        <v>9</v>
+      </c>
+      <c r="AY21">
+        <v>15</v>
+      </c>
+      <c r="AZ21">
+        <v>12</v>
+      </c>
+      <c r="BA21">
+        <v>4</v>
+      </c>
+      <c r="BB21">
         <v>8</v>
       </c>
-      <c r="AY21">
+      <c r="BC21">
         <v>12</v>
       </c>
-      <c r="AZ21">
-        <v>15</v>
-      </c>
-      <c r="BA21">
-        <v>5</v>
-      </c>
-      <c r="BB21">
-        <v>3</v>
-      </c>
-      <c r="BC21">
-        <v>8</v>
-      </c>
       <c r="BD21">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="BE21">
         <v>8.5</v>
       </c>
       <c r="BF21">
-        <v>1.91</v>
+        <v>2.41</v>
       </c>
       <c r="BG21">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="BH21">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="BI21">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="BJ21">
-        <v>3.84</v>
+        <v>4.15</v>
       </c>
       <c r="BK21">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="BL21">
-        <v>2.71</v>
+        <v>2.88</v>
       </c>
       <c r="BM21">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="BN21">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="BO21">
-        <v>2.09</v>
+        <v>1.98</v>
       </c>
       <c r="BP21">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="22" spans="1:68">
@@ -5564,7 +5561,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5770,7 +5767,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5976,7 +5973,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -6182,7 +6179,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6388,7 +6385,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6469,7 +6466,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ26">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6800,7 +6797,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6878,7 +6875,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>1.18</v>
@@ -6964,7 +6961,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>7294812</v>
+        <v>7294815</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -6979,190 +6976,190 @@
         <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
         <v>3</v>
       </c>
-      <c r="L29">
-        <v>2</v>
-      </c>
       <c r="M29">
         <v>1</v>
       </c>
       <c r="N29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O29" t="s">
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c r="Q29">
-        <v>2.25</v>
+        <v>7.53</v>
       </c>
       <c r="R29">
-        <v>2.4</v>
+        <v>3.06</v>
       </c>
       <c r="S29">
+        <v>1.67</v>
+      </c>
+      <c r="T29">
+        <v>1.2</v>
+      </c>
+      <c r="U29">
         <v>4</v>
       </c>
-      <c r="T29">
-        <v>1.25</v>
-      </c>
-      <c r="U29">
-        <v>3.75</v>
-      </c>
       <c r="V29">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="W29">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="X29">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="Y29">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="Z29">
-        <v>1.7</v>
+        <v>11</v>
       </c>
       <c r="AA29">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="AB29">
-        <v>3.8</v>
+        <v>1.13</v>
       </c>
       <c r="AC29">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD29">
-        <v>10.25</v>
+        <v>15</v>
       </c>
       <c r="AE29">
+        <v>1.07</v>
+      </c>
+      <c r="AF29">
+        <v>6.5</v>
+      </c>
+      <c r="AG29">
+        <v>1.28</v>
+      </c>
+      <c r="AH29">
+        <v>3.06</v>
+      </c>
+      <c r="AI29">
+        <v>1.67</v>
+      </c>
+      <c r="AJ29">
+        <v>2.1</v>
+      </c>
+      <c r="AK29">
+        <v>3.5</v>
+      </c>
+      <c r="AL29">
         <v>1.14</v>
       </c>
-      <c r="AF29">
-        <v>4.87</v>
-      </c>
-      <c r="AG29">
-        <v>1.45</v>
-      </c>
-      <c r="AH29">
-        <v>2.37</v>
-      </c>
-      <c r="AI29">
-        <v>1.53</v>
-      </c>
-      <c r="AJ29">
-        <v>2.38</v>
-      </c>
-      <c r="AK29">
-        <v>1.22</v>
-      </c>
-      <c r="AL29">
-        <v>1.23</v>
-      </c>
       <c r="AM29">
-        <v>1.85</v>
+        <v>1.07</v>
       </c>
       <c r="AN29">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.55</v>
+        <v>1.18</v>
       </c>
       <c r="AQ29">
-        <v>0.45</v>
+        <v>2.09</v>
       </c>
       <c r="AR29">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AS29">
-        <v>1.89</v>
+        <v>1.58</v>
       </c>
       <c r="AT29">
-        <v>3.27</v>
+        <v>2.78</v>
       </c>
       <c r="AU29">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV29">
         <v>4</v>
       </c>
       <c r="AW29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX29">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AY29">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AZ29">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BB29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD29">
-        <v>1.63</v>
+        <v>4.15</v>
       </c>
       <c r="BE29">
-        <v>9.4</v>
+        <v>11.25</v>
       </c>
       <c r="BF29">
-        <v>2.59</v>
+        <v>1.29</v>
       </c>
       <c r="BG29">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="BH29">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="BI29">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="BJ29">
-        <v>3.2</v>
+        <v>4.25</v>
       </c>
       <c r="BK29">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="BL29">
-        <v>2.52</v>
+        <v>2.98</v>
       </c>
       <c r="BM29">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="BN29">
-        <v>1.97</v>
+        <v>2.24</v>
       </c>
       <c r="BO29">
-        <v>2.28</v>
+        <v>1.98</v>
       </c>
       <c r="BP29">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="30" spans="1:68">
@@ -7170,7 +7167,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>7294815</v>
+        <v>7294812</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -7185,190 +7182,190 @@
         <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H30" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
         <v>3</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <v>4</v>
       </c>
       <c r="O30" t="s">
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="Q30">
-        <v>7.53</v>
+        <v>2.25</v>
       </c>
       <c r="R30">
-        <v>3.06</v>
+        <v>2.4</v>
       </c>
       <c r="S30">
-        <v>1.67</v>
+        <v>4</v>
       </c>
       <c r="T30">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="U30">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V30">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="W30">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="X30">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="Y30">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="Z30">
-        <v>11</v>
+        <v>1.7</v>
       </c>
       <c r="AA30">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="AB30">
-        <v>1.13</v>
+        <v>3.8</v>
       </c>
       <c r="AC30">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD30">
-        <v>15</v>
+        <v>10.25</v>
       </c>
       <c r="AE30">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="AF30">
-        <v>6.5</v>
+        <v>4.87</v>
       </c>
       <c r="AG30">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="AH30">
-        <v>3.06</v>
+        <v>2.37</v>
       </c>
       <c r="AI30">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AJ30">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="AK30">
-        <v>3.5</v>
+        <v>1.22</v>
       </c>
       <c r="AL30">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="AM30">
-        <v>1.07</v>
+        <v>1.85</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.18</v>
+        <v>1.55</v>
       </c>
       <c r="AQ30">
-        <v>2.09</v>
+        <v>0.45</v>
       </c>
       <c r="AR30">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="AS30">
-        <v>1.58</v>
+        <v>1.89</v>
       </c>
       <c r="AT30">
-        <v>2.78</v>
+        <v>3.27</v>
       </c>
       <c r="AU30">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AV30">
         <v>4</v>
       </c>
       <c r="AW30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX30">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AY30">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AZ30">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BA30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BB30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD30">
-        <v>4.15</v>
+        <v>1.63</v>
       </c>
       <c r="BE30">
-        <v>11.25</v>
+        <v>9.4</v>
       </c>
       <c r="BF30">
-        <v>1.29</v>
+        <v>2.59</v>
       </c>
       <c r="BG30">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="BH30">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="BI30">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="BJ30">
-        <v>4.25</v>
+        <v>3.2</v>
       </c>
       <c r="BK30">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="BL30">
-        <v>2.98</v>
+        <v>2.52</v>
       </c>
       <c r="BM30">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="BN30">
-        <v>2.24</v>
+        <v>1.97</v>
       </c>
       <c r="BO30">
-        <v>1.98</v>
+        <v>2.28</v>
       </c>
       <c r="BP30">
-        <v>1.82</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="31" spans="1:68">
@@ -7418,7 +7415,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7624,7 +7621,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7702,7 +7699,7 @@
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>0.91</v>
@@ -7911,7 +7908,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ33">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="AR33">
         <v>2.09</v>
@@ -8036,7 +8033,7 @@
         <v>108</v>
       </c>
       <c r="P34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -8242,7 +8239,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8406,7 +8403,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>7294821</v>
+        <v>7294820</v>
       </c>
       <c r="C36" t="s">
         <v>68</v>
@@ -8421,190 +8418,190 @@
         <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H36" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O36" t="s">
+        <v>109</v>
+      </c>
+      <c r="P36" t="s">
         <v>91</v>
       </c>
-      <c r="P36" t="s">
-        <v>204</v>
-      </c>
       <c r="Q36">
-        <v>4.84</v>
+        <v>1.96</v>
       </c>
       <c r="R36">
         <v>2.76</v>
       </c>
       <c r="S36">
-        <v>2.04</v>
+        <v>5.35</v>
       </c>
       <c r="T36">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U36">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="V36">
-        <v>2.04</v>
+        <v>2.13</v>
       </c>
       <c r="W36">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="X36">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Y36">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Z36">
-        <v>4.75</v>
+        <v>1.48</v>
       </c>
       <c r="AA36">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AB36">
-        <v>1.48</v>
+        <v>5</v>
       </c>
       <c r="AC36">
         <v>1.01</v>
       </c>
       <c r="AD36">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AE36">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AF36">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="AG36">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AH36">
-        <v>2.71</v>
+        <v>2.52</v>
       </c>
       <c r="AI36">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AJ36">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="AK36">
-        <v>2.4</v>
+        <v>1.11</v>
       </c>
       <c r="AL36">
         <v>1.15</v>
       </c>
       <c r="AM36">
-        <v>1.12</v>
+        <v>2.45</v>
       </c>
       <c r="AN36">
-        <v>0.33</v>
+        <v>3</v>
       </c>
       <c r="AO36">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AP36">
-        <v>1.09</v>
+        <v>2.36</v>
       </c>
       <c r="AQ36">
-        <v>2.09</v>
+        <v>1.55</v>
       </c>
       <c r="AR36">
-        <v>1.56</v>
+        <v>2.05</v>
       </c>
       <c r="AS36">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="AT36">
-        <v>3.54</v>
+        <v>3.85</v>
       </c>
       <c r="AU36">
+        <v>4</v>
+      </c>
+      <c r="AV36">
+        <v>3</v>
+      </c>
+      <c r="AW36">
+        <v>4</v>
+      </c>
+      <c r="AX36">
+        <v>4</v>
+      </c>
+      <c r="AY36">
+        <v>8</v>
+      </c>
+      <c r="AZ36">
+        <v>7</v>
+      </c>
+      <c r="BA36">
+        <v>2</v>
+      </c>
+      <c r="BB36">
+        <v>6</v>
+      </c>
+      <c r="BC36">
+        <v>8</v>
+      </c>
+      <c r="BD36">
+        <v>1.51</v>
+      </c>
+      <c r="BE36">
         <v>9</v>
       </c>
-      <c r="AV36">
-        <v>5</v>
-      </c>
-      <c r="AW36">
-        <v>5</v>
-      </c>
-      <c r="AX36">
-        <v>3</v>
-      </c>
-      <c r="AY36">
-        <v>14</v>
-      </c>
-      <c r="AZ36">
-        <v>8</v>
-      </c>
-      <c r="BA36">
-        <v>7</v>
-      </c>
-      <c r="BB36">
-        <v>7</v>
-      </c>
-      <c r="BC36">
-        <v>14</v>
-      </c>
-      <c r="BD36">
-        <v>3.72</v>
-      </c>
-      <c r="BE36">
-        <v>10</v>
-      </c>
       <c r="BF36">
-        <v>1.34</v>
+        <v>3.06</v>
       </c>
       <c r="BG36">
         <v>1.1</v>
       </c>
       <c r="BH36">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="BI36">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="BJ36">
-        <v>4.55</v>
+        <v>3.65</v>
       </c>
       <c r="BK36">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="BL36">
-        <v>3.14</v>
+        <v>2.6</v>
       </c>
       <c r="BM36">
-        <v>1.51</v>
+        <v>1.72</v>
       </c>
       <c r="BN36">
-        <v>2.32</v>
+        <v>2</v>
       </c>
       <c r="BO36">
-        <v>1.9</v>
+        <v>2.14</v>
       </c>
       <c r="BP36">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="37" spans="1:68">
@@ -8612,7 +8609,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7294820</v>
+        <v>7294821</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
@@ -8627,190 +8624,190 @@
         <v>6</v>
       </c>
       <c r="G37" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H37" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O37" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>91</v>
+        <v>203</v>
       </c>
       <c r="Q37">
-        <v>1.96</v>
+        <v>4.84</v>
       </c>
       <c r="R37">
         <v>2.76</v>
       </c>
       <c r="S37">
-        <v>5.35</v>
+        <v>2.04</v>
       </c>
       <c r="T37">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U37">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="V37">
-        <v>2.13</v>
+        <v>2.04</v>
       </c>
       <c r="W37">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="X37">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Y37">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="Z37">
+        <v>4.75</v>
+      </c>
+      <c r="AA37">
+        <v>4.5</v>
+      </c>
+      <c r="AB37">
         <v>1.48</v>
-      </c>
-      <c r="AA37">
-        <v>4.3</v>
-      </c>
-      <c r="AB37">
-        <v>5</v>
       </c>
       <c r="AC37">
         <v>1.01</v>
       </c>
       <c r="AD37">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AE37">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AF37">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="AG37">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AH37">
-        <v>2.52</v>
+        <v>2.71</v>
       </c>
       <c r="AI37">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AJ37">
+        <v>2.65</v>
+      </c>
+      <c r="AK37">
         <v>2.4</v>
-      </c>
-      <c r="AK37">
-        <v>1.11</v>
       </c>
       <c r="AL37">
         <v>1.15</v>
       </c>
       <c r="AM37">
-        <v>2.45</v>
+        <v>1.12</v>
       </c>
       <c r="AN37">
+        <v>0.33</v>
+      </c>
+      <c r="AO37">
+        <v>1.5</v>
+      </c>
+      <c r="AP37">
+        <v>1.09</v>
+      </c>
+      <c r="AQ37">
+        <v>2.09</v>
+      </c>
+      <c r="AR37">
+        <v>1.56</v>
+      </c>
+      <c r="AS37">
+        <v>1.98</v>
+      </c>
+      <c r="AT37">
+        <v>3.54</v>
+      </c>
+      <c r="AU37">
+        <v>9</v>
+      </c>
+      <c r="AV37">
+        <v>5</v>
+      </c>
+      <c r="AW37">
+        <v>5</v>
+      </c>
+      <c r="AX37">
         <v>3</v>
       </c>
-      <c r="AO37">
-        <v>2.25</v>
-      </c>
-      <c r="AP37">
-        <v>2.36</v>
-      </c>
-      <c r="AQ37">
-        <v>1.55</v>
-      </c>
-      <c r="AR37">
-        <v>2.05</v>
-      </c>
-      <c r="AS37">
-        <v>1.8</v>
-      </c>
-      <c r="AT37">
-        <v>3.85</v>
-      </c>
-      <c r="AU37">
-        <v>4</v>
-      </c>
-      <c r="AV37">
-        <v>3</v>
-      </c>
-      <c r="AW37">
-        <v>4</v>
-      </c>
-      <c r="AX37">
-        <v>4</v>
-      </c>
       <c r="AY37">
+        <v>14</v>
+      </c>
+      <c r="AZ37">
         <v>8</v>
       </c>
-      <c r="AZ37">
+      <c r="BA37">
         <v>7</v>
       </c>
-      <c r="BA37">
-        <v>2</v>
-      </c>
       <c r="BB37">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC37">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BD37">
-        <v>1.51</v>
+        <v>3.72</v>
       </c>
       <c r="BE37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BF37">
-        <v>3.06</v>
+        <v>1.34</v>
       </c>
       <c r="BG37">
         <v>1.1</v>
       </c>
       <c r="BH37">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="BI37">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="BJ37">
-        <v>3.65</v>
+        <v>4.55</v>
       </c>
       <c r="BK37">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="BL37">
-        <v>2.6</v>
+        <v>3.14</v>
       </c>
       <c r="BM37">
-        <v>1.72</v>
+        <v>1.51</v>
       </c>
       <c r="BN37">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="BO37">
-        <v>2.14</v>
+        <v>1.9</v>
       </c>
       <c r="BP37">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="38" spans="1:68">
@@ -8860,7 +8857,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -9066,7 +9063,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9272,7 +9269,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9436,7 +9433,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>7294826</v>
+        <v>7294828</v>
       </c>
       <c r="C41" t="s">
         <v>68</v>
@@ -9451,10 +9448,10 @@
         <v>7</v>
       </c>
       <c r="G41" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H41" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -9469,172 +9466,172 @@
         <v>1</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41" t="s">
+        <v>113</v>
+      </c>
+      <c r="P41" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q41">
+        <v>2.63</v>
+      </c>
+      <c r="R41">
+        <v>2.4</v>
+      </c>
+      <c r="S41">
+        <v>3.1</v>
+      </c>
+      <c r="T41">
+        <v>1.22</v>
+      </c>
+      <c r="U41">
+        <v>3.75</v>
+      </c>
+      <c r="V41">
+        <v>2.25</v>
+      </c>
+      <c r="W41">
+        <v>1.57</v>
+      </c>
+      <c r="X41">
+        <v>5</v>
+      </c>
+      <c r="Y41">
+        <v>1.14</v>
+      </c>
+      <c r="Z41">
+        <v>2.14</v>
+      </c>
+      <c r="AA41">
+        <v>3.6</v>
+      </c>
+      <c r="AB41">
+        <v>2.95</v>
+      </c>
+      <c r="AC41">
+        <v>1.02</v>
+      </c>
+      <c r="AD41">
+        <v>12</v>
+      </c>
+      <c r="AE41">
+        <v>1.12</v>
+      </c>
+      <c r="AF41">
+        <v>4.9</v>
+      </c>
+      <c r="AG41">
+        <v>1.52</v>
+      </c>
+      <c r="AH41">
+        <v>2.4</v>
+      </c>
+      <c r="AI41">
+        <v>1.4</v>
+      </c>
+      <c r="AJ41">
+        <v>2.85</v>
+      </c>
+      <c r="AK41">
+        <v>1.36</v>
+      </c>
+      <c r="AL41">
+        <v>1.2</v>
+      </c>
+      <c r="AM41">
+        <v>1.57</v>
+      </c>
+      <c r="AN41">
+        <v>2</v>
+      </c>
+      <c r="AO41">
+        <v>1</v>
+      </c>
+      <c r="AP41">
+        <v>1.55</v>
+      </c>
+      <c r="AQ41">
+        <v>1.18</v>
+      </c>
+      <c r="AR41">
+        <v>1.57</v>
+      </c>
+      <c r="AS41">
+        <v>1.87</v>
+      </c>
+      <c r="AT41">
+        <v>3.44</v>
+      </c>
+      <c r="AU41">
+        <v>7</v>
+      </c>
+      <c r="AV41">
+        <v>6</v>
+      </c>
+      <c r="AW41">
+        <v>10</v>
+      </c>
+      <c r="AX41">
+        <v>9</v>
+      </c>
+      <c r="AY41">
+        <v>17</v>
+      </c>
+      <c r="AZ41">
+        <v>15</v>
+      </c>
+      <c r="BA41">
         <v>3</v>
       </c>
-      <c r="O41" t="s">
-        <v>112</v>
-      </c>
-      <c r="P41" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q41">
-        <v>4.5</v>
-      </c>
-      <c r="R41">
-        <v>2.63</v>
-      </c>
-      <c r="S41">
-        <v>1.95</v>
-      </c>
-      <c r="T41">
-        <v>1.19</v>
-      </c>
-      <c r="U41">
-        <v>4.33</v>
-      </c>
-      <c r="V41">
-        <v>1.95</v>
-      </c>
-      <c r="W41">
-        <v>1.8</v>
-      </c>
-      <c r="X41">
-        <v>3.98</v>
-      </c>
-      <c r="Y41">
-        <v>1.22</v>
-      </c>
-      <c r="Z41">
-        <v>5</v>
-      </c>
-      <c r="AA41">
-        <v>4.3</v>
-      </c>
-      <c r="AB41">
-        <v>1.52</v>
-      </c>
-      <c r="AC41">
-        <v>1.01</v>
-      </c>
-      <c r="AD41">
-        <v>11.5</v>
-      </c>
-      <c r="AE41">
-        <v>1.07</v>
-      </c>
-      <c r="AF41">
-        <v>6.35</v>
-      </c>
-      <c r="AG41">
-        <v>1.3</v>
-      </c>
-      <c r="AH41">
-        <v>2.94</v>
-      </c>
-      <c r="AI41">
-        <v>1.43</v>
-      </c>
-      <c r="AJ41">
-        <v>2.73</v>
-      </c>
-      <c r="AK41">
-        <v>2.38</v>
-      </c>
-      <c r="AL41">
-        <v>1.22</v>
-      </c>
-      <c r="AM41">
-        <v>1.14</v>
-      </c>
-      <c r="AN41">
-        <v>1</v>
-      </c>
-      <c r="AO41">
-        <v>1.33</v>
-      </c>
-      <c r="AP41">
-        <v>1.18</v>
-      </c>
-      <c r="AQ41">
-        <v>1.27</v>
-      </c>
-      <c r="AR41">
-        <v>1.13</v>
-      </c>
-      <c r="AS41">
+      <c r="BB41">
+        <v>6</v>
+      </c>
+      <c r="BC41">
+        <v>9</v>
+      </c>
+      <c r="BD41">
+        <v>1.91</v>
+      </c>
+      <c r="BE41">
+        <v>8.5</v>
+      </c>
+      <c r="BF41">
         <v>2.1</v>
       </c>
-      <c r="AT41">
-        <v>3.23</v>
-      </c>
-      <c r="AU41">
-        <v>4</v>
-      </c>
-      <c r="AV41">
-        <v>11</v>
-      </c>
-      <c r="AW41">
-        <v>8</v>
-      </c>
-      <c r="AX41">
-        <v>20</v>
-      </c>
-      <c r="AY41">
-        <v>12</v>
-      </c>
-      <c r="AZ41">
-        <v>31</v>
-      </c>
-      <c r="BA41">
-        <v>1</v>
-      </c>
-      <c r="BB41">
-        <v>14</v>
-      </c>
-      <c r="BC41">
-        <v>15</v>
-      </c>
-      <c r="BD41">
-        <v>3.48</v>
-      </c>
-      <c r="BE41">
-        <v>9.5</v>
-      </c>
-      <c r="BF41">
-        <v>1.41</v>
-      </c>
       <c r="BG41">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="BH41">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="BI41">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="BJ41">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="BK41">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="BL41">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="BM41">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="BN41">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="BO41">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="BP41">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="42" spans="1:68">
@@ -9642,7 +9639,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7294827</v>
+        <v>7294826</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -9657,190 +9654,190 @@
         <v>7</v>
       </c>
       <c r="G42" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N42">
         <v>3</v>
       </c>
       <c r="O42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q42">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="R42">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="S42">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="T42">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="U42">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="V42">
-        <v>2.31</v>
+        <v>1.95</v>
       </c>
       <c r="W42">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="X42">
-        <v>5.5</v>
+        <v>3.98</v>
       </c>
       <c r="Y42">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="Z42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA42">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="AB42">
-        <v>3.3</v>
+        <v>1.52</v>
       </c>
       <c r="AC42">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD42">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE42">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AF42">
-        <v>4.55</v>
+        <v>6.35</v>
       </c>
       <c r="AG42">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="AH42">
-        <v>2.25</v>
+        <v>2.94</v>
       </c>
       <c r="AI42">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AJ42">
-        <v>2.51</v>
+        <v>2.73</v>
       </c>
       <c r="AK42">
-        <v>1.36</v>
+        <v>2.38</v>
       </c>
       <c r="AL42">
         <v>1.22</v>
       </c>
       <c r="AM42">
-        <v>1.68</v>
+        <v>1.14</v>
       </c>
       <c r="AN42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO42">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>2.36</v>
+        <v>1.18</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AR42">
-        <v>2.07</v>
+        <v>1.13</v>
       </c>
       <c r="AS42">
-        <v>1.47</v>
+        <v>2.1</v>
       </c>
       <c r="AT42">
-        <v>3.54</v>
+        <v>3.23</v>
       </c>
       <c r="AU42">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV42">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AW42">
         <v>8</v>
       </c>
       <c r="AX42">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AY42">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AZ42">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="BA42">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BB42">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BC42">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD42">
-        <v>1.82</v>
+        <v>3.48</v>
       </c>
       <c r="BE42">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="BF42">
-        <v>2.28</v>
+        <v>1.41</v>
       </c>
       <c r="BG42">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="BH42">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="BI42">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BJ42">
-        <v>3.84</v>
+        <v>4.05</v>
       </c>
       <c r="BK42">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="BL42">
-        <v>2.71</v>
+        <v>2.84</v>
       </c>
       <c r="BM42">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="BN42">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="BO42">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="BP42">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="43" spans="1:68">
@@ -9848,7 +9845,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>7294828</v>
+        <v>7294827</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -9863,190 +9860,190 @@
         <v>7</v>
       </c>
       <c r="G43" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M43">
         <v>1</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O43" t="s">
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q43">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R43">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S43">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T43">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U43">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V43">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="W43">
         <v>1.57</v>
       </c>
       <c r="X43">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y43">
         <v>1.14</v>
       </c>
       <c r="Z43">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AA43">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AB43">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="AC43">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD43">
         <v>12</v>
       </c>
       <c r="AE43">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="AF43">
-        <v>4.9</v>
+        <v>4.55</v>
       </c>
       <c r="AG43">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="AH43">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AI43">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AJ43">
-        <v>2.85</v>
+        <v>2.51</v>
       </c>
       <c r="AK43">
         <v>1.36</v>
       </c>
       <c r="AL43">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AM43">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="AN43">
         <v>2</v>
       </c>
       <c r="AO43">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.55</v>
+        <v>2.36</v>
       </c>
       <c r="AQ43">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR43">
-        <v>1.57</v>
+        <v>2.07</v>
       </c>
       <c r="AS43">
-        <v>1.87</v>
+        <v>1.47</v>
       </c>
       <c r="AT43">
-        <v>3.44</v>
+        <v>3.54</v>
       </c>
       <c r="AU43">
+        <v>8</v>
+      </c>
+      <c r="AV43">
+        <v>9</v>
+      </c>
+      <c r="AW43">
+        <v>8</v>
+      </c>
+      <c r="AX43">
+        <v>13</v>
+      </c>
+      <c r="AY43">
+        <v>16</v>
+      </c>
+      <c r="AZ43">
+        <v>22</v>
+      </c>
+      <c r="BA43">
         <v>7</v>
       </c>
-      <c r="AV43">
-        <v>6</v>
-      </c>
-      <c r="AW43">
-        <v>10</v>
-      </c>
-      <c r="AX43">
-        <v>9</v>
-      </c>
-      <c r="AY43">
-        <v>17</v>
-      </c>
-      <c r="AZ43">
-        <v>15</v>
-      </c>
-      <c r="BA43">
-        <v>3</v>
-      </c>
       <c r="BB43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC43">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BD43">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="BE43">
         <v>8.5</v>
       </c>
       <c r="BF43">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="BG43">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="BH43">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BI43">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="BJ43">
-        <v>4.15</v>
+        <v>3.84</v>
       </c>
       <c r="BK43">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="BL43">
-        <v>2.88</v>
+        <v>2.71</v>
       </c>
       <c r="BM43">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="BN43">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="BO43">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="BP43">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="44" spans="1:68">
@@ -10096,7 +10093,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10177,7 +10174,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ44">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="AR44">
         <v>2.01</v>
@@ -10302,7 +10299,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10508,7 +10505,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10792,7 +10789,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
         <v>1.09</v>
@@ -10920,7 +10917,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11126,7 +11123,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11332,7 +11329,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11744,7 +11741,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11950,7 +11947,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -12156,7 +12153,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12362,7 +12359,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12568,7 +12565,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12774,7 +12771,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -12980,7 +12977,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -13061,7 +13058,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ58">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="AR58">
         <v>1.94</v>
@@ -13144,7 +13141,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7294845</v>
+        <v>7294847</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -13159,25 +13156,25 @@
         <v>10</v>
       </c>
       <c r="G59" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N59">
         <v>3</v>
@@ -13186,163 +13183,163 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q59">
+        <v>2.9</v>
+      </c>
+      <c r="R59">
+        <v>2.5</v>
+      </c>
+      <c r="S59">
+        <v>2.8</v>
+      </c>
+      <c r="T59">
+        <v>1.2</v>
+      </c>
+      <c r="U59">
+        <v>4</v>
+      </c>
+      <c r="V59">
+        <v>2</v>
+      </c>
+      <c r="W59">
+        <v>1.73</v>
+      </c>
+      <c r="X59">
+        <v>4</v>
+      </c>
+      <c r="Y59">
+        <v>1.2</v>
+      </c>
+      <c r="Z59">
+        <v>2.36</v>
+      </c>
+      <c r="AA59">
+        <v>3.7</v>
+      </c>
+      <c r="AB59">
+        <v>2.34</v>
+      </c>
+      <c r="AC59">
+        <v>1.01</v>
+      </c>
+      <c r="AD59">
+        <v>11</v>
+      </c>
+      <c r="AE59">
+        <v>1.1</v>
+      </c>
+      <c r="AF59">
+        <v>5.75</v>
+      </c>
+      <c r="AG59">
+        <v>1.36</v>
+      </c>
+      <c r="AH59">
+        <v>2.89</v>
+      </c>
+      <c r="AI59">
+        <v>1.36</v>
+      </c>
+      <c r="AJ59">
+        <v>2.99</v>
+      </c>
+      <c r="AK59">
+        <v>1.53</v>
+      </c>
+      <c r="AL59">
+        <v>1.29</v>
+      </c>
+      <c r="AM59">
+        <v>1.5</v>
+      </c>
+      <c r="AN59">
+        <v>1.5</v>
+      </c>
+      <c r="AO59">
+        <v>2.5</v>
+      </c>
+      <c r="AP59">
+        <v>1.91</v>
+      </c>
+      <c r="AQ59">
+        <v>1</v>
+      </c>
+      <c r="AR59">
+        <v>1.93</v>
+      </c>
+      <c r="AS59">
+        <v>2.04</v>
+      </c>
+      <c r="AT59">
+        <v>3.97</v>
+      </c>
+      <c r="AU59">
+        <v>7</v>
+      </c>
+      <c r="AV59">
+        <v>8</v>
+      </c>
+      <c r="AW59">
+        <v>12</v>
+      </c>
+      <c r="AX59">
+        <v>6</v>
+      </c>
+      <c r="AY59">
+        <v>19</v>
+      </c>
+      <c r="AZ59">
+        <v>14</v>
+      </c>
+      <c r="BA59">
+        <v>11</v>
+      </c>
+      <c r="BB59">
+        <v>5</v>
+      </c>
+      <c r="BC59">
+        <v>16</v>
+      </c>
+      <c r="BD59">
         <v>2.1</v>
       </c>
-      <c r="R59">
-        <v>2.46</v>
-      </c>
-      <c r="S59">
-        <v>4.5</v>
-      </c>
-      <c r="T59">
-        <v>1.25</v>
-      </c>
-      <c r="U59">
-        <v>3.72</v>
-      </c>
-      <c r="V59">
-        <v>2.18</v>
-      </c>
-      <c r="W59">
-        <v>1.64</v>
-      </c>
-      <c r="X59">
-        <v>4.8</v>
-      </c>
-      <c r="Y59">
-        <v>1.16</v>
-      </c>
-      <c r="Z59">
-        <v>1.61</v>
-      </c>
-      <c r="AA59">
-        <v>4.05</v>
-      </c>
-      <c r="AB59">
-        <v>4.05</v>
-      </c>
-      <c r="AC59">
-        <v>1.02</v>
-      </c>
-      <c r="AD59">
-        <v>12</v>
-      </c>
-      <c r="AE59">
-        <v>1.12</v>
-      </c>
-      <c r="AF59">
-        <v>5.05</v>
-      </c>
-      <c r="AG59">
-        <v>1.45</v>
-      </c>
-      <c r="AH59">
-        <v>2.56</v>
-      </c>
-      <c r="AI59">
-        <v>1.52</v>
-      </c>
-      <c r="AJ59">
-        <v>2.36</v>
-      </c>
-      <c r="AK59">
-        <v>1.18</v>
-      </c>
-      <c r="AL59">
-        <v>1.2</v>
-      </c>
-      <c r="AM59">
-        <v>2.2</v>
-      </c>
-      <c r="AN59">
-        <v>1.4</v>
-      </c>
-      <c r="AO59">
-        <v>1</v>
-      </c>
-      <c r="AP59">
-        <v>1.55</v>
-      </c>
-      <c r="AQ59">
-        <v>0.64</v>
-      </c>
-      <c r="AR59">
-        <v>1.64</v>
-      </c>
-      <c r="AS59">
-        <v>1.44</v>
-      </c>
-      <c r="AT59">
-        <v>3.08</v>
-      </c>
-      <c r="AU59">
-        <v>6</v>
-      </c>
-      <c r="AV59">
-        <v>3</v>
-      </c>
-      <c r="AW59">
-        <v>8</v>
-      </c>
-      <c r="AX59">
-        <v>7</v>
-      </c>
-      <c r="AY59">
-        <v>14</v>
-      </c>
-      <c r="AZ59">
-        <v>10</v>
-      </c>
-      <c r="BA59">
-        <v>14</v>
-      </c>
-      <c r="BB59">
-        <v>4</v>
-      </c>
-      <c r="BC59">
-        <v>18</v>
-      </c>
-      <c r="BD59">
-        <v>1.31</v>
-      </c>
       <c r="BE59">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="BF59">
-        <v>4.55</v>
+        <v>1.91</v>
       </c>
       <c r="BG59">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="BH59">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="BI59">
         <v>1.16</v>
       </c>
       <c r="BJ59">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="BK59">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="BL59">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="BM59">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="BN59">
-        <v>2.28</v>
+        <v>2.33</v>
       </c>
       <c r="BO59">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="BP59">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="60" spans="1:68">
@@ -13392,7 +13389,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13470,7 +13467,7 @@
         <v>1.67</v>
       </c>
       <c r="AP60">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
         <v>1.55</v>
@@ -13556,7 +13553,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>7294847</v>
+        <v>7294845</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -13571,25 +13568,25 @@
         <v>10</v>
       </c>
       <c r="G61" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N61">
         <v>3</v>
@@ -13598,163 +13595,163 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q61">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="R61">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="S61">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="T61">
+        <v>1.25</v>
+      </c>
+      <c r="U61">
+        <v>3.72</v>
+      </c>
+      <c r="V61">
+        <v>2.18</v>
+      </c>
+      <c r="W61">
+        <v>1.64</v>
+      </c>
+      <c r="X61">
+        <v>4.8</v>
+      </c>
+      <c r="Y61">
+        <v>1.16</v>
+      </c>
+      <c r="Z61">
+        <v>1.61</v>
+      </c>
+      <c r="AA61">
+        <v>4.05</v>
+      </c>
+      <c r="AB61">
+        <v>4.05</v>
+      </c>
+      <c r="AC61">
+        <v>1.02</v>
+      </c>
+      <c r="AD61">
+        <v>12</v>
+      </c>
+      <c r="AE61">
+        <v>1.12</v>
+      </c>
+      <c r="AF61">
+        <v>5.05</v>
+      </c>
+      <c r="AG61">
+        <v>1.45</v>
+      </c>
+      <c r="AH61">
+        <v>2.56</v>
+      </c>
+      <c r="AI61">
+        <v>1.52</v>
+      </c>
+      <c r="AJ61">
+        <v>2.36</v>
+      </c>
+      <c r="AK61">
+        <v>1.18</v>
+      </c>
+      <c r="AL61">
         <v>1.2</v>
       </c>
-      <c r="U61">
+      <c r="AM61">
+        <v>2.2</v>
+      </c>
+      <c r="AN61">
+        <v>1.4</v>
+      </c>
+      <c r="AO61">
+        <v>1</v>
+      </c>
+      <c r="AP61">
+        <v>1.55</v>
+      </c>
+      <c r="AQ61">
+        <v>0.64</v>
+      </c>
+      <c r="AR61">
+        <v>1.64</v>
+      </c>
+      <c r="AS61">
+        <v>1.44</v>
+      </c>
+      <c r="AT61">
+        <v>3.08</v>
+      </c>
+      <c r="AU61">
+        <v>6</v>
+      </c>
+      <c r="AV61">
+        <v>3</v>
+      </c>
+      <c r="AW61">
+        <v>8</v>
+      </c>
+      <c r="AX61">
+        <v>7</v>
+      </c>
+      <c r="AY61">
+        <v>14</v>
+      </c>
+      <c r="AZ61">
+        <v>10</v>
+      </c>
+      <c r="BA61">
+        <v>14</v>
+      </c>
+      <c r="BB61">
         <v>4</v>
       </c>
-      <c r="V61">
-        <v>2</v>
-      </c>
-      <c r="W61">
-        <v>1.73</v>
-      </c>
-      <c r="X61">
-        <v>4</v>
-      </c>
-      <c r="Y61">
-        <v>1.2</v>
-      </c>
-      <c r="Z61">
-        <v>2.36</v>
-      </c>
-      <c r="AA61">
-        <v>3.7</v>
-      </c>
-      <c r="AB61">
-        <v>2.34</v>
-      </c>
-      <c r="AC61">
-        <v>1.01</v>
-      </c>
-      <c r="AD61">
-        <v>11</v>
-      </c>
-      <c r="AE61">
-        <v>1.1</v>
-      </c>
-      <c r="AF61">
-        <v>5.75</v>
-      </c>
-      <c r="AG61">
-        <v>1.36</v>
-      </c>
-      <c r="AH61">
-        <v>2.89</v>
-      </c>
-      <c r="AI61">
-        <v>1.36</v>
-      </c>
-      <c r="AJ61">
-        <v>2.99</v>
-      </c>
-      <c r="AK61">
-        <v>1.53</v>
-      </c>
-      <c r="AL61">
-        <v>1.29</v>
-      </c>
-      <c r="AM61">
-        <v>1.5</v>
-      </c>
-      <c r="AN61">
-        <v>1.5</v>
-      </c>
-      <c r="AO61">
-        <v>2.5</v>
-      </c>
-      <c r="AP61">
-        <v>1.91</v>
-      </c>
-      <c r="AQ61">
-        <v>1</v>
-      </c>
-      <c r="AR61">
-        <v>1.93</v>
-      </c>
-      <c r="AS61">
-        <v>2.04</v>
-      </c>
-      <c r="AT61">
-        <v>3.97</v>
-      </c>
-      <c r="AU61">
-        <v>7</v>
-      </c>
-      <c r="AV61">
-        <v>8</v>
-      </c>
-      <c r="AW61">
-        <v>12</v>
-      </c>
-      <c r="AX61">
-        <v>6</v>
-      </c>
-      <c r="AY61">
-        <v>19</v>
-      </c>
-      <c r="AZ61">
-        <v>14</v>
-      </c>
-      <c r="BA61">
-        <v>11</v>
-      </c>
-      <c r="BB61">
-        <v>5</v>
-      </c>
       <c r="BC61">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BD61">
-        <v>2.1</v>
+        <v>1.31</v>
       </c>
       <c r="BE61">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF61">
-        <v>1.91</v>
+        <v>4.55</v>
       </c>
       <c r="BG61">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="BH61">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="BI61">
         <v>1.16</v>
       </c>
       <c r="BJ61">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="BK61">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="BL61">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="BM61">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="BN61">
-        <v>2.33</v>
+        <v>2.28</v>
       </c>
       <c r="BO61">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="BP61">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="62" spans="1:68">
@@ -13804,7 +13801,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14010,7 +14007,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q63">
         <v>1.84</v>
@@ -14216,7 +14213,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q64">
         <v>5.69</v>
@@ -14422,7 +14419,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q65">
         <v>4.4</v>
@@ -14628,7 +14625,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14834,7 +14831,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -15040,7 +15037,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -15246,7 +15243,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q69">
         <v>1.85</v>
@@ -15452,7 +15449,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q70">
         <v>3.7</v>
@@ -15658,7 +15655,7 @@
         <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -15736,7 +15733,7 @@
         <v>1.83</v>
       </c>
       <c r="AP71">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ71">
         <v>2.09</v>
@@ -15864,7 +15861,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -16070,7 +16067,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q73">
         <v>3.85</v>
@@ -16273,7 +16270,7 @@
         <v>1</v>
       </c>
       <c r="O74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P74" t="s">
         <v>91</v>
@@ -16482,7 +16479,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16688,7 +16685,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q76">
         <v>1.78</v>
@@ -16852,7 +16849,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7294862</v>
+        <v>7294863</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
@@ -16867,70 +16864,70 @@
         <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L77">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O77" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="Q77">
-        <v>2.54</v>
+        <v>1.98</v>
       </c>
       <c r="R77">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="S77">
-        <v>3.14</v>
+        <v>4.65</v>
       </c>
       <c r="T77">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="U77">
-        <v>4.4</v>
+        <v>4.15</v>
       </c>
       <c r="V77">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="W77">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="X77">
-        <v>3.8</v>
+        <v>4.15</v>
       </c>
       <c r="Y77">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="Z77">
-        <v>2.14</v>
+        <v>1.51</v>
       </c>
       <c r="AA77">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="AB77">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="AC77">
         <v>1.01</v>
@@ -16939,118 +16936,118 @@
         <v>11.25</v>
       </c>
       <c r="AE77">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AF77">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
       <c r="AG77">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AH77">
+        <v>2.9</v>
+      </c>
+      <c r="AI77">
+        <v>1.46</v>
+      </c>
+      <c r="AJ77">
+        <v>2.52</v>
+      </c>
+      <c r="AK77">
+        <v>1.15</v>
+      </c>
+      <c r="AL77">
+        <v>1.18</v>
+      </c>
+      <c r="AM77">
+        <v>2.39</v>
+      </c>
+      <c r="AN77">
+        <v>2</v>
+      </c>
+      <c r="AO77">
+        <v>1.4</v>
+      </c>
+      <c r="AP77">
+        <v>1.91</v>
+      </c>
+      <c r="AQ77">
+        <v>0.64</v>
+      </c>
+      <c r="AR77">
+        <v>1.96</v>
+      </c>
+      <c r="AS77">
+        <v>1.36</v>
+      </c>
+      <c r="AT77">
+        <v>3.32</v>
+      </c>
+      <c r="AU77">
+        <v>10</v>
+      </c>
+      <c r="AV77">
+        <v>6</v>
+      </c>
+      <c r="AW77">
         <v>3</v>
       </c>
-      <c r="AI77">
-        <v>1.32</v>
-      </c>
-      <c r="AJ77">
-        <v>3.1</v>
-      </c>
-      <c r="AK77">
-        <v>1.42</v>
-      </c>
-      <c r="AL77">
-        <v>1.22</v>
-      </c>
-      <c r="AM77">
-        <v>1.66</v>
-      </c>
-      <c r="AN77">
-        <v>0.33</v>
-      </c>
-      <c r="AO77">
-        <v>0.5</v>
-      </c>
-      <c r="AP77">
-        <v>0.91</v>
-      </c>
-      <c r="AQ77">
-        <v>1</v>
-      </c>
-      <c r="AR77">
-        <v>1.89</v>
-      </c>
-      <c r="AS77">
-        <v>1.98</v>
-      </c>
-      <c r="AT77">
-        <v>3.87</v>
-      </c>
-      <c r="AU77">
+      <c r="AX77">
+        <v>6</v>
+      </c>
+      <c r="AY77">
+        <v>13</v>
+      </c>
+      <c r="AZ77">
+        <v>12</v>
+      </c>
+      <c r="BA77">
+        <v>6</v>
+      </c>
+      <c r="BB77">
+        <v>1</v>
+      </c>
+      <c r="BC77">
         <v>7</v>
       </c>
-      <c r="AV77">
-        <v>5</v>
-      </c>
-      <c r="AW77">
-        <v>13</v>
-      </c>
-      <c r="AX77">
-        <v>3</v>
-      </c>
-      <c r="AY77">
-        <v>20</v>
-      </c>
-      <c r="AZ77">
-        <v>8</v>
-      </c>
-      <c r="BA77">
-        <v>11</v>
-      </c>
-      <c r="BB77">
-        <v>4</v>
-      </c>
-      <c r="BC77">
-        <v>15</v>
-      </c>
       <c r="BD77">
-        <v>1.69</v>
+        <v>1.34</v>
       </c>
       <c r="BE77">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BF77">
-        <v>2.44</v>
+        <v>3.72</v>
       </c>
       <c r="BG77">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="BH77">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="BI77">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="BJ77">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="BK77">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="BL77">
-        <v>3.28</v>
+        <v>3.18</v>
       </c>
       <c r="BM77">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="BN77">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="BO77">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="BP77">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="78" spans="1:68">
@@ -17058,7 +17055,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7294863</v>
+        <v>7294862</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -17073,70 +17070,70 @@
         <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L78">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N78">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O78" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>91</v>
+        <v>239</v>
       </c>
       <c r="Q78">
-        <v>1.98</v>
+        <v>2.54</v>
       </c>
       <c r="R78">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="S78">
-        <v>4.65</v>
+        <v>3.14</v>
       </c>
       <c r="T78">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="U78">
-        <v>4.15</v>
+        <v>4.4</v>
       </c>
       <c r="V78">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="W78">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="X78">
-        <v>4.15</v>
+        <v>3.8</v>
       </c>
       <c r="Y78">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="Z78">
-        <v>1.51</v>
+        <v>2.14</v>
       </c>
       <c r="AA78">
-        <v>4.6</v>
+        <v>3.95</v>
       </c>
       <c r="AB78">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="AC78">
         <v>1.01</v>
@@ -17145,118 +17142,118 @@
         <v>11.25</v>
       </c>
       <c r="AE78">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AF78">
-        <v>5.85</v>
+        <v>6.5</v>
       </c>
       <c r="AG78">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AH78">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AI78">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AJ78">
-        <v>2.52</v>
+        <v>3.1</v>
       </c>
       <c r="AK78">
-        <v>1.15</v>
+        <v>1.42</v>
       </c>
       <c r="AL78">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AM78">
-        <v>2.39</v>
+        <v>1.66</v>
       </c>
       <c r="AN78">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="AO78">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="AP78">
-        <v>1.91</v>
+        <v>0.91</v>
       </c>
       <c r="AQ78">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="AR78">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="AS78">
-        <v>1.36</v>
+        <v>1.98</v>
       </c>
       <c r="AT78">
-        <v>3.32</v>
+        <v>3.87</v>
       </c>
       <c r="AU78">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV78">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW78">
+        <v>13</v>
+      </c>
+      <c r="AX78">
         <v>3</v>
       </c>
-      <c r="AX78">
-        <v>6</v>
-      </c>
       <c r="AY78">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ78">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BA78">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BB78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC78">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BD78">
-        <v>1.34</v>
+        <v>1.69</v>
       </c>
       <c r="BE78">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BF78">
-        <v>3.72</v>
+        <v>2.44</v>
       </c>
       <c r="BG78">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="BH78">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="BI78">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="BJ78">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="BK78">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="BL78">
-        <v>3.18</v>
+        <v>3.28</v>
       </c>
       <c r="BM78">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="BN78">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="BO78">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="BP78">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="79" spans="1:68">
@@ -17306,7 +17303,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q79">
         <v>5.9</v>
@@ -17718,7 +17715,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q81">
         <v>2.25</v>
@@ -18130,7 +18127,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q83">
         <v>3.75</v>
@@ -18336,7 +18333,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q84">
         <v>1.67</v>
@@ -18748,7 +18745,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -18829,7 +18826,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ86">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="AR86">
         <v>1.18</v>
@@ -19118,7 +19115,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7294874</v>
+        <v>7294875</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -19133,49 +19130,49 @@
         <v>15</v>
       </c>
       <c r="G88" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H88" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N88">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O88" t="s">
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>91</v>
+        <v>244</v>
       </c>
       <c r="Q88">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R88">
         <v>2.65</v>
       </c>
       <c r="S88">
+        <v>4.2</v>
+      </c>
+      <c r="T88">
+        <v>1.2</v>
+      </c>
+      <c r="U88">
         <v>4.33</v>
-      </c>
-      <c r="T88">
-        <v>1.18</v>
-      </c>
-      <c r="U88">
-        <v>4.5</v>
       </c>
       <c r="V88">
         <v>1.9</v>
@@ -19184,19 +19181,19 @@
         <v>1.8</v>
       </c>
       <c r="X88">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Y88">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="Z88">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="AA88">
         <v>4.5</v>
       </c>
       <c r="AB88">
-        <v>4.6</v>
+        <v>4.35</v>
       </c>
       <c r="AC88">
         <v>1.01</v>
@@ -19208,85 +19205,85 @@
         <v>1.06</v>
       </c>
       <c r="AF88">
-        <v>6.65</v>
+        <v>7</v>
       </c>
       <c r="AG88">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AH88">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AI88">
         <v>1.4</v>
       </c>
       <c r="AJ88">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="AK88">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AL88">
         <v>1.15</v>
       </c>
       <c r="AM88">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AN88">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AO88">
-        <v>0.14</v>
+        <v>1.57</v>
       </c>
       <c r="AP88">
-        <v>2.09</v>
+        <v>2.36</v>
       </c>
       <c r="AQ88">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AR88">
-        <v>1.67</v>
+        <v>2.07</v>
       </c>
       <c r="AS88">
-        <v>1.57</v>
+        <v>1.88</v>
       </c>
       <c r="AT88">
-        <v>3.24</v>
+        <v>3.95</v>
       </c>
       <c r="AU88">
+        <v>10</v>
+      </c>
+      <c r="AV88">
+        <v>8</v>
+      </c>
+      <c r="AW88">
         <v>7</v>
       </c>
-      <c r="AV88">
-        <v>5</v>
-      </c>
-      <c r="AW88">
-        <v>9</v>
-      </c>
       <c r="AX88">
+        <v>8</v>
+      </c>
+      <c r="AY88">
+        <v>17</v>
+      </c>
+      <c r="AZ88">
+        <v>16</v>
+      </c>
+      <c r="BA88">
         <v>6</v>
       </c>
-      <c r="AY88">
-        <v>16</v>
-      </c>
-      <c r="AZ88">
-        <v>11</v>
-      </c>
-      <c r="BA88">
-        <v>9</v>
-      </c>
       <c r="BB88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC88">
         <v>10</v>
       </c>
       <c r="BD88">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="BE88">
         <v>9.5</v>
       </c>
       <c r="BF88">
-        <v>3.18</v>
+        <v>3.35</v>
       </c>
       <c r="BG88">
         <v>0</v>
@@ -19295,28 +19292,28 @@
         <v>0</v>
       </c>
       <c r="BI88">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="BJ88">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="BK88">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="BL88">
-        <v>3.48</v>
+        <v>3.56</v>
       </c>
       <c r="BM88">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="BN88">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="BO88">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="BP88">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="89" spans="1:68">
@@ -19324,7 +19321,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>7294875</v>
+        <v>7294874</v>
       </c>
       <c r="C89" t="s">
         <v>68</v>
@@ -19339,49 +19336,49 @@
         <v>15</v>
       </c>
       <c r="G89" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H89" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N89">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O89" t="s">
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>245</v>
+        <v>91</v>
       </c>
       <c r="Q89">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R89">
         <v>2.65</v>
       </c>
       <c r="S89">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="T89">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="U89">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V89">
         <v>1.9</v>
@@ -19390,19 +19387,19 @@
         <v>1.8</v>
       </c>
       <c r="X89">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Y89">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="Z89">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="AA89">
         <v>4.5</v>
       </c>
       <c r="AB89">
-        <v>4.35</v>
+        <v>4.6</v>
       </c>
       <c r="AC89">
         <v>1.01</v>
@@ -19414,85 +19411,85 @@
         <v>1.06</v>
       </c>
       <c r="AF89">
-        <v>7</v>
+        <v>6.65</v>
       </c>
       <c r="AG89">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AH89">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AI89">
         <v>1.4</v>
       </c>
       <c r="AJ89">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="AK89">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AL89">
         <v>1.15</v>
       </c>
       <c r="AM89">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AN89">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AO89">
+        <v>0.14</v>
+      </c>
+      <c r="AP89">
+        <v>2</v>
+      </c>
+      <c r="AQ89">
+        <v>0.45</v>
+      </c>
+      <c r="AR89">
+        <v>1.67</v>
+      </c>
+      <c r="AS89">
         <v>1.57</v>
       </c>
-      <c r="AP89">
-        <v>2.36</v>
-      </c>
-      <c r="AQ89">
-        <v>1</v>
-      </c>
-      <c r="AR89">
-        <v>2.07</v>
-      </c>
-      <c r="AS89">
-        <v>1.88</v>
-      </c>
       <c r="AT89">
-        <v>3.95</v>
+        <v>3.24</v>
       </c>
       <c r="AU89">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV89">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AW89">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX89">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY89">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ89">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BA89">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BB89">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC89">
         <v>10</v>
       </c>
       <c r="BD89">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="BE89">
         <v>9.5</v>
       </c>
       <c r="BF89">
-        <v>3.35</v>
+        <v>3.18</v>
       </c>
       <c r="BG89">
         <v>0</v>
@@ -19501,28 +19498,28 @@
         <v>0</v>
       </c>
       <c r="BI89">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="BJ89">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="BK89">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="BL89">
-        <v>3.56</v>
+        <v>3.48</v>
       </c>
       <c r="BM89">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="BN89">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="BO89">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="BP89">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="90" spans="1:68">
@@ -19572,7 +19569,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19778,7 +19775,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -19984,7 +19981,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q92">
         <v>2.8</v>
@@ -20148,7 +20145,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>7294873</v>
+        <v>7294879</v>
       </c>
       <c r="C93" t="s">
         <v>68</v>
@@ -20160,13 +20157,13 @@
         <v>45501.67708333334</v>
       </c>
       <c r="F93">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G93" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H93" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I93">
         <v>3</v>
@@ -20178,175 +20175,175 @@
         <v>4</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M93">
         <v>1</v>
       </c>
       <c r="N93">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O93" t="s">
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>231</v>
+        <v>173</v>
       </c>
       <c r="Q93">
-        <v>3.75</v>
+        <v>1.45</v>
       </c>
       <c r="R93">
-        <v>2.55</v>
+        <v>3.28</v>
       </c>
       <c r="S93">
-        <v>2.15</v>
+        <v>9</v>
       </c>
       <c r="T93">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="U93">
-        <v>4.33</v>
+        <v>4.95</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="W93">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="X93">
-        <v>3.75</v>
+        <v>3.48</v>
       </c>
       <c r="Y93">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="Z93">
-        <v>3.65</v>
+        <v>1.1</v>
       </c>
       <c r="AA93">
-        <v>4.1</v>
+        <v>7.5</v>
       </c>
       <c r="AB93">
-        <v>1.73</v>
+        <v>11</v>
       </c>
       <c r="AC93">
         <v>1.01</v>
       </c>
       <c r="AD93">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AE93">
+        <v>1.04</v>
+      </c>
+      <c r="AF93">
+        <v>7.6</v>
+      </c>
+      <c r="AG93">
+        <v>1.25</v>
+      </c>
+      <c r="AH93">
+        <v>3.5</v>
+      </c>
+      <c r="AI93">
+        <v>1.76</v>
+      </c>
+      <c r="AJ93">
+        <v>1.95</v>
+      </c>
+      <c r="AK93">
+        <v>1.04</v>
+      </c>
+      <c r="AL93">
         <v>1.07</v>
       </c>
-      <c r="AF93">
-        <v>6.35</v>
-      </c>
-      <c r="AG93">
-        <v>1.33</v>
-      </c>
-      <c r="AH93">
+      <c r="AM93">
+        <v>3.9</v>
+      </c>
+      <c r="AN93">
+        <v>2.71</v>
+      </c>
+      <c r="AO93">
+        <v>1</v>
+      </c>
+      <c r="AP93">
+        <v>2.36</v>
+      </c>
+      <c r="AQ93">
+        <v>0.64</v>
+      </c>
+      <c r="AR93">
+        <v>2</v>
+      </c>
+      <c r="AS93">
+        <v>1.48</v>
+      </c>
+      <c r="AT93">
+        <v>3.48</v>
+      </c>
+      <c r="AU93">
+        <v>18</v>
+      </c>
+      <c r="AV93">
+        <v>4</v>
+      </c>
+      <c r="AW93">
+        <v>9</v>
+      </c>
+      <c r="AX93">
+        <v>5</v>
+      </c>
+      <c r="AY93">
+        <v>27</v>
+      </c>
+      <c r="AZ93">
+        <v>9</v>
+      </c>
+      <c r="BA93">
+        <v>10</v>
+      </c>
+      <c r="BB93">
         <v>3</v>
       </c>
-      <c r="AI93">
-        <v>1.36</v>
-      </c>
-      <c r="AJ93">
-        <v>3</v>
-      </c>
-      <c r="AK93">
-        <v>2</v>
-      </c>
-      <c r="AL93">
-        <v>1.16</v>
-      </c>
-      <c r="AM93">
-        <v>1.2</v>
-      </c>
-      <c r="AN93">
-        <v>1.43</v>
-      </c>
-      <c r="AO93">
-        <v>1.86</v>
-      </c>
-      <c r="AP93">
-        <v>1.55</v>
-      </c>
-      <c r="AQ93">
-        <v>1.27</v>
-      </c>
-      <c r="AR93">
-        <v>1.62</v>
-      </c>
-      <c r="AS93">
-        <v>2.27</v>
-      </c>
-      <c r="AT93">
-        <v>3.89</v>
-      </c>
-      <c r="AU93">
-        <v>6</v>
-      </c>
-      <c r="AV93">
-        <v>8</v>
-      </c>
-      <c r="AW93">
-        <v>7</v>
-      </c>
-      <c r="AX93">
-        <v>20</v>
-      </c>
-      <c r="AY93">
+      <c r="BC93">
         <v>13</v>
       </c>
-      <c r="AZ93">
-        <v>28</v>
-      </c>
-      <c r="BA93">
-        <v>0</v>
-      </c>
-      <c r="BB93">
-        <v>8</v>
-      </c>
-      <c r="BC93">
-        <v>8</v>
-      </c>
       <c r="BD93">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="BE93">
-        <v>8.5</v>
+        <v>18</v>
       </c>
       <c r="BF93">
-        <v>1.51</v>
+        <v>17.25</v>
       </c>
       <c r="BG93">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BH93">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="BI93">
         <v>1.12</v>
       </c>
       <c r="BJ93">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="BK93">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="BL93">
-        <v>3.42</v>
+        <v>3.34</v>
       </c>
       <c r="BM93">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="BN93">
-        <v>2.51</v>
+        <v>2.45</v>
       </c>
       <c r="BO93">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="BP93">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="94" spans="1:68">
@@ -20354,7 +20351,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>7294879</v>
+        <v>7294873</v>
       </c>
       <c r="C94" t="s">
         <v>68</v>
@@ -20366,13 +20363,13 @@
         <v>45501.67708333334</v>
       </c>
       <c r="F94">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G94" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H94" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I94">
         <v>3</v>
@@ -20384,175 +20381,175 @@
         <v>4</v>
       </c>
       <c r="L94">
+        <v>4</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
         <v>5</v>
-      </c>
-      <c r="M94">
-        <v>1</v>
-      </c>
-      <c r="N94">
-        <v>6</v>
       </c>
       <c r="O94" t="s">
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="Q94">
-        <v>1.45</v>
+        <v>3.75</v>
       </c>
       <c r="R94">
-        <v>3.28</v>
+        <v>2.55</v>
       </c>
       <c r="S94">
-        <v>9</v>
+        <v>2.15</v>
       </c>
       <c r="T94">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="U94">
-        <v>4.95</v>
+        <v>4.33</v>
       </c>
       <c r="V94">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="W94">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="X94">
-        <v>3.48</v>
+        <v>3.75</v>
       </c>
       <c r="Y94">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="Z94">
-        <v>1.1</v>
+        <v>3.65</v>
       </c>
       <c r="AA94">
-        <v>7.5</v>
+        <v>4.1</v>
       </c>
       <c r="AB94">
-        <v>11</v>
+        <v>1.73</v>
       </c>
       <c r="AC94">
         <v>1.01</v>
       </c>
       <c r="AD94">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AE94">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AF94">
-        <v>7.6</v>
+        <v>6.35</v>
       </c>
       <c r="AG94">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AH94">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AI94">
-        <v>1.76</v>
+        <v>1.36</v>
       </c>
       <c r="AJ94">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="AK94">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="AL94">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="AM94">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="AN94">
-        <v>2.71</v>
+        <v>1.43</v>
       </c>
       <c r="AO94">
-        <v>1</v>
+        <v>1.86</v>
       </c>
       <c r="AP94">
-        <v>2.36</v>
+        <v>1.55</v>
       </c>
       <c r="AQ94">
-        <v>0.64</v>
+        <v>1.27</v>
       </c>
       <c r="AR94">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="AS94">
-        <v>1.48</v>
+        <v>2.27</v>
       </c>
       <c r="AT94">
-        <v>3.48</v>
+        <v>3.89</v>
       </c>
       <c r="AU94">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="AV94">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW94">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX94">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AY94">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="AZ94">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="BA94">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BB94">
+        <v>8</v>
+      </c>
+      <c r="BC94">
+        <v>8</v>
+      </c>
+      <c r="BD94">
         <v>3</v>
       </c>
-      <c r="BC94">
-        <v>13</v>
-      </c>
-      <c r="BD94">
-        <v>1.01</v>
-      </c>
       <c r="BE94">
-        <v>18</v>
+        <v>8.5</v>
       </c>
       <c r="BF94">
-        <v>17.25</v>
+        <v>1.51</v>
       </c>
       <c r="BG94">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="BH94">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="BI94">
         <v>1.12</v>
       </c>
       <c r="BJ94">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="BK94">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="BL94">
-        <v>3.34</v>
+        <v>3.42</v>
       </c>
       <c r="BM94">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="BN94">
-        <v>2.45</v>
+        <v>2.51</v>
       </c>
       <c r="BO94">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="BP94">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="95" spans="1:68">
@@ -20602,7 +20599,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q95">
         <v>2.51</v>
@@ -21014,7 +21011,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q97">
         <v>3.44</v>
@@ -21178,7 +21175,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7294883</v>
+        <v>7294884</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
@@ -21193,190 +21190,190 @@
         <v>17</v>
       </c>
       <c r="G98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H98" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O98" t="s">
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q98">
-        <v>3.4</v>
+        <v>2.58</v>
       </c>
       <c r="R98">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="S98">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="T98">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="U98">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="V98">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="W98">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="X98">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="Y98">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="Z98">
-        <v>3.14</v>
+        <v>2.41</v>
       </c>
       <c r="AA98">
-        <v>4.1</v>
+        <v>3.88</v>
       </c>
       <c r="AB98">
-        <v>1.99</v>
+        <v>2.52</v>
       </c>
       <c r="AC98">
         <v>1.01</v>
       </c>
       <c r="AD98">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AE98">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="AF98">
-        <v>7</v>
+        <v>5.45</v>
       </c>
       <c r="AG98">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AH98">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AI98">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="AJ98">
-        <v>3.1</v>
+        <v>2.76</v>
       </c>
       <c r="AK98">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AL98">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AM98">
-        <v>1.3</v>
+        <v>1.65</v>
       </c>
       <c r="AN98">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="AO98">
-        <v>1.63</v>
+        <v>0.88</v>
       </c>
       <c r="AP98">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="AQ98">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AR98">
-        <v>1.82</v>
+        <v>1.61</v>
       </c>
       <c r="AS98">
-        <v>2.36</v>
+        <v>1.95</v>
       </c>
       <c r="AT98">
-        <v>4.18</v>
+        <v>3.56</v>
       </c>
       <c r="AU98">
         <v>7</v>
       </c>
       <c r="AV98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW98">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX98">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY98">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ98">
         <v>10</v>
       </c>
       <c r="BA98">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB98">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC98">
         <v>13</v>
       </c>
       <c r="BD98">
-        <v>2.88</v>
+        <v>2.07</v>
       </c>
       <c r="BE98">
-        <v>7.3</v>
+        <v>6.95</v>
       </c>
       <c r="BF98">
-        <v>1.61</v>
+        <v>2.09</v>
       </c>
       <c r="BG98">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="BH98">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="BI98">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="BJ98">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="BK98">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="BL98">
-        <v>3.48</v>
+        <v>3.2</v>
       </c>
       <c r="BM98">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="BN98">
-        <v>2.57</v>
+        <v>2.49</v>
       </c>
       <c r="BO98">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="BP98">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="99" spans="1:68">
@@ -21384,7 +21381,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7294884</v>
+        <v>7294886</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21399,25 +21396,25 @@
         <v>17</v>
       </c>
       <c r="G99" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H99" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N99">
         <v>3</v>
@@ -21426,133 +21423,133 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q99">
-        <v>2.58</v>
+        <v>1.68</v>
       </c>
       <c r="R99">
-        <v>2.44</v>
+        <v>2.9</v>
       </c>
       <c r="S99">
-        <v>3.25</v>
+        <v>6.05</v>
       </c>
       <c r="T99">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="U99">
-        <v>3.9</v>
+        <v>4.65</v>
       </c>
       <c r="V99">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="W99">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="X99">
-        <v>4.5</v>
+        <v>3.62</v>
       </c>
       <c r="Y99">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="Z99">
-        <v>2.41</v>
+        <v>1.34</v>
       </c>
       <c r="AA99">
-        <v>3.88</v>
+        <v>5.6</v>
       </c>
       <c r="AB99">
-        <v>2.52</v>
+        <v>7.14</v>
       </c>
       <c r="AC99">
         <v>1.01</v>
       </c>
       <c r="AD99">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="AE99">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AF99">
-        <v>5.45</v>
+        <v>7</v>
       </c>
       <c r="AG99">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AH99">
-        <v>2.67</v>
+        <v>3.22</v>
       </c>
       <c r="AI99">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="AJ99">
-        <v>2.76</v>
+        <v>2.39</v>
       </c>
       <c r="AK99">
-        <v>1.4</v>
+        <v>1.07</v>
       </c>
       <c r="AL99">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
       <c r="AM99">
-        <v>1.65</v>
+        <v>3.28</v>
       </c>
       <c r="AN99">
-        <v>1.63</v>
+        <v>2.13</v>
       </c>
       <c r="AO99">
-        <v>0.88</v>
+        <v>0.13</v>
       </c>
       <c r="AP99">
-        <v>1.55</v>
+        <v>2.36</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="AR99">
-        <v>1.61</v>
+        <v>2.12</v>
       </c>
       <c r="AS99">
-        <v>1.95</v>
+        <v>1.58</v>
       </c>
       <c r="AT99">
-        <v>3.56</v>
+        <v>3.7</v>
       </c>
       <c r="AU99">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV99">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW99">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AX99">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AY99">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ99">
         <v>10</v>
       </c>
       <c r="BA99">
+        <v>4</v>
+      </c>
+      <c r="BB99">
+        <v>5</v>
+      </c>
+      <c r="BC99">
         <v>9</v>
       </c>
-      <c r="BB99">
-        <v>4</v>
-      </c>
-      <c r="BC99">
-        <v>13</v>
-      </c>
       <c r="BD99">
-        <v>2.07</v>
+        <v>1.1</v>
       </c>
       <c r="BE99">
-        <v>6.95</v>
+        <v>12.25</v>
       </c>
       <c r="BF99">
-        <v>2.09</v>
+        <v>9</v>
       </c>
       <c r="BG99">
         <v>1.11</v>
@@ -21561,28 +21558,28 @@
         <v>5.5</v>
       </c>
       <c r="BI99">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="BJ99">
-        <v>4.7</v>
+        <v>4.95</v>
       </c>
       <c r="BK99">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="BL99">
-        <v>3.2</v>
+        <v>3.34</v>
       </c>
       <c r="BM99">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="BN99">
-        <v>2.49</v>
+        <v>2.55</v>
       </c>
       <c r="BO99">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="BP99">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="100" spans="1:68">
@@ -21590,7 +21587,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>7294886</v>
+        <v>7294883</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
@@ -21605,10 +21602,10 @@
         <v>17</v>
       </c>
       <c r="G100" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H100" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -21620,13 +21617,13 @@
         <v>1</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M100">
         <v>0</v>
       </c>
       <c r="N100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O100" t="s">
         <v>162</v>
@@ -21635,160 +21632,160 @@
         <v>91</v>
       </c>
       <c r="Q100">
-        <v>1.68</v>
+        <v>3.4</v>
       </c>
       <c r="R100">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="S100">
-        <v>6.05</v>
+        <v>2.38</v>
       </c>
       <c r="T100">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="U100">
-        <v>4.65</v>
+        <v>4.4</v>
       </c>
       <c r="V100">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="W100">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="X100">
-        <v>3.62</v>
+        <v>3.9</v>
       </c>
       <c r="Y100">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="Z100">
-        <v>1.34</v>
+        <v>3.14</v>
       </c>
       <c r="AA100">
-        <v>5.6</v>
+        <v>4.1</v>
       </c>
       <c r="AB100">
-        <v>7.14</v>
+        <v>1.99</v>
       </c>
       <c r="AC100">
         <v>1.01</v>
       </c>
       <c r="AD100">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AE100">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AF100">
         <v>7</v>
       </c>
       <c r="AG100">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AH100">
-        <v>3.22</v>
+        <v>3</v>
       </c>
       <c r="AI100">
-        <v>1.51</v>
+        <v>1.32</v>
       </c>
       <c r="AJ100">
-        <v>2.39</v>
+        <v>3.1</v>
       </c>
       <c r="AK100">
-        <v>1.07</v>
+        <v>1.75</v>
       </c>
       <c r="AL100">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AM100">
-        <v>3.28</v>
+        <v>1.3</v>
       </c>
       <c r="AN100">
-        <v>2.13</v>
+        <v>1.38</v>
       </c>
       <c r="AO100">
-        <v>0.13</v>
+        <v>1.63</v>
       </c>
       <c r="AP100">
+        <v>1.36</v>
+      </c>
+      <c r="AQ100">
+        <v>1.27</v>
+      </c>
+      <c r="AR100">
+        <v>1.82</v>
+      </c>
+      <c r="AS100">
         <v>2.36</v>
       </c>
-      <c r="AQ100">
-        <v>0.45</v>
-      </c>
-      <c r="AR100">
-        <v>2.12</v>
-      </c>
-      <c r="AS100">
-        <v>1.58</v>
-      </c>
       <c r="AT100">
-        <v>3.7</v>
+        <v>4.18</v>
       </c>
       <c r="AU100">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW100">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AX100">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY100">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AZ100">
         <v>10</v>
       </c>
       <c r="BA100">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BB100">
         <v>5</v>
       </c>
       <c r="BC100">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD100">
+        <v>2.88</v>
+      </c>
+      <c r="BE100">
+        <v>7.3</v>
+      </c>
+      <c r="BF100">
+        <v>1.61</v>
+      </c>
+      <c r="BG100">
         <v>1.1</v>
       </c>
-      <c r="BE100">
-        <v>12.25</v>
-      </c>
-      <c r="BF100">
-        <v>9</v>
-      </c>
-      <c r="BG100">
+      <c r="BH100">
+        <v>5.75</v>
+      </c>
+      <c r="BI100">
         <v>1.11</v>
       </c>
-      <c r="BH100">
-        <v>5.5</v>
-      </c>
-      <c r="BI100">
-        <v>1.12</v>
-      </c>
       <c r="BJ100">
-        <v>4.95</v>
+        <v>5.2</v>
       </c>
       <c r="BK100">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="BL100">
-        <v>3.34</v>
+        <v>3.48</v>
       </c>
       <c r="BM100">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="BN100">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="BO100">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="BP100">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="101" spans="1:68">
@@ -22044,7 +22041,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q102">
         <v>1.44</v>
@@ -22125,7 +22122,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ102">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="AR102">
         <v>2.23</v>
@@ -22247,10 +22244,10 @@
         <v>2</v>
       </c>
       <c r="O103" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P103" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22456,7 +22453,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q104">
         <v>1.57</v>
@@ -22662,7 +22659,7 @@
         <v>165</v>
       </c>
       <c r="P105" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q105">
         <v>3.2</v>
@@ -22740,7 +22737,7 @@
         <v>1.86</v>
       </c>
       <c r="AP105">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ105">
         <v>2.09</v>
@@ -23071,7 +23068,7 @@
         <v>1</v>
       </c>
       <c r="O107" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P107" t="s">
         <v>91</v>
@@ -23280,7 +23277,7 @@
         <v>91</v>
       </c>
       <c r="P108" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q108">
         <v>2.4</v>
@@ -23898,7 +23895,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q111">
         <v>3.4</v>
@@ -24104,7 +24101,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24516,7 +24513,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -24722,7 +24719,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q115">
         <v>4.5</v>
@@ -24928,7 +24925,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q116">
         <v>1.53</v>
@@ -25009,7 +25006,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ116">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="AR116">
         <v>2.1</v>
@@ -25134,7 +25131,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q117">
         <v>2.8</v>
@@ -25340,7 +25337,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q118">
         <v>3.99</v>
@@ -25546,7 +25543,7 @@
         <v>175</v>
       </c>
       <c r="P119" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q119">
         <v>3.83</v>
@@ -25830,7 +25827,7 @@
         <v>0.78</v>
       </c>
       <c r="AP120">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AQ120">
         <v>0.64</v>
@@ -26164,7 +26161,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q122">
         <v>3.48</v>
@@ -26370,7 +26367,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q123">
         <v>2.58</v>
@@ -26576,7 +26573,7 @@
         <v>91</v>
       </c>
       <c r="P124" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q124">
         <v>2.2</v>
@@ -26782,7 +26779,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q125">
         <v>2.3</v>
@@ -27194,7 +27191,7 @@
         <v>91</v>
       </c>
       <c r="P127" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q127">
         <v>3.62</v>
@@ -27400,7 +27397,7 @@
         <v>181</v>
       </c>
       <c r="P128" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q128">
         <v>3.1</v>
@@ -27770,7 +27767,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>7294918</v>
+        <v>7294915</v>
       </c>
       <c r="C130" t="s">
         <v>68</v>
@@ -27779,196 +27776,196 @@
         <v>69</v>
       </c>
       <c r="E130" s="2">
-        <v>45550.45833333334</v>
+        <v>45550.58333333334</v>
       </c>
       <c r="F130">
         <v>22</v>
       </c>
       <c r="G130" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H130" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K130">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L130">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M130">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N130">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O130" t="s">
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>91</v>
+        <v>267</v>
       </c>
       <c r="Q130">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="R130">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="S130">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="T130">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="U130">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="V130">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="W130">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="X130">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="Y130">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="Z130">
-        <v>1.46</v>
+        <v>1.15</v>
       </c>
       <c r="AA130">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="AB130">
-        <v>5.1</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="AC130">
         <v>1.01</v>
       </c>
       <c r="AD130">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE130">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="AF130">
-        <v>5.55</v>
+        <v>8.5</v>
       </c>
       <c r="AG130">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AH130">
-        <v>2.75</v>
+        <v>3.56</v>
       </c>
       <c r="AI130">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="AJ130">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="AK130">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="AL130">
-        <v>1.18</v>
+        <v>1.07</v>
       </c>
       <c r="AM130">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="AN130">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="AO130">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AP130">
-        <v>2.09</v>
+        <v>2.36</v>
       </c>
       <c r="AQ130">
-        <v>0.55</v>
+        <v>0.64</v>
       </c>
       <c r="AR130">
-        <v>1.84</v>
+        <v>2.16</v>
       </c>
       <c r="AS130">
-        <v>1.25</v>
+        <v>1.59</v>
       </c>
       <c r="AT130">
-        <v>3.09</v>
+        <v>3.75</v>
       </c>
       <c r="AU130">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AV130">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW130">
         <v>10</v>
       </c>
       <c r="AX130">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AY130">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AZ130">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA130">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BB130">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BC130">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD130">
-        <v>1.45</v>
+        <v>1.06</v>
       </c>
       <c r="BE130">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="BF130">
-        <v>3.26</v>
+        <v>11.1</v>
       </c>
       <c r="BG130">
+        <v>0</v>
+      </c>
+      <c r="BH130">
+        <v>0</v>
+      </c>
+      <c r="BI130">
         <v>1.11</v>
       </c>
-      <c r="BH130">
-        <v>5.5</v>
-      </c>
-      <c r="BI130">
-        <v>1.13</v>
-      </c>
       <c r="BJ130">
-        <v>4.85</v>
+        <v>5.25</v>
       </c>
       <c r="BK130">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="BL130">
-        <v>3.28</v>
+        <v>3.56</v>
       </c>
       <c r="BM130">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="BN130">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="BO130">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="BP130">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="131" spans="1:68">
@@ -27976,7 +27973,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>7294915</v>
+        <v>7294917</v>
       </c>
       <c r="C131" t="s">
         <v>68</v>
@@ -27985,61 +27982,61 @@
         <v>69</v>
       </c>
       <c r="E131" s="2">
-        <v>45550.58333333334</v>
+        <v>45551.67708333334</v>
       </c>
       <c r="F131">
         <v>22</v>
       </c>
       <c r="G131" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H131" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L131">
+        <v>4</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
         <v>5</v>
-      </c>
-      <c r="M131">
-        <v>3</v>
-      </c>
-      <c r="N131">
-        <v>8</v>
       </c>
       <c r="O131" t="s">
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="Q131">
-        <v>1.5</v>
+        <v>1.99</v>
       </c>
       <c r="R131">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="S131">
-        <v>8.5</v>
+        <v>4.56</v>
       </c>
       <c r="T131">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="U131">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V131">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="X131">
         <v>3.4</v>
@@ -28048,103 +28045,103 @@
         <v>1.3</v>
       </c>
       <c r="Z131">
-        <v>1.15</v>
+        <v>1.57</v>
       </c>
       <c r="AA131">
-        <v>8</v>
+        <v>4.45</v>
       </c>
       <c r="AB131">
-        <v>9.960000000000001</v>
+        <v>4.24</v>
       </c>
       <c r="AC131">
         <v>1.01</v>
       </c>
       <c r="AD131">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AE131">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AF131">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AG131">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AH131">
-        <v>3.56</v>
+        <v>3.21</v>
       </c>
       <c r="AI131">
-        <v>1.73</v>
+        <v>1.35</v>
       </c>
       <c r="AJ131">
-        <v>2</v>
+        <v>3.14</v>
       </c>
       <c r="AK131">
-        <v>1.04</v>
+        <v>1.21</v>
       </c>
       <c r="AL131">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="AM131">
-        <v>3.7</v>
+        <v>2.33</v>
       </c>
       <c r="AN131">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AO131">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="AP131">
-        <v>2.36</v>
+        <v>2.18</v>
       </c>
       <c r="AQ131">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="AR131">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="AS131">
-        <v>1.59</v>
+        <v>2</v>
       </c>
       <c r="AT131">
-        <v>3.75</v>
+        <v>4.26</v>
       </c>
       <c r="AU131">
         <v>10</v>
       </c>
       <c r="AV131">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW131">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX131">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY131">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AZ131">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA131">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BB131">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC131">
         <v>12</v>
       </c>
       <c r="BD131">
-        <v>1.06</v>
+        <v>1.37</v>
       </c>
       <c r="BE131">
-        <v>15</v>
+        <v>8.9</v>
       </c>
       <c r="BF131">
-        <v>11.1</v>
+        <v>3.98</v>
       </c>
       <c r="BG131">
         <v>0</v>
@@ -28153,28 +28150,28 @@
         <v>0</v>
       </c>
       <c r="BI131">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="BJ131">
-        <v>5.25</v>
+        <v>5.05</v>
       </c>
       <c r="BK131">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="BL131">
-        <v>3.56</v>
+        <v>3.42</v>
       </c>
       <c r="BM131">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="BN131">
-        <v>2.57</v>
+        <v>2.51</v>
       </c>
       <c r="BO131">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="BP131">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="132" spans="1:68">
@@ -28182,7 +28179,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>7294917</v>
+        <v>7294913</v>
       </c>
       <c r="C132" t="s">
         <v>68</v>
@@ -28197,43 +28194,43 @@
         <v>22</v>
       </c>
       <c r="G132" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H132" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L132">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M132">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O132" t="s">
-        <v>185</v>
+        <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="Q132">
-        <v>1.99</v>
+        <v>5.24</v>
       </c>
       <c r="R132">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="S132">
-        <v>4.56</v>
+        <v>1.89</v>
       </c>
       <c r="T132">
         <v>1.18</v>
@@ -28242,115 +28239,115 @@
         <v>4.33</v>
       </c>
       <c r="V132">
+        <v>1.94</v>
+      </c>
+      <c r="W132">
         <v>1.85</v>
       </c>
-      <c r="W132">
-        <v>1.96</v>
-      </c>
       <c r="X132">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y132">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Z132">
-        <v>1.57</v>
+        <v>4.92</v>
       </c>
       <c r="AA132">
-        <v>4.45</v>
+        <v>4.72</v>
       </c>
       <c r="AB132">
-        <v>4.24</v>
+        <v>1.47</v>
       </c>
       <c r="AC132">
         <v>1.01</v>
       </c>
       <c r="AD132">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AE132">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AF132">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG132">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AH132">
-        <v>3.21</v>
+        <v>3.04</v>
       </c>
       <c r="AI132">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="AJ132">
-        <v>3.14</v>
+        <v>2.72</v>
       </c>
       <c r="AK132">
-        <v>1.21</v>
+        <v>2.63</v>
       </c>
       <c r="AL132">
         <v>1.18</v>
       </c>
       <c r="AM132">
-        <v>2.33</v>
+        <v>1.16</v>
       </c>
       <c r="AN132">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="AO132">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="AP132">
-        <v>2.18</v>
+        <v>1.09</v>
       </c>
       <c r="AQ132">
-        <v>1</v>
+        <v>2.09</v>
       </c>
       <c r="AR132">
-        <v>2.26</v>
+        <v>1.79</v>
       </c>
       <c r="AS132">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT132">
-        <v>4.26</v>
+        <v>3.65</v>
       </c>
       <c r="AU132">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AV132">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW132">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX132">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AY132">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AZ132">
         <v>13</v>
       </c>
       <c r="BA132">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BB132">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BC132">
         <v>12</v>
       </c>
       <c r="BD132">
-        <v>1.37</v>
+        <v>6.6</v>
       </c>
       <c r="BE132">
-        <v>8.9</v>
+        <v>10.5</v>
       </c>
       <c r="BF132">
-        <v>3.98</v>
+        <v>1.16</v>
       </c>
       <c r="BG132">
         <v>0</v>
@@ -28362,7 +28359,7 @@
         <v>1.12</v>
       </c>
       <c r="BJ132">
-        <v>5.05</v>
+        <v>5</v>
       </c>
       <c r="BK132">
         <v>1.25</v>
@@ -28371,221 +28368,15 @@
         <v>3.42</v>
       </c>
       <c r="BM132">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="BN132">
-        <v>2.51</v>
+        <v>2.48</v>
       </c>
       <c r="BO132">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="BP132">
-        <v>2.01</v>
-      </c>
-    </row>
-    <row r="133" spans="1:68">
-      <c r="A133" s="1">
-        <v>132</v>
-      </c>
-      <c r="B133">
-        <v>7294913</v>
-      </c>
-      <c r="C133" t="s">
-        <v>68</v>
-      </c>
-      <c r="D133" t="s">
-        <v>69</v>
-      </c>
-      <c r="E133" s="2">
-        <v>45551.67708333334</v>
-      </c>
-      <c r="F133">
-        <v>22</v>
-      </c>
-      <c r="G133" t="s">
-        <v>74</v>
-      </c>
-      <c r="H133" t="s">
-        <v>70</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-      <c r="J133">
-        <v>3</v>
-      </c>
-      <c r="K133">
-        <v>3</v>
-      </c>
-      <c r="L133">
-        <v>0</v>
-      </c>
-      <c r="M133">
-        <v>6</v>
-      </c>
-      <c r="N133">
-        <v>6</v>
-      </c>
-      <c r="O133" t="s">
-        <v>91</v>
-      </c>
-      <c r="P133" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q133">
-        <v>5.24</v>
-      </c>
-      <c r="R133">
-        <v>2.9</v>
-      </c>
-      <c r="S133">
-        <v>1.89</v>
-      </c>
-      <c r="T133">
-        <v>1.18</v>
-      </c>
-      <c r="U133">
-        <v>4.33</v>
-      </c>
-      <c r="V133">
-        <v>1.94</v>
-      </c>
-      <c r="W133">
-        <v>1.85</v>
-      </c>
-      <c r="X133">
-        <v>3.5</v>
-      </c>
-      <c r="Y133">
-        <v>1.29</v>
-      </c>
-      <c r="Z133">
-        <v>4.92</v>
-      </c>
-      <c r="AA133">
-        <v>4.72</v>
-      </c>
-      <c r="AB133">
-        <v>1.47</v>
-      </c>
-      <c r="AC133">
-        <v>1.01</v>
-      </c>
-      <c r="AD133">
-        <v>11.5</v>
-      </c>
-      <c r="AE133">
-        <v>1.09</v>
-      </c>
-      <c r="AF133">
-        <v>6.5</v>
-      </c>
-      <c r="AG133">
-        <v>1.33</v>
-      </c>
-      <c r="AH133">
-        <v>3.04</v>
-      </c>
-      <c r="AI133">
-        <v>1.45</v>
-      </c>
-      <c r="AJ133">
-        <v>2.72</v>
-      </c>
-      <c r="AK133">
-        <v>2.63</v>
-      </c>
-      <c r="AL133">
-        <v>1.18</v>
-      </c>
-      <c r="AM133">
-        <v>1.16</v>
-      </c>
-      <c r="AN133">
-        <v>1.2</v>
-      </c>
-      <c r="AO133">
-        <v>2</v>
-      </c>
-      <c r="AP133">
-        <v>1.09</v>
-      </c>
-      <c r="AQ133">
-        <v>2.09</v>
-      </c>
-      <c r="AR133">
-        <v>1.79</v>
-      </c>
-      <c r="AS133">
-        <v>1.86</v>
-      </c>
-      <c r="AT133">
-        <v>3.65</v>
-      </c>
-      <c r="AU133">
-        <v>2</v>
-      </c>
-      <c r="AV133">
-        <v>8</v>
-      </c>
-      <c r="AW133">
-        <v>3</v>
-      </c>
-      <c r="AX133">
-        <v>5</v>
-      </c>
-      <c r="AY133">
-        <v>5</v>
-      </c>
-      <c r="AZ133">
-        <v>13</v>
-      </c>
-      <c r="BA133">
-        <v>2</v>
-      </c>
-      <c r="BB133">
-        <v>9</v>
-      </c>
-      <c r="BC133">
-        <v>11</v>
-      </c>
-      <c r="BD133">
-        <v>6.6</v>
-      </c>
-      <c r="BE133">
-        <v>10.5</v>
-      </c>
-      <c r="BF133">
-        <v>1.16</v>
-      </c>
-      <c r="BG133">
-        <v>0</v>
-      </c>
-      <c r="BH133">
-        <v>0</v>
-      </c>
-      <c r="BI133">
-        <v>1.12</v>
-      </c>
-      <c r="BJ133">
-        <v>5</v>
-      </c>
-      <c r="BK133">
-        <v>1.25</v>
-      </c>
-      <c r="BL133">
-        <v>3.42</v>
-      </c>
-      <c r="BM133">
-        <v>1.45</v>
-      </c>
-      <c r="BN133">
-        <v>2.48</v>
-      </c>
-      <c r="BO133">
-        <v>1.75</v>
-      </c>
-      <c r="BP133">
         <v>2.04</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="272">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -559,16 +559,22 @@
     <t>['85']</t>
   </si>
   <si>
-    <t>['2', '69', '90+2']</t>
+    <t>['34']</t>
   </si>
   <si>
-    <t>['34']</t>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['2', '69', '90+2']</t>
   </si>
   <si>
     <t>['9', '54', '58', '61', '78']</t>
   </si>
   <si>
     <t>['14', '22', '75', '90+1']</t>
+  </si>
+  <si>
+    <t>['45', '67']</t>
   </si>
   <si>
     <t>['20']</t>
@@ -821,6 +827,9 @@
   </si>
   <si>
     <t>['4', '13', '33', '63', '66', '82']</t>
+  </si>
+  <si>
+    <t>['64', '79']</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP132"/>
+  <dimension ref="A1:BP134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1728,7 +1737,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ3">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1853,7 +1862,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -2265,7 +2274,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2677,7 +2686,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2755,7 +2764,7 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -2964,7 +2973,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ9">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="AR9">
         <v>1.31</v>
@@ -3089,7 +3098,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3295,7 +3304,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3991,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ14">
         <v>1.27</v>
@@ -4119,7 +4128,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4403,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ16">
         <v>0.91</v>
@@ -4612,7 +4621,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ17">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="AR17">
         <v>2.26</v>
@@ -4943,7 +4952,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5149,7 +5158,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5561,7 +5570,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5767,7 +5776,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5845,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ23">
         <v>2.09</v>
@@ -5973,7 +5982,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -6179,7 +6188,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6385,7 +6394,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6466,7 +6475,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ26">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6797,7 +6806,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6875,7 +6884,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ28">
         <v>1.18</v>
@@ -7003,7 +7012,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q29">
         <v>7.53</v>
@@ -7415,7 +7424,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7621,7 +7630,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7699,7 +7708,7 @@
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ32">
         <v>0.91</v>
@@ -7908,7 +7917,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ33">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="AR33">
         <v>2.09</v>
@@ -8239,7 +8248,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8317,7 +8326,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ35">
         <v>0.64</v>
@@ -8651,7 +8660,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q37">
         <v>4.84</v>
@@ -8857,7 +8866,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -9063,7 +9072,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9269,7 +9278,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9475,7 +9484,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9681,7 +9690,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9887,7 +9896,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -10093,7 +10102,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10171,10 +10180,10 @@
         <v>0.6</v>
       </c>
       <c r="AP44">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ44">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="AR44">
         <v>2.01</v>
@@ -10299,7 +10308,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10505,7 +10514,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10789,7 +10798,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ47">
         <v>1.09</v>
@@ -10917,7 +10926,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11123,7 +11132,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11329,7 +11338,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11741,7 +11750,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11947,7 +11956,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -12153,7 +12162,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12359,7 +12368,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12565,7 +12574,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12771,7 +12780,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -12849,7 +12858,7 @@
         <v>1.75</v>
       </c>
       <c r="AP57">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ57">
         <v>1.27</v>
@@ -12977,7 +12986,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -13058,7 +13067,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ58">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="AR58">
         <v>1.94</v>
@@ -13183,7 +13192,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q59">
         <v>2.9</v>
@@ -13389,7 +13398,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13467,7 +13476,7 @@
         <v>1.67</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ60">
         <v>1.55</v>
@@ -13595,7 +13604,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -13801,7 +13810,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14007,7 +14016,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q63">
         <v>1.84</v>
@@ -14213,7 +14222,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q64">
         <v>5.69</v>
@@ -14419,7 +14428,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q65">
         <v>4.4</v>
@@ -14625,7 +14634,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14831,7 +14840,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -15037,7 +15046,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -15243,7 +15252,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q69">
         <v>1.85</v>
@@ -15449,7 +15458,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q70">
         <v>3.7</v>
@@ -15655,7 +15664,7 @@
         <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -15733,7 +15742,7 @@
         <v>1.83</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ71">
         <v>2.09</v>
@@ -15861,7 +15870,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15939,7 +15948,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ72">
         <v>0.45</v>
@@ -16067,7 +16076,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q73">
         <v>3.85</v>
@@ -16479,7 +16488,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16685,7 +16694,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q76">
         <v>1.78</v>
@@ -17097,7 +17106,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q78">
         <v>2.54</v>
@@ -17175,7 +17184,7 @@
         <v>0.5</v>
       </c>
       <c r="AP78">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ78">
         <v>1</v>
@@ -17303,7 +17312,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q79">
         <v>5.9</v>
@@ -17715,7 +17724,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q81">
         <v>2.25</v>
@@ -18127,7 +18136,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q83">
         <v>3.75</v>
@@ -18333,7 +18342,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q84">
         <v>1.67</v>
@@ -18745,7 +18754,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -18826,7 +18835,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ86">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="AR86">
         <v>1.18</v>
@@ -19157,7 +19166,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q88">
         <v>2</v>
@@ -19441,7 +19450,7 @@
         <v>0.14</v>
       </c>
       <c r="AP89">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ89">
         <v>0.45</v>
@@ -19569,7 +19578,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19775,7 +19784,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -19981,7 +19990,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q92">
         <v>2.8</v>
@@ -20393,7 +20402,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q94">
         <v>3.75</v>
@@ -20599,7 +20608,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q95">
         <v>2.51</v>
@@ -20677,7 +20686,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ95">
         <v>1.09</v>
@@ -21011,7 +21020,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q97">
         <v>3.44</v>
@@ -22041,7 +22050,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q102">
         <v>1.44</v>
@@ -22122,7 +22131,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ102">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="AR102">
         <v>2.23</v>
@@ -22247,7 +22256,7 @@
         <v>96</v>
       </c>
       <c r="P103" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22453,7 +22462,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q104">
         <v>1.57</v>
@@ -22659,7 +22668,7 @@
         <v>165</v>
       </c>
       <c r="P105" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q105">
         <v>3.2</v>
@@ -22737,7 +22746,7 @@
         <v>1.86</v>
       </c>
       <c r="AP105">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ105">
         <v>2.09</v>
@@ -23149,7 +23158,7 @@
         <v>1.63</v>
       </c>
       <c r="AP107">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ107">
         <v>1.55</v>
@@ -23277,7 +23286,7 @@
         <v>91</v>
       </c>
       <c r="P108" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q108">
         <v>2.4</v>
@@ -23895,7 +23904,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q111">
         <v>3.4</v>
@@ -24101,7 +24110,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24513,7 +24522,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -24719,7 +24728,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q115">
         <v>4.5</v>
@@ -24925,7 +24934,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q116">
         <v>1.53</v>
@@ -25006,7 +25015,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ116">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="AR116">
         <v>2.1</v>
@@ -25131,7 +25140,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q117">
         <v>2.8</v>
@@ -25337,7 +25346,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q118">
         <v>3.99</v>
@@ -25543,7 +25552,7 @@
         <v>175</v>
       </c>
       <c r="P119" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q119">
         <v>3.83</v>
@@ -25827,7 +25836,7 @@
         <v>0.78</v>
       </c>
       <c r="AP120">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ120">
         <v>0.64</v>
@@ -26161,7 +26170,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q122">
         <v>3.48</v>
@@ -26367,7 +26376,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q123">
         <v>2.58</v>
@@ -26445,7 +26454,7 @@
         <v>1.3</v>
       </c>
       <c r="AP123">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ123">
         <v>1.18</v>
@@ -26573,7 +26582,7 @@
         <v>91</v>
       </c>
       <c r="P124" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q124">
         <v>2.2</v>
@@ -26779,7 +26788,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q125">
         <v>2.3</v>
@@ -27191,7 +27200,7 @@
         <v>91</v>
       </c>
       <c r="P127" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q127">
         <v>3.62</v>
@@ -27269,7 +27278,7 @@
         <v>1.89</v>
       </c>
       <c r="AP127">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ127">
         <v>2.09</v>
@@ -27355,7 +27364,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>7294914</v>
+        <v>7294916</v>
       </c>
       <c r="C128" t="s">
         <v>68</v>
@@ -27370,160 +27379,160 @@
         <v>22</v>
       </c>
       <c r="G128" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H128" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I128">
         <v>1</v>
       </c>
       <c r="J128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M128">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N128">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O128" t="s">
         <v>181</v>
       </c>
       <c r="P128" t="s">
-        <v>266</v>
+        <v>91</v>
       </c>
       <c r="Q128">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="R128">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S128">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="T128">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U128">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="V128">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="W128">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="X128">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y128">
+        <v>1.17</v>
+      </c>
+      <c r="Z128">
+        <v>2.18</v>
+      </c>
+      <c r="AA128">
+        <v>3.45</v>
+      </c>
+      <c r="AB128">
+        <v>2.63</v>
+      </c>
+      <c r="AC128">
+        <v>1.02</v>
+      </c>
+      <c r="AD128">
+        <v>12</v>
+      </c>
+      <c r="AE128">
         <v>1.13</v>
       </c>
-      <c r="Z128">
-        <v>2.39</v>
-      </c>
-      <c r="AA128">
-        <v>3.4</v>
-      </c>
-      <c r="AB128">
-        <v>2.44</v>
-      </c>
-      <c r="AC128">
-        <v>1.01</v>
-      </c>
-      <c r="AD128">
-        <v>11</v>
-      </c>
-      <c r="AE128">
-        <v>1.18</v>
-      </c>
       <c r="AF128">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AG128">
+        <v>1.45</v>
+      </c>
+      <c r="AH128">
+        <v>2.55</v>
+      </c>
+      <c r="AI128">
+        <v>1.44</v>
+      </c>
+      <c r="AJ128">
+        <v>2.63</v>
+      </c>
+      <c r="AK128">
+        <v>1.48</v>
+      </c>
+      <c r="AL128">
+        <v>1.25</v>
+      </c>
+      <c r="AM128">
         <v>1.6</v>
       </c>
-      <c r="AH128">
-        <v>2.1</v>
-      </c>
-      <c r="AI128">
-        <v>1.53</v>
-      </c>
-      <c r="AJ128">
-        <v>2.38</v>
-      </c>
-      <c r="AK128">
-        <v>1.55</v>
-      </c>
-      <c r="AL128">
-        <v>1.3</v>
-      </c>
-      <c r="AM128">
-        <v>1.45</v>
-      </c>
       <c r="AN128">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AO128">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AP128">
-        <v>1.55</v>
+        <v>1.91</v>
       </c>
       <c r="AQ128">
-        <v>1.55</v>
+        <v>1.09</v>
       </c>
       <c r="AR128">
-        <v>1.63</v>
+        <v>1.82</v>
       </c>
       <c r="AS128">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="AT128">
-        <v>3.45</v>
+        <v>3.61</v>
       </c>
       <c r="AU128">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV128">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AW128">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AX128">
         <v>10</v>
       </c>
       <c r="AY128">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ128">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BA128">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB128">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BC128">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BD128">
-        <v>2.43</v>
+        <v>1.95</v>
       </c>
       <c r="BE128">
         <v>8.5</v>
       </c>
       <c r="BF128">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="BG128">
         <v>1.1</v>
@@ -27532,28 +27541,28 @@
         <v>5.75</v>
       </c>
       <c r="BI128">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="BJ128">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="BK128">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="BL128">
-        <v>3.08</v>
+        <v>3.18</v>
       </c>
       <c r="BM128">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="BN128">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="BO128">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="BP128">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="129" spans="1:68">
@@ -27561,7 +27570,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>7294916</v>
+        <v>7294918</v>
       </c>
       <c r="C129" t="s">
         <v>68</v>
@@ -27576,19 +27585,19 @@
         <v>22</v>
       </c>
       <c r="G129" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H129" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129">
         <v>0</v>
       </c>
       <c r="K129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L129">
         <v>1</v>
@@ -27606,154 +27615,154 @@
         <v>91</v>
       </c>
       <c r="Q129">
+        <v>1.95</v>
+      </c>
+      <c r="R129">
+        <v>2.6</v>
+      </c>
+      <c r="S129">
+        <v>4.75</v>
+      </c>
+      <c r="T129">
+        <v>1.22</v>
+      </c>
+      <c r="U129">
+        <v>4</v>
+      </c>
+      <c r="V129">
+        <v>2.1</v>
+      </c>
+      <c r="W129">
+        <v>1.67</v>
+      </c>
+      <c r="X129">
+        <v>4.33</v>
+      </c>
+      <c r="Y129">
+        <v>1.2</v>
+      </c>
+      <c r="Z129">
+        <v>1.46</v>
+      </c>
+      <c r="AA129">
+        <v>4.2</v>
+      </c>
+      <c r="AB129">
+        <v>5.1</v>
+      </c>
+      <c r="AC129">
+        <v>1.01</v>
+      </c>
+      <c r="AD129">
+        <v>17</v>
+      </c>
+      <c r="AE129">
+        <v>1.1</v>
+      </c>
+      <c r="AF129">
+        <v>5.55</v>
+      </c>
+      <c r="AG129">
+        <v>1.4</v>
+      </c>
+      <c r="AH129">
         <v>2.75</v>
       </c>
-      <c r="R129">
-        <v>2.4</v>
-      </c>
-      <c r="S129">
+      <c r="AI129">
+        <v>1.53</v>
+      </c>
+      <c r="AJ129">
+        <v>2.38</v>
+      </c>
+      <c r="AK129">
+        <v>1.15</v>
+      </c>
+      <c r="AL129">
+        <v>1.18</v>
+      </c>
+      <c r="AM129">
+        <v>2.6</v>
+      </c>
+      <c r="AN129">
+        <v>2</v>
+      </c>
+      <c r="AO129">
+        <v>0.6</v>
+      </c>
+      <c r="AP129">
+        <v>2.09</v>
+      </c>
+      <c r="AQ129">
+        <v>0.58</v>
+      </c>
+      <c r="AR129">
+        <v>1.84</v>
+      </c>
+      <c r="AS129">
+        <v>1.25</v>
+      </c>
+      <c r="AT129">
+        <v>3.09</v>
+      </c>
+      <c r="AU129">
+        <v>-1</v>
+      </c>
+      <c r="AV129">
+        <v>-1</v>
+      </c>
+      <c r="AW129">
+        <v>-1</v>
+      </c>
+      <c r="AX129">
+        <v>-1</v>
+      </c>
+      <c r="AY129">
+        <v>-1</v>
+      </c>
+      <c r="AZ129">
+        <v>-1</v>
+      </c>
+      <c r="BA129">
         <v>3</v>
       </c>
-      <c r="T129">
-        <v>1.25</v>
-      </c>
-      <c r="U129">
-        <v>3.75</v>
-      </c>
-      <c r="V129">
-        <v>2.2</v>
-      </c>
-      <c r="W129">
-        <v>1.62</v>
-      </c>
-      <c r="X129">
-        <v>4.5</v>
-      </c>
-      <c r="Y129">
-        <v>1.17</v>
-      </c>
-      <c r="Z129">
-        <v>2.18</v>
-      </c>
-      <c r="AA129">
-        <v>3.45</v>
-      </c>
-      <c r="AB129">
-        <v>2.63</v>
-      </c>
-      <c r="AC129">
-        <v>1.02</v>
-      </c>
-      <c r="AD129">
-        <v>12</v>
-      </c>
-      <c r="AE129">
+      <c r="BB129">
+        <v>8</v>
+      </c>
+      <c r="BC129">
+        <v>11</v>
+      </c>
+      <c r="BD129">
+        <v>1.45</v>
+      </c>
+      <c r="BE129">
+        <v>9.5</v>
+      </c>
+      <c r="BF129">
+        <v>3.26</v>
+      </c>
+      <c r="BG129">
+        <v>1.11</v>
+      </c>
+      <c r="BH129">
+        <v>5.5</v>
+      </c>
+      <c r="BI129">
         <v>1.13</v>
       </c>
-      <c r="AF129">
-        <v>5</v>
-      </c>
-      <c r="AG129">
-        <v>1.45</v>
-      </c>
-      <c r="AH129">
-        <v>2.55</v>
-      </c>
-      <c r="AI129">
-        <v>1.44</v>
-      </c>
-      <c r="AJ129">
-        <v>2.63</v>
-      </c>
-      <c r="AK129">
+      <c r="BJ129">
+        <v>4.85</v>
+      </c>
+      <c r="BK129">
+        <v>1.27</v>
+      </c>
+      <c r="BL129">
+        <v>3.28</v>
+      </c>
+      <c r="BM129">
         <v>1.48</v>
       </c>
-      <c r="AL129">
-        <v>1.25</v>
-      </c>
-      <c r="AM129">
-        <v>1.6</v>
-      </c>
-      <c r="AN129">
-        <v>1.8</v>
-      </c>
-      <c r="AO129">
-        <v>1.2</v>
-      </c>
-      <c r="AP129">
-        <v>1.91</v>
-      </c>
-      <c r="AQ129">
-        <v>1.09</v>
-      </c>
-      <c r="AR129">
-        <v>1.82</v>
-      </c>
-      <c r="AS129">
-        <v>1.79</v>
-      </c>
-      <c r="AT129">
-        <v>3.61</v>
-      </c>
-      <c r="AU129">
-        <v>4</v>
-      </c>
-      <c r="AV129">
-        <v>5</v>
-      </c>
-      <c r="AW129">
-        <v>8</v>
-      </c>
-      <c r="AX129">
-        <v>10</v>
-      </c>
-      <c r="AY129">
-        <v>12</v>
-      </c>
-      <c r="AZ129">
-        <v>15</v>
-      </c>
-      <c r="BA129">
-        <v>4</v>
-      </c>
-      <c r="BB129">
-        <v>10</v>
-      </c>
-      <c r="BC129">
-        <v>14</v>
-      </c>
-      <c r="BD129">
-        <v>1.95</v>
-      </c>
-      <c r="BE129">
-        <v>8.5</v>
-      </c>
-      <c r="BF129">
-        <v>2.05</v>
-      </c>
-      <c r="BG129">
-        <v>1.1</v>
-      </c>
-      <c r="BH129">
-        <v>5.75</v>
-      </c>
-      <c r="BI129">
-        <v>1.14</v>
-      </c>
-      <c r="BJ129">
-        <v>4.6</v>
-      </c>
-      <c r="BK129">
-        <v>1.28</v>
-      </c>
-      <c r="BL129">
-        <v>3.18</v>
-      </c>
-      <c r="BM129">
-        <v>1.53</v>
-      </c>
       <c r="BN129">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="BO129">
         <v>1.92</v>
@@ -27767,7 +27776,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>7294915</v>
+        <v>7294914</v>
       </c>
       <c r="C130" t="s">
         <v>68</v>
@@ -27776,16 +27785,16 @@
         <v>69</v>
       </c>
       <c r="E130" s="2">
-        <v>45550.58333333334</v>
+        <v>45550.45833333334</v>
       </c>
       <c r="F130">
         <v>22</v>
       </c>
       <c r="G130" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H130" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -27797,175 +27806,175 @@
         <v>3</v>
       </c>
       <c r="L130">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M130">
         <v>3</v>
       </c>
       <c r="N130">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O130" t="s">
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q130">
+        <v>3.1</v>
+      </c>
+      <c r="R130">
+        <v>2.3</v>
+      </c>
+      <c r="S130">
+        <v>2.88</v>
+      </c>
+      <c r="T130">
+        <v>1.3</v>
+      </c>
+      <c r="U130">
+        <v>3.4</v>
+      </c>
+      <c r="V130">
+        <v>2.5</v>
+      </c>
+      <c r="W130">
         <v>1.5</v>
       </c>
-      <c r="R130">
-        <v>3.2</v>
-      </c>
-      <c r="S130">
-        <v>8.5</v>
-      </c>
-      <c r="T130">
-        <v>1.17</v>
-      </c>
-      <c r="U130">
-        <v>4.5</v>
-      </c>
-      <c r="V130">
-        <v>1.8</v>
-      </c>
-      <c r="W130">
-        <v>1.91</v>
-      </c>
       <c r="X130">
+        <v>5.5</v>
+      </c>
+      <c r="Y130">
+        <v>1.13</v>
+      </c>
+      <c r="Z130">
+        <v>2.39</v>
+      </c>
+      <c r="AA130">
         <v>3.4</v>
       </c>
-      <c r="Y130">
-        <v>1.3</v>
-      </c>
-      <c r="Z130">
-        <v>1.15</v>
-      </c>
-      <c r="AA130">
-        <v>8</v>
-      </c>
       <c r="AB130">
-        <v>9.960000000000001</v>
+        <v>2.44</v>
       </c>
       <c r="AC130">
         <v>1.01</v>
       </c>
       <c r="AD130">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE130">
-        <v>1.04</v>
+        <v>1.18</v>
       </c>
       <c r="AF130">
-        <v>8.5</v>
+        <v>4.33</v>
       </c>
       <c r="AG130">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AH130">
-        <v>3.56</v>
+        <v>2.1</v>
       </c>
       <c r="AI130">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="AJ130">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="AK130">
-        <v>1.04</v>
+        <v>1.55</v>
       </c>
       <c r="AL130">
-        <v>1.07</v>
+        <v>1.3</v>
       </c>
       <c r="AM130">
-        <v>3.7</v>
+        <v>1.45</v>
       </c>
       <c r="AN130">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="AO130">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="AP130">
-        <v>2.36</v>
+        <v>1.55</v>
       </c>
       <c r="AQ130">
-        <v>0.64</v>
+        <v>1.55</v>
       </c>
       <c r="AR130">
-        <v>2.16</v>
+        <v>1.63</v>
       </c>
       <c r="AS130">
-        <v>1.59</v>
+        <v>1.82</v>
       </c>
       <c r="AT130">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="AU130">
+        <v>7</v>
+      </c>
+      <c r="AV130">
+        <v>9</v>
+      </c>
+      <c r="AW130">
+        <v>1</v>
+      </c>
+      <c r="AX130">
         <v>10</v>
       </c>
-      <c r="AV130">
+      <c r="AY130">
+        <v>8</v>
+      </c>
+      <c r="AZ130">
+        <v>19</v>
+      </c>
+      <c r="BA130">
         <v>5</v>
-      </c>
-      <c r="AW130">
-        <v>10</v>
-      </c>
-      <c r="AX130">
-        <v>7</v>
-      </c>
-      <c r="AY130">
-        <v>20</v>
-      </c>
-      <c r="AZ130">
-        <v>12</v>
-      </c>
-      <c r="BA130">
-        <v>8</v>
       </c>
       <c r="BB130">
         <v>4</v>
       </c>
       <c r="BC130">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD130">
-        <v>1.06</v>
+        <v>2.43</v>
       </c>
       <c r="BE130">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="BF130">
-        <v>11.1</v>
+        <v>1.75</v>
       </c>
       <c r="BG130">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BH130">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="BI130">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="BJ130">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="BK130">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="BL130">
-        <v>3.56</v>
+        <v>3.08</v>
       </c>
       <c r="BM130">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="BN130">
-        <v>2.57</v>
+        <v>2.3</v>
       </c>
       <c r="BO130">
-        <v>1.77</v>
+        <v>2.05</v>
       </c>
       <c r="BP130">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="131" spans="1:68">
@@ -27973,7 +27982,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>7294917</v>
+        <v>7294915</v>
       </c>
       <c r="C131" t="s">
         <v>68</v>
@@ -27982,61 +27991,61 @@
         <v>69</v>
       </c>
       <c r="E131" s="2">
-        <v>45551.67708333334</v>
+        <v>45550.58333333334</v>
       </c>
       <c r="F131">
         <v>22</v>
       </c>
       <c r="G131" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H131" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L131">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N131">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O131" t="s">
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="Q131">
-        <v>1.99</v>
+        <v>1.5</v>
       </c>
       <c r="R131">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="S131">
-        <v>4.56</v>
+        <v>8.5</v>
       </c>
       <c r="T131">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="U131">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W131">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="X131">
         <v>3.4</v>
@@ -28045,103 +28054,103 @@
         <v>1.3</v>
       </c>
       <c r="Z131">
-        <v>1.57</v>
+        <v>1.15</v>
       </c>
       <c r="AA131">
-        <v>4.45</v>
+        <v>8</v>
       </c>
       <c r="AB131">
-        <v>4.24</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="AC131">
         <v>1.01</v>
       </c>
       <c r="AD131">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AE131">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AF131">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AG131">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AH131">
-        <v>3.21</v>
+        <v>3.56</v>
       </c>
       <c r="AI131">
-        <v>1.35</v>
+        <v>1.73</v>
       </c>
       <c r="AJ131">
-        <v>3.14</v>
+        <v>2</v>
       </c>
       <c r="AK131">
-        <v>1.21</v>
+        <v>1.04</v>
       </c>
       <c r="AL131">
-        <v>1.18</v>
+        <v>1.07</v>
       </c>
       <c r="AM131">
-        <v>2.33</v>
+        <v>3.7</v>
       </c>
       <c r="AN131">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AO131">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="AP131">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="AQ131">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="AR131">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="AS131">
-        <v>2</v>
+        <v>1.59</v>
       </c>
       <c r="AT131">
-        <v>4.26</v>
+        <v>3.75</v>
       </c>
       <c r="AU131">
         <v>10</v>
       </c>
       <c r="AV131">
+        <v>5</v>
+      </c>
+      <c r="AW131">
+        <v>10</v>
+      </c>
+      <c r="AX131">
+        <v>7</v>
+      </c>
+      <c r="AY131">
+        <v>20</v>
+      </c>
+      <c r="AZ131">
+        <v>12</v>
+      </c>
+      <c r="BA131">
+        <v>8</v>
+      </c>
+      <c r="BB131">
         <v>4</v>
-      </c>
-      <c r="AW131">
-        <v>4</v>
-      </c>
-      <c r="AX131">
-        <v>9</v>
-      </c>
-      <c r="AY131">
-        <v>14</v>
-      </c>
-      <c r="AZ131">
-        <v>13</v>
-      </c>
-      <c r="BA131">
-        <v>6</v>
-      </c>
-      <c r="BB131">
-        <v>6</v>
       </c>
       <c r="BC131">
         <v>12</v>
       </c>
       <c r="BD131">
-        <v>1.37</v>
+        <v>1.06</v>
       </c>
       <c r="BE131">
-        <v>8.9</v>
+        <v>15</v>
       </c>
       <c r="BF131">
-        <v>3.98</v>
+        <v>11.1</v>
       </c>
       <c r="BG131">
         <v>0</v>
@@ -28150,28 +28159,28 @@
         <v>0</v>
       </c>
       <c r="BI131">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="BJ131">
-        <v>5.05</v>
+        <v>5.25</v>
       </c>
       <c r="BK131">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="BL131">
-        <v>3.42</v>
+        <v>3.56</v>
       </c>
       <c r="BM131">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="BN131">
-        <v>2.51</v>
+        <v>2.57</v>
       </c>
       <c r="BO131">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="BP131">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="132" spans="1:68">
@@ -28179,7 +28188,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>7294913</v>
+        <v>7294917</v>
       </c>
       <c r="C132" t="s">
         <v>68</v>
@@ -28194,43 +28203,43 @@
         <v>22</v>
       </c>
       <c r="G132" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H132" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L132">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M132">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N132">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O132" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="Q132">
-        <v>5.24</v>
+        <v>1.99</v>
       </c>
       <c r="R132">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="S132">
-        <v>1.89</v>
+        <v>4.56</v>
       </c>
       <c r="T132">
         <v>1.18</v>
@@ -28239,115 +28248,115 @@
         <v>4.33</v>
       </c>
       <c r="V132">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="X132">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y132">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Z132">
-        <v>4.92</v>
+        <v>1.57</v>
       </c>
       <c r="AA132">
-        <v>4.72</v>
+        <v>4.45</v>
       </c>
       <c r="AB132">
-        <v>1.47</v>
+        <v>4.24</v>
       </c>
       <c r="AC132">
         <v>1.01</v>
       </c>
       <c r="AD132">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AE132">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AF132">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG132">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AH132">
-        <v>3.04</v>
+        <v>3.21</v>
       </c>
       <c r="AI132">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="AJ132">
-        <v>2.72</v>
+        <v>3.14</v>
       </c>
       <c r="AK132">
-        <v>2.63</v>
+        <v>1.21</v>
       </c>
       <c r="AL132">
         <v>1.18</v>
       </c>
       <c r="AM132">
-        <v>1.16</v>
+        <v>2.33</v>
       </c>
       <c r="AN132">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="AO132">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="AP132">
-        <v>1.09</v>
+        <v>2.18</v>
       </c>
       <c r="AQ132">
-        <v>2.09</v>
+        <v>1</v>
       </c>
       <c r="AR132">
-        <v>1.79</v>
+        <v>2.26</v>
       </c>
       <c r="AS132">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT132">
-        <v>3.65</v>
+        <v>4.26</v>
       </c>
       <c r="AU132">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AV132">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX132">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AY132">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AZ132">
         <v>13</v>
       </c>
       <c r="BA132">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BB132">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BC132">
         <v>12</v>
       </c>
       <c r="BD132">
-        <v>6.6</v>
+        <v>1.37</v>
       </c>
       <c r="BE132">
-        <v>10.5</v>
+        <v>8.9</v>
       </c>
       <c r="BF132">
-        <v>1.16</v>
+        <v>3.98</v>
       </c>
       <c r="BG132">
         <v>0</v>
@@ -28359,7 +28368,7 @@
         <v>1.12</v>
       </c>
       <c r="BJ132">
-        <v>5</v>
+        <v>5.05</v>
       </c>
       <c r="BK132">
         <v>1.25</v>
@@ -28368,15 +28377,427 @@
         <v>3.42</v>
       </c>
       <c r="BM132">
+        <v>1.44</v>
+      </c>
+      <c r="BN132">
+        <v>2.51</v>
+      </c>
+      <c r="BO132">
+        <v>1.79</v>
+      </c>
+      <c r="BP132">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7294913</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45551.67708333334</v>
+      </c>
+      <c r="F133">
+        <v>22</v>
+      </c>
+      <c r="G133" t="s">
+        <v>74</v>
+      </c>
+      <c r="H133" t="s">
+        <v>70</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>3</v>
+      </c>
+      <c r="K133">
+        <v>3</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>6</v>
+      </c>
+      <c r="N133">
+        <v>6</v>
+      </c>
+      <c r="O133" t="s">
+        <v>91</v>
+      </c>
+      <c r="P133" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q133">
+        <v>5.24</v>
+      </c>
+      <c r="R133">
+        <v>2.9</v>
+      </c>
+      <c r="S133">
+        <v>1.89</v>
+      </c>
+      <c r="T133">
+        <v>1.18</v>
+      </c>
+      <c r="U133">
+        <v>4.33</v>
+      </c>
+      <c r="V133">
+        <v>1.94</v>
+      </c>
+      <c r="W133">
+        <v>1.85</v>
+      </c>
+      <c r="X133">
+        <v>3.5</v>
+      </c>
+      <c r="Y133">
+        <v>1.29</v>
+      </c>
+      <c r="Z133">
+        <v>4.92</v>
+      </c>
+      <c r="AA133">
+        <v>4.72</v>
+      </c>
+      <c r="AB133">
+        <v>1.47</v>
+      </c>
+      <c r="AC133">
+        <v>1.01</v>
+      </c>
+      <c r="AD133">
+        <v>11.5</v>
+      </c>
+      <c r="AE133">
+        <v>1.09</v>
+      </c>
+      <c r="AF133">
+        <v>6.5</v>
+      </c>
+      <c r="AG133">
+        <v>1.33</v>
+      </c>
+      <c r="AH133">
+        <v>3.04</v>
+      </c>
+      <c r="AI133">
         <v>1.45</v>
       </c>
-      <c r="BN132">
+      <c r="AJ133">
+        <v>2.72</v>
+      </c>
+      <c r="AK133">
+        <v>2.63</v>
+      </c>
+      <c r="AL133">
+        <v>1.18</v>
+      </c>
+      <c r="AM133">
+        <v>1.16</v>
+      </c>
+      <c r="AN133">
+        <v>1.2</v>
+      </c>
+      <c r="AO133">
+        <v>2</v>
+      </c>
+      <c r="AP133">
+        <v>1.09</v>
+      </c>
+      <c r="AQ133">
+        <v>2.09</v>
+      </c>
+      <c r="AR133">
+        <v>1.79</v>
+      </c>
+      <c r="AS133">
+        <v>1.86</v>
+      </c>
+      <c r="AT133">
+        <v>3.65</v>
+      </c>
+      <c r="AU133">
+        <v>2</v>
+      </c>
+      <c r="AV133">
+        <v>8</v>
+      </c>
+      <c r="AW133">
+        <v>3</v>
+      </c>
+      <c r="AX133">
+        <v>5</v>
+      </c>
+      <c r="AY133">
+        <v>5</v>
+      </c>
+      <c r="AZ133">
+        <v>13</v>
+      </c>
+      <c r="BA133">
+        <v>2</v>
+      </c>
+      <c r="BB133">
+        <v>10</v>
+      </c>
+      <c r="BC133">
+        <v>12</v>
+      </c>
+      <c r="BD133">
+        <v>6.6</v>
+      </c>
+      <c r="BE133">
+        <v>10.5</v>
+      </c>
+      <c r="BF133">
+        <v>1.16</v>
+      </c>
+      <c r="BG133">
+        <v>0</v>
+      </c>
+      <c r="BH133">
+        <v>0</v>
+      </c>
+      <c r="BI133">
+        <v>1.12</v>
+      </c>
+      <c r="BJ133">
+        <v>5</v>
+      </c>
+      <c r="BK133">
+        <v>1.25</v>
+      </c>
+      <c r="BL133">
+        <v>3.42</v>
+      </c>
+      <c r="BM133">
+        <v>1.45</v>
+      </c>
+      <c r="BN133">
         <v>2.48</v>
       </c>
-      <c r="BO132">
+      <c r="BO133">
         <v>1.75</v>
       </c>
-      <c r="BP132">
+      <c r="BP133">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7697212</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45557.45833333334</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134" t="s">
+        <v>78</v>
+      </c>
+      <c r="H134" t="s">
+        <v>80</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>2</v>
+      </c>
+      <c r="M134">
+        <v>2</v>
+      </c>
+      <c r="N134">
+        <v>4</v>
+      </c>
+      <c r="O134" t="s">
+        <v>186</v>
+      </c>
+      <c r="P134" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q134">
+        <v>1.95</v>
+      </c>
+      <c r="R134">
+        <v>2.5</v>
+      </c>
+      <c r="S134">
+        <v>4.75</v>
+      </c>
+      <c r="T134">
+        <v>1.22</v>
+      </c>
+      <c r="U134">
+        <v>3.8</v>
+      </c>
+      <c r="V134">
+        <v>2.05</v>
+      </c>
+      <c r="W134">
+        <v>1.7</v>
+      </c>
+      <c r="X134">
+        <v>4.33</v>
+      </c>
+      <c r="Y134">
+        <v>1.19</v>
+      </c>
+      <c r="Z134">
+        <v>1.54</v>
+      </c>
+      <c r="AA134">
+        <v>4.5</v>
+      </c>
+      <c r="AB134">
+        <v>4.9</v>
+      </c>
+      <c r="AC134">
+        <v>1.01</v>
+      </c>
+      <c r="AD134">
+        <v>17</v>
+      </c>
+      <c r="AE134">
+        <v>1.11</v>
+      </c>
+      <c r="AF134">
+        <v>5.75</v>
+      </c>
+      <c r="AG134">
+        <v>1.4</v>
+      </c>
+      <c r="AH134">
+        <v>2.75</v>
+      </c>
+      <c r="AI134">
+        <v>1.45</v>
+      </c>
+      <c r="AJ134">
+        <v>2.45</v>
+      </c>
+      <c r="AK134">
+        <v>1.12</v>
+      </c>
+      <c r="AL134">
+        <v>1.15</v>
+      </c>
+      <c r="AM134">
+        <v>2.4</v>
+      </c>
+      <c r="AN134">
+        <v>0.91</v>
+      </c>
+      <c r="AO134">
+        <v>0.55</v>
+      </c>
+      <c r="AP134">
+        <v>0.92</v>
+      </c>
+      <c r="AQ134">
+        <v>0.58</v>
+      </c>
+      <c r="AR134">
+        <v>1.84</v>
+      </c>
+      <c r="AS134">
+        <v>1.25</v>
+      </c>
+      <c r="AT134">
+        <v>3.09</v>
+      </c>
+      <c r="AU134">
+        <v>6</v>
+      </c>
+      <c r="AV134">
+        <v>4</v>
+      </c>
+      <c r="AW134">
+        <v>7</v>
+      </c>
+      <c r="AX134">
+        <v>1</v>
+      </c>
+      <c r="AY134">
+        <v>13</v>
+      </c>
+      <c r="AZ134">
+        <v>5</v>
+      </c>
+      <c r="BA134">
+        <v>7</v>
+      </c>
+      <c r="BB134">
+        <v>2</v>
+      </c>
+      <c r="BC134">
+        <v>9</v>
+      </c>
+      <c r="BD134">
+        <v>1.38</v>
+      </c>
+      <c r="BE134">
+        <v>8</v>
+      </c>
+      <c r="BF134">
+        <v>3.9</v>
+      </c>
+      <c r="BG134">
+        <v>0</v>
+      </c>
+      <c r="BH134">
+        <v>0</v>
+      </c>
+      <c r="BI134">
+        <v>1.09</v>
+      </c>
+      <c r="BJ134">
+        <v>4.9</v>
+      </c>
+      <c r="BK134">
+        <v>1.22</v>
+      </c>
+      <c r="BL134">
+        <v>3.35</v>
+      </c>
+      <c r="BM134">
+        <v>1.41</v>
+      </c>
+      <c r="BN134">
+        <v>2.52</v>
+      </c>
+      <c r="BO134">
+        <v>1.75</v>
+      </c>
+      <c r="BP134">
         <v>2.04</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="279">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,6 +577,21 @@
     <t>['45', '67']</t>
   </si>
   <si>
+    <t>['23', '43']</t>
+  </si>
+  <si>
+    <t>['55', '90+6']</t>
+  </si>
+  <si>
+    <t>['53', '76']</t>
+  </si>
+  <si>
+    <t>['22', '53', '69']</t>
+  </si>
+  <si>
+    <t>['13', '73', '90']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -830,6 +845,12 @@
   </si>
   <si>
     <t>['64', '79']</t>
+  </si>
+  <si>
+    <t>['22', '38']</t>
+  </si>
+  <si>
+    <t>['30', '43', '90']</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP134"/>
+  <dimension ref="A1:BP139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1528,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1734,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ3">
         <v>0.58</v>
@@ -1862,7 +1883,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1940,10 +1961,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2146,10 +2167,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ5">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2274,7 +2295,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2558,10 +2579,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ7">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2686,7 +2707,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2970,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ9">
         <v>0.58</v>
@@ -3098,7 +3119,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3176,10 +3197,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR10">
         <v>2.8</v>
@@ -3304,7 +3325,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3385,7 +3406,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ11">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3794,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ13">
         <v>2.09</v>
@@ -4128,7 +4149,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4209,7 +4230,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ15">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR15">
         <v>1.21</v>
@@ -4618,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ17">
         <v>0.58</v>
@@ -4827,7 +4848,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ18">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4952,7 +4973,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5030,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ19">
         <v>2.09</v>
@@ -5158,7 +5179,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5239,7 +5260,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ20">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR20">
         <v>2.58</v>
@@ -5445,7 +5466,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ21">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5570,7 +5591,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5648,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ22">
         <v>1.09</v>
@@ -5776,7 +5797,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5982,7 +6003,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -6060,7 +6081,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ24">
         <v>0.91</v>
@@ -6188,7 +6209,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6394,7 +6415,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6678,7 +6699,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6806,7 +6827,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6887,7 +6908,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ28">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR28">
         <v>1.42</v>
@@ -7012,7 +7033,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q29">
         <v>7.53</v>
@@ -7296,10 +7317,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ30">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR30">
         <v>1.38</v>
@@ -7424,7 +7445,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7502,7 +7523,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ31">
         <v>1.27</v>
@@ -7630,7 +7651,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -8120,7 +8141,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ34">
         <v>1.09</v>
@@ -8248,7 +8269,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8329,7 +8350,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ35">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR35">
         <v>1.9</v>
@@ -8532,10 +8553,10 @@
         <v>2.25</v>
       </c>
       <c r="AP36">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ36">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR36">
         <v>2.05</v>
@@ -8660,7 +8681,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q37">
         <v>4.84</v>
@@ -8866,7 +8887,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -9072,7 +9093,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9150,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ39">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR39">
         <v>1.9</v>
@@ -9278,7 +9299,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9484,7 +9505,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9562,10 +9583,10 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ41">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR41">
         <v>1.57</v>
@@ -9690,7 +9711,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9896,7 +9917,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -9974,7 +9995,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -10102,7 +10123,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10308,7 +10329,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10514,7 +10535,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10592,10 +10613,10 @@
         <v>1.8</v>
       </c>
       <c r="AP46">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ46">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR46">
         <v>1.74</v>
@@ -10926,7 +10947,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11004,7 +11025,7 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ48">
         <v>2.09</v>
@@ -11132,7 +11153,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11213,7 +11234,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ49">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR49">
         <v>1.73</v>
@@ -11338,7 +11359,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11416,7 +11437,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11622,7 +11643,7 @@
         <v>2.25</v>
       </c>
       <c r="AP51">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ51">
         <v>2.09</v>
@@ -11750,7 +11771,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11956,7 +11977,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -12034,10 +12055,10 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ53">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR53">
         <v>1.86</v>
@@ -12162,7 +12183,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12368,7 +12389,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12446,10 +12467,10 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ55">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR55">
         <v>1.88</v>
@@ -12574,7 +12595,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12780,7 +12801,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -12986,7 +13007,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -13192,7 +13213,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q59">
         <v>2.9</v>
@@ -13398,7 +13419,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13479,7 +13500,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ60">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR60">
         <v>1.74</v>
@@ -13604,7 +13625,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -13682,10 +13703,10 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ61">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR61">
         <v>1.64</v>
@@ -13810,7 +13831,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13888,7 +13909,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ62">
         <v>2.09</v>
@@ -14016,7 +14037,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q63">
         <v>1.84</v>
@@ -14094,7 +14115,7 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ63">
         <v>1.09</v>
@@ -14222,7 +14243,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q64">
         <v>5.69</v>
@@ -14428,7 +14449,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q65">
         <v>4.4</v>
@@ -14634,7 +14655,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14712,7 +14733,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -14840,7 +14861,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14918,7 +14939,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ67">
         <v>0.91</v>
@@ -15046,7 +15067,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -15124,10 +15145,10 @@
         <v>1.4</v>
       </c>
       <c r="AP68">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ68">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR68">
         <v>1.99</v>
@@ -15252,7 +15273,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q69">
         <v>1.85</v>
@@ -15333,7 +15354,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ69">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR69">
         <v>2.15</v>
@@ -15458,7 +15479,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q70">
         <v>3.7</v>
@@ -15664,7 +15685,7 @@
         <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -15870,7 +15891,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15951,7 +15972,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ72">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR72">
         <v>1.93</v>
@@ -16076,7 +16097,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q73">
         <v>3.85</v>
@@ -16488,7 +16509,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16694,7 +16715,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q76">
         <v>1.78</v>
@@ -16772,7 +16793,7 @@
         <v>1.5</v>
       </c>
       <c r="AP76">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ76">
         <v>0.91</v>
@@ -16981,7 +17002,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ77">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR77">
         <v>1.96</v>
@@ -17106,7 +17127,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q78">
         <v>2.54</v>
@@ -17312,7 +17333,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q79">
         <v>5.9</v>
@@ -17596,10 +17617,10 @@
         <v>0.17</v>
       </c>
       <c r="AP80">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ80">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR80">
         <v>1.86</v>
@@ -17724,7 +17745,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q81">
         <v>2.25</v>
@@ -18008,7 +18029,7 @@
         <v>1.83</v>
       </c>
       <c r="AP82">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ82">
         <v>1</v>
@@ -18136,7 +18157,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q83">
         <v>3.75</v>
@@ -18342,7 +18363,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q84">
         <v>1.67</v>
@@ -18423,7 +18444,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ84">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR84">
         <v>1.85</v>
@@ -18629,7 +18650,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ85">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR85">
         <v>2.02</v>
@@ -18754,7 +18775,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -19038,7 +19059,7 @@
         <v>2</v>
       </c>
       <c r="AP87">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ87">
         <v>2.09</v>
@@ -19166,7 +19187,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q88">
         <v>2</v>
@@ -19244,7 +19265,7 @@
         <v>1.57</v>
       </c>
       <c r="AP88">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ88">
         <v>1</v>
@@ -19453,7 +19474,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ89">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR89">
         <v>1.67</v>
@@ -19578,7 +19599,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19659,7 +19680,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ90">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR90">
         <v>1.94</v>
@@ -19784,7 +19805,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -19865,7 +19886,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ91">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR91">
         <v>1.28</v>
@@ -19990,7 +20011,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q92">
         <v>2.8</v>
@@ -20274,10 +20295,10 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ93">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR93">
         <v>2</v>
@@ -20402,7 +20423,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q94">
         <v>3.75</v>
@@ -20480,7 +20501,7 @@
         <v>1.86</v>
       </c>
       <c r="AP94">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ94">
         <v>1.27</v>
@@ -20608,7 +20629,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q95">
         <v>2.51</v>
@@ -21020,7 +21041,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q97">
         <v>3.44</v>
@@ -21304,7 +21325,7 @@
         <v>0.88</v>
       </c>
       <c r="AP98">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ98">
         <v>1</v>
@@ -21510,10 +21531,10 @@
         <v>0.13</v>
       </c>
       <c r="AP99">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ99">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR99">
         <v>2.12</v>
@@ -21716,7 +21737,7 @@
         <v>1.63</v>
       </c>
       <c r="AP100">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ100">
         <v>1.27</v>
@@ -21925,7 +21946,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ101">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR101">
         <v>1.23</v>
@@ -22050,7 +22071,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q102">
         <v>1.44</v>
@@ -22128,7 +22149,7 @@
         <v>0.63</v>
       </c>
       <c r="AP102">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ102">
         <v>0.58</v>
@@ -22256,7 +22277,7 @@
         <v>96</v>
       </c>
       <c r="P103" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22462,7 +22483,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q104">
         <v>1.57</v>
@@ -22540,10 +22561,10 @@
         <v>0.88</v>
       </c>
       <c r="AP104">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ104">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR104">
         <v>1.92</v>
@@ -22668,7 +22689,7 @@
         <v>165</v>
       </c>
       <c r="P105" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q105">
         <v>3.2</v>
@@ -23161,7 +23182,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ107">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR107">
         <v>1.98</v>
@@ -23286,7 +23307,7 @@
         <v>91</v>
       </c>
       <c r="P108" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q108">
         <v>2.4</v>
@@ -23364,7 +23385,7 @@
         <v>1.75</v>
       </c>
       <c r="AP108">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ108">
         <v>2.09</v>
@@ -23776,7 +23797,7 @@
         <v>0.78</v>
       </c>
       <c r="AP110">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ110">
         <v>1</v>
@@ -23904,7 +23925,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q111">
         <v>3.4</v>
@@ -23985,7 +24006,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ111">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR111">
         <v>1.22</v>
@@ -24110,7 +24131,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24394,7 +24415,7 @@
         <v>1.11</v>
       </c>
       <c r="AP113">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ113">
         <v>0.91</v>
@@ -24522,7 +24543,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -24600,10 +24621,10 @@
         <v>1.11</v>
       </c>
       <c r="AP114">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ114">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR114">
         <v>2.25</v>
@@ -24728,7 +24749,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q115">
         <v>4.5</v>
@@ -24934,7 +24955,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q116">
         <v>1.53</v>
@@ -25012,7 +25033,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ116">
         <v>0.58</v>
@@ -25140,7 +25161,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q117">
         <v>2.8</v>
@@ -25218,7 +25239,7 @@
         <v>1</v>
       </c>
       <c r="AP117">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ117">
         <v>1.09</v>
@@ -25346,7 +25367,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q118">
         <v>3.99</v>
@@ -25552,7 +25573,7 @@
         <v>175</v>
       </c>
       <c r="P119" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q119">
         <v>3.83</v>
@@ -25633,7 +25654,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ119">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR119">
         <v>1.88</v>
@@ -25839,7 +25860,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ120">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR120">
         <v>1.8</v>
@@ -26045,7 +26066,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ121">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR121">
         <v>1.25</v>
@@ -26170,7 +26191,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q122">
         <v>3.48</v>
@@ -26248,7 +26269,7 @@
         <v>2</v>
       </c>
       <c r="AP122">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ122">
         <v>2.09</v>
@@ -26376,7 +26397,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q123">
         <v>2.58</v>
@@ -26457,7 +26478,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ123">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR123">
         <v>1.96</v>
@@ -26582,7 +26603,7 @@
         <v>91</v>
       </c>
       <c r="P124" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q124">
         <v>2.2</v>
@@ -26788,7 +26809,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q125">
         <v>2.3</v>
@@ -26866,7 +26887,7 @@
         <v>1.4</v>
       </c>
       <c r="AP125">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ125">
         <v>1.27</v>
@@ -27200,7 +27221,7 @@
         <v>91</v>
       </c>
       <c r="P127" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q127">
         <v>3.62</v>
@@ -27818,7 +27839,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q130">
         <v>3.1</v>
@@ -27896,10 +27917,10 @@
         <v>1.6</v>
       </c>
       <c r="AP130">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ130">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR130">
         <v>1.63</v>
@@ -28024,7 +28045,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q131">
         <v>1.5</v>
@@ -28102,10 +28123,10 @@
         <v>0.7</v>
       </c>
       <c r="AP131">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ131">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR131">
         <v>2.16</v>
@@ -28230,7 +28251,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q132">
         <v>1.99</v>
@@ -28308,7 +28329,7 @@
         <v>1.1</v>
       </c>
       <c r="AP132">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ132">
         <v>1</v>
@@ -28436,7 +28457,7 @@
         <v>91</v>
       </c>
       <c r="P133" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q133">
         <v>5.24</v>
@@ -28609,7 +28630,7 @@
         <v>69</v>
       </c>
       <c r="E134" s="2">
-        <v>45557.45833333334</v>
+        <v>45556.875</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -28642,7 +28663,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q134">
         <v>1.95</v>
@@ -28735,31 +28756,31 @@
         <v>3.09</v>
       </c>
       <c r="AU134">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AV134">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW134">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AX134">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AY134">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="AZ134">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BA134">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BB134">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BC134">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BD134">
         <v>1.38</v>
@@ -28799,6 +28820,1036 @@
       </c>
       <c r="BP134">
         <v>2.04</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7697213</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45556.875</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135" t="s">
+        <v>71</v>
+      </c>
+      <c r="H135" t="s">
+        <v>74</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>2</v>
+      </c>
+      <c r="L135">
+        <v>2</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>2</v>
+      </c>
+      <c r="O135" t="s">
+        <v>187</v>
+      </c>
+      <c r="P135" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q135">
+        <v>2.15</v>
+      </c>
+      <c r="R135">
+        <v>2.38</v>
+      </c>
+      <c r="S135">
+        <v>4.33</v>
+      </c>
+      <c r="T135">
+        <v>1.25</v>
+      </c>
+      <c r="U135">
+        <v>3.5</v>
+      </c>
+      <c r="V135">
+        <v>2.2</v>
+      </c>
+      <c r="W135">
+        <v>1.6</v>
+      </c>
+      <c r="X135">
+        <v>4.85</v>
+      </c>
+      <c r="Y135">
+        <v>1.16</v>
+      </c>
+      <c r="Z135">
+        <v>1.67</v>
+      </c>
+      <c r="AA135">
+        <v>4</v>
+      </c>
+      <c r="AB135">
+        <v>4.2</v>
+      </c>
+      <c r="AC135">
+        <v>1.02</v>
+      </c>
+      <c r="AD135">
+        <v>15</v>
+      </c>
+      <c r="AE135">
+        <v>1.16</v>
+      </c>
+      <c r="AF135">
+        <v>5.4</v>
+      </c>
+      <c r="AG135">
+        <v>1.48</v>
+      </c>
+      <c r="AH135">
+        <v>2.4</v>
+      </c>
+      <c r="AI135">
+        <v>1.48</v>
+      </c>
+      <c r="AJ135">
+        <v>2.35</v>
+      </c>
+      <c r="AK135">
+        <v>1.17</v>
+      </c>
+      <c r="AL135">
+        <v>1.18</v>
+      </c>
+      <c r="AM135">
+        <v>2.1</v>
+      </c>
+      <c r="AN135">
+        <v>1.55</v>
+      </c>
+      <c r="AO135">
+        <v>0.45</v>
+      </c>
+      <c r="AP135">
+        <v>1.67</v>
+      </c>
+      <c r="AQ135">
+        <v>0.42</v>
+      </c>
+      <c r="AR135">
+        <v>1.59</v>
+      </c>
+      <c r="AS135">
+        <v>1.59</v>
+      </c>
+      <c r="AT135">
+        <v>3.18</v>
+      </c>
+      <c r="AU135">
+        <v>-1</v>
+      </c>
+      <c r="AV135">
+        <v>-1</v>
+      </c>
+      <c r="AW135">
+        <v>-1</v>
+      </c>
+      <c r="AX135">
+        <v>-1</v>
+      </c>
+      <c r="AY135">
+        <v>-1</v>
+      </c>
+      <c r="AZ135">
+        <v>-1</v>
+      </c>
+      <c r="BA135">
+        <v>-1</v>
+      </c>
+      <c r="BB135">
+        <v>-1</v>
+      </c>
+      <c r="BC135">
+        <v>-1</v>
+      </c>
+      <c r="BD135">
+        <v>1.28</v>
+      </c>
+      <c r="BE135">
+        <v>8.6</v>
+      </c>
+      <c r="BF135">
+        <v>4.8</v>
+      </c>
+      <c r="BG135">
+        <v>0</v>
+      </c>
+      <c r="BH135">
+        <v>0</v>
+      </c>
+      <c r="BI135">
+        <v>1.1</v>
+      </c>
+      <c r="BJ135">
+        <v>4.7</v>
+      </c>
+      <c r="BK135">
+        <v>1.24</v>
+      </c>
+      <c r="BL135">
+        <v>3.22</v>
+      </c>
+      <c r="BM135">
+        <v>1.5</v>
+      </c>
+      <c r="BN135">
+        <v>2.54</v>
+      </c>
+      <c r="BO135">
+        <v>1.81</v>
+      </c>
+      <c r="BP135">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7697214</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45557.875</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136" t="s">
+        <v>75</v>
+      </c>
+      <c r="H136" t="s">
+        <v>79</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>2</v>
+      </c>
+      <c r="O136" t="s">
+        <v>188</v>
+      </c>
+      <c r="P136" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q136">
+        <v>1.91</v>
+      </c>
+      <c r="R136">
+        <v>2.63</v>
+      </c>
+      <c r="S136">
+        <v>5</v>
+      </c>
+      <c r="T136">
+        <v>1.18</v>
+      </c>
+      <c r="U136">
+        <v>4.45</v>
+      </c>
+      <c r="V136">
+        <v>1.92</v>
+      </c>
+      <c r="W136">
+        <v>1.88</v>
+      </c>
+      <c r="X136">
+        <v>3.8</v>
+      </c>
+      <c r="Y136">
+        <v>1.24</v>
+      </c>
+      <c r="Z136">
+        <v>1.45</v>
+      </c>
+      <c r="AA136">
+        <v>4.6</v>
+      </c>
+      <c r="AB136">
+        <v>5</v>
+      </c>
+      <c r="AC136">
+        <v>1.01</v>
+      </c>
+      <c r="AD136">
+        <v>30</v>
+      </c>
+      <c r="AE136">
+        <v>1.08</v>
+      </c>
+      <c r="AF136">
+        <v>7.5</v>
+      </c>
+      <c r="AG136">
+        <v>1.33</v>
+      </c>
+      <c r="AH136">
+        <v>3</v>
+      </c>
+      <c r="AI136">
+        <v>1.4</v>
+      </c>
+      <c r="AJ136">
+        <v>2.75</v>
+      </c>
+      <c r="AK136">
+        <v>1.13</v>
+      </c>
+      <c r="AL136">
+        <v>1.16</v>
+      </c>
+      <c r="AM136">
+        <v>2.55</v>
+      </c>
+      <c r="AN136">
+        <v>2.36</v>
+      </c>
+      <c r="AO136">
+        <v>1.18</v>
+      </c>
+      <c r="AP136">
+        <v>2.42</v>
+      </c>
+      <c r="AQ136">
+        <v>1.08</v>
+      </c>
+      <c r="AR136">
+        <v>2.2</v>
+      </c>
+      <c r="AS136">
+        <v>1.63</v>
+      </c>
+      <c r="AT136">
+        <v>3.83</v>
+      </c>
+      <c r="AU136">
+        <v>-1</v>
+      </c>
+      <c r="AV136">
+        <v>-1</v>
+      </c>
+      <c r="AW136">
+        <v>-1</v>
+      </c>
+      <c r="AX136">
+        <v>-1</v>
+      </c>
+      <c r="AY136">
+        <v>-1</v>
+      </c>
+      <c r="AZ136">
+        <v>-1</v>
+      </c>
+      <c r="BA136">
+        <v>-1</v>
+      </c>
+      <c r="BB136">
+        <v>-1</v>
+      </c>
+      <c r="BC136">
+        <v>-1</v>
+      </c>
+      <c r="BD136">
+        <v>1.24</v>
+      </c>
+      <c r="BE136">
+        <v>9.1</v>
+      </c>
+      <c r="BF136">
+        <v>5.3</v>
+      </c>
+      <c r="BG136">
+        <v>0</v>
+      </c>
+      <c r="BH136">
+        <v>0</v>
+      </c>
+      <c r="BI136">
+        <v>1.09</v>
+      </c>
+      <c r="BJ136">
+        <v>4.9</v>
+      </c>
+      <c r="BK136">
+        <v>1.22</v>
+      </c>
+      <c r="BL136">
+        <v>3.35</v>
+      </c>
+      <c r="BM136">
+        <v>1.41</v>
+      </c>
+      <c r="BN136">
+        <v>2.52</v>
+      </c>
+      <c r="BO136">
+        <v>1.77</v>
+      </c>
+      <c r="BP136">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7697215</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45557.875</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137" t="s">
+        <v>73</v>
+      </c>
+      <c r="H137" t="s">
+        <v>76</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>2</v>
+      </c>
+      <c r="K137">
+        <v>2</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
+      <c r="M137">
+        <v>2</v>
+      </c>
+      <c r="N137">
+        <v>4</v>
+      </c>
+      <c r="O137" t="s">
+        <v>189</v>
+      </c>
+      <c r="P137" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q137">
+        <v>2</v>
+      </c>
+      <c r="R137">
+        <v>2.63</v>
+      </c>
+      <c r="S137">
+        <v>4.2</v>
+      </c>
+      <c r="T137">
+        <v>1.17</v>
+      </c>
+      <c r="U137">
+        <v>4.65</v>
+      </c>
+      <c r="V137">
+        <v>1.88</v>
+      </c>
+      <c r="W137">
+        <v>1.92</v>
+      </c>
+      <c r="X137">
+        <v>3.62</v>
+      </c>
+      <c r="Y137">
+        <v>1.26</v>
+      </c>
+      <c r="Z137">
+        <v>1.62</v>
+      </c>
+      <c r="AA137">
+        <v>4.33</v>
+      </c>
+      <c r="AB137">
+        <v>4</v>
+      </c>
+      <c r="AC137">
+        <v>1.01</v>
+      </c>
+      <c r="AD137">
+        <v>35</v>
+      </c>
+      <c r="AE137">
+        <v>1.07</v>
+      </c>
+      <c r="AF137">
+        <v>8</v>
+      </c>
+      <c r="AG137">
+        <v>1.3</v>
+      </c>
+      <c r="AH137">
+        <v>3.2</v>
+      </c>
+      <c r="AI137">
+        <v>1.33</v>
+      </c>
+      <c r="AJ137">
+        <v>3</v>
+      </c>
+      <c r="AK137">
+        <v>1.21</v>
+      </c>
+      <c r="AL137">
+        <v>1.18</v>
+      </c>
+      <c r="AM137">
+        <v>2.15</v>
+      </c>
+      <c r="AN137">
+        <v>2.18</v>
+      </c>
+      <c r="AO137">
+        <v>1</v>
+      </c>
+      <c r="AP137">
+        <v>2.08</v>
+      </c>
+      <c r="AQ137">
+        <v>1</v>
+      </c>
+      <c r="AR137">
+        <v>2.25</v>
+      </c>
+      <c r="AS137">
+        <v>1.81</v>
+      </c>
+      <c r="AT137">
+        <v>4.06</v>
+      </c>
+      <c r="AU137">
+        <v>-1</v>
+      </c>
+      <c r="AV137">
+        <v>-1</v>
+      </c>
+      <c r="AW137">
+        <v>-1</v>
+      </c>
+      <c r="AX137">
+        <v>-1</v>
+      </c>
+      <c r="AY137">
+        <v>-1</v>
+      </c>
+      <c r="AZ137">
+        <v>-1</v>
+      </c>
+      <c r="BA137">
+        <v>-1</v>
+      </c>
+      <c r="BB137">
+        <v>-1</v>
+      </c>
+      <c r="BC137">
+        <v>-1</v>
+      </c>
+      <c r="BD137">
+        <v>1.24</v>
+      </c>
+      <c r="BE137">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF137">
+        <v>5.25</v>
+      </c>
+      <c r="BG137">
+        <v>0</v>
+      </c>
+      <c r="BH137">
+        <v>0</v>
+      </c>
+      <c r="BI137">
+        <v>1.15</v>
+      </c>
+      <c r="BJ137">
+        <v>4.75</v>
+      </c>
+      <c r="BK137">
+        <v>1.19</v>
+      </c>
+      <c r="BL137">
+        <v>3.62</v>
+      </c>
+      <c r="BM137">
+        <v>1.36</v>
+      </c>
+      <c r="BN137">
+        <v>2.61</v>
+      </c>
+      <c r="BO137">
+        <v>1.69</v>
+      </c>
+      <c r="BP137">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7697216</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45560.55208333334</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138" t="s">
+        <v>72</v>
+      </c>
+      <c r="H138" t="s">
+        <v>77</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>2</v>
+      </c>
+      <c r="K138">
+        <v>3</v>
+      </c>
+      <c r="L138">
+        <v>3</v>
+      </c>
+      <c r="M138">
+        <v>3</v>
+      </c>
+      <c r="N138">
+        <v>6</v>
+      </c>
+      <c r="O138" t="s">
+        <v>190</v>
+      </c>
+      <c r="P138" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q138">
+        <v>1.67</v>
+      </c>
+      <c r="R138">
+        <v>2.75</v>
+      </c>
+      <c r="S138">
+        <v>6.5</v>
+      </c>
+      <c r="T138">
+        <v>1.21</v>
+      </c>
+      <c r="U138">
+        <v>4.15</v>
+      </c>
+      <c r="V138">
+        <v>2.02</v>
+      </c>
+      <c r="W138">
+        <v>1.79</v>
+      </c>
+      <c r="X138">
+        <v>4.15</v>
+      </c>
+      <c r="Y138">
+        <v>1.21</v>
+      </c>
+      <c r="Z138">
+        <v>1.3</v>
+      </c>
+      <c r="AA138">
+        <v>5.6</v>
+      </c>
+      <c r="AB138">
+        <v>7</v>
+      </c>
+      <c r="AC138">
+        <v>1.01</v>
+      </c>
+      <c r="AD138">
+        <v>30</v>
+      </c>
+      <c r="AE138">
+        <v>1.07</v>
+      </c>
+      <c r="AF138">
+        <v>7</v>
+      </c>
+      <c r="AG138">
+        <v>1.36</v>
+      </c>
+      <c r="AH138">
+        <v>2.9</v>
+      </c>
+      <c r="AI138">
+        <v>1.57</v>
+      </c>
+      <c r="AJ138">
+        <v>2.25</v>
+      </c>
+      <c r="AK138">
+        <v>1.06</v>
+      </c>
+      <c r="AL138">
+        <v>1.12</v>
+      </c>
+      <c r="AM138">
+        <v>3.34</v>
+      </c>
+      <c r="AN138">
+        <v>1.36</v>
+      </c>
+      <c r="AO138">
+        <v>0.64</v>
+      </c>
+      <c r="AP138">
+        <v>1.33</v>
+      </c>
+      <c r="AQ138">
+        <v>0.67</v>
+      </c>
+      <c r="AR138">
+        <v>1.79</v>
+      </c>
+      <c r="AS138">
+        <v>1.58</v>
+      </c>
+      <c r="AT138">
+        <v>3.37</v>
+      </c>
+      <c r="AU138">
+        <v>10</v>
+      </c>
+      <c r="AV138">
+        <v>10</v>
+      </c>
+      <c r="AW138">
+        <v>8</v>
+      </c>
+      <c r="AX138">
+        <v>3</v>
+      </c>
+      <c r="AY138">
+        <v>18</v>
+      </c>
+      <c r="AZ138">
+        <v>13</v>
+      </c>
+      <c r="BA138">
+        <v>9</v>
+      </c>
+      <c r="BB138">
+        <v>6</v>
+      </c>
+      <c r="BC138">
+        <v>15</v>
+      </c>
+      <c r="BD138">
+        <v>1.12</v>
+      </c>
+      <c r="BE138">
+        <v>13</v>
+      </c>
+      <c r="BF138">
+        <v>7.08</v>
+      </c>
+      <c r="BG138">
+        <v>0</v>
+      </c>
+      <c r="BH138">
+        <v>0</v>
+      </c>
+      <c r="BI138">
+        <v>1.15</v>
+      </c>
+      <c r="BJ138">
+        <v>4.75</v>
+      </c>
+      <c r="BK138">
+        <v>1.19</v>
+      </c>
+      <c r="BL138">
+        <v>3.58</v>
+      </c>
+      <c r="BM138">
+        <v>1.37</v>
+      </c>
+      <c r="BN138">
+        <v>2.58</v>
+      </c>
+      <c r="BO138">
+        <v>1.8</v>
+      </c>
+      <c r="BP138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7697217</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45560.67708333334</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139" t="s">
+        <v>70</v>
+      </c>
+      <c r="H139" t="s">
+        <v>81</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>3</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>3</v>
+      </c>
+      <c r="O139" t="s">
+        <v>191</v>
+      </c>
+      <c r="P139" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q139">
+        <v>1.91</v>
+      </c>
+      <c r="R139">
+        <v>2.6</v>
+      </c>
+      <c r="S139">
+        <v>4.5</v>
+      </c>
+      <c r="T139">
+        <v>1.21</v>
+      </c>
+      <c r="U139">
+        <v>4.15</v>
+      </c>
+      <c r="V139">
+        <v>2.05</v>
+      </c>
+      <c r="W139">
+        <v>1.77</v>
+      </c>
+      <c r="X139">
+        <v>4.15</v>
+      </c>
+      <c r="Y139">
+        <v>1.21</v>
+      </c>
+      <c r="Z139">
+        <v>1.51</v>
+      </c>
+      <c r="AA139">
+        <v>4.5</v>
+      </c>
+      <c r="AB139">
+        <v>4.75</v>
+      </c>
+      <c r="AC139">
+        <v>1.01</v>
+      </c>
+      <c r="AD139">
+        <v>17</v>
+      </c>
+      <c r="AE139">
+        <v>1.07</v>
+      </c>
+      <c r="AF139">
+        <v>7</v>
+      </c>
+      <c r="AG139">
+        <v>1.36</v>
+      </c>
+      <c r="AH139">
+        <v>2.9</v>
+      </c>
+      <c r="AI139">
+        <v>1.4</v>
+      </c>
+      <c r="AJ139">
+        <v>2.75</v>
+      </c>
+      <c r="AK139">
+        <v>1.15</v>
+      </c>
+      <c r="AL139">
+        <v>1.17</v>
+      </c>
+      <c r="AM139">
+        <v>2.44</v>
+      </c>
+      <c r="AN139">
+        <v>2.36</v>
+      </c>
+      <c r="AO139">
+        <v>1.55</v>
+      </c>
+      <c r="AP139">
+        <v>2.42</v>
+      </c>
+      <c r="AQ139">
+        <v>1.42</v>
+      </c>
+      <c r="AR139">
+        <v>2.2</v>
+      </c>
+      <c r="AS139">
+        <v>1.85</v>
+      </c>
+      <c r="AT139">
+        <v>4.05</v>
+      </c>
+      <c r="AU139">
+        <v>9</v>
+      </c>
+      <c r="AV139">
+        <v>2</v>
+      </c>
+      <c r="AW139">
+        <v>4</v>
+      </c>
+      <c r="AX139">
+        <v>8</v>
+      </c>
+      <c r="AY139">
+        <v>13</v>
+      </c>
+      <c r="AZ139">
+        <v>10</v>
+      </c>
+      <c r="BA139">
+        <v>8</v>
+      </c>
+      <c r="BB139">
+        <v>5</v>
+      </c>
+      <c r="BC139">
+        <v>13</v>
+      </c>
+      <c r="BD139">
+        <v>1.59</v>
+      </c>
+      <c r="BE139">
+        <v>9</v>
+      </c>
+      <c r="BF139">
+        <v>2.67</v>
+      </c>
+      <c r="BG139">
+        <v>0</v>
+      </c>
+      <c r="BH139">
+        <v>0</v>
+      </c>
+      <c r="BI139">
+        <v>1.09</v>
+      </c>
+      <c r="BJ139">
+        <v>4.95</v>
+      </c>
+      <c r="BK139">
+        <v>1.21</v>
+      </c>
+      <c r="BL139">
+        <v>3.44</v>
+      </c>
+      <c r="BM139">
+        <v>1.41</v>
+      </c>
+      <c r="BN139">
+        <v>2.52</v>
+      </c>
+      <c r="BO139">
+        <v>1.95</v>
+      </c>
+      <c r="BP139">
+        <v>1.77</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="285">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,15 @@
     <t>['13', '73', '90']</t>
   </si>
   <si>
+    <t>['71', '84']</t>
+  </si>
+  <si>
+    <t>['7', '12', '31', '42', '52', '86', '89']</t>
+  </si>
+  <si>
+    <t>['43', '51']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -851,6 +860,15 @@
   </si>
   <si>
     <t>['30', '43', '90']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['1', '67', '78']</t>
+  </si>
+  <si>
+    <t>['23', '69', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP139"/>
+  <dimension ref="A1:BP144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1883,7 +1901,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1964,7 +1982,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ4">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2167,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ5">
         <v>1.08</v>
@@ -2295,7 +2313,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2373,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2707,7 +2725,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -3119,7 +3137,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3325,7 +3343,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3609,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>1.27</v>
@@ -3818,7 +3836,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ13">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR13">
         <v>1.23</v>
@@ -4149,7 +4167,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4433,10 +4451,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ16">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4973,7 +4991,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5054,7 +5072,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ19">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR19">
         <v>1.54</v>
@@ -5179,7 +5197,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5463,10 +5481,10 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ21">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5591,7 +5609,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5672,7 +5690,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ22">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR22">
         <v>1.78</v>
@@ -5797,7 +5815,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5875,10 +5893,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ23">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR23">
         <v>1.8</v>
@@ -6003,7 +6021,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -6081,10 +6099,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ24">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR24">
         <v>1.96</v>
@@ -6209,7 +6227,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6287,7 +6305,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6415,7 +6433,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6493,7 +6511,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
         <v>0.58</v>
@@ -6827,7 +6845,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -7033,7 +7051,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q29">
         <v>7.53</v>
@@ -7114,7 +7132,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ29">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR29">
         <v>1.2</v>
@@ -7445,7 +7463,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7651,7 +7669,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7732,7 +7750,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ32">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR32">
         <v>1.74</v>
@@ -8141,10 +8159,10 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ34">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR34">
         <v>1.75</v>
@@ -8269,7 +8287,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8347,10 +8365,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ35">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR35">
         <v>1.9</v>
@@ -8681,7 +8699,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q37">
         <v>4.84</v>
@@ -8759,10 +8777,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR37">
         <v>1.56</v>
@@ -8887,7 +8905,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8965,10 +8983,10 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ38">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR38">
         <v>1.97</v>
@@ -9093,7 +9111,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9299,7 +9317,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9377,7 +9395,7 @@
         <v>2.33</v>
       </c>
       <c r="AP40">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9505,7 +9523,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9711,7 +9729,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9917,7 +9935,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -10123,7 +10141,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10201,7 +10219,7 @@
         <v>0.6</v>
       </c>
       <c r="AP44">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ44">
         <v>0.58</v>
@@ -10329,7 +10347,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10410,7 +10428,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ45">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR45">
         <v>2.14</v>
@@ -10535,7 +10553,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10613,7 +10631,7 @@
         <v>1.8</v>
       </c>
       <c r="AP46">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ46">
         <v>1.42</v>
@@ -10822,7 +10840,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ47">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR47">
         <v>1.67</v>
@@ -10947,7 +10965,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11028,7 +11046,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ48">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR48">
         <v>1.66</v>
@@ -11153,7 +11171,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11231,10 +11249,10 @@
         <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR49">
         <v>1.73</v>
@@ -11359,7 +11377,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11437,7 +11455,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11646,7 +11664,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ51">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR51">
         <v>2.1</v>
@@ -11771,7 +11789,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11849,10 +11867,10 @@
         <v>1.67</v>
       </c>
       <c r="AP52">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ52">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR52">
         <v>2.33</v>
@@ -11977,7 +11995,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -12183,7 +12201,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12261,7 +12279,7 @@
         <v>0.75</v>
       </c>
       <c r="AP54">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12389,7 +12407,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12595,7 +12613,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12676,7 +12694,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ56">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR56">
         <v>1.21</v>
@@ -12801,7 +12819,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -12879,7 +12897,7 @@
         <v>1.75</v>
       </c>
       <c r="AP57">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ57">
         <v>1.27</v>
@@ -13007,7 +13025,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -13085,7 +13103,7 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
         <v>0.58</v>
@@ -13213,7 +13231,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q59">
         <v>2.9</v>
@@ -13419,7 +13437,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13625,7 +13643,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -13706,7 +13724,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ61">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR61">
         <v>1.64</v>
@@ -13831,7 +13849,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13909,10 +13927,10 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ62">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR62">
         <v>1.76</v>
@@ -14037,7 +14055,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q63">
         <v>1.84</v>
@@ -14118,7 +14136,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ63">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR63">
         <v>1.93</v>
@@ -14243,7 +14261,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q64">
         <v>5.69</v>
@@ -14321,7 +14339,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ64">
         <v>1.27</v>
@@ -14449,7 +14467,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q65">
         <v>4.4</v>
@@ -14655,7 +14673,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14861,7 +14879,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14942,7 +14960,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ67">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR67">
         <v>1.91</v>
@@ -15067,7 +15085,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -15273,7 +15291,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q69">
         <v>1.85</v>
@@ -15351,7 +15369,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ69">
         <v>0.42</v>
@@ -15479,7 +15497,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q70">
         <v>3.7</v>
@@ -15557,10 +15575,10 @@
         <v>1.2</v>
       </c>
       <c r="AP70">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ70">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR70">
         <v>1.27</v>
@@ -15685,7 +15703,7 @@
         <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -15766,7 +15784,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ71">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR71">
         <v>1.79</v>
@@ -15891,7 +15909,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15969,7 +15987,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ72">
         <v>0.42</v>
@@ -16097,7 +16115,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q73">
         <v>3.85</v>
@@ -16178,7 +16196,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ73">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR73">
         <v>1.18</v>
@@ -16381,10 +16399,10 @@
         <v>2.4</v>
       </c>
       <c r="AP74">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ74">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR74">
         <v>2.07</v>
@@ -16509,7 +16527,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16715,7 +16733,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q76">
         <v>1.78</v>
@@ -16796,7 +16814,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ76">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR76">
         <v>2.08</v>
@@ -17002,7 +17020,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ77">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR77">
         <v>1.96</v>
@@ -17127,7 +17145,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q78">
         <v>2.54</v>
@@ -17205,7 +17223,7 @@
         <v>0.5</v>
       </c>
       <c r="AP78">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ78">
         <v>1</v>
@@ -17333,7 +17351,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q79">
         <v>5.9</v>
@@ -17411,10 +17429,10 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ79">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR79">
         <v>1.24</v>
@@ -17617,7 +17635,7 @@
         <v>0.17</v>
       </c>
       <c r="AP80">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ80">
         <v>0.42</v>
@@ -17745,7 +17763,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q81">
         <v>2.25</v>
@@ -17823,10 +17841,10 @@
         <v>0.6</v>
       </c>
       <c r="AP81">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ81">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR81">
         <v>1.86</v>
@@ -18157,7 +18175,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q83">
         <v>3.75</v>
@@ -18235,10 +18253,10 @@
         <v>0.67</v>
       </c>
       <c r="AP83">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ83">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR83">
         <v>1.3</v>
@@ -18363,7 +18381,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q84">
         <v>1.67</v>
@@ -18441,10 +18459,10 @@
         <v>1.17</v>
       </c>
       <c r="AP84">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ84">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR84">
         <v>1.85</v>
@@ -18647,7 +18665,7 @@
         <v>1.33</v>
       </c>
       <c r="AP85">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
         <v>1.08</v>
@@ -18775,7 +18793,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -19062,7 +19080,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ87">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR87">
         <v>1.92</v>
@@ -19187,7 +19205,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q88">
         <v>2</v>
@@ -19599,7 +19617,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19677,7 +19695,7 @@
         <v>1.14</v>
       </c>
       <c r="AP90">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ90">
         <v>1.08</v>
@@ -19805,7 +19823,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -19883,7 +19901,7 @@
         <v>1.43</v>
       </c>
       <c r="AP91">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ91">
         <v>1.42</v>
@@ -20011,7 +20029,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q92">
         <v>2.8</v>
@@ -20298,7 +20316,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ93">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR93">
         <v>2</v>
@@ -20423,7 +20441,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q94">
         <v>3.75</v>
@@ -20629,7 +20647,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q95">
         <v>2.51</v>
@@ -20707,10 +20725,10 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ95">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR95">
         <v>1.93</v>
@@ -20913,10 +20931,10 @@
         <v>1.29</v>
       </c>
       <c r="AP96">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ96">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR96">
         <v>1.96</v>
@@ -21041,7 +21059,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q97">
         <v>3.44</v>
@@ -21119,10 +21137,10 @@
         <v>1.75</v>
       </c>
       <c r="AP97">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ97">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR97">
         <v>2.01</v>
@@ -21943,7 +21961,7 @@
         <v>1.13</v>
       </c>
       <c r="AP101">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ101">
         <v>1.08</v>
@@ -22071,7 +22089,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q102">
         <v>1.44</v>
@@ -22277,7 +22295,7 @@
         <v>96</v>
       </c>
       <c r="P103" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22355,10 +22373,10 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ103">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR103">
         <v>1.86</v>
@@ -22483,7 +22501,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q104">
         <v>1.57</v>
@@ -22561,10 +22579,10 @@
         <v>0.88</v>
       </c>
       <c r="AP104">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ104">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR104">
         <v>1.92</v>
@@ -22689,7 +22707,7 @@
         <v>165</v>
       </c>
       <c r="P105" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q105">
         <v>3.2</v>
@@ -22770,7 +22788,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ105">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR105">
         <v>1.75</v>
@@ -22976,7 +22994,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ106">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR106">
         <v>1.94</v>
@@ -23179,7 +23197,7 @@
         <v>1.63</v>
       </c>
       <c r="AP107">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ107">
         <v>1.42</v>
@@ -23307,7 +23325,7 @@
         <v>91</v>
       </c>
       <c r="P108" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q108">
         <v>2.4</v>
@@ -23385,10 +23403,10 @@
         <v>1.75</v>
       </c>
       <c r="AP108">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ108">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR108">
         <v>2.16</v>
@@ -23591,7 +23609,7 @@
         <v>1.38</v>
       </c>
       <c r="AP109">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ109">
         <v>1</v>
@@ -23925,7 +23943,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q111">
         <v>3.4</v>
@@ -24131,7 +24149,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24209,7 +24227,7 @@
         <v>1.44</v>
       </c>
       <c r="AP112">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ112">
         <v>1.27</v>
@@ -24418,7 +24436,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ113">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR113">
         <v>2.18</v>
@@ -24543,7 +24561,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -24749,7 +24767,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q115">
         <v>4.5</v>
@@ -24955,7 +24973,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q116">
         <v>1.53</v>
@@ -25033,7 +25051,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ116">
         <v>0.58</v>
@@ -25161,7 +25179,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q117">
         <v>2.8</v>
@@ -25242,7 +25260,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ117">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR117">
         <v>1.66</v>
@@ -25367,7 +25385,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q118">
         <v>3.99</v>
@@ -25448,7 +25466,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ118">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR118">
         <v>1.85</v>
@@ -25573,7 +25591,7 @@
         <v>175</v>
       </c>
       <c r="P119" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q119">
         <v>3.83</v>
@@ -25651,7 +25669,7 @@
         <v>1.44</v>
       </c>
       <c r="AP119">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ119">
         <v>1.42</v>
@@ -25860,7 +25878,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ120">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR120">
         <v>1.8</v>
@@ -26063,7 +26081,7 @@
         <v>0.4</v>
       </c>
       <c r="AP121">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ121">
         <v>0.42</v>
@@ -26191,7 +26209,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q122">
         <v>3.48</v>
@@ -26272,7 +26290,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ122">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR122">
         <v>1.81</v>
@@ -26397,7 +26415,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q123">
         <v>2.58</v>
@@ -26475,7 +26493,7 @@
         <v>1.3</v>
       </c>
       <c r="AP123">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ123">
         <v>1.08</v>
@@ -26603,7 +26621,7 @@
         <v>91</v>
       </c>
       <c r="P124" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q124">
         <v>2.2</v>
@@ -26681,7 +26699,7 @@
         <v>0.8</v>
       </c>
       <c r="AP124">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ124">
         <v>1</v>
@@ -26809,7 +26827,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q125">
         <v>2.3</v>
@@ -27096,7 +27114,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ126">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR126">
         <v>1.31</v>
@@ -27221,7 +27239,7 @@
         <v>91</v>
       </c>
       <c r="P127" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q127">
         <v>3.62</v>
@@ -27299,10 +27317,10 @@
         <v>1.89</v>
       </c>
       <c r="AP127">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ127">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR127">
         <v>1.93</v>
@@ -27508,7 +27526,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ128">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR128">
         <v>1.82</v>
@@ -27839,7 +27857,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q130">
         <v>3.1</v>
@@ -28045,7 +28063,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q131">
         <v>1.5</v>
@@ -28126,7 +28144,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ131">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR131">
         <v>2.16</v>
@@ -28251,7 +28269,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q132">
         <v>1.99</v>
@@ -28329,7 +28347,7 @@
         <v>1.1</v>
       </c>
       <c r="AP132">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ132">
         <v>1</v>
@@ -28457,7 +28475,7 @@
         <v>91</v>
       </c>
       <c r="P133" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q133">
         <v>5.24</v>
@@ -28535,10 +28553,10 @@
         <v>2</v>
       </c>
       <c r="AP133">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ133">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR133">
         <v>1.79</v>
@@ -28663,7 +28681,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q134">
         <v>1.95</v>
@@ -28741,7 +28759,7 @@
         <v>0.55</v>
       </c>
       <c r="AP134">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ134">
         <v>0.58</v>
@@ -29281,7 +29299,7 @@
         <v>189</v>
       </c>
       <c r="P137" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -29359,7 +29377,7 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ137">
         <v>1</v>
@@ -29454,7 +29472,7 @@
         <v>69</v>
       </c>
       <c r="E138" s="2">
-        <v>45560.55208333334</v>
+        <v>45559.875</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -29487,7 +29505,7 @@
         <v>190</v>
       </c>
       <c r="P138" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q138">
         <v>1.67</v>
@@ -29568,7 +29586,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ138">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR138">
         <v>1.79</v>
@@ -29580,31 +29598,31 @@
         <v>3.37</v>
       </c>
       <c r="AU138">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AV138">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AW138">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AX138">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY138">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="AZ138">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="BA138">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BB138">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BC138">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="BD138">
         <v>1.12</v>
@@ -29660,7 +29678,7 @@
         <v>69</v>
       </c>
       <c r="E139" s="2">
-        <v>45560.67708333334</v>
+        <v>45559.875</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -29786,31 +29804,31 @@
         <v>4.05</v>
       </c>
       <c r="AU139">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AV139">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AW139">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AX139">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AY139">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="AZ139">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BA139">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BB139">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BC139">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="BD139">
         <v>1.59</v>
@@ -29849,6 +29867,1036 @@
         <v>1.95</v>
       </c>
       <c r="BP139">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7697219</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45564.45833333334</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+      <c r="G140" t="s">
+        <v>80</v>
+      </c>
+      <c r="H140" t="s">
+        <v>77</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>2</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>3</v>
+      </c>
+      <c r="O140" t="s">
+        <v>192</v>
+      </c>
+      <c r="P140" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q140">
+        <v>2.38</v>
+      </c>
+      <c r="R140">
+        <v>2.5</v>
+      </c>
+      <c r="S140">
+        <v>3.6</v>
+      </c>
+      <c r="T140">
+        <v>1.25</v>
+      </c>
+      <c r="U140">
+        <v>3.75</v>
+      </c>
+      <c r="V140">
+        <v>2.1</v>
+      </c>
+      <c r="W140">
+        <v>1.67</v>
+      </c>
+      <c r="X140">
+        <v>4.5</v>
+      </c>
+      <c r="Y140">
+        <v>1.17</v>
+      </c>
+      <c r="Z140">
+        <v>1.83</v>
+      </c>
+      <c r="AA140">
+        <v>3.7</v>
+      </c>
+      <c r="AB140">
+        <v>3.4</v>
+      </c>
+      <c r="AC140">
+        <v>1.01</v>
+      </c>
+      <c r="AD140">
+        <v>17</v>
+      </c>
+      <c r="AE140">
+        <v>1.08</v>
+      </c>
+      <c r="AF140">
+        <v>6.5</v>
+      </c>
+      <c r="AG140">
+        <v>1.5</v>
+      </c>
+      <c r="AH140">
+        <v>2.4</v>
+      </c>
+      <c r="AI140">
+        <v>1.44</v>
+      </c>
+      <c r="AJ140">
+        <v>2.63</v>
+      </c>
+      <c r="AK140">
+        <v>1.22</v>
+      </c>
+      <c r="AL140">
+        <v>1.2</v>
+      </c>
+      <c r="AM140">
+        <v>1.85</v>
+      </c>
+      <c r="AN140">
+        <v>1.09</v>
+      </c>
+      <c r="AO140">
+        <v>0.67</v>
+      </c>
+      <c r="AP140">
+        <v>1.25</v>
+      </c>
+      <c r="AQ140">
+        <v>0.62</v>
+      </c>
+      <c r="AR140">
+        <v>1.27</v>
+      </c>
+      <c r="AS140">
+        <v>1.58</v>
+      </c>
+      <c r="AT140">
+        <v>2.85</v>
+      </c>
+      <c r="AU140">
+        <v>5</v>
+      </c>
+      <c r="AV140">
+        <v>6</v>
+      </c>
+      <c r="AW140">
+        <v>11</v>
+      </c>
+      <c r="AX140">
+        <v>7</v>
+      </c>
+      <c r="AY140">
+        <v>16</v>
+      </c>
+      <c r="AZ140">
+        <v>13</v>
+      </c>
+      <c r="BA140">
+        <v>11</v>
+      </c>
+      <c r="BB140">
+        <v>4</v>
+      </c>
+      <c r="BC140">
+        <v>15</v>
+      </c>
+      <c r="BD140">
+        <v>1.45</v>
+      </c>
+      <c r="BE140">
+        <v>9.5</v>
+      </c>
+      <c r="BF140">
+        <v>3.18</v>
+      </c>
+      <c r="BG140">
+        <v>0</v>
+      </c>
+      <c r="BH140">
+        <v>0</v>
+      </c>
+      <c r="BI140">
+        <v>1.12</v>
+      </c>
+      <c r="BJ140">
+        <v>4.45</v>
+      </c>
+      <c r="BK140">
+        <v>1.26</v>
+      </c>
+      <c r="BL140">
+        <v>3.08</v>
+      </c>
+      <c r="BM140">
+        <v>1.55</v>
+      </c>
+      <c r="BN140">
+        <v>2.38</v>
+      </c>
+      <c r="BO140">
+        <v>1.85</v>
+      </c>
+      <c r="BP140">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7697218</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45564.45833333334</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141" t="s">
+        <v>78</v>
+      </c>
+      <c r="H141" t="s">
+        <v>71</v>
+      </c>
+      <c r="I141">
+        <v>4</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>4</v>
+      </c>
+      <c r="L141">
+        <v>7</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>8</v>
+      </c>
+      <c r="O141" t="s">
+        <v>193</v>
+      </c>
+      <c r="P141" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q141">
+        <v>2.5</v>
+      </c>
+      <c r="R141">
+        <v>2.4</v>
+      </c>
+      <c r="S141">
+        <v>3.3</v>
+      </c>
+      <c r="T141">
+        <v>1.21</v>
+      </c>
+      <c r="U141">
+        <v>4.15</v>
+      </c>
+      <c r="V141">
+        <v>2.05</v>
+      </c>
+      <c r="W141">
+        <v>1.77</v>
+      </c>
+      <c r="X141">
+        <v>4.15</v>
+      </c>
+      <c r="Y141">
+        <v>1.21</v>
+      </c>
+      <c r="Z141">
+        <v>2.05</v>
+      </c>
+      <c r="AA141">
+        <v>3.7</v>
+      </c>
+      <c r="AB141">
+        <v>2.8</v>
+      </c>
+      <c r="AC141">
+        <v>1.01</v>
+      </c>
+      <c r="AD141">
+        <v>17</v>
+      </c>
+      <c r="AE141">
+        <v>1.08</v>
+      </c>
+      <c r="AF141">
+        <v>6.5</v>
+      </c>
+      <c r="AG141">
+        <v>1.36</v>
+      </c>
+      <c r="AH141">
+        <v>2.9</v>
+      </c>
+      <c r="AI141">
+        <v>1.33</v>
+      </c>
+      <c r="AJ141">
+        <v>3</v>
+      </c>
+      <c r="AK141">
+        <v>1.36</v>
+      </c>
+      <c r="AL141">
+        <v>1.23</v>
+      </c>
+      <c r="AM141">
+        <v>1.72</v>
+      </c>
+      <c r="AN141">
+        <v>0.92</v>
+      </c>
+      <c r="AO141">
+        <v>0.91</v>
+      </c>
+      <c r="AP141">
+        <v>1.08</v>
+      </c>
+      <c r="AQ141">
+        <v>0.83</v>
+      </c>
+      <c r="AR141">
+        <v>1.84</v>
+      </c>
+      <c r="AS141">
+        <v>1.63</v>
+      </c>
+      <c r="AT141">
+        <v>3.47</v>
+      </c>
+      <c r="AU141">
+        <v>10</v>
+      </c>
+      <c r="AV141">
+        <v>6</v>
+      </c>
+      <c r="AW141">
+        <v>8</v>
+      </c>
+      <c r="AX141">
+        <v>6</v>
+      </c>
+      <c r="AY141">
+        <v>18</v>
+      </c>
+      <c r="AZ141">
+        <v>12</v>
+      </c>
+      <c r="BA141">
+        <v>5</v>
+      </c>
+      <c r="BB141">
+        <v>6</v>
+      </c>
+      <c r="BC141">
+        <v>11</v>
+      </c>
+      <c r="BD141">
+        <v>1.64</v>
+      </c>
+      <c r="BE141">
+        <v>9</v>
+      </c>
+      <c r="BF141">
+        <v>2.55</v>
+      </c>
+      <c r="BG141">
+        <v>0</v>
+      </c>
+      <c r="BH141">
+        <v>0</v>
+      </c>
+      <c r="BI141">
+        <v>1.11</v>
+      </c>
+      <c r="BJ141">
+        <v>4.65</v>
+      </c>
+      <c r="BK141">
+        <v>1.24</v>
+      </c>
+      <c r="BL141">
+        <v>3.22</v>
+      </c>
+      <c r="BM141">
+        <v>1.53</v>
+      </c>
+      <c r="BN141">
+        <v>2.46</v>
+      </c>
+      <c r="BO141">
+        <v>1.77</v>
+      </c>
+      <c r="BP141">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7697220</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45564.45833333334</v>
+      </c>
+      <c r="F142">
+        <v>2</v>
+      </c>
+      <c r="G142" t="s">
+        <v>81</v>
+      </c>
+      <c r="H142" t="s">
+        <v>75</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>1</v>
+      </c>
+      <c r="O142" t="s">
+        <v>91</v>
+      </c>
+      <c r="P142" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q142">
+        <v>3.4</v>
+      </c>
+      <c r="R142">
+        <v>2.4</v>
+      </c>
+      <c r="S142">
+        <v>2.5</v>
+      </c>
+      <c r="T142">
+        <v>1.25</v>
+      </c>
+      <c r="U142">
+        <v>3.75</v>
+      </c>
+      <c r="V142">
+        <v>2.2</v>
+      </c>
+      <c r="W142">
+        <v>1.62</v>
+      </c>
+      <c r="X142">
+        <v>4.5</v>
+      </c>
+      <c r="Y142">
+        <v>1.17</v>
+      </c>
+      <c r="Z142">
+        <v>2.87</v>
+      </c>
+      <c r="AA142">
+        <v>3.6</v>
+      </c>
+      <c r="AB142">
+        <v>2.05</v>
+      </c>
+      <c r="AC142">
+        <v>1.01</v>
+      </c>
+      <c r="AD142">
+        <v>17</v>
+      </c>
+      <c r="AE142">
+        <v>1.11</v>
+      </c>
+      <c r="AF142">
+        <v>5.5</v>
+      </c>
+      <c r="AG142">
+        <v>1.4</v>
+      </c>
+      <c r="AH142">
+        <v>2.75</v>
+      </c>
+      <c r="AI142">
+        <v>1.5</v>
+      </c>
+      <c r="AJ142">
+        <v>2.5</v>
+      </c>
+      <c r="AK142">
+        <v>1.62</v>
+      </c>
+      <c r="AL142">
+        <v>1.2</v>
+      </c>
+      <c r="AM142">
+        <v>1.44</v>
+      </c>
+      <c r="AN142">
+        <v>1.45</v>
+      </c>
+      <c r="AO142">
+        <v>2.09</v>
+      </c>
+      <c r="AP142">
+        <v>1.33</v>
+      </c>
+      <c r="AQ142">
+        <v>2.17</v>
+      </c>
+      <c r="AR142">
+        <v>1.94</v>
+      </c>
+      <c r="AS142">
+        <v>1.86</v>
+      </c>
+      <c r="AT142">
+        <v>3.8</v>
+      </c>
+      <c r="AU142">
+        <v>2</v>
+      </c>
+      <c r="AV142">
+        <v>10</v>
+      </c>
+      <c r="AW142">
+        <v>6</v>
+      </c>
+      <c r="AX142">
+        <v>10</v>
+      </c>
+      <c r="AY142">
+        <v>8</v>
+      </c>
+      <c r="AZ142">
+        <v>20</v>
+      </c>
+      <c r="BA142">
+        <v>3</v>
+      </c>
+      <c r="BB142">
+        <v>8</v>
+      </c>
+      <c r="BC142">
+        <v>11</v>
+      </c>
+      <c r="BD142">
+        <v>1.95</v>
+      </c>
+      <c r="BE142">
+        <v>9</v>
+      </c>
+      <c r="BF142">
+        <v>2.05</v>
+      </c>
+      <c r="BG142">
+        <v>0</v>
+      </c>
+      <c r="BH142">
+        <v>0</v>
+      </c>
+      <c r="BI142">
+        <v>0</v>
+      </c>
+      <c r="BJ142">
+        <v>0</v>
+      </c>
+      <c r="BK142">
+        <v>1.18</v>
+      </c>
+      <c r="BL142">
+        <v>3.66</v>
+      </c>
+      <c r="BM142">
+        <v>1.37</v>
+      </c>
+      <c r="BN142">
+        <v>2.85</v>
+      </c>
+      <c r="BO142">
+        <v>1.77</v>
+      </c>
+      <c r="BP142">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7697221</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45564.58333333334</v>
+      </c>
+      <c r="F143">
+        <v>2</v>
+      </c>
+      <c r="G143" t="s">
+        <v>74</v>
+      </c>
+      <c r="H143" t="s">
+        <v>72</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>3</v>
+      </c>
+      <c r="N143">
+        <v>4</v>
+      </c>
+      <c r="O143" t="s">
+        <v>88</v>
+      </c>
+      <c r="P143" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q143">
+        <v>3.25</v>
+      </c>
+      <c r="R143">
+        <v>2.4</v>
+      </c>
+      <c r="S143">
+        <v>2.6</v>
+      </c>
+      <c r="T143">
+        <v>1.25</v>
+      </c>
+      <c r="U143">
+        <v>3.75</v>
+      </c>
+      <c r="V143">
+        <v>2.2</v>
+      </c>
+      <c r="W143">
+        <v>1.62</v>
+      </c>
+      <c r="X143">
+        <v>4.5</v>
+      </c>
+      <c r="Y143">
+        <v>1.17</v>
+      </c>
+      <c r="Z143">
+        <v>2.93</v>
+      </c>
+      <c r="AA143">
+        <v>3.82</v>
+      </c>
+      <c r="AB143">
+        <v>2.16</v>
+      </c>
+      <c r="AC143">
+        <v>1.01</v>
+      </c>
+      <c r="AD143">
+        <v>17</v>
+      </c>
+      <c r="AE143">
+        <v>1.11</v>
+      </c>
+      <c r="AF143">
+        <v>5.5</v>
+      </c>
+      <c r="AG143">
+        <v>1.44</v>
+      </c>
+      <c r="AH143">
+        <v>2.6</v>
+      </c>
+      <c r="AI143">
+        <v>1.5</v>
+      </c>
+      <c r="AJ143">
+        <v>2.5</v>
+      </c>
+      <c r="AK143">
+        <v>1.67</v>
+      </c>
+      <c r="AL143">
+        <v>1.24</v>
+      </c>
+      <c r="AM143">
+        <v>1.38</v>
+      </c>
+      <c r="AN143">
+        <v>1.09</v>
+      </c>
+      <c r="AO143">
+        <v>1.09</v>
+      </c>
+      <c r="AP143">
+        <v>1</v>
+      </c>
+      <c r="AQ143">
+        <v>1.25</v>
+      </c>
+      <c r="AR143">
+        <v>1.7</v>
+      </c>
+      <c r="AS143">
+        <v>1.79</v>
+      </c>
+      <c r="AT143">
+        <v>3.49</v>
+      </c>
+      <c r="AU143">
+        <v>3</v>
+      </c>
+      <c r="AV143">
+        <v>5</v>
+      </c>
+      <c r="AW143">
+        <v>2</v>
+      </c>
+      <c r="AX143">
+        <v>4</v>
+      </c>
+      <c r="AY143">
+        <v>5</v>
+      </c>
+      <c r="AZ143">
+        <v>9</v>
+      </c>
+      <c r="BA143">
+        <v>6</v>
+      </c>
+      <c r="BB143">
+        <v>8</v>
+      </c>
+      <c r="BC143">
+        <v>14</v>
+      </c>
+      <c r="BD143">
+        <v>2.42</v>
+      </c>
+      <c r="BE143">
+        <v>9</v>
+      </c>
+      <c r="BF143">
+        <v>1.75</v>
+      </c>
+      <c r="BG143">
+        <v>0</v>
+      </c>
+      <c r="BH143">
+        <v>0</v>
+      </c>
+      <c r="BI143">
+        <v>1.08</v>
+      </c>
+      <c r="BJ143">
+        <v>5.1</v>
+      </c>
+      <c r="BK143">
+        <v>1.2</v>
+      </c>
+      <c r="BL143">
+        <v>3.54</v>
+      </c>
+      <c r="BM143">
+        <v>1.39</v>
+      </c>
+      <c r="BN143">
+        <v>2.59</v>
+      </c>
+      <c r="BO143">
+        <v>1.74</v>
+      </c>
+      <c r="BP143">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7697222</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45564.67708333334</v>
+      </c>
+      <c r="F144">
+        <v>2</v>
+      </c>
+      <c r="G144" t="s">
+        <v>73</v>
+      </c>
+      <c r="H144" t="s">
+        <v>70</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>2</v>
+      </c>
+      <c r="L144">
+        <v>2</v>
+      </c>
+      <c r="M144">
+        <v>3</v>
+      </c>
+      <c r="N144">
+        <v>5</v>
+      </c>
+      <c r="O144" t="s">
+        <v>194</v>
+      </c>
+      <c r="P144" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q144">
+        <v>2.88</v>
+      </c>
+      <c r="R144">
+        <v>2.5</v>
+      </c>
+      <c r="S144">
+        <v>2.88</v>
+      </c>
+      <c r="T144">
+        <v>1.25</v>
+      </c>
+      <c r="U144">
+        <v>3.75</v>
+      </c>
+      <c r="V144">
+        <v>2.1</v>
+      </c>
+      <c r="W144">
+        <v>1.67</v>
+      </c>
+      <c r="X144">
+        <v>4.33</v>
+      </c>
+      <c r="Y144">
+        <v>1.2</v>
+      </c>
+      <c r="Z144">
+        <v>2.25</v>
+      </c>
+      <c r="AA144">
+        <v>3.6</v>
+      </c>
+      <c r="AB144">
+        <v>2.6</v>
+      </c>
+      <c r="AC144">
+        <v>1.01</v>
+      </c>
+      <c r="AD144">
+        <v>17</v>
+      </c>
+      <c r="AE144">
+        <v>1.08</v>
+      </c>
+      <c r="AF144">
+        <v>6.5</v>
+      </c>
+      <c r="AG144">
+        <v>1.4</v>
+      </c>
+      <c r="AH144">
+        <v>2.75</v>
+      </c>
+      <c r="AI144">
+        <v>1.4</v>
+      </c>
+      <c r="AJ144">
+        <v>2.75</v>
+      </c>
+      <c r="AK144">
+        <v>1.57</v>
+      </c>
+      <c r="AL144">
+        <v>1.2</v>
+      </c>
+      <c r="AM144">
+        <v>1.45</v>
+      </c>
+      <c r="AN144">
+        <v>2.08</v>
+      </c>
+      <c r="AO144">
+        <v>2.09</v>
+      </c>
+      <c r="AP144">
+        <v>1.92</v>
+      </c>
+      <c r="AQ144">
+        <v>2.17</v>
+      </c>
+      <c r="AR144">
+        <v>2.25</v>
+      </c>
+      <c r="AS144">
+        <v>1.89</v>
+      </c>
+      <c r="AT144">
+        <v>4.14</v>
+      </c>
+      <c r="AU144">
+        <v>5</v>
+      </c>
+      <c r="AV144">
+        <v>7</v>
+      </c>
+      <c r="AW144">
+        <v>7</v>
+      </c>
+      <c r="AX144">
+        <v>10</v>
+      </c>
+      <c r="AY144">
+        <v>12</v>
+      </c>
+      <c r="AZ144">
+        <v>17</v>
+      </c>
+      <c r="BA144">
+        <v>5</v>
+      </c>
+      <c r="BB144">
+        <v>2</v>
+      </c>
+      <c r="BC144">
+        <v>7</v>
+      </c>
+      <c r="BD144">
+        <v>1.83</v>
+      </c>
+      <c r="BE144">
+        <v>8.5</v>
+      </c>
+      <c r="BF144">
+        <v>2.2</v>
+      </c>
+      <c r="BG144">
+        <v>0</v>
+      </c>
+      <c r="BH144">
+        <v>0</v>
+      </c>
+      <c r="BI144">
+        <v>0</v>
+      </c>
+      <c r="BJ144">
+        <v>0</v>
+      </c>
+      <c r="BK144">
+        <v>1.19</v>
+      </c>
+      <c r="BL144">
+        <v>3.58</v>
+      </c>
+      <c r="BM144">
+        <v>1.37</v>
+      </c>
+      <c r="BN144">
+        <v>2.58</v>
+      </c>
+      <c r="BO144">
+        <v>1.95</v>
+      </c>
+      <c r="BP144">
         <v>1.77</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="286">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,13 +592,16 @@
     <t>['13', '73', '90']</t>
   </si>
   <si>
-    <t>['71', '84']</t>
-  </si>
-  <si>
     <t>['7', '12', '31', '42', '52', '86', '89']</t>
   </si>
   <si>
     <t>['43', '51']</t>
+  </si>
+  <si>
+    <t>['71', '84']</t>
+  </si>
+  <si>
+    <t>['18', '53', '90+4']</t>
   </si>
   <si>
     <t>['20']</t>
@@ -862,13 +865,13 @@
     <t>['30', '43', '90']</t>
   </si>
   <si>
-    <t>['54']</t>
+    <t>['23', '69', '90+3']</t>
   </si>
   <si>
     <t>['1', '67', '78']</t>
   </si>
   <si>
-    <t>['23', '69', '90+3']</t>
+    <t>['54']</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP144"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1901,7 +1904,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -2188,7 +2191,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ5">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2313,7 +2316,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2725,7 +2728,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2803,7 +2806,7 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -3137,7 +3140,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3343,7 +3346,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3424,7 +3427,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ11">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4039,7 +4042,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ14">
         <v>1.27</v>
@@ -4167,7 +4170,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4991,7 +4994,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5197,7 +5200,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5609,7 +5612,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5815,7 +5818,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6021,7 +6024,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -6227,7 +6230,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6433,7 +6436,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6845,7 +6848,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6923,10 +6926,10 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ28">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.42</v>
@@ -7051,7 +7054,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q29">
         <v>7.53</v>
@@ -7463,7 +7466,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7669,7 +7672,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7747,7 +7750,7 @@
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ32">
         <v>0.83</v>
@@ -8287,7 +8290,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8699,7 +8702,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q37">
         <v>4.84</v>
@@ -8905,7 +8908,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -9111,7 +9114,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9317,7 +9320,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9523,7 +9526,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9604,7 +9607,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ41">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.57</v>
@@ -9729,7 +9732,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9935,7 +9938,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -10141,7 +10144,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10347,7 +10350,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10553,7 +10556,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10837,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ47">
         <v>1.25</v>
@@ -10965,7 +10968,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11171,7 +11174,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11377,7 +11380,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11789,7 +11792,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11995,7 +11998,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -12076,7 +12079,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ53">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.86</v>
@@ -12201,7 +12204,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12407,7 +12410,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12613,7 +12616,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12819,7 +12822,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -13025,7 +13028,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -13231,7 +13234,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q59">
         <v>2.9</v>
@@ -13437,7 +13440,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13515,7 +13518,7 @@
         <v>1.67</v>
       </c>
       <c r="AP60">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ60">
         <v>1.42</v>
@@ -13643,7 +13646,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -13849,7 +13852,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14055,7 +14058,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q63">
         <v>1.84</v>
@@ -14261,7 +14264,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q64">
         <v>5.69</v>
@@ -14467,7 +14470,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q65">
         <v>4.4</v>
@@ -14673,7 +14676,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14879,7 +14882,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -15085,7 +15088,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -15166,7 +15169,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ68">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR68">
         <v>1.99</v>
@@ -15291,7 +15294,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q69">
         <v>1.85</v>
@@ -15497,7 +15500,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q70">
         <v>3.7</v>
@@ -15703,7 +15706,7 @@
         <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -15781,7 +15784,7 @@
         <v>1.83</v>
       </c>
       <c r="AP71">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ71">
         <v>2.17</v>
@@ -15909,7 +15912,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -16115,7 +16118,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q73">
         <v>3.85</v>
@@ -16527,7 +16530,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16733,7 +16736,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q76">
         <v>1.78</v>
@@ -17145,7 +17148,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q78">
         <v>2.54</v>
@@ -17351,7 +17354,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q79">
         <v>5.9</v>
@@ -17763,7 +17766,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q81">
         <v>2.25</v>
@@ -18175,7 +18178,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q83">
         <v>3.75</v>
@@ -18381,7 +18384,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q84">
         <v>1.67</v>
@@ -18668,7 +18671,7 @@
         <v>1</v>
       </c>
       <c r="AQ85">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>2.02</v>
@@ -18793,7 +18796,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -19205,7 +19208,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q88">
         <v>2</v>
@@ -19489,7 +19492,7 @@
         <v>0.14</v>
       </c>
       <c r="AP89">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ89">
         <v>0.42</v>
@@ -19617,7 +19620,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19698,7 +19701,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ90">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>1.94</v>
@@ -19823,7 +19826,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -20029,7 +20032,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q92">
         <v>2.8</v>
@@ -20441,7 +20444,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q94">
         <v>3.75</v>
@@ -20647,7 +20650,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q95">
         <v>2.51</v>
@@ -21059,7 +21062,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q97">
         <v>3.44</v>
@@ -21964,7 +21967,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ101">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR101">
         <v>1.23</v>
@@ -22089,7 +22092,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q102">
         <v>1.44</v>
@@ -22295,7 +22298,7 @@
         <v>96</v>
       </c>
       <c r="P103" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22501,7 +22504,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q104">
         <v>1.57</v>
@@ -22707,7 +22710,7 @@
         <v>165</v>
       </c>
       <c r="P105" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q105">
         <v>3.2</v>
@@ -22785,7 +22788,7 @@
         <v>1.86</v>
       </c>
       <c r="AP105">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ105">
         <v>2.17</v>
@@ -23325,7 +23328,7 @@
         <v>91</v>
       </c>
       <c r="P108" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q108">
         <v>2.4</v>
@@ -23943,7 +23946,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q111">
         <v>3.4</v>
@@ -24149,7 +24152,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24561,7 +24564,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -24642,7 +24645,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ114">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR114">
         <v>2.25</v>
@@ -24767,7 +24770,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q115">
         <v>4.5</v>
@@ -24973,7 +24976,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q116">
         <v>1.53</v>
@@ -25179,7 +25182,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q117">
         <v>2.8</v>
@@ -25385,7 +25388,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q118">
         <v>3.99</v>
@@ -25591,7 +25594,7 @@
         <v>175</v>
       </c>
       <c r="P119" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q119">
         <v>3.83</v>
@@ -25875,7 +25878,7 @@
         <v>0.78</v>
       </c>
       <c r="AP120">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ120">
         <v>0.62</v>
@@ -26209,7 +26212,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q122">
         <v>3.48</v>
@@ -26415,7 +26418,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q123">
         <v>2.58</v>
@@ -26496,7 +26499,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ123">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR123">
         <v>1.96</v>
@@ -26621,7 +26624,7 @@
         <v>91</v>
       </c>
       <c r="P124" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q124">
         <v>2.2</v>
@@ -26827,7 +26830,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q125">
         <v>2.3</v>
@@ -27239,7 +27242,7 @@
         <v>91</v>
       </c>
       <c r="P127" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q127">
         <v>3.62</v>
@@ -27729,7 +27732,7 @@
         <v>0.6</v>
       </c>
       <c r="AP129">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ129">
         <v>0.58</v>
@@ -27857,7 +27860,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q130">
         <v>3.1</v>
@@ -28063,7 +28066,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q131">
         <v>1.5</v>
@@ -28227,7 +28230,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>7294917</v>
+        <v>7294913</v>
       </c>
       <c r="C132" t="s">
         <v>68</v>
@@ -28242,43 +28245,43 @@
         <v>22</v>
       </c>
       <c r="G132" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H132" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L132">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M132">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O132" t="s">
-        <v>185</v>
+        <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="Q132">
-        <v>1.99</v>
+        <v>5.24</v>
       </c>
       <c r="R132">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="S132">
-        <v>4.56</v>
+        <v>1.89</v>
       </c>
       <c r="T132">
         <v>1.18</v>
@@ -28287,115 +28290,115 @@
         <v>4.33</v>
       </c>
       <c r="V132">
+        <v>1.94</v>
+      </c>
+      <c r="W132">
         <v>1.85</v>
       </c>
-      <c r="W132">
-        <v>1.96</v>
-      </c>
       <c r="X132">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y132">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Z132">
-        <v>1.57</v>
+        <v>4.92</v>
       </c>
       <c r="AA132">
-        <v>4.45</v>
+        <v>4.72</v>
       </c>
       <c r="AB132">
-        <v>4.24</v>
+        <v>1.47</v>
       </c>
       <c r="AC132">
         <v>1.01</v>
       </c>
       <c r="AD132">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AE132">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AF132">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG132">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AH132">
-        <v>3.21</v>
+        <v>3.04</v>
       </c>
       <c r="AI132">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="AJ132">
-        <v>3.14</v>
+        <v>2.72</v>
       </c>
       <c r="AK132">
-        <v>1.21</v>
+        <v>2.63</v>
       </c>
       <c r="AL132">
         <v>1.18</v>
       </c>
       <c r="AM132">
-        <v>2.33</v>
+        <v>1.16</v>
       </c>
       <c r="AN132">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="AO132">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="AP132">
-        <v>1.92</v>
+        <v>1</v>
       </c>
       <c r="AQ132">
-        <v>1</v>
+        <v>2.17</v>
       </c>
       <c r="AR132">
-        <v>2.26</v>
+        <v>1.79</v>
       </c>
       <c r="AS132">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT132">
-        <v>4.26</v>
+        <v>3.65</v>
       </c>
       <c r="AU132">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AV132">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW132">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX132">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AY132">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AZ132">
         <v>13</v>
       </c>
       <c r="BA132">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BB132">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BC132">
         <v>12</v>
       </c>
       <c r="BD132">
-        <v>1.37</v>
+        <v>6.6</v>
       </c>
       <c r="BE132">
-        <v>8.9</v>
+        <v>10.5</v>
       </c>
       <c r="BF132">
-        <v>3.98</v>
+        <v>1.16</v>
       </c>
       <c r="BG132">
         <v>0</v>
@@ -28407,7 +28410,7 @@
         <v>1.12</v>
       </c>
       <c r="BJ132">
-        <v>5.05</v>
+        <v>5</v>
       </c>
       <c r="BK132">
         <v>1.25</v>
@@ -28416,16 +28419,16 @@
         <v>3.42</v>
       </c>
       <c r="BM132">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="BN132">
-        <v>2.51</v>
+        <v>2.48</v>
       </c>
       <c r="BO132">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="BP132">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="133" spans="1:68">
@@ -28433,7 +28436,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>7294913</v>
+        <v>7294917</v>
       </c>
       <c r="C133" t="s">
         <v>68</v>
@@ -28448,43 +28451,43 @@
         <v>22</v>
       </c>
       <c r="G133" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H133" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L133">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M133">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N133">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O133" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="Q133">
-        <v>5.24</v>
+        <v>1.99</v>
       </c>
       <c r="R133">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="S133">
-        <v>1.89</v>
+        <v>4.56</v>
       </c>
       <c r="T133">
         <v>1.18</v>
@@ -28493,115 +28496,115 @@
         <v>4.33</v>
       </c>
       <c r="V133">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="W133">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="X133">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y133">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Z133">
-        <v>4.92</v>
+        <v>1.57</v>
       </c>
       <c r="AA133">
-        <v>4.72</v>
+        <v>4.45</v>
       </c>
       <c r="AB133">
-        <v>1.47</v>
+        <v>4.24</v>
       </c>
       <c r="AC133">
         <v>1.01</v>
       </c>
       <c r="AD133">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AE133">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AF133">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG133">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AH133">
-        <v>3.04</v>
+        <v>3.21</v>
       </c>
       <c r="AI133">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="AJ133">
-        <v>2.72</v>
+        <v>3.14</v>
       </c>
       <c r="AK133">
-        <v>2.63</v>
+        <v>1.21</v>
       </c>
       <c r="AL133">
         <v>1.18</v>
       </c>
       <c r="AM133">
-        <v>1.16</v>
+        <v>2.33</v>
       </c>
       <c r="AN133">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="AO133">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="AP133">
-        <v>1</v>
+        <v>1.92</v>
       </c>
       <c r="AQ133">
-        <v>2.17</v>
+        <v>1</v>
       </c>
       <c r="AR133">
-        <v>1.79</v>
+        <v>2.26</v>
       </c>
       <c r="AS133">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT133">
-        <v>3.65</v>
+        <v>4.26</v>
       </c>
       <c r="AU133">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AV133">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX133">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AY133">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AZ133">
         <v>13</v>
       </c>
       <c r="BA133">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BB133">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BC133">
         <v>12</v>
       </c>
       <c r="BD133">
-        <v>6.6</v>
+        <v>1.37</v>
       </c>
       <c r="BE133">
-        <v>10.5</v>
+        <v>8.9</v>
       </c>
       <c r="BF133">
-        <v>1.16</v>
+        <v>3.98</v>
       </c>
       <c r="BG133">
         <v>0</v>
@@ -28613,7 +28616,7 @@
         <v>1.12</v>
       </c>
       <c r="BJ133">
-        <v>5</v>
+        <v>5.05</v>
       </c>
       <c r="BK133">
         <v>1.25</v>
@@ -28622,16 +28625,16 @@
         <v>3.42</v>
       </c>
       <c r="BM133">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="BN133">
-        <v>2.48</v>
+        <v>2.51</v>
       </c>
       <c r="BO133">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="BP133">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="134" spans="1:68">
@@ -28681,7 +28684,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q134">
         <v>1.95</v>
@@ -29174,7 +29177,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ136">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR136">
         <v>2.2</v>
@@ -29299,7 +29302,7 @@
         <v>189</v>
       </c>
       <c r="P137" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -29505,7 +29508,7 @@
         <v>190</v>
       </c>
       <c r="P138" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q138">
         <v>1.67</v>
@@ -29875,7 +29878,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>7697219</v>
+        <v>7697220</v>
       </c>
       <c r="C140" t="s">
         <v>68</v>
@@ -29884,16 +29887,16 @@
         <v>69</v>
       </c>
       <c r="E140" s="2">
-        <v>45564.45833333334</v>
+        <v>45563.875</v>
       </c>
       <c r="F140">
         <v>2</v>
       </c>
       <c r="G140" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H140" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -29905,28 +29908,28 @@
         <v>0</v>
       </c>
       <c r="L140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M140">
         <v>1</v>
       </c>
       <c r="N140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O140" t="s">
-        <v>192</v>
+        <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>282</v>
+        <v>99</v>
       </c>
       <c r="Q140">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="R140">
+        <v>2.4</v>
+      </c>
+      <c r="S140">
         <v>2.5</v>
-      </c>
-      <c r="S140">
-        <v>3.6</v>
       </c>
       <c r="T140">
         <v>1.25</v>
@@ -29935,10 +29938,10 @@
         <v>3.75</v>
       </c>
       <c r="V140">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W140">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X140">
         <v>4.5</v>
@@ -29947,13 +29950,13 @@
         <v>1.17</v>
       </c>
       <c r="Z140">
-        <v>1.83</v>
+        <v>2.87</v>
       </c>
       <c r="AA140">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AB140">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="AC140">
         <v>1.01</v>
@@ -29962,118 +29965,118 @@
         <v>17</v>
       </c>
       <c r="AE140">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AF140">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AG140">
+        <v>1.4</v>
+      </c>
+      <c r="AH140">
+        <v>2.75</v>
+      </c>
+      <c r="AI140">
         <v>1.5</v>
       </c>
-      <c r="AH140">
-        <v>2.4</v>
-      </c>
-      <c r="AI140">
-        <v>1.44</v>
-      </c>
       <c r="AJ140">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AK140">
-        <v>1.22</v>
+        <v>1.62</v>
       </c>
       <c r="AL140">
         <v>1.2</v>
       </c>
       <c r="AM140">
-        <v>1.85</v>
+        <v>1.44</v>
       </c>
       <c r="AN140">
-        <v>1.09</v>
+        <v>1.45</v>
       </c>
       <c r="AO140">
-        <v>0.67</v>
+        <v>2.09</v>
       </c>
       <c r="AP140">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AQ140">
-        <v>0.62</v>
+        <v>2.17</v>
       </c>
       <c r="AR140">
-        <v>1.27</v>
+        <v>1.94</v>
       </c>
       <c r="AS140">
-        <v>1.58</v>
+        <v>1.86</v>
       </c>
       <c r="AT140">
+        <v>3.8</v>
+      </c>
+      <c r="AU140">
+        <v>-1</v>
+      </c>
+      <c r="AV140">
+        <v>-1</v>
+      </c>
+      <c r="AW140">
+        <v>-1</v>
+      </c>
+      <c r="AX140">
+        <v>-1</v>
+      </c>
+      <c r="AY140">
+        <v>-1</v>
+      </c>
+      <c r="AZ140">
+        <v>-1</v>
+      </c>
+      <c r="BA140">
+        <v>-1</v>
+      </c>
+      <c r="BB140">
+        <v>-1</v>
+      </c>
+      <c r="BC140">
+        <v>-1</v>
+      </c>
+      <c r="BD140">
+        <v>1.95</v>
+      </c>
+      <c r="BE140">
+        <v>9</v>
+      </c>
+      <c r="BF140">
+        <v>2.05</v>
+      </c>
+      <c r="BG140">
+        <v>0</v>
+      </c>
+      <c r="BH140">
+        <v>0</v>
+      </c>
+      <c r="BI140">
+        <v>0</v>
+      </c>
+      <c r="BJ140">
+        <v>0</v>
+      </c>
+      <c r="BK140">
+        <v>1.18</v>
+      </c>
+      <c r="BL140">
+        <v>3.66</v>
+      </c>
+      <c r="BM140">
+        <v>1.37</v>
+      </c>
+      <c r="BN140">
         <v>2.85</v>
       </c>
-      <c r="AU140">
-        <v>5</v>
-      </c>
-      <c r="AV140">
-        <v>6</v>
-      </c>
-      <c r="AW140">
-        <v>11</v>
-      </c>
-      <c r="AX140">
-        <v>7</v>
-      </c>
-      <c r="AY140">
-        <v>16</v>
-      </c>
-      <c r="AZ140">
-        <v>13</v>
-      </c>
-      <c r="BA140">
-        <v>11</v>
-      </c>
-      <c r="BB140">
-        <v>4</v>
-      </c>
-      <c r="BC140">
-        <v>15</v>
-      </c>
-      <c r="BD140">
-        <v>1.45</v>
-      </c>
-      <c r="BE140">
-        <v>9.5</v>
-      </c>
-      <c r="BF140">
-        <v>3.18</v>
-      </c>
-      <c r="BG140">
-        <v>0</v>
-      </c>
-      <c r="BH140">
-        <v>0</v>
-      </c>
-      <c r="BI140">
-        <v>1.12</v>
-      </c>
-      <c r="BJ140">
-        <v>4.45</v>
-      </c>
-      <c r="BK140">
-        <v>1.26</v>
-      </c>
-      <c r="BL140">
-        <v>3.08</v>
-      </c>
-      <c r="BM140">
-        <v>1.55</v>
-      </c>
-      <c r="BN140">
-        <v>2.38</v>
-      </c>
       <c r="BO140">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="BP140">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="141" spans="1:68">
@@ -30090,7 +30093,7 @@
         <v>69</v>
       </c>
       <c r="E141" s="2">
-        <v>45564.45833333334</v>
+        <v>45563.875</v>
       </c>
       <c r="F141">
         <v>2</v>
@@ -30120,7 +30123,7 @@
         <v>8</v>
       </c>
       <c r="O141" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P141" t="s">
         <v>180</v>
@@ -30216,31 +30219,31 @@
         <v>3.47</v>
       </c>
       <c r="AU141">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AV141">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AW141">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AX141">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AY141">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="AZ141">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BA141">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BB141">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BC141">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BD141">
         <v>1.64</v>
@@ -30287,7 +30290,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>7697220</v>
+        <v>7697222</v>
       </c>
       <c r="C142" t="s">
         <v>68</v>
@@ -30296,49 +30299,49 @@
         <v>69</v>
       </c>
       <c r="E142" s="2">
-        <v>45564.45833333334</v>
+        <v>45563.875</v>
       </c>
       <c r="F142">
         <v>2</v>
       </c>
       <c r="G142" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H142" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N142">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O142" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="P142" t="s">
-        <v>99</v>
+        <v>283</v>
       </c>
       <c r="Q142">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="R142">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S142">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="T142">
         <v>1.25</v>
@@ -30347,25 +30350,25 @@
         <v>3.75</v>
       </c>
       <c r="V142">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W142">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X142">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Y142">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="Z142">
-        <v>2.87</v>
+        <v>2.25</v>
       </c>
       <c r="AA142">
         <v>3.6</v>
       </c>
       <c r="AB142">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="AC142">
         <v>1.01</v>
@@ -30374,10 +30377,10 @@
         <v>17</v>
       </c>
       <c r="AE142">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AF142">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AG142">
         <v>1.4</v>
@@ -30386,76 +30389,76 @@
         <v>2.75</v>
       </c>
       <c r="AI142">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AJ142">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AK142">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AL142">
         <v>1.2</v>
       </c>
       <c r="AM142">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="AN142">
-        <v>1.45</v>
+        <v>2.08</v>
       </c>
       <c r="AO142">
         <v>2.09</v>
       </c>
       <c r="AP142">
-        <v>1.33</v>
+        <v>1.92</v>
       </c>
       <c r="AQ142">
         <v>2.17</v>
       </c>
       <c r="AR142">
-        <v>1.94</v>
+        <v>2.25</v>
       </c>
       <c r="AS142">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="AT142">
-        <v>3.8</v>
+        <v>4.14</v>
       </c>
       <c r="AU142">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AV142">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AW142">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AX142">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AY142">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AZ142">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="BA142">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BB142">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BC142">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BD142">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="BE142">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF142">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="BG142">
         <v>0</v>
@@ -30470,22 +30473,22 @@
         <v>0</v>
       </c>
       <c r="BK142">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="BL142">
-        <v>3.66</v>
+        <v>3.58</v>
       </c>
       <c r="BM142">
         <v>1.37</v>
       </c>
       <c r="BN142">
-        <v>2.85</v>
+        <v>2.58</v>
       </c>
       <c r="BO142">
+        <v>1.95</v>
+      </c>
+      <c r="BP142">
         <v>1.77</v>
-      </c>
-      <c r="BP142">
-        <v>1.95</v>
       </c>
     </row>
     <row r="143" spans="1:68">
@@ -30502,7 +30505,7 @@
         <v>69</v>
       </c>
       <c r="E143" s="2">
-        <v>45564.58333333334</v>
+        <v>45563.875</v>
       </c>
       <c r="F143">
         <v>2</v>
@@ -30535,7 +30538,7 @@
         <v>88</v>
       </c>
       <c r="P143" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q143">
         <v>3.25</v>
@@ -30628,31 +30631,31 @@
         <v>3.49</v>
       </c>
       <c r="AU143">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AV143">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AW143">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AX143">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY143">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AZ143">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BA143">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BB143">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BC143">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="BD143">
         <v>2.42</v>
@@ -30699,7 +30702,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>7697222</v>
+        <v>7697219</v>
       </c>
       <c r="C144" t="s">
         <v>68</v>
@@ -30708,49 +30711,49 @@
         <v>69</v>
       </c>
       <c r="E144" s="2">
-        <v>45564.67708333334</v>
+        <v>45564.45833333334</v>
       </c>
       <c r="F144">
         <v>2</v>
       </c>
       <c r="G144" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H144" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L144">
         <v>2</v>
       </c>
       <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
         <v>3</v>
-      </c>
-      <c r="N144">
-        <v>5</v>
       </c>
       <c r="O144" t="s">
         <v>194</v>
       </c>
       <c r="P144" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q144">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="R144">
         <v>2.5</v>
       </c>
       <c r="S144">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="T144">
         <v>1.25</v>
@@ -30765,19 +30768,19 @@
         <v>1.67</v>
       </c>
       <c r="X144">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Y144">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="Z144">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="AA144">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AB144">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="AC144">
         <v>1.01</v>
@@ -30792,112 +30795,318 @@
         <v>6.5</v>
       </c>
       <c r="AG144">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AH144">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="AI144">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AJ144">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AK144">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="AL144">
         <v>1.2</v>
       </c>
       <c r="AM144">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="AN144">
-        <v>2.08</v>
+        <v>1.09</v>
       </c>
       <c r="AO144">
-        <v>2.09</v>
+        <v>0.67</v>
       </c>
       <c r="AP144">
-        <v>1.92</v>
+        <v>1.25</v>
       </c>
       <c r="AQ144">
-        <v>2.17</v>
+        <v>0.62</v>
       </c>
       <c r="AR144">
-        <v>2.25</v>
+        <v>1.27</v>
       </c>
       <c r="AS144">
-        <v>1.89</v>
+        <v>1.58</v>
       </c>
       <c r="AT144">
-        <v>4.14</v>
+        <v>2.85</v>
       </c>
       <c r="AU144">
         <v>5</v>
       </c>
       <c r="AV144">
+        <v>6</v>
+      </c>
+      <c r="AW144">
+        <v>11</v>
+      </c>
+      <c r="AX144">
         <v>7</v>
       </c>
-      <c r="AW144">
-        <v>7</v>
-      </c>
-      <c r="AX144">
+      <c r="AY144">
+        <v>16</v>
+      </c>
+      <c r="AZ144">
+        <v>13</v>
+      </c>
+      <c r="BA144">
+        <v>11</v>
+      </c>
+      <c r="BB144">
+        <v>4</v>
+      </c>
+      <c r="BC144">
+        <v>15</v>
+      </c>
+      <c r="BD144">
+        <v>1.45</v>
+      </c>
+      <c r="BE144">
+        <v>9.5</v>
+      </c>
+      <c r="BF144">
+        <v>3.18</v>
+      </c>
+      <c r="BG144">
+        <v>0</v>
+      </c>
+      <c r="BH144">
+        <v>0</v>
+      </c>
+      <c r="BI144">
+        <v>1.12</v>
+      </c>
+      <c r="BJ144">
+        <v>4.45</v>
+      </c>
+      <c r="BK144">
+        <v>1.26</v>
+      </c>
+      <c r="BL144">
+        <v>3.08</v>
+      </c>
+      <c r="BM144">
+        <v>1.55</v>
+      </c>
+      <c r="BN144">
+        <v>2.38</v>
+      </c>
+      <c r="BO144">
+        <v>1.85</v>
+      </c>
+      <c r="BP144">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7697223</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45565.67708333334</v>
+      </c>
+      <c r="F145">
+        <v>2</v>
+      </c>
+      <c r="G145" t="s">
+        <v>76</v>
+      </c>
+      <c r="H145" t="s">
+        <v>79</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>3</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>3</v>
+      </c>
+      <c r="O145" t="s">
+        <v>195</v>
+      </c>
+      <c r="P145" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q145">
+        <v>2.38</v>
+      </c>
+      <c r="R145">
+        <v>2.4</v>
+      </c>
+      <c r="S145">
+        <v>3.6</v>
+      </c>
+      <c r="T145">
+        <v>1.22</v>
+      </c>
+      <c r="U145">
+        <v>4</v>
+      </c>
+      <c r="V145">
+        <v>2.06</v>
+      </c>
+      <c r="W145">
+        <v>1.76</v>
+      </c>
+      <c r="X145">
+        <v>4.3</v>
+      </c>
+      <c r="Y145">
+        <v>1.2</v>
+      </c>
+      <c r="Z145">
+        <v>1.9</v>
+      </c>
+      <c r="AA145">
+        <v>3.8</v>
+      </c>
+      <c r="AB145">
+        <v>3.25</v>
+      </c>
+      <c r="AC145">
+        <v>1.01</v>
+      </c>
+      <c r="AD145">
+        <v>17</v>
+      </c>
+      <c r="AE145">
+        <v>1.08</v>
+      </c>
+      <c r="AF145">
+        <v>6.5</v>
+      </c>
+      <c r="AG145">
+        <v>1.4</v>
+      </c>
+      <c r="AH145">
+        <v>2.75</v>
+      </c>
+      <c r="AI145">
+        <v>1.33</v>
+      </c>
+      <c r="AJ145">
+        <v>3</v>
+      </c>
+      <c r="AK145">
+        <v>1.3</v>
+      </c>
+      <c r="AL145">
+        <v>1.22</v>
+      </c>
+      <c r="AM145">
+        <v>1.85</v>
+      </c>
+      <c r="AN145">
+        <v>2.09</v>
+      </c>
+      <c r="AO145">
+        <v>1.08</v>
+      </c>
+      <c r="AP145">
+        <v>2.17</v>
+      </c>
+      <c r="AQ145">
+        <v>1</v>
+      </c>
+      <c r="AR145">
+        <v>1.84</v>
+      </c>
+      <c r="AS145">
+        <v>1.63</v>
+      </c>
+      <c r="AT145">
+        <v>3.47</v>
+      </c>
+      <c r="AU145">
+        <v>4</v>
+      </c>
+      <c r="AV145">
+        <v>6</v>
+      </c>
+      <c r="AW145">
+        <v>4</v>
+      </c>
+      <c r="AX145">
         <v>10</v>
       </c>
-      <c r="AY144">
-        <v>12</v>
-      </c>
-      <c r="AZ144">
-        <v>17</v>
-      </c>
-      <c r="BA144">
+      <c r="AY145">
+        <v>8</v>
+      </c>
+      <c r="AZ145">
+        <v>16</v>
+      </c>
+      <c r="BA145">
         <v>5</v>
       </c>
-      <c r="BB144">
-        <v>2</v>
-      </c>
-      <c r="BC144">
-        <v>7</v>
-      </c>
-      <c r="BD144">
-        <v>1.83</v>
-      </c>
-      <c r="BE144">
-        <v>8.5</v>
-      </c>
-      <c r="BF144">
-        <v>2.2</v>
-      </c>
-      <c r="BG144">
-        <v>0</v>
-      </c>
-      <c r="BH144">
-        <v>0</v>
-      </c>
-      <c r="BI144">
-        <v>0</v>
-      </c>
-      <c r="BJ144">
-        <v>0</v>
-      </c>
-      <c r="BK144">
+      <c r="BB145">
+        <v>8</v>
+      </c>
+      <c r="BC145">
+        <v>13</v>
+      </c>
+      <c r="BD145">
+        <v>1.75</v>
+      </c>
+      <c r="BE145">
+        <v>9</v>
+      </c>
+      <c r="BF145">
+        <v>2.34</v>
+      </c>
+      <c r="BG145">
+        <v>0</v>
+      </c>
+      <c r="BH145">
+        <v>0</v>
+      </c>
+      <c r="BI145">
+        <v>0</v>
+      </c>
+      <c r="BJ145">
+        <v>0</v>
+      </c>
+      <c r="BK145">
         <v>1.19</v>
       </c>
-      <c r="BL144">
+      <c r="BL145">
         <v>3.58</v>
       </c>
-      <c r="BM144">
+      <c r="BM145">
         <v>1.37</v>
       </c>
-      <c r="BN144">
+      <c r="BN145">
         <v>2.58</v>
       </c>
-      <c r="BO144">
+      <c r="BO145">
+        <v>1.77</v>
+      </c>
+      <c r="BP145">
         <v>1.95</v>
-      </c>
-      <c r="BP144">
-        <v>1.77</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -559,13 +559,13 @@
     <t>['85']</t>
   </si>
   <si>
-    <t>['34']</t>
-  </si>
-  <si>
     <t>['89']</t>
   </si>
   <si>
     <t>['2', '69', '90+2']</t>
+  </si>
+  <si>
+    <t>['34']</t>
   </si>
   <si>
     <t>['9', '54', '58', '61', '78']</t>
@@ -592,13 +592,13 @@
     <t>['13', '73', '90']</t>
   </si>
   <si>
-    <t>['7', '12', '31', '42', '52', '86', '89']</t>
-  </si>
-  <si>
     <t>['43', '51']</t>
   </si>
   <si>
     <t>['71', '84']</t>
+  </si>
+  <si>
+    <t>['7', '12', '31', '42', '52', '86', '89']</t>
   </si>
   <si>
     <t>['18', '53', '90+4']</t>
@@ -27406,7 +27406,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>7294916</v>
+        <v>7294918</v>
       </c>
       <c r="C128" t="s">
         <v>68</v>
@@ -27421,19 +27421,19 @@
         <v>22</v>
       </c>
       <c r="G128" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H128" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128">
         <v>0</v>
       </c>
       <c r="K128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L128">
         <v>1</v>
@@ -27451,154 +27451,154 @@
         <v>91</v>
       </c>
       <c r="Q128">
+        <v>1.95</v>
+      </c>
+      <c r="R128">
+        <v>2.6</v>
+      </c>
+      <c r="S128">
+        <v>4.75</v>
+      </c>
+      <c r="T128">
+        <v>1.22</v>
+      </c>
+      <c r="U128">
+        <v>4</v>
+      </c>
+      <c r="V128">
+        <v>2.1</v>
+      </c>
+      <c r="W128">
+        <v>1.67</v>
+      </c>
+      <c r="X128">
+        <v>4.33</v>
+      </c>
+      <c r="Y128">
+        <v>1.2</v>
+      </c>
+      <c r="Z128">
+        <v>1.46</v>
+      </c>
+      <c r="AA128">
+        <v>4.2</v>
+      </c>
+      <c r="AB128">
+        <v>5.1</v>
+      </c>
+      <c r="AC128">
+        <v>1.01</v>
+      </c>
+      <c r="AD128">
+        <v>17</v>
+      </c>
+      <c r="AE128">
+        <v>1.1</v>
+      </c>
+      <c r="AF128">
+        <v>5.55</v>
+      </c>
+      <c r="AG128">
+        <v>1.4</v>
+      </c>
+      <c r="AH128">
         <v>2.75</v>
       </c>
-      <c r="R128">
-        <v>2.4</v>
-      </c>
-      <c r="S128">
+      <c r="AI128">
+        <v>1.53</v>
+      </c>
+      <c r="AJ128">
+        <v>2.38</v>
+      </c>
+      <c r="AK128">
+        <v>1.15</v>
+      </c>
+      <c r="AL128">
+        <v>1.18</v>
+      </c>
+      <c r="AM128">
+        <v>2.6</v>
+      </c>
+      <c r="AN128">
+        <v>2</v>
+      </c>
+      <c r="AO128">
+        <v>0.6</v>
+      </c>
+      <c r="AP128">
+        <v>2.17</v>
+      </c>
+      <c r="AQ128">
+        <v>0.58</v>
+      </c>
+      <c r="AR128">
+        <v>1.84</v>
+      </c>
+      <c r="AS128">
+        <v>1.25</v>
+      </c>
+      <c r="AT128">
+        <v>3.09</v>
+      </c>
+      <c r="AU128">
+        <v>-1</v>
+      </c>
+      <c r="AV128">
+        <v>-1</v>
+      </c>
+      <c r="AW128">
+        <v>-1</v>
+      </c>
+      <c r="AX128">
+        <v>-1</v>
+      </c>
+      <c r="AY128">
+        <v>-1</v>
+      </c>
+      <c r="AZ128">
+        <v>-1</v>
+      </c>
+      <c r="BA128">
         <v>3</v>
       </c>
-      <c r="T128">
-        <v>1.25</v>
-      </c>
-      <c r="U128">
-        <v>3.75</v>
-      </c>
-      <c r="V128">
-        <v>2.2</v>
-      </c>
-      <c r="W128">
-        <v>1.62</v>
-      </c>
-      <c r="X128">
-        <v>4.5</v>
-      </c>
-      <c r="Y128">
-        <v>1.17</v>
-      </c>
-      <c r="Z128">
-        <v>2.18</v>
-      </c>
-      <c r="AA128">
-        <v>3.45</v>
-      </c>
-      <c r="AB128">
-        <v>2.63</v>
-      </c>
-      <c r="AC128">
-        <v>1.02</v>
-      </c>
-      <c r="AD128">
-        <v>12</v>
-      </c>
-      <c r="AE128">
+      <c r="BB128">
+        <v>8</v>
+      </c>
+      <c r="BC128">
+        <v>11</v>
+      </c>
+      <c r="BD128">
+        <v>1.45</v>
+      </c>
+      <c r="BE128">
+        <v>9.5</v>
+      </c>
+      <c r="BF128">
+        <v>3.26</v>
+      </c>
+      <c r="BG128">
+        <v>1.11</v>
+      </c>
+      <c r="BH128">
+        <v>5.5</v>
+      </c>
+      <c r="BI128">
         <v>1.13</v>
       </c>
-      <c r="AF128">
-        <v>5</v>
-      </c>
-      <c r="AG128">
-        <v>1.45</v>
-      </c>
-      <c r="AH128">
-        <v>2.55</v>
-      </c>
-      <c r="AI128">
-        <v>1.44</v>
-      </c>
-      <c r="AJ128">
-        <v>2.63</v>
-      </c>
-      <c r="AK128">
+      <c r="BJ128">
+        <v>4.85</v>
+      </c>
+      <c r="BK128">
+        <v>1.27</v>
+      </c>
+      <c r="BL128">
+        <v>3.28</v>
+      </c>
+      <c r="BM128">
         <v>1.48</v>
       </c>
-      <c r="AL128">
-        <v>1.25</v>
-      </c>
-      <c r="AM128">
-        <v>1.6</v>
-      </c>
-      <c r="AN128">
-        <v>1.8</v>
-      </c>
-      <c r="AO128">
-        <v>1.2</v>
-      </c>
-      <c r="AP128">
-        <v>1.91</v>
-      </c>
-      <c r="AQ128">
-        <v>1.25</v>
-      </c>
-      <c r="AR128">
-        <v>1.82</v>
-      </c>
-      <c r="AS128">
-        <v>1.79</v>
-      </c>
-      <c r="AT128">
-        <v>3.61</v>
-      </c>
-      <c r="AU128">
-        <v>4</v>
-      </c>
-      <c r="AV128">
-        <v>5</v>
-      </c>
-      <c r="AW128">
-        <v>8</v>
-      </c>
-      <c r="AX128">
-        <v>10</v>
-      </c>
-      <c r="AY128">
-        <v>12</v>
-      </c>
-      <c r="AZ128">
-        <v>15</v>
-      </c>
-      <c r="BA128">
-        <v>4</v>
-      </c>
-      <c r="BB128">
-        <v>10</v>
-      </c>
-      <c r="BC128">
-        <v>14</v>
-      </c>
-      <c r="BD128">
-        <v>1.95</v>
-      </c>
-      <c r="BE128">
-        <v>8.5</v>
-      </c>
-      <c r="BF128">
-        <v>2.05</v>
-      </c>
-      <c r="BG128">
-        <v>1.1</v>
-      </c>
-      <c r="BH128">
-        <v>5.75</v>
-      </c>
-      <c r="BI128">
-        <v>1.14</v>
-      </c>
-      <c r="BJ128">
-        <v>4.6</v>
-      </c>
-      <c r="BK128">
-        <v>1.28</v>
-      </c>
-      <c r="BL128">
-        <v>3.18</v>
-      </c>
-      <c r="BM128">
-        <v>1.53</v>
-      </c>
       <c r="BN128">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="BO128">
         <v>1.92</v>
@@ -27612,7 +27612,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>7294918</v>
+        <v>7294914</v>
       </c>
       <c r="C129" t="s">
         <v>68</v>
@@ -27627,88 +27627,88 @@
         <v>22</v>
       </c>
       <c r="G129" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H129" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N129">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O129" t="s">
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>91</v>
+        <v>277</v>
       </c>
       <c r="Q129">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="R129">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="S129">
-        <v>4.75</v>
+        <v>2.88</v>
       </c>
       <c r="T129">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="U129">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="V129">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="W129">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="X129">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="Y129">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="Z129">
-        <v>1.46</v>
+        <v>2.39</v>
       </c>
       <c r="AA129">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="AB129">
-        <v>5.1</v>
+        <v>2.44</v>
       </c>
       <c r="AC129">
         <v>1.01</v>
       </c>
       <c r="AD129">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE129">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AF129">
-        <v>5.55</v>
+        <v>4.33</v>
       </c>
       <c r="AG129">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AH129">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="AI129">
         <v>1.53</v>
@@ -27717,100 +27717,100 @@
         <v>2.38</v>
       </c>
       <c r="AK129">
+        <v>1.55</v>
+      </c>
+      <c r="AL129">
+        <v>1.3</v>
+      </c>
+      <c r="AM129">
+        <v>1.45</v>
+      </c>
+      <c r="AN129">
+        <v>1.6</v>
+      </c>
+      <c r="AO129">
+        <v>1.6</v>
+      </c>
+      <c r="AP129">
+        <v>1.67</v>
+      </c>
+      <c r="AQ129">
+        <v>1.42</v>
+      </c>
+      <c r="AR129">
+        <v>1.63</v>
+      </c>
+      <c r="AS129">
+        <v>1.82</v>
+      </c>
+      <c r="AT129">
+        <v>3.45</v>
+      </c>
+      <c r="AU129">
+        <v>7</v>
+      </c>
+      <c r="AV129">
+        <v>9</v>
+      </c>
+      <c r="AW129">
+        <v>1</v>
+      </c>
+      <c r="AX129">
+        <v>10</v>
+      </c>
+      <c r="AY129">
+        <v>8</v>
+      </c>
+      <c r="AZ129">
+        <v>19</v>
+      </c>
+      <c r="BA129">
+        <v>5</v>
+      </c>
+      <c r="BB129">
+        <v>4</v>
+      </c>
+      <c r="BC129">
+        <v>9</v>
+      </c>
+      <c r="BD129">
+        <v>2.43</v>
+      </c>
+      <c r="BE129">
+        <v>8.5</v>
+      </c>
+      <c r="BF129">
+        <v>1.75</v>
+      </c>
+      <c r="BG129">
+        <v>1.1</v>
+      </c>
+      <c r="BH129">
+        <v>5.75</v>
+      </c>
+      <c r="BI129">
         <v>1.15</v>
       </c>
-      <c r="AL129">
-        <v>1.18</v>
-      </c>
-      <c r="AM129">
-        <v>2.6</v>
-      </c>
-      <c r="AN129">
-        <v>2</v>
-      </c>
-      <c r="AO129">
-        <v>0.6</v>
-      </c>
-      <c r="AP129">
-        <v>2.17</v>
-      </c>
-      <c r="AQ129">
-        <v>0.58</v>
-      </c>
-      <c r="AR129">
-        <v>1.84</v>
-      </c>
-      <c r="AS129">
-        <v>1.25</v>
-      </c>
-      <c r="AT129">
-        <v>3.09</v>
-      </c>
-      <c r="AU129">
-        <v>-1</v>
-      </c>
-      <c r="AV129">
-        <v>-1</v>
-      </c>
-      <c r="AW129">
-        <v>-1</v>
-      </c>
-      <c r="AX129">
-        <v>-1</v>
-      </c>
-      <c r="AY129">
-        <v>-1</v>
-      </c>
-      <c r="AZ129">
-        <v>-1</v>
-      </c>
-      <c r="BA129">
-        <v>3</v>
-      </c>
-      <c r="BB129">
-        <v>8</v>
-      </c>
-      <c r="BC129">
-        <v>11</v>
-      </c>
-      <c r="BD129">
-        <v>1.45</v>
-      </c>
-      <c r="BE129">
-        <v>9.5</v>
-      </c>
-      <c r="BF129">
-        <v>3.26</v>
-      </c>
-      <c r="BG129">
-        <v>1.11</v>
-      </c>
-      <c r="BH129">
-        <v>5.5</v>
-      </c>
-      <c r="BI129">
-        <v>1.13</v>
-      </c>
       <c r="BJ129">
-        <v>4.85</v>
+        <v>4.5</v>
       </c>
       <c r="BK129">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="BL129">
-        <v>3.28</v>
+        <v>3.08</v>
       </c>
       <c r="BM129">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="BN129">
-        <v>2.54</v>
+        <v>2.3</v>
       </c>
       <c r="BO129">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="BP129">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="130" spans="1:68">
@@ -27818,7 +27818,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>7294914</v>
+        <v>7294916</v>
       </c>
       <c r="C130" t="s">
         <v>68</v>
@@ -27833,160 +27833,160 @@
         <v>22</v>
       </c>
       <c r="G130" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H130" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M130">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N130">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O130" t="s">
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>277</v>
+        <v>91</v>
       </c>
       <c r="Q130">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="R130">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S130">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="T130">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U130">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="V130">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="W130">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="X130">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y130">
+        <v>1.17</v>
+      </c>
+      <c r="Z130">
+        <v>2.18</v>
+      </c>
+      <c r="AA130">
+        <v>3.45</v>
+      </c>
+      <c r="AB130">
+        <v>2.63</v>
+      </c>
+      <c r="AC130">
+        <v>1.02</v>
+      </c>
+      <c r="AD130">
+        <v>12</v>
+      </c>
+      <c r="AE130">
         <v>1.13</v>
       </c>
-      <c r="Z130">
-        <v>2.39</v>
-      </c>
-      <c r="AA130">
-        <v>3.4</v>
-      </c>
-      <c r="AB130">
-        <v>2.44</v>
-      </c>
-      <c r="AC130">
-        <v>1.01</v>
-      </c>
-      <c r="AD130">
-        <v>11</v>
-      </c>
-      <c r="AE130">
-        <v>1.18</v>
-      </c>
       <c r="AF130">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AG130">
+        <v>1.45</v>
+      </c>
+      <c r="AH130">
+        <v>2.55</v>
+      </c>
+      <c r="AI130">
+        <v>1.44</v>
+      </c>
+      <c r="AJ130">
+        <v>2.63</v>
+      </c>
+      <c r="AK130">
+        <v>1.48</v>
+      </c>
+      <c r="AL130">
+        <v>1.25</v>
+      </c>
+      <c r="AM130">
         <v>1.6</v>
       </c>
-      <c r="AH130">
-        <v>2.1</v>
-      </c>
-      <c r="AI130">
-        <v>1.53</v>
-      </c>
-      <c r="AJ130">
-        <v>2.38</v>
-      </c>
-      <c r="AK130">
-        <v>1.55</v>
-      </c>
-      <c r="AL130">
-        <v>1.3</v>
-      </c>
-      <c r="AM130">
-        <v>1.45</v>
-      </c>
       <c r="AN130">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AO130">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AP130">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="AQ130">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="AR130">
-        <v>1.63</v>
+        <v>1.82</v>
       </c>
       <c r="AS130">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="AT130">
-        <v>3.45</v>
+        <v>3.61</v>
       </c>
       <c r="AU130">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV130">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AW130">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AX130">
         <v>10</v>
       </c>
       <c r="AY130">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ130">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BA130">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB130">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BC130">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BD130">
-        <v>2.43</v>
+        <v>1.95</v>
       </c>
       <c r="BE130">
         <v>8.5</v>
       </c>
       <c r="BF130">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="BG130">
         <v>1.1</v>
@@ -27995,28 +27995,28 @@
         <v>5.75</v>
       </c>
       <c r="BI130">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="BJ130">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="BK130">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="BL130">
-        <v>3.08</v>
+        <v>3.18</v>
       </c>
       <c r="BM130">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="BN130">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="BO130">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="BP130">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="131" spans="1:68">
@@ -28230,7 +28230,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>7294913</v>
+        <v>7294917</v>
       </c>
       <c r="C132" t="s">
         <v>68</v>
@@ -28245,43 +28245,43 @@
         <v>22</v>
       </c>
       <c r="G132" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H132" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L132">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M132">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N132">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O132" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="Q132">
-        <v>5.24</v>
+        <v>1.99</v>
       </c>
       <c r="R132">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="S132">
-        <v>1.89</v>
+        <v>4.56</v>
       </c>
       <c r="T132">
         <v>1.18</v>
@@ -28290,115 +28290,115 @@
         <v>4.33</v>
       </c>
       <c r="V132">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="X132">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y132">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Z132">
-        <v>4.92</v>
+        <v>1.57</v>
       </c>
       <c r="AA132">
-        <v>4.72</v>
+        <v>4.45</v>
       </c>
       <c r="AB132">
-        <v>1.47</v>
+        <v>4.24</v>
       </c>
       <c r="AC132">
         <v>1.01</v>
       </c>
       <c r="AD132">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AE132">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AF132">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG132">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AH132">
-        <v>3.04</v>
+        <v>3.21</v>
       </c>
       <c r="AI132">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="AJ132">
-        <v>2.72</v>
+        <v>3.14</v>
       </c>
       <c r="AK132">
-        <v>2.63</v>
+        <v>1.21</v>
       </c>
       <c r="AL132">
         <v>1.18</v>
       </c>
       <c r="AM132">
-        <v>1.16</v>
+        <v>2.33</v>
       </c>
       <c r="AN132">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="AO132">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="AP132">
-        <v>1</v>
+        <v>1.92</v>
       </c>
       <c r="AQ132">
-        <v>2.17</v>
+        <v>1</v>
       </c>
       <c r="AR132">
-        <v>1.79</v>
+        <v>2.26</v>
       </c>
       <c r="AS132">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT132">
-        <v>3.65</v>
+        <v>4.26</v>
       </c>
       <c r="AU132">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AV132">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX132">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AY132">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AZ132">
         <v>13</v>
       </c>
       <c r="BA132">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BB132">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BC132">
         <v>12</v>
       </c>
       <c r="BD132">
-        <v>6.6</v>
+        <v>1.37</v>
       </c>
       <c r="BE132">
-        <v>10.5</v>
+        <v>8.9</v>
       </c>
       <c r="BF132">
-        <v>1.16</v>
+        <v>3.98</v>
       </c>
       <c r="BG132">
         <v>0</v>
@@ -28410,7 +28410,7 @@
         <v>1.12</v>
       </c>
       <c r="BJ132">
-        <v>5</v>
+        <v>5.05</v>
       </c>
       <c r="BK132">
         <v>1.25</v>
@@ -28419,16 +28419,16 @@
         <v>3.42</v>
       </c>
       <c r="BM132">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="BN132">
-        <v>2.48</v>
+        <v>2.51</v>
       </c>
       <c r="BO132">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="BP132">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="133" spans="1:68">
@@ -28436,7 +28436,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>7294917</v>
+        <v>7294913</v>
       </c>
       <c r="C133" t="s">
         <v>68</v>
@@ -28451,43 +28451,43 @@
         <v>22</v>
       </c>
       <c r="G133" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H133" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L133">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M133">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N133">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O133" t="s">
-        <v>185</v>
+        <v>91</v>
       </c>
       <c r="P133" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="Q133">
-        <v>1.99</v>
+        <v>5.24</v>
       </c>
       <c r="R133">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="S133">
-        <v>4.56</v>
+        <v>1.89</v>
       </c>
       <c r="T133">
         <v>1.18</v>
@@ -28496,115 +28496,115 @@
         <v>4.33</v>
       </c>
       <c r="V133">
+        <v>1.94</v>
+      </c>
+      <c r="W133">
         <v>1.85</v>
       </c>
-      <c r="W133">
-        <v>1.96</v>
-      </c>
       <c r="X133">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y133">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Z133">
-        <v>1.57</v>
+        <v>4.92</v>
       </c>
       <c r="AA133">
-        <v>4.45</v>
+        <v>4.72</v>
       </c>
       <c r="AB133">
-        <v>4.24</v>
+        <v>1.47</v>
       </c>
       <c r="AC133">
         <v>1.01</v>
       </c>
       <c r="AD133">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AE133">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AF133">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG133">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AH133">
-        <v>3.21</v>
+        <v>3.04</v>
       </c>
       <c r="AI133">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="AJ133">
-        <v>3.14</v>
+        <v>2.72</v>
       </c>
       <c r="AK133">
-        <v>1.21</v>
+        <v>2.63</v>
       </c>
       <c r="AL133">
         <v>1.18</v>
       </c>
       <c r="AM133">
-        <v>2.33</v>
+        <v>1.16</v>
       </c>
       <c r="AN133">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="AO133">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="AP133">
-        <v>1.92</v>
+        <v>1</v>
       </c>
       <c r="AQ133">
-        <v>1</v>
+        <v>2.17</v>
       </c>
       <c r="AR133">
-        <v>2.26</v>
+        <v>1.79</v>
       </c>
       <c r="AS133">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT133">
-        <v>4.26</v>
+        <v>3.65</v>
       </c>
       <c r="AU133">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AV133">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW133">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX133">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AY133">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AZ133">
         <v>13</v>
       </c>
       <c r="BA133">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BB133">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BC133">
         <v>12</v>
       </c>
       <c r="BD133">
-        <v>1.37</v>
+        <v>6.6</v>
       </c>
       <c r="BE133">
-        <v>8.9</v>
+        <v>10.5</v>
       </c>
       <c r="BF133">
-        <v>3.98</v>
+        <v>1.16</v>
       </c>
       <c r="BG133">
         <v>0</v>
@@ -28616,7 +28616,7 @@
         <v>1.12</v>
       </c>
       <c r="BJ133">
-        <v>5.05</v>
+        <v>5</v>
       </c>
       <c r="BK133">
         <v>1.25</v>
@@ -28625,16 +28625,16 @@
         <v>3.42</v>
       </c>
       <c r="BM133">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="BN133">
-        <v>2.51</v>
+        <v>2.48</v>
       </c>
       <c r="BO133">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="BP133">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="134" spans="1:68">
@@ -29878,7 +29878,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>7697220</v>
+        <v>7697222</v>
       </c>
       <c r="C140" t="s">
         <v>68</v>
@@ -29893,43 +29893,43 @@
         <v>2</v>
       </c>
       <c r="G140" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H140" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N140">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O140" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="P140" t="s">
-        <v>99</v>
+        <v>283</v>
       </c>
       <c r="Q140">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="R140">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S140">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="T140">
         <v>1.25</v>
@@ -29938,25 +29938,25 @@
         <v>3.75</v>
       </c>
       <c r="V140">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W140">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X140">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Y140">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="Z140">
-        <v>2.87</v>
+        <v>2.25</v>
       </c>
       <c r="AA140">
         <v>3.6</v>
       </c>
       <c r="AB140">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="AC140">
         <v>1.01</v>
@@ -29965,10 +29965,10 @@
         <v>17</v>
       </c>
       <c r="AE140">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AF140">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AG140">
         <v>1.4</v>
@@ -29977,40 +29977,40 @@
         <v>2.75</v>
       </c>
       <c r="AI140">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AJ140">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AK140">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AL140">
         <v>1.2</v>
       </c>
       <c r="AM140">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="AN140">
-        <v>1.45</v>
+        <v>2.08</v>
       </c>
       <c r="AO140">
         <v>2.09</v>
       </c>
       <c r="AP140">
-        <v>1.33</v>
+        <v>1.92</v>
       </c>
       <c r="AQ140">
         <v>2.17</v>
       </c>
       <c r="AR140">
-        <v>1.94</v>
+        <v>2.25</v>
       </c>
       <c r="AS140">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="AT140">
-        <v>3.8</v>
+        <v>4.14</v>
       </c>
       <c r="AU140">
         <v>-1</v>
@@ -30040,13 +30040,13 @@
         <v>-1</v>
       </c>
       <c r="BD140">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="BE140">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF140">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="BG140">
         <v>0</v>
@@ -30061,22 +30061,22 @@
         <v>0</v>
       </c>
       <c r="BK140">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="BL140">
-        <v>3.66</v>
+        <v>3.58</v>
       </c>
       <c r="BM140">
         <v>1.37</v>
       </c>
       <c r="BN140">
-        <v>2.85</v>
+        <v>2.58</v>
       </c>
       <c r="BO140">
+        <v>1.95</v>
+      </c>
+      <c r="BP140">
         <v>1.77</v>
-      </c>
-      <c r="BP140">
-        <v>1.95</v>
       </c>
     </row>
     <row r="141" spans="1:68">
@@ -30084,7 +30084,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>7697218</v>
+        <v>7697221</v>
       </c>
       <c r="C141" t="s">
         <v>68</v>
@@ -30099,70 +30099,70 @@
         <v>2</v>
       </c>
       <c r="G141" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H141" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>2</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>3</v>
+      </c>
+      <c r="N141">
         <v>4</v>
       </c>
-      <c r="J141">
-        <v>0</v>
-      </c>
-      <c r="K141">
-        <v>4</v>
-      </c>
-      <c r="L141">
-        <v>7</v>
-      </c>
-      <c r="M141">
-        <v>1</v>
-      </c>
-      <c r="N141">
-        <v>8</v>
-      </c>
       <c r="O141" t="s">
-        <v>192</v>
+        <v>88</v>
       </c>
       <c r="P141" t="s">
-        <v>180</v>
+        <v>284</v>
       </c>
       <c r="Q141">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="R141">
         <v>2.4</v>
       </c>
       <c r="S141">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="T141">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="U141">
-        <v>4.15</v>
+        <v>3.75</v>
       </c>
       <c r="V141">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="W141">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="X141">
-        <v>4.15</v>
+        <v>4.5</v>
       </c>
       <c r="Y141">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="Z141">
-        <v>2.05</v>
+        <v>2.93</v>
       </c>
       <c r="AA141">
-        <v>3.7</v>
+        <v>3.82</v>
       </c>
       <c r="AB141">
-        <v>2.8</v>
+        <v>2.16</v>
       </c>
       <c r="AC141">
         <v>1.01</v>
@@ -30171,52 +30171,52 @@
         <v>17</v>
       </c>
       <c r="AE141">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AF141">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AG141">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="AH141">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="AI141">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AJ141">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AK141">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="AL141">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AM141">
-        <v>1.72</v>
+        <v>1.38</v>
       </c>
       <c r="AN141">
-        <v>0.92</v>
+        <v>1.09</v>
       </c>
       <c r="AO141">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="AP141">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ141">
-        <v>0.83</v>
+        <v>1.25</v>
       </c>
       <c r="AR141">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="AS141">
-        <v>1.63</v>
+        <v>1.79</v>
       </c>
       <c r="AT141">
-        <v>3.47</v>
+        <v>3.49</v>
       </c>
       <c r="AU141">
         <v>-1</v>
@@ -30246,13 +30246,13 @@
         <v>-1</v>
       </c>
       <c r="BD141">
-        <v>1.64</v>
+        <v>2.42</v>
       </c>
       <c r="BE141">
         <v>9</v>
       </c>
       <c r="BF141">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="BG141">
         <v>0</v>
@@ -30261,28 +30261,28 @@
         <v>0</v>
       </c>
       <c r="BI141">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="BJ141">
-        <v>4.65</v>
+        <v>5.1</v>
       </c>
       <c r="BK141">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="BL141">
-        <v>3.22</v>
+        <v>3.54</v>
       </c>
       <c r="BM141">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="BN141">
-        <v>2.46</v>
+        <v>2.59</v>
       </c>
       <c r="BO141">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="BP141">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="142" spans="1:68">
@@ -30290,7 +30290,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>7697222</v>
+        <v>7697219</v>
       </c>
       <c r="C142" t="s">
         <v>68</v>
@@ -30305,43 +30305,43 @@
         <v>2</v>
       </c>
       <c r="G142" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H142" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L142">
         <v>2</v>
       </c>
       <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
         <v>3</v>
-      </c>
-      <c r="N142">
-        <v>5</v>
       </c>
       <c r="O142" t="s">
         <v>193</v>
       </c>
       <c r="P142" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q142">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="R142">
         <v>2.5</v>
       </c>
       <c r="S142">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="T142">
         <v>1.25</v>
@@ -30356,19 +30356,19 @@
         <v>1.67</v>
       </c>
       <c r="X142">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Y142">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="Z142">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="AA142">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AB142">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="AC142">
         <v>1.01</v>
@@ -30383,46 +30383,46 @@
         <v>6.5</v>
       </c>
       <c r="AG142">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AH142">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="AI142">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AJ142">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AK142">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="AL142">
         <v>1.2</v>
       </c>
       <c r="AM142">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="AN142">
-        <v>2.08</v>
+        <v>1.09</v>
       </c>
       <c r="AO142">
-        <v>2.09</v>
+        <v>0.67</v>
       </c>
       <c r="AP142">
-        <v>1.92</v>
+        <v>1.25</v>
       </c>
       <c r="AQ142">
-        <v>2.17</v>
+        <v>0.62</v>
       </c>
       <c r="AR142">
-        <v>2.25</v>
+        <v>1.27</v>
       </c>
       <c r="AS142">
-        <v>1.89</v>
+        <v>1.58</v>
       </c>
       <c r="AT142">
-        <v>4.14</v>
+        <v>2.85</v>
       </c>
       <c r="AU142">
         <v>-1</v>
@@ -30452,13 +30452,13 @@
         <v>-1</v>
       </c>
       <c r="BD142">
-        <v>1.83</v>
+        <v>1.45</v>
       </c>
       <c r="BE142">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="BF142">
-        <v>2.2</v>
+        <v>3.18</v>
       </c>
       <c r="BG142">
         <v>0</v>
@@ -30467,28 +30467,28 @@
         <v>0</v>
       </c>
       <c r="BI142">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="BJ142">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="BK142">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="BL142">
-        <v>3.58</v>
+        <v>3.08</v>
       </c>
       <c r="BM142">
-        <v>1.37</v>
+        <v>1.55</v>
       </c>
       <c r="BN142">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="BO142">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="BP142">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="143" spans="1:68">
@@ -30496,7 +30496,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>7697221</v>
+        <v>7697218</v>
       </c>
       <c r="C143" t="s">
         <v>68</v>
@@ -30511,70 +30511,70 @@
         <v>2</v>
       </c>
       <c r="G143" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H143" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K143">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L143">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N143">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O143" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="P143" t="s">
-        <v>284</v>
+        <v>180</v>
       </c>
       <c r="Q143">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="R143">
         <v>2.4</v>
       </c>
       <c r="S143">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="T143">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="U143">
-        <v>3.75</v>
+        <v>4.15</v>
       </c>
       <c r="V143">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="W143">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="X143">
-        <v>4.5</v>
+        <v>4.15</v>
       </c>
       <c r="Y143">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="Z143">
-        <v>2.93</v>
+        <v>2.05</v>
       </c>
       <c r="AA143">
-        <v>3.82</v>
+        <v>3.7</v>
       </c>
       <c r="AB143">
-        <v>2.16</v>
+        <v>2.8</v>
       </c>
       <c r="AC143">
         <v>1.01</v>
@@ -30583,52 +30583,52 @@
         <v>17</v>
       </c>
       <c r="AE143">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AF143">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AG143">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="AH143">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="AI143">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AJ143">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AK143">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="AL143">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AM143">
-        <v>1.38</v>
+        <v>1.72</v>
       </c>
       <c r="AN143">
-        <v>1.09</v>
+        <v>0.92</v>
       </c>
       <c r="AO143">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AP143">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AQ143">
-        <v>1.25</v>
+        <v>0.83</v>
       </c>
       <c r="AR143">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="AS143">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
       <c r="AT143">
-        <v>3.49</v>
+        <v>3.47</v>
       </c>
       <c r="AU143">
         <v>-1</v>
@@ -30658,13 +30658,13 @@
         <v>-1</v>
       </c>
       <c r="BD143">
-        <v>2.42</v>
+        <v>1.64</v>
       </c>
       <c r="BE143">
         <v>9</v>
       </c>
       <c r="BF143">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="BG143">
         <v>0</v>
@@ -30673,28 +30673,28 @@
         <v>0</v>
       </c>
       <c r="BI143">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="BJ143">
-        <v>5.1</v>
+        <v>4.65</v>
       </c>
       <c r="BK143">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="BL143">
-        <v>3.54</v>
+        <v>3.22</v>
       </c>
       <c r="BM143">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="BN143">
-        <v>2.59</v>
+        <v>2.46</v>
       </c>
       <c r="BO143">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="BP143">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="144" spans="1:68">
@@ -30702,7 +30702,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>7697219</v>
+        <v>7697220</v>
       </c>
       <c r="C144" t="s">
         <v>68</v>
@@ -30711,16 +30711,16 @@
         <v>69</v>
       </c>
       <c r="E144" s="2">
-        <v>45564.45833333334</v>
+        <v>45563.875</v>
       </c>
       <c r="F144">
         <v>2</v>
       </c>
       <c r="G144" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H144" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -30732,28 +30732,28 @@
         <v>0</v>
       </c>
       <c r="L144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M144">
         <v>1</v>
       </c>
       <c r="N144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O144" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>285</v>
+        <v>99</v>
       </c>
       <c r="Q144">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="R144">
+        <v>2.4</v>
+      </c>
+      <c r="S144">
         <v>2.5</v>
-      </c>
-      <c r="S144">
-        <v>3.6</v>
       </c>
       <c r="T144">
         <v>1.25</v>
@@ -30762,10 +30762,10 @@
         <v>3.75</v>
       </c>
       <c r="V144">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W144">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X144">
         <v>4.5</v>
@@ -30774,13 +30774,13 @@
         <v>1.17</v>
       </c>
       <c r="Z144">
-        <v>1.83</v>
+        <v>2.87</v>
       </c>
       <c r="AA144">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AB144">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="AC144">
         <v>1.01</v>
@@ -30789,118 +30789,118 @@
         <v>17</v>
       </c>
       <c r="AE144">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AF144">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AG144">
+        <v>1.4</v>
+      </c>
+      <c r="AH144">
+        <v>2.75</v>
+      </c>
+      <c r="AI144">
         <v>1.5</v>
       </c>
-      <c r="AH144">
-        <v>2.4</v>
-      </c>
-      <c r="AI144">
-        <v>1.44</v>
-      </c>
       <c r="AJ144">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AK144">
-        <v>1.22</v>
+        <v>1.62</v>
       </c>
       <c r="AL144">
         <v>1.2</v>
       </c>
       <c r="AM144">
-        <v>1.85</v>
+        <v>1.44</v>
       </c>
       <c r="AN144">
-        <v>1.09</v>
+        <v>1.45</v>
       </c>
       <c r="AO144">
-        <v>0.67</v>
+        <v>2.09</v>
       </c>
       <c r="AP144">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AQ144">
-        <v>0.62</v>
+        <v>2.17</v>
       </c>
       <c r="AR144">
-        <v>1.27</v>
+        <v>1.94</v>
       </c>
       <c r="AS144">
-        <v>1.58</v>
+        <v>1.86</v>
       </c>
       <c r="AT144">
+        <v>3.8</v>
+      </c>
+      <c r="AU144">
+        <v>-1</v>
+      </c>
+      <c r="AV144">
+        <v>-1</v>
+      </c>
+      <c r="AW144">
+        <v>-1</v>
+      </c>
+      <c r="AX144">
+        <v>-1</v>
+      </c>
+      <c r="AY144">
+        <v>-1</v>
+      </c>
+      <c r="AZ144">
+        <v>-1</v>
+      </c>
+      <c r="BA144">
+        <v>-1</v>
+      </c>
+      <c r="BB144">
+        <v>-1</v>
+      </c>
+      <c r="BC144">
+        <v>-1</v>
+      </c>
+      <c r="BD144">
+        <v>1.95</v>
+      </c>
+      <c r="BE144">
+        <v>9</v>
+      </c>
+      <c r="BF144">
+        <v>2.05</v>
+      </c>
+      <c r="BG144">
+        <v>0</v>
+      </c>
+      <c r="BH144">
+        <v>0</v>
+      </c>
+      <c r="BI144">
+        <v>0</v>
+      </c>
+      <c r="BJ144">
+        <v>0</v>
+      </c>
+      <c r="BK144">
+        <v>1.18</v>
+      </c>
+      <c r="BL144">
+        <v>3.66</v>
+      </c>
+      <c r="BM144">
+        <v>1.37</v>
+      </c>
+      <c r="BN144">
         <v>2.85</v>
       </c>
-      <c r="AU144">
-        <v>5</v>
-      </c>
-      <c r="AV144">
-        <v>6</v>
-      </c>
-      <c r="AW144">
-        <v>11</v>
-      </c>
-      <c r="AX144">
-        <v>7</v>
-      </c>
-      <c r="AY144">
-        <v>16</v>
-      </c>
-      <c r="AZ144">
-        <v>13</v>
-      </c>
-      <c r="BA144">
-        <v>11</v>
-      </c>
-      <c r="BB144">
-        <v>4</v>
-      </c>
-      <c r="BC144">
-        <v>15</v>
-      </c>
-      <c r="BD144">
-        <v>1.45</v>
-      </c>
-      <c r="BE144">
-        <v>9.5</v>
-      </c>
-      <c r="BF144">
-        <v>3.18</v>
-      </c>
-      <c r="BG144">
-        <v>0</v>
-      </c>
-      <c r="BH144">
-        <v>0</v>
-      </c>
-      <c r="BI144">
-        <v>1.12</v>
-      </c>
-      <c r="BJ144">
-        <v>4.45</v>
-      </c>
-      <c r="BK144">
-        <v>1.26</v>
-      </c>
-      <c r="BL144">
-        <v>3.08</v>
-      </c>
-      <c r="BM144">
-        <v>1.55</v>
-      </c>
-      <c r="BN144">
-        <v>2.38</v>
-      </c>
       <c r="BO144">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="BP144">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="145" spans="1:68">
@@ -30917,7 +30917,7 @@
         <v>69</v>
       </c>
       <c r="E145" s="2">
-        <v>45565.67708333334</v>
+        <v>45564.875</v>
       </c>
       <c r="F145">
         <v>2</v>
@@ -31043,31 +31043,31 @@
         <v>3.47</v>
       </c>
       <c r="AU145">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AV145">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AW145">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AX145">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AY145">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AZ145">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="BA145">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BB145">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BC145">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="BD145">
         <v>1.75</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -559,13 +559,13 @@
     <t>['85']</t>
   </si>
   <si>
+    <t>['34']</t>
+  </si>
+  <si>
     <t>['89']</t>
   </si>
   <si>
     <t>['2', '69', '90+2']</t>
-  </si>
-  <si>
-    <t>['34']</t>
   </si>
   <si>
     <t>['9', '54', '58', '61', '78']</t>
@@ -592,13 +592,13 @@
     <t>['13', '73', '90']</t>
   </si>
   <si>
-    <t>['43', '51']</t>
-  </si>
-  <si>
     <t>['71', '84']</t>
   </si>
   <si>
     <t>['7', '12', '31', '42', '52', '86', '89']</t>
+  </si>
+  <si>
+    <t>['43', '51']</t>
   </si>
   <si>
     <t>['18', '53', '90+4']</t>
@@ -865,13 +865,13 @@
     <t>['30', '43', '90']</t>
   </si>
   <si>
-    <t>['23', '69', '90+3']</t>
+    <t>['54']</t>
   </si>
   <si>
     <t>['1', '67', '78']</t>
   </si>
   <si>
-    <t>['54']</t>
+    <t>['23', '69', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.42</v>
+        <v>2.29</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ3">
-        <v>0.58</v>
+        <v>0.92</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1982,10 +1982,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ4">
-        <v>0.62</v>
+        <v>0.88</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2188,10 +2188,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2394,10 +2394,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2600,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.42</v>
+        <v>2.29</v>
       </c>
       <c r="AQ7">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2806,19 +2806,19 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>2.17</v>
+        <v>1.58</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AS8">
         <v>2.36</v>
       </c>
       <c r="AT8">
-        <v>2.36</v>
+        <v>3.94</v>
       </c>
       <c r="AU8">
         <v>3</v>
@@ -2833,10 +2833,10 @@
         <v>12</v>
       </c>
       <c r="AY8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="BA8">
         <v>11</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.42</v>
+        <v>2.29</v>
       </c>
       <c r="AQ9">
-        <v>0.58</v>
+        <v>0.92</v>
       </c>
       <c r="AR9">
         <v>1.31</v>
@@ -3039,7 +3039,7 @@
         <v>2</v>
       </c>
       <c r="AY9">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ9">
         <v>2</v>
@@ -3218,10 +3218,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ10">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR10">
         <v>2.8</v>
@@ -3418,25 +3418,25 @@
         <v>1.53</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.18</v>
+        <v>0.88</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="AS11">
         <v>1.04</v>
       </c>
       <c r="AT11">
-        <v>1.04</v>
+        <v>1.67</v>
       </c>
       <c r="AU11">
         <v>5</v>
@@ -3454,7 +3454,7 @@
         <v>8</v>
       </c>
       <c r="AZ11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BA11">
         <v>3</v>
@@ -3627,22 +3627,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AQ12">
-        <v>1.27</v>
+        <v>1.63</v>
       </c>
       <c r="AR12">
         <v>1.36</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AT12">
-        <v>1.36</v>
+        <v>3.32</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -3657,10 +3657,10 @@
         <v>6</v>
       </c>
       <c r="AY12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ12">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA12">
         <v>4</v>
@@ -3833,22 +3833,22 @@
         <v>3</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ13">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR13">
         <v>1.23</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AT13">
-        <v>1.23</v>
+        <v>2.77</v>
       </c>
       <c r="AU13">
         <v>6</v>
@@ -3863,7 +3863,7 @@
         <v>4</v>
       </c>
       <c r="AY13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ13">
         <v>7</v>
@@ -4039,22 +4039,22 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP14">
-        <v>2.17</v>
+        <v>1.58</v>
       </c>
       <c r="AQ14">
-        <v>1.27</v>
+        <v>1.63</v>
       </c>
       <c r="AR14">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="AS14">
-        <v>2.58</v>
+        <v>2.27</v>
       </c>
       <c r="AT14">
-        <v>3.89</v>
+        <v>3.72</v>
       </c>
       <c r="AU14">
         <v>5</v>
@@ -4069,10 +4069,10 @@
         <v>4</v>
       </c>
       <c r="AY14">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ14">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA14">
         <v>4</v>
@@ -4242,25 +4242,25 @@
         <v>1.32</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO15">
         <v>1.5</v>
       </c>
       <c r="AP15">
-        <v>1.18</v>
+        <v>0.88</v>
       </c>
       <c r="AQ15">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR15">
-        <v>1.21</v>
+        <v>0.92</v>
       </c>
       <c r="AS15">
         <v>1.58</v>
       </c>
       <c r="AT15">
-        <v>2.79</v>
+        <v>2.5</v>
       </c>
       <c r="AU15">
         <v>4</v>
@@ -4278,7 +4278,7 @@
         <v>5</v>
       </c>
       <c r="AZ15">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA15">
         <v>3</v>
@@ -4448,25 +4448,25 @@
         <v>2.3</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ16">
-        <v>0.83</v>
+        <v>1.25</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>3.81</v>
       </c>
       <c r="AU16">
         <v>3</v>
@@ -4481,7 +4481,7 @@
         <v>8</v>
       </c>
       <c r="AY16">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ16">
         <v>11</v>
@@ -4660,10 +4660,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ17">
-        <v>0.58</v>
+        <v>0.92</v>
       </c>
       <c r="AR17">
         <v>2.26</v>
@@ -4690,7 +4690,7 @@
         <v>9</v>
       </c>
       <c r="AZ17">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA17">
         <v>8</v>
@@ -4860,25 +4860,25 @@
         <v>1.65</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP18">
-        <v>1.91</v>
+        <v>1.42</v>
       </c>
       <c r="AQ18">
-        <v>0.42</v>
+        <v>0.71</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AU18">
         <v>11</v>
@@ -4893,10 +4893,10 @@
         <v>7</v>
       </c>
       <c r="AY18">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AZ18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA18">
         <v>11</v>
@@ -5069,22 +5069,22 @@
         <v>3</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP19">
-        <v>2.42</v>
+        <v>2.29</v>
       </c>
       <c r="AQ19">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR19">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AT19">
-        <v>1.54</v>
+        <v>3.48</v>
       </c>
       <c r="AU19">
         <v>7</v>
@@ -5099,10 +5099,10 @@
         <v>3</v>
       </c>
       <c r="AY19">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AZ19">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA19">
         <v>9</v>
@@ -5272,25 +5272,25 @@
         <v>1.48</v>
       </c>
       <c r="AN20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO20">
         <v>2</v>
       </c>
       <c r="AP20">
-        <v>1.91</v>
+        <v>1.42</v>
       </c>
       <c r="AQ20">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR20">
-        <v>2.58</v>
+        <v>2.17</v>
       </c>
       <c r="AS20">
         <v>1.79</v>
       </c>
       <c r="AT20">
-        <v>4.37</v>
+        <v>3.96</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5305,10 +5305,10 @@
         <v>8</v>
       </c>
       <c r="AY20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA20">
         <v>5</v>
@@ -5478,25 +5478,25 @@
         <v>1.53</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP21">
-        <v>1.25</v>
+        <v>0.92</v>
       </c>
       <c r="AQ21">
-        <v>0.62</v>
+        <v>0.88</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS21">
-        <v>0.63</v>
+        <v>1.01</v>
       </c>
       <c r="AT21">
-        <v>0.63</v>
+        <v>2.04</v>
       </c>
       <c r="AU21">
         <v>6</v>
@@ -5511,10 +5511,10 @@
         <v>9</v>
       </c>
       <c r="AY21">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ21">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA21">
         <v>4</v>
@@ -5687,22 +5687,22 @@
         <v>3</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP22">
-        <v>2.42</v>
+        <v>2.29</v>
       </c>
       <c r="AQ22">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AR22">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="AS22">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AT22">
-        <v>1.78</v>
+        <v>3.62</v>
       </c>
       <c r="AU22">
         <v>11</v>
@@ -5717,10 +5717,10 @@
         <v>4</v>
       </c>
       <c r="AY22">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA22">
         <v>5</v>
@@ -5890,25 +5890,25 @@
         <v>1.39</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP23">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ23">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR23">
-        <v>1.8</v>
+        <v>2.22</v>
       </c>
       <c r="AS23">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="AT23">
-        <v>3.5</v>
+        <v>4.06</v>
       </c>
       <c r="AU23">
         <v>6</v>
@@ -5923,10 +5923,10 @@
         <v>8</v>
       </c>
       <c r="AY23">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ23">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="BA23">
         <v>7</v>
@@ -6096,25 +6096,25 @@
         <v>2.66</v>
       </c>
       <c r="AN24">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP24">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AQ24">
-        <v>0.83</v>
+        <v>1.25</v>
       </c>
       <c r="AR24">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="AS24">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="AT24">
-        <v>3.54</v>
+        <v>3.49</v>
       </c>
       <c r="AU24">
         <v>3</v>
@@ -6129,10 +6129,10 @@
         <v>6</v>
       </c>
       <c r="AY24">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AZ24">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA24">
         <v>6</v>
@@ -6302,25 +6302,25 @@
         <v>1.28</v>
       </c>
       <c r="AN25">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="AR25">
-        <v>1.51</v>
+        <v>1.64</v>
       </c>
       <c r="AS25">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="AT25">
-        <v>3.09</v>
+        <v>3.11</v>
       </c>
       <c r="AU25">
         <v>6</v>
@@ -6335,10 +6335,10 @@
         <v>6</v>
       </c>
       <c r="AY25">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AZ25">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA25">
         <v>7</v>
@@ -6508,25 +6508,25 @@
         <v>3</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AO26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AQ26">
-        <v>0.58</v>
+        <v>0.92</v>
       </c>
       <c r="AR26">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AS26">
-        <v>1.03</v>
+        <v>1.27</v>
       </c>
       <c r="AT26">
-        <v>1.03</v>
+        <v>3.07</v>
       </c>
       <c r="AU26">
         <v>7</v>
@@ -6541,10 +6541,10 @@
         <v>3</v>
       </c>
       <c r="AY26">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA26">
         <v>6</v>
@@ -6714,25 +6714,25 @@
         <v>1.32</v>
       </c>
       <c r="AN27">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AO27">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="AR27">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="AS27">
-        <v>2.43</v>
+        <v>2.16</v>
       </c>
       <c r="AT27">
-        <v>4.34</v>
+        <v>3.98</v>
       </c>
       <c r="AU27">
         <v>5</v>
@@ -6926,19 +6926,19 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>2.17</v>
+        <v>1.58</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AR28">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="AS28">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="AT28">
-        <v>3.39</v>
+        <v>3.48</v>
       </c>
       <c r="AU28">
         <v>10</v>
@@ -6953,10 +6953,10 @@
         <v>8</v>
       </c>
       <c r="AY28">
+        <v>20</v>
+      </c>
+      <c r="AZ28">
         <v>15</v>
-      </c>
-      <c r="AZ28">
-        <v>13</v>
       </c>
       <c r="BA28">
         <v>9</v>
@@ -7126,25 +7126,25 @@
         <v>1.07</v>
       </c>
       <c r="AN29">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AO29">
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.18</v>
+        <v>0.88</v>
       </c>
       <c r="AQ29">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR29">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="AS29">
-        <v>1.58</v>
+        <v>1.93</v>
       </c>
       <c r="AT29">
-        <v>2.78</v>
+        <v>3.09</v>
       </c>
       <c r="AU29">
         <v>5</v>
@@ -7332,25 +7332,25 @@
         <v>1.85</v>
       </c>
       <c r="AN30">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP30">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ30">
-        <v>0.42</v>
+        <v>0.71</v>
       </c>
       <c r="AR30">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="AS30">
-        <v>1.89</v>
+        <v>1.64</v>
       </c>
       <c r="AT30">
-        <v>3.27</v>
+        <v>3.15</v>
       </c>
       <c r="AU30">
         <v>9</v>
@@ -7365,10 +7365,10 @@
         <v>5</v>
       </c>
       <c r="AY30">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ30">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA30">
         <v>3</v>
@@ -7538,25 +7538,25 @@
         <v>2.03</v>
       </c>
       <c r="AN31">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AO31">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP31">
-        <v>2.42</v>
+        <v>2.29</v>
       </c>
       <c r="AQ31">
-        <v>1.27</v>
+        <v>1.63</v>
       </c>
       <c r="AR31">
+        <v>1.95</v>
+      </c>
+      <c r="AS31">
         <v>1.92</v>
       </c>
-      <c r="AS31">
-        <v>2.08</v>
-      </c>
       <c r="AT31">
-        <v>4</v>
+        <v>3.87</v>
       </c>
       <c r="AU31">
         <v>7</v>
@@ -7571,10 +7571,10 @@
         <v>8</v>
       </c>
       <c r="AY31">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AZ31">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BA31">
         <v>10</v>
@@ -7744,25 +7744,25 @@
         <v>2.25</v>
       </c>
       <c r="AN32">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO32">
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>2.17</v>
+        <v>1.58</v>
       </c>
       <c r="AQ32">
-        <v>0.83</v>
+        <v>1.25</v>
       </c>
       <c r="AR32">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="AS32">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT32">
-        <v>3.38</v>
+        <v>3.23</v>
       </c>
       <c r="AU32">
         <v>3</v>
@@ -7950,25 +7950,25 @@
         <v>1.9</v>
       </c>
       <c r="AN33">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AO33">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AP33">
-        <v>1.91</v>
+        <v>1.42</v>
       </c>
       <c r="AQ33">
-        <v>0.58</v>
+        <v>0.92</v>
       </c>
       <c r="AR33">
-        <v>2.09</v>
+        <v>1.96</v>
       </c>
       <c r="AS33">
-        <v>1.08</v>
+        <v>1.26</v>
       </c>
       <c r="AT33">
-        <v>3.17</v>
+        <v>3.22</v>
       </c>
       <c r="AU33">
         <v>12</v>
@@ -8156,25 +8156,25 @@
         <v>2.38</v>
       </c>
       <c r="AN34">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AO34">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AP34">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AQ34">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AR34">
-        <v>1.75</v>
+        <v>1.96</v>
       </c>
       <c r="AS34">
-        <v>1.54</v>
+        <v>1.82</v>
       </c>
       <c r="AT34">
-        <v>3.29</v>
+        <v>3.78</v>
       </c>
       <c r="AU34">
         <v>5</v>
@@ -8362,25 +8362,25 @@
         <v>2.96</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AO35">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AP35">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ35">
-        <v>0.62</v>
+        <v>0.88</v>
       </c>
       <c r="AR35">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="AS35">
         <v>1.13</v>
       </c>
       <c r="AT35">
-        <v>3.03</v>
+        <v>3.15</v>
       </c>
       <c r="AU35">
         <v>7</v>
@@ -8568,25 +8568,25 @@
         <v>2.45</v>
       </c>
       <c r="AN36">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AO36">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AP36">
-        <v>2.42</v>
+        <v>2.29</v>
       </c>
       <c r="AQ36">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR36">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="AS36">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AT36">
-        <v>3.85</v>
+        <v>3.86</v>
       </c>
       <c r="AU36">
         <v>4</v>
@@ -8774,25 +8774,25 @@
         <v>1.12</v>
       </c>
       <c r="AN37">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="AO37">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AQ37">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR37">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="AS37">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="AT37">
-        <v>3.54</v>
+        <v>3.63</v>
       </c>
       <c r="AU37">
         <v>9</v>
@@ -8980,25 +8980,25 @@
         <v>1.06</v>
       </c>
       <c r="AN38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO38">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="AP38">
-        <v>1.25</v>
+        <v>0.92</v>
       </c>
       <c r="AQ38">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR38">
-        <v>1.97</v>
+        <v>1.29</v>
       </c>
       <c r="AS38">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="AT38">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="AU38">
         <v>2</v>
@@ -9186,25 +9186,25 @@
         <v>1.73</v>
       </c>
       <c r="AN39">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AO39">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AP39">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ39">
-        <v>0.42</v>
+        <v>0.71</v>
       </c>
       <c r="AR39">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="AS39">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="AT39">
-        <v>3.53</v>
+        <v>3.43</v>
       </c>
       <c r="AU39">
         <v>8</v>
@@ -9392,25 +9392,25 @@
         <v>1.67</v>
       </c>
       <c r="AN40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO40">
-        <v>2.33</v>
+        <v>1.17</v>
       </c>
       <c r="AP40">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="AR40">
-        <v>2.29</v>
+        <v>1.81</v>
       </c>
       <c r="AS40">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AT40">
-        <v>4.4</v>
+        <v>3.87</v>
       </c>
       <c r="AU40">
         <v>6</v>
@@ -9598,25 +9598,25 @@
         <v>1.57</v>
       </c>
       <c r="AN41">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AO41">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AR41">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="AS41">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AT41">
-        <v>3.44</v>
+        <v>3.58</v>
       </c>
       <c r="AU41">
         <v>7</v>
@@ -9804,25 +9804,25 @@
         <v>1.14</v>
       </c>
       <c r="AN42">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO42">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AP42">
-        <v>1.18</v>
+        <v>0.88</v>
       </c>
       <c r="AQ42">
-        <v>1.27</v>
+        <v>1.63</v>
       </c>
       <c r="AR42">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="AS42">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="AT42">
-        <v>3.23</v>
+        <v>3.14</v>
       </c>
       <c r="AU42">
         <v>4</v>
@@ -10013,22 +10013,22 @@
         <v>2</v>
       </c>
       <c r="AO43">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AP43">
-        <v>2.42</v>
+        <v>2.29</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="AR43">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="AS43">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="AT43">
-        <v>3.54</v>
+        <v>3.58</v>
       </c>
       <c r="AU43">
         <v>8</v>
@@ -10216,25 +10216,25 @@
         <v>2.3</v>
       </c>
       <c r="AN44">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AO44">
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="AP44">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ44">
-        <v>0.58</v>
+        <v>0.92</v>
       </c>
       <c r="AR44">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="AS44">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AT44">
-        <v>3.16</v>
+        <v>3.23</v>
       </c>
       <c r="AU44">
         <v>8</v>
@@ -10422,25 +10422,25 @@
         <v>1.11</v>
       </c>
       <c r="AN45">
-        <v>2</v>
+        <v>1.43</v>
       </c>
       <c r="AO45">
-        <v>2</v>
+        <v>2.57</v>
       </c>
       <c r="AP45">
-        <v>1.91</v>
+        <v>1.42</v>
       </c>
       <c r="AQ45">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR45">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="AS45">
         <v>1.88</v>
       </c>
       <c r="AT45">
-        <v>4.02</v>
+        <v>3.85</v>
       </c>
       <c r="AU45">
         <v>3</v>
@@ -10628,25 +10628,25 @@
         <v>2.25</v>
       </c>
       <c r="AN46">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO46">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AP46">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AQ46">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR46">
-        <v>1.74</v>
+        <v>2.13</v>
       </c>
       <c r="AS46">
-        <v>1.71</v>
+        <v>1.89</v>
       </c>
       <c r="AT46">
-        <v>3.45</v>
+        <v>4.02</v>
       </c>
       <c r="AU46">
         <v>6</v>
@@ -10834,25 +10834,25 @@
         <v>1.88</v>
       </c>
       <c r="AN47">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="AO47">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AP47">
-        <v>2.17</v>
+        <v>1.58</v>
       </c>
       <c r="AQ47">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AR47">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="AS47">
-        <v>1.42</v>
+        <v>1.73</v>
       </c>
       <c r="AT47">
-        <v>3.09</v>
+        <v>3.51</v>
       </c>
       <c r="AU47">
         <v>10</v>
@@ -11040,25 +11040,25 @@
         <v>1.3</v>
       </c>
       <c r="AN48">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AO48">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AP48">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ48">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR48">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="AS48">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT48">
-        <v>3.54</v>
+        <v>3.63</v>
       </c>
       <c r="AU48">
         <v>4</v>
@@ -11246,25 +11246,25 @@
         <v>1.65</v>
       </c>
       <c r="AN49">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="AO49">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AQ49">
-        <v>0.62</v>
+        <v>0.88</v>
       </c>
       <c r="AR49">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="AS49">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AT49">
-        <v>3.04</v>
+        <v>2.99</v>
       </c>
       <c r="AU49">
         <v>10</v>
@@ -11279,10 +11279,10 @@
         <v>7</v>
       </c>
       <c r="AY49">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AZ49">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA49">
         <v>6</v>
@@ -11452,25 +11452,25 @@
         <v>1.8</v>
       </c>
       <c r="AN50">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AO50">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AP50">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="AR50">
-        <v>1.74</v>
+        <v>2.08</v>
       </c>
       <c r="AS50">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AT50">
-        <v>3.67</v>
+        <v>3.89</v>
       </c>
       <c r="AU50">
         <v>8</v>
@@ -11661,22 +11661,22 @@
         <v>2.25</v>
       </c>
       <c r="AO51">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AP51">
-        <v>2.42</v>
+        <v>2.29</v>
       </c>
       <c r="AQ51">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR51">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="AS51">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="AT51">
-        <v>4.06</v>
+        <v>3.99</v>
       </c>
       <c r="AU51">
         <v>5</v>
@@ -11864,25 +11864,25 @@
         <v>1.9</v>
       </c>
       <c r="AN52">
+        <v>1.63</v>
+      </c>
+      <c r="AO52">
         <v>1.5</v>
       </c>
-      <c r="AO52">
-        <v>1.67</v>
-      </c>
       <c r="AP52">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AQ52">
-        <v>0.83</v>
+        <v>1.25</v>
       </c>
       <c r="AR52">
-        <v>2.33</v>
+        <v>1.91</v>
       </c>
       <c r="AS52">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AT52">
-        <v>3.92</v>
+        <v>3.53</v>
       </c>
       <c r="AU52">
         <v>7</v>
@@ -12070,25 +12070,25 @@
         <v>1.66</v>
       </c>
       <c r="AN53">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="AO53">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP53">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AR53">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="AS53">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="AT53">
-        <v>3.71</v>
+        <v>3.7</v>
       </c>
       <c r="AU53">
         <v>8</v>
@@ -12276,25 +12276,25 @@
         <v>1.12</v>
       </c>
       <c r="AN54">
-        <v>1.5</v>
+        <v>0.88</v>
       </c>
       <c r="AO54">
-        <v>0.75</v>
+        <v>1.44</v>
       </c>
       <c r="AP54">
-        <v>1.25</v>
+        <v>0.92</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="AR54">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="AS54">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="AT54">
-        <v>3.18</v>
+        <v>3.05</v>
       </c>
       <c r="AU54">
         <v>7</v>
@@ -12482,25 +12482,25 @@
         <v>4.15</v>
       </c>
       <c r="AN55">
-        <v>3</v>
+        <v>2.44</v>
       </c>
       <c r="AO55">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2.42</v>
+        <v>2.29</v>
       </c>
       <c r="AQ55">
-        <v>0.42</v>
+        <v>0.71</v>
       </c>
       <c r="AR55">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AS55">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="AT55">
-        <v>3.63</v>
+        <v>3.72</v>
       </c>
       <c r="AU55">
         <v>10</v>
@@ -12688,25 +12688,25 @@
         <v>1.06</v>
       </c>
       <c r="AN56">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AO56">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AP56">
-        <v>1.18</v>
+        <v>0.88</v>
       </c>
       <c r="AQ56">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR56">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AS56">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="AT56">
-        <v>3.25</v>
+        <v>3.31</v>
       </c>
       <c r="AU56">
         <v>4</v>
@@ -12894,25 +12894,25 @@
         <v>1.38</v>
       </c>
       <c r="AN57">
-        <v>0.25</v>
+        <v>1.38</v>
       </c>
       <c r="AO57">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ57">
-        <v>1.27</v>
+        <v>1.63</v>
       </c>
       <c r="AR57">
         <v>2.05</v>
       </c>
       <c r="AS57">
-        <v>2.42</v>
+        <v>2.05</v>
       </c>
       <c r="AT57">
-        <v>4.47</v>
+        <v>4.1</v>
       </c>
       <c r="AU57">
         <v>8</v>
@@ -13100,25 +13100,25 @@
         <v>1.89</v>
       </c>
       <c r="AN58">
-        <v>0.8</v>
+        <v>0.44</v>
       </c>
       <c r="AO58">
-        <v>0.67</v>
+        <v>1.11</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AQ58">
-        <v>0.58</v>
+        <v>0.92</v>
       </c>
       <c r="AR58">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AS58">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AT58">
-        <v>3.19</v>
+        <v>3.12</v>
       </c>
       <c r="AU58">
         <v>11</v>
@@ -13306,25 +13306,25 @@
         <v>1.5</v>
       </c>
       <c r="AN59">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AO59">
-        <v>2.5</v>
+        <v>1.22</v>
       </c>
       <c r="AP59">
-        <v>1.91</v>
+        <v>1.42</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="AR59">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="AS59">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="AT59">
-        <v>3.97</v>
+        <v>3.81</v>
       </c>
       <c r="AU59">
         <v>7</v>
@@ -13512,25 +13512,25 @@
         <v>1.62</v>
       </c>
       <c r="AN60">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AO60">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AP60">
-        <v>2.17</v>
+        <v>1.58</v>
       </c>
       <c r="AQ60">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR60">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="AS60">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="AT60">
-        <v>3.5</v>
+        <v>3.71</v>
       </c>
       <c r="AU60">
         <v>10</v>
@@ -13718,25 +13718,25 @@
         <v>2.2</v>
       </c>
       <c r="AN61">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AO61">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AP61">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ61">
-        <v>0.62</v>
+        <v>0.88</v>
       </c>
       <c r="AR61">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="AS61">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="AT61">
-        <v>3.08</v>
+        <v>2.84</v>
       </c>
       <c r="AU61">
         <v>6</v>
@@ -13924,25 +13924,25 @@
         <v>1.46</v>
       </c>
       <c r="AN62">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AO62">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AP62">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AQ62">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR62">
-        <v>1.76</v>
+        <v>1.99</v>
       </c>
       <c r="AS62">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AT62">
-        <v>3.59</v>
+        <v>3.89</v>
       </c>
       <c r="AU62">
         <v>10</v>
@@ -14130,25 +14130,25 @@
         <v>2.68</v>
       </c>
       <c r="AN63">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AO63">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP63">
-        <v>2.42</v>
+        <v>2.29</v>
       </c>
       <c r="AQ63">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AR63">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AS63">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="AT63">
-        <v>3.65</v>
+        <v>3.84</v>
       </c>
       <c r="AU63">
         <v>6</v>
@@ -14336,25 +14336,25 @@
         <v>1.15</v>
       </c>
       <c r="AN64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO64">
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>1.25</v>
+        <v>0.92</v>
       </c>
       <c r="AQ64">
-        <v>1.27</v>
+        <v>1.63</v>
       </c>
       <c r="AR64">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AS64">
-        <v>2.22</v>
+        <v>2.03</v>
       </c>
       <c r="AT64">
-        <v>3.59</v>
+        <v>3.33</v>
       </c>
       <c r="AU64">
         <v>3</v>
@@ -14542,25 +14542,25 @@
         <v>1.17</v>
       </c>
       <c r="AN65">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AO65">
-        <v>0.6</v>
+        <v>1.45</v>
       </c>
       <c r="AP65">
-        <v>1.18</v>
+        <v>0.88</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="AR65">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="AS65">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="AT65">
-        <v>3.06</v>
+        <v>3.1</v>
       </c>
       <c r="AU65">
         <v>5</v>
@@ -14748,25 +14748,25 @@
         <v>2.65</v>
       </c>
       <c r="AN66">
-        <v>3</v>
+        <v>2.36</v>
       </c>
       <c r="AO66">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="AP66">
-        <v>2.42</v>
+        <v>2.29</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="AR66">
+        <v>1.86</v>
+      </c>
+      <c r="AS66">
         <v>1.97</v>
       </c>
-      <c r="AS66">
-        <v>2.02</v>
-      </c>
       <c r="AT66">
-        <v>3.99</v>
+        <v>3.83</v>
       </c>
       <c r="AU66">
         <v>9</v>
@@ -14954,22 +14954,22 @@
         <v>1.85</v>
       </c>
       <c r="AN67">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="AO67">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AP67">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ67">
-        <v>0.83</v>
+        <v>1.25</v>
       </c>
       <c r="AR67">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="AS67">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="AT67">
         <v>3.36</v>
@@ -15160,25 +15160,25 @@
         <v>2.85</v>
       </c>
       <c r="AN68">
-        <v>2.17</v>
+        <v>2.27</v>
       </c>
       <c r="AO68">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AP68">
-        <v>2.42</v>
+        <v>2.29</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AR68">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="AS68">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="AT68">
-        <v>3.74</v>
+        <v>3.89</v>
       </c>
       <c r="AU68">
         <v>10</v>
@@ -15366,25 +15366,25 @@
         <v>2.45</v>
       </c>
       <c r="AN69">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AO69">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AP69">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AQ69">
-        <v>0.42</v>
+        <v>0.71</v>
       </c>
       <c r="AR69">
-        <v>2.15</v>
+        <v>1.89</v>
       </c>
       <c r="AS69">
-        <v>1.7</v>
+        <v>1.89</v>
       </c>
       <c r="AT69">
-        <v>3.85</v>
+        <v>3.78</v>
       </c>
       <c r="AU69">
         <v>6</v>
@@ -15572,25 +15572,25 @@
         <v>1.3</v>
       </c>
       <c r="AN70">
-        <v>1.5</v>
+        <v>0.91</v>
       </c>
       <c r="AO70">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AP70">
+        <v>0.92</v>
+      </c>
+      <c r="AQ70">
         <v>1.25</v>
-      </c>
-      <c r="AQ70">
-        <v>0.83</v>
       </c>
       <c r="AR70">
         <v>1.27</v>
       </c>
       <c r="AS70">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="AT70">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="AU70">
         <v>2</v>
@@ -15778,25 +15778,25 @@
         <v>1.25</v>
       </c>
       <c r="AN71">
-        <v>2.17</v>
+        <v>1.33</v>
       </c>
       <c r="AO71">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AP71">
-        <v>2.17</v>
+        <v>1.58</v>
       </c>
       <c r="AQ71">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR71">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AS71">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="AT71">
-        <v>3.56</v>
+        <v>3.82</v>
       </c>
       <c r="AU71">
         <v>4</v>
@@ -15984,25 +15984,25 @@
         <v>2.25</v>
       </c>
       <c r="AN72">
-        <v>0.2</v>
+        <v>1.09</v>
       </c>
       <c r="AO72">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="AP72">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ72">
-        <v>0.42</v>
+        <v>0.71</v>
       </c>
       <c r="AR72">
         <v>1.93</v>
       </c>
       <c r="AS72">
-        <v>1.69</v>
+        <v>1.87</v>
       </c>
       <c r="AT72">
-        <v>3.62</v>
+        <v>3.8</v>
       </c>
       <c r="AU72">
         <v>7</v>
@@ -16190,25 +16190,25 @@
         <v>1.22</v>
       </c>
       <c r="AN73">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AO73">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="AP73">
-        <v>1.18</v>
+        <v>0.88</v>
       </c>
       <c r="AQ73">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AR73">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AS73">
-        <v>1.62</v>
+        <v>1.81</v>
       </c>
       <c r="AT73">
-        <v>2.8</v>
+        <v>3.07</v>
       </c>
       <c r="AU73">
         <v>3</v>
@@ -16396,25 +16396,25 @@
         <v>1.36</v>
       </c>
       <c r="AN74">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="AO74">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AP74">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AQ74">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR74">
+        <v>1.89</v>
+      </c>
+      <c r="AS74">
         <v>2.07</v>
       </c>
-      <c r="AS74">
-        <v>2.06</v>
-      </c>
       <c r="AT74">
-        <v>4.13</v>
+        <v>3.96</v>
       </c>
       <c r="AU74">
         <v>2</v>
@@ -16602,25 +16602,25 @@
         <v>1.18</v>
       </c>
       <c r="AN75">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AO75">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AP75">
-        <v>1.91</v>
+        <v>1.42</v>
       </c>
       <c r="AQ75">
-        <v>1.27</v>
+        <v>1.63</v>
       </c>
       <c r="AR75">
-        <v>1.99</v>
+        <v>1.79</v>
       </c>
       <c r="AS75">
-        <v>2.32</v>
+        <v>2.09</v>
       </c>
       <c r="AT75">
-        <v>4.31</v>
+        <v>3.88</v>
       </c>
       <c r="AU75">
         <v>7</v>
@@ -16808,25 +16808,25 @@
         <v>3</v>
       </c>
       <c r="AN76">
-        <v>2.67</v>
+        <v>2.31</v>
       </c>
       <c r="AO76">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>2.42</v>
+        <v>2.29</v>
       </c>
       <c r="AQ76">
-        <v>0.83</v>
+        <v>1.25</v>
       </c>
       <c r="AR76">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AS76">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AT76">
-        <v>3.63</v>
+        <v>3.52</v>
       </c>
       <c r="AU76">
         <v>8</v>
@@ -17014,25 +17014,25 @@
         <v>2.39</v>
       </c>
       <c r="AN77">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO77">
-        <v>1.4</v>
+        <v>1.08</v>
       </c>
       <c r="AP77">
-        <v>1.91</v>
+        <v>1.42</v>
       </c>
       <c r="AQ77">
-        <v>0.62</v>
+        <v>0.88</v>
       </c>
       <c r="AR77">
-        <v>1.96</v>
+        <v>1.79</v>
       </c>
       <c r="AS77">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT77">
-        <v>3.32</v>
+        <v>3.04</v>
       </c>
       <c r="AU77">
         <v>10</v>
@@ -17220,25 +17220,25 @@
         <v>1.66</v>
       </c>
       <c r="AN78">
-        <v>0.33</v>
+        <v>1.08</v>
       </c>
       <c r="AO78">
-        <v>0.5</v>
+        <v>1.23</v>
       </c>
       <c r="AP78">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="AR78">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="AS78">
-        <v>1.98</v>
+        <v>1.81</v>
       </c>
       <c r="AT78">
-        <v>3.87</v>
+        <v>3.72</v>
       </c>
       <c r="AU78">
         <v>7</v>
@@ -17426,25 +17426,25 @@
         <v>1.08</v>
       </c>
       <c r="AN79">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
       <c r="AO79">
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>1.25</v>
+        <v>0.92</v>
       </c>
       <c r="AQ79">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR79">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AS79">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="AT79">
-        <v>3.11</v>
+        <v>3.24</v>
       </c>
       <c r="AU79">
         <v>7</v>
@@ -17632,25 +17632,25 @@
         <v>3.48</v>
       </c>
       <c r="AN80">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AO80">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="AP80">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AQ80">
-        <v>0.42</v>
+        <v>0.71</v>
       </c>
       <c r="AR80">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="AS80">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="AT80">
-        <v>3.44</v>
+        <v>3.88</v>
       </c>
       <c r="AU80">
         <v>9</v>
@@ -17838,25 +17838,25 @@
         <v>1.9</v>
       </c>
       <c r="AN81">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO81">
-        <v>0.6</v>
+        <v>0.92</v>
       </c>
       <c r="AP81">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AQ81">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AR81">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="AS81">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="AT81">
-        <v>3.71</v>
+        <v>3.7</v>
       </c>
       <c r="AU81">
         <v>4</v>
@@ -18044,25 +18044,25 @@
         <v>1.43</v>
       </c>
       <c r="AN82">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AO82">
-        <v>1.83</v>
+        <v>1.08</v>
       </c>
       <c r="AP82">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="AR82">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="AS82">
         <v>1.93</v>
       </c>
       <c r="AT82">
-        <v>3.58</v>
+        <v>3.57</v>
       </c>
       <c r="AU82">
         <v>5</v>
@@ -18250,25 +18250,25 @@
         <v>1.27</v>
       </c>
       <c r="AN83">
-        <v>1.17</v>
+        <v>0.85</v>
       </c>
       <c r="AO83">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="AP83">
-        <v>1.25</v>
+        <v>0.92</v>
       </c>
       <c r="AQ83">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AR83">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AS83">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="AT83">
-        <v>3.11</v>
+        <v>3.16</v>
       </c>
       <c r="AU83">
         <v>2</v>
@@ -18456,25 +18456,25 @@
         <v>2.8</v>
       </c>
       <c r="AN84">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AO84">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AQ84">
-        <v>0.62</v>
+        <v>0.88</v>
       </c>
       <c r="AR84">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AS84">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AT84">
-        <v>3.23</v>
+        <v>3.08</v>
       </c>
       <c r="AU84">
         <v>7</v>
@@ -18662,25 +18662,25 @@
         <v>1.33</v>
       </c>
       <c r="AN85">
-        <v>1.17</v>
+        <v>0.62</v>
       </c>
       <c r="AO85">
-        <v>1.33</v>
+        <v>1.77</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AR85">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="AS85">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="AT85">
-        <v>3.65</v>
+        <v>3.58</v>
       </c>
       <c r="AU85">
         <v>8</v>
@@ -18868,25 +18868,25 @@
         <v>1.53</v>
       </c>
       <c r="AN86">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="AO86">
-        <v>0.57</v>
+        <v>0.79</v>
       </c>
       <c r="AP86">
-        <v>1.18</v>
+        <v>0.88</v>
       </c>
       <c r="AQ86">
-        <v>0.58</v>
+        <v>0.92</v>
       </c>
       <c r="AR86">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AS86">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AT86">
-        <v>2.45</v>
+        <v>2.61</v>
       </c>
       <c r="AU86">
         <v>5</v>
@@ -19074,25 +19074,25 @@
         <v>1.2</v>
       </c>
       <c r="AN87">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AO87">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="AP87">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ87">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR87">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AS87">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AT87">
-        <v>3.71</v>
+        <v>3.75</v>
       </c>
       <c r="AU87">
         <v>3</v>
@@ -19280,25 +19280,25 @@
         <v>2.3</v>
       </c>
       <c r="AN88">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AO88">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AP88">
-        <v>2.42</v>
+        <v>2.29</v>
       </c>
       <c r="AQ88">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="AR88">
-        <v>2.07</v>
+        <v>1.97</v>
       </c>
       <c r="AS88">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="AT88">
-        <v>3.95</v>
+        <v>3.88</v>
       </c>
       <c r="AU88">
         <v>10</v>
@@ -19486,25 +19486,25 @@
         <v>2.4</v>
       </c>
       <c r="AN89">
-        <v>1.86</v>
+        <v>1.21</v>
       </c>
       <c r="AO89">
-        <v>0.14</v>
+        <v>0.79</v>
       </c>
       <c r="AP89">
-        <v>2.17</v>
+        <v>1.58</v>
       </c>
       <c r="AQ89">
-        <v>0.42</v>
+        <v>0.71</v>
       </c>
       <c r="AR89">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="AS89">
-        <v>1.57</v>
+        <v>1.77</v>
       </c>
       <c r="AT89">
-        <v>3.24</v>
+        <v>3.53</v>
       </c>
       <c r="AU89">
         <v>7</v>
@@ -19692,25 +19692,25 @@
         <v>2.15</v>
       </c>
       <c r="AN90">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AO90">
-        <v>1.14</v>
+        <v>1.64</v>
       </c>
       <c r="AP90">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AR90">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="AS90">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="AT90">
-        <v>3.59</v>
+        <v>3.66</v>
       </c>
       <c r="AU90">
         <v>5</v>
@@ -19898,25 +19898,25 @@
         <v>1.12</v>
       </c>
       <c r="AN91">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AO91">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="AP91">
-        <v>1.25</v>
+        <v>0.92</v>
       </c>
       <c r="AQ91">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR91">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AS91">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT91">
-        <v>3.06</v>
+        <v>3.19</v>
       </c>
       <c r="AU91">
         <v>4</v>
@@ -20104,25 +20104,25 @@
         <v>1.53</v>
       </c>
       <c r="AN92">
-        <v>2.14</v>
+        <v>1.6</v>
       </c>
       <c r="AO92">
-        <v>0.57</v>
+        <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>1.91</v>
+        <v>1.42</v>
       </c>
       <c r="AQ92">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="AR92">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="AS92">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT92">
-        <v>3.81</v>
+        <v>3.58</v>
       </c>
       <c r="AU92">
         <v>7</v>
@@ -20310,25 +20310,25 @@
         <v>3.9</v>
       </c>
       <c r="AN93">
-        <v>2.71</v>
+        <v>2.2</v>
       </c>
       <c r="AO93">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AP93">
-        <v>2.42</v>
+        <v>2.29</v>
       </c>
       <c r="AQ93">
-        <v>0.62</v>
+        <v>0.88</v>
       </c>
       <c r="AR93">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AS93">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="AT93">
-        <v>3.48</v>
+        <v>3.24</v>
       </c>
       <c r="AU93">
         <v>18</v>
@@ -20516,25 +20516,25 @@
         <v>1.2</v>
       </c>
       <c r="AN94">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AO94">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AP94">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ94">
-        <v>1.27</v>
+        <v>1.63</v>
       </c>
       <c r="AR94">
         <v>1.62</v>
       </c>
       <c r="AS94">
-        <v>2.27</v>
+        <v>2.1</v>
       </c>
       <c r="AT94">
-        <v>3.89</v>
+        <v>3.72</v>
       </c>
       <c r="AU94">
         <v>6</v>
@@ -20722,16 +20722,16 @@
         <v>1.7</v>
       </c>
       <c r="AN95">
-        <v>0.43</v>
+        <v>0.93</v>
       </c>
       <c r="AO95">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AP95">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ95">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AR95">
         <v>1.93</v>
@@ -20928,25 +20928,25 @@
         <v>1.45</v>
       </c>
       <c r="AN96">
-        <v>1.43</v>
+        <v>0.73</v>
       </c>
       <c r="AO96">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="AP96">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AQ96">
-        <v>0.83</v>
+        <v>1.25</v>
       </c>
       <c r="AR96">
-        <v>1.96</v>
+        <v>1.75</v>
       </c>
       <c r="AS96">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AT96">
-        <v>3.59</v>
+        <v>3.37</v>
       </c>
       <c r="AU96">
         <v>4</v>
@@ -21134,25 +21134,25 @@
         <v>1.28</v>
       </c>
       <c r="AN97">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="AO97">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="AP97">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AQ97">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR97">
-        <v>2.01</v>
+        <v>1.86</v>
       </c>
       <c r="AS97">
-        <v>1.82</v>
+        <v>2.03</v>
       </c>
       <c r="AT97">
-        <v>3.83</v>
+        <v>3.89</v>
       </c>
       <c r="AU97">
         <v>4</v>
@@ -21340,25 +21340,25 @@
         <v>1.65</v>
       </c>
       <c r="AN98">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AO98">
-        <v>0.88</v>
+        <v>1.44</v>
       </c>
       <c r="AP98">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ98">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="AR98">
         <v>1.61</v>
       </c>
       <c r="AS98">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AT98">
-        <v>3.56</v>
+        <v>3.46</v>
       </c>
       <c r="AU98">
         <v>7</v>
@@ -21546,25 +21546,25 @@
         <v>3.28</v>
       </c>
       <c r="AN99">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AO99">
-        <v>0.13</v>
+        <v>0.75</v>
       </c>
       <c r="AP99">
-        <v>2.42</v>
+        <v>2.29</v>
       </c>
       <c r="AQ99">
-        <v>0.42</v>
+        <v>0.71</v>
       </c>
       <c r="AR99">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AS99">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="AT99">
-        <v>3.7</v>
+        <v>3.72</v>
       </c>
       <c r="AU99">
         <v>8</v>
@@ -21752,25 +21752,25 @@
         <v>1.3</v>
       </c>
       <c r="AN100">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="AO100">
+        <v>1.87</v>
+      </c>
+      <c r="AP100">
+        <v>1.29</v>
+      </c>
+      <c r="AQ100">
         <v>1.63</v>
       </c>
-      <c r="AP100">
-        <v>1.33</v>
-      </c>
-      <c r="AQ100">
-        <v>1.27</v>
-      </c>
       <c r="AR100">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="AS100">
-        <v>2.36</v>
+        <v>2.15</v>
       </c>
       <c r="AT100">
-        <v>4.18</v>
+        <v>3.94</v>
       </c>
       <c r="AU100">
         <v>7</v>
@@ -21958,25 +21958,25 @@
         <v>1.28</v>
       </c>
       <c r="AN101">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="AO101">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="AP101">
-        <v>1.25</v>
+        <v>0.92</v>
       </c>
       <c r="AQ101">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AR101">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="AS101">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT101">
-        <v>2.86</v>
+        <v>3.04</v>
       </c>
       <c r="AU101">
         <v>6</v>
@@ -21991,10 +21991,10 @@
         <v>3</v>
       </c>
       <c r="AY101">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ101">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA101">
         <v>3</v>
@@ -22164,25 +22164,25 @@
         <v>6.75</v>
       </c>
       <c r="AN102">
-        <v>2.75</v>
+        <v>2.29</v>
       </c>
       <c r="AO102">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AP102">
-        <v>2.42</v>
+        <v>2.29</v>
       </c>
       <c r="AQ102">
-        <v>0.58</v>
+        <v>0.92</v>
       </c>
       <c r="AR102">
-        <v>2.23</v>
+        <v>2.04</v>
       </c>
       <c r="AS102">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT102">
-        <v>3.53</v>
+        <v>3.31</v>
       </c>
       <c r="AU102">
         <v>8</v>
@@ -22197,10 +22197,10 @@
         <v>8</v>
       </c>
       <c r="AY102">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ102">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA102">
         <v>10</v>
@@ -22370,25 +22370,25 @@
         <v>1.4</v>
       </c>
       <c r="AN103">
-        <v>1.38</v>
+        <v>0.71</v>
       </c>
       <c r="AO103">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AP103">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AQ103">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AR103">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="AS103">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="AT103">
-        <v>3.63</v>
+        <v>3.5</v>
       </c>
       <c r="AU103">
         <v>6</v>
@@ -22403,10 +22403,10 @@
         <v>13</v>
       </c>
       <c r="AY103">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AZ103">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="BA103">
         <v>6</v>
@@ -22576,25 +22576,25 @@
         <v>4.6</v>
       </c>
       <c r="AN104">
-        <v>2.14</v>
+        <v>1.75</v>
       </c>
       <c r="AO104">
         <v>0.88</v>
       </c>
       <c r="AP104">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AQ104">
-        <v>0.62</v>
+        <v>0.88</v>
       </c>
       <c r="AR104">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="AS104">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT104">
-        <v>3.37</v>
+        <v>3.43</v>
       </c>
       <c r="AU104">
         <v>14</v>
@@ -22609,10 +22609,10 @@
         <v>6</v>
       </c>
       <c r="AY104">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AZ104">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA104">
         <v>13</v>
@@ -22782,25 +22782,25 @@
         <v>1.38</v>
       </c>
       <c r="AN105">
-        <v>2</v>
+        <v>1.35</v>
       </c>
       <c r="AO105">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AP105">
-        <v>2.17</v>
+        <v>1.58</v>
       </c>
       <c r="AQ105">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR105">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AS105">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="AT105">
-        <v>3.62</v>
+        <v>3.86</v>
       </c>
       <c r="AU105">
         <v>9</v>
@@ -22815,10 +22815,10 @@
         <v>7</v>
       </c>
       <c r="AY105">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AZ105">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA105">
         <v>10</v>
@@ -22988,25 +22988,25 @@
         <v>1.58</v>
       </c>
       <c r="AN106">
-        <v>1.88</v>
+        <v>1.47</v>
       </c>
       <c r="AO106">
+        <v>1.53</v>
+      </c>
+      <c r="AP106">
+        <v>1.42</v>
+      </c>
+      <c r="AQ106">
         <v>1.25</v>
       </c>
-      <c r="AP106">
-        <v>1.91</v>
-      </c>
-      <c r="AQ106">
-        <v>0.83</v>
-      </c>
       <c r="AR106">
-        <v>1.94</v>
+        <v>1.73</v>
       </c>
       <c r="AS106">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="AT106">
-        <v>3.56</v>
+        <v>3.37</v>
       </c>
       <c r="AU106">
         <v>3</v>
@@ -23021,10 +23021,10 @@
         <v>9</v>
       </c>
       <c r="AY106">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ106">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA106">
         <v>3</v>
@@ -23194,25 +23194,25 @@
         <v>1.5</v>
       </c>
       <c r="AN107">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO107">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="AP107">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ107">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR107">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="AS107">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="AT107">
-        <v>3.69</v>
+        <v>3.79</v>
       </c>
       <c r="AU107">
         <v>5</v>
@@ -23227,10 +23227,10 @@
         <v>9</v>
       </c>
       <c r="AY107">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ107">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA107">
         <v>9</v>
@@ -23400,25 +23400,25 @@
         <v>1.78</v>
       </c>
       <c r="AN108">
-        <v>2.25</v>
+        <v>1.82</v>
       </c>
       <c r="AO108">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AP108">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AQ108">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR108">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="AS108">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="AT108">
-        <v>4.07</v>
+        <v>4.25</v>
       </c>
       <c r="AU108">
         <v>7</v>
@@ -23433,10 +23433,10 @@
         <v>11</v>
       </c>
       <c r="AY108">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ108">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BA108">
         <v>8</v>
@@ -23606,25 +23606,25 @@
         <v>1.29</v>
       </c>
       <c r="AN109">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="AO109">
-        <v>1.38</v>
+        <v>1.06</v>
       </c>
       <c r="AP109">
-        <v>1.25</v>
+        <v>0.92</v>
       </c>
       <c r="AQ109">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="AR109">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AS109">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="AT109">
-        <v>3.18</v>
+        <v>3.22</v>
       </c>
       <c r="AU109">
         <v>5</v>
@@ -23812,25 +23812,25 @@
         <v>1.77</v>
       </c>
       <c r="AN110">
-        <v>1.56</v>
+        <v>1.28</v>
       </c>
       <c r="AO110">
-        <v>0.78</v>
+        <v>1.33</v>
       </c>
       <c r="AP110">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ110">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="AR110">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="AS110">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="AT110">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AU110">
         <v>5</v>
@@ -23845,10 +23845,10 @@
         <v>6</v>
       </c>
       <c r="AY110">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ110">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA110">
         <v>10</v>
@@ -24018,25 +24018,25 @@
         <v>1.36</v>
       </c>
       <c r="AN111">
+        <v>0.82</v>
+      </c>
+      <c r="AO111">
+        <v>0.72</v>
+      </c>
+      <c r="AP111">
         <v>0.88</v>
       </c>
-      <c r="AO111">
-        <v>0.11</v>
-      </c>
-      <c r="AP111">
-        <v>1.18</v>
-      </c>
       <c r="AQ111">
-        <v>0.42</v>
+        <v>0.71</v>
       </c>
       <c r="AR111">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="AS111">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="AT111">
-        <v>2.79</v>
+        <v>3.09</v>
       </c>
       <c r="AU111">
         <v>4</v>
@@ -24051,10 +24051,10 @@
         <v>11</v>
       </c>
       <c r="AY111">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ111">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="BA111">
         <v>3</v>
@@ -24224,25 +24224,25 @@
         <v>1.36</v>
       </c>
       <c r="AN112">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AO112">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="AP112">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AQ112">
-        <v>1.27</v>
+        <v>1.63</v>
       </c>
       <c r="AR112">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="AS112">
-        <v>2.23</v>
+        <v>2.16</v>
       </c>
       <c r="AT112">
-        <v>4.16</v>
+        <v>3.98</v>
       </c>
       <c r="AU112">
         <v>5</v>
@@ -24257,10 +24257,10 @@
         <v>2</v>
       </c>
       <c r="AY112">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AZ112">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA112">
         <v>10</v>
@@ -24430,25 +24430,25 @@
         <v>2.38</v>
       </c>
       <c r="AN113">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="AO113">
-        <v>1.11</v>
+        <v>1.44</v>
       </c>
       <c r="AP113">
-        <v>2.42</v>
+        <v>2.29</v>
       </c>
       <c r="AQ113">
-        <v>0.83</v>
+        <v>1.25</v>
       </c>
       <c r="AR113">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="AS113">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AT113">
-        <v>3.77</v>
+        <v>3.64</v>
       </c>
       <c r="AU113">
         <v>5</v>
@@ -24463,7 +24463,7 @@
         <v>3</v>
       </c>
       <c r="AY113">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ113">
         <v>8</v>
@@ -24636,25 +24636,25 @@
         <v>2.6</v>
       </c>
       <c r="AN114">
-        <v>2.56</v>
+        <v>2.22</v>
       </c>
       <c r="AO114">
-        <v>1.11</v>
+        <v>1.56</v>
       </c>
       <c r="AP114">
-        <v>2.42</v>
+        <v>2.29</v>
       </c>
       <c r="AQ114">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AR114">
-        <v>2.25</v>
+        <v>2.06</v>
       </c>
       <c r="AS114">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AT114">
-        <v>3.8</v>
+        <v>3.76</v>
       </c>
       <c r="AU114">
         <v>5</v>
@@ -24669,10 +24669,10 @@
         <v>4</v>
       </c>
       <c r="AY114">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ114">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA114">
         <v>4</v>
@@ -24845,22 +24845,22 @@
         <v>0.78</v>
       </c>
       <c r="AO115">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AP115">
-        <v>1.18</v>
+        <v>0.88</v>
       </c>
       <c r="AQ115">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="AR115">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AS115">
         <v>1.96</v>
       </c>
       <c r="AT115">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AU115">
         <v>7</v>
@@ -24878,7 +24878,7 @@
         <v>10</v>
       </c>
       <c r="AZ115">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="BA115">
         <v>8</v>
@@ -25048,25 +25048,25 @@
         <v>3</v>
       </c>
       <c r="AN116">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="AO116">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="AP116">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AQ116">
-        <v>0.58</v>
+        <v>0.92</v>
       </c>
       <c r="AR116">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="AS116">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT116">
-        <v>3.4</v>
+        <v>3.38</v>
       </c>
       <c r="AU116">
         <v>11</v>
@@ -25081,10 +25081,10 @@
         <v>2</v>
       </c>
       <c r="AY116">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AZ116">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA116">
         <v>11</v>
@@ -25254,25 +25254,25 @@
         <v>1.5</v>
       </c>
       <c r="AN117">
-        <v>1.78</v>
+        <v>1.37</v>
       </c>
       <c r="AO117">
-        <v>1</v>
+        <v>1.26</v>
       </c>
       <c r="AP117">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ117">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AR117">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="AS117">
         <v>1.81</v>
       </c>
       <c r="AT117">
-        <v>3.47</v>
+        <v>3.42</v>
       </c>
       <c r="AU117">
         <v>4</v>
@@ -25287,10 +25287,10 @@
         <v>8</v>
       </c>
       <c r="AY117">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ117">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA117">
         <v>3</v>
@@ -25460,25 +25460,25 @@
         <v>1.18</v>
       </c>
       <c r="AN118">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="AO118">
-        <v>1.89</v>
+        <v>2.11</v>
       </c>
       <c r="AP118">
-        <v>1.91</v>
+        <v>1.42</v>
       </c>
       <c r="AQ118">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR118">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="AS118">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="AT118">
-        <v>3.71</v>
+        <v>3.72</v>
       </c>
       <c r="AU118">
         <v>5</v>
@@ -25493,10 +25493,10 @@
         <v>12</v>
       </c>
       <c r="AY118">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ118">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="BA118">
         <v>4</v>
@@ -25666,25 +25666,25 @@
         <v>1.29</v>
       </c>
       <c r="AN119">
-        <v>1.33</v>
+        <v>0.84</v>
       </c>
       <c r="AO119">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AP119">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AQ119">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR119">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="AS119">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="AT119">
-        <v>3.6</v>
+        <v>3.58</v>
       </c>
       <c r="AU119">
         <v>3</v>
@@ -25699,10 +25699,10 @@
         <v>13</v>
       </c>
       <c r="AY119">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ119">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="BA119">
         <v>3</v>
@@ -25872,25 +25872,25 @@
         <v>2.65</v>
       </c>
       <c r="AN120">
-        <v>1.89</v>
+        <v>1.32</v>
       </c>
       <c r="AO120">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AP120">
-        <v>2.17</v>
+        <v>1.58</v>
       </c>
       <c r="AQ120">
-        <v>0.62</v>
+        <v>0.88</v>
       </c>
       <c r="AR120">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AS120">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT120">
-        <v>3.3</v>
+        <v>3.24</v>
       </c>
       <c r="AU120">
         <v>7</v>
@@ -26078,25 +26078,25 @@
         <v>1.47</v>
       </c>
       <c r="AN121">
-        <v>1.1</v>
+        <v>0.85</v>
       </c>
       <c r="AO121">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AP121">
-        <v>1.25</v>
+        <v>0.92</v>
       </c>
       <c r="AQ121">
-        <v>0.42</v>
+        <v>0.71</v>
       </c>
       <c r="AR121">
         <v>1.25</v>
       </c>
       <c r="AS121">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT121">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="AU121">
         <v>3</v>
@@ -26111,10 +26111,10 @@
         <v>6</v>
       </c>
       <c r="AY121">
+        <v>19</v>
+      </c>
+      <c r="AZ121">
         <v>12</v>
-      </c>
-      <c r="AZ121">
-        <v>9</v>
       </c>
       <c r="BA121">
         <v>13</v>
@@ -26284,25 +26284,25 @@
         <v>1.3</v>
       </c>
       <c r="AN122">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="AO122">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AP122">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ122">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR122">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="AS122">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="AT122">
-        <v>3.69</v>
+        <v>3.82</v>
       </c>
       <c r="AU122">
         <v>5</v>
@@ -26320,7 +26320,7 @@
         <v>13</v>
       </c>
       <c r="AZ122">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA122">
         <v>5</v>
@@ -26490,25 +26490,25 @@
         <v>1.7</v>
       </c>
       <c r="AN123">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="AO123">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="AP123">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ123">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AR123">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="AS123">
-        <v>1.56</v>
+        <v>1.69</v>
       </c>
       <c r="AT123">
-        <v>3.52</v>
+        <v>3.67</v>
       </c>
       <c r="AU123">
         <v>7</v>
@@ -26523,10 +26523,10 @@
         <v>10</v>
       </c>
       <c r="AY123">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ123">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="BA123">
         <v>2</v>
@@ -26699,22 +26699,22 @@
         <v>1.6</v>
       </c>
       <c r="AO124">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="AP124">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AQ124">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="AR124">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="AS124">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="AT124">
-        <v>3.79</v>
+        <v>3.72</v>
       </c>
       <c r="AU124">
         <v>8</v>
@@ -26902,25 +26902,25 @@
         <v>1.83</v>
       </c>
       <c r="AN125">
-        <v>2.3</v>
+        <v>2.11</v>
       </c>
       <c r="AO125">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="AP125">
-        <v>2.42</v>
+        <v>2.29</v>
       </c>
       <c r="AQ125">
-        <v>1.27</v>
+        <v>1.63</v>
       </c>
       <c r="AR125">
-        <v>2.23</v>
+        <v>2.06</v>
       </c>
       <c r="AS125">
-        <v>2.11</v>
+        <v>2.19</v>
       </c>
       <c r="AT125">
-        <v>4.34</v>
+        <v>4.25</v>
       </c>
       <c r="AU125">
         <v>4</v>
@@ -26935,10 +26935,10 @@
         <v>9</v>
       </c>
       <c r="AY125">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ125">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA125">
         <v>6</v>
@@ -27108,25 +27108,25 @@
         <v>1.18</v>
       </c>
       <c r="AN126">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AO126">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AP126">
-        <v>1.18</v>
+        <v>0.88</v>
       </c>
       <c r="AQ126">
-        <v>0.83</v>
+        <v>1.25</v>
       </c>
       <c r="AR126">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="AS126">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AT126">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="AU126">
         <v>3</v>
@@ -27141,10 +27141,10 @@
         <v>15</v>
       </c>
       <c r="AY126">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ126">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="BA126">
         <v>6</v>
@@ -27314,25 +27314,25 @@
         <v>1.29</v>
       </c>
       <c r="AN127">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AO127">
-        <v>1.89</v>
+        <v>2.15</v>
       </c>
       <c r="AP127">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ127">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR127">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="AS127">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="AT127">
-        <v>3.8</v>
+        <v>4.02</v>
       </c>
       <c r="AU127">
         <v>3</v>
@@ -27406,7 +27406,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>7294918</v>
+        <v>7294916</v>
       </c>
       <c r="C128" t="s">
         <v>68</v>
@@ -27421,19 +27421,19 @@
         <v>22</v>
       </c>
       <c r="G128" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H128" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128">
         <v>0</v>
       </c>
       <c r="K128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L128">
         <v>1</v>
@@ -27451,154 +27451,154 @@
         <v>91</v>
       </c>
       <c r="Q128">
+        <v>2.75</v>
+      </c>
+      <c r="R128">
+        <v>2.4</v>
+      </c>
+      <c r="S128">
+        <v>3</v>
+      </c>
+      <c r="T128">
+        <v>1.25</v>
+      </c>
+      <c r="U128">
+        <v>3.75</v>
+      </c>
+      <c r="V128">
+        <v>2.2</v>
+      </c>
+      <c r="W128">
+        <v>1.62</v>
+      </c>
+      <c r="X128">
+        <v>4.5</v>
+      </c>
+      <c r="Y128">
+        <v>1.17</v>
+      </c>
+      <c r="Z128">
+        <v>2.18</v>
+      </c>
+      <c r="AA128">
+        <v>3.45</v>
+      </c>
+      <c r="AB128">
+        <v>2.63</v>
+      </c>
+      <c r="AC128">
+        <v>1.02</v>
+      </c>
+      <c r="AD128">
+        <v>12</v>
+      </c>
+      <c r="AE128">
+        <v>1.13</v>
+      </c>
+      <c r="AF128">
+        <v>5</v>
+      </c>
+      <c r="AG128">
+        <v>1.45</v>
+      </c>
+      <c r="AH128">
+        <v>2.55</v>
+      </c>
+      <c r="AI128">
+        <v>1.44</v>
+      </c>
+      <c r="AJ128">
+        <v>2.63</v>
+      </c>
+      <c r="AK128">
+        <v>1.48</v>
+      </c>
+      <c r="AL128">
+        <v>1.25</v>
+      </c>
+      <c r="AM128">
+        <v>1.6</v>
+      </c>
+      <c r="AN128">
+        <v>1.48</v>
+      </c>
+      <c r="AO128">
+        <v>1.29</v>
+      </c>
+      <c r="AP128">
+        <v>1.42</v>
+      </c>
+      <c r="AQ128">
+        <v>1.29</v>
+      </c>
+      <c r="AR128">
+        <v>1.72</v>
+      </c>
+      <c r="AS128">
+        <v>1.79</v>
+      </c>
+      <c r="AT128">
+        <v>3.51</v>
+      </c>
+      <c r="AU128">
+        <v>4</v>
+      </c>
+      <c r="AV128">
+        <v>5</v>
+      </c>
+      <c r="AW128">
+        <v>8</v>
+      </c>
+      <c r="AX128">
+        <v>10</v>
+      </c>
+      <c r="AY128">
+        <v>12</v>
+      </c>
+      <c r="AZ128">
+        <v>18</v>
+      </c>
+      <c r="BA128">
+        <v>4</v>
+      </c>
+      <c r="BB128">
+        <v>10</v>
+      </c>
+      <c r="BC128">
+        <v>14</v>
+      </c>
+      <c r="BD128">
         <v>1.95</v>
       </c>
-      <c r="R128">
-        <v>2.6</v>
-      </c>
-      <c r="S128">
-        <v>4.75</v>
-      </c>
-      <c r="T128">
-        <v>1.22</v>
-      </c>
-      <c r="U128">
-        <v>4</v>
-      </c>
-      <c r="V128">
-        <v>2.1</v>
-      </c>
-      <c r="W128">
-        <v>1.67</v>
-      </c>
-      <c r="X128">
-        <v>4.33</v>
-      </c>
-      <c r="Y128">
-        <v>1.2</v>
-      </c>
-      <c r="Z128">
-        <v>1.46</v>
-      </c>
-      <c r="AA128">
-        <v>4.2</v>
-      </c>
-      <c r="AB128">
-        <v>5.1</v>
-      </c>
-      <c r="AC128">
-        <v>1.01</v>
-      </c>
-      <c r="AD128">
-        <v>17</v>
-      </c>
-      <c r="AE128">
+      <c r="BE128">
+        <v>8.5</v>
+      </c>
+      <c r="BF128">
+        <v>2.05</v>
+      </c>
+      <c r="BG128">
         <v>1.1</v>
       </c>
-      <c r="AF128">
-        <v>5.55</v>
-      </c>
-      <c r="AG128">
-        <v>1.4</v>
-      </c>
-      <c r="AH128">
-        <v>2.75</v>
-      </c>
-      <c r="AI128">
+      <c r="BH128">
+        <v>5.75</v>
+      </c>
+      <c r="BI128">
+        <v>1.14</v>
+      </c>
+      <c r="BJ128">
+        <v>4.6</v>
+      </c>
+      <c r="BK128">
+        <v>1.28</v>
+      </c>
+      <c r="BL128">
+        <v>3.18</v>
+      </c>
+      <c r="BM128">
         <v>1.53</v>
       </c>
-      <c r="AJ128">
-        <v>2.38</v>
-      </c>
-      <c r="AK128">
-        <v>1.15</v>
-      </c>
-      <c r="AL128">
-        <v>1.18</v>
-      </c>
-      <c r="AM128">
-        <v>2.6</v>
-      </c>
-      <c r="AN128">
-        <v>2</v>
-      </c>
-      <c r="AO128">
-        <v>0.6</v>
-      </c>
-      <c r="AP128">
-        <v>2.17</v>
-      </c>
-      <c r="AQ128">
-        <v>0.58</v>
-      </c>
-      <c r="AR128">
-        <v>1.84</v>
-      </c>
-      <c r="AS128">
-        <v>1.25</v>
-      </c>
-      <c r="AT128">
-        <v>3.09</v>
-      </c>
-      <c r="AU128">
-        <v>-1</v>
-      </c>
-      <c r="AV128">
-        <v>-1</v>
-      </c>
-      <c r="AW128">
-        <v>-1</v>
-      </c>
-      <c r="AX128">
-        <v>-1</v>
-      </c>
-      <c r="AY128">
-        <v>-1</v>
-      </c>
-      <c r="AZ128">
-        <v>-1</v>
-      </c>
-      <c r="BA128">
-        <v>3</v>
-      </c>
-      <c r="BB128">
-        <v>8</v>
-      </c>
-      <c r="BC128">
-        <v>11</v>
-      </c>
-      <c r="BD128">
-        <v>1.45</v>
-      </c>
-      <c r="BE128">
-        <v>9.5</v>
-      </c>
-      <c r="BF128">
-        <v>3.26</v>
-      </c>
-      <c r="BG128">
-        <v>1.11</v>
-      </c>
-      <c r="BH128">
-        <v>5.5</v>
-      </c>
-      <c r="BI128">
-        <v>1.13</v>
-      </c>
-      <c r="BJ128">
-        <v>4.85</v>
-      </c>
-      <c r="BK128">
-        <v>1.27</v>
-      </c>
-      <c r="BL128">
-        <v>3.28</v>
-      </c>
-      <c r="BM128">
-        <v>1.48</v>
-      </c>
       <c r="BN128">
-        <v>2.54</v>
+        <v>2.42</v>
       </c>
       <c r="BO128">
         <v>1.92</v>
@@ -27612,7 +27612,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>7294914</v>
+        <v>7294918</v>
       </c>
       <c r="C129" t="s">
         <v>68</v>
@@ -27627,88 +27627,88 @@
         <v>22</v>
       </c>
       <c r="G129" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H129" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
         <v>1</v>
       </c>
-      <c r="J129">
-        <v>2</v>
-      </c>
-      <c r="K129">
-        <v>3</v>
-      </c>
-      <c r="L129">
-        <v>3</v>
-      </c>
       <c r="M129">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N129">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O129" t="s">
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>277</v>
+        <v>91</v>
       </c>
       <c r="Q129">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="R129">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="S129">
-        <v>2.88</v>
+        <v>4.75</v>
       </c>
       <c r="T129">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="U129">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="V129">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="W129">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="X129">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="Y129">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="Z129">
-        <v>2.39</v>
+        <v>1.46</v>
       </c>
       <c r="AA129">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="AB129">
-        <v>2.44</v>
+        <v>5.1</v>
       </c>
       <c r="AC129">
         <v>1.01</v>
       </c>
       <c r="AD129">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE129">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="AF129">
-        <v>4.33</v>
+        <v>5.55</v>
       </c>
       <c r="AG129">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AH129">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="AI129">
         <v>1.53</v>
@@ -27717,100 +27717,100 @@
         <v>2.38</v>
       </c>
       <c r="AK129">
-        <v>1.55</v>
+        <v>1.15</v>
       </c>
       <c r="AL129">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AM129">
+        <v>2.6</v>
+      </c>
+      <c r="AN129">
+        <v>1.48</v>
+      </c>
+      <c r="AO129">
+        <v>0.86</v>
+      </c>
+      <c r="AP129">
+        <v>1.58</v>
+      </c>
+      <c r="AQ129">
+        <v>0.92</v>
+      </c>
+      <c r="AR129">
+        <v>1.82</v>
+      </c>
+      <c r="AS129">
+        <v>1.26</v>
+      </c>
+      <c r="AT129">
+        <v>3.08</v>
+      </c>
+      <c r="AU129">
+        <v>-1</v>
+      </c>
+      <c r="AV129">
+        <v>-1</v>
+      </c>
+      <c r="AW129">
+        <v>-1</v>
+      </c>
+      <c r="AX129">
+        <v>-1</v>
+      </c>
+      <c r="AY129">
+        <v>-1</v>
+      </c>
+      <c r="AZ129">
+        <v>-1</v>
+      </c>
+      <c r="BA129">
+        <v>3</v>
+      </c>
+      <c r="BB129">
+        <v>8</v>
+      </c>
+      <c r="BC129">
+        <v>11</v>
+      </c>
+      <c r="BD129">
         <v>1.45</v>
       </c>
-      <c r="AN129">
-        <v>1.6</v>
-      </c>
-      <c r="AO129">
-        <v>1.6</v>
-      </c>
-      <c r="AP129">
-        <v>1.67</v>
-      </c>
-      <c r="AQ129">
-        <v>1.42</v>
-      </c>
-      <c r="AR129">
-        <v>1.63</v>
-      </c>
-      <c r="AS129">
-        <v>1.82</v>
-      </c>
-      <c r="AT129">
-        <v>3.45</v>
-      </c>
-      <c r="AU129">
-        <v>7</v>
-      </c>
-      <c r="AV129">
-        <v>9</v>
-      </c>
-      <c r="AW129">
-        <v>1</v>
-      </c>
-      <c r="AX129">
-        <v>10</v>
-      </c>
-      <c r="AY129">
-        <v>8</v>
-      </c>
-      <c r="AZ129">
-        <v>19</v>
-      </c>
-      <c r="BA129">
-        <v>5</v>
-      </c>
-      <c r="BB129">
-        <v>4</v>
-      </c>
-      <c r="BC129">
-        <v>9</v>
-      </c>
-      <c r="BD129">
-        <v>2.43</v>
-      </c>
       <c r="BE129">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="BF129">
-        <v>1.75</v>
+        <v>3.26</v>
       </c>
       <c r="BG129">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="BH129">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="BI129">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="BJ129">
-        <v>4.5</v>
+        <v>4.85</v>
       </c>
       <c r="BK129">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="BL129">
-        <v>3.08</v>
+        <v>3.28</v>
       </c>
       <c r="BM129">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="BN129">
-        <v>2.3</v>
+        <v>2.54</v>
       </c>
       <c r="BO129">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="BP129">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="130" spans="1:68">
@@ -27818,7 +27818,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>7294916</v>
+        <v>7294914</v>
       </c>
       <c r="C130" t="s">
         <v>68</v>
@@ -27833,160 +27833,160 @@
         <v>22</v>
       </c>
       <c r="G130" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H130" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M130">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N130">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O130" t="s">
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>91</v>
+        <v>277</v>
       </c>
       <c r="Q130">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="R130">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S130">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="T130">
+        <v>1.3</v>
+      </c>
+      <c r="U130">
+        <v>3.4</v>
+      </c>
+      <c r="V130">
+        <v>2.5</v>
+      </c>
+      <c r="W130">
+        <v>1.5</v>
+      </c>
+      <c r="X130">
+        <v>5.5</v>
+      </c>
+      <c r="Y130">
+        <v>1.13</v>
+      </c>
+      <c r="Z130">
+        <v>2.39</v>
+      </c>
+      <c r="AA130">
+        <v>3.4</v>
+      </c>
+      <c r="AB130">
+        <v>2.44</v>
+      </c>
+      <c r="AC130">
+        <v>1.01</v>
+      </c>
+      <c r="AD130">
+        <v>11</v>
+      </c>
+      <c r="AE130">
+        <v>1.18</v>
+      </c>
+      <c r="AF130">
+        <v>4.33</v>
+      </c>
+      <c r="AG130">
+        <v>1.6</v>
+      </c>
+      <c r="AH130">
+        <v>2.1</v>
+      </c>
+      <c r="AI130">
+        <v>1.53</v>
+      </c>
+      <c r="AJ130">
+        <v>2.38</v>
+      </c>
+      <c r="AK130">
+        <v>1.55</v>
+      </c>
+      <c r="AL130">
+        <v>1.3</v>
+      </c>
+      <c r="AM130">
+        <v>1.45</v>
+      </c>
+      <c r="AN130">
+        <v>1.24</v>
+      </c>
+      <c r="AO130">
+        <v>1.52</v>
+      </c>
+      <c r="AP130">
         <v>1.25</v>
       </c>
-      <c r="U130">
-        <v>3.75</v>
-      </c>
-      <c r="V130">
-        <v>2.2</v>
-      </c>
-      <c r="W130">
-        <v>1.62</v>
-      </c>
-      <c r="X130">
-        <v>4.5</v>
-      </c>
-      <c r="Y130">
-        <v>1.17</v>
-      </c>
-      <c r="Z130">
-        <v>2.18</v>
-      </c>
-      <c r="AA130">
-        <v>3.45</v>
-      </c>
-      <c r="AB130">
-        <v>2.63</v>
-      </c>
-      <c r="AC130">
-        <v>1.02</v>
-      </c>
-      <c r="AD130">
-        <v>12</v>
-      </c>
-      <c r="AE130">
-        <v>1.13</v>
-      </c>
-      <c r="AF130">
-        <v>5</v>
-      </c>
-      <c r="AG130">
-        <v>1.45</v>
-      </c>
-      <c r="AH130">
-        <v>2.55</v>
-      </c>
-      <c r="AI130">
-        <v>1.44</v>
-      </c>
-      <c r="AJ130">
-        <v>2.63</v>
-      </c>
-      <c r="AK130">
-        <v>1.48</v>
-      </c>
-      <c r="AL130">
-        <v>1.25</v>
-      </c>
-      <c r="AM130">
-        <v>1.6</v>
-      </c>
-      <c r="AN130">
-        <v>1.8</v>
-      </c>
-      <c r="AO130">
-        <v>1.2</v>
-      </c>
-      <c r="AP130">
-        <v>1.91</v>
-      </c>
       <c r="AQ130">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR130">
-        <v>1.82</v>
+        <v>1.63</v>
       </c>
       <c r="AS130">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="AT130">
-        <v>3.61</v>
+        <v>3.51</v>
       </c>
       <c r="AU130">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV130">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AW130">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AX130">
         <v>10</v>
       </c>
       <c r="AY130">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AZ130">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="BA130">
+        <v>5</v>
+      </c>
+      <c r="BB130">
         <v>4</v>
       </c>
-      <c r="BB130">
-        <v>10</v>
-      </c>
       <c r="BC130">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BD130">
-        <v>1.95</v>
+        <v>2.43</v>
       </c>
       <c r="BE130">
         <v>8.5</v>
       </c>
       <c r="BF130">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="BG130">
         <v>1.1</v>
@@ -27995,28 +27995,28 @@
         <v>5.75</v>
       </c>
       <c r="BI130">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="BJ130">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="BK130">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="BL130">
-        <v>3.18</v>
+        <v>3.08</v>
       </c>
       <c r="BM130">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="BN130">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="BO130">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="BP130">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="131" spans="1:68">
@@ -28138,25 +28138,25 @@
         <v>3.7</v>
       </c>
       <c r="AN131">
-        <v>2.3</v>
+        <v>2.19</v>
       </c>
       <c r="AO131">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="AP131">
-        <v>2.42</v>
+        <v>2.29</v>
       </c>
       <c r="AQ131">
-        <v>0.62</v>
+        <v>0.88</v>
       </c>
       <c r="AR131">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="AS131">
-        <v>1.59</v>
+        <v>1.43</v>
       </c>
       <c r="AT131">
-        <v>3.75</v>
+        <v>3.43</v>
       </c>
       <c r="AU131">
         <v>10</v>
@@ -28171,10 +28171,10 @@
         <v>7</v>
       </c>
       <c r="AY131">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AZ131">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA131">
         <v>8</v>
@@ -28344,25 +28344,25 @@
         <v>2.33</v>
       </c>
       <c r="AN132">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="AO132">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AP132">
+        <v>1.63</v>
+      </c>
+      <c r="AQ132">
+        <v>1.04</v>
+      </c>
+      <c r="AR132">
+        <v>2.18</v>
+      </c>
+      <c r="AS132">
         <v>1.92</v>
       </c>
-      <c r="AQ132">
-        <v>1</v>
-      </c>
-      <c r="AR132">
-        <v>2.26</v>
-      </c>
-      <c r="AS132">
-        <v>2</v>
-      </c>
       <c r="AT132">
-        <v>4.26</v>
+        <v>4.1</v>
       </c>
       <c r="AU132">
         <v>10</v>
@@ -28377,10 +28377,10 @@
         <v>9</v>
       </c>
       <c r="AY132">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ132">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA132">
         <v>6</v>
@@ -28550,25 +28550,25 @@
         <v>1.16</v>
       </c>
       <c r="AN133">
-        <v>1.2</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AO133">
-        <v>2</v>
+        <v>2.19</v>
       </c>
       <c r="AP133">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AQ133">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR133">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AS133">
-        <v>1.86</v>
+        <v>2.04</v>
       </c>
       <c r="AT133">
-        <v>3.65</v>
+        <v>3.72</v>
       </c>
       <c r="AU133">
         <v>2</v>
@@ -28583,10 +28583,10 @@
         <v>5</v>
       </c>
       <c r="AY133">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ133">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA133">
         <v>2</v>
@@ -28651,7 +28651,7 @@
         <v>69</v>
       </c>
       <c r="E134" s="2">
-        <v>45556.875</v>
+        <v>45557.45833333334</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -28777,31 +28777,31 @@
         <v>3.09</v>
       </c>
       <c r="AU134">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV134">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW134">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX134">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY134">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ134">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BA134">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB134">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC134">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD134">
         <v>1.38</v>
@@ -28857,7 +28857,7 @@
         <v>69</v>
       </c>
       <c r="E135" s="2">
-        <v>45556.875</v>
+        <v>45557.67708333334</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -28983,31 +28983,31 @@
         <v>3.18</v>
       </c>
       <c r="AU135">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV135">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW135">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX135">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AY135">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AZ135">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="BA135">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BB135">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BC135">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BD135">
         <v>1.28</v>
@@ -29063,7 +29063,7 @@
         <v>69</v>
       </c>
       <c r="E136" s="2">
-        <v>45557.875</v>
+        <v>45558.67708333334</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -29189,31 +29189,31 @@
         <v>3.83</v>
       </c>
       <c r="AU136">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV136">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW136">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX136">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY136">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ136">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA136">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB136">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC136">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD136">
         <v>1.24</v>
@@ -29269,7 +29269,7 @@
         <v>69</v>
       </c>
       <c r="E137" s="2">
-        <v>45557.875</v>
+        <v>45558.67708333334</v>
       </c>
       <c r="F137">
         <v>1</v>
@@ -29395,31 +29395,31 @@
         <v>4.06</v>
       </c>
       <c r="AU137">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV137">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW137">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AX137">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AY137">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AZ137">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA137">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BB137">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC137">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="BD137">
         <v>1.24</v>
@@ -29475,7 +29475,7 @@
         <v>69</v>
       </c>
       <c r="E138" s="2">
-        <v>45559.875</v>
+        <v>45560.55208333334</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -29601,31 +29601,31 @@
         <v>3.37</v>
       </c>
       <c r="AU138">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AV138">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AW138">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX138">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY138">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="AZ138">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BA138">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BB138">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC138">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BD138">
         <v>1.12</v>
@@ -29681,7 +29681,7 @@
         <v>69</v>
       </c>
       <c r="E139" s="2">
-        <v>45559.875</v>
+        <v>45560.67708333334</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -29807,31 +29807,31 @@
         <v>4.05</v>
       </c>
       <c r="AU139">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV139">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW139">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX139">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY139">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ139">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BA139">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB139">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC139">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD139">
         <v>1.59</v>
@@ -29878,7 +29878,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>7697222</v>
+        <v>7697219</v>
       </c>
       <c r="C140" t="s">
         <v>68</v>
@@ -29887,34 +29887,34 @@
         <v>69</v>
       </c>
       <c r="E140" s="2">
-        <v>45563.875</v>
+        <v>45564.45833333334</v>
       </c>
       <c r="F140">
         <v>2</v>
       </c>
       <c r="G140" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H140" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>2</v>
+      </c>
+      <c r="M140">
         <v>1</v>
       </c>
-      <c r="J140">
-        <v>1</v>
-      </c>
-      <c r="K140">
-        <v>2</v>
-      </c>
-      <c r="L140">
-        <v>2</v>
-      </c>
-      <c r="M140">
+      <c r="N140">
         <v>3</v>
-      </c>
-      <c r="N140">
-        <v>5</v>
       </c>
       <c r="O140" t="s">
         <v>192</v>
@@ -29923,13 +29923,13 @@
         <v>283</v>
       </c>
       <c r="Q140">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="R140">
         <v>2.5</v>
       </c>
       <c r="S140">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="T140">
         <v>1.25</v>
@@ -29944,19 +29944,19 @@
         <v>1.67</v>
       </c>
       <c r="X140">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Y140">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="Z140">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="AA140">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AB140">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="AC140">
         <v>1.01</v>
@@ -29971,82 +29971,82 @@
         <v>6.5</v>
       </c>
       <c r="AG140">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AH140">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="AI140">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AJ140">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AK140">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="AL140">
         <v>1.2</v>
       </c>
       <c r="AM140">
+        <v>1.85</v>
+      </c>
+      <c r="AN140">
+        <v>1.09</v>
+      </c>
+      <c r="AO140">
+        <v>0.67</v>
+      </c>
+      <c r="AP140">
+        <v>1.25</v>
+      </c>
+      <c r="AQ140">
+        <v>0.62</v>
+      </c>
+      <c r="AR140">
+        <v>1.27</v>
+      </c>
+      <c r="AS140">
+        <v>1.62</v>
+      </c>
+      <c r="AT140">
+        <v>2.89</v>
+      </c>
+      <c r="AU140">
+        <v>5</v>
+      </c>
+      <c r="AV140">
+        <v>6</v>
+      </c>
+      <c r="AW140">
+        <v>11</v>
+      </c>
+      <c r="AX140">
+        <v>7</v>
+      </c>
+      <c r="AY140">
+        <v>17</v>
+      </c>
+      <c r="AZ140">
+        <v>13</v>
+      </c>
+      <c r="BA140">
+        <v>11</v>
+      </c>
+      <c r="BB140">
+        <v>4</v>
+      </c>
+      <c r="BC140">
+        <v>15</v>
+      </c>
+      <c r="BD140">
         <v>1.45</v>
       </c>
-      <c r="AN140">
-        <v>2.08</v>
-      </c>
-      <c r="AO140">
-        <v>2.09</v>
-      </c>
-      <c r="AP140">
-        <v>1.92</v>
-      </c>
-      <c r="AQ140">
-        <v>2.17</v>
-      </c>
-      <c r="AR140">
-        <v>2.25</v>
-      </c>
-      <c r="AS140">
-        <v>1.89</v>
-      </c>
-      <c r="AT140">
-        <v>4.14</v>
-      </c>
-      <c r="AU140">
-        <v>-1</v>
-      </c>
-      <c r="AV140">
-        <v>-1</v>
-      </c>
-      <c r="AW140">
-        <v>-1</v>
-      </c>
-      <c r="AX140">
-        <v>-1</v>
-      </c>
-      <c r="AY140">
-        <v>-1</v>
-      </c>
-      <c r="AZ140">
-        <v>-1</v>
-      </c>
-      <c r="BA140">
-        <v>-1</v>
-      </c>
-      <c r="BB140">
-        <v>-1</v>
-      </c>
-      <c r="BC140">
-        <v>-1</v>
-      </c>
-      <c r="BD140">
-        <v>1.83</v>
-      </c>
       <c r="BE140">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="BF140">
-        <v>2.2</v>
+        <v>3.18</v>
       </c>
       <c r="BG140">
         <v>0</v>
@@ -30055,28 +30055,28 @@
         <v>0</v>
       </c>
       <c r="BI140">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="BJ140">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="BK140">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="BL140">
-        <v>3.58</v>
+        <v>3.08</v>
       </c>
       <c r="BM140">
-        <v>1.37</v>
+        <v>1.55</v>
       </c>
       <c r="BN140">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="BO140">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="BP140">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="141" spans="1:68">
@@ -30084,7 +30084,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>7697221</v>
+        <v>7697218</v>
       </c>
       <c r="C141" t="s">
         <v>68</v>
@@ -30093,76 +30093,76 @@
         <v>69</v>
       </c>
       <c r="E141" s="2">
-        <v>45563.875</v>
+        <v>45564.45833333334</v>
       </c>
       <c r="F141">
         <v>2</v>
       </c>
       <c r="G141" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H141" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I141">
+        <v>4</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>4</v>
+      </c>
+      <c r="L141">
+        <v>7</v>
+      </c>
+      <c r="M141">
         <v>1</v>
       </c>
-      <c r="J141">
-        <v>1</v>
-      </c>
-      <c r="K141">
-        <v>2</v>
-      </c>
-      <c r="L141">
-        <v>1</v>
-      </c>
-      <c r="M141">
-        <v>3</v>
-      </c>
       <c r="N141">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O141" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="P141" t="s">
-        <v>284</v>
+        <v>180</v>
       </c>
       <c r="Q141">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="R141">
         <v>2.4</v>
       </c>
       <c r="S141">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="T141">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="U141">
-        <v>3.75</v>
+        <v>4.15</v>
       </c>
       <c r="V141">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="W141">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="X141">
-        <v>4.5</v>
+        <v>4.15</v>
       </c>
       <c r="Y141">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="Z141">
-        <v>2.93</v>
+        <v>2.05</v>
       </c>
       <c r="AA141">
-        <v>3.82</v>
+        <v>3.7</v>
       </c>
       <c r="AB141">
-        <v>2.16</v>
+        <v>2.8</v>
       </c>
       <c r="AC141">
         <v>1.01</v>
@@ -30171,88 +30171,88 @@
         <v>17</v>
       </c>
       <c r="AE141">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AF141">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AG141">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="AH141">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="AI141">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AJ141">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AK141">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="AL141">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AM141">
-        <v>1.38</v>
+        <v>1.72</v>
       </c>
       <c r="AN141">
-        <v>1.09</v>
+        <v>0.92</v>
       </c>
       <c r="AO141">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="AP141">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AQ141">
-        <v>1.25</v>
+        <v>0.83</v>
       </c>
       <c r="AR141">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="AS141">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
       <c r="AT141">
-        <v>3.49</v>
+        <v>3.47</v>
       </c>
       <c r="AU141">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AV141">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW141">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX141">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY141">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="AZ141">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BA141">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB141">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC141">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD141">
-        <v>2.42</v>
+        <v>1.64</v>
       </c>
       <c r="BE141">
         <v>9</v>
       </c>
       <c r="BF141">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="BG141">
         <v>0</v>
@@ -30261,28 +30261,28 @@
         <v>0</v>
       </c>
       <c r="BI141">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="BJ141">
-        <v>5.1</v>
+        <v>4.65</v>
       </c>
       <c r="BK141">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="BL141">
-        <v>3.54</v>
+        <v>3.22</v>
       </c>
       <c r="BM141">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="BN141">
-        <v>2.59</v>
+        <v>2.46</v>
       </c>
       <c r="BO141">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="BP141">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="142" spans="1:68">
@@ -30290,7 +30290,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>7697219</v>
+        <v>7697220</v>
       </c>
       <c r="C142" t="s">
         <v>68</v>
@@ -30299,16 +30299,16 @@
         <v>69</v>
       </c>
       <c r="E142" s="2">
-        <v>45563.875</v>
+        <v>45564.45833333334</v>
       </c>
       <c r="F142">
         <v>2</v>
       </c>
       <c r="G142" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H142" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -30320,28 +30320,28 @@
         <v>0</v>
       </c>
       <c r="L142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M142">
         <v>1</v>
       </c>
       <c r="N142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O142" t="s">
-        <v>193</v>
+        <v>91</v>
       </c>
       <c r="P142" t="s">
-        <v>285</v>
+        <v>99</v>
       </c>
       <c r="Q142">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="R142">
+        <v>2.4</v>
+      </c>
+      <c r="S142">
         <v>2.5</v>
-      </c>
-      <c r="S142">
-        <v>3.6</v>
       </c>
       <c r="T142">
         <v>1.25</v>
@@ -30350,10 +30350,10 @@
         <v>3.75</v>
       </c>
       <c r="V142">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W142">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X142">
         <v>4.5</v>
@@ -30362,13 +30362,13 @@
         <v>1.17</v>
       </c>
       <c r="Z142">
-        <v>1.83</v>
+        <v>2.87</v>
       </c>
       <c r="AA142">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AB142">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="AC142">
         <v>1.01</v>
@@ -30377,118 +30377,118 @@
         <v>17</v>
       </c>
       <c r="AE142">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AF142">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AG142">
+        <v>1.4</v>
+      </c>
+      <c r="AH142">
+        <v>2.75</v>
+      </c>
+      <c r="AI142">
         <v>1.5</v>
       </c>
-      <c r="AH142">
-        <v>2.4</v>
-      </c>
-      <c r="AI142">
-        <v>1.44</v>
-      </c>
       <c r="AJ142">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AK142">
-        <v>1.22</v>
+        <v>1.62</v>
       </c>
       <c r="AL142">
         <v>1.2</v>
       </c>
       <c r="AM142">
-        <v>1.85</v>
+        <v>1.44</v>
       </c>
       <c r="AN142">
-        <v>1.09</v>
+        <v>1.45</v>
       </c>
       <c r="AO142">
-        <v>0.67</v>
+        <v>2.09</v>
       </c>
       <c r="AP142">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AQ142">
-        <v>0.62</v>
+        <v>2.17</v>
       </c>
       <c r="AR142">
-        <v>1.27</v>
+        <v>1.94</v>
       </c>
       <c r="AS142">
-        <v>1.58</v>
+        <v>1.86</v>
       </c>
       <c r="AT142">
+        <v>3.8</v>
+      </c>
+      <c r="AU142">
+        <v>2</v>
+      </c>
+      <c r="AV142">
+        <v>10</v>
+      </c>
+      <c r="AW142">
+        <v>6</v>
+      </c>
+      <c r="AX142">
+        <v>10</v>
+      </c>
+      <c r="AY142">
+        <v>8</v>
+      </c>
+      <c r="AZ142">
+        <v>20</v>
+      </c>
+      <c r="BA142">
+        <v>3</v>
+      </c>
+      <c r="BB142">
+        <v>9</v>
+      </c>
+      <c r="BC142">
+        <v>12</v>
+      </c>
+      <c r="BD142">
+        <v>1.95</v>
+      </c>
+      <c r="BE142">
+        <v>9</v>
+      </c>
+      <c r="BF142">
+        <v>2.05</v>
+      </c>
+      <c r="BG142">
+        <v>0</v>
+      </c>
+      <c r="BH142">
+        <v>0</v>
+      </c>
+      <c r="BI142">
+        <v>0</v>
+      </c>
+      <c r="BJ142">
+        <v>0</v>
+      </c>
+      <c r="BK142">
+        <v>1.18</v>
+      </c>
+      <c r="BL142">
+        <v>3.66</v>
+      </c>
+      <c r="BM142">
+        <v>1.37</v>
+      </c>
+      <c r="BN142">
         <v>2.85</v>
       </c>
-      <c r="AU142">
-        <v>-1</v>
-      </c>
-      <c r="AV142">
-        <v>-1</v>
-      </c>
-      <c r="AW142">
-        <v>-1</v>
-      </c>
-      <c r="AX142">
-        <v>-1</v>
-      </c>
-      <c r="AY142">
-        <v>-1</v>
-      </c>
-      <c r="AZ142">
-        <v>-1</v>
-      </c>
-      <c r="BA142">
-        <v>-1</v>
-      </c>
-      <c r="BB142">
-        <v>-1</v>
-      </c>
-      <c r="BC142">
-        <v>-1</v>
-      </c>
-      <c r="BD142">
-        <v>1.45</v>
-      </c>
-      <c r="BE142">
-        <v>9.5</v>
-      </c>
-      <c r="BF142">
-        <v>3.18</v>
-      </c>
-      <c r="BG142">
-        <v>0</v>
-      </c>
-      <c r="BH142">
-        <v>0</v>
-      </c>
-      <c r="BI142">
-        <v>1.12</v>
-      </c>
-      <c r="BJ142">
-        <v>4.45</v>
-      </c>
-      <c r="BK142">
-        <v>1.26</v>
-      </c>
-      <c r="BL142">
-        <v>3.08</v>
-      </c>
-      <c r="BM142">
-        <v>1.55</v>
-      </c>
-      <c r="BN142">
-        <v>2.38</v>
-      </c>
       <c r="BO142">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="BP142">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="143" spans="1:68">
@@ -30496,7 +30496,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>7697218</v>
+        <v>7697221</v>
       </c>
       <c r="C143" t="s">
         <v>68</v>
@@ -30505,76 +30505,76 @@
         <v>69</v>
       </c>
       <c r="E143" s="2">
-        <v>45563.875</v>
+        <v>45564.58333333334</v>
       </c>
       <c r="F143">
         <v>2</v>
       </c>
       <c r="G143" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H143" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>3</v>
+      </c>
+      <c r="N143">
         <v>4</v>
       </c>
-      <c r="J143">
-        <v>0</v>
-      </c>
-      <c r="K143">
-        <v>4</v>
-      </c>
-      <c r="L143">
-        <v>7</v>
-      </c>
-      <c r="M143">
-        <v>1</v>
-      </c>
-      <c r="N143">
-        <v>8</v>
-      </c>
       <c r="O143" t="s">
-        <v>194</v>
+        <v>88</v>
       </c>
       <c r="P143" t="s">
-        <v>180</v>
+        <v>284</v>
       </c>
       <c r="Q143">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="R143">
         <v>2.4</v>
       </c>
       <c r="S143">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="T143">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="U143">
-        <v>4.15</v>
+        <v>3.75</v>
       </c>
       <c r="V143">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="W143">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="X143">
-        <v>4.15</v>
+        <v>4.5</v>
       </c>
       <c r="Y143">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="Z143">
-        <v>2.05</v>
+        <v>2.93</v>
       </c>
       <c r="AA143">
-        <v>3.7</v>
+        <v>3.82</v>
       </c>
       <c r="AB143">
-        <v>2.8</v>
+        <v>2.16</v>
       </c>
       <c r="AC143">
         <v>1.01</v>
@@ -30583,88 +30583,88 @@
         <v>17</v>
       </c>
       <c r="AE143">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AF143">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AG143">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="AH143">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="AI143">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AJ143">
+        <v>2.5</v>
+      </c>
+      <c r="AK143">
+        <v>1.67</v>
+      </c>
+      <c r="AL143">
+        <v>1.24</v>
+      </c>
+      <c r="AM143">
+        <v>1.38</v>
+      </c>
+      <c r="AN143">
+        <v>1.09</v>
+      </c>
+      <c r="AO143">
+        <v>1.09</v>
+      </c>
+      <c r="AP143">
+        <v>1</v>
+      </c>
+      <c r="AQ143">
+        <v>1.25</v>
+      </c>
+      <c r="AR143">
+        <v>1.7</v>
+      </c>
+      <c r="AS143">
+        <v>1.79</v>
+      </c>
+      <c r="AT143">
+        <v>3.49</v>
+      </c>
+      <c r="AU143">
         <v>3</v>
       </c>
-      <c r="AK143">
-        <v>1.36</v>
-      </c>
-      <c r="AL143">
-        <v>1.23</v>
-      </c>
-      <c r="AM143">
-        <v>1.72</v>
-      </c>
-      <c r="AN143">
-        <v>0.92</v>
-      </c>
-      <c r="AO143">
-        <v>0.91</v>
-      </c>
-      <c r="AP143">
-        <v>1.08</v>
-      </c>
-      <c r="AQ143">
-        <v>0.83</v>
-      </c>
-      <c r="AR143">
-        <v>1.84</v>
-      </c>
-      <c r="AS143">
-        <v>1.63</v>
-      </c>
-      <c r="AT143">
-        <v>3.47</v>
-      </c>
-      <c r="AU143">
-        <v>-1</v>
-      </c>
       <c r="AV143">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW143">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX143">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY143">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AZ143">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA143">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB143">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BC143">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BD143">
-        <v>1.64</v>
+        <v>2.42</v>
       </c>
       <c r="BE143">
         <v>9</v>
       </c>
       <c r="BF143">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="BG143">
         <v>0</v>
@@ -30673,28 +30673,28 @@
         <v>0</v>
       </c>
       <c r="BI143">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="BJ143">
-        <v>4.65</v>
+        <v>5.1</v>
       </c>
       <c r="BK143">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="BL143">
-        <v>3.22</v>
+        <v>3.54</v>
       </c>
       <c r="BM143">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="BN143">
-        <v>2.46</v>
+        <v>2.59</v>
       </c>
       <c r="BO143">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="BP143">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="144" spans="1:68">
@@ -30702,7 +30702,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>7697220</v>
+        <v>7697222</v>
       </c>
       <c r="C144" t="s">
         <v>68</v>
@@ -30711,49 +30711,49 @@
         <v>69</v>
       </c>
       <c r="E144" s="2">
-        <v>45563.875</v>
+        <v>45564.67708333334</v>
       </c>
       <c r="F144">
         <v>2</v>
       </c>
       <c r="G144" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H144" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N144">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O144" t="s">
-        <v>91</v>
+        <v>194</v>
       </c>
       <c r="P144" t="s">
-        <v>99</v>
+        <v>285</v>
       </c>
       <c r="Q144">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="R144">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S144">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="T144">
         <v>1.25</v>
@@ -30762,25 +30762,25 @@
         <v>3.75</v>
       </c>
       <c r="V144">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W144">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X144">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Y144">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="Z144">
-        <v>2.87</v>
+        <v>2.25</v>
       </c>
       <c r="AA144">
         <v>3.6</v>
       </c>
       <c r="AB144">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="AC144">
         <v>1.01</v>
@@ -30789,10 +30789,10 @@
         <v>17</v>
       </c>
       <c r="AE144">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AF144">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AG144">
         <v>1.4</v>
@@ -30801,76 +30801,76 @@
         <v>2.75</v>
       </c>
       <c r="AI144">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AJ144">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AK144">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AL144">
         <v>1.2</v>
       </c>
       <c r="AM144">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="AN144">
-        <v>1.45</v>
+        <v>2.08</v>
       </c>
       <c r="AO144">
         <v>2.09</v>
       </c>
       <c r="AP144">
-        <v>1.33</v>
+        <v>1.92</v>
       </c>
       <c r="AQ144">
         <v>2.17</v>
       </c>
       <c r="AR144">
-        <v>1.94</v>
+        <v>2.26</v>
       </c>
       <c r="AS144">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="AT144">
-        <v>3.8</v>
+        <v>4.15</v>
       </c>
       <c r="AU144">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV144">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW144">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX144">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AY144">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ144">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="BA144">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB144">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC144">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD144">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="BE144">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF144">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="BG144">
         <v>0</v>
@@ -30885,22 +30885,22 @@
         <v>0</v>
       </c>
       <c r="BK144">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="BL144">
-        <v>3.66</v>
+        <v>3.58</v>
       </c>
       <c r="BM144">
         <v>1.37</v>
       </c>
       <c r="BN144">
-        <v>2.85</v>
+        <v>2.58</v>
       </c>
       <c r="BO144">
+        <v>1.95</v>
+      </c>
+      <c r="BP144">
         <v>1.77</v>
-      </c>
-      <c r="BP144">
-        <v>1.95</v>
       </c>
     </row>
     <row r="145" spans="1:68">
@@ -30917,7 +30917,7 @@
         <v>69</v>
       </c>
       <c r="E145" s="2">
-        <v>45564.875</v>
+        <v>45565.67708333334</v>
       </c>
       <c r="F145">
         <v>2</v>
@@ -31037,37 +31037,37 @@
         <v>1.84</v>
       </c>
       <c r="AS145">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AT145">
-        <v>3.47</v>
+        <v>3.42</v>
       </c>
       <c r="AU145">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV145">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW145">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX145">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AY145">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AZ145">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="BA145">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB145">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BC145">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD145">
         <v>1.75</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="288">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -604,6 +604,9 @@
     <t>['18', '53', '90+4']</t>
   </si>
   <si>
+    <t>['34', '67']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -872,6 +875,9 @@
   </si>
   <si>
     <t>['23', '69', '90+3']</t>
+  </si>
+  <si>
+    <t>['21', '44', '45+1', '54']</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1776,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ3">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1904,7 +1910,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -2316,7 +2322,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2728,7 +2734,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -3015,7 +3021,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ9">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>1.31</v>
@@ -3140,7 +3146,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3346,7 +3352,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3836,7 +3842,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ13">
         <v>2.29</v>
@@ -4170,7 +4176,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4457,7 +4463,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ16">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR16">
         <v>2.43</v>
@@ -4663,7 +4669,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ17">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>2.26</v>
@@ -4994,7 +5000,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5200,7 +5206,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5484,7 +5490,7 @@
         <v>0.33</v>
       </c>
       <c r="AP21">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>0.88</v>
@@ -5612,7 +5618,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5818,7 +5824,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6024,7 +6030,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -6105,7 +6111,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ24">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR24">
         <v>2.04</v>
@@ -6230,7 +6236,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6436,7 +6442,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6517,7 +6523,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ26">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.8</v>
@@ -6848,7 +6854,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -7054,7 +7060,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q29">
         <v>7.53</v>
@@ -7338,7 +7344,7 @@
         <v>0.25</v>
       </c>
       <c r="AP30">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ30">
         <v>0.71</v>
@@ -7466,7 +7472,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7672,7 +7678,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7753,7 +7759,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ32">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR32">
         <v>1.63</v>
@@ -7959,7 +7965,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ33">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>1.96</v>
@@ -8290,7 +8296,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8702,7 +8708,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q37">
         <v>4.84</v>
@@ -8908,7 +8914,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8986,7 +8992,7 @@
         <v>2.5</v>
       </c>
       <c r="AP38">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
         <v>2.29</v>
@@ -9114,7 +9120,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9320,7 +9326,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9526,7 +9532,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9604,7 +9610,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ41">
         <v>1.42</v>
@@ -9732,7 +9738,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9938,7 +9944,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -10144,7 +10150,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10225,7 +10231,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ44">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>2.03</v>
@@ -10350,7 +10356,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10556,7 +10562,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10968,7 +10974,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11046,7 +11052,7 @@
         <v>2.14</v>
       </c>
       <c r="AP48">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ48">
         <v>2.29</v>
@@ -11174,7 +11180,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11380,7 +11386,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11792,7 +11798,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11873,7 +11879,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ52">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR52">
         <v>1.91</v>
@@ -11998,7 +12004,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -12204,7 +12210,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12282,7 +12288,7 @@
         <v>1.44</v>
       </c>
       <c r="AP54">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
         <v>1.58</v>
@@ -12410,7 +12416,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12616,7 +12622,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12822,7 +12828,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -13028,7 +13034,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -13109,7 +13115,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ58">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.83</v>
@@ -13234,7 +13240,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q59">
         <v>2.9</v>
@@ -13440,7 +13446,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13646,7 +13652,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -13724,7 +13730,7 @@
         <v>0.78</v>
       </c>
       <c r="AP61">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ61">
         <v>0.88</v>
@@ -13852,7 +13858,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14058,7 +14064,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q63">
         <v>1.84</v>
@@ -14264,7 +14270,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q64">
         <v>5.69</v>
@@ -14342,7 +14348,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
         <v>1.63</v>
@@ -14470,7 +14476,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q65">
         <v>4.4</v>
@@ -14676,7 +14682,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14882,7 +14888,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14963,7 +14969,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ67">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR67">
         <v>1.79</v>
@@ -15088,7 +15094,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -15294,7 +15300,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q69">
         <v>1.85</v>
@@ -15500,7 +15506,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q70">
         <v>3.7</v>
@@ -15578,10 +15584,10 @@
         <v>1.18</v>
       </c>
       <c r="AP70">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR70">
         <v>1.27</v>
@@ -15706,7 +15712,7 @@
         <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -15912,7 +15918,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -16118,7 +16124,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q73">
         <v>3.85</v>
@@ -16530,7 +16536,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16736,7 +16742,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q76">
         <v>1.78</v>
@@ -16817,7 +16823,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ76">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR76">
         <v>1.92</v>
@@ -17148,7 +17154,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q78">
         <v>2.54</v>
@@ -17354,7 +17360,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q79">
         <v>5.9</v>
@@ -17432,7 +17438,7 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ79">
         <v>2.29</v>
@@ -17766,7 +17772,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q81">
         <v>2.25</v>
@@ -18050,7 +18056,7 @@
         <v>1.08</v>
       </c>
       <c r="AP82">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ82">
         <v>1.04</v>
@@ -18178,7 +18184,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q83">
         <v>3.75</v>
@@ -18256,7 +18262,7 @@
         <v>0.92</v>
       </c>
       <c r="AP83">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
         <v>1.29</v>
@@ -18384,7 +18390,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q84">
         <v>1.67</v>
@@ -18796,7 +18802,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -18877,7 +18883,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ86">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AR86">
         <v>1.33</v>
@@ -19208,7 +19214,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q88">
         <v>2</v>
@@ -19620,7 +19626,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19826,7 +19832,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -19904,7 +19910,7 @@
         <v>1.67</v>
       </c>
       <c r="AP91">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ91">
         <v>1.38</v>
@@ -20032,7 +20038,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q92">
         <v>2.8</v>
@@ -20444,7 +20450,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q94">
         <v>3.75</v>
@@ -20522,7 +20528,7 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ94">
         <v>1.63</v>
@@ -20650,7 +20656,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q95">
         <v>2.51</v>
@@ -20937,7 +20943,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ96">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR96">
         <v>1.75</v>
@@ -21062,7 +21068,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q97">
         <v>3.44</v>
@@ -21346,7 +21352,7 @@
         <v>1.44</v>
       </c>
       <c r="AP98">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ98">
         <v>1.58</v>
@@ -21964,7 +21970,7 @@
         <v>1.5</v>
       </c>
       <c r="AP101">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ101">
         <v>1.42</v>
@@ -22092,7 +22098,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q102">
         <v>1.44</v>
@@ -22173,7 +22179,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ102">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AR102">
         <v>2.04</v>
@@ -22298,7 +22304,7 @@
         <v>96</v>
       </c>
       <c r="P103" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22504,7 +22510,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q104">
         <v>1.57</v>
@@ -22710,7 +22716,7 @@
         <v>165</v>
       </c>
       <c r="P105" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q105">
         <v>3.2</v>
@@ -22997,7 +23003,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ106">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR106">
         <v>1.73</v>
@@ -23328,7 +23334,7 @@
         <v>91</v>
       </c>
       <c r="P108" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q108">
         <v>2.4</v>
@@ -23612,7 +23618,7 @@
         <v>1.06</v>
       </c>
       <c r="AP109">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ109">
         <v>1.04</v>
@@ -23946,7 +23952,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q111">
         <v>3.4</v>
@@ -24152,7 +24158,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24439,7 +24445,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ113">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR113">
         <v>2.02</v>
@@ -24564,7 +24570,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -24770,7 +24776,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q115">
         <v>4.5</v>
@@ -24976,7 +24982,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q116">
         <v>1.53</v>
@@ -25057,7 +25063,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ116">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AR116">
         <v>2.11</v>
@@ -25182,7 +25188,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q117">
         <v>2.8</v>
@@ -25260,7 +25266,7 @@
         <v>1.26</v>
       </c>
       <c r="AP117">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ117">
         <v>1.29</v>
@@ -25388,7 +25394,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q118">
         <v>3.99</v>
@@ -25594,7 +25600,7 @@
         <v>175</v>
       </c>
       <c r="P119" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q119">
         <v>3.83</v>
@@ -26084,7 +26090,7 @@
         <v>0.8</v>
       </c>
       <c r="AP121">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ121">
         <v>0.71</v>
@@ -26212,7 +26218,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q122">
         <v>3.48</v>
@@ -26418,7 +26424,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q123">
         <v>2.58</v>
@@ -26624,7 +26630,7 @@
         <v>91</v>
       </c>
       <c r="P124" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q124">
         <v>2.2</v>
@@ -26830,7 +26836,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q125">
         <v>2.3</v>
@@ -27117,7 +27123,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ126">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR126">
         <v>1.45</v>
@@ -27242,7 +27248,7 @@
         <v>91</v>
       </c>
       <c r="P127" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q127">
         <v>3.62</v>
@@ -27735,7 +27741,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ129">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AR129">
         <v>1.82</v>
@@ -27860,7 +27866,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q130">
         <v>3.1</v>
@@ -27938,7 +27944,7 @@
         <v>1.52</v>
       </c>
       <c r="AP130">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ130">
         <v>1.38</v>
@@ -28066,7 +28072,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q131">
         <v>1.5</v>
@@ -28272,7 +28278,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q132">
         <v>1.99</v>
@@ -28478,7 +28484,7 @@
         <v>91</v>
       </c>
       <c r="P133" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q133">
         <v>5.24</v>
@@ -28684,7 +28690,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q134">
         <v>1.95</v>
@@ -28765,7 +28771,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ134">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AR134">
         <v>1.84</v>
@@ -28968,7 +28974,7 @@
         <v>0.45</v>
       </c>
       <c r="AP135">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ135">
         <v>0.42</v>
@@ -29302,7 +29308,7 @@
         <v>189</v>
       </c>
       <c r="P137" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -29508,7 +29514,7 @@
         <v>190</v>
       </c>
       <c r="P138" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q138">
         <v>1.67</v>
@@ -29920,7 +29926,7 @@
         <v>192</v>
       </c>
       <c r="P140" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q140">
         <v>2.38</v>
@@ -30538,7 +30544,7 @@
         <v>88</v>
       </c>
       <c r="P143" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q143">
         <v>3.25</v>
@@ -30744,7 +30750,7 @@
         <v>194</v>
       </c>
       <c r="P144" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q144">
         <v>2.88</v>
@@ -31107,6 +31113,212 @@
       </c>
       <c r="BP145">
         <v>1.95</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7697224</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F146">
+        <v>3</v>
+      </c>
+      <c r="G146" t="s">
+        <v>71</v>
+      </c>
+      <c r="H146" t="s">
+        <v>80</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>3</v>
+      </c>
+      <c r="K146">
+        <v>4</v>
+      </c>
+      <c r="L146">
+        <v>2</v>
+      </c>
+      <c r="M146">
+        <v>4</v>
+      </c>
+      <c r="N146">
+        <v>6</v>
+      </c>
+      <c r="O146" t="s">
+        <v>196</v>
+      </c>
+      <c r="P146" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q146">
+        <v>2.18</v>
+      </c>
+      <c r="R146">
+        <v>2.4</v>
+      </c>
+      <c r="S146">
+        <v>4.33</v>
+      </c>
+      <c r="T146">
+        <v>1.27</v>
+      </c>
+      <c r="U146">
+        <v>3.54</v>
+      </c>
+      <c r="V146">
+        <v>2.27</v>
+      </c>
+      <c r="W146">
+        <v>1.59</v>
+      </c>
+      <c r="X146">
+        <v>5.15</v>
+      </c>
+      <c r="Y146">
+        <v>1.14</v>
+      </c>
+      <c r="Z146">
+        <v>1.95</v>
+      </c>
+      <c r="AA146">
+        <v>3.55</v>
+      </c>
+      <c r="AB146">
+        <v>3.4</v>
+      </c>
+      <c r="AC146">
+        <v>1.01</v>
+      </c>
+      <c r="AD146">
+        <v>13</v>
+      </c>
+      <c r="AE146">
+        <v>1.12</v>
+      </c>
+      <c r="AF146">
+        <v>4.45</v>
+      </c>
+      <c r="AG146">
+        <v>1.55</v>
+      </c>
+      <c r="AH146">
+        <v>2.3</v>
+      </c>
+      <c r="AI146">
+        <v>1.55</v>
+      </c>
+      <c r="AJ146">
+        <v>2.29</v>
+      </c>
+      <c r="AK146">
+        <v>1.2</v>
+      </c>
+      <c r="AL146">
+        <v>1.22</v>
+      </c>
+      <c r="AM146">
+        <v>2.1</v>
+      </c>
+      <c r="AN146">
+        <v>1.67</v>
+      </c>
+      <c r="AO146">
+        <v>0.58</v>
+      </c>
+      <c r="AP146">
+        <v>1.54</v>
+      </c>
+      <c r="AQ146">
+        <v>0.77</v>
+      </c>
+      <c r="AR146">
+        <v>1.55</v>
+      </c>
+      <c r="AS146">
+        <v>1.22</v>
+      </c>
+      <c r="AT146">
+        <v>2.77</v>
+      </c>
+      <c r="AU146">
+        <v>9</v>
+      </c>
+      <c r="AV146">
+        <v>9</v>
+      </c>
+      <c r="AW146">
+        <v>6</v>
+      </c>
+      <c r="AX146">
+        <v>3</v>
+      </c>
+      <c r="AY146">
+        <v>15</v>
+      </c>
+      <c r="AZ146">
+        <v>12</v>
+      </c>
+      <c r="BA146">
+        <v>7</v>
+      </c>
+      <c r="BB146">
+        <v>3</v>
+      </c>
+      <c r="BC146">
+        <v>10</v>
+      </c>
+      <c r="BD146">
+        <v>1.75</v>
+      </c>
+      <c r="BE146">
+        <v>8.5</v>
+      </c>
+      <c r="BF146">
+        <v>2.43</v>
+      </c>
+      <c r="BG146">
+        <v>1.11</v>
+      </c>
+      <c r="BH146">
+        <v>5.5</v>
+      </c>
+      <c r="BI146">
+        <v>1.14</v>
+      </c>
+      <c r="BJ146">
+        <v>4.1</v>
+      </c>
+      <c r="BK146">
+        <v>1.3</v>
+      </c>
+      <c r="BL146">
+        <v>2.88</v>
+      </c>
+      <c r="BM146">
+        <v>1.55</v>
+      </c>
+      <c r="BN146">
+        <v>2.17</v>
+      </c>
+      <c r="BO146">
+        <v>2.05</v>
+      </c>
+      <c r="BP146">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="297">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -607,6 +607,18 @@
     <t>['34', '67']</t>
   </si>
   <si>
+    <t>['9', '13', '21', '47']</t>
+  </si>
+  <si>
+    <t>['45', '90+8']</t>
+  </si>
+  <si>
+    <t>['84', '90+7']</t>
+  </si>
+  <si>
+    <t>['56', '76']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -878,6 +890,21 @@
   </si>
   <si>
     <t>['21', '44', '45+1', '54']</t>
+  </si>
+  <si>
+    <t>['8', '14', '75', '87']</t>
+  </si>
+  <si>
+    <t>['1']</t>
+  </si>
+  <si>
+    <t>['47', '59']</t>
+  </si>
+  <si>
+    <t>['75', '89']</t>
+  </si>
+  <si>
+    <t>['21', '67']</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP146"/>
+  <dimension ref="A1:BP151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1576,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="AQ2">
-        <v>1.58</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1782,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.2</v>
+        <v>1.54</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1910,7 +1937,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q4">
         <v>2.4</v>
@@ -1988,10 +2015,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ4">
-        <v>0.88</v>
+        <v>0.62</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2194,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="AQ5">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2322,7 +2349,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2400,10 +2427,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2606,10 +2633,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="AQ7">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2734,7 +2761,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2812,19 +2839,19 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>1.58</v>
+        <v>2.17</v>
       </c>
       <c r="AQ8">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="AR8">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AS8">
         <v>2.36</v>
       </c>
       <c r="AT8">
-        <v>3.94</v>
+        <v>2.36</v>
       </c>
       <c r="AU8">
         <v>3</v>
@@ -3018,10 +3045,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="AR9">
         <v>1.31</v>
@@ -3146,7 +3173,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3224,10 +3251,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ10">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="AR10">
         <v>2.8</v>
@@ -3352,7 +3379,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3424,25 +3451,25 @@
         <v>1.53</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.88</v>
+        <v>1.17</v>
       </c>
       <c r="AQ11">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AR11">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="AS11">
         <v>1.04</v>
       </c>
       <c r="AT11">
-        <v>1.67</v>
+        <v>1.04</v>
       </c>
       <c r="AU11">
         <v>5</v>
@@ -3633,22 +3660,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
       <c r="AR12">
         <v>1.36</v>
       </c>
       <c r="AS12">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>3.32</v>
+        <v>1.36</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -3839,22 +3866,22 @@
         <v>3</v>
       </c>
       <c r="AO13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.2</v>
+        <v>1.54</v>
       </c>
       <c r="AQ13">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AR13">
         <v>1.23</v>
       </c>
       <c r="AS13">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>2.77</v>
+        <v>1.23</v>
       </c>
       <c r="AU13">
         <v>6</v>
@@ -4045,22 +4072,22 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.58</v>
+        <v>2.17</v>
       </c>
       <c r="AQ14">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
       <c r="AR14">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="AS14">
-        <v>2.27</v>
+        <v>2.58</v>
       </c>
       <c r="AT14">
-        <v>3.72</v>
+        <v>3.89</v>
       </c>
       <c r="AU14">
         <v>5</v>
@@ -4176,7 +4203,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4248,25 +4275,25 @@
         <v>1.32</v>
       </c>
       <c r="AN15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO15">
         <v>1.5</v>
       </c>
       <c r="AP15">
-        <v>0.88</v>
+        <v>1.17</v>
       </c>
       <c r="AQ15">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="AR15">
-        <v>0.92</v>
+        <v>1.21</v>
       </c>
       <c r="AS15">
         <v>1.58</v>
       </c>
       <c r="AT15">
-        <v>2.5</v>
+        <v>2.79</v>
       </c>
       <c r="AU15">
         <v>4</v>
@@ -4454,25 +4481,25 @@
         <v>2.3</v>
       </c>
       <c r="AN16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO16">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AQ16">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
       <c r="AR16">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>3.81</v>
+        <v>0</v>
       </c>
       <c r="AU16">
         <v>3</v>
@@ -4666,10 +4693,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="AR17">
         <v>2.26</v>
@@ -4866,25 +4893,25 @@
         <v>1.65</v>
       </c>
       <c r="AN18">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO18">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
-        <v>0.71</v>
+        <v>0.46</v>
       </c>
       <c r="AR18">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="AU18">
         <v>11</v>
@@ -5000,7 +5027,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5075,22 +5102,22 @@
         <v>3</v>
       </c>
       <c r="AO19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="AQ19">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AR19">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AS19">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="AT19">
-        <v>3.48</v>
+        <v>1.54</v>
       </c>
       <c r="AU19">
         <v>7</v>
@@ -5206,7 +5233,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5278,25 +5305,25 @@
         <v>1.48</v>
       </c>
       <c r="AN20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO20">
         <v>2</v>
       </c>
       <c r="AP20">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="AR20">
-        <v>2.17</v>
+        <v>2.58</v>
       </c>
       <c r="AS20">
         <v>1.79</v>
       </c>
       <c r="AT20">
-        <v>3.96</v>
+        <v>4.37</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5484,25 +5511,25 @@
         <v>1.53</v>
       </c>
       <c r="AN21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ21">
-        <v>0.88</v>
+        <v>0.62</v>
       </c>
       <c r="AR21">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.01</v>
+        <v>0.63</v>
       </c>
       <c r="AT21">
-        <v>2.04</v>
+        <v>0.63</v>
       </c>
       <c r="AU21">
         <v>6</v>
@@ -5618,7 +5645,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q22">
         <v>1.83</v>
@@ -5693,22 +5720,22 @@
         <v>3</v>
       </c>
       <c r="AO22">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="AQ22">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR22">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AS22">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AT22">
-        <v>3.62</v>
+        <v>1.78</v>
       </c>
       <c r="AU22">
         <v>11</v>
@@ -5824,7 +5851,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5896,25 +5923,25 @@
         <v>1.39</v>
       </c>
       <c r="AN23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AQ23">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AR23">
-        <v>2.22</v>
+        <v>1.8</v>
       </c>
       <c r="AS23">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="AT23">
-        <v>4.06</v>
+        <v>3.5</v>
       </c>
       <c r="AU23">
         <v>6</v>
@@ -6030,7 +6057,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q24">
         <v>1.89</v>
@@ -6102,25 +6129,25 @@
         <v>2.66</v>
       </c>
       <c r="AN24">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="AQ24">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
       <c r="AR24">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AS24">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT24">
-        <v>3.49</v>
+        <v>3.54</v>
       </c>
       <c r="AU24">
         <v>3</v>
@@ -6236,7 +6263,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6308,25 +6335,25 @@
         <v>1.28</v>
       </c>
       <c r="AN25">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AR25">
+        <v>1.51</v>
+      </c>
+      <c r="AS25">
         <v>1.58</v>
       </c>
-      <c r="AR25">
-        <v>1.64</v>
-      </c>
-      <c r="AS25">
-        <v>1.47</v>
-      </c>
       <c r="AT25">
-        <v>3.11</v>
+        <v>3.09</v>
       </c>
       <c r="AU25">
         <v>6</v>
@@ -6442,7 +6469,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q26">
         <v>1.78</v>
@@ -6514,25 +6541,25 @@
         <v>3</v>
       </c>
       <c r="AN26">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AO26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="AR26">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.27</v>
+        <v>1.03</v>
       </c>
       <c r="AT26">
-        <v>3.07</v>
+        <v>1.03</v>
       </c>
       <c r="AU26">
         <v>7</v>
@@ -6720,25 +6747,25 @@
         <v>1.32</v>
       </c>
       <c r="AN27">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AO27">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ27">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="AR27">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="AS27">
-        <v>2.16</v>
+        <v>2.43</v>
       </c>
       <c r="AT27">
-        <v>3.98</v>
+        <v>4.34</v>
       </c>
       <c r="AU27">
         <v>5</v>
@@ -6854,7 +6881,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6932,19 +6959,19 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.58</v>
+        <v>2.17</v>
       </c>
       <c r="AQ28">
+        <v>1</v>
+      </c>
+      <c r="AR28">
         <v>1.42</v>
       </c>
-      <c r="AR28">
-        <v>1.45</v>
-      </c>
       <c r="AS28">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AT28">
-        <v>3.48</v>
+        <v>3.39</v>
       </c>
       <c r="AU28">
         <v>10</v>
@@ -7060,7 +7087,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q29">
         <v>7.53</v>
@@ -7132,25 +7159,25 @@
         <v>1.07</v>
       </c>
       <c r="AN29">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AO29">
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>0.88</v>
+        <v>1.17</v>
       </c>
       <c r="AQ29">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AR29">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="AS29">
-        <v>1.93</v>
+        <v>1.58</v>
       </c>
       <c r="AT29">
-        <v>3.09</v>
+        <v>2.78</v>
       </c>
       <c r="AU29">
         <v>5</v>
@@ -7338,25 +7365,25 @@
         <v>1.85</v>
       </c>
       <c r="AN30">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO30">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.2</v>
+        <v>1.54</v>
       </c>
       <c r="AQ30">
-        <v>0.71</v>
+        <v>0.46</v>
       </c>
       <c r="AR30">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
       <c r="AS30">
-        <v>1.64</v>
+        <v>1.89</v>
       </c>
       <c r="AT30">
-        <v>3.15</v>
+        <v>3.27</v>
       </c>
       <c r="AU30">
         <v>9</v>
@@ -7472,7 +7499,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q31">
         <v>2.34</v>
@@ -7544,25 +7571,25 @@
         <v>2.03</v>
       </c>
       <c r="AN31">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AO31">
+        <v>0.5</v>
+      </c>
+      <c r="AP31">
+        <v>2.31</v>
+      </c>
+      <c r="AQ31">
         <v>1.25</v>
       </c>
-      <c r="AP31">
-        <v>2.29</v>
-      </c>
-      <c r="AQ31">
-        <v>1.63</v>
-      </c>
       <c r="AR31">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AS31">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="AT31">
-        <v>3.87</v>
+        <v>4</v>
       </c>
       <c r="AU31">
         <v>7</v>
@@ -7678,7 +7705,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q32">
         <v>2.13</v>
@@ -7750,25 +7777,25 @@
         <v>2.25</v>
       </c>
       <c r="AN32">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AO32">
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.58</v>
+        <v>2.17</v>
       </c>
       <c r="AQ32">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
       <c r="AR32">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="AS32">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="AT32">
-        <v>3.23</v>
+        <v>3.38</v>
       </c>
       <c r="AU32">
         <v>3</v>
@@ -7956,25 +7983,25 @@
         <v>1.9</v>
       </c>
       <c r="AN33">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AO33">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="AP33">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="AR33">
-        <v>1.96</v>
+        <v>2.09</v>
       </c>
       <c r="AS33">
-        <v>1.26</v>
+        <v>1.08</v>
       </c>
       <c r="AT33">
-        <v>3.22</v>
+        <v>3.17</v>
       </c>
       <c r="AU33">
         <v>12</v>
@@ -8162,25 +8189,25 @@
         <v>2.38</v>
       </c>
       <c r="AN34">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO34">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="AQ34">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR34">
-        <v>1.96</v>
+        <v>1.75</v>
       </c>
       <c r="AS34">
-        <v>1.82</v>
+        <v>1.54</v>
       </c>
       <c r="AT34">
-        <v>3.78</v>
+        <v>3.29</v>
       </c>
       <c r="AU34">
         <v>5</v>
@@ -8296,7 +8323,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q35">
         <v>1.76</v>
@@ -8368,25 +8395,25 @@
         <v>2.96</v>
       </c>
       <c r="AN35">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AO35">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AQ35">
-        <v>0.88</v>
+        <v>0.62</v>
       </c>
       <c r="AR35">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="AS35">
         <v>1.13</v>
       </c>
       <c r="AT35">
-        <v>3.15</v>
+        <v>3.03</v>
       </c>
       <c r="AU35">
         <v>7</v>
@@ -8574,25 +8601,25 @@
         <v>2.45</v>
       </c>
       <c r="AN36">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AO36">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AP36">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="AQ36">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="AR36">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="AS36">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AT36">
-        <v>3.86</v>
+        <v>3.85</v>
       </c>
       <c r="AU36">
         <v>4</v>
@@ -8708,7 +8735,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q37">
         <v>4.84</v>
@@ -8780,25 +8807,25 @@
         <v>1.12</v>
       </c>
       <c r="AN37">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AO37">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AR37">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AS37">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="AT37">
-        <v>3.63</v>
+        <v>3.54</v>
       </c>
       <c r="AU37">
         <v>9</v>
@@ -8914,7 +8941,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8986,25 +9013,25 @@
         <v>1.06</v>
       </c>
       <c r="AN38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO38">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ38">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AR38">
-        <v>1.29</v>
+        <v>1.97</v>
       </c>
       <c r="AS38">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="AT38">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="AU38">
         <v>2</v>
@@ -9120,7 +9147,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9192,25 +9219,25 @@
         <v>1.73</v>
       </c>
       <c r="AN39">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO39">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ39">
-        <v>0.71</v>
+        <v>0.46</v>
       </c>
       <c r="AR39">
-        <v>1.74</v>
+        <v>1.9</v>
       </c>
       <c r="AS39">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="AT39">
-        <v>3.43</v>
+        <v>3.53</v>
       </c>
       <c r="AU39">
         <v>8</v>
@@ -9326,7 +9353,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9398,25 +9425,25 @@
         <v>1.67</v>
       </c>
       <c r="AN40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO40">
+        <v>2.33</v>
+      </c>
+      <c r="AP40">
+        <v>1.33</v>
+      </c>
+      <c r="AQ40">
         <v>1.17</v>
       </c>
-      <c r="AP40">
-        <v>1.38</v>
-      </c>
-      <c r="AQ40">
-        <v>1.04</v>
-      </c>
       <c r="AR40">
-        <v>1.81</v>
+        <v>2.29</v>
       </c>
       <c r="AS40">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT40">
-        <v>3.87</v>
+        <v>4.4</v>
       </c>
       <c r="AU40">
         <v>6</v>
@@ -9532,7 +9559,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9604,25 +9631,25 @@
         <v>1.57</v>
       </c>
       <c r="AN41">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AO41">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.2</v>
+        <v>1.54</v>
       </c>
       <c r="AQ41">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AR41">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="AS41">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT41">
-        <v>3.58</v>
+        <v>3.44</v>
       </c>
       <c r="AU41">
         <v>7</v>
@@ -9738,7 +9765,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9810,25 +9837,25 @@
         <v>1.14</v>
       </c>
       <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
+        <v>1.33</v>
+      </c>
+      <c r="AP42">
         <v>1.17</v>
       </c>
-      <c r="AO42">
-        <v>1.83</v>
-      </c>
-      <c r="AP42">
-        <v>0.88</v>
-      </c>
       <c r="AQ42">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
       <c r="AR42">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="AS42">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="AT42">
-        <v>3.14</v>
+        <v>3.23</v>
       </c>
       <c r="AU42">
         <v>4</v>
@@ -9944,7 +9971,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -10019,22 +10046,22 @@
         <v>2</v>
       </c>
       <c r="AO43">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="AQ43">
-        <v>1.58</v>
+        <v>1</v>
       </c>
       <c r="AR43">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="AS43">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="AT43">
-        <v>3.58</v>
+        <v>3.54</v>
       </c>
       <c r="AU43">
         <v>8</v>
@@ -10150,7 +10177,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -10222,25 +10249,25 @@
         <v>2.3</v>
       </c>
       <c r="AN44">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AO44">
-        <v>0.86</v>
+        <v>0.6</v>
       </c>
       <c r="AP44">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="AR44">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="AS44">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AT44">
-        <v>3.23</v>
+        <v>3.16</v>
       </c>
       <c r="AU44">
         <v>8</v>
@@ -10356,7 +10383,7 @@
         <v>91</v>
       </c>
       <c r="P45" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10428,25 +10455,25 @@
         <v>1.11</v>
       </c>
       <c r="AN45">
-        <v>1.43</v>
+        <v>2</v>
       </c>
       <c r="AO45">
-        <v>2.57</v>
+        <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AR45">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="AS45">
         <v>1.88</v>
       </c>
       <c r="AT45">
-        <v>3.85</v>
+        <v>4.02</v>
       </c>
       <c r="AU45">
         <v>3</v>
@@ -10562,7 +10589,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10634,25 +10661,25 @@
         <v>2.25</v>
       </c>
       <c r="AN46">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO46">
+        <v>1.8</v>
+      </c>
+      <c r="AP46">
+        <v>1.92</v>
+      </c>
+      <c r="AQ46">
+        <v>1.31</v>
+      </c>
+      <c r="AR46">
+        <v>1.74</v>
+      </c>
+      <c r="AS46">
         <v>1.71</v>
       </c>
-      <c r="AP46">
-        <v>1.63</v>
-      </c>
-      <c r="AQ46">
-        <v>1.38</v>
-      </c>
-      <c r="AR46">
-        <v>2.13</v>
-      </c>
-      <c r="AS46">
-        <v>1.89</v>
-      </c>
       <c r="AT46">
-        <v>4.02</v>
+        <v>3.45</v>
       </c>
       <c r="AU46">
         <v>6</v>
@@ -10840,25 +10867,25 @@
         <v>1.88</v>
       </c>
       <c r="AN47">
-        <v>1.43</v>
+        <v>1.75</v>
       </c>
       <c r="AO47">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.58</v>
+        <v>2.17</v>
       </c>
       <c r="AQ47">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR47">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AS47">
-        <v>1.73</v>
+        <v>1.42</v>
       </c>
       <c r="AT47">
-        <v>3.51</v>
+        <v>3.09</v>
       </c>
       <c r="AU47">
         <v>10</v>
@@ -10974,7 +11001,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11046,25 +11073,25 @@
         <v>1.3</v>
       </c>
       <c r="AN48">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="AO48">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AP48">
-        <v>1.2</v>
+        <v>1.54</v>
       </c>
       <c r="AQ48">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AR48">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="AS48">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT48">
-        <v>3.63</v>
+        <v>3.54</v>
       </c>
       <c r="AU48">
         <v>4</v>
@@ -11180,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11252,25 +11279,25 @@
         <v>1.65</v>
       </c>
       <c r="AN49">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AO49">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP49">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
-        <v>0.88</v>
+        <v>0.62</v>
       </c>
       <c r="AR49">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="AS49">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="AT49">
-        <v>2.99</v>
+        <v>3.04</v>
       </c>
       <c r="AU49">
         <v>10</v>
@@ -11386,7 +11413,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q50">
         <v>2.45</v>
@@ -11458,25 +11485,25 @@
         <v>1.8</v>
       </c>
       <c r="AN50">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AO50">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="AQ50">
-        <v>1.58</v>
+        <v>1</v>
       </c>
       <c r="AR50">
-        <v>2.08</v>
+        <v>1.74</v>
       </c>
       <c r="AS50">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="AT50">
-        <v>3.89</v>
+        <v>3.67</v>
       </c>
       <c r="AU50">
         <v>8</v>
@@ -11667,22 +11694,22 @@
         <v>2.25</v>
       </c>
       <c r="AO51">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="AP51">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="AQ51">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AR51">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="AS51">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="AT51">
-        <v>3.99</v>
+        <v>4.06</v>
       </c>
       <c r="AU51">
         <v>5</v>
@@ -11798,7 +11825,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q52">
         <v>2.2</v>
@@ -11870,25 +11897,25 @@
         <v>1.9</v>
       </c>
       <c r="AN52">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AO52">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AP52">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ52">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
       <c r="AR52">
-        <v>1.91</v>
+        <v>2.33</v>
       </c>
       <c r="AS52">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AT52">
-        <v>3.53</v>
+        <v>3.92</v>
       </c>
       <c r="AU52">
         <v>7</v>
@@ -12004,7 +12031,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q53">
         <v>2.6</v>
@@ -12076,25 +12103,25 @@
         <v>1.66</v>
       </c>
       <c r="AN53">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="AO53">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ53">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AR53">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="AS53">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AT53">
-        <v>3.7</v>
+        <v>3.71</v>
       </c>
       <c r="AU53">
         <v>8</v>
@@ -12210,7 +12237,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12282,25 +12309,25 @@
         <v>1.12</v>
       </c>
       <c r="AN54">
-        <v>0.88</v>
+        <v>1.5</v>
       </c>
       <c r="AO54">
-        <v>1.44</v>
+        <v>0.75</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ54">
-        <v>1.58</v>
+        <v>1</v>
       </c>
       <c r="AR54">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="AS54">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="AT54">
-        <v>3.05</v>
+        <v>3.18</v>
       </c>
       <c r="AU54">
         <v>7</v>
@@ -12416,7 +12443,7 @@
         <v>124</v>
       </c>
       <c r="P55" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q55">
         <v>1.54</v>
@@ -12488,25 +12515,25 @@
         <v>4.15</v>
       </c>
       <c r="AN55">
-        <v>2.44</v>
+        <v>3</v>
       </c>
       <c r="AO55">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP55">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="AQ55">
-        <v>0.71</v>
+        <v>0.46</v>
       </c>
       <c r="AR55">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AS55">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT55">
-        <v>3.72</v>
+        <v>3.63</v>
       </c>
       <c r="AU55">
         <v>10</v>
@@ -12622,7 +12649,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12694,25 +12721,25 @@
         <v>1.06</v>
       </c>
       <c r="AN56">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="AO56">
-        <v>2.11</v>
+        <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>0.88</v>
+        <v>1.17</v>
       </c>
       <c r="AQ56">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AR56">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="AS56">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="AT56">
-        <v>3.31</v>
+        <v>3.25</v>
       </c>
       <c r="AU56">
         <v>4</v>
@@ -12828,7 +12855,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q57">
         <v>3.28</v>
@@ -12900,25 +12927,25 @@
         <v>1.38</v>
       </c>
       <c r="AN57">
-        <v>1.38</v>
+        <v>0.25</v>
       </c>
       <c r="AO57">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AP57">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AQ57">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
       <c r="AR57">
         <v>2.05</v>
       </c>
       <c r="AS57">
-        <v>2.05</v>
+        <v>2.42</v>
       </c>
       <c r="AT57">
-        <v>4.1</v>
+        <v>4.47</v>
       </c>
       <c r="AU57">
         <v>8</v>
@@ -13034,7 +13061,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q58">
         <v>2.31</v>
@@ -13106,25 +13133,25 @@
         <v>1.89</v>
       </c>
       <c r="AN58">
-        <v>0.44</v>
+        <v>0.8</v>
       </c>
       <c r="AO58">
-        <v>1.11</v>
+        <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="AR58">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="AS58">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT58">
-        <v>3.12</v>
+        <v>3.19</v>
       </c>
       <c r="AU58">
         <v>11</v>
@@ -13240,7 +13267,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q59">
         <v>2.9</v>
@@ -13312,25 +13339,25 @@
         <v>1.5</v>
       </c>
       <c r="AN59">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AO59">
-        <v>1.22</v>
+        <v>2.5</v>
       </c>
       <c r="AP59">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="AQ59">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="AR59">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="AS59">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="AT59">
-        <v>3.81</v>
+        <v>3.97</v>
       </c>
       <c r="AU59">
         <v>7</v>
@@ -13446,7 +13473,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q60">
         <v>2.5</v>
@@ -13518,25 +13545,25 @@
         <v>1.62</v>
       </c>
       <c r="AN60">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AO60">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="AP60">
-        <v>1.58</v>
+        <v>2.17</v>
       </c>
       <c r="AQ60">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="AR60">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AS60">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="AT60">
-        <v>3.71</v>
+        <v>3.5</v>
       </c>
       <c r="AU60">
         <v>10</v>
@@ -13652,7 +13679,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -13724,25 +13751,25 @@
         <v>2.2</v>
       </c>
       <c r="AN61">
+        <v>1.4</v>
+      </c>
+      <c r="AO61">
+        <v>1</v>
+      </c>
+      <c r="AP61">
+        <v>1.54</v>
+      </c>
+      <c r="AQ61">
+        <v>0.62</v>
+      </c>
+      <c r="AR61">
+        <v>1.64</v>
+      </c>
+      <c r="AS61">
         <v>1.44</v>
       </c>
-      <c r="AO61">
-        <v>0.78</v>
-      </c>
-      <c r="AP61">
-        <v>1.2</v>
-      </c>
-      <c r="AQ61">
-        <v>0.88</v>
-      </c>
-      <c r="AR61">
-        <v>1.55</v>
-      </c>
-      <c r="AS61">
-        <v>1.29</v>
-      </c>
       <c r="AT61">
-        <v>2.84</v>
+        <v>3.08</v>
       </c>
       <c r="AU61">
         <v>6</v>
@@ -13858,7 +13885,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13930,25 +13957,25 @@
         <v>1.46</v>
       </c>
       <c r="AN62">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AO62">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="AQ62">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AR62">
-        <v>1.99</v>
+        <v>1.76</v>
       </c>
       <c r="AS62">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="AT62">
-        <v>3.89</v>
+        <v>3.59</v>
       </c>
       <c r="AU62">
         <v>10</v>
@@ -14064,7 +14091,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q63">
         <v>1.84</v>
@@ -14136,25 +14163,25 @@
         <v>2.68</v>
       </c>
       <c r="AN63">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AO63">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AP63">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="AQ63">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR63">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AS63">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="AT63">
-        <v>3.84</v>
+        <v>3.65</v>
       </c>
       <c r="AU63">
         <v>6</v>
@@ -14270,7 +14297,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q64">
         <v>5.69</v>
@@ -14342,25 +14369,25 @@
         <v>1.15</v>
       </c>
       <c r="AN64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO64">
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ64">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
       <c r="AR64">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="AS64">
-        <v>2.03</v>
+        <v>2.22</v>
       </c>
       <c r="AT64">
-        <v>3.33</v>
+        <v>3.59</v>
       </c>
       <c r="AU64">
         <v>3</v>
@@ -14476,7 +14503,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q65">
         <v>4.4</v>
@@ -14548,25 +14575,25 @@
         <v>1.17</v>
       </c>
       <c r="AN65">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AO65">
-        <v>1.45</v>
+        <v>0.6</v>
       </c>
       <c r="AP65">
-        <v>0.88</v>
+        <v>1.17</v>
       </c>
       <c r="AQ65">
-        <v>1.58</v>
+        <v>1</v>
       </c>
       <c r="AR65">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="AS65">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AT65">
-        <v>3.1</v>
+        <v>3.06</v>
       </c>
       <c r="AU65">
         <v>5</v>
@@ -14682,7 +14709,7 @@
         <v>134</v>
       </c>
       <c r="P66" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14754,25 +14781,25 @@
         <v>2.65</v>
       </c>
       <c r="AN66">
-        <v>2.36</v>
+        <v>3</v>
       </c>
       <c r="AO66">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="AP66">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="AQ66">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="AR66">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="AS66">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="AT66">
-        <v>3.83</v>
+        <v>3.99</v>
       </c>
       <c r="AU66">
         <v>9</v>
@@ -14888,7 +14915,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14960,22 +14987,22 @@
         <v>1.85</v>
       </c>
       <c r="AN67">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AO67">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ67">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
       <c r="AR67">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="AS67">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="AT67">
         <v>3.36</v>
@@ -15094,7 +15121,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q68">
         <v>1.83</v>
@@ -15166,25 +15193,25 @@
         <v>2.85</v>
       </c>
       <c r="AN68">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AO68">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AP68">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="AQ68">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AR68">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="AS68">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT68">
-        <v>3.89</v>
+        <v>3.74</v>
       </c>
       <c r="AU68">
         <v>10</v>
@@ -15300,7 +15327,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q69">
         <v>1.85</v>
@@ -15372,25 +15399,25 @@
         <v>2.45</v>
       </c>
       <c r="AN69">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AO69">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ69">
-        <v>0.71</v>
+        <v>0.46</v>
       </c>
       <c r="AR69">
-        <v>1.89</v>
+        <v>2.15</v>
       </c>
       <c r="AS69">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT69">
-        <v>3.78</v>
+        <v>3.85</v>
       </c>
       <c r="AU69">
         <v>6</v>
@@ -15506,7 +15533,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q70">
         <v>3.7</v>
@@ -15578,25 +15605,25 @@
         <v>1.3</v>
       </c>
       <c r="AN70">
-        <v>0.91</v>
+        <v>1.5</v>
       </c>
       <c r="AO70">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ70">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
       <c r="AR70">
         <v>1.27</v>
       </c>
       <c r="AS70">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="AT70">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="AU70">
         <v>2</v>
@@ -15712,7 +15739,7 @@
         <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -15784,25 +15811,25 @@
         <v>1.25</v>
       </c>
       <c r="AN71">
-        <v>1.33</v>
+        <v>2.17</v>
       </c>
       <c r="AO71">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="AP71">
-        <v>1.58</v>
+        <v>2.17</v>
       </c>
       <c r="AQ71">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AR71">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AS71">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="AT71">
-        <v>3.82</v>
+        <v>3.56</v>
       </c>
       <c r="AU71">
         <v>4</v>
@@ -15918,7 +15945,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15990,25 +16017,25 @@
         <v>2.25</v>
       </c>
       <c r="AN72">
-        <v>1.09</v>
+        <v>0.2</v>
       </c>
       <c r="AO72">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="AP72">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AQ72">
-        <v>0.71</v>
+        <v>0.46</v>
       </c>
       <c r="AR72">
         <v>1.93</v>
       </c>
       <c r="AS72">
-        <v>1.87</v>
+        <v>1.69</v>
       </c>
       <c r="AT72">
-        <v>3.8</v>
+        <v>3.62</v>
       </c>
       <c r="AU72">
         <v>7</v>
@@ -16124,7 +16151,7 @@
         <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q73">
         <v>3.85</v>
@@ -16196,25 +16223,25 @@
         <v>1.22</v>
       </c>
       <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
+        <v>0</v>
+      </c>
+      <c r="AP73">
+        <v>1.17</v>
+      </c>
+      <c r="AQ73">
+        <v>1.25</v>
+      </c>
+      <c r="AR73">
         <v>1.18</v>
       </c>
-      <c r="AO73">
-        <v>0.73</v>
-      </c>
-      <c r="AP73">
-        <v>0.88</v>
-      </c>
-      <c r="AQ73">
-        <v>1.29</v>
-      </c>
-      <c r="AR73">
-        <v>1.26</v>
-      </c>
       <c r="AS73">
-        <v>1.81</v>
+        <v>1.62</v>
       </c>
       <c r="AT73">
-        <v>3.07</v>
+        <v>2.8</v>
       </c>
       <c r="AU73">
         <v>3</v>
@@ -16402,25 +16429,25 @@
         <v>1.36</v>
       </c>
       <c r="AN74">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="AO74">
+        <v>2.4</v>
+      </c>
+      <c r="AP74">
+        <v>1.33</v>
+      </c>
+      <c r="AQ74">
         <v>2.17</v>
       </c>
-      <c r="AP74">
-        <v>1.38</v>
-      </c>
-      <c r="AQ74">
-        <v>2.29</v>
-      </c>
       <c r="AR74">
-        <v>1.89</v>
+        <v>2.07</v>
       </c>
       <c r="AS74">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="AT74">
-        <v>3.96</v>
+        <v>4.13</v>
       </c>
       <c r="AU74">
         <v>2</v>
@@ -16536,7 +16563,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16608,25 +16635,25 @@
         <v>1.18</v>
       </c>
       <c r="AN75">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="AO75">
-        <v>2.08</v>
+        <v>2.17</v>
       </c>
       <c r="AP75">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="AQ75">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
       <c r="AR75">
-        <v>1.79</v>
+        <v>1.99</v>
       </c>
       <c r="AS75">
-        <v>2.09</v>
+        <v>2.32</v>
       </c>
       <c r="AT75">
-        <v>3.88</v>
+        <v>4.31</v>
       </c>
       <c r="AU75">
         <v>7</v>
@@ -16742,7 +16769,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q76">
         <v>1.78</v>
@@ -16814,25 +16841,25 @@
         <v>3</v>
       </c>
       <c r="AN76">
+        <v>2.67</v>
+      </c>
+      <c r="AO76">
+        <v>1.5</v>
+      </c>
+      <c r="AP76">
         <v>2.31</v>
       </c>
-      <c r="AO76">
-        <v>1.33</v>
-      </c>
-      <c r="AP76">
-        <v>2.29</v>
-      </c>
       <c r="AQ76">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
       <c r="AR76">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="AS76">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT76">
-        <v>3.52</v>
+        <v>3.63</v>
       </c>
       <c r="AU76">
         <v>8</v>
@@ -17020,25 +17047,25 @@
         <v>2.39</v>
       </c>
       <c r="AN77">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO77">
-        <v>1.08</v>
+        <v>1.4</v>
       </c>
       <c r="AP77">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="AQ77">
-        <v>0.88</v>
+        <v>0.62</v>
       </c>
       <c r="AR77">
-        <v>1.79</v>
+        <v>1.96</v>
       </c>
       <c r="AS77">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AT77">
-        <v>3.04</v>
+        <v>3.32</v>
       </c>
       <c r="AU77">
         <v>10</v>
@@ -17154,7 +17181,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q78">
         <v>2.54</v>
@@ -17226,25 +17253,25 @@
         <v>1.66</v>
       </c>
       <c r="AN78">
+        <v>0.33</v>
+      </c>
+      <c r="AO78">
+        <v>0.5</v>
+      </c>
+      <c r="AP78">
         <v>1.08</v>
       </c>
-      <c r="AO78">
-        <v>1.23</v>
-      </c>
-      <c r="AP78">
-        <v>1.04</v>
-      </c>
       <c r="AQ78">
-        <v>1.58</v>
+        <v>1</v>
       </c>
       <c r="AR78">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="AS78">
-        <v>1.81</v>
+        <v>1.98</v>
       </c>
       <c r="AT78">
-        <v>3.72</v>
+        <v>3.87</v>
       </c>
       <c r="AU78">
         <v>7</v>
@@ -17360,7 +17387,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q79">
         <v>5.9</v>
@@ -17432,25 +17459,25 @@
         <v>1.08</v>
       </c>
       <c r="AN79">
-        <v>0.83</v>
+        <v>1.2</v>
       </c>
       <c r="AO79">
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ79">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AR79">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AS79">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="AT79">
-        <v>3.24</v>
+        <v>3.11</v>
       </c>
       <c r="AU79">
         <v>7</v>
@@ -17638,25 +17665,25 @@
         <v>3.48</v>
       </c>
       <c r="AN80">
+        <v>2</v>
+      </c>
+      <c r="AO80">
+        <v>0.17</v>
+      </c>
+      <c r="AP80">
         <v>1.92</v>
       </c>
-      <c r="AO80">
-        <v>0.67</v>
-      </c>
-      <c r="AP80">
-        <v>1.63</v>
-      </c>
       <c r="AQ80">
-        <v>0.71</v>
+        <v>0.46</v>
       </c>
       <c r="AR80">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="AS80">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="AT80">
-        <v>3.88</v>
+        <v>3.44</v>
       </c>
       <c r="AU80">
         <v>9</v>
@@ -17772,7 +17799,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q81">
         <v>2.25</v>
@@ -17844,25 +17871,25 @@
         <v>1.9</v>
       </c>
       <c r="AN81">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO81">
-        <v>0.92</v>
+        <v>0.6</v>
       </c>
       <c r="AP81">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ81">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR81">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="AS81">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AT81">
-        <v>3.7</v>
+        <v>3.71</v>
       </c>
       <c r="AU81">
         <v>4</v>
@@ -18050,25 +18077,25 @@
         <v>1.43</v>
       </c>
       <c r="AN82">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="AO82">
-        <v>1.08</v>
+        <v>1.83</v>
       </c>
       <c r="AP82">
-        <v>1.2</v>
+        <v>1.54</v>
       </c>
       <c r="AQ82">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="AR82">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="AS82">
         <v>1.93</v>
       </c>
       <c r="AT82">
-        <v>3.57</v>
+        <v>3.58</v>
       </c>
       <c r="AU82">
         <v>5</v>
@@ -18184,7 +18211,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q83">
         <v>3.75</v>
@@ -18256,25 +18283,25 @@
         <v>1.27</v>
       </c>
       <c r="AN83">
-        <v>0.85</v>
+        <v>1.17</v>
       </c>
       <c r="AO83">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ83">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR83">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AS83">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT83">
-        <v>3.16</v>
+        <v>3.11</v>
       </c>
       <c r="AU83">
         <v>2</v>
@@ -18390,7 +18417,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q84">
         <v>1.67</v>
@@ -18462,25 +18489,25 @@
         <v>2.8</v>
       </c>
       <c r="AN84">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AO84">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AP84">
+        <v>1.33</v>
+      </c>
+      <c r="AQ84">
+        <v>0.62</v>
+      </c>
+      <c r="AR84">
+        <v>1.85</v>
+      </c>
+      <c r="AS84">
         <v>1.38</v>
       </c>
-      <c r="AQ84">
-        <v>0.88</v>
-      </c>
-      <c r="AR84">
-        <v>1.81</v>
-      </c>
-      <c r="AS84">
-        <v>1.27</v>
-      </c>
       <c r="AT84">
-        <v>3.08</v>
+        <v>3.23</v>
       </c>
       <c r="AU84">
         <v>7</v>
@@ -18668,25 +18695,25 @@
         <v>1.33</v>
       </c>
       <c r="AN85">
-        <v>0.62</v>
+        <v>1.17</v>
       </c>
       <c r="AO85">
-        <v>1.77</v>
+        <v>1.33</v>
       </c>
       <c r="AP85">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AR85">
-        <v>1.78</v>
+        <v>2.02</v>
       </c>
       <c r="AS85">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="AT85">
-        <v>3.58</v>
+        <v>3.65</v>
       </c>
       <c r="AU85">
         <v>8</v>
@@ -18802,7 +18829,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -18874,25 +18901,25 @@
         <v>1.53</v>
       </c>
       <c r="AN86">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="AO86">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
       <c r="AP86">
-        <v>0.88</v>
+        <v>1.17</v>
       </c>
       <c r="AQ86">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="AR86">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="AS86">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AT86">
-        <v>2.61</v>
+        <v>2.45</v>
       </c>
       <c r="AU86">
         <v>5</v>
@@ -19080,25 +19107,25 @@
         <v>1.2</v>
       </c>
       <c r="AN87">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="AO87">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="AP87">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ87">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AR87">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="AS87">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AT87">
-        <v>3.75</v>
+        <v>3.71</v>
       </c>
       <c r="AU87">
         <v>3</v>
@@ -19214,7 +19241,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q88">
         <v>2</v>
@@ -19286,25 +19313,25 @@
         <v>2.3</v>
       </c>
       <c r="AN88">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AO88">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AP88">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="AQ88">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="AR88">
-        <v>1.97</v>
+        <v>2.07</v>
       </c>
       <c r="AS88">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="AT88">
-        <v>3.88</v>
+        <v>3.95</v>
       </c>
       <c r="AU88">
         <v>10</v>
@@ -19492,25 +19519,25 @@
         <v>2.4</v>
       </c>
       <c r="AN89">
-        <v>1.21</v>
+        <v>1.86</v>
       </c>
       <c r="AO89">
-        <v>0.79</v>
+        <v>0.14</v>
       </c>
       <c r="AP89">
-        <v>1.58</v>
+        <v>2.17</v>
       </c>
       <c r="AQ89">
-        <v>0.71</v>
+        <v>0.46</v>
       </c>
       <c r="AR89">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AS89">
-        <v>1.77</v>
+        <v>1.57</v>
       </c>
       <c r="AT89">
-        <v>3.53</v>
+        <v>3.24</v>
       </c>
       <c r="AU89">
         <v>7</v>
@@ -19626,7 +19653,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q90">
         <v>2.1</v>
@@ -19698,25 +19725,25 @@
         <v>2.15</v>
       </c>
       <c r="AN90">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AO90">
-        <v>1.64</v>
+        <v>1.14</v>
       </c>
       <c r="AP90">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ90">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AR90">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="AS90">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="AT90">
-        <v>3.66</v>
+        <v>3.59</v>
       </c>
       <c r="AU90">
         <v>5</v>
@@ -19832,7 +19859,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -19904,25 +19931,25 @@
         <v>1.12</v>
       </c>
       <c r="AN91">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AO91">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AP91">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ91">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="AR91">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AS91">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="AT91">
-        <v>3.19</v>
+        <v>3.06</v>
       </c>
       <c r="AU91">
         <v>4</v>
@@ -20038,7 +20065,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q92">
         <v>2.8</v>
@@ -20110,25 +20137,25 @@
         <v>1.53</v>
       </c>
       <c r="AN92">
-        <v>1.6</v>
+        <v>2.14</v>
       </c>
       <c r="AO92">
-        <v>1.33</v>
+        <v>0.57</v>
       </c>
       <c r="AP92">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="AQ92">
-        <v>1.58</v>
+        <v>1</v>
       </c>
       <c r="AR92">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="AS92">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AT92">
-        <v>3.58</v>
+        <v>3.81</v>
       </c>
       <c r="AU92">
         <v>7</v>
@@ -20316,25 +20343,25 @@
         <v>3.9</v>
       </c>
       <c r="AN93">
-        <v>2.2</v>
+        <v>2.71</v>
       </c>
       <c r="AO93">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AP93">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="AQ93">
-        <v>0.88</v>
+        <v>0.62</v>
       </c>
       <c r="AR93">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AS93">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
       <c r="AT93">
-        <v>3.24</v>
+        <v>3.48</v>
       </c>
       <c r="AU93">
         <v>18</v>
@@ -20450,7 +20477,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q94">
         <v>3.75</v>
@@ -20522,25 +20549,25 @@
         <v>1.2</v>
       </c>
       <c r="AN94">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AO94">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AP94">
-        <v>1.2</v>
+        <v>1.54</v>
       </c>
       <c r="AQ94">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
       <c r="AR94">
         <v>1.62</v>
       </c>
       <c r="AS94">
-        <v>2.1</v>
+        <v>2.27</v>
       </c>
       <c r="AT94">
-        <v>3.72</v>
+        <v>3.89</v>
       </c>
       <c r="AU94">
         <v>6</v>
@@ -20656,7 +20683,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q95">
         <v>2.51</v>
@@ -20728,16 +20755,16 @@
         <v>1.7</v>
       </c>
       <c r="AN95">
-        <v>0.93</v>
+        <v>0.43</v>
       </c>
       <c r="AO95">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AP95">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AQ95">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR95">
         <v>1.93</v>
@@ -20934,25 +20961,25 @@
         <v>1.45</v>
       </c>
       <c r="AN96">
-        <v>0.73</v>
+        <v>1.43</v>
       </c>
       <c r="AO96">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="AP96">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ96">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
       <c r="AR96">
-        <v>1.75</v>
+        <v>1.96</v>
       </c>
       <c r="AS96">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="AT96">
-        <v>3.37</v>
+        <v>3.59</v>
       </c>
       <c r="AU96">
         <v>4</v>
@@ -21068,7 +21095,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q97">
         <v>3.44</v>
@@ -21140,25 +21167,25 @@
         <v>1.28</v>
       </c>
       <c r="AN97">
+        <v>1.88</v>
+      </c>
+      <c r="AO97">
         <v>1.75</v>
       </c>
-      <c r="AO97">
-        <v>2.25</v>
-      </c>
       <c r="AP97">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ97">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AR97">
-        <v>1.86</v>
+        <v>2.01</v>
       </c>
       <c r="AS97">
-        <v>2.03</v>
+        <v>1.82</v>
       </c>
       <c r="AT97">
-        <v>3.89</v>
+        <v>3.83</v>
       </c>
       <c r="AU97">
         <v>4</v>
@@ -21346,25 +21373,25 @@
         <v>1.65</v>
       </c>
       <c r="AN98">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="AO98">
-        <v>1.44</v>
+        <v>0.88</v>
       </c>
       <c r="AP98">
-        <v>1.2</v>
+        <v>1.54</v>
       </c>
       <c r="AQ98">
-        <v>1.58</v>
+        <v>1</v>
       </c>
       <c r="AR98">
         <v>1.61</v>
       </c>
       <c r="AS98">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="AT98">
-        <v>3.46</v>
+        <v>3.56</v>
       </c>
       <c r="AU98">
         <v>7</v>
@@ -21552,25 +21579,25 @@
         <v>3.28</v>
       </c>
       <c r="AN99">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AO99">
-        <v>0.75</v>
+        <v>0.13</v>
       </c>
       <c r="AP99">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="AQ99">
-        <v>0.71</v>
+        <v>0.46</v>
       </c>
       <c r="AR99">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="AS99">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="AT99">
-        <v>3.72</v>
+        <v>3.7</v>
       </c>
       <c r="AU99">
         <v>8</v>
@@ -21758,25 +21785,25 @@
         <v>1.3</v>
       </c>
       <c r="AN100">
-        <v>1.19</v>
+        <v>1.38</v>
       </c>
       <c r="AO100">
-        <v>1.87</v>
+        <v>1.63</v>
       </c>
       <c r="AP100">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ100">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
       <c r="AR100">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AS100">
-        <v>2.15</v>
+        <v>2.36</v>
       </c>
       <c r="AT100">
-        <v>3.94</v>
+        <v>4.18</v>
       </c>
       <c r="AU100">
         <v>7</v>
@@ -21964,25 +21991,25 @@
         <v>1.28</v>
       </c>
       <c r="AN101">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AO101">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AP101">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ101">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AR101">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="AS101">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AT101">
-        <v>3.04</v>
+        <v>2.86</v>
       </c>
       <c r="AU101">
         <v>6</v>
@@ -22098,7 +22125,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q102">
         <v>1.44</v>
@@ -22170,25 +22197,25 @@
         <v>6.75</v>
       </c>
       <c r="AN102">
-        <v>2.29</v>
+        <v>2.75</v>
       </c>
       <c r="AO102">
-        <v>0.76</v>
+        <v>0.63</v>
       </c>
       <c r="AP102">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="AQ102">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="AR102">
-        <v>2.04</v>
+        <v>2.23</v>
       </c>
       <c r="AS102">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AT102">
-        <v>3.31</v>
+        <v>3.53</v>
       </c>
       <c r="AU102">
         <v>8</v>
@@ -22304,7 +22331,7 @@
         <v>96</v>
       </c>
       <c r="P103" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22376,25 +22403,25 @@
         <v>1.4</v>
       </c>
       <c r="AN103">
-        <v>0.71</v>
+        <v>1.38</v>
       </c>
       <c r="AO103">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AP103">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ103">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR103">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="AS103">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="AT103">
-        <v>3.5</v>
+        <v>3.63</v>
       </c>
       <c r="AU103">
         <v>6</v>
@@ -22510,7 +22537,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q104">
         <v>1.57</v>
@@ -22582,25 +22609,25 @@
         <v>4.6</v>
       </c>
       <c r="AN104">
-        <v>1.75</v>
+        <v>2.14</v>
       </c>
       <c r="AO104">
         <v>0.88</v>
       </c>
       <c r="AP104">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="AQ104">
-        <v>0.88</v>
+        <v>0.62</v>
       </c>
       <c r="AR104">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="AS104">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="AT104">
-        <v>3.43</v>
+        <v>3.37</v>
       </c>
       <c r="AU104">
         <v>14</v>
@@ -22716,7 +22743,7 @@
         <v>165</v>
       </c>
       <c r="P105" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q105">
         <v>3.2</v>
@@ -22788,25 +22815,25 @@
         <v>1.38</v>
       </c>
       <c r="AN105">
-        <v>1.35</v>
+        <v>2</v>
       </c>
       <c r="AO105">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="AP105">
-        <v>1.58</v>
+        <v>2.17</v>
       </c>
       <c r="AQ105">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AR105">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AS105">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="AT105">
-        <v>3.86</v>
+        <v>3.62</v>
       </c>
       <c r="AU105">
         <v>9</v>
@@ -22994,25 +23021,25 @@
         <v>1.58</v>
       </c>
       <c r="AN106">
-        <v>1.47</v>
+        <v>1.88</v>
       </c>
       <c r="AO106">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AP106">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="AQ106">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
       <c r="AR106">
-        <v>1.73</v>
+        <v>1.94</v>
       </c>
       <c r="AS106">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="AT106">
-        <v>3.37</v>
+        <v>3.56</v>
       </c>
       <c r="AU106">
         <v>3</v>
@@ -23200,25 +23227,25 @@
         <v>1.5</v>
       </c>
       <c r="AN107">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AO107">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AP107">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AQ107">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="AR107">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="AS107">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT107">
-        <v>3.79</v>
+        <v>3.69</v>
       </c>
       <c r="AU107">
         <v>5</v>
@@ -23334,7 +23361,7 @@
         <v>91</v>
       </c>
       <c r="P108" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q108">
         <v>2.4</v>
@@ -23406,25 +23433,25 @@
         <v>1.78</v>
       </c>
       <c r="AN108">
-        <v>1.82</v>
+        <v>2.25</v>
       </c>
       <c r="AO108">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AP108">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="AQ108">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AR108">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="AS108">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="AT108">
-        <v>4.25</v>
+        <v>4.07</v>
       </c>
       <c r="AU108">
         <v>7</v>
@@ -23612,25 +23639,25 @@
         <v>1.29</v>
       </c>
       <c r="AN109">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AO109">
-        <v>1.06</v>
+        <v>1.38</v>
       </c>
       <c r="AP109">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ109">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="AR109">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="AS109">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="AT109">
-        <v>3.22</v>
+        <v>3.18</v>
       </c>
       <c r="AU109">
         <v>5</v>
@@ -23818,25 +23845,25 @@
         <v>1.77</v>
       </c>
       <c r="AN110">
-        <v>1.28</v>
+        <v>1.56</v>
       </c>
       <c r="AO110">
-        <v>1.33</v>
+        <v>0.78</v>
       </c>
       <c r="AP110">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ110">
-        <v>1.58</v>
+        <v>1</v>
       </c>
       <c r="AR110">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="AS110">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="AT110">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AU110">
         <v>5</v>
@@ -23952,7 +23979,7 @@
         <v>91</v>
       </c>
       <c r="P111" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q111">
         <v>3.4</v>
@@ -24024,25 +24051,25 @@
         <v>1.36</v>
       </c>
       <c r="AN111">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="AO111">
-        <v>0.72</v>
+        <v>0.11</v>
       </c>
       <c r="AP111">
-        <v>0.88</v>
+        <v>1.17</v>
       </c>
       <c r="AQ111">
-        <v>0.71</v>
+        <v>0.46</v>
       </c>
       <c r="AR111">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="AS111">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="AT111">
-        <v>3.09</v>
+        <v>2.79</v>
       </c>
       <c r="AU111">
         <v>4</v>
@@ -24158,7 +24185,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24230,25 +24257,25 @@
         <v>1.36</v>
       </c>
       <c r="AN112">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="AO112">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AP112">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ112">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
       <c r="AR112">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="AS112">
-        <v>2.16</v>
+        <v>2.23</v>
       </c>
       <c r="AT112">
-        <v>3.98</v>
+        <v>4.16</v>
       </c>
       <c r="AU112">
         <v>5</v>
@@ -24436,25 +24463,25 @@
         <v>2.38</v>
       </c>
       <c r="AN113">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="AO113">
-        <v>1.44</v>
+        <v>1.11</v>
       </c>
       <c r="AP113">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="AQ113">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
       <c r="AR113">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="AS113">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AT113">
-        <v>3.64</v>
+        <v>3.77</v>
       </c>
       <c r="AU113">
         <v>5</v>
@@ -24570,7 +24597,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -24642,25 +24669,25 @@
         <v>2.6</v>
       </c>
       <c r="AN114">
-        <v>2.22</v>
+        <v>2.56</v>
       </c>
       <c r="AO114">
-        <v>1.56</v>
+        <v>1.11</v>
       </c>
       <c r="AP114">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="AQ114">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AR114">
-        <v>2.06</v>
+        <v>2.25</v>
       </c>
       <c r="AS114">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT114">
-        <v>3.76</v>
+        <v>3.8</v>
       </c>
       <c r="AU114">
         <v>5</v>
@@ -24776,7 +24803,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q115">
         <v>4.5</v>
@@ -24851,22 +24878,22 @@
         <v>0.78</v>
       </c>
       <c r="AO115">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AP115">
-        <v>0.88</v>
+        <v>1.17</v>
       </c>
       <c r="AQ115">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="AR115">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AS115">
         <v>1.96</v>
       </c>
       <c r="AT115">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="AU115">
         <v>7</v>
@@ -24982,7 +25009,7 @@
         <v>172</v>
       </c>
       <c r="P116" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q116">
         <v>1.53</v>
@@ -25054,25 +25081,25 @@
         <v>3</v>
       </c>
       <c r="AN116">
-        <v>1.68</v>
+        <v>2</v>
       </c>
       <c r="AO116">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="AR116">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="AS116">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AT116">
-        <v>3.38</v>
+        <v>3.4</v>
       </c>
       <c r="AU116">
         <v>11</v>
@@ -25188,7 +25215,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q117">
         <v>2.8</v>
@@ -25260,25 +25287,25 @@
         <v>1.5</v>
       </c>
       <c r="AN117">
-        <v>1.37</v>
+        <v>1.78</v>
       </c>
       <c r="AO117">
-        <v>1.26</v>
+        <v>1</v>
       </c>
       <c r="AP117">
-        <v>1.2</v>
+        <v>1.54</v>
       </c>
       <c r="AQ117">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR117">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AS117">
         <v>1.81</v>
       </c>
       <c r="AT117">
-        <v>3.42</v>
+        <v>3.47</v>
       </c>
       <c r="AU117">
         <v>4</v>
@@ -25394,7 +25421,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q118">
         <v>3.99</v>
@@ -25466,25 +25493,25 @@
         <v>1.18</v>
       </c>
       <c r="AN118">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="AO118">
-        <v>2.11</v>
+        <v>1.89</v>
       </c>
       <c r="AP118">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="AQ118">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AR118">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="AS118">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="AT118">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="AU118">
         <v>5</v>
@@ -25600,7 +25627,7 @@
         <v>175</v>
       </c>
       <c r="P119" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q119">
         <v>3.83</v>
@@ -25672,25 +25699,25 @@
         <v>1.29</v>
       </c>
       <c r="AN119">
-        <v>0.84</v>
+        <v>1.33</v>
       </c>
       <c r="AO119">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AP119">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ119">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="AR119">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="AS119">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="AT119">
-        <v>3.58</v>
+        <v>3.6</v>
       </c>
       <c r="AU119">
         <v>3</v>
@@ -25878,25 +25905,25 @@
         <v>2.65</v>
       </c>
       <c r="AN120">
-        <v>1.32</v>
+        <v>1.89</v>
       </c>
       <c r="AO120">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="AP120">
-        <v>1.58</v>
+        <v>2.17</v>
       </c>
       <c r="AQ120">
-        <v>0.88</v>
+        <v>0.62</v>
       </c>
       <c r="AR120">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AS120">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT120">
-        <v>3.24</v>
+        <v>3.3</v>
       </c>
       <c r="AU120">
         <v>7</v>
@@ -26084,25 +26111,25 @@
         <v>1.47</v>
       </c>
       <c r="AN121">
-        <v>0.85</v>
+        <v>1.1</v>
       </c>
       <c r="AO121">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AP121">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ121">
-        <v>0.71</v>
+        <v>0.46</v>
       </c>
       <c r="AR121">
         <v>1.25</v>
       </c>
       <c r="AS121">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT121">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="AU121">
         <v>3</v>
@@ -26218,7 +26245,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q122">
         <v>3.48</v>
@@ -26290,25 +26317,25 @@
         <v>1.3</v>
       </c>
       <c r="AN122">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="AO122">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AP122">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ122">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AR122">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="AS122">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="AT122">
-        <v>3.82</v>
+        <v>3.69</v>
       </c>
       <c r="AU122">
         <v>5</v>
@@ -26424,7 +26451,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q123">
         <v>2.58</v>
@@ -26496,25 +26523,25 @@
         <v>1.7</v>
       </c>
       <c r="AN123">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
       <c r="AO123">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="AP123">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AQ123">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AR123">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="AS123">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="AT123">
-        <v>3.67</v>
+        <v>3.52</v>
       </c>
       <c r="AU123">
         <v>7</v>
@@ -26630,7 +26657,7 @@
         <v>91</v>
       </c>
       <c r="P124" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q124">
         <v>2.2</v>
@@ -26705,22 +26732,22 @@
         <v>1.6</v>
       </c>
       <c r="AO124">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="AP124">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ124">
-        <v>1.58</v>
+        <v>1</v>
       </c>
       <c r="AR124">
+        <v>1.92</v>
+      </c>
+      <c r="AS124">
         <v>1.87</v>
       </c>
-      <c r="AS124">
-        <v>1.85</v>
-      </c>
       <c r="AT124">
-        <v>3.72</v>
+        <v>3.79</v>
       </c>
       <c r="AU124">
         <v>8</v>
@@ -26836,7 +26863,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q125">
         <v>2.3</v>
@@ -26908,25 +26935,25 @@
         <v>1.83</v>
       </c>
       <c r="AN125">
+        <v>2.3</v>
+      </c>
+      <c r="AO125">
+        <v>1.4</v>
+      </c>
+      <c r="AP125">
+        <v>2.31</v>
+      </c>
+      <c r="AQ125">
+        <v>1.25</v>
+      </c>
+      <c r="AR125">
+        <v>2.23</v>
+      </c>
+      <c r="AS125">
         <v>2.11</v>
       </c>
-      <c r="AO125">
-        <v>1.75</v>
-      </c>
-      <c r="AP125">
-        <v>2.29</v>
-      </c>
-      <c r="AQ125">
-        <v>1.63</v>
-      </c>
-      <c r="AR125">
-        <v>2.06</v>
-      </c>
-      <c r="AS125">
-        <v>2.19</v>
-      </c>
       <c r="AT125">
-        <v>4.25</v>
+        <v>4.34</v>
       </c>
       <c r="AU125">
         <v>4</v>
@@ -27114,25 +27141,25 @@
         <v>1.18</v>
       </c>
       <c r="AN126">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AO126">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AP126">
-        <v>0.88</v>
+        <v>1.17</v>
       </c>
       <c r="AQ126">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
       <c r="AR126">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="AS126">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AT126">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="AU126">
         <v>3</v>
@@ -27248,7 +27275,7 @@
         <v>91</v>
       </c>
       <c r="P127" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q127">
         <v>3.62</v>
@@ -27320,25 +27347,25 @@
         <v>1.29</v>
       </c>
       <c r="AN127">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AO127">
-        <v>2.15</v>
+        <v>1.89</v>
       </c>
       <c r="AP127">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AQ127">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AR127">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AS127">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="AT127">
-        <v>4.02</v>
+        <v>3.8</v>
       </c>
       <c r="AU127">
         <v>3</v>
@@ -27526,25 +27553,25 @@
         <v>1.6</v>
       </c>
       <c r="AN128">
-        <v>1.48</v>
+        <v>1.8</v>
       </c>
       <c r="AO128">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AP128">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="AQ128">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR128">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="AS128">
         <v>1.79</v>
       </c>
       <c r="AT128">
-        <v>3.51</v>
+        <v>3.61</v>
       </c>
       <c r="AU128">
         <v>4</v>
@@ -27732,25 +27759,25 @@
         <v>2.6</v>
       </c>
       <c r="AN129">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="AO129">
-        <v>0.86</v>
+        <v>0.6</v>
       </c>
       <c r="AP129">
-        <v>1.58</v>
+        <v>2.17</v>
       </c>
       <c r="AQ129">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="AR129">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="AS129">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AT129">
-        <v>3.08</v>
+        <v>3.09</v>
       </c>
       <c r="AU129">
         <v>-1</v>
@@ -27866,7 +27893,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q130">
         <v>3.1</v>
@@ -27938,25 +27965,25 @@
         <v>1.45</v>
       </c>
       <c r="AN130">
-        <v>1.24</v>
+        <v>1.6</v>
       </c>
       <c r="AO130">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="AP130">
-        <v>1.2</v>
+        <v>1.54</v>
       </c>
       <c r="AQ130">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="AR130">
         <v>1.63</v>
       </c>
       <c r="AS130">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT130">
-        <v>3.51</v>
+        <v>3.45</v>
       </c>
       <c r="AU130">
         <v>7</v>
@@ -28072,7 +28099,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q131">
         <v>1.5</v>
@@ -28144,25 +28171,25 @@
         <v>3.7</v>
       </c>
       <c r="AN131">
-        <v>2.19</v>
+        <v>2.3</v>
       </c>
       <c r="AO131">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="AP131">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="AQ131">
-        <v>0.88</v>
+        <v>0.62</v>
       </c>
       <c r="AR131">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="AS131">
-        <v>1.43</v>
+        <v>1.59</v>
       </c>
       <c r="AT131">
-        <v>3.43</v>
+        <v>3.75</v>
       </c>
       <c r="AU131">
         <v>10</v>
@@ -28278,7 +28305,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q132">
         <v>1.99</v>
@@ -28350,25 +28377,25 @@
         <v>2.33</v>
       </c>
       <c r="AN132">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="AO132">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AP132">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="AQ132">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="AR132">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="AS132">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT132">
-        <v>4.1</v>
+        <v>4.26</v>
       </c>
       <c r="AU132">
         <v>10</v>
@@ -28484,7 +28511,7 @@
         <v>91</v>
       </c>
       <c r="P133" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q133">
         <v>5.24</v>
@@ -28556,25 +28583,25 @@
         <v>1.16</v>
       </c>
       <c r="AN133">
-        <v>0.8100000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="AO133">
-        <v>2.19</v>
+        <v>2</v>
       </c>
       <c r="AP133">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ133">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AR133">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AS133">
-        <v>2.04</v>
+        <v>1.86</v>
       </c>
       <c r="AT133">
-        <v>3.72</v>
+        <v>3.65</v>
       </c>
       <c r="AU133">
         <v>2</v>
@@ -28690,7 +28717,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q134">
         <v>1.95</v>
@@ -28977,7 +29004,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ135">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR135">
         <v>1.59</v>
@@ -29180,7 +29207,7 @@
         <v>1.18</v>
       </c>
       <c r="AP136">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AQ136">
         <v>1</v>
@@ -29308,7 +29335,7 @@
         <v>189</v>
       </c>
       <c r="P137" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -29514,7 +29541,7 @@
         <v>190</v>
       </c>
       <c r="P138" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q138">
         <v>1.67</v>
@@ -29592,7 +29619,7 @@
         <v>0.64</v>
       </c>
       <c r="AP138">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ138">
         <v>0.62</v>
@@ -29798,10 +29825,10 @@
         <v>1.55</v>
       </c>
       <c r="AP139">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AQ139">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR139">
         <v>2.2</v>
@@ -29926,7 +29953,7 @@
         <v>192</v>
       </c>
       <c r="P140" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q140">
         <v>2.38</v>
@@ -30544,7 +30571,7 @@
         <v>88</v>
       </c>
       <c r="P143" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q143">
         <v>3.25</v>
@@ -30750,7 +30777,7 @@
         <v>194</v>
       </c>
       <c r="P144" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q144">
         <v>2.88</v>
@@ -31162,7 +31189,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q146">
         <v>2.18</v>
@@ -31319,6 +31346,1036 @@
       </c>
       <c r="BP146">
         <v>1.7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7697225</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45571.45833333334</v>
+      </c>
+      <c r="F147">
+        <v>3</v>
+      </c>
+      <c r="G147" t="s">
+        <v>72</v>
+      </c>
+      <c r="H147" t="s">
+        <v>78</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>2</v>
+      </c>
+      <c r="K147">
+        <v>2</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>4</v>
+      </c>
+      <c r="N147">
+        <v>4</v>
+      </c>
+      <c r="O147" t="s">
+        <v>91</v>
+      </c>
+      <c r="P147" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q147">
+        <v>2.65</v>
+      </c>
+      <c r="R147">
+        <v>2.53</v>
+      </c>
+      <c r="S147">
+        <v>3.02</v>
+      </c>
+      <c r="T147">
+        <v>1.19</v>
+      </c>
+      <c r="U147">
+        <v>4.33</v>
+      </c>
+      <c r="V147">
+        <v>1.94</v>
+      </c>
+      <c r="W147">
+        <v>1.81</v>
+      </c>
+      <c r="X147">
+        <v>3.9</v>
+      </c>
+      <c r="Y147">
+        <v>1.23</v>
+      </c>
+      <c r="Z147">
+        <v>2.2</v>
+      </c>
+      <c r="AA147">
+        <v>3.7</v>
+      </c>
+      <c r="AB147">
+        <v>2.6</v>
+      </c>
+      <c r="AC147">
+        <v>1.01</v>
+      </c>
+      <c r="AD147">
+        <v>18</v>
+      </c>
+      <c r="AE147">
+        <v>1.05</v>
+      </c>
+      <c r="AF147">
+        <v>6</v>
+      </c>
+      <c r="AG147">
+        <v>1.33</v>
+      </c>
+      <c r="AH147">
+        <v>3</v>
+      </c>
+      <c r="AI147">
+        <v>1.32</v>
+      </c>
+      <c r="AJ147">
+        <v>3.1</v>
+      </c>
+      <c r="AK147">
+        <v>1.46</v>
+      </c>
+      <c r="AL147">
+        <v>1.22</v>
+      </c>
+      <c r="AM147">
+        <v>1.6</v>
+      </c>
+      <c r="AN147">
+        <v>1.33</v>
+      </c>
+      <c r="AO147">
+        <v>1</v>
+      </c>
+      <c r="AP147">
+        <v>1.23</v>
+      </c>
+      <c r="AQ147">
+        <v>1.17</v>
+      </c>
+      <c r="AR147">
+        <v>1.84</v>
+      </c>
+      <c r="AS147">
+        <v>1.98</v>
+      </c>
+      <c r="AT147">
+        <v>3.82</v>
+      </c>
+      <c r="AU147">
+        <v>5</v>
+      </c>
+      <c r="AV147">
+        <v>10</v>
+      </c>
+      <c r="AW147">
+        <v>12</v>
+      </c>
+      <c r="AX147">
+        <v>6</v>
+      </c>
+      <c r="AY147">
+        <v>17</v>
+      </c>
+      <c r="AZ147">
+        <v>16</v>
+      </c>
+      <c r="BA147">
+        <v>10</v>
+      </c>
+      <c r="BB147">
+        <v>0</v>
+      </c>
+      <c r="BC147">
+        <v>10</v>
+      </c>
+      <c r="BD147">
+        <v>1.91</v>
+      </c>
+      <c r="BE147">
+        <v>9</v>
+      </c>
+      <c r="BF147">
+        <v>2.1</v>
+      </c>
+      <c r="BG147">
+        <v>0</v>
+      </c>
+      <c r="BH147">
+        <v>0</v>
+      </c>
+      <c r="BI147">
+        <v>1.09</v>
+      </c>
+      <c r="BJ147">
+        <v>5.05</v>
+      </c>
+      <c r="BK147">
+        <v>1.21</v>
+      </c>
+      <c r="BL147">
+        <v>3.44</v>
+      </c>
+      <c r="BM147">
+        <v>1.4</v>
+      </c>
+      <c r="BN147">
+        <v>2.56</v>
+      </c>
+      <c r="BO147">
+        <v>1.9</v>
+      </c>
+      <c r="BP147">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7697226</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45571.45833333334</v>
+      </c>
+      <c r="F148">
+        <v>3</v>
+      </c>
+      <c r="G148" t="s">
+        <v>79</v>
+      </c>
+      <c r="H148" t="s">
+        <v>81</v>
+      </c>
+      <c r="I148">
+        <v>3</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>4</v>
+      </c>
+      <c r="L148">
+        <v>4</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>5</v>
+      </c>
+      <c r="O148" t="s">
+        <v>197</v>
+      </c>
+      <c r="P148" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q148">
+        <v>3</v>
+      </c>
+      <c r="R148">
+        <v>2.4</v>
+      </c>
+      <c r="S148">
+        <v>2.8</v>
+      </c>
+      <c r="T148">
+        <v>1.25</v>
+      </c>
+      <c r="U148">
+        <v>3.72</v>
+      </c>
+      <c r="V148">
+        <v>2.1</v>
+      </c>
+      <c r="W148">
+        <v>1.69</v>
+      </c>
+      <c r="X148">
+        <v>4.5</v>
+      </c>
+      <c r="Y148">
+        <v>1.18</v>
+      </c>
+      <c r="Z148">
+        <v>2.6</v>
+      </c>
+      <c r="AA148">
+        <v>3.5</v>
+      </c>
+      <c r="AB148">
+        <v>2.25</v>
+      </c>
+      <c r="AC148">
+        <v>1.01</v>
+      </c>
+      <c r="AD148">
+        <v>17</v>
+      </c>
+      <c r="AE148">
+        <v>1.11</v>
+      </c>
+      <c r="AF148">
+        <v>5.5</v>
+      </c>
+      <c r="AG148">
+        <v>1.4</v>
+      </c>
+      <c r="AH148">
+        <v>2.75</v>
+      </c>
+      <c r="AI148">
+        <v>1.36</v>
+      </c>
+      <c r="AJ148">
+        <v>2.88</v>
+      </c>
+      <c r="AK148">
+        <v>1.57</v>
+      </c>
+      <c r="AL148">
+        <v>1.25</v>
+      </c>
+      <c r="AM148">
+        <v>1.44</v>
+      </c>
+      <c r="AN148">
+        <v>1.91</v>
+      </c>
+      <c r="AO148">
+        <v>1.42</v>
+      </c>
+      <c r="AP148">
+        <v>2</v>
+      </c>
+      <c r="AQ148">
+        <v>1.31</v>
+      </c>
+      <c r="AR148">
+        <v>1.78</v>
+      </c>
+      <c r="AS148">
+        <v>1.8</v>
+      </c>
+      <c r="AT148">
+        <v>3.58</v>
+      </c>
+      <c r="AU148">
+        <v>7</v>
+      </c>
+      <c r="AV148">
+        <v>9</v>
+      </c>
+      <c r="AW148">
+        <v>5</v>
+      </c>
+      <c r="AX148">
+        <v>6</v>
+      </c>
+      <c r="AY148">
+        <v>12</v>
+      </c>
+      <c r="AZ148">
+        <v>15</v>
+      </c>
+      <c r="BA148">
+        <v>6</v>
+      </c>
+      <c r="BB148">
+        <v>10</v>
+      </c>
+      <c r="BC148">
+        <v>16</v>
+      </c>
+      <c r="BD148">
+        <v>2.35</v>
+      </c>
+      <c r="BE148">
+        <v>8.5</v>
+      </c>
+      <c r="BF148">
+        <v>1.75</v>
+      </c>
+      <c r="BG148">
+        <v>0</v>
+      </c>
+      <c r="BH148">
+        <v>0</v>
+      </c>
+      <c r="BI148">
+        <v>1.1</v>
+      </c>
+      <c r="BJ148">
+        <v>4.7</v>
+      </c>
+      <c r="BK148">
+        <v>1.24</v>
+      </c>
+      <c r="BL148">
+        <v>3.22</v>
+      </c>
+      <c r="BM148">
+        <v>1.7</v>
+      </c>
+      <c r="BN148">
+        <v>2.05</v>
+      </c>
+      <c r="BO148">
+        <v>2.05</v>
+      </c>
+      <c r="BP148">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7697227</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45571.58333333334</v>
+      </c>
+      <c r="F149">
+        <v>3</v>
+      </c>
+      <c r="G149" t="s">
+        <v>77</v>
+      </c>
+      <c r="H149" t="s">
+        <v>74</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+      <c r="N149">
+        <v>4</v>
+      </c>
+      <c r="O149" t="s">
+        <v>198</v>
+      </c>
+      <c r="P149" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q149">
+        <v>3.08</v>
+      </c>
+      <c r="R149">
+        <v>2.39</v>
+      </c>
+      <c r="S149">
+        <v>2.76</v>
+      </c>
+      <c r="T149">
+        <v>1.24</v>
+      </c>
+      <c r="U149">
+        <v>3.8</v>
+      </c>
+      <c r="V149">
+        <v>2.07</v>
+      </c>
+      <c r="W149">
+        <v>1.71</v>
+      </c>
+      <c r="X149">
+        <v>4.4</v>
+      </c>
+      <c r="Y149">
+        <v>1.19</v>
+      </c>
+      <c r="Z149">
+        <v>2.6</v>
+      </c>
+      <c r="AA149">
+        <v>3.7</v>
+      </c>
+      <c r="AB149">
+        <v>2.3</v>
+      </c>
+      <c r="AC149">
+        <v>1.01</v>
+      </c>
+      <c r="AD149">
+        <v>17</v>
+      </c>
+      <c r="AE149">
+        <v>1.08</v>
+      </c>
+      <c r="AF149">
+        <v>5.3</v>
+      </c>
+      <c r="AG149">
+        <v>1.38</v>
+      </c>
+      <c r="AH149">
+        <v>2.81</v>
+      </c>
+      <c r="AI149">
+        <v>1.37</v>
+      </c>
+      <c r="AJ149">
+        <v>2.84</v>
+      </c>
+      <c r="AK149">
+        <v>1.55</v>
+      </c>
+      <c r="AL149">
+        <v>1.25</v>
+      </c>
+      <c r="AM149">
+        <v>1.46</v>
+      </c>
+      <c r="AN149">
+        <v>1.18</v>
+      </c>
+      <c r="AO149">
+        <v>0.42</v>
+      </c>
+      <c r="AP149">
+        <v>1.17</v>
+      </c>
+      <c r="AQ149">
+        <v>0.46</v>
+      </c>
+      <c r="AR149">
+        <v>1.29</v>
+      </c>
+      <c r="AS149">
+        <v>1.61</v>
+      </c>
+      <c r="AT149">
+        <v>2.9</v>
+      </c>
+      <c r="AU149">
+        <v>5</v>
+      </c>
+      <c r="AV149">
+        <v>5</v>
+      </c>
+      <c r="AW149">
+        <v>14</v>
+      </c>
+      <c r="AX149">
+        <v>11</v>
+      </c>
+      <c r="AY149">
+        <v>20</v>
+      </c>
+      <c r="AZ149">
+        <v>18</v>
+      </c>
+      <c r="BA149">
+        <v>11</v>
+      </c>
+      <c r="BB149">
+        <v>3</v>
+      </c>
+      <c r="BC149">
+        <v>14</v>
+      </c>
+      <c r="BD149">
+        <v>2.34</v>
+      </c>
+      <c r="BE149">
+        <v>9</v>
+      </c>
+      <c r="BF149">
+        <v>1.75</v>
+      </c>
+      <c r="BG149">
+        <v>0</v>
+      </c>
+      <c r="BH149">
+        <v>0</v>
+      </c>
+      <c r="BI149">
+        <v>1.13</v>
+      </c>
+      <c r="BJ149">
+        <v>5</v>
+      </c>
+      <c r="BK149">
+        <v>1.19</v>
+      </c>
+      <c r="BL149">
+        <v>3.58</v>
+      </c>
+      <c r="BM149">
+        <v>1.37</v>
+      </c>
+      <c r="BN149">
+        <v>2.58</v>
+      </c>
+      <c r="BO149">
+        <v>1.82</v>
+      </c>
+      <c r="BP149">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7697228</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45571.58333333334</v>
+      </c>
+      <c r="F150">
+        <v>3</v>
+      </c>
+      <c r="G150" t="s">
+        <v>70</v>
+      </c>
+      <c r="H150" t="s">
+        <v>76</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>2</v>
+      </c>
+      <c r="N150">
+        <v>4</v>
+      </c>
+      <c r="O150" t="s">
+        <v>199</v>
+      </c>
+      <c r="P150" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q150">
+        <v>2.03</v>
+      </c>
+      <c r="R150">
+        <v>2.55</v>
+      </c>
+      <c r="S150">
+        <v>4.55</v>
+      </c>
+      <c r="T150">
+        <v>1.22</v>
+      </c>
+      <c r="U150">
+        <v>4</v>
+      </c>
+      <c r="V150">
+        <v>2.07</v>
+      </c>
+      <c r="W150">
+        <v>1.71</v>
+      </c>
+      <c r="X150">
+        <v>4.4</v>
+      </c>
+      <c r="Y150">
+        <v>1.19</v>
+      </c>
+      <c r="Z150">
+        <v>1.5</v>
+      </c>
+      <c r="AA150">
+        <v>4.35</v>
+      </c>
+      <c r="AB150">
+        <v>5</v>
+      </c>
+      <c r="AC150">
+        <v>1.01</v>
+      </c>
+      <c r="AD150">
+        <v>17</v>
+      </c>
+      <c r="AE150">
+        <v>1.08</v>
+      </c>
+      <c r="AF150">
+        <v>5.3</v>
+      </c>
+      <c r="AG150">
+        <v>1.4</v>
+      </c>
+      <c r="AH150">
+        <v>2.73</v>
+      </c>
+      <c r="AI150">
+        <v>1.47</v>
+      </c>
+      <c r="AJ150">
+        <v>2.49</v>
+      </c>
+      <c r="AK150">
+        <v>1.17</v>
+      </c>
+      <c r="AL150">
+        <v>1.18</v>
+      </c>
+      <c r="AM150">
+        <v>2.3</v>
+      </c>
+      <c r="AN150">
+        <v>2.42</v>
+      </c>
+      <c r="AO150">
+        <v>1</v>
+      </c>
+      <c r="AP150">
+        <v>2.31</v>
+      </c>
+      <c r="AQ150">
+        <v>1</v>
+      </c>
+      <c r="AR150">
+        <v>2.2</v>
+      </c>
+      <c r="AS150">
+        <v>1.82</v>
+      </c>
+      <c r="AT150">
+        <v>4.02</v>
+      </c>
+      <c r="AU150">
+        <v>8</v>
+      </c>
+      <c r="AV150">
+        <v>6</v>
+      </c>
+      <c r="AW150">
+        <v>8</v>
+      </c>
+      <c r="AX150">
+        <v>4</v>
+      </c>
+      <c r="AY150">
+        <v>19</v>
+      </c>
+      <c r="AZ150">
+        <v>13</v>
+      </c>
+      <c r="BA150">
+        <v>2</v>
+      </c>
+      <c r="BB150">
+        <v>4</v>
+      </c>
+      <c r="BC150">
+        <v>6</v>
+      </c>
+      <c r="BD150">
+        <v>1.34</v>
+      </c>
+      <c r="BE150">
+        <v>10</v>
+      </c>
+      <c r="BF150">
+        <v>3.84</v>
+      </c>
+      <c r="BG150">
+        <v>0</v>
+      </c>
+      <c r="BH150">
+        <v>0</v>
+      </c>
+      <c r="BI150">
+        <v>1.15</v>
+      </c>
+      <c r="BJ150">
+        <v>4.75</v>
+      </c>
+      <c r="BK150">
+        <v>1.21</v>
+      </c>
+      <c r="BL150">
+        <v>3.44</v>
+      </c>
+      <c r="BM150">
+        <v>1.39</v>
+      </c>
+      <c r="BN150">
+        <v>2.51</v>
+      </c>
+      <c r="BO150">
+        <v>1.88</v>
+      </c>
+      <c r="BP150">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7697229</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45571.67708333334</v>
+      </c>
+      <c r="F151">
+        <v>3</v>
+      </c>
+      <c r="G151" t="s">
+        <v>75</v>
+      </c>
+      <c r="H151" t="s">
+        <v>73</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>2</v>
+      </c>
+      <c r="M151">
+        <v>2</v>
+      </c>
+      <c r="N151">
+        <v>4</v>
+      </c>
+      <c r="O151" t="s">
+        <v>200</v>
+      </c>
+      <c r="P151" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q151">
+        <v>2.41</v>
+      </c>
+      <c r="R151">
+        <v>2.49</v>
+      </c>
+      <c r="S151">
+        <v>3.46</v>
+      </c>
+      <c r="T151">
+        <v>1.21</v>
+      </c>
+      <c r="U151">
+        <v>4.15</v>
+      </c>
+      <c r="V151">
+        <v>1.93</v>
+      </c>
+      <c r="W151">
+        <v>1.82</v>
+      </c>
+      <c r="X151">
+        <v>3.9</v>
+      </c>
+      <c r="Y151">
+        <v>1.23</v>
+      </c>
+      <c r="Z151">
+        <v>1.9</v>
+      </c>
+      <c r="AA151">
+        <v>3.85</v>
+      </c>
+      <c r="AB151">
+        <v>3.3</v>
+      </c>
+      <c r="AC151">
+        <v>1.01</v>
+      </c>
+      <c r="AD151">
+        <v>20</v>
+      </c>
+      <c r="AE151">
+        <v>1.05</v>
+      </c>
+      <c r="AF151">
+        <v>6.1</v>
+      </c>
+      <c r="AG151">
+        <v>1.32</v>
+      </c>
+      <c r="AH151">
+        <v>3.09</v>
+      </c>
+      <c r="AI151">
+        <v>1.33</v>
+      </c>
+      <c r="AJ151">
+        <v>3.04</v>
+      </c>
+      <c r="AK151">
+        <v>1.32</v>
+      </c>
+      <c r="AL151">
+        <v>1.23</v>
+      </c>
+      <c r="AM151">
+        <v>1.79</v>
+      </c>
+      <c r="AN151">
+        <v>2.42</v>
+      </c>
+      <c r="AO151">
+        <v>1.27</v>
+      </c>
+      <c r="AP151">
+        <v>2.31</v>
+      </c>
+      <c r="AQ151">
+        <v>1.25</v>
+      </c>
+      <c r="AR151">
+        <v>2.15</v>
+      </c>
+      <c r="AS151">
+        <v>2.1</v>
+      </c>
+      <c r="AT151">
+        <v>4.25</v>
+      </c>
+      <c r="AU151">
+        <v>4</v>
+      </c>
+      <c r="AV151">
+        <v>5</v>
+      </c>
+      <c r="AW151">
+        <v>7</v>
+      </c>
+      <c r="AX151">
+        <v>3</v>
+      </c>
+      <c r="AY151">
+        <v>21</v>
+      </c>
+      <c r="AZ151">
+        <v>10</v>
+      </c>
+      <c r="BA151">
+        <v>10</v>
+      </c>
+      <c r="BB151">
+        <v>3</v>
+      </c>
+      <c r="BC151">
+        <v>13</v>
+      </c>
+      <c r="BD151">
+        <v>1.69</v>
+      </c>
+      <c r="BE151">
+        <v>9</v>
+      </c>
+      <c r="BF151">
+        <v>2.52</v>
+      </c>
+      <c r="BG151">
+        <v>0</v>
+      </c>
+      <c r="BH151">
+        <v>0</v>
+      </c>
+      <c r="BI151">
+        <v>1.1</v>
+      </c>
+      <c r="BJ151">
+        <v>4.85</v>
+      </c>
+      <c r="BK151">
+        <v>1.22</v>
+      </c>
+      <c r="BL151">
+        <v>3.35</v>
+      </c>
+      <c r="BM151">
+        <v>1.42</v>
+      </c>
+      <c r="BN151">
+        <v>2.49</v>
+      </c>
+      <c r="BO151">
+        <v>1.95</v>
+      </c>
+      <c r="BP151">
+        <v>1.85</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -31777,7 +31777,7 @@
         <v>45571.58333333334</v>
       </c>
       <c r="F149">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G149" t="s">
         <v>77</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -29201,25 +29201,25 @@
         <v>2.55</v>
       </c>
       <c r="AN136">
-        <v>2.36</v>
+        <v>2.23</v>
       </c>
       <c r="AO136">
-        <v>1.18</v>
+        <v>1.55</v>
       </c>
       <c r="AP136">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ136">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="AR136">
-        <v>2.2</v>
+        <v>2.03</v>
       </c>
       <c r="AS136">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT136">
-        <v>3.83</v>
+        <v>3.74</v>
       </c>
       <c r="AU136">
         <v>5</v>
@@ -29407,25 +29407,25 @@
         <v>2.15</v>
       </c>
       <c r="AN137">
-        <v>2.18</v>
+        <v>1.73</v>
       </c>
       <c r="AO137">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="AP137">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="AQ137">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="AR137">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="AS137">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="AT137">
-        <v>4.06</v>
+        <v>3.99</v>
       </c>
       <c r="AU137">
         <v>9</v>
@@ -29819,25 +29819,25 @@
         <v>2.44</v>
       </c>
       <c r="AN139">
-        <v>2.36</v>
+        <v>2.23</v>
       </c>
       <c r="AO139">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AP139">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ139">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AR139">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AS139">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="AT139">
-        <v>4.05</v>
+        <v>3.94</v>
       </c>
       <c r="AU139">
         <v>9</v>
@@ -30437,25 +30437,25 @@
         <v>1.44</v>
       </c>
       <c r="AN142">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AO142">
-        <v>2.09</v>
+        <v>2.26</v>
       </c>
       <c r="AP142">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ142">
-        <v>2.17</v>
+        <v>2.24</v>
       </c>
       <c r="AR142">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="AS142">
-        <v>1.86</v>
+        <v>2.01</v>
       </c>
       <c r="AT142">
-        <v>3.8</v>
+        <v>3.88</v>
       </c>
       <c r="AU142">
         <v>2</v>
@@ -30849,25 +30849,25 @@
         <v>1.45</v>
       </c>
       <c r="AN144">
-        <v>2.08</v>
+        <v>1.7</v>
       </c>
       <c r="AO144">
-        <v>2.09</v>
+        <v>2.26</v>
       </c>
       <c r="AP144">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="AQ144">
-        <v>2.17</v>
+        <v>2.24</v>
       </c>
       <c r="AR144">
-        <v>2.26</v>
+        <v>2.19</v>
       </c>
       <c r="AS144">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="AT144">
-        <v>4.15</v>
+        <v>4.24</v>
       </c>
       <c r="AU144">
         <v>5</v>
@@ -31055,25 +31055,25 @@
         <v>1.85</v>
       </c>
       <c r="AN145">
-        <v>2.09</v>
+        <v>1.52</v>
       </c>
       <c r="AO145">
-        <v>1.08</v>
+        <v>1.48</v>
       </c>
       <c r="AP145">
-        <v>2.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ145">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="AR145">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="AS145">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="AT145">
-        <v>3.42</v>
+        <v>3.51</v>
       </c>
       <c r="AU145">
         <v>4</v>
@@ -31673,25 +31673,25 @@
         <v>1.44</v>
       </c>
       <c r="AN148">
-        <v>1.91</v>
+        <v>1.42</v>
       </c>
       <c r="AO148">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AP148">
-        <v>2</v>
+        <v>1.48</v>
       </c>
       <c r="AQ148">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AR148">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
       <c r="AS148">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="AT148">
-        <v>3.58</v>
+        <v>3.51</v>
       </c>
       <c r="AU148">
         <v>7</v>
@@ -32085,25 +32085,25 @@
         <v>2.3</v>
       </c>
       <c r="AN150">
-        <v>2.42</v>
+        <v>2.29</v>
       </c>
       <c r="AO150">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="AP150">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ150">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="AR150">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AS150">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="AT150">
-        <v>4.02</v>
+        <v>3.87</v>
       </c>
       <c r="AU150">
         <v>8</v>
@@ -32291,25 +32291,25 @@
         <v>1.79</v>
       </c>
       <c r="AN151">
-        <v>2.42</v>
+        <v>2.29</v>
       </c>
       <c r="AO151">
-        <v>1.27</v>
+        <v>1.63</v>
       </c>
       <c r="AP151">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ151">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR151">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="AS151">
-        <v>2.1</v>
+        <v>2.17</v>
       </c>
       <c r="AT151">
-        <v>4.25</v>
+        <v>4.19</v>
       </c>
       <c r="AU151">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2024.xlsx
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.54</v>
+        <v>1.2</v>
       </c>
       <c r="AQ3">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2015,10 +2015,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AQ4">
-        <v>0.62</v>
+        <v>0.88</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2221,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2427,10 +2427,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="AQ6">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2633,10 +2633,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ7">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>2.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ8">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AS8">
         <v>2.36</v>
       </c>
       <c r="AT8">
-        <v>2.36</v>
+        <v>3.94</v>
       </c>
       <c r="AU8">
         <v>3</v>
@@ -3045,10 +3045,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ9">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>1.31</v>
@@ -3251,10 +3251,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AQ10">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AR10">
         <v>2.8</v>
@@ -3451,25 +3451,25 @@
         <v>1.53</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.17</v>
+        <v>0.88</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="AS11">
         <v>1.04</v>
       </c>
       <c r="AT11">
-        <v>1.04</v>
+        <v>1.67</v>
       </c>
       <c r="AU11">
         <v>5</v>
@@ -3660,22 +3660,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="AQ12">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR12">
         <v>1.36</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AT12">
-        <v>1.36</v>
+        <v>3.32</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -3866,22 +3866,22 @@
         <v>3</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.54</v>
+        <v>1.2</v>
       </c>
       <c r="AQ13">
-        <v>2.17</v>
+        <v>2.24</v>
       </c>
       <c r="AR13">
         <v>1.23</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AT13">
-        <v>1.23</v>
+        <v>2.77</v>
       </c>
       <c r="AU13">
         <v>6</v>
@@ -4072,22 +4072,22 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP14">
-        <v>2.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ14">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR14">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="AS14">
-        <v>2.58</v>
+        <v>2.27</v>
       </c>
       <c r="AT14">
-        <v>3.89</v>
+        <v>3.72</v>
       </c>
       <c r="AU14">
         <v>5</v>
@@ -4275,25 +4275,25 @@
         <v>1.32</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO15">
         <v>1.5</v>
       </c>
       <c r="AP15">
-        <v>1.17</v>
+        <v>0.88</v>
       </c>
       <c r="AQ15">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AR15">
-        <v>1.21</v>
+        <v>0.92</v>
       </c>
       <c r="AS15">
         <v>1.58</v>
       </c>
       <c r="AT15">
-        <v>2.79</v>
+        <v>2.5</v>
       </c>
       <c r="AU15">
         <v>4</v>
@@ -4481,25 +4481,25 @@
         <v>2.3</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AQ16">
-        <v>0.83</v>
+        <v>1.2</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>3.81</v>
       </c>
       <c r="AU16">
         <v>3</v>
@@ -4693,10 +4693,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AQ17">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>2.26</v>
@@ -4893,25 +4893,25 @@
         <v>1.65</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.48</v>
       </c>
       <c r="AQ18">
-        <v>0.46</v>
+        <v>0.72</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AU18">
         <v>11</v>
@@ -5102,22 +5102,22 @@
         <v>3</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP19">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ19">
-        <v>2.17</v>
+        <v>2.24</v>
       </c>
       <c r="AR19">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AT19">
-        <v>1.54</v>
+        <v>3.48</v>
       </c>
       <c r="AU19">
         <v>7</v>
@@ -5305,25 +5305,25 @@
         <v>1.48</v>
       </c>
       <c r="AN20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO20">
         <v>2</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>1.48</v>
       </c>
       <c r="AQ20">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AR20">
-        <v>2.58</v>
+        <v>2.17</v>
       </c>
       <c r="AS20">
         <v>1.79</v>
       </c>
       <c r="AT20">
-        <v>4.37</v>
+        <v>3.96</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5511,25 +5511,25 @@
         <v>1.53</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO21">
+        <v>0.33</v>
+      </c>
+      <c r="AP21">
         <v>1</v>
       </c>
-      <c r="AP21">
-        <v>1.25</v>
-      </c>
       <c r="AQ21">
-        <v>0.62</v>
+        <v>0.88</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS21">
-        <v>0.63</v>
+        <v>1.01</v>
       </c>
       <c r="AT21">
-        <v>0.63</v>
+        <v>2.04</v>
       </c>
       <c r="AU21">
         <v>6</v>
@@ -5720,22 +5720,22 @@
         <v>3</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP22">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ22">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR22">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="AS22">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AT22">
-        <v>1.78</v>
+        <v>3.62</v>
       </c>
       <c r="AU22">
         <v>11</v>
@@ -5923,25 +5923,25 @@
         <v>1.39</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP23">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AQ23">
-        <v>2.17</v>
+        <v>2.24</v>
       </c>
       <c r="AR23">
-        <v>1.8</v>
+        <v>2.22</v>
       </c>
       <c r="AS23">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="AT23">
-        <v>3.5</v>
+        <v>4.06</v>
       </c>
       <c r="AU23">
         <v>6</v>
@@ -6129,25 +6129,25 @@
         <v>2.66</v>
       </c>
       <c r="AN24">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP24">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="AQ24">
-        <v>0.83</v>
+        <v>1.2</v>
       </c>
       <c r="AR24">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="AS24">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="AT24">
-        <v>3.54</v>
+        <v>3.49</v>
       </c>
       <c r="AU24">
         <v>3</v>
@@ -6335,25 +6335,25 @@
         <v>1.28</v>
       </c>
       <c r="AN25">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="AR25">
-        <v>1.51</v>
+        <v>1.64</v>
       </c>
       <c r="AS25">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="AT25">
-        <v>3.09</v>
+        <v>3.11</v>
       </c>
       <c r="AU25">
         <v>6</v>
@@ -6541,25 +6541,25 @@
         <v>3</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AO26">
+        <v>1.5</v>
+      </c>
+      <c r="AP26">
+        <v>1.32</v>
+      </c>
+      <c r="AQ26">
         <v>1</v>
       </c>
-      <c r="AP26">
-        <v>1.33</v>
-      </c>
-      <c r="AQ26">
-        <v>0.77</v>
-      </c>
       <c r="AR26">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AS26">
-        <v>1.03</v>
+        <v>1.27</v>
       </c>
       <c r="AT26">
-        <v>1.03</v>
+        <v>3.07</v>
       </c>
       <c r="AU26">
         <v>7</v>
@@ -6747,25 +6747,25 @@
         <v>1.32</v>
       </c>
       <c r="AN27">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AO27">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AQ27">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AR27">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="AS27">
-        <v>2.43</v>
+        <v>2.16</v>
       </c>
       <c r="AT27">
-        <v>4.34</v>
+        <v>3.98</v>
       </c>
       <c r="AU27">
         <v>5</v>
@@ -6959,19 +6959,19 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>2.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="AR28">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="AS28">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="AT28">
-        <v>3.39</v>
+        <v>3.48</v>
       </c>
       <c r="AU28">
         <v>10</v>
@@ -7159,25 +7159,25 @@
         <v>1.07</v>
       </c>
       <c r="AN29">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AO29">
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.17</v>
+        <v>0.88</v>
       </c>
       <c r="AQ29">
-        <v>2.17</v>
+        <v>2.24</v>
       </c>
       <c r="AR29">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="AS29">
-        <v>1.58</v>
+        <v>1.93</v>
       </c>
       <c r="AT29">
-        <v>2.78</v>
+        <v>3.09</v>
       </c>
       <c r="AU29">
         <v>5</v>
@@ -7365,25 +7365,25 @@
         <v>1.85</v>
       </c>
       <c r="AN30">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP30">
-        <v>1.54</v>
+        <v>1.2</v>
       </c>
       <c r="AQ30">
-        <v>0.46</v>
+        <v>0.72</v>
       </c>
       <c r="AR30">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="AS30">
-        <v>1.89</v>
+        <v>1.64</v>
       </c>
       <c r="AT30">
-        <v>3.27</v>
+        <v>3.15</v>
       </c>
       <c r="AU30">
         <v>9</v>
@@ -7571,25 +7571,25 @@
         <v>2.03</v>
       </c>
       <c r="AN31">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AO31">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP31">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ31">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR31">
+        <v>1.95</v>
+      </c>
+      <c r="AS31">
         <v>1.92</v>
       </c>
-      <c r="AS31">
-        <v>2.08</v>
-      </c>
       <c r="AT31">
-        <v>4</v>
+        <v>3.87</v>
       </c>
       <c r="AU31">
         <v>7</v>
@@ -7777,25 +7777,25 @@
         <v>2.25</v>
       </c>
       <c r="AN32">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO32">
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>2.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ32">
-        <v>0.83</v>
+        <v>1.2</v>
       </c>
       <c r="AR32">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="AS32">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT32">
-        <v>3.38</v>
+        <v>3.23</v>
       </c>
       <c r="AU32">
         <v>3</v>
@@ -7983,25 +7983,25 @@
         <v>1.9</v>
       </c>
       <c r="AN33">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AO33">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>1.48</v>
       </c>
       <c r="AQ33">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="AR33">
-        <v>2.09</v>
+        <v>1.96</v>
       </c>
       <c r="AS33">
-        <v>1.08</v>
+        <v>1.26</v>
       </c>
       <c r="AT33">
-        <v>3.17</v>
+        <v>3.22</v>
       </c>
       <c r="AU33">
         <v>12</v>
@@ -8189,25 +8189,25 @@
         <v>2.38</v>
       </c>
       <c r="AN34">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AO34">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AP34">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="AQ34">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR34">
-        <v>1.75</v>
+        <v>1.96</v>
       </c>
       <c r="AS34">
-        <v>1.54</v>
+        <v>1.82</v>
       </c>
       <c r="AT34">
-        <v>3.29</v>
+        <v>3.78</v>
       </c>
       <c r="AU34">
         <v>5</v>
@@ -8395,25 +8395,25 @@
         <v>2.96</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AO35">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AP35">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AQ35">
-        <v>0.62</v>
+        <v>0.88</v>
       </c>
       <c r="AR35">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="AS35">
         <v>1.13</v>
       </c>
       <c r="AT35">
-        <v>3.03</v>
+        <v>3.15</v>
       </c>
       <c r="AU35">
         <v>7</v>
@@ -8601,25 +8601,25 @@
         <v>2.45</v>
       </c>
       <c r="AN36">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AO36">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AP36">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ36">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AR36">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="AS36">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AT36">
-        <v>3.85</v>
+        <v>3.86</v>
       </c>
       <c r="AU36">
         <v>4</v>
@@ -8807,25 +8807,25 @@
         <v>1.12</v>
       </c>
       <c r="AN37">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="AO37">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="AQ37">
-        <v>2.17</v>
+        <v>2.24</v>
       </c>
       <c r="AR37">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="AS37">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="AT37">
-        <v>3.54</v>
+        <v>3.63</v>
       </c>
       <c r="AU37">
         <v>9</v>
@@ -9013,25 +9013,25 @@
         <v>1.06</v>
       </c>
       <c r="AN38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO38">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="AP38">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
-        <v>2.17</v>
+        <v>2.24</v>
       </c>
       <c r="AR38">
-        <v>1.97</v>
+        <v>1.29</v>
       </c>
       <c r="AS38">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="AT38">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="AU38">
         <v>2</v>
@@ -9219,25 +9219,25 @@
         <v>1.73</v>
       </c>
       <c r="AN39">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AO39">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AP39">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AQ39">
-        <v>0.46</v>
+        <v>0.72</v>
       </c>
       <c r="AR39">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="AS39">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="AT39">
-        <v>3.53</v>
+        <v>3.43</v>
       </c>
       <c r="AU39">
         <v>8</v>
@@ -9425,25 +9425,25 @@
         <v>1.67</v>
       </c>
       <c r="AN40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO40">
-        <v>2.33</v>
+        <v>1.17</v>
       </c>
       <c r="AP40">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ40">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AR40">
-        <v>2.29</v>
+        <v>1.81</v>
       </c>
       <c r="AS40">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AT40">
-        <v>4.4</v>
+        <v>3.87</v>
       </c>
       <c r="AU40">
         <v>6</v>
@@ -9631,25 +9631,25 @@
         <v>1.57</v>
       </c>
       <c r="AN41">
+        <v>1.83</v>
+      </c>
+      <c r="AO41">
+        <v>1.5</v>
+      </c>
+      <c r="AP41">
+        <v>1.2</v>
+      </c>
+      <c r="AQ41">
+        <v>1.48</v>
+      </c>
+      <c r="AR41">
+        <v>1.58</v>
+      </c>
+      <c r="AS41">
         <v>2</v>
       </c>
-      <c r="AO41">
-        <v>1</v>
-      </c>
-      <c r="AP41">
-        <v>1.54</v>
-      </c>
-      <c r="AQ41">
-        <v>1</v>
-      </c>
-      <c r="AR41">
-        <v>1.57</v>
-      </c>
-      <c r="AS41">
-        <v>1.87</v>
-      </c>
       <c r="AT41">
-        <v>3.44</v>
+        <v>3.58</v>
       </c>
       <c r="AU41">
         <v>7</v>
@@ -9837,25 +9837,25 @@
         <v>1.14</v>
       </c>
       <c r="AN42">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO42">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AP42">
-        <v>1.17</v>
+        <v>0.88</v>
       </c>
       <c r="AQ42">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR42">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="AS42">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="AT42">
-        <v>3.23</v>
+        <v>3.14</v>
       </c>
       <c r="AU42">
         <v>4</v>
@@ -10046,22 +10046,22 @@
         <v>2</v>
       </c>
       <c r="AO43">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AP43">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="AR43">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="AS43">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="AT43">
-        <v>3.54</v>
+        <v>3.58</v>
       </c>
       <c r="AU43">
         <v>8</v>
@@ -10249,25 +10249,25 @@
         <v>2.3</v>
       </c>
       <c r="AN44">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AO44">
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="AP44">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AQ44">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="AR44">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="AS44">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AT44">
-        <v>3.16</v>
+        <v>3.23</v>
       </c>
       <c r="AU44">
         <v>8</v>
@@ -10455,25 +10455,25 @@
         <v>1.11</v>
       </c>
       <c r="AN45">
-        <v>2</v>
+        <v>1.43</v>
       </c>
       <c r="AO45">
-        <v>2</v>
+        <v>2.57</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>1.48</v>
       </c>
       <c r="AQ45">
-        <v>2.17</v>
+        <v>2.24</v>
       </c>
       <c r="AR45">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="AS45">
         <v>1.88</v>
       </c>
       <c r="AT45">
-        <v>4.02</v>
+        <v>3.85</v>
       </c>
       <c r="AU45">
         <v>3</v>
@@ -10661,25 +10661,25 @@
         <v>2.25</v>
       </c>
       <c r="AN46">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO46">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AP46">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="AQ46">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AR46">
-        <v>1.74</v>
+        <v>2.13</v>
       </c>
       <c r="AS46">
-        <v>1.71</v>
+        <v>1.89</v>
       </c>
       <c r="AT46">
-        <v>3.45</v>
+        <v>4.02</v>
       </c>
       <c r="AU46">
         <v>6</v>
@@ -10867,25 +10867,25 @@
         <v>1.88</v>
       </c>
       <c r="AN47">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="AO47">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AP47">
-        <v>2.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ47">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR47">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="AS47">
-        <v>1.42</v>
+        <v>1.73</v>
       </c>
       <c r="AT47">
-        <v>3.09</v>
+        <v>3.51</v>
       </c>
       <c r="AU47">
         <v>10</v>
@@ -11073,25 +11073,25 @@
         <v>1.3</v>
       </c>
       <c r="AN48">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AO48">
+        <v>2.14</v>
+      </c>
+      <c r="AP48">
+        <v>1.2</v>
+      </c>
+      <c r="AQ48">
+        <v>2.24</v>
+      </c>
+      <c r="AR48">
+        <v>1.63</v>
+      </c>
+      <c r="AS48">
         <v>2</v>
       </c>
-      <c r="AP48">
-        <v>1.54</v>
-      </c>
-      <c r="AQ48">
-        <v>2.17</v>
-      </c>
-      <c r="AR48">
-        <v>1.66</v>
-      </c>
-      <c r="AS48">
-        <v>1.88</v>
-      </c>
       <c r="AT48">
-        <v>3.54</v>
+        <v>3.63</v>
       </c>
       <c r="AU48">
         <v>4</v>
@@ -11279,25 +11279,25 @@
         <v>1.65</v>
       </c>
       <c r="AN49">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="AO49">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="AQ49">
-        <v>0.62</v>
+        <v>0.88</v>
       </c>
       <c r="AR49">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="AS49">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AT49">
-        <v>3.04</v>
+        <v>2.99</v>
       </c>
       <c r="AU49">
         <v>10</v>
@@ -11485,25 +11485,25 @@
         <v>1.8</v>
       </c>
       <c r="AN50">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AO50">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AP50">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="AR50">
-        <v>1.74</v>
+        <v>2.08</v>
       </c>
       <c r="AS50">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AT50">
-        <v>3.67</v>
+        <v>3.89</v>
       </c>
       <c r="AU50">
         <v>8</v>
@@ -11694,22 +11694,22 @@
         <v>2.25</v>
       </c>
       <c r="AO51">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AP51">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ51">
-        <v>2.17</v>
+        <v>2.24</v>
       </c>
       <c r="AR51">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="AS51">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="AT51">
-        <v>4.06</v>
+        <v>3.99</v>
       </c>
       <c r="AU51">
         <v>5</v>
@@ -11897,25 +11897,25 @@
         <v>1.9</v>
       </c>
       <c r="AN52">
+        <v>1.63</v>
+      </c>
+      <c r="AO52">
         <v>1.5</v>
       </c>
-      <c r="AO52">
-        <v>1.67</v>
-      </c>
       <c r="AP52">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ52">
-        <v>0.83</v>
+        <v>1.2</v>
       </c>
       <c r="AR52">
-        <v>2.33</v>
+        <v>1.91</v>
       </c>
       <c r="AS52">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AT52">
-        <v>3.92</v>
+        <v>3.53</v>
       </c>
       <c r="AU52">
         <v>7</v>
@@ -12103,25 +12103,25 @@
         <v>1.66</v>
       </c>
       <c r="AN53">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="AO53">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP53">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="AR53">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="AS53">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="AT53">
-        <v>3.71</v>
+        <v>3.7</v>
       </c>
       <c r="AU53">
         <v>8</v>
@@ -12309,25 +12309,25 @@
         <v>1.12</v>
       </c>
       <c r="AN54">
-        <v>1.5</v>
+        <v>0.88</v>
       </c>
       <c r="AO54">
-        <v>0.75</v>
+        <v>1.44</v>
       </c>
       <c r="AP54">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="AR54">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="AS54">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="AT54">
-        <v>3.18</v>
+        <v>3.05</v>
       </c>
       <c r="AU54">
         <v>7</v>
@@ -12515,25 +12515,25 @@
         <v>4.15</v>
       </c>
       <c r="AN55">
-        <v>3</v>
+        <v>2.44</v>
       </c>
       <c r="AO55">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ55">
-        <v>0.46</v>
+        <v>0.72</v>
       </c>
       <c r="AR55">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AS55">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="AT55">
-        <v>3.63</v>
+        <v>3.72</v>
       </c>
       <c r="AU55">
         <v>10</v>
@@ -12721,25 +12721,25 @@
         <v>1.06</v>
       </c>
       <c r="AN56">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AO56">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AP56">
-        <v>1.17</v>
+        <v>0.88</v>
       </c>
       <c r="AQ56">
-        <v>2.17</v>
+        <v>2.24</v>
       </c>
       <c r="AR56">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AS56">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="AT56">
-        <v>3.25</v>
+        <v>3.31</v>
       </c>
       <c r="AU56">
         <v>4</v>
@@ -12927,25 +12927,25 @@
         <v>1.38</v>
       </c>
       <c r="AN57">
-        <v>0.25</v>
+        <v>1.38</v>
       </c>
       <c r="AO57">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AQ57">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR57">
         <v>2.05</v>
       </c>
       <c r="AS57">
-        <v>2.42</v>
+        <v>2.05</v>
       </c>
       <c r="AT57">
-        <v>4.47</v>
+        <v>4.1</v>
       </c>
       <c r="AU57">
         <v>8</v>
@@ -13133,25 +13133,25 @@
         <v>1.89</v>
       </c>
       <c r="AN58">
-        <v>0.8</v>
+        <v>0.44</v>
       </c>
       <c r="AO58">
-        <v>0.67</v>
+        <v>1.11</v>
       </c>
       <c r="AP58">
+        <v>0.72</v>
+      </c>
+      <c r="AQ58">
         <v>1</v>
       </c>
-      <c r="AQ58">
-        <v>0.77</v>
-      </c>
       <c r="AR58">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AS58">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AT58">
-        <v>3.19</v>
+        <v>3.12</v>
       </c>
       <c r="AU58">
         <v>11</v>
@@ -13339,25 +13339,25 @@
         <v>1.5</v>
       </c>
       <c r="AN59">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AO59">
-        <v>2.5</v>
+        <v>1.22</v>
       </c>
       <c r="AP59">
-        <v>2</v>
+        <v>1.48</v>
       </c>
       <c r="AQ59">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AR59">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="AS59">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="AT59">
-        <v>3.97</v>
+        <v>3.81</v>
       </c>
       <c r="AU59">
         <v>7</v>
@@ -13545,25 +13545,25 @@
         <v>1.62</v>
       </c>
       <c r="AN60">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AO60">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AP60">
-        <v>2.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ60">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AR60">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="AS60">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="AT60">
-        <v>3.5</v>
+        <v>3.71</v>
       </c>
       <c r="AU60">
         <v>10</v>
@@ -13751,25 +13751,25 @@
         <v>2.2</v>
       </c>
       <c r="AN61">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AO61">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AP61">
-        <v>1.54</v>
+        <v>1.2</v>
       </c>
       <c r="AQ61">
-        <v>0.62</v>
+        <v>0.88</v>
       </c>
       <c r="AR61">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="AS61">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="AT61">
-        <v>3.08</v>
+        <v>2.84</v>
       </c>
       <c r="AU61">
         <v>6</v>
@@ -13957,25 +13957,25 @@
         <v>1.46</v>
       </c>
       <c r="AN62">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AO62">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AP62">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="AQ62">
-        <v>2.17</v>
+        <v>2.24</v>
       </c>
       <c r="AR62">
-        <v>1.76</v>
+        <v>1.99</v>
       </c>
       <c r="AS62">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AT62">
-        <v>3.59</v>
+        <v>3.89</v>
       </c>
       <c r="AU62">
         <v>10</v>
@@ -14163,25 +14163,25 @@
         <v>2.68</v>
       </c>
       <c r="AN63">
+        <v>2.2</v>
+      </c>
+      <c r="AO63">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP63">
+        <v>2.24</v>
+      </c>
+      <c r="AQ63">
+        <v>1.24</v>
+      </c>
+      <c r="AR63">
         <v>2</v>
       </c>
-      <c r="AO63">
-        <v>0</v>
-      </c>
-      <c r="AP63">
-        <v>2.31</v>
-      </c>
-      <c r="AQ63">
-        <v>1.25</v>
-      </c>
-      <c r="AR63">
-        <v>1.93</v>
-      </c>
       <c r="AS63">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="AT63">
-        <v>3.65</v>
+        <v>3.84</v>
       </c>
       <c r="AU63">
         <v>6</v>
@@ -14369,25 +14369,25 @@
         <v>1.15</v>
       </c>
       <c r="AN64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO64">
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR64">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AS64">
-        <v>2.22</v>
+        <v>2.03</v>
       </c>
       <c r="AT64">
-        <v>3.59</v>
+        <v>3.33</v>
       </c>
       <c r="AU64">
         <v>3</v>
@@ -14575,25 +14575,25 @@
         <v>1.17</v>
       </c>
       <c r="AN65">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AO65">
-        <v>0.6</v>
+        <v>1.45</v>
       </c>
       <c r="AP65">
-        <v>1.17</v>
+        <v>0.88</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="AR65">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="AS65">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="AT65">
-        <v>3.06</v>
+        <v>3.1</v>
       </c>
       <c r="AU65">
         <v>5</v>
@@ -14781,25 +14781,25 @@
         <v>2.65</v>
       </c>
       <c r="AN66">
-        <v>3</v>
+        <v>2.36</v>
       </c>
       <c r="AO66">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="AP66">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ66">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AR66">
+        <v>1.86</v>
+      </c>
+      <c r="AS66">
         <v>1.97</v>
       </c>
-      <c r="AS66">
-        <v>2.02</v>
-      </c>
       <c r="AT66">
-        <v>3.99</v>
+        <v>3.83</v>
       </c>
       <c r="AU66">
         <v>9</v>
@@ -14987,22 +14987,22 @@
         <v>1.85</v>
       </c>
       <c r="AN67">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="AO67">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AP67">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AQ67">
-        <v>0.83</v>
+        <v>1.2</v>
       </c>
       <c r="AR67">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="AS67">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="AT67">
         <v>3.36</v>
@@ -15193,25 +15193,25 @@
         <v>2.85</v>
       </c>
       <c r="AN68">
-        <v>2.17</v>
+        <v>2.27</v>
       </c>
       <c r="AO68">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AP68">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="AR68">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="AS68">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="AT68">
-        <v>3.74</v>
+        <v>3.89</v>
       </c>
       <c r="AU68">
         <v>10</v>
@@ -15399,25 +15399,25 @@
         <v>2.45</v>
       </c>
       <c r="AN69">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AO69">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AP69">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ69">
-        <v>0.46</v>
+        <v>0.72</v>
       </c>
       <c r="AR69">
-        <v>2.15</v>
+        <v>1.89</v>
       </c>
       <c r="AS69">
-        <v>1.7</v>
+        <v>1.89</v>
       </c>
       <c r="AT69">
-        <v>3.85</v>
+        <v>3.78</v>
       </c>
       <c r="AU69">
         <v>6</v>
@@ -15605,25 +15605,25 @@
         <v>1.3</v>
       </c>
       <c r="AN70">
-        <v>1.5</v>
+        <v>0.91</v>
       </c>
       <c r="AO70">
+        <v>1.18</v>
+      </c>
+      <c r="AP70">
+        <v>1</v>
+      </c>
+      <c r="AQ70">
         <v>1.2</v>
-      </c>
-      <c r="AP70">
-        <v>1.25</v>
-      </c>
-      <c r="AQ70">
-        <v>0.83</v>
       </c>
       <c r="AR70">
         <v>1.27</v>
       </c>
       <c r="AS70">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="AT70">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="AU70">
         <v>2</v>
@@ -15811,25 +15811,25 @@
         <v>1.25</v>
       </c>
       <c r="AN71">
-        <v>2.17</v>
+        <v>1.33</v>
       </c>
       <c r="AO71">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AP71">
-        <v>2.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ71">
-        <v>2.17</v>
+        <v>2.24</v>
       </c>
       <c r="AR71">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AS71">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="AT71">
-        <v>3.56</v>
+        <v>3.82</v>
       </c>
       <c r="AU71">
         <v>4</v>
@@ -16017,25 +16017,25 @@
         <v>2.25</v>
       </c>
       <c r="AN72">
-        <v>0.2</v>
+        <v>1.09</v>
       </c>
       <c r="AO72">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="AP72">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AQ72">
-        <v>0.46</v>
+        <v>0.72</v>
       </c>
       <c r="AR72">
         <v>1.93</v>
       </c>
       <c r="AS72">
-        <v>1.69</v>
+        <v>1.87</v>
       </c>
       <c r="AT72">
-        <v>3.62</v>
+        <v>3.8</v>
       </c>
       <c r="AU72">
         <v>7</v>
@@ -16223,25 +16223,25 @@
         <v>1.22</v>
       </c>
       <c r="AN73">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AO73">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="AP73">
-        <v>1.17</v>
+        <v>0.88</v>
       </c>
       <c r="AQ73">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR73">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AS73">
-        <v>1.62</v>
+        <v>1.81</v>
       </c>
       <c r="AT73">
-        <v>2.8</v>
+        <v>3.07</v>
       </c>
       <c r="AU73">
         <v>3</v>
@@ -16429,25 +16429,25 @@
         <v>1.36</v>
       </c>
       <c r="AN74">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="AO74">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AP74">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ74">
-        <v>2.17</v>
+        <v>2.24</v>
       </c>
       <c r="AR74">
+        <v>1.89</v>
+      </c>
+      <c r="AS74">
         <v>2.07</v>
       </c>
-      <c r="AS74">
-        <v>2.06</v>
-      </c>
       <c r="AT74">
-        <v>4.13</v>
+        <v>3.96</v>
       </c>
       <c r="AU74">
         <v>2</v>
@@ -16635,25 +16635,25 @@
         <v>1.18</v>
       </c>
       <c r="AN75">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AO75">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>1.48</v>
       </c>
       <c r="AQ75">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR75">
-        <v>1.99</v>
+        <v>1.79</v>
       </c>
       <c r="AS75">
-        <v>2.32</v>
+        <v>2.09</v>
       </c>
       <c r="AT75">
-        <v>4.31</v>
+        <v>3.88</v>
       </c>
       <c r="AU75">
         <v>7</v>
@@ -16841,25 +16841,25 @@
         <v>3</v>
       </c>
       <c r="AN76">
-        <v>2.67</v>
+        <v>2.31</v>
       </c>
       <c r="AO76">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ76">
-        <v>0.83</v>
+        <v>1.2</v>
       </c>
       <c r="AR76">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AS76">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AT76">
-        <v>3.63</v>
+        <v>3.52</v>
       </c>
       <c r="AU76">
         <v>8</v>
@@ -17047,25 +17047,25 @@
         <v>2.39</v>
       </c>
       <c r="AN77">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO77">
-        <v>1.4</v>
+        <v>1.08</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>1.48</v>
       </c>
       <c r="AQ77">
-        <v>0.62</v>
+        <v>0.88</v>
       </c>
       <c r="AR77">
-        <v>1.96</v>
+        <v>1.79</v>
       </c>
       <c r="AS77">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT77">
-        <v>3.32</v>
+        <v>3.04</v>
       </c>
       <c r="AU77">
         <v>10</v>
@@ -17253,25 +17253,25 @@
         <v>1.66</v>
       </c>
       <c r="AN78">
-        <v>0.33</v>
+        <v>1.08</v>
       </c>
       <c r="AO78">
-        <v>0.5</v>
+        <v>1.23</v>
       </c>
       <c r="AP78">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="AR78">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="AS78">
-        <v>1.98</v>
+        <v>1.81</v>
       </c>
       <c r="AT78">
-        <v>3.87</v>
+        <v>3.72</v>
       </c>
       <c r="AU78">
         <v>7</v>
@@ -17459,25 +17459,25 @@
         <v>1.08</v>
       </c>
       <c r="AN79">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
       <c r="AO79">
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ79">
-        <v>2.17</v>
+        <v>2.24</v>
       </c>
       <c r="AR79">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AS79">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="AT79">
-        <v>3.11</v>
+        <v>3.24</v>
       </c>
       <c r="AU79">
         <v>7</v>
@@ -17665,25 +17665,25 @@
         <v>3.48</v>
       </c>
       <c r="AN80">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AO80">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="AP80">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="AQ80">
-        <v>0.46</v>
+        <v>0.72</v>
       </c>
       <c r="AR80">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="AS80">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="AT80">
-        <v>3.44</v>
+        <v>3.88</v>
       </c>
       <c r="AU80">
         <v>9</v>
@@ -17871,25 +17871,25 @@
         <v>1.9</v>
       </c>
       <c r="AN81">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO81">
-        <v>0.6</v>
+        <v>0.92</v>
       </c>
       <c r="AP81">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ81">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR81">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="AS81">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="AT81">
-        <v>3.71</v>
+        <v>3.7</v>
       </c>
       <c r="AU81">
         <v>4</v>
@@ -18077,25 +18077,25 @@
         <v>1.43</v>
       </c>
       <c r="AN82">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AO82">
-        <v>1.83</v>
+        <v>1.08</v>
       </c>
       <c r="AP82">
-        <v>1.54</v>
+        <v>1.2</v>
       </c>
       <c r="AQ82">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AR82">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="AS82">
         <v>1.93</v>
       </c>
       <c r="AT82">
-        <v>3.58</v>
+        <v>3.57</v>
       </c>
       <c r="AU82">
         <v>5</v>
@@ -18283,25 +18283,25 @@
         <v>1.27</v>
       </c>
       <c r="AN83">
-        <v>1.17</v>
+        <v>0.85</v>
       </c>
       <c r="AO83">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="AP83">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR83">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AS83">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="AT83">
-        <v>3.11</v>
+        <v>3.16</v>
       </c>
       <c r="AU83">
         <v>2</v>
@@ -18489,25 +18489,25 @@
         <v>2.8</v>
       </c>
       <c r="AN84">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AO84">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ84">
-        <v>0.62</v>
+        <v>0.88</v>
       </c>
       <c r="AR84">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AS84">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AT84">
-        <v>3.23</v>
+        <v>3.08</v>
       </c>
       <c r="AU84">
         <v>7</v>
@@ -18695,25 +18695,25 @@
         <v>1.33</v>
       </c>
       <c r="AN85">
-        <v>1.17</v>
+        <v>0.62</v>
       </c>
       <c r="AO85">
-        <v>1.33</v>
+        <v>1.77</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="AR85">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="AS85">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="AT85">
-        <v>3.65</v>
+        <v>3.58</v>
       </c>
       <c r="AU85">
         <v>8</v>
@@ -18901,25 +18901,25 @@
         <v>1.53</v>
       </c>
       <c r="AN86">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="AO86">
-        <v>0.57</v>
+        <v>0.79</v>
       </c>
       <c r="AP86">
-        <v>1.17</v>
+        <v>0.88</v>
       </c>
       <c r="AQ86">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="AR86">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AS86">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AT86">
-        <v>2.45</v>
+        <v>2.61</v>
       </c>
       <c r="AU86">
         <v>5</v>
@@ -19107,25 +19107,25 @@
         <v>1.2</v>
       </c>
       <c r="AN87">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AO87">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="AP87">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AQ87">
-        <v>2.17</v>
+        <v>2.24</v>
       </c>
       <c r="AR87">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AS87">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AT87">
-        <v>3.71</v>
+        <v>3.75</v>
       </c>
       <c r="AU87">
         <v>3</v>
@@ -19313,25 +19313,25 @@
         <v>2.3</v>
       </c>
       <c r="AN88">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AO88">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AP88">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ88">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AR88">
-        <v>2.07</v>
+        <v>1.97</v>
       </c>
       <c r="AS88">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="AT88">
-        <v>3.95</v>
+        <v>3.88</v>
       </c>
       <c r="AU88">
         <v>10</v>
@@ -19519,25 +19519,25 @@
         <v>2.4</v>
       </c>
       <c r="AN89">
-        <v>1.86</v>
+        <v>1.21</v>
       </c>
       <c r="AO89">
-        <v>0.14</v>
+        <v>0.79</v>
       </c>
       <c r="AP89">
-        <v>2.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ89">
-        <v>0.46</v>
+        <v>0.72</v>
       </c>
       <c r="AR89">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="AS89">
-        <v>1.57</v>
+        <v>1.77</v>
       </c>
       <c r="AT89">
-        <v>3.24</v>
+        <v>3.53</v>
       </c>
       <c r="AU89">
         <v>7</v>
@@ -19725,25 +19725,25 @@
         <v>2.15</v>
       </c>
       <c r="AN90">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AO90">
-        <v>1.14</v>
+        <v>1.64</v>
       </c>
       <c r="AP90">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="AR90">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="AS90">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="AT90">
-        <v>3.59</v>
+        <v>3.66</v>
       </c>
       <c r="AU90">
         <v>5</v>
@@ -19931,25 +19931,25 @@
         <v>1.12</v>
       </c>
       <c r="AN91">
+        <v>0.8</v>
+      </c>
+      <c r="AO91">
+        <v>1.67</v>
+      </c>
+      <c r="AP91">
         <v>1</v>
       </c>
-      <c r="AO91">
-        <v>1.43</v>
-      </c>
-      <c r="AP91">
-        <v>1.25</v>
-      </c>
       <c r="AQ91">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AR91">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AS91">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT91">
-        <v>3.06</v>
+        <v>3.19</v>
       </c>
       <c r="AU91">
         <v>4</v>
@@ -20137,25 +20137,25 @@
         <v>1.53</v>
       </c>
       <c r="AN92">
-        <v>2.14</v>
+        <v>1.6</v>
       </c>
       <c r="AO92">
-        <v>0.57</v>
+        <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>2</v>
+        <v>1.48</v>
       </c>
       <c r="AQ92">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="AR92">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="AS92">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT92">
-        <v>3.81</v>
+        <v>3.58</v>
       </c>
       <c r="AU92">
         <v>7</v>
@@ -20343,25 +20343,25 @@
         <v>3.9</v>
       </c>
       <c r="AN93">
-        <v>2.71</v>
+        <v>2.2</v>
       </c>
       <c r="AO93">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AP93">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ93">
-        <v>0.62</v>
+        <v>0.88</v>
       </c>
       <c r="AR93">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AS93">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="AT93">
-        <v>3.48</v>
+        <v>3.24</v>
       </c>
       <c r="AU93">
         <v>18</v>
@@ -20549,25 +20549,25 @@
         <v>1.2</v>
       </c>
       <c r="AN94">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AO94">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AP94">
-        <v>1.54</v>
+        <v>1.2</v>
       </c>
       <c r="AQ94">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR94">
         <v>1.62</v>
       </c>
       <c r="AS94">
-        <v>2.27</v>
+        <v>2.1</v>
       </c>
       <c r="AT94">
-        <v>3.89</v>
+        <v>3.72</v>
       </c>
       <c r="AU94">
         <v>6</v>
@@ -20755,16 +20755,16 @@
         <v>1.7</v>
       </c>
       <c r="AN95">
-        <v>0.43</v>
+        <v>0.93</v>
       </c>
       <c r="AO95">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AP95">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AQ95">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR95">
         <v>1.93</v>
@@ -20961,25 +20961,25 @@
         <v>1.45</v>
       </c>
       <c r="AN96">
-        <v>1.43</v>
+        <v>0.73</v>
       </c>
       <c r="AO96">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="AP96">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="AQ96">
-        <v>0.83</v>
+        <v>1.2</v>
       </c>
       <c r="AR96">
-        <v>1.96</v>
+        <v>1.75</v>
       </c>
       <c r="AS96">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AT96">
-        <v>3.59</v>
+        <v>3.37</v>
       </c>
       <c r="AU96">
         <v>4</v>
@@ -21167,25 +21167,25 @@
         <v>1.28</v>
       </c>
       <c r="AN97">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="AO97">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="AP97">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ97">
-        <v>2.17</v>
+        <v>2.24</v>
       </c>
       <c r="AR97">
-        <v>2.01</v>
+        <v>1.86</v>
       </c>
       <c r="AS97">
-        <v>1.82</v>
+        <v>2.03</v>
       </c>
       <c r="AT97">
-        <v>3.83</v>
+        <v>3.89</v>
       </c>
       <c r="AU97">
         <v>4</v>
@@ -21373,25 +21373,25 @@
         <v>1.65</v>
       </c>
       <c r="AN98">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AO98">
-        <v>0.88</v>
+        <v>1.44</v>
       </c>
       <c r="AP98">
-        <v>1.54</v>
+        <v>1.2</v>
       </c>
       <c r="AQ98">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="AR98">
         <v>1.61</v>
       </c>
       <c r="AS98">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AT98">
-        <v>3.56</v>
+        <v>3.46</v>
       </c>
       <c r="AU98">
         <v>7</v>
@@ -21579,25 +21579,25 @@
         <v>3.28</v>
       </c>
       <c r="AN99">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AO99">
-        <v>0.13</v>
+        <v>0.75</v>
       </c>
       <c r="AP99">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ99">
-        <v>0.46</v>
+        <v>0.72</v>
       </c>
       <c r="AR99">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AS99">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="AT99">
-        <v>3.7</v>
+        <v>3.72</v>
       </c>
       <c r="AU99">
         <v>8</v>
@@ -21785,25 +21785,25 @@
         <v>1.3</v>
       </c>
       <c r="AN100">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="AO100">
-        <v>1.63</v>
+        <v>1.87</v>
       </c>
       <c r="AP100">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AQ100">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR100">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="AS100">
-        <v>2.36</v>
+        <v>2.15</v>
       </c>
       <c r="AT100">
-        <v>4.18</v>
+        <v>3.94</v>
       </c>
       <c r="AU100">
         <v>7</v>
@@ -21991,25 +21991,25 @@
         <v>1.28</v>
       </c>
       <c r="AN101">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="AO101">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="AP101">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ101">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="AR101">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="AS101">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT101">
-        <v>2.86</v>
+        <v>3.04</v>
       </c>
       <c r="AU101">
         <v>6</v>
@@ -22197,25 +22197,25 @@
         <v>6.75</v>
       </c>
       <c r="AN102">
-        <v>2.75</v>
+        <v>2.29</v>
       </c>
       <c r="AO102">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AP102">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ102">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="AR102">
-        <v>2.23</v>
+        <v>2.04</v>
       </c>
       <c r="AS102">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT102">
-        <v>3.53</v>
+        <v>3.31</v>
       </c>
       <c r="AU102">
         <v>8</v>
@@ -22403,25 +22403,25 @@
         <v>1.4</v>
       </c>
       <c r="AN103">
-        <v>1.38</v>
+        <v>0.71</v>
       </c>
       <c r="AO103">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AP103">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="AQ103">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR103">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="AS103">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="AT103">
-        <v>3.63</v>
+        <v>3.5</v>
       </c>
       <c r="AU103">
         <v>6</v>
@@ -22609,25 +22609,25 @@
         <v>4.6</v>
       </c>
       <c r="AN104">
-        <v>2.14</v>
+        <v>1.75</v>
       </c>
       <c r="AO104">
         <v>0.88</v>
       </c>
       <c r="AP104">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="AQ104">
-        <v>0.62</v>
+        <v>0.88</v>
       </c>
       <c r="AR104">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="AS104">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT104">
-        <v>3.37</v>
+        <v>3.43</v>
       </c>
       <c r="AU104">
         <v>14</v>
@@ -22815,25 +22815,25 @@
         <v>1.38</v>
       </c>
       <c r="AN105">
-        <v>2</v>
+        <v>1.35</v>
       </c>
       <c r="AO105">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="AP105">
-        <v>2.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ105">
-        <v>2.17</v>
+        <v>2.24</v>
       </c>
       <c r="AR105">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AS105">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="AT105">
-        <v>3.62</v>
+        <v>3.86</v>
       </c>
       <c r="AU105">
         <v>9</v>
@@ -23021,25 +23021,25 @@
         <v>1.58</v>
       </c>
       <c r="AN106">
-        <v>1.88</v>
+        <v>1.47</v>
       </c>
       <c r="AO106">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AP106">
-        <v>2</v>
+        <v>1.48</v>
       </c>
       <c r="AQ106">
-        <v>0.83</v>
+        <v>1.2</v>
       </c>
       <c r="AR106">
-        <v>1.94</v>
+        <v>1.73</v>
       </c>
       <c r="AS106">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="AT106">
-        <v>3.56</v>
+        <v>3.37</v>
       </c>
       <c r="AU106">
         <v>3</v>
@@ -23227,25 +23227,25 @@
         <v>1.5</v>
       </c>
       <c r="AN107">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO107">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="AP107">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AQ107">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AR107">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="AS107">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="AT107">
-        <v>3.69</v>
+        <v>3.79</v>
       </c>
       <c r="AU107">
         <v>5</v>
@@ -23433,25 +23433,25 @@
         <v>1.78</v>
       </c>
       <c r="AN108">
-        <v>2.25</v>
+        <v>1.82</v>
       </c>
       <c r="AO108">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AP108">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="AQ108">
-        <v>2.17</v>
+        <v>2.24</v>
       </c>
       <c r="AR108">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="AS108">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="AT108">
-        <v>4.07</v>
+        <v>4.25</v>
       </c>
       <c r="AU108">
         <v>7</v>
@@ -23639,25 +23639,25 @@
         <v>1.29</v>
       </c>
       <c r="AN109">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="AO109">
-        <v>1.38</v>
+        <v>1.06</v>
       </c>
       <c r="AP109">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ109">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AR109">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AS109">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="AT109">
-        <v>3.18</v>
+        <v>3.22</v>
       </c>
       <c r="AU109">
         <v>5</v>
@@ -23845,25 +23845,25 @@
         <v>1.77</v>
       </c>
       <c r="AN110">
+        <v>1.28</v>
+      </c>
+      <c r="AO110">
+        <v>1.33</v>
+      </c>
+      <c r="AP110">
+        <v>1.24</v>
+      </c>
+      <c r="AQ110">
         <v>1.56</v>
       </c>
-      <c r="AO110">
-        <v>0.78</v>
-      </c>
-      <c r="AP110">
-        <v>1.23</v>
-      </c>
-      <c r="AQ110">
-        <v>1</v>
-      </c>
       <c r="AR110">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="AS110">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="AT110">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AU110">
         <v>5</v>
@@ -24051,25 +24051,25 @@
         <v>1.36</v>
       </c>
       <c r="AN111">
+        <v>0.82</v>
+      </c>
+      <c r="AO111">
+        <v>0.72</v>
+      </c>
+      <c r="AP111">
         <v>0.88</v>
       </c>
-      <c r="AO111">
-        <v>0.11</v>
-      </c>
-      <c r="AP111">
-        <v>1.17</v>
-      </c>
       <c r="AQ111">
-        <v>0.46</v>
+        <v>0.72</v>
       </c>
       <c r="AR111">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="AS111">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="AT111">
-        <v>2.79</v>
+        <v>3.09</v>
       </c>
       <c r="AU111">
         <v>4</v>
@@ -24257,25 +24257,25 @@
         <v>1.36</v>
       </c>
       <c r="AN112">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AO112">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="AP112">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ112">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR112">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="AS112">
-        <v>2.23</v>
+        <v>2.16</v>
       </c>
       <c r="AT112">
-        <v>4.16</v>
+        <v>3.98</v>
       </c>
       <c r="AU112">
         <v>5</v>
@@ -24463,25 +24463,25 @@
         <v>2.38</v>
       </c>
       <c r="AN113">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="AO113">
-        <v>1.11</v>
+        <v>1.44</v>
       </c>
       <c r="AP113">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ113">
-        <v>0.83</v>
+        <v>1.2</v>
       </c>
       <c r="AR113">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="AS113">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AT113">
-        <v>3.77</v>
+        <v>3.64</v>
       </c>
       <c r="AU113">
         <v>5</v>
@@ -24669,25 +24669,25 @@
         <v>2.6</v>
       </c>
       <c r="AN114">
-        <v>2.56</v>
+        <v>2.22</v>
       </c>
       <c r="AO114">
-        <v>1.11</v>
+        <v>1.56</v>
       </c>
       <c r="AP114">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AQ114">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="AR114">
-        <v>2.25</v>
+        <v>2.06</v>
       </c>
       <c r="AS114">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AT114">
-        <v>3.8</v>
+        <v>3.76</v>
       </c>
       <c r="AU114">
         <v>5</v>
@@ -24878,22 +24878,22 @@
         <v>0.78</v>
       </c>
       <c r="AO115">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AP115">
-        <v>1.17</v>
+        <v>0.88</v>
       </c>
       <c r="AQ115">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AR115">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AS115">
         <v>1.96</v>
       </c>
       <c r="AT115">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AU115">
         <v>7</v>
@@ -25081,25 +25081,25 @@
         <v>3</v>
       </c>
       <c r="AN116">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="AO116">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="AP116">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="AQ116">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="AR116">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="AS116">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT116">
-        <v>3.4</v>
+        <v>3.38</v>
       </c>
       <c r="AU116">
         <v>11</v>
@@ -25287,25 +25287,25 @@
         <v>1.5</v>
       </c>
       <c r="AN117">
-        <v>1.78</v>
+        <v>1.37</v>
       </c>
       <c r="AO117">
-        <v>1</v>
+        <v>1.26</v>
       </c>
       <c r="AP117">
-        <v>1.54</v>
+        <v>1.2</v>
       </c>
       <c r="AQ117">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR117">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="AS117">
         <v>1.81</v>
       </c>
       <c r="AT117">
-        <v>3.47</v>
+        <v>3.42</v>
       </c>
       <c r="AU117">
         <v>4</v>
@@ -25493,25 +25493,25 @@
         <v>1.18</v>
       </c>
       <c r="AN118">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="AO118">
-        <v>1.89</v>
+        <v>2.11</v